--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5761,6 +5761,4491 @@
         <v>69</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>15</v>
+      </c>
+      <c r="G83" t="n">
+        <v>22</v>
+      </c>
+      <c r="H83" t="n">
+        <v>23</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27</v>
+      </c>
+      <c r="J83" t="n">
+        <v>30</v>
+      </c>
+      <c r="K83" t="n">
+        <v>44</v>
+      </c>
+      <c r="L83" t="n">
+        <v>49</v>
+      </c>
+      <c r="M83" t="n">
+        <v>50</v>
+      </c>
+      <c r="N83" t="n">
+        <v>51</v>
+      </c>
+      <c r="O83" t="n">
+        <v>56</v>
+      </c>
+      <c r="P83" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>69</v>
+      </c>
+      <c r="R83" t="n">
+        <v>71</v>
+      </c>
+      <c r="S83" t="n">
+        <v>72</v>
+      </c>
+      <c r="T83" t="n">
+        <v>74</v>
+      </c>
+      <c r="U83" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12</v>
+      </c>
+      <c r="G84" t="n">
+        <v>14</v>
+      </c>
+      <c r="H84" t="n">
+        <v>22</v>
+      </c>
+      <c r="I84" t="n">
+        <v>28</v>
+      </c>
+      <c r="J84" t="n">
+        <v>32</v>
+      </c>
+      <c r="K84" t="n">
+        <v>34</v>
+      </c>
+      <c r="L84" t="n">
+        <v>38</v>
+      </c>
+      <c r="M84" t="n">
+        <v>45</v>
+      </c>
+      <c r="N84" t="n">
+        <v>48</v>
+      </c>
+      <c r="O84" t="n">
+        <v>51</v>
+      </c>
+      <c r="P84" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>64</v>
+      </c>
+      <c r="R84" t="n">
+        <v>66</v>
+      </c>
+      <c r="S84" t="n">
+        <v>67</v>
+      </c>
+      <c r="T84" t="n">
+        <v>70</v>
+      </c>
+      <c r="U84" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12</v>
+      </c>
+      <c r="E85" t="n">
+        <v>13</v>
+      </c>
+      <c r="F85" t="n">
+        <v>18</v>
+      </c>
+      <c r="G85" t="n">
+        <v>24</v>
+      </c>
+      <c r="H85" t="n">
+        <v>26</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>35</v>
+      </c>
+      <c r="K85" t="n">
+        <v>37</v>
+      </c>
+      <c r="L85" t="n">
+        <v>43</v>
+      </c>
+      <c r="M85" t="n">
+        <v>44</v>
+      </c>
+      <c r="N85" t="n">
+        <v>47</v>
+      </c>
+      <c r="O85" t="n">
+        <v>49</v>
+      </c>
+      <c r="P85" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>54</v>
+      </c>
+      <c r="R85" t="n">
+        <v>61</v>
+      </c>
+      <c r="S85" t="n">
+        <v>63</v>
+      </c>
+      <c r="T85" t="n">
+        <v>66</v>
+      </c>
+      <c r="U85" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11</v>
+      </c>
+      <c r="E86" t="n">
+        <v>13</v>
+      </c>
+      <c r="F86" t="n">
+        <v>18</v>
+      </c>
+      <c r="G86" t="n">
+        <v>21</v>
+      </c>
+      <c r="H86" t="n">
+        <v>23</v>
+      </c>
+      <c r="I86" t="n">
+        <v>26</v>
+      </c>
+      <c r="J86" t="n">
+        <v>31</v>
+      </c>
+      <c r="K86" t="n">
+        <v>34</v>
+      </c>
+      <c r="L86" t="n">
+        <v>37</v>
+      </c>
+      <c r="M86" t="n">
+        <v>39</v>
+      </c>
+      <c r="N86" t="n">
+        <v>44</v>
+      </c>
+      <c r="O86" t="n">
+        <v>51</v>
+      </c>
+      <c r="P86" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>54</v>
+      </c>
+      <c r="R86" t="n">
+        <v>63</v>
+      </c>
+      <c r="S86" t="n">
+        <v>64</v>
+      </c>
+      <c r="T86" t="n">
+        <v>69</v>
+      </c>
+      <c r="U86" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20</v>
+      </c>
+      <c r="E87" t="n">
+        <v>27</v>
+      </c>
+      <c r="F87" t="n">
+        <v>32</v>
+      </c>
+      <c r="G87" t="n">
+        <v>34</v>
+      </c>
+      <c r="H87" t="n">
+        <v>35</v>
+      </c>
+      <c r="I87" t="n">
+        <v>37</v>
+      </c>
+      <c r="J87" t="n">
+        <v>40</v>
+      </c>
+      <c r="K87" t="n">
+        <v>44</v>
+      </c>
+      <c r="L87" t="n">
+        <v>49</v>
+      </c>
+      <c r="M87" t="n">
+        <v>51</v>
+      </c>
+      <c r="N87" t="n">
+        <v>54</v>
+      </c>
+      <c r="O87" t="n">
+        <v>57</v>
+      </c>
+      <c r="P87" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>61</v>
+      </c>
+      <c r="R87" t="n">
+        <v>64</v>
+      </c>
+      <c r="S87" t="n">
+        <v>69</v>
+      </c>
+      <c r="T87" t="n">
+        <v>74</v>
+      </c>
+      <c r="U87" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="n">
+        <v>18</v>
+      </c>
+      <c r="H88" t="n">
+        <v>30</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>32</v>
+      </c>
+      <c r="K88" t="n">
+        <v>34</v>
+      </c>
+      <c r="L88" t="n">
+        <v>40</v>
+      </c>
+      <c r="M88" t="n">
+        <v>50</v>
+      </c>
+      <c r="N88" t="n">
+        <v>53</v>
+      </c>
+      <c r="O88" t="n">
+        <v>56</v>
+      </c>
+      <c r="P88" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>60</v>
+      </c>
+      <c r="R88" t="n">
+        <v>61</v>
+      </c>
+      <c r="S88" t="n">
+        <v>71</v>
+      </c>
+      <c r="T88" t="n">
+        <v>76</v>
+      </c>
+      <c r="U88" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>19</v>
+      </c>
+      <c r="D89" t="n">
+        <v>27</v>
+      </c>
+      <c r="E89" t="n">
+        <v>31</v>
+      </c>
+      <c r="F89" t="n">
+        <v>32</v>
+      </c>
+      <c r="G89" t="n">
+        <v>37</v>
+      </c>
+      <c r="H89" t="n">
+        <v>39</v>
+      </c>
+      <c r="I89" t="n">
+        <v>41</v>
+      </c>
+      <c r="J89" t="n">
+        <v>46</v>
+      </c>
+      <c r="K89" t="n">
+        <v>48</v>
+      </c>
+      <c r="L89" t="n">
+        <v>56</v>
+      </c>
+      <c r="M89" t="n">
+        <v>57</v>
+      </c>
+      <c r="N89" t="n">
+        <v>58</v>
+      </c>
+      <c r="O89" t="n">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>65</v>
+      </c>
+      <c r="R89" t="n">
+        <v>67</v>
+      </c>
+      <c r="S89" t="n">
+        <v>71</v>
+      </c>
+      <c r="T89" t="n">
+        <v>75</v>
+      </c>
+      <c r="U89" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14</v>
+      </c>
+      <c r="F90" t="n">
+        <v>16</v>
+      </c>
+      <c r="G90" t="n">
+        <v>22</v>
+      </c>
+      <c r="H90" t="n">
+        <v>26</v>
+      </c>
+      <c r="I90" t="n">
+        <v>29</v>
+      </c>
+      <c r="J90" t="n">
+        <v>30</v>
+      </c>
+      <c r="K90" t="n">
+        <v>35</v>
+      </c>
+      <c r="L90" t="n">
+        <v>38</v>
+      </c>
+      <c r="M90" t="n">
+        <v>48</v>
+      </c>
+      <c r="N90" t="n">
+        <v>52</v>
+      </c>
+      <c r="O90" t="n">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>70</v>
+      </c>
+      <c r="R90" t="n">
+        <v>71</v>
+      </c>
+      <c r="S90" t="n">
+        <v>74</v>
+      </c>
+      <c r="T90" t="n">
+        <v>76</v>
+      </c>
+      <c r="U90" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>12</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18</v>
+      </c>
+      <c r="H91" t="n">
+        <v>19</v>
+      </c>
+      <c r="I91" t="n">
+        <v>23</v>
+      </c>
+      <c r="J91" t="n">
+        <v>24</v>
+      </c>
+      <c r="K91" t="n">
+        <v>25</v>
+      </c>
+      <c r="L91" t="n">
+        <v>29</v>
+      </c>
+      <c r="M91" t="n">
+        <v>33</v>
+      </c>
+      <c r="N91" t="n">
+        <v>34</v>
+      </c>
+      <c r="O91" t="n">
+        <v>48</v>
+      </c>
+      <c r="P91" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>54</v>
+      </c>
+      <c r="R91" t="n">
+        <v>55</v>
+      </c>
+      <c r="S91" t="n">
+        <v>58</v>
+      </c>
+      <c r="T91" t="n">
+        <v>59</v>
+      </c>
+      <c r="U91" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>17</v>
+      </c>
+      <c r="G92" t="n">
+        <v>22</v>
+      </c>
+      <c r="H92" t="n">
+        <v>24</v>
+      </c>
+      <c r="I92" t="n">
+        <v>35</v>
+      </c>
+      <c r="J92" t="n">
+        <v>41</v>
+      </c>
+      <c r="K92" t="n">
+        <v>44</v>
+      </c>
+      <c r="L92" t="n">
+        <v>50</v>
+      </c>
+      <c r="M92" t="n">
+        <v>51</v>
+      </c>
+      <c r="N92" t="n">
+        <v>54</v>
+      </c>
+      <c r="O92" t="n">
+        <v>57</v>
+      </c>
+      <c r="P92" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>67</v>
+      </c>
+      <c r="R92" t="n">
+        <v>71</v>
+      </c>
+      <c r="S92" t="n">
+        <v>76</v>
+      </c>
+      <c r="T92" t="n">
+        <v>78</v>
+      </c>
+      <c r="U92" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>12</v>
+      </c>
+      <c r="E93" t="n">
+        <v>15</v>
+      </c>
+      <c r="F93" t="n">
+        <v>29</v>
+      </c>
+      <c r="G93" t="n">
+        <v>33</v>
+      </c>
+      <c r="H93" t="n">
+        <v>38</v>
+      </c>
+      <c r="I93" t="n">
+        <v>39</v>
+      </c>
+      <c r="J93" t="n">
+        <v>45</v>
+      </c>
+      <c r="K93" t="n">
+        <v>48</v>
+      </c>
+      <c r="L93" t="n">
+        <v>51</v>
+      </c>
+      <c r="M93" t="n">
+        <v>55</v>
+      </c>
+      <c r="N93" t="n">
+        <v>57</v>
+      </c>
+      <c r="O93" t="n">
+        <v>58</v>
+      </c>
+      <c r="P93" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>65</v>
+      </c>
+      <c r="R93" t="n">
+        <v>68</v>
+      </c>
+      <c r="S93" t="n">
+        <v>72</v>
+      </c>
+      <c r="T93" t="n">
+        <v>74</v>
+      </c>
+      <c r="U93" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17</v>
+      </c>
+      <c r="E94" t="n">
+        <v>24</v>
+      </c>
+      <c r="F94" t="n">
+        <v>26</v>
+      </c>
+      <c r="G94" t="n">
+        <v>27</v>
+      </c>
+      <c r="H94" t="n">
+        <v>36</v>
+      </c>
+      <c r="I94" t="n">
+        <v>39</v>
+      </c>
+      <c r="J94" t="n">
+        <v>40</v>
+      </c>
+      <c r="K94" t="n">
+        <v>41</v>
+      </c>
+      <c r="L94" t="n">
+        <v>46</v>
+      </c>
+      <c r="M94" t="n">
+        <v>47</v>
+      </c>
+      <c r="N94" t="n">
+        <v>51</v>
+      </c>
+      <c r="O94" t="n">
+        <v>56</v>
+      </c>
+      <c r="P94" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>60</v>
+      </c>
+      <c r="R94" t="n">
+        <v>62</v>
+      </c>
+      <c r="S94" t="n">
+        <v>77</v>
+      </c>
+      <c r="T94" t="n">
+        <v>78</v>
+      </c>
+      <c r="U94" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>12</v>
+      </c>
+      <c r="D95" t="n">
+        <v>13</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="n">
+        <v>21</v>
+      </c>
+      <c r="G95" t="n">
+        <v>28</v>
+      </c>
+      <c r="H95" t="n">
+        <v>34</v>
+      </c>
+      <c r="I95" t="n">
+        <v>38</v>
+      </c>
+      <c r="J95" t="n">
+        <v>40</v>
+      </c>
+      <c r="K95" t="n">
+        <v>47</v>
+      </c>
+      <c r="L95" t="n">
+        <v>52</v>
+      </c>
+      <c r="M95" t="n">
+        <v>53</v>
+      </c>
+      <c r="N95" t="n">
+        <v>54</v>
+      </c>
+      <c r="O95" t="n">
+        <v>58</v>
+      </c>
+      <c r="P95" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>65</v>
+      </c>
+      <c r="R95" t="n">
+        <v>67</v>
+      </c>
+      <c r="S95" t="n">
+        <v>68</v>
+      </c>
+      <c r="T95" t="n">
+        <v>70</v>
+      </c>
+      <c r="U95" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>18</v>
+      </c>
+      <c r="D96" t="n">
+        <v>19</v>
+      </c>
+      <c r="E96" t="n">
+        <v>22</v>
+      </c>
+      <c r="F96" t="n">
+        <v>24</v>
+      </c>
+      <c r="G96" t="n">
+        <v>27</v>
+      </c>
+      <c r="H96" t="n">
+        <v>38</v>
+      </c>
+      <c r="I96" t="n">
+        <v>44</v>
+      </c>
+      <c r="J96" t="n">
+        <v>45</v>
+      </c>
+      <c r="K96" t="n">
+        <v>46</v>
+      </c>
+      <c r="L96" t="n">
+        <v>47</v>
+      </c>
+      <c r="M96" t="n">
+        <v>58</v>
+      </c>
+      <c r="N96" t="n">
+        <v>59</v>
+      </c>
+      <c r="O96" t="n">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>69</v>
+      </c>
+      <c r="R96" t="n">
+        <v>73</v>
+      </c>
+      <c r="S96" t="n">
+        <v>75</v>
+      </c>
+      <c r="T96" t="n">
+        <v>76</v>
+      </c>
+      <c r="U96" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17</v>
+      </c>
+      <c r="G97" t="n">
+        <v>26</v>
+      </c>
+      <c r="H97" t="n">
+        <v>32</v>
+      </c>
+      <c r="I97" t="n">
+        <v>38</v>
+      </c>
+      <c r="J97" t="n">
+        <v>39</v>
+      </c>
+      <c r="K97" t="n">
+        <v>42</v>
+      </c>
+      <c r="L97" t="n">
+        <v>43</v>
+      </c>
+      <c r="M97" t="n">
+        <v>44</v>
+      </c>
+      <c r="N97" t="n">
+        <v>46</v>
+      </c>
+      <c r="O97" t="n">
+        <v>51</v>
+      </c>
+      <c r="P97" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>57</v>
+      </c>
+      <c r="R97" t="n">
+        <v>58</v>
+      </c>
+      <c r="S97" t="n">
+        <v>61</v>
+      </c>
+      <c r="T97" t="n">
+        <v>66</v>
+      </c>
+      <c r="U97" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>19</v>
+      </c>
+      <c r="E98" t="n">
+        <v>21</v>
+      </c>
+      <c r="F98" t="n">
+        <v>23</v>
+      </c>
+      <c r="G98" t="n">
+        <v>24</v>
+      </c>
+      <c r="H98" t="n">
+        <v>28</v>
+      </c>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="n">
+        <v>32</v>
+      </c>
+      <c r="K98" t="n">
+        <v>40</v>
+      </c>
+      <c r="L98" t="n">
+        <v>45</v>
+      </c>
+      <c r="M98" t="n">
+        <v>47</v>
+      </c>
+      <c r="N98" t="n">
+        <v>48</v>
+      </c>
+      <c r="O98" t="n">
+        <v>55</v>
+      </c>
+      <c r="P98" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>69</v>
+      </c>
+      <c r="R98" t="n">
+        <v>71</v>
+      </c>
+      <c r="S98" t="n">
+        <v>73</v>
+      </c>
+      <c r="T98" t="n">
+        <v>78</v>
+      </c>
+      <c r="U98" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="n">
+        <v>16</v>
+      </c>
+      <c r="H99" t="n">
+        <v>18</v>
+      </c>
+      <c r="I99" t="n">
+        <v>33</v>
+      </c>
+      <c r="J99" t="n">
+        <v>36</v>
+      </c>
+      <c r="K99" t="n">
+        <v>37</v>
+      </c>
+      <c r="L99" t="n">
+        <v>38</v>
+      </c>
+      <c r="M99" t="n">
+        <v>44</v>
+      </c>
+      <c r="N99" t="n">
+        <v>49</v>
+      </c>
+      <c r="O99" t="n">
+        <v>55</v>
+      </c>
+      <c r="P99" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>59</v>
+      </c>
+      <c r="R99" t="n">
+        <v>64</v>
+      </c>
+      <c r="S99" t="n">
+        <v>74</v>
+      </c>
+      <c r="T99" t="n">
+        <v>77</v>
+      </c>
+      <c r="U99" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>16</v>
+      </c>
+      <c r="E100" t="n">
+        <v>17</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19</v>
+      </c>
+      <c r="G100" t="n">
+        <v>20</v>
+      </c>
+      <c r="H100" t="n">
+        <v>22</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J100" t="n">
+        <v>29</v>
+      </c>
+      <c r="K100" t="n">
+        <v>33</v>
+      </c>
+      <c r="L100" t="n">
+        <v>34</v>
+      </c>
+      <c r="M100" t="n">
+        <v>43</v>
+      </c>
+      <c r="N100" t="n">
+        <v>45</v>
+      </c>
+      <c r="O100" t="n">
+        <v>47</v>
+      </c>
+      <c r="P100" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>60</v>
+      </c>
+      <c r="R100" t="n">
+        <v>61</v>
+      </c>
+      <c r="S100" t="n">
+        <v>67</v>
+      </c>
+      <c r="T100" t="n">
+        <v>74</v>
+      </c>
+      <c r="U100" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>11</v>
+      </c>
+      <c r="D101" t="n">
+        <v>14</v>
+      </c>
+      <c r="E101" t="n">
+        <v>18</v>
+      </c>
+      <c r="F101" t="n">
+        <v>22</v>
+      </c>
+      <c r="G101" t="n">
+        <v>23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>28</v>
+      </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>36</v>
+      </c>
+      <c r="K101" t="n">
+        <v>39</v>
+      </c>
+      <c r="L101" t="n">
+        <v>40</v>
+      </c>
+      <c r="M101" t="n">
+        <v>42</v>
+      </c>
+      <c r="N101" t="n">
+        <v>45</v>
+      </c>
+      <c r="O101" t="n">
+        <v>48</v>
+      </c>
+      <c r="P101" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>53</v>
+      </c>
+      <c r="R101" t="n">
+        <v>60</v>
+      </c>
+      <c r="S101" t="n">
+        <v>63</v>
+      </c>
+      <c r="T101" t="n">
+        <v>66</v>
+      </c>
+      <c r="U101" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11</v>
+      </c>
+      <c r="G102" t="n">
+        <v>21</v>
+      </c>
+      <c r="H102" t="n">
+        <v>28</v>
+      </c>
+      <c r="I102" t="n">
+        <v>29</v>
+      </c>
+      <c r="J102" t="n">
+        <v>31</v>
+      </c>
+      <c r="K102" t="n">
+        <v>36</v>
+      </c>
+      <c r="L102" t="n">
+        <v>38</v>
+      </c>
+      <c r="M102" t="n">
+        <v>40</v>
+      </c>
+      <c r="N102" t="n">
+        <v>45</v>
+      </c>
+      <c r="O102" t="n">
+        <v>48</v>
+      </c>
+      <c r="P102" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>68</v>
+      </c>
+      <c r="R102" t="n">
+        <v>70</v>
+      </c>
+      <c r="S102" t="n">
+        <v>72</v>
+      </c>
+      <c r="T102" t="n">
+        <v>75</v>
+      </c>
+      <c r="U102" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11</v>
+      </c>
+      <c r="E103" t="n">
+        <v>12</v>
+      </c>
+      <c r="F103" t="n">
+        <v>18</v>
+      </c>
+      <c r="G103" t="n">
+        <v>21</v>
+      </c>
+      <c r="H103" t="n">
+        <v>23</v>
+      </c>
+      <c r="I103" t="n">
+        <v>24</v>
+      </c>
+      <c r="J103" t="n">
+        <v>27</v>
+      </c>
+      <c r="K103" t="n">
+        <v>32</v>
+      </c>
+      <c r="L103" t="n">
+        <v>38</v>
+      </c>
+      <c r="M103" t="n">
+        <v>39</v>
+      </c>
+      <c r="N103" t="n">
+        <v>40</v>
+      </c>
+      <c r="O103" t="n">
+        <v>44</v>
+      </c>
+      <c r="P103" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>63</v>
+      </c>
+      <c r="R103" t="n">
+        <v>65</v>
+      </c>
+      <c r="S103" t="n">
+        <v>68</v>
+      </c>
+      <c r="T103" t="n">
+        <v>72</v>
+      </c>
+      <c r="U103" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>13</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15</v>
+      </c>
+      <c r="E104" t="n">
+        <v>17</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21</v>
+      </c>
+      <c r="G104" t="n">
+        <v>23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>25</v>
+      </c>
+      <c r="I104" t="n">
+        <v>29</v>
+      </c>
+      <c r="J104" t="n">
+        <v>40</v>
+      </c>
+      <c r="K104" t="n">
+        <v>41</v>
+      </c>
+      <c r="L104" t="n">
+        <v>44</v>
+      </c>
+      <c r="M104" t="n">
+        <v>47</v>
+      </c>
+      <c r="N104" t="n">
+        <v>62</v>
+      </c>
+      <c r="O104" t="n">
+        <v>63</v>
+      </c>
+      <c r="P104" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>72</v>
+      </c>
+      <c r="R104" t="n">
+        <v>73</v>
+      </c>
+      <c r="S104" t="n">
+        <v>74</v>
+      </c>
+      <c r="T104" t="n">
+        <v>77</v>
+      </c>
+      <c r="U104" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12</v>
+      </c>
+      <c r="E105" t="n">
+        <v>16</v>
+      </c>
+      <c r="F105" t="n">
+        <v>22</v>
+      </c>
+      <c r="G105" t="n">
+        <v>27</v>
+      </c>
+      <c r="H105" t="n">
+        <v>30</v>
+      </c>
+      <c r="I105" t="n">
+        <v>32</v>
+      </c>
+      <c r="J105" t="n">
+        <v>33</v>
+      </c>
+      <c r="K105" t="n">
+        <v>38</v>
+      </c>
+      <c r="L105" t="n">
+        <v>52</v>
+      </c>
+      <c r="M105" t="n">
+        <v>54</v>
+      </c>
+      <c r="N105" t="n">
+        <v>56</v>
+      </c>
+      <c r="O105" t="n">
+        <v>61</v>
+      </c>
+      <c r="P105" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>64</v>
+      </c>
+      <c r="R105" t="n">
+        <v>69</v>
+      </c>
+      <c r="S105" t="n">
+        <v>71</v>
+      </c>
+      <c r="T105" t="n">
+        <v>75</v>
+      </c>
+      <c r="U105" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11</v>
+      </c>
+      <c r="E106" t="n">
+        <v>13</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20</v>
+      </c>
+      <c r="G106" t="n">
+        <v>22</v>
+      </c>
+      <c r="H106" t="n">
+        <v>28</v>
+      </c>
+      <c r="I106" t="n">
+        <v>31</v>
+      </c>
+      <c r="J106" t="n">
+        <v>34</v>
+      </c>
+      <c r="K106" t="n">
+        <v>38</v>
+      </c>
+      <c r="L106" t="n">
+        <v>48</v>
+      </c>
+      <c r="M106" t="n">
+        <v>53</v>
+      </c>
+      <c r="N106" t="n">
+        <v>57</v>
+      </c>
+      <c r="O106" t="n">
+        <v>58</v>
+      </c>
+      <c r="P106" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>61</v>
+      </c>
+      <c r="R106" t="n">
+        <v>66</v>
+      </c>
+      <c r="S106" t="n">
+        <v>75</v>
+      </c>
+      <c r="T106" t="n">
+        <v>78</v>
+      </c>
+      <c r="U106" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>14</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21</v>
+      </c>
+      <c r="H107" t="n">
+        <v>22</v>
+      </c>
+      <c r="I107" t="n">
+        <v>23</v>
+      </c>
+      <c r="J107" t="n">
+        <v>24</v>
+      </c>
+      <c r="K107" t="n">
+        <v>30</v>
+      </c>
+      <c r="L107" t="n">
+        <v>35</v>
+      </c>
+      <c r="M107" t="n">
+        <v>40</v>
+      </c>
+      <c r="N107" t="n">
+        <v>43</v>
+      </c>
+      <c r="O107" t="n">
+        <v>48</v>
+      </c>
+      <c r="P107" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>64</v>
+      </c>
+      <c r="R107" t="n">
+        <v>67</v>
+      </c>
+      <c r="S107" t="n">
+        <v>69</v>
+      </c>
+      <c r="T107" t="n">
+        <v>74</v>
+      </c>
+      <c r="U107" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>14</v>
+      </c>
+      <c r="F108" t="n">
+        <v>17</v>
+      </c>
+      <c r="G108" t="n">
+        <v>18</v>
+      </c>
+      <c r="H108" t="n">
+        <v>21</v>
+      </c>
+      <c r="I108" t="n">
+        <v>27</v>
+      </c>
+      <c r="J108" t="n">
+        <v>33</v>
+      </c>
+      <c r="K108" t="n">
+        <v>37</v>
+      </c>
+      <c r="L108" t="n">
+        <v>39</v>
+      </c>
+      <c r="M108" t="n">
+        <v>46</v>
+      </c>
+      <c r="N108" t="n">
+        <v>49</v>
+      </c>
+      <c r="O108" t="n">
+        <v>54</v>
+      </c>
+      <c r="P108" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>58</v>
+      </c>
+      <c r="R108" t="n">
+        <v>61</v>
+      </c>
+      <c r="S108" t="n">
+        <v>73</v>
+      </c>
+      <c r="T108" t="n">
+        <v>75</v>
+      </c>
+      <c r="U108" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>16</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="n">
+        <v>19</v>
+      </c>
+      <c r="H109" t="n">
+        <v>26</v>
+      </c>
+      <c r="I109" t="n">
+        <v>28</v>
+      </c>
+      <c r="J109" t="n">
+        <v>33</v>
+      </c>
+      <c r="K109" t="n">
+        <v>35</v>
+      </c>
+      <c r="L109" t="n">
+        <v>47</v>
+      </c>
+      <c r="M109" t="n">
+        <v>48</v>
+      </c>
+      <c r="N109" t="n">
+        <v>55</v>
+      </c>
+      <c r="O109" t="n">
+        <v>58</v>
+      </c>
+      <c r="P109" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>66</v>
+      </c>
+      <c r="R109" t="n">
+        <v>68</v>
+      </c>
+      <c r="S109" t="n">
+        <v>72</v>
+      </c>
+      <c r="T109" t="n">
+        <v>75</v>
+      </c>
+      <c r="U109" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13</v>
+      </c>
+      <c r="F110" t="n">
+        <v>15</v>
+      </c>
+      <c r="G110" t="n">
+        <v>25</v>
+      </c>
+      <c r="H110" t="n">
+        <v>37</v>
+      </c>
+      <c r="I110" t="n">
+        <v>40</v>
+      </c>
+      <c r="J110" t="n">
+        <v>42</v>
+      </c>
+      <c r="K110" t="n">
+        <v>48</v>
+      </c>
+      <c r="L110" t="n">
+        <v>49</v>
+      </c>
+      <c r="M110" t="n">
+        <v>50</v>
+      </c>
+      <c r="N110" t="n">
+        <v>58</v>
+      </c>
+      <c r="O110" t="n">
+        <v>61</v>
+      </c>
+      <c r="P110" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>64</v>
+      </c>
+      <c r="R110" t="n">
+        <v>67</v>
+      </c>
+      <c r="S110" t="n">
+        <v>70</v>
+      </c>
+      <c r="T110" t="n">
+        <v>72</v>
+      </c>
+      <c r="U110" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15</v>
+      </c>
+      <c r="G111" t="n">
+        <v>16</v>
+      </c>
+      <c r="H111" t="n">
+        <v>28</v>
+      </c>
+      <c r="I111" t="n">
+        <v>29</v>
+      </c>
+      <c r="J111" t="n">
+        <v>30</v>
+      </c>
+      <c r="K111" t="n">
+        <v>33</v>
+      </c>
+      <c r="L111" t="n">
+        <v>41</v>
+      </c>
+      <c r="M111" t="n">
+        <v>45</v>
+      </c>
+      <c r="N111" t="n">
+        <v>53</v>
+      </c>
+      <c r="O111" t="n">
+        <v>61</v>
+      </c>
+      <c r="P111" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>66</v>
+      </c>
+      <c r="R111" t="n">
+        <v>67</v>
+      </c>
+      <c r="S111" t="n">
+        <v>71</v>
+      </c>
+      <c r="T111" t="n">
+        <v>76</v>
+      </c>
+      <c r="U111" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11</v>
+      </c>
+      <c r="E112" t="n">
+        <v>14</v>
+      </c>
+      <c r="F112" t="n">
+        <v>26</v>
+      </c>
+      <c r="G112" t="n">
+        <v>29</v>
+      </c>
+      <c r="H112" t="n">
+        <v>30</v>
+      </c>
+      <c r="I112" t="n">
+        <v>31</v>
+      </c>
+      <c r="J112" t="n">
+        <v>37</v>
+      </c>
+      <c r="K112" t="n">
+        <v>39</v>
+      </c>
+      <c r="L112" t="n">
+        <v>41</v>
+      </c>
+      <c r="M112" t="n">
+        <v>46</v>
+      </c>
+      <c r="N112" t="n">
+        <v>49</v>
+      </c>
+      <c r="O112" t="n">
+        <v>57</v>
+      </c>
+      <c r="P112" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>62</v>
+      </c>
+      <c r="R112" t="n">
+        <v>70</v>
+      </c>
+      <c r="S112" t="n">
+        <v>74</v>
+      </c>
+      <c r="T112" t="n">
+        <v>76</v>
+      </c>
+      <c r="U112" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12</v>
+      </c>
+      <c r="E113" t="n">
+        <v>14</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15</v>
+      </c>
+      <c r="G113" t="n">
+        <v>18</v>
+      </c>
+      <c r="H113" t="n">
+        <v>22</v>
+      </c>
+      <c r="I113" t="n">
+        <v>25</v>
+      </c>
+      <c r="J113" t="n">
+        <v>31</v>
+      </c>
+      <c r="K113" t="n">
+        <v>41</v>
+      </c>
+      <c r="L113" t="n">
+        <v>45</v>
+      </c>
+      <c r="M113" t="n">
+        <v>51</v>
+      </c>
+      <c r="N113" t="n">
+        <v>52</v>
+      </c>
+      <c r="O113" t="n">
+        <v>57</v>
+      </c>
+      <c r="P113" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>60</v>
+      </c>
+      <c r="R113" t="n">
+        <v>63</v>
+      </c>
+      <c r="S113" t="n">
+        <v>78</v>
+      </c>
+      <c r="T113" t="n">
+        <v>79</v>
+      </c>
+      <c r="U113" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>13</v>
+      </c>
+      <c r="E114" t="n">
+        <v>14</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19</v>
+      </c>
+      <c r="G114" t="n">
+        <v>23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>24</v>
+      </c>
+      <c r="I114" t="n">
+        <v>30</v>
+      </c>
+      <c r="J114" t="n">
+        <v>31</v>
+      </c>
+      <c r="K114" t="n">
+        <v>32</v>
+      </c>
+      <c r="L114" t="n">
+        <v>34</v>
+      </c>
+      <c r="M114" t="n">
+        <v>36</v>
+      </c>
+      <c r="N114" t="n">
+        <v>41</v>
+      </c>
+      <c r="O114" t="n">
+        <v>42</v>
+      </c>
+      <c r="P114" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>63</v>
+      </c>
+      <c r="R114" t="n">
+        <v>64</v>
+      </c>
+      <c r="S114" t="n">
+        <v>68</v>
+      </c>
+      <c r="T114" t="n">
+        <v>77</v>
+      </c>
+      <c r="U114" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>14</v>
+      </c>
+      <c r="D115" t="n">
+        <v>23</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30</v>
+      </c>
+      <c r="G115" t="n">
+        <v>34</v>
+      </c>
+      <c r="H115" t="n">
+        <v>35</v>
+      </c>
+      <c r="I115" t="n">
+        <v>37</v>
+      </c>
+      <c r="J115" t="n">
+        <v>49</v>
+      </c>
+      <c r="K115" t="n">
+        <v>54</v>
+      </c>
+      <c r="L115" t="n">
+        <v>56</v>
+      </c>
+      <c r="M115" t="n">
+        <v>57</v>
+      </c>
+      <c r="N115" t="n">
+        <v>61</v>
+      </c>
+      <c r="O115" t="n">
+        <v>62</v>
+      </c>
+      <c r="P115" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>64</v>
+      </c>
+      <c r="R115" t="n">
+        <v>67</v>
+      </c>
+      <c r="S115" t="n">
+        <v>68</v>
+      </c>
+      <c r="T115" t="n">
+        <v>70</v>
+      </c>
+      <c r="U115" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>14</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="n">
+        <v>18</v>
+      </c>
+      <c r="H116" t="n">
+        <v>20</v>
+      </c>
+      <c r="I116" t="n">
+        <v>22</v>
+      </c>
+      <c r="J116" t="n">
+        <v>26</v>
+      </c>
+      <c r="K116" t="n">
+        <v>29</v>
+      </c>
+      <c r="L116" t="n">
+        <v>30</v>
+      </c>
+      <c r="M116" t="n">
+        <v>34</v>
+      </c>
+      <c r="N116" t="n">
+        <v>49</v>
+      </c>
+      <c r="O116" t="n">
+        <v>68</v>
+      </c>
+      <c r="P116" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>72</v>
+      </c>
+      <c r="R116" t="n">
+        <v>74</v>
+      </c>
+      <c r="S116" t="n">
+        <v>78</v>
+      </c>
+      <c r="T116" t="n">
+        <v>79</v>
+      </c>
+      <c r="U116" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12</v>
+      </c>
+      <c r="E117" t="n">
+        <v>17</v>
+      </c>
+      <c r="F117" t="n">
+        <v>19</v>
+      </c>
+      <c r="G117" t="n">
+        <v>20</v>
+      </c>
+      <c r="H117" t="n">
+        <v>28</v>
+      </c>
+      <c r="I117" t="n">
+        <v>33</v>
+      </c>
+      <c r="J117" t="n">
+        <v>36</v>
+      </c>
+      <c r="K117" t="n">
+        <v>37</v>
+      </c>
+      <c r="L117" t="n">
+        <v>40</v>
+      </c>
+      <c r="M117" t="n">
+        <v>52</v>
+      </c>
+      <c r="N117" t="n">
+        <v>53</v>
+      </c>
+      <c r="O117" t="n">
+        <v>54</v>
+      </c>
+      <c r="P117" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>61</v>
+      </c>
+      <c r="R117" t="n">
+        <v>62</v>
+      </c>
+      <c r="S117" t="n">
+        <v>71</v>
+      </c>
+      <c r="T117" t="n">
+        <v>74</v>
+      </c>
+      <c r="U117" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>20</v>
+      </c>
+      <c r="D118" t="n">
+        <v>23</v>
+      </c>
+      <c r="E118" t="n">
+        <v>24</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26</v>
+      </c>
+      <c r="G118" t="n">
+        <v>29</v>
+      </c>
+      <c r="H118" t="n">
+        <v>38</v>
+      </c>
+      <c r="I118" t="n">
+        <v>44</v>
+      </c>
+      <c r="J118" t="n">
+        <v>47</v>
+      </c>
+      <c r="K118" t="n">
+        <v>49</v>
+      </c>
+      <c r="L118" t="n">
+        <v>52</v>
+      </c>
+      <c r="M118" t="n">
+        <v>53</v>
+      </c>
+      <c r="N118" t="n">
+        <v>57</v>
+      </c>
+      <c r="O118" t="n">
+        <v>59</v>
+      </c>
+      <c r="P118" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>66</v>
+      </c>
+      <c r="R118" t="n">
+        <v>67</v>
+      </c>
+      <c r="S118" t="n">
+        <v>75</v>
+      </c>
+      <c r="T118" t="n">
+        <v>76</v>
+      </c>
+      <c r="U118" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>10</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12</v>
+      </c>
+      <c r="G119" t="n">
+        <v>15</v>
+      </c>
+      <c r="H119" t="n">
+        <v>16</v>
+      </c>
+      <c r="I119" t="n">
+        <v>19</v>
+      </c>
+      <c r="J119" t="n">
+        <v>23</v>
+      </c>
+      <c r="K119" t="n">
+        <v>24</v>
+      </c>
+      <c r="L119" t="n">
+        <v>34</v>
+      </c>
+      <c r="M119" t="n">
+        <v>35</v>
+      </c>
+      <c r="N119" t="n">
+        <v>40</v>
+      </c>
+      <c r="O119" t="n">
+        <v>42</v>
+      </c>
+      <c r="P119" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>61</v>
+      </c>
+      <c r="R119" t="n">
+        <v>63</v>
+      </c>
+      <c r="S119" t="n">
+        <v>73</v>
+      </c>
+      <c r="T119" t="n">
+        <v>75</v>
+      </c>
+      <c r="U119" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11</v>
+      </c>
+      <c r="F120" t="n">
+        <v>13</v>
+      </c>
+      <c r="G120" t="n">
+        <v>18</v>
+      </c>
+      <c r="H120" t="n">
+        <v>20</v>
+      </c>
+      <c r="I120" t="n">
+        <v>25</v>
+      </c>
+      <c r="J120" t="n">
+        <v>26</v>
+      </c>
+      <c r="K120" t="n">
+        <v>31</v>
+      </c>
+      <c r="L120" t="n">
+        <v>43</v>
+      </c>
+      <c r="M120" t="n">
+        <v>44</v>
+      </c>
+      <c r="N120" t="n">
+        <v>51</v>
+      </c>
+      <c r="O120" t="n">
+        <v>52</v>
+      </c>
+      <c r="P120" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>58</v>
+      </c>
+      <c r="R120" t="n">
+        <v>62</v>
+      </c>
+      <c r="S120" t="n">
+        <v>65</v>
+      </c>
+      <c r="T120" t="n">
+        <v>69</v>
+      </c>
+      <c r="U120" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>16</v>
+      </c>
+      <c r="F121" t="n">
+        <v>19</v>
+      </c>
+      <c r="G121" t="n">
+        <v>20</v>
+      </c>
+      <c r="H121" t="n">
+        <v>21</v>
+      </c>
+      <c r="I121" t="n">
+        <v>24</v>
+      </c>
+      <c r="J121" t="n">
+        <v>25</v>
+      </c>
+      <c r="K121" t="n">
+        <v>26</v>
+      </c>
+      <c r="L121" t="n">
+        <v>37</v>
+      </c>
+      <c r="M121" t="n">
+        <v>51</v>
+      </c>
+      <c r="N121" t="n">
+        <v>53</v>
+      </c>
+      <c r="O121" t="n">
+        <v>54</v>
+      </c>
+      <c r="P121" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>59</v>
+      </c>
+      <c r="R121" t="n">
+        <v>63</v>
+      </c>
+      <c r="S121" t="n">
+        <v>69</v>
+      </c>
+      <c r="T121" t="n">
+        <v>77</v>
+      </c>
+      <c r="U121" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15</v>
+      </c>
+      <c r="F122" t="n">
+        <v>20</v>
+      </c>
+      <c r="G122" t="n">
+        <v>21</v>
+      </c>
+      <c r="H122" t="n">
+        <v>26</v>
+      </c>
+      <c r="I122" t="n">
+        <v>27</v>
+      </c>
+      <c r="J122" t="n">
+        <v>30</v>
+      </c>
+      <c r="K122" t="n">
+        <v>34</v>
+      </c>
+      <c r="L122" t="n">
+        <v>36</v>
+      </c>
+      <c r="M122" t="n">
+        <v>40</v>
+      </c>
+      <c r="N122" t="n">
+        <v>47</v>
+      </c>
+      <c r="O122" t="n">
+        <v>49</v>
+      </c>
+      <c r="P122" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>53</v>
+      </c>
+      <c r="R122" t="n">
+        <v>57</v>
+      </c>
+      <c r="S122" t="n">
+        <v>59</v>
+      </c>
+      <c r="T122" t="n">
+        <v>67</v>
+      </c>
+      <c r="U122" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12</v>
+      </c>
+      <c r="G123" t="n">
+        <v>19</v>
+      </c>
+      <c r="H123" t="n">
+        <v>27</v>
+      </c>
+      <c r="I123" t="n">
+        <v>29</v>
+      </c>
+      <c r="J123" t="n">
+        <v>31</v>
+      </c>
+      <c r="K123" t="n">
+        <v>32</v>
+      </c>
+      <c r="L123" t="n">
+        <v>33</v>
+      </c>
+      <c r="M123" t="n">
+        <v>41</v>
+      </c>
+      <c r="N123" t="n">
+        <v>48</v>
+      </c>
+      <c r="O123" t="n">
+        <v>51</v>
+      </c>
+      <c r="P123" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>60</v>
+      </c>
+      <c r="R123" t="n">
+        <v>62</v>
+      </c>
+      <c r="S123" t="n">
+        <v>69</v>
+      </c>
+      <c r="T123" t="n">
+        <v>74</v>
+      </c>
+      <c r="U123" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20</v>
+      </c>
+      <c r="E124" t="n">
+        <v>21</v>
+      </c>
+      <c r="F124" t="n">
+        <v>27</v>
+      </c>
+      <c r="G124" t="n">
+        <v>30</v>
+      </c>
+      <c r="H124" t="n">
+        <v>31</v>
+      </c>
+      <c r="I124" t="n">
+        <v>32</v>
+      </c>
+      <c r="J124" t="n">
+        <v>34</v>
+      </c>
+      <c r="K124" t="n">
+        <v>36</v>
+      </c>
+      <c r="L124" t="n">
+        <v>41</v>
+      </c>
+      <c r="M124" t="n">
+        <v>46</v>
+      </c>
+      <c r="N124" t="n">
+        <v>47</v>
+      </c>
+      <c r="O124" t="n">
+        <v>49</v>
+      </c>
+      <c r="P124" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>54</v>
+      </c>
+      <c r="R124" t="n">
+        <v>58</v>
+      </c>
+      <c r="S124" t="n">
+        <v>64</v>
+      </c>
+      <c r="T124" t="n">
+        <v>69</v>
+      </c>
+      <c r="U124" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>16</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17</v>
+      </c>
+      <c r="G125" t="n">
+        <v>23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>24</v>
+      </c>
+      <c r="I125" t="n">
+        <v>26</v>
+      </c>
+      <c r="J125" t="n">
+        <v>29</v>
+      </c>
+      <c r="K125" t="n">
+        <v>36</v>
+      </c>
+      <c r="L125" t="n">
+        <v>41</v>
+      </c>
+      <c r="M125" t="n">
+        <v>43</v>
+      </c>
+      <c r="N125" t="n">
+        <v>45</v>
+      </c>
+      <c r="O125" t="n">
+        <v>47</v>
+      </c>
+      <c r="P125" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>51</v>
+      </c>
+      <c r="R125" t="n">
+        <v>53</v>
+      </c>
+      <c r="S125" t="n">
+        <v>54</v>
+      </c>
+      <c r="T125" t="n">
+        <v>64</v>
+      </c>
+      <c r="U125" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>10</v>
+      </c>
+      <c r="C126" t="n">
+        <v>17</v>
+      </c>
+      <c r="D126" t="n">
+        <v>20</v>
+      </c>
+      <c r="E126" t="n">
+        <v>21</v>
+      </c>
+      <c r="F126" t="n">
+        <v>25</v>
+      </c>
+      <c r="G126" t="n">
+        <v>32</v>
+      </c>
+      <c r="H126" t="n">
+        <v>36</v>
+      </c>
+      <c r="I126" t="n">
+        <v>37</v>
+      </c>
+      <c r="J126" t="n">
+        <v>43</v>
+      </c>
+      <c r="K126" t="n">
+        <v>49</v>
+      </c>
+      <c r="L126" t="n">
+        <v>50</v>
+      </c>
+      <c r="M126" t="n">
+        <v>53</v>
+      </c>
+      <c r="N126" t="n">
+        <v>54</v>
+      </c>
+      <c r="O126" t="n">
+        <v>56</v>
+      </c>
+      <c r="P126" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>61</v>
+      </c>
+      <c r="R126" t="n">
+        <v>63</v>
+      </c>
+      <c r="S126" t="n">
+        <v>64</v>
+      </c>
+      <c r="T126" t="n">
+        <v>77</v>
+      </c>
+      <c r="U126" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>18</v>
+      </c>
+      <c r="H127" t="n">
+        <v>20</v>
+      </c>
+      <c r="I127" t="n">
+        <v>24</v>
+      </c>
+      <c r="J127" t="n">
+        <v>29</v>
+      </c>
+      <c r="K127" t="n">
+        <v>32</v>
+      </c>
+      <c r="L127" t="n">
+        <v>33</v>
+      </c>
+      <c r="M127" t="n">
+        <v>51</v>
+      </c>
+      <c r="N127" t="n">
+        <v>55</v>
+      </c>
+      <c r="O127" t="n">
+        <v>56</v>
+      </c>
+      <c r="P127" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>62</v>
+      </c>
+      <c r="R127" t="n">
+        <v>69</v>
+      </c>
+      <c r="S127" t="n">
+        <v>74</v>
+      </c>
+      <c r="T127" t="n">
+        <v>75</v>
+      </c>
+      <c r="U127" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>18</v>
+      </c>
+      <c r="F128" t="n">
+        <v>22</v>
+      </c>
+      <c r="G128" t="n">
+        <v>27</v>
+      </c>
+      <c r="H128" t="n">
+        <v>32</v>
+      </c>
+      <c r="I128" t="n">
+        <v>36</v>
+      </c>
+      <c r="J128" t="n">
+        <v>42</v>
+      </c>
+      <c r="K128" t="n">
+        <v>44</v>
+      </c>
+      <c r="L128" t="n">
+        <v>45</v>
+      </c>
+      <c r="M128" t="n">
+        <v>46</v>
+      </c>
+      <c r="N128" t="n">
+        <v>63</v>
+      </c>
+      <c r="O128" t="n">
+        <v>67</v>
+      </c>
+      <c r="P128" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>73</v>
+      </c>
+      <c r="R128" t="n">
+        <v>75</v>
+      </c>
+      <c r="S128" t="n">
+        <v>77</v>
+      </c>
+      <c r="T128" t="n">
+        <v>78</v>
+      </c>
+      <c r="U128" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14</v>
+      </c>
+      <c r="E129" t="n">
+        <v>17</v>
+      </c>
+      <c r="F129" t="n">
+        <v>27</v>
+      </c>
+      <c r="G129" t="n">
+        <v>30</v>
+      </c>
+      <c r="H129" t="n">
+        <v>31</v>
+      </c>
+      <c r="I129" t="n">
+        <v>34</v>
+      </c>
+      <c r="J129" t="n">
+        <v>39</v>
+      </c>
+      <c r="K129" t="n">
+        <v>40</v>
+      </c>
+      <c r="L129" t="n">
+        <v>44</v>
+      </c>
+      <c r="M129" t="n">
+        <v>51</v>
+      </c>
+      <c r="N129" t="n">
+        <v>52</v>
+      </c>
+      <c r="O129" t="n">
+        <v>62</v>
+      </c>
+      <c r="P129" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>69</v>
+      </c>
+      <c r="R129" t="n">
+        <v>70</v>
+      </c>
+      <c r="S129" t="n">
+        <v>71</v>
+      </c>
+      <c r="T129" t="n">
+        <v>72</v>
+      </c>
+      <c r="U129" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12</v>
+      </c>
+      <c r="D130" t="n">
+        <v>13</v>
+      </c>
+      <c r="E130" t="n">
+        <v>18</v>
+      </c>
+      <c r="F130" t="n">
+        <v>23</v>
+      </c>
+      <c r="G130" t="n">
+        <v>28</v>
+      </c>
+      <c r="H130" t="n">
+        <v>35</v>
+      </c>
+      <c r="I130" t="n">
+        <v>36</v>
+      </c>
+      <c r="J130" t="n">
+        <v>37</v>
+      </c>
+      <c r="K130" t="n">
+        <v>42</v>
+      </c>
+      <c r="L130" t="n">
+        <v>54</v>
+      </c>
+      <c r="M130" t="n">
+        <v>57</v>
+      </c>
+      <c r="N130" t="n">
+        <v>60</v>
+      </c>
+      <c r="O130" t="n">
+        <v>62</v>
+      </c>
+      <c r="P130" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>68</v>
+      </c>
+      <c r="R130" t="n">
+        <v>69</v>
+      </c>
+      <c r="S130" t="n">
+        <v>70</v>
+      </c>
+      <c r="T130" t="n">
+        <v>79</v>
+      </c>
+      <c r="U130" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13</v>
+      </c>
+      <c r="G131" t="n">
+        <v>26</v>
+      </c>
+      <c r="H131" t="n">
+        <v>29</v>
+      </c>
+      <c r="I131" t="n">
+        <v>32</v>
+      </c>
+      <c r="J131" t="n">
+        <v>33</v>
+      </c>
+      <c r="K131" t="n">
+        <v>34</v>
+      </c>
+      <c r="L131" t="n">
+        <v>42</v>
+      </c>
+      <c r="M131" t="n">
+        <v>46</v>
+      </c>
+      <c r="N131" t="n">
+        <v>52</v>
+      </c>
+      <c r="O131" t="n">
+        <v>54</v>
+      </c>
+      <c r="P131" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>63</v>
+      </c>
+      <c r="R131" t="n">
+        <v>64</v>
+      </c>
+      <c r="S131" t="n">
+        <v>67</v>
+      </c>
+      <c r="T131" t="n">
+        <v>70</v>
+      </c>
+      <c r="U131" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14</v>
+      </c>
+      <c r="E132" t="n">
+        <v>25</v>
+      </c>
+      <c r="F132" t="n">
+        <v>26</v>
+      </c>
+      <c r="G132" t="n">
+        <v>29</v>
+      </c>
+      <c r="H132" t="n">
+        <v>40</v>
+      </c>
+      <c r="I132" t="n">
+        <v>41</v>
+      </c>
+      <c r="J132" t="n">
+        <v>42</v>
+      </c>
+      <c r="K132" t="n">
+        <v>52</v>
+      </c>
+      <c r="L132" t="n">
+        <v>63</v>
+      </c>
+      <c r="M132" t="n">
+        <v>67</v>
+      </c>
+      <c r="N132" t="n">
+        <v>68</v>
+      </c>
+      <c r="O132" t="n">
+        <v>69</v>
+      </c>
+      <c r="P132" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>75</v>
+      </c>
+      <c r="R132" t="n">
+        <v>77</v>
+      </c>
+      <c r="S132" t="n">
+        <v>78</v>
+      </c>
+      <c r="T132" t="n">
+        <v>79</v>
+      </c>
+      <c r="U132" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12</v>
+      </c>
+      <c r="E133" t="n">
+        <v>14</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="n">
+        <v>17</v>
+      </c>
+      <c r="H133" t="n">
+        <v>21</v>
+      </c>
+      <c r="I133" t="n">
+        <v>23</v>
+      </c>
+      <c r="J133" t="n">
+        <v>25</v>
+      </c>
+      <c r="K133" t="n">
+        <v>29</v>
+      </c>
+      <c r="L133" t="n">
+        <v>40</v>
+      </c>
+      <c r="M133" t="n">
+        <v>44</v>
+      </c>
+      <c r="N133" t="n">
+        <v>46</v>
+      </c>
+      <c r="O133" t="n">
+        <v>59</v>
+      </c>
+      <c r="P133" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>64</v>
+      </c>
+      <c r="R133" t="n">
+        <v>72</v>
+      </c>
+      <c r="S133" t="n">
+        <v>73</v>
+      </c>
+      <c r="T133" t="n">
+        <v>76</v>
+      </c>
+      <c r="U133" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11</v>
+      </c>
+      <c r="F134" t="n">
+        <v>13</v>
+      </c>
+      <c r="G134" t="n">
+        <v>15</v>
+      </c>
+      <c r="H134" t="n">
+        <v>21</v>
+      </c>
+      <c r="I134" t="n">
+        <v>25</v>
+      </c>
+      <c r="J134" t="n">
+        <v>28</v>
+      </c>
+      <c r="K134" t="n">
+        <v>30</v>
+      </c>
+      <c r="L134" t="n">
+        <v>31</v>
+      </c>
+      <c r="M134" t="n">
+        <v>34</v>
+      </c>
+      <c r="N134" t="n">
+        <v>39</v>
+      </c>
+      <c r="O134" t="n">
+        <v>41</v>
+      </c>
+      <c r="P134" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>46</v>
+      </c>
+      <c r="R134" t="n">
+        <v>47</v>
+      </c>
+      <c r="S134" t="n">
+        <v>50</v>
+      </c>
+      <c r="T134" t="n">
+        <v>55</v>
+      </c>
+      <c r="U134" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12</v>
+      </c>
+      <c r="F135" t="n">
+        <v>13</v>
+      </c>
+      <c r="G135" t="n">
+        <v>16</v>
+      </c>
+      <c r="H135" t="n">
+        <v>18</v>
+      </c>
+      <c r="I135" t="n">
+        <v>21</v>
+      </c>
+      <c r="J135" t="n">
+        <v>22</v>
+      </c>
+      <c r="K135" t="n">
+        <v>26</v>
+      </c>
+      <c r="L135" t="n">
+        <v>32</v>
+      </c>
+      <c r="M135" t="n">
+        <v>40</v>
+      </c>
+      <c r="N135" t="n">
+        <v>43</v>
+      </c>
+      <c r="O135" t="n">
+        <v>46</v>
+      </c>
+      <c r="P135" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>54</v>
+      </c>
+      <c r="R135" t="n">
+        <v>59</v>
+      </c>
+      <c r="S135" t="n">
+        <v>61</v>
+      </c>
+      <c r="T135" t="n">
+        <v>65</v>
+      </c>
+      <c r="U135" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>10</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14</v>
+      </c>
+      <c r="G136" t="n">
+        <v>16</v>
+      </c>
+      <c r="H136" t="n">
+        <v>20</v>
+      </c>
+      <c r="I136" t="n">
+        <v>23</v>
+      </c>
+      <c r="J136" t="n">
+        <v>40</v>
+      </c>
+      <c r="K136" t="n">
+        <v>42</v>
+      </c>
+      <c r="L136" t="n">
+        <v>43</v>
+      </c>
+      <c r="M136" t="n">
+        <v>45</v>
+      </c>
+      <c r="N136" t="n">
+        <v>53</v>
+      </c>
+      <c r="O136" t="n">
+        <v>59</v>
+      </c>
+      <c r="P136" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>64</v>
+      </c>
+      <c r="R136" t="n">
+        <v>71</v>
+      </c>
+      <c r="S136" t="n">
+        <v>73</v>
+      </c>
+      <c r="T136" t="n">
+        <v>76</v>
+      </c>
+      <c r="U136" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>10</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14</v>
+      </c>
+      <c r="G137" t="n">
+        <v>21</v>
+      </c>
+      <c r="H137" t="n">
+        <v>22</v>
+      </c>
+      <c r="I137" t="n">
+        <v>23</v>
+      </c>
+      <c r="J137" t="n">
+        <v>27</v>
+      </c>
+      <c r="K137" t="n">
+        <v>32</v>
+      </c>
+      <c r="L137" t="n">
+        <v>33</v>
+      </c>
+      <c r="M137" t="n">
+        <v>35</v>
+      </c>
+      <c r="N137" t="n">
+        <v>36</v>
+      </c>
+      <c r="O137" t="n">
+        <v>46</v>
+      </c>
+      <c r="P137" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>65</v>
+      </c>
+      <c r="R137" t="n">
+        <v>68</v>
+      </c>
+      <c r="S137" t="n">
+        <v>69</v>
+      </c>
+      <c r="T137" t="n">
+        <v>75</v>
+      </c>
+      <c r="U137" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>16</v>
+      </c>
+      <c r="E138" t="n">
+        <v>20</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22</v>
+      </c>
+      <c r="G138" t="n">
+        <v>24</v>
+      </c>
+      <c r="H138" t="n">
+        <v>28</v>
+      </c>
+      <c r="I138" t="n">
+        <v>32</v>
+      </c>
+      <c r="J138" t="n">
+        <v>34</v>
+      </c>
+      <c r="K138" t="n">
+        <v>37</v>
+      </c>
+      <c r="L138" t="n">
+        <v>38</v>
+      </c>
+      <c r="M138" t="n">
+        <v>39</v>
+      </c>
+      <c r="N138" t="n">
+        <v>40</v>
+      </c>
+      <c r="O138" t="n">
+        <v>43</v>
+      </c>
+      <c r="P138" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>56</v>
+      </c>
+      <c r="R138" t="n">
+        <v>67</v>
+      </c>
+      <c r="S138" t="n">
+        <v>76</v>
+      </c>
+      <c r="T138" t="n">
+        <v>78</v>
+      </c>
+      <c r="U138" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>10</v>
+      </c>
+      <c r="C139" t="n">
+        <v>17</v>
+      </c>
+      <c r="D139" t="n">
+        <v>21</v>
+      </c>
+      <c r="E139" t="n">
+        <v>24</v>
+      </c>
+      <c r="F139" t="n">
+        <v>25</v>
+      </c>
+      <c r="G139" t="n">
+        <v>30</v>
+      </c>
+      <c r="H139" t="n">
+        <v>32</v>
+      </c>
+      <c r="I139" t="n">
+        <v>36</v>
+      </c>
+      <c r="J139" t="n">
+        <v>38</v>
+      </c>
+      <c r="K139" t="n">
+        <v>39</v>
+      </c>
+      <c r="L139" t="n">
+        <v>49</v>
+      </c>
+      <c r="M139" t="n">
+        <v>52</v>
+      </c>
+      <c r="N139" t="n">
+        <v>55</v>
+      </c>
+      <c r="O139" t="n">
+        <v>60</v>
+      </c>
+      <c r="P139" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>65</v>
+      </c>
+      <c r="R139" t="n">
+        <v>67</v>
+      </c>
+      <c r="S139" t="n">
+        <v>75</v>
+      </c>
+      <c r="T139" t="n">
+        <v>76</v>
+      </c>
+      <c r="U139" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>10</v>
+      </c>
+      <c r="C140" t="n">
+        <v>19</v>
+      </c>
+      <c r="D140" t="n">
+        <v>21</v>
+      </c>
+      <c r="E140" t="n">
+        <v>22</v>
+      </c>
+      <c r="F140" t="n">
+        <v>28</v>
+      </c>
+      <c r="G140" t="n">
+        <v>35</v>
+      </c>
+      <c r="H140" t="n">
+        <v>39</v>
+      </c>
+      <c r="I140" t="n">
+        <v>40</v>
+      </c>
+      <c r="J140" t="n">
+        <v>44</v>
+      </c>
+      <c r="K140" t="n">
+        <v>46</v>
+      </c>
+      <c r="L140" t="n">
+        <v>49</v>
+      </c>
+      <c r="M140" t="n">
+        <v>50</v>
+      </c>
+      <c r="N140" t="n">
+        <v>54</v>
+      </c>
+      <c r="O140" t="n">
+        <v>55</v>
+      </c>
+      <c r="P140" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>64</v>
+      </c>
+      <c r="R140" t="n">
+        <v>69</v>
+      </c>
+      <c r="S140" t="n">
+        <v>75</v>
+      </c>
+      <c r="T140" t="n">
+        <v>79</v>
+      </c>
+      <c r="U140" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12</v>
+      </c>
+      <c r="D141" t="n">
+        <v>17</v>
+      </c>
+      <c r="E141" t="n">
+        <v>18</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21</v>
+      </c>
+      <c r="H141" t="n">
+        <v>25</v>
+      </c>
+      <c r="I141" t="n">
+        <v>28</v>
+      </c>
+      <c r="J141" t="n">
+        <v>34</v>
+      </c>
+      <c r="K141" t="n">
+        <v>36</v>
+      </c>
+      <c r="L141" t="n">
+        <v>40</v>
+      </c>
+      <c r="M141" t="n">
+        <v>41</v>
+      </c>
+      <c r="N141" t="n">
+        <v>46</v>
+      </c>
+      <c r="O141" t="n">
+        <v>48</v>
+      </c>
+      <c r="P141" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>67</v>
+      </c>
+      <c r="R141" t="n">
+        <v>73</v>
+      </c>
+      <c r="S141" t="n">
+        <v>76</v>
+      </c>
+      <c r="T141" t="n">
+        <v>77</v>
+      </c>
+      <c r="U141" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" t="n">
+        <v>24</v>
+      </c>
+      <c r="H142" t="n">
+        <v>26</v>
+      </c>
+      <c r="I142" t="n">
+        <v>29</v>
+      </c>
+      <c r="J142" t="n">
+        <v>36</v>
+      </c>
+      <c r="K142" t="n">
+        <v>38</v>
+      </c>
+      <c r="L142" t="n">
+        <v>53</v>
+      </c>
+      <c r="M142" t="n">
+        <v>55</v>
+      </c>
+      <c r="N142" t="n">
+        <v>56</v>
+      </c>
+      <c r="O142" t="n">
+        <v>65</v>
+      </c>
+      <c r="P142" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>70</v>
+      </c>
+      <c r="R142" t="n">
+        <v>74</v>
+      </c>
+      <c r="S142" t="n">
+        <v>75</v>
+      </c>
+      <c r="T142" t="n">
+        <v>76</v>
+      </c>
+      <c r="U142" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12</v>
+      </c>
+      <c r="E143" t="n">
+        <v>14</v>
+      </c>
+      <c r="F143" t="n">
+        <v>34</v>
+      </c>
+      <c r="G143" t="n">
+        <v>35</v>
+      </c>
+      <c r="H143" t="n">
+        <v>41</v>
+      </c>
+      <c r="I143" t="n">
+        <v>42</v>
+      </c>
+      <c r="J143" t="n">
+        <v>43</v>
+      </c>
+      <c r="K143" t="n">
+        <v>44</v>
+      </c>
+      <c r="L143" t="n">
+        <v>45</v>
+      </c>
+      <c r="M143" t="n">
+        <v>54</v>
+      </c>
+      <c r="N143" t="n">
+        <v>55</v>
+      </c>
+      <c r="O143" t="n">
+        <v>61</v>
+      </c>
+      <c r="P143" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>63</v>
+      </c>
+      <c r="R143" t="n">
+        <v>64</v>
+      </c>
+      <c r="S143" t="n">
+        <v>65</v>
+      </c>
+      <c r="T143" t="n">
+        <v>70</v>
+      </c>
+      <c r="U143" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>13</v>
+      </c>
+      <c r="E144" t="n">
+        <v>14</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="n">
+        <v>16</v>
+      </c>
+      <c r="H144" t="n">
+        <v>18</v>
+      </c>
+      <c r="I144" t="n">
+        <v>26</v>
+      </c>
+      <c r="J144" t="n">
+        <v>28</v>
+      </c>
+      <c r="K144" t="n">
+        <v>29</v>
+      </c>
+      <c r="L144" t="n">
+        <v>31</v>
+      </c>
+      <c r="M144" t="n">
+        <v>35</v>
+      </c>
+      <c r="N144" t="n">
+        <v>39</v>
+      </c>
+      <c r="O144" t="n">
+        <v>42</v>
+      </c>
+      <c r="P144" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>47</v>
+      </c>
+      <c r="R144" t="n">
+        <v>51</v>
+      </c>
+      <c r="S144" t="n">
+        <v>60</v>
+      </c>
+      <c r="T144" t="n">
+        <v>62</v>
+      </c>
+      <c r="U144" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>13</v>
+      </c>
+      <c r="F145" t="n">
+        <v>26</v>
+      </c>
+      <c r="G145" t="n">
+        <v>29</v>
+      </c>
+      <c r="H145" t="n">
+        <v>31</v>
+      </c>
+      <c r="I145" t="n">
+        <v>34</v>
+      </c>
+      <c r="J145" t="n">
+        <v>35</v>
+      </c>
+      <c r="K145" t="n">
+        <v>36</v>
+      </c>
+      <c r="L145" t="n">
+        <v>40</v>
+      </c>
+      <c r="M145" t="n">
+        <v>48</v>
+      </c>
+      <c r="N145" t="n">
+        <v>54</v>
+      </c>
+      <c r="O145" t="n">
+        <v>58</v>
+      </c>
+      <c r="P145" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>64</v>
+      </c>
+      <c r="R145" t="n">
+        <v>67</v>
+      </c>
+      <c r="S145" t="n">
+        <v>69</v>
+      </c>
+      <c r="T145" t="n">
+        <v>73</v>
+      </c>
+      <c r="U145" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12</v>
+      </c>
+      <c r="G146" t="n">
+        <v>16</v>
+      </c>
+      <c r="H146" t="n">
+        <v>17</v>
+      </c>
+      <c r="I146" t="n">
+        <v>18</v>
+      </c>
+      <c r="J146" t="n">
+        <v>22</v>
+      </c>
+      <c r="K146" t="n">
+        <v>23</v>
+      </c>
+      <c r="L146" t="n">
+        <v>31</v>
+      </c>
+      <c r="M146" t="n">
+        <v>35</v>
+      </c>
+      <c r="N146" t="n">
+        <v>36</v>
+      </c>
+      <c r="O146" t="n">
+        <v>46</v>
+      </c>
+      <c r="P146" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>54</v>
+      </c>
+      <c r="R146" t="n">
+        <v>60</v>
+      </c>
+      <c r="S146" t="n">
+        <v>66</v>
+      </c>
+      <c r="T146" t="n">
+        <v>69</v>
+      </c>
+      <c r="U146" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" t="n">
+        <v>18</v>
+      </c>
+      <c r="H147" t="n">
+        <v>20</v>
+      </c>
+      <c r="I147" t="n">
+        <v>24</v>
+      </c>
+      <c r="J147" t="n">
+        <v>36</v>
+      </c>
+      <c r="K147" t="n">
+        <v>38</v>
+      </c>
+      <c r="L147" t="n">
+        <v>40</v>
+      </c>
+      <c r="M147" t="n">
+        <v>42</v>
+      </c>
+      <c r="N147" t="n">
+        <v>46</v>
+      </c>
+      <c r="O147" t="n">
+        <v>48</v>
+      </c>
+      <c r="P147" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>61</v>
+      </c>
+      <c r="R147" t="n">
+        <v>73</v>
+      </c>
+      <c r="S147" t="n">
+        <v>74</v>
+      </c>
+      <c r="T147" t="n">
+        <v>75</v>
+      </c>
+      <c r="U147" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11</v>
+      </c>
+      <c r="F148" t="n">
+        <v>12</v>
+      </c>
+      <c r="G148" t="n">
+        <v>23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>25</v>
+      </c>
+      <c r="I148" t="n">
+        <v>27</v>
+      </c>
+      <c r="J148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K148" t="n">
+        <v>32</v>
+      </c>
+      <c r="L148" t="n">
+        <v>38</v>
+      </c>
+      <c r="M148" t="n">
+        <v>49</v>
+      </c>
+      <c r="N148" t="n">
+        <v>51</v>
+      </c>
+      <c r="O148" t="n">
+        <v>53</v>
+      </c>
+      <c r="P148" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>59</v>
+      </c>
+      <c r="R148" t="n">
+        <v>61</v>
+      </c>
+      <c r="S148" t="n">
+        <v>66</v>
+      </c>
+      <c r="T148" t="n">
+        <v>68</v>
+      </c>
+      <c r="U148" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="n">
+        <v>18</v>
+      </c>
+      <c r="H149" t="n">
+        <v>19</v>
+      </c>
+      <c r="I149" t="n">
+        <v>21</v>
+      </c>
+      <c r="J149" t="n">
+        <v>28</v>
+      </c>
+      <c r="K149" t="n">
+        <v>30</v>
+      </c>
+      <c r="L149" t="n">
+        <v>32</v>
+      </c>
+      <c r="M149" t="n">
+        <v>40</v>
+      </c>
+      <c r="N149" t="n">
+        <v>46</v>
+      </c>
+      <c r="O149" t="n">
+        <v>49</v>
+      </c>
+      <c r="P149" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>65</v>
+      </c>
+      <c r="R149" t="n">
+        <v>66</v>
+      </c>
+      <c r="S149" t="n">
+        <v>76</v>
+      </c>
+      <c r="T149" t="n">
+        <v>77</v>
+      </c>
+      <c r="U149" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13</v>
+      </c>
+      <c r="G150" t="n">
+        <v>14</v>
+      </c>
+      <c r="H150" t="n">
+        <v>20</v>
+      </c>
+      <c r="I150" t="n">
+        <v>24</v>
+      </c>
+      <c r="J150" t="n">
+        <v>26</v>
+      </c>
+      <c r="K150" t="n">
+        <v>34</v>
+      </c>
+      <c r="L150" t="n">
+        <v>42</v>
+      </c>
+      <c r="M150" t="n">
+        <v>48</v>
+      </c>
+      <c r="N150" t="n">
+        <v>54</v>
+      </c>
+      <c r="O150" t="n">
+        <v>58</v>
+      </c>
+      <c r="P150" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>61</v>
+      </c>
+      <c r="R150" t="n">
+        <v>66</v>
+      </c>
+      <c r="S150" t="n">
+        <v>74</v>
+      </c>
+      <c r="T150" t="n">
+        <v>76</v>
+      </c>
+      <c r="U150" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11</v>
+      </c>
+      <c r="G151" t="n">
+        <v>13</v>
+      </c>
+      <c r="H151" t="n">
+        <v>17</v>
+      </c>
+      <c r="I151" t="n">
+        <v>20</v>
+      </c>
+      <c r="J151" t="n">
+        <v>38</v>
+      </c>
+      <c r="K151" t="n">
+        <v>45</v>
+      </c>
+      <c r="L151" t="n">
+        <v>47</v>
+      </c>
+      <c r="M151" t="n">
+        <v>50</v>
+      </c>
+      <c r="N151" t="n">
+        <v>55</v>
+      </c>
+      <c r="O151" t="n">
+        <v>57</v>
+      </c>
+      <c r="P151" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>60</v>
+      </c>
+      <c r="R151" t="n">
+        <v>63</v>
+      </c>
+      <c r="S151" t="n">
+        <v>69</v>
+      </c>
+      <c r="T151" t="n">
+        <v>72</v>
+      </c>
+      <c r="U151" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U151"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>13</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>8</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>12</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>18</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>8</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>11</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>4</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>5</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>5</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>4</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>6</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>5</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>8</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>6</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>5</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>4</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>18</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>2</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>6</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>7</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>4</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>7</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>7</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>3</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>2</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>2</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>7</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>8</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>4</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>4</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>3</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>6</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>2</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>4</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>4</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>2</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>3</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>3</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>2</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>4</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>4</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>9</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>3</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>4</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>4</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>3</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>2</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>4</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>3</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>2</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>2</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>8</v>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>8</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>5</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>5</v>
@@ -8298,7 +8298,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>2</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>3</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>10</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>2</v>
@@ -8688,7 +8688,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>6</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>8</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>7</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>7</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>7</v>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>2</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
         <v>3</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>3</v>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
         <v>10</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
         <v>10</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
         <v>5</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -9663,7 +9663,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
         <v>2</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
         <v>5</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
         <v>2</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
         <v>2</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
         <v>5</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
         <v>2</v>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
         <v>3</v>
@@ -10243,6 +10243,8261 @@
         <v>72</v>
       </c>
       <c r="U151" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>10</v>
+      </c>
+      <c r="F152" t="n">
+        <v>14</v>
+      </c>
+      <c r="G152" t="n">
+        <v>17</v>
+      </c>
+      <c r="H152" t="n">
+        <v>20</v>
+      </c>
+      <c r="I152" t="n">
+        <v>25</v>
+      </c>
+      <c r="J152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K152" t="n">
+        <v>34</v>
+      </c>
+      <c r="L152" t="n">
+        <v>36</v>
+      </c>
+      <c r="M152" t="n">
+        <v>38</v>
+      </c>
+      <c r="N152" t="n">
+        <v>42</v>
+      </c>
+      <c r="O152" t="n">
+        <v>43</v>
+      </c>
+      <c r="P152" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>47</v>
+      </c>
+      <c r="R152" t="n">
+        <v>55</v>
+      </c>
+      <c r="S152" t="n">
+        <v>58</v>
+      </c>
+      <c r="T152" t="n">
+        <v>63</v>
+      </c>
+      <c r="U152" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14</v>
+      </c>
+      <c r="E153" t="n">
+        <v>16</v>
+      </c>
+      <c r="F153" t="n">
+        <v>21</v>
+      </c>
+      <c r="G153" t="n">
+        <v>25</v>
+      </c>
+      <c r="H153" t="n">
+        <v>29</v>
+      </c>
+      <c r="I153" t="n">
+        <v>31</v>
+      </c>
+      <c r="J153" t="n">
+        <v>33</v>
+      </c>
+      <c r="K153" t="n">
+        <v>41</v>
+      </c>
+      <c r="L153" t="n">
+        <v>47</v>
+      </c>
+      <c r="M153" t="n">
+        <v>48</v>
+      </c>
+      <c r="N153" t="n">
+        <v>50</v>
+      </c>
+      <c r="O153" t="n">
+        <v>51</v>
+      </c>
+      <c r="P153" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>62</v>
+      </c>
+      <c r="R153" t="n">
+        <v>64</v>
+      </c>
+      <c r="S153" t="n">
+        <v>71</v>
+      </c>
+      <c r="T153" t="n">
+        <v>78</v>
+      </c>
+      <c r="U153" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10</v>
+      </c>
+      <c r="G154" t="n">
+        <v>11</v>
+      </c>
+      <c r="H154" t="n">
+        <v>14</v>
+      </c>
+      <c r="I154" t="n">
+        <v>17</v>
+      </c>
+      <c r="J154" t="n">
+        <v>20</v>
+      </c>
+      <c r="K154" t="n">
+        <v>22</v>
+      </c>
+      <c r="L154" t="n">
+        <v>27</v>
+      </c>
+      <c r="M154" t="n">
+        <v>36</v>
+      </c>
+      <c r="N154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O154" t="n">
+        <v>43</v>
+      </c>
+      <c r="P154" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>51</v>
+      </c>
+      <c r="R154" t="n">
+        <v>54</v>
+      </c>
+      <c r="S154" t="n">
+        <v>56</v>
+      </c>
+      <c r="T154" t="n">
+        <v>58</v>
+      </c>
+      <c r="U154" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>10</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12</v>
+      </c>
+      <c r="G155" t="n">
+        <v>16</v>
+      </c>
+      <c r="H155" t="n">
+        <v>17</v>
+      </c>
+      <c r="I155" t="n">
+        <v>26</v>
+      </c>
+      <c r="J155" t="n">
+        <v>30</v>
+      </c>
+      <c r="K155" t="n">
+        <v>31</v>
+      </c>
+      <c r="L155" t="n">
+        <v>32</v>
+      </c>
+      <c r="M155" t="n">
+        <v>34</v>
+      </c>
+      <c r="N155" t="n">
+        <v>35</v>
+      </c>
+      <c r="O155" t="n">
+        <v>37</v>
+      </c>
+      <c r="P155" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>47</v>
+      </c>
+      <c r="R155" t="n">
+        <v>52</v>
+      </c>
+      <c r="S155" t="n">
+        <v>66</v>
+      </c>
+      <c r="T155" t="n">
+        <v>69</v>
+      </c>
+      <c r="U155" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12</v>
+      </c>
+      <c r="D156" t="n">
+        <v>13</v>
+      </c>
+      <c r="E156" t="n">
+        <v>16</v>
+      </c>
+      <c r="F156" t="n">
+        <v>19</v>
+      </c>
+      <c r="G156" t="n">
+        <v>22</v>
+      </c>
+      <c r="H156" t="n">
+        <v>25</v>
+      </c>
+      <c r="I156" t="n">
+        <v>27</v>
+      </c>
+      <c r="J156" t="n">
+        <v>28</v>
+      </c>
+      <c r="K156" t="n">
+        <v>30</v>
+      </c>
+      <c r="L156" t="n">
+        <v>45</v>
+      </c>
+      <c r="M156" t="n">
+        <v>50</v>
+      </c>
+      <c r="N156" t="n">
+        <v>55</v>
+      </c>
+      <c r="O156" t="n">
+        <v>57</v>
+      </c>
+      <c r="P156" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>62</v>
+      </c>
+      <c r="R156" t="n">
+        <v>64</v>
+      </c>
+      <c r="S156" t="n">
+        <v>66</v>
+      </c>
+      <c r="T156" t="n">
+        <v>71</v>
+      </c>
+      <c r="U156" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>14</v>
+      </c>
+      <c r="F157" t="n">
+        <v>24</v>
+      </c>
+      <c r="G157" t="n">
+        <v>25</v>
+      </c>
+      <c r="H157" t="n">
+        <v>26</v>
+      </c>
+      <c r="I157" t="n">
+        <v>34</v>
+      </c>
+      <c r="J157" t="n">
+        <v>38</v>
+      </c>
+      <c r="K157" t="n">
+        <v>39</v>
+      </c>
+      <c r="L157" t="n">
+        <v>41</v>
+      </c>
+      <c r="M157" t="n">
+        <v>42</v>
+      </c>
+      <c r="N157" t="n">
+        <v>45</v>
+      </c>
+      <c r="O157" t="n">
+        <v>51</v>
+      </c>
+      <c r="P157" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>66</v>
+      </c>
+      <c r="R157" t="n">
+        <v>71</v>
+      </c>
+      <c r="S157" t="n">
+        <v>74</v>
+      </c>
+      <c r="T157" t="n">
+        <v>76</v>
+      </c>
+      <c r="U157" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="n">
+        <v>19</v>
+      </c>
+      <c r="H158" t="n">
+        <v>22</v>
+      </c>
+      <c r="I158" t="n">
+        <v>29</v>
+      </c>
+      <c r="J158" t="n">
+        <v>37</v>
+      </c>
+      <c r="K158" t="n">
+        <v>39</v>
+      </c>
+      <c r="L158" t="n">
+        <v>43</v>
+      </c>
+      <c r="M158" t="n">
+        <v>48</v>
+      </c>
+      <c r="N158" t="n">
+        <v>51</v>
+      </c>
+      <c r="O158" t="n">
+        <v>54</v>
+      </c>
+      <c r="P158" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>60</v>
+      </c>
+      <c r="R158" t="n">
+        <v>64</v>
+      </c>
+      <c r="S158" t="n">
+        <v>71</v>
+      </c>
+      <c r="T158" t="n">
+        <v>76</v>
+      </c>
+      <c r="U158" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11</v>
+      </c>
+      <c r="C159" t="n">
+        <v>13</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15</v>
+      </c>
+      <c r="E159" t="n">
+        <v>16</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="n">
+        <v>19</v>
+      </c>
+      <c r="H159" t="n">
+        <v>22</v>
+      </c>
+      <c r="I159" t="n">
+        <v>25</v>
+      </c>
+      <c r="J159" t="n">
+        <v>26</v>
+      </c>
+      <c r="K159" t="n">
+        <v>27</v>
+      </c>
+      <c r="L159" t="n">
+        <v>36</v>
+      </c>
+      <c r="M159" t="n">
+        <v>40</v>
+      </c>
+      <c r="N159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O159" t="n">
+        <v>43</v>
+      </c>
+      <c r="P159" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>59</v>
+      </c>
+      <c r="R159" t="n">
+        <v>60</v>
+      </c>
+      <c r="S159" t="n">
+        <v>62</v>
+      </c>
+      <c r="T159" t="n">
+        <v>68</v>
+      </c>
+      <c r="U159" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>13</v>
+      </c>
+      <c r="D160" t="n">
+        <v>16</v>
+      </c>
+      <c r="E160" t="n">
+        <v>17</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19</v>
+      </c>
+      <c r="G160" t="n">
+        <v>28</v>
+      </c>
+      <c r="H160" t="n">
+        <v>31</v>
+      </c>
+      <c r="I160" t="n">
+        <v>32</v>
+      </c>
+      <c r="J160" t="n">
+        <v>39</v>
+      </c>
+      <c r="K160" t="n">
+        <v>40</v>
+      </c>
+      <c r="L160" t="n">
+        <v>48</v>
+      </c>
+      <c r="M160" t="n">
+        <v>49</v>
+      </c>
+      <c r="N160" t="n">
+        <v>50</v>
+      </c>
+      <c r="O160" t="n">
+        <v>51</v>
+      </c>
+      <c r="P160" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>72</v>
+      </c>
+      <c r="R160" t="n">
+        <v>74</v>
+      </c>
+      <c r="S160" t="n">
+        <v>76</v>
+      </c>
+      <c r="T160" t="n">
+        <v>78</v>
+      </c>
+      <c r="U160" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11</v>
+      </c>
+      <c r="D161" t="n">
+        <v>16</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20</v>
+      </c>
+      <c r="F161" t="n">
+        <v>24</v>
+      </c>
+      <c r="G161" t="n">
+        <v>26</v>
+      </c>
+      <c r="H161" t="n">
+        <v>27</v>
+      </c>
+      <c r="I161" t="n">
+        <v>28</v>
+      </c>
+      <c r="J161" t="n">
+        <v>33</v>
+      </c>
+      <c r="K161" t="n">
+        <v>34</v>
+      </c>
+      <c r="L161" t="n">
+        <v>37</v>
+      </c>
+      <c r="M161" t="n">
+        <v>44</v>
+      </c>
+      <c r="N161" t="n">
+        <v>48</v>
+      </c>
+      <c r="O161" t="n">
+        <v>51</v>
+      </c>
+      <c r="P161" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>55</v>
+      </c>
+      <c r="R161" t="n">
+        <v>68</v>
+      </c>
+      <c r="S161" t="n">
+        <v>71</v>
+      </c>
+      <c r="T161" t="n">
+        <v>72</v>
+      </c>
+      <c r="U161" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>16</v>
+      </c>
+      <c r="E162" t="n">
+        <v>21</v>
+      </c>
+      <c r="F162" t="n">
+        <v>25</v>
+      </c>
+      <c r="G162" t="n">
+        <v>26</v>
+      </c>
+      <c r="H162" t="n">
+        <v>28</v>
+      </c>
+      <c r="I162" t="n">
+        <v>29</v>
+      </c>
+      <c r="J162" t="n">
+        <v>31</v>
+      </c>
+      <c r="K162" t="n">
+        <v>35</v>
+      </c>
+      <c r="L162" t="n">
+        <v>37</v>
+      </c>
+      <c r="M162" t="n">
+        <v>42</v>
+      </c>
+      <c r="N162" t="n">
+        <v>49</v>
+      </c>
+      <c r="O162" t="n">
+        <v>51</v>
+      </c>
+      <c r="P162" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>61</v>
+      </c>
+      <c r="R162" t="n">
+        <v>63</v>
+      </c>
+      <c r="S162" t="n">
+        <v>65</v>
+      </c>
+      <c r="T162" t="n">
+        <v>66</v>
+      </c>
+      <c r="U162" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9</v>
+      </c>
+      <c r="F163" t="n">
+        <v>16</v>
+      </c>
+      <c r="G163" t="n">
+        <v>19</v>
+      </c>
+      <c r="H163" t="n">
+        <v>22</v>
+      </c>
+      <c r="I163" t="n">
+        <v>23</v>
+      </c>
+      <c r="J163" t="n">
+        <v>25</v>
+      </c>
+      <c r="K163" t="n">
+        <v>29</v>
+      </c>
+      <c r="L163" t="n">
+        <v>30</v>
+      </c>
+      <c r="M163" t="n">
+        <v>37</v>
+      </c>
+      <c r="N163" t="n">
+        <v>39</v>
+      </c>
+      <c r="O163" t="n">
+        <v>43</v>
+      </c>
+      <c r="P163" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>52</v>
+      </c>
+      <c r="R163" t="n">
+        <v>66</v>
+      </c>
+      <c r="S163" t="n">
+        <v>67</v>
+      </c>
+      <c r="T163" t="n">
+        <v>74</v>
+      </c>
+      <c r="U163" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>14</v>
+      </c>
+      <c r="E164" t="n">
+        <v>17</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18</v>
+      </c>
+      <c r="G164" t="n">
+        <v>23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>35</v>
+      </c>
+      <c r="I164" t="n">
+        <v>40</v>
+      </c>
+      <c r="J164" t="n">
+        <v>41</v>
+      </c>
+      <c r="K164" t="n">
+        <v>42</v>
+      </c>
+      <c r="L164" t="n">
+        <v>43</v>
+      </c>
+      <c r="M164" t="n">
+        <v>45</v>
+      </c>
+      <c r="N164" t="n">
+        <v>54</v>
+      </c>
+      <c r="O164" t="n">
+        <v>55</v>
+      </c>
+      <c r="P164" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>58</v>
+      </c>
+      <c r="R164" t="n">
+        <v>60</v>
+      </c>
+      <c r="S164" t="n">
+        <v>65</v>
+      </c>
+      <c r="T164" t="n">
+        <v>68</v>
+      </c>
+      <c r="U164" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>10</v>
+      </c>
+      <c r="E165" t="n">
+        <v>19</v>
+      </c>
+      <c r="F165" t="n">
+        <v>25</v>
+      </c>
+      <c r="G165" t="n">
+        <v>30</v>
+      </c>
+      <c r="H165" t="n">
+        <v>36</v>
+      </c>
+      <c r="I165" t="n">
+        <v>37</v>
+      </c>
+      <c r="J165" t="n">
+        <v>43</v>
+      </c>
+      <c r="K165" t="n">
+        <v>46</v>
+      </c>
+      <c r="L165" t="n">
+        <v>50</v>
+      </c>
+      <c r="M165" t="n">
+        <v>56</v>
+      </c>
+      <c r="N165" t="n">
+        <v>59</v>
+      </c>
+      <c r="O165" t="n">
+        <v>60</v>
+      </c>
+      <c r="P165" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>67</v>
+      </c>
+      <c r="R165" t="n">
+        <v>68</v>
+      </c>
+      <c r="S165" t="n">
+        <v>70</v>
+      </c>
+      <c r="T165" t="n">
+        <v>71</v>
+      </c>
+      <c r="U165" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11</v>
+      </c>
+      <c r="F166" t="n">
+        <v>12</v>
+      </c>
+      <c r="G166" t="n">
+        <v>20</v>
+      </c>
+      <c r="H166" t="n">
+        <v>25</v>
+      </c>
+      <c r="I166" t="n">
+        <v>26</v>
+      </c>
+      <c r="J166" t="n">
+        <v>29</v>
+      </c>
+      <c r="K166" t="n">
+        <v>43</v>
+      </c>
+      <c r="L166" t="n">
+        <v>44</v>
+      </c>
+      <c r="M166" t="n">
+        <v>47</v>
+      </c>
+      <c r="N166" t="n">
+        <v>48</v>
+      </c>
+      <c r="O166" t="n">
+        <v>49</v>
+      </c>
+      <c r="P166" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>62</v>
+      </c>
+      <c r="R166" t="n">
+        <v>64</v>
+      </c>
+      <c r="S166" t="n">
+        <v>67</v>
+      </c>
+      <c r="T166" t="n">
+        <v>72</v>
+      </c>
+      <c r="U166" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14</v>
+      </c>
+      <c r="G167" t="n">
+        <v>19</v>
+      </c>
+      <c r="H167" t="n">
+        <v>25</v>
+      </c>
+      <c r="I167" t="n">
+        <v>26</v>
+      </c>
+      <c r="J167" t="n">
+        <v>27</v>
+      </c>
+      <c r="K167" t="n">
+        <v>28</v>
+      </c>
+      <c r="L167" t="n">
+        <v>32</v>
+      </c>
+      <c r="M167" t="n">
+        <v>33</v>
+      </c>
+      <c r="N167" t="n">
+        <v>40</v>
+      </c>
+      <c r="O167" t="n">
+        <v>56</v>
+      </c>
+      <c r="P167" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>65</v>
+      </c>
+      <c r="R167" t="n">
+        <v>71</v>
+      </c>
+      <c r="S167" t="n">
+        <v>74</v>
+      </c>
+      <c r="T167" t="n">
+        <v>76</v>
+      </c>
+      <c r="U167" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>14</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15</v>
+      </c>
+      <c r="E168" t="n">
+        <v>17</v>
+      </c>
+      <c r="F168" t="n">
+        <v>18</v>
+      </c>
+      <c r="G168" t="n">
+        <v>22</v>
+      </c>
+      <c r="H168" t="n">
+        <v>24</v>
+      </c>
+      <c r="I168" t="n">
+        <v>26</v>
+      </c>
+      <c r="J168" t="n">
+        <v>33</v>
+      </c>
+      <c r="K168" t="n">
+        <v>34</v>
+      </c>
+      <c r="L168" t="n">
+        <v>35</v>
+      </c>
+      <c r="M168" t="n">
+        <v>37</v>
+      </c>
+      <c r="N168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O168" t="n">
+        <v>46</v>
+      </c>
+      <c r="P168" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>51</v>
+      </c>
+      <c r="R168" t="n">
+        <v>59</v>
+      </c>
+      <c r="S168" t="n">
+        <v>61</v>
+      </c>
+      <c r="T168" t="n">
+        <v>63</v>
+      </c>
+      <c r="U168" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>10</v>
+      </c>
+      <c r="D169" t="n">
+        <v>20</v>
+      </c>
+      <c r="E169" t="n">
+        <v>22</v>
+      </c>
+      <c r="F169" t="n">
+        <v>26</v>
+      </c>
+      <c r="G169" t="n">
+        <v>27</v>
+      </c>
+      <c r="H169" t="n">
+        <v>29</v>
+      </c>
+      <c r="I169" t="n">
+        <v>33</v>
+      </c>
+      <c r="J169" t="n">
+        <v>39</v>
+      </c>
+      <c r="K169" t="n">
+        <v>44</v>
+      </c>
+      <c r="L169" t="n">
+        <v>45</v>
+      </c>
+      <c r="M169" t="n">
+        <v>53</v>
+      </c>
+      <c r="N169" t="n">
+        <v>55</v>
+      </c>
+      <c r="O169" t="n">
+        <v>56</v>
+      </c>
+      <c r="P169" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>63</v>
+      </c>
+      <c r="R169" t="n">
+        <v>65</v>
+      </c>
+      <c r="S169" t="n">
+        <v>68</v>
+      </c>
+      <c r="T169" t="n">
+        <v>71</v>
+      </c>
+      <c r="U169" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>14</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15</v>
+      </c>
+      <c r="D170" t="n">
+        <v>21</v>
+      </c>
+      <c r="E170" t="n">
+        <v>23</v>
+      </c>
+      <c r="F170" t="n">
+        <v>24</v>
+      </c>
+      <c r="G170" t="n">
+        <v>26</v>
+      </c>
+      <c r="H170" t="n">
+        <v>28</v>
+      </c>
+      <c r="I170" t="n">
+        <v>29</v>
+      </c>
+      <c r="J170" t="n">
+        <v>39</v>
+      </c>
+      <c r="K170" t="n">
+        <v>51</v>
+      </c>
+      <c r="L170" t="n">
+        <v>56</v>
+      </c>
+      <c r="M170" t="n">
+        <v>57</v>
+      </c>
+      <c r="N170" t="n">
+        <v>59</v>
+      </c>
+      <c r="O170" t="n">
+        <v>62</v>
+      </c>
+      <c r="P170" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>66</v>
+      </c>
+      <c r="R170" t="n">
+        <v>71</v>
+      </c>
+      <c r="S170" t="n">
+        <v>73</v>
+      </c>
+      <c r="T170" t="n">
+        <v>76</v>
+      </c>
+      <c r="U170" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10</v>
+      </c>
+      <c r="E171" t="n">
+        <v>14</v>
+      </c>
+      <c r="F171" t="n">
+        <v>15</v>
+      </c>
+      <c r="G171" t="n">
+        <v>21</v>
+      </c>
+      <c r="H171" t="n">
+        <v>23</v>
+      </c>
+      <c r="I171" t="n">
+        <v>29</v>
+      </c>
+      <c r="J171" t="n">
+        <v>32</v>
+      </c>
+      <c r="K171" t="n">
+        <v>36</v>
+      </c>
+      <c r="L171" t="n">
+        <v>48</v>
+      </c>
+      <c r="M171" t="n">
+        <v>52</v>
+      </c>
+      <c r="N171" t="n">
+        <v>64</v>
+      </c>
+      <c r="O171" t="n">
+        <v>66</v>
+      </c>
+      <c r="P171" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>68</v>
+      </c>
+      <c r="R171" t="n">
+        <v>69</v>
+      </c>
+      <c r="S171" t="n">
+        <v>71</v>
+      </c>
+      <c r="T171" t="n">
+        <v>73</v>
+      </c>
+      <c r="U171" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>19</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="n">
+        <v>21</v>
+      </c>
+      <c r="H172" t="n">
+        <v>22</v>
+      </c>
+      <c r="I172" t="n">
+        <v>27</v>
+      </c>
+      <c r="J172" t="n">
+        <v>28</v>
+      </c>
+      <c r="K172" t="n">
+        <v>29</v>
+      </c>
+      <c r="L172" t="n">
+        <v>30</v>
+      </c>
+      <c r="M172" t="n">
+        <v>32</v>
+      </c>
+      <c r="N172" t="n">
+        <v>38</v>
+      </c>
+      <c r="O172" t="n">
+        <v>46</v>
+      </c>
+      <c r="P172" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>54</v>
+      </c>
+      <c r="R172" t="n">
+        <v>60</v>
+      </c>
+      <c r="S172" t="n">
+        <v>65</v>
+      </c>
+      <c r="T172" t="n">
+        <v>70</v>
+      </c>
+      <c r="U172" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>18</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="n">
+        <v>23</v>
+      </c>
+      <c r="H173" t="n">
+        <v>25</v>
+      </c>
+      <c r="I173" t="n">
+        <v>33</v>
+      </c>
+      <c r="J173" t="n">
+        <v>37</v>
+      </c>
+      <c r="K173" t="n">
+        <v>38</v>
+      </c>
+      <c r="L173" t="n">
+        <v>49</v>
+      </c>
+      <c r="M173" t="n">
+        <v>52</v>
+      </c>
+      <c r="N173" t="n">
+        <v>53</v>
+      </c>
+      <c r="O173" t="n">
+        <v>59</v>
+      </c>
+      <c r="P173" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>64</v>
+      </c>
+      <c r="R173" t="n">
+        <v>69</v>
+      </c>
+      <c r="S173" t="n">
+        <v>71</v>
+      </c>
+      <c r="T173" t="n">
+        <v>72</v>
+      </c>
+      <c r="U173" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11</v>
+      </c>
+      <c r="D174" t="n">
+        <v>20</v>
+      </c>
+      <c r="E174" t="n">
+        <v>28</v>
+      </c>
+      <c r="F174" t="n">
+        <v>33</v>
+      </c>
+      <c r="G174" t="n">
+        <v>34</v>
+      </c>
+      <c r="H174" t="n">
+        <v>44</v>
+      </c>
+      <c r="I174" t="n">
+        <v>46</v>
+      </c>
+      <c r="J174" t="n">
+        <v>47</v>
+      </c>
+      <c r="K174" t="n">
+        <v>48</v>
+      </c>
+      <c r="L174" t="n">
+        <v>54</v>
+      </c>
+      <c r="M174" t="n">
+        <v>55</v>
+      </c>
+      <c r="N174" t="n">
+        <v>63</v>
+      </c>
+      <c r="O174" t="n">
+        <v>64</v>
+      </c>
+      <c r="P174" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>70</v>
+      </c>
+      <c r="R174" t="n">
+        <v>72</v>
+      </c>
+      <c r="S174" t="n">
+        <v>73</v>
+      </c>
+      <c r="T174" t="n">
+        <v>75</v>
+      </c>
+      <c r="U174" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>10</v>
+      </c>
+      <c r="F175" t="n">
+        <v>12</v>
+      </c>
+      <c r="G175" t="n">
+        <v>14</v>
+      </c>
+      <c r="H175" t="n">
+        <v>15</v>
+      </c>
+      <c r="I175" t="n">
+        <v>26</v>
+      </c>
+      <c r="J175" t="n">
+        <v>28</v>
+      </c>
+      <c r="K175" t="n">
+        <v>32</v>
+      </c>
+      <c r="L175" t="n">
+        <v>33</v>
+      </c>
+      <c r="M175" t="n">
+        <v>37</v>
+      </c>
+      <c r="N175" t="n">
+        <v>46</v>
+      </c>
+      <c r="O175" t="n">
+        <v>48</v>
+      </c>
+      <c r="P175" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>54</v>
+      </c>
+      <c r="R175" t="n">
+        <v>56</v>
+      </c>
+      <c r="S175" t="n">
+        <v>67</v>
+      </c>
+      <c r="T175" t="n">
+        <v>74</v>
+      </c>
+      <c r="U175" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>10</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11</v>
+      </c>
+      <c r="F176" t="n">
+        <v>14</v>
+      </c>
+      <c r="G176" t="n">
+        <v>18</v>
+      </c>
+      <c r="H176" t="n">
+        <v>27</v>
+      </c>
+      <c r="I176" t="n">
+        <v>28</v>
+      </c>
+      <c r="J176" t="n">
+        <v>32</v>
+      </c>
+      <c r="K176" t="n">
+        <v>36</v>
+      </c>
+      <c r="L176" t="n">
+        <v>38</v>
+      </c>
+      <c r="M176" t="n">
+        <v>43</v>
+      </c>
+      <c r="N176" t="n">
+        <v>44</v>
+      </c>
+      <c r="O176" t="n">
+        <v>51</v>
+      </c>
+      <c r="P176" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>61</v>
+      </c>
+      <c r="R176" t="n">
+        <v>65</v>
+      </c>
+      <c r="S176" t="n">
+        <v>66</v>
+      </c>
+      <c r="T176" t="n">
+        <v>74</v>
+      </c>
+      <c r="U176" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" t="n">
+        <v>16</v>
+      </c>
+      <c r="F177" t="n">
+        <v>27</v>
+      </c>
+      <c r="G177" t="n">
+        <v>29</v>
+      </c>
+      <c r="H177" t="n">
+        <v>30</v>
+      </c>
+      <c r="I177" t="n">
+        <v>40</v>
+      </c>
+      <c r="J177" t="n">
+        <v>41</v>
+      </c>
+      <c r="K177" t="n">
+        <v>42</v>
+      </c>
+      <c r="L177" t="n">
+        <v>44</v>
+      </c>
+      <c r="M177" t="n">
+        <v>49</v>
+      </c>
+      <c r="N177" t="n">
+        <v>50</v>
+      </c>
+      <c r="O177" t="n">
+        <v>52</v>
+      </c>
+      <c r="P177" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>66</v>
+      </c>
+      <c r="R177" t="n">
+        <v>68</v>
+      </c>
+      <c r="S177" t="n">
+        <v>69</v>
+      </c>
+      <c r="T177" t="n">
+        <v>71</v>
+      </c>
+      <c r="U177" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>14</v>
+      </c>
+      <c r="G178" t="n">
+        <v>15</v>
+      </c>
+      <c r="H178" t="n">
+        <v>16</v>
+      </c>
+      <c r="I178" t="n">
+        <v>27</v>
+      </c>
+      <c r="J178" t="n">
+        <v>30</v>
+      </c>
+      <c r="K178" t="n">
+        <v>42</v>
+      </c>
+      <c r="L178" t="n">
+        <v>45</v>
+      </c>
+      <c r="M178" t="n">
+        <v>53</v>
+      </c>
+      <c r="N178" t="n">
+        <v>54</v>
+      </c>
+      <c r="O178" t="n">
+        <v>60</v>
+      </c>
+      <c r="P178" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>63</v>
+      </c>
+      <c r="R178" t="n">
+        <v>68</v>
+      </c>
+      <c r="S178" t="n">
+        <v>71</v>
+      </c>
+      <c r="T178" t="n">
+        <v>72</v>
+      </c>
+      <c r="U178" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>14</v>
+      </c>
+      <c r="D179" t="n">
+        <v>21</v>
+      </c>
+      <c r="E179" t="n">
+        <v>25</v>
+      </c>
+      <c r="F179" t="n">
+        <v>28</v>
+      </c>
+      <c r="G179" t="n">
+        <v>32</v>
+      </c>
+      <c r="H179" t="n">
+        <v>34</v>
+      </c>
+      <c r="I179" t="n">
+        <v>39</v>
+      </c>
+      <c r="J179" t="n">
+        <v>45</v>
+      </c>
+      <c r="K179" t="n">
+        <v>49</v>
+      </c>
+      <c r="L179" t="n">
+        <v>50</v>
+      </c>
+      <c r="M179" t="n">
+        <v>54</v>
+      </c>
+      <c r="N179" t="n">
+        <v>55</v>
+      </c>
+      <c r="O179" t="n">
+        <v>59</v>
+      </c>
+      <c r="P179" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>63</v>
+      </c>
+      <c r="R179" t="n">
+        <v>64</v>
+      </c>
+      <c r="S179" t="n">
+        <v>67</v>
+      </c>
+      <c r="T179" t="n">
+        <v>68</v>
+      </c>
+      <c r="U179" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>14</v>
+      </c>
+      <c r="D180" t="n">
+        <v>16</v>
+      </c>
+      <c r="E180" t="n">
+        <v>17</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="n">
+        <v>20</v>
+      </c>
+      <c r="H180" t="n">
+        <v>22</v>
+      </c>
+      <c r="I180" t="n">
+        <v>23</v>
+      </c>
+      <c r="J180" t="n">
+        <v>28</v>
+      </c>
+      <c r="K180" t="n">
+        <v>29</v>
+      </c>
+      <c r="L180" t="n">
+        <v>31</v>
+      </c>
+      <c r="M180" t="n">
+        <v>34</v>
+      </c>
+      <c r="N180" t="n">
+        <v>36</v>
+      </c>
+      <c r="O180" t="n">
+        <v>38</v>
+      </c>
+      <c r="P180" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>52</v>
+      </c>
+      <c r="R180" t="n">
+        <v>62</v>
+      </c>
+      <c r="S180" t="n">
+        <v>65</v>
+      </c>
+      <c r="T180" t="n">
+        <v>70</v>
+      </c>
+      <c r="U180" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>29</v>
+      </c>
+      <c r="D181" t="n">
+        <v>31</v>
+      </c>
+      <c r="E181" t="n">
+        <v>36</v>
+      </c>
+      <c r="F181" t="n">
+        <v>40</v>
+      </c>
+      <c r="G181" t="n">
+        <v>41</v>
+      </c>
+      <c r="H181" t="n">
+        <v>42</v>
+      </c>
+      <c r="I181" t="n">
+        <v>46</v>
+      </c>
+      <c r="J181" t="n">
+        <v>49</v>
+      </c>
+      <c r="K181" t="n">
+        <v>50</v>
+      </c>
+      <c r="L181" t="n">
+        <v>53</v>
+      </c>
+      <c r="M181" t="n">
+        <v>59</v>
+      </c>
+      <c r="N181" t="n">
+        <v>65</v>
+      </c>
+      <c r="O181" t="n">
+        <v>67</v>
+      </c>
+      <c r="P181" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>72</v>
+      </c>
+      <c r="R181" t="n">
+        <v>74</v>
+      </c>
+      <c r="S181" t="n">
+        <v>76</v>
+      </c>
+      <c r="T181" t="n">
+        <v>78</v>
+      </c>
+      <c r="U181" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12</v>
+      </c>
+      <c r="G182" t="n">
+        <v>16</v>
+      </c>
+      <c r="H182" t="n">
+        <v>25</v>
+      </c>
+      <c r="I182" t="n">
+        <v>26</v>
+      </c>
+      <c r="J182" t="n">
+        <v>27</v>
+      </c>
+      <c r="K182" t="n">
+        <v>29</v>
+      </c>
+      <c r="L182" t="n">
+        <v>30</v>
+      </c>
+      <c r="M182" t="n">
+        <v>32</v>
+      </c>
+      <c r="N182" t="n">
+        <v>37</v>
+      </c>
+      <c r="O182" t="n">
+        <v>48</v>
+      </c>
+      <c r="P182" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>51</v>
+      </c>
+      <c r="R182" t="n">
+        <v>53</v>
+      </c>
+      <c r="S182" t="n">
+        <v>57</v>
+      </c>
+      <c r="T182" t="n">
+        <v>64</v>
+      </c>
+      <c r="U182" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11</v>
+      </c>
+      <c r="D183" t="n">
+        <v>13</v>
+      </c>
+      <c r="E183" t="n">
+        <v>14</v>
+      </c>
+      <c r="F183" t="n">
+        <v>16</v>
+      </c>
+      <c r="G183" t="n">
+        <v>22</v>
+      </c>
+      <c r="H183" t="n">
+        <v>29</v>
+      </c>
+      <c r="I183" t="n">
+        <v>37</v>
+      </c>
+      <c r="J183" t="n">
+        <v>38</v>
+      </c>
+      <c r="K183" t="n">
+        <v>40</v>
+      </c>
+      <c r="L183" t="n">
+        <v>43</v>
+      </c>
+      <c r="M183" t="n">
+        <v>44</v>
+      </c>
+      <c r="N183" t="n">
+        <v>45</v>
+      </c>
+      <c r="O183" t="n">
+        <v>52</v>
+      </c>
+      <c r="P183" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>64</v>
+      </c>
+      <c r="R183" t="n">
+        <v>68</v>
+      </c>
+      <c r="S183" t="n">
+        <v>74</v>
+      </c>
+      <c r="T183" t="n">
+        <v>77</v>
+      </c>
+      <c r="U183" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11</v>
+      </c>
+      <c r="F184" t="n">
+        <v>12</v>
+      </c>
+      <c r="G184" t="n">
+        <v>14</v>
+      </c>
+      <c r="H184" t="n">
+        <v>18</v>
+      </c>
+      <c r="I184" t="n">
+        <v>20</v>
+      </c>
+      <c r="J184" t="n">
+        <v>25</v>
+      </c>
+      <c r="K184" t="n">
+        <v>31</v>
+      </c>
+      <c r="L184" t="n">
+        <v>33</v>
+      </c>
+      <c r="M184" t="n">
+        <v>35</v>
+      </c>
+      <c r="N184" t="n">
+        <v>42</v>
+      </c>
+      <c r="O184" t="n">
+        <v>50</v>
+      </c>
+      <c r="P184" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>55</v>
+      </c>
+      <c r="R184" t="n">
+        <v>64</v>
+      </c>
+      <c r="S184" t="n">
+        <v>71</v>
+      </c>
+      <c r="T184" t="n">
+        <v>72</v>
+      </c>
+      <c r="U184" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>17</v>
+      </c>
+      <c r="E185" t="n">
+        <v>22</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24</v>
+      </c>
+      <c r="G185" t="n">
+        <v>25</v>
+      </c>
+      <c r="H185" t="n">
+        <v>29</v>
+      </c>
+      <c r="I185" t="n">
+        <v>32</v>
+      </c>
+      <c r="J185" t="n">
+        <v>34</v>
+      </c>
+      <c r="K185" t="n">
+        <v>37</v>
+      </c>
+      <c r="L185" t="n">
+        <v>39</v>
+      </c>
+      <c r="M185" t="n">
+        <v>46</v>
+      </c>
+      <c r="N185" t="n">
+        <v>54</v>
+      </c>
+      <c r="O185" t="n">
+        <v>62</v>
+      </c>
+      <c r="P185" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>68</v>
+      </c>
+      <c r="R185" t="n">
+        <v>69</v>
+      </c>
+      <c r="S185" t="n">
+        <v>71</v>
+      </c>
+      <c r="T185" t="n">
+        <v>73</v>
+      </c>
+      <c r="U185" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>19</v>
+      </c>
+      <c r="E186" t="n">
+        <v>21</v>
+      </c>
+      <c r="F186" t="n">
+        <v>23</v>
+      </c>
+      <c r="G186" t="n">
+        <v>25</v>
+      </c>
+      <c r="H186" t="n">
+        <v>27</v>
+      </c>
+      <c r="I186" t="n">
+        <v>31</v>
+      </c>
+      <c r="J186" t="n">
+        <v>32</v>
+      </c>
+      <c r="K186" t="n">
+        <v>40</v>
+      </c>
+      <c r="L186" t="n">
+        <v>43</v>
+      </c>
+      <c r="M186" t="n">
+        <v>46</v>
+      </c>
+      <c r="N186" t="n">
+        <v>51</v>
+      </c>
+      <c r="O186" t="n">
+        <v>53</v>
+      </c>
+      <c r="P186" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>62</v>
+      </c>
+      <c r="R186" t="n">
+        <v>73</v>
+      </c>
+      <c r="S186" t="n">
+        <v>74</v>
+      </c>
+      <c r="T186" t="n">
+        <v>75</v>
+      </c>
+      <c r="U186" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11</v>
+      </c>
+      <c r="E187" t="n">
+        <v>16</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21</v>
+      </c>
+      <c r="G187" t="n">
+        <v>25</v>
+      </c>
+      <c r="H187" t="n">
+        <v>29</v>
+      </c>
+      <c r="I187" t="n">
+        <v>30</v>
+      </c>
+      <c r="J187" t="n">
+        <v>34</v>
+      </c>
+      <c r="K187" t="n">
+        <v>46</v>
+      </c>
+      <c r="L187" t="n">
+        <v>56</v>
+      </c>
+      <c r="M187" t="n">
+        <v>57</v>
+      </c>
+      <c r="N187" t="n">
+        <v>58</v>
+      </c>
+      <c r="O187" t="n">
+        <v>60</v>
+      </c>
+      <c r="P187" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>66</v>
+      </c>
+      <c r="R187" t="n">
+        <v>73</v>
+      </c>
+      <c r="S187" t="n">
+        <v>74</v>
+      </c>
+      <c r="T187" t="n">
+        <v>78</v>
+      </c>
+      <c r="U187" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>10</v>
+      </c>
+      <c r="E188" t="n">
+        <v>16</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21</v>
+      </c>
+      <c r="G188" t="n">
+        <v>26</v>
+      </c>
+      <c r="H188" t="n">
+        <v>29</v>
+      </c>
+      <c r="I188" t="n">
+        <v>32</v>
+      </c>
+      <c r="J188" t="n">
+        <v>33</v>
+      </c>
+      <c r="K188" t="n">
+        <v>42</v>
+      </c>
+      <c r="L188" t="n">
+        <v>47</v>
+      </c>
+      <c r="M188" t="n">
+        <v>49</v>
+      </c>
+      <c r="N188" t="n">
+        <v>53</v>
+      </c>
+      <c r="O188" t="n">
+        <v>59</v>
+      </c>
+      <c r="P188" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>67</v>
+      </c>
+      <c r="R188" t="n">
+        <v>72</v>
+      </c>
+      <c r="S188" t="n">
+        <v>77</v>
+      </c>
+      <c r="T188" t="n">
+        <v>78</v>
+      </c>
+      <c r="U188" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11</v>
+      </c>
+      <c r="E189" t="n">
+        <v>16</v>
+      </c>
+      <c r="F189" t="n">
+        <v>17</v>
+      </c>
+      <c r="G189" t="n">
+        <v>29</v>
+      </c>
+      <c r="H189" t="n">
+        <v>30</v>
+      </c>
+      <c r="I189" t="n">
+        <v>34</v>
+      </c>
+      <c r="J189" t="n">
+        <v>35</v>
+      </c>
+      <c r="K189" t="n">
+        <v>36</v>
+      </c>
+      <c r="L189" t="n">
+        <v>37</v>
+      </c>
+      <c r="M189" t="n">
+        <v>42</v>
+      </c>
+      <c r="N189" t="n">
+        <v>45</v>
+      </c>
+      <c r="O189" t="n">
+        <v>61</v>
+      </c>
+      <c r="P189" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>64</v>
+      </c>
+      <c r="R189" t="n">
+        <v>72</v>
+      </c>
+      <c r="S189" t="n">
+        <v>73</v>
+      </c>
+      <c r="T189" t="n">
+        <v>75</v>
+      </c>
+      <c r="U189" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>14</v>
+      </c>
+      <c r="D190" t="n">
+        <v>27</v>
+      </c>
+      <c r="E190" t="n">
+        <v>30</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32</v>
+      </c>
+      <c r="G190" t="n">
+        <v>43</v>
+      </c>
+      <c r="H190" t="n">
+        <v>44</v>
+      </c>
+      <c r="I190" t="n">
+        <v>51</v>
+      </c>
+      <c r="J190" t="n">
+        <v>54</v>
+      </c>
+      <c r="K190" t="n">
+        <v>55</v>
+      </c>
+      <c r="L190" t="n">
+        <v>57</v>
+      </c>
+      <c r="M190" t="n">
+        <v>58</v>
+      </c>
+      <c r="N190" t="n">
+        <v>60</v>
+      </c>
+      <c r="O190" t="n">
+        <v>61</v>
+      </c>
+      <c r="P190" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>68</v>
+      </c>
+      <c r="R190" t="n">
+        <v>69</v>
+      </c>
+      <c r="S190" t="n">
+        <v>72</v>
+      </c>
+      <c r="T190" t="n">
+        <v>78</v>
+      </c>
+      <c r="U190" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>14</v>
+      </c>
+      <c r="E191" t="n">
+        <v>16</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="n">
+        <v>26</v>
+      </c>
+      <c r="H191" t="n">
+        <v>31</v>
+      </c>
+      <c r="I191" t="n">
+        <v>36</v>
+      </c>
+      <c r="J191" t="n">
+        <v>39</v>
+      </c>
+      <c r="K191" t="n">
+        <v>41</v>
+      </c>
+      <c r="L191" t="n">
+        <v>44</v>
+      </c>
+      <c r="M191" t="n">
+        <v>45</v>
+      </c>
+      <c r="N191" t="n">
+        <v>47</v>
+      </c>
+      <c r="O191" t="n">
+        <v>48</v>
+      </c>
+      <c r="P191" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>53</v>
+      </c>
+      <c r="R191" t="n">
+        <v>66</v>
+      </c>
+      <c r="S191" t="n">
+        <v>67</v>
+      </c>
+      <c r="T191" t="n">
+        <v>75</v>
+      </c>
+      <c r="U191" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>16</v>
+      </c>
+      <c r="C192" t="n">
+        <v>18</v>
+      </c>
+      <c r="D192" t="n">
+        <v>20</v>
+      </c>
+      <c r="E192" t="n">
+        <v>23</v>
+      </c>
+      <c r="F192" t="n">
+        <v>26</v>
+      </c>
+      <c r="G192" t="n">
+        <v>34</v>
+      </c>
+      <c r="H192" t="n">
+        <v>38</v>
+      </c>
+      <c r="I192" t="n">
+        <v>39</v>
+      </c>
+      <c r="J192" t="n">
+        <v>41</v>
+      </c>
+      <c r="K192" t="n">
+        <v>44</v>
+      </c>
+      <c r="L192" t="n">
+        <v>48</v>
+      </c>
+      <c r="M192" t="n">
+        <v>50</v>
+      </c>
+      <c r="N192" t="n">
+        <v>51</v>
+      </c>
+      <c r="O192" t="n">
+        <v>53</v>
+      </c>
+      <c r="P192" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>65</v>
+      </c>
+      <c r="R192" t="n">
+        <v>68</v>
+      </c>
+      <c r="S192" t="n">
+        <v>70</v>
+      </c>
+      <c r="T192" t="n">
+        <v>72</v>
+      </c>
+      <c r="U192" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>20</v>
+      </c>
+      <c r="D193" t="n">
+        <v>25</v>
+      </c>
+      <c r="E193" t="n">
+        <v>33</v>
+      </c>
+      <c r="F193" t="n">
+        <v>34</v>
+      </c>
+      <c r="G193" t="n">
+        <v>36</v>
+      </c>
+      <c r="H193" t="n">
+        <v>37</v>
+      </c>
+      <c r="I193" t="n">
+        <v>41</v>
+      </c>
+      <c r="J193" t="n">
+        <v>45</v>
+      </c>
+      <c r="K193" t="n">
+        <v>47</v>
+      </c>
+      <c r="L193" t="n">
+        <v>53</v>
+      </c>
+      <c r="M193" t="n">
+        <v>55</v>
+      </c>
+      <c r="N193" t="n">
+        <v>58</v>
+      </c>
+      <c r="O193" t="n">
+        <v>60</v>
+      </c>
+      <c r="P193" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>66</v>
+      </c>
+      <c r="R193" t="n">
+        <v>67</v>
+      </c>
+      <c r="S193" t="n">
+        <v>68</v>
+      </c>
+      <c r="T193" t="n">
+        <v>69</v>
+      </c>
+      <c r="U193" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8</v>
+      </c>
+      <c r="G194" t="n">
+        <v>23</v>
+      </c>
+      <c r="H194" t="n">
+        <v>29</v>
+      </c>
+      <c r="I194" t="n">
+        <v>31</v>
+      </c>
+      <c r="J194" t="n">
+        <v>33</v>
+      </c>
+      <c r="K194" t="n">
+        <v>38</v>
+      </c>
+      <c r="L194" t="n">
+        <v>40</v>
+      </c>
+      <c r="M194" t="n">
+        <v>41</v>
+      </c>
+      <c r="N194" t="n">
+        <v>59</v>
+      </c>
+      <c r="O194" t="n">
+        <v>60</v>
+      </c>
+      <c r="P194" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>65</v>
+      </c>
+      <c r="R194" t="n">
+        <v>68</v>
+      </c>
+      <c r="S194" t="n">
+        <v>71</v>
+      </c>
+      <c r="T194" t="n">
+        <v>77</v>
+      </c>
+      <c r="U194" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6</v>
+      </c>
+      <c r="C195" t="n">
+        <v>7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>17</v>
+      </c>
+      <c r="E195" t="n">
+        <v>19</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="n">
+        <v>21</v>
+      </c>
+      <c r="H195" t="n">
+        <v>31</v>
+      </c>
+      <c r="I195" t="n">
+        <v>39</v>
+      </c>
+      <c r="J195" t="n">
+        <v>42</v>
+      </c>
+      <c r="K195" t="n">
+        <v>43</v>
+      </c>
+      <c r="L195" t="n">
+        <v>55</v>
+      </c>
+      <c r="M195" t="n">
+        <v>56</v>
+      </c>
+      <c r="N195" t="n">
+        <v>60</v>
+      </c>
+      <c r="O195" t="n">
+        <v>61</v>
+      </c>
+      <c r="P195" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>66</v>
+      </c>
+      <c r="R195" t="n">
+        <v>68</v>
+      </c>
+      <c r="S195" t="n">
+        <v>72</v>
+      </c>
+      <c r="T195" t="n">
+        <v>78</v>
+      </c>
+      <c r="U195" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>14</v>
+      </c>
+      <c r="F196" t="n">
+        <v>16</v>
+      </c>
+      <c r="G196" t="n">
+        <v>19</v>
+      </c>
+      <c r="H196" t="n">
+        <v>23</v>
+      </c>
+      <c r="I196" t="n">
+        <v>24</v>
+      </c>
+      <c r="J196" t="n">
+        <v>37</v>
+      </c>
+      <c r="K196" t="n">
+        <v>43</v>
+      </c>
+      <c r="L196" t="n">
+        <v>44</v>
+      </c>
+      <c r="M196" t="n">
+        <v>48</v>
+      </c>
+      <c r="N196" t="n">
+        <v>52</v>
+      </c>
+      <c r="O196" t="n">
+        <v>53</v>
+      </c>
+      <c r="P196" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>58</v>
+      </c>
+      <c r="R196" t="n">
+        <v>62</v>
+      </c>
+      <c r="S196" t="n">
+        <v>63</v>
+      </c>
+      <c r="T196" t="n">
+        <v>64</v>
+      </c>
+      <c r="U196" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11</v>
+      </c>
+      <c r="D197" t="n">
+        <v>14</v>
+      </c>
+      <c r="E197" t="n">
+        <v>18</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="n">
+        <v>21</v>
+      </c>
+      <c r="H197" t="n">
+        <v>28</v>
+      </c>
+      <c r="I197" t="n">
+        <v>29</v>
+      </c>
+      <c r="J197" t="n">
+        <v>34</v>
+      </c>
+      <c r="K197" t="n">
+        <v>42</v>
+      </c>
+      <c r="L197" t="n">
+        <v>44</v>
+      </c>
+      <c r="M197" t="n">
+        <v>51</v>
+      </c>
+      <c r="N197" t="n">
+        <v>60</v>
+      </c>
+      <c r="O197" t="n">
+        <v>63</v>
+      </c>
+      <c r="P197" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>67</v>
+      </c>
+      <c r="R197" t="n">
+        <v>69</v>
+      </c>
+      <c r="S197" t="n">
+        <v>72</v>
+      </c>
+      <c r="T197" t="n">
+        <v>74</v>
+      </c>
+      <c r="U197" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>15</v>
+      </c>
+      <c r="E198" t="n">
+        <v>19</v>
+      </c>
+      <c r="F198" t="n">
+        <v>21</v>
+      </c>
+      <c r="G198" t="n">
+        <v>22</v>
+      </c>
+      <c r="H198" t="n">
+        <v>23</v>
+      </c>
+      <c r="I198" t="n">
+        <v>25</v>
+      </c>
+      <c r="J198" t="n">
+        <v>27</v>
+      </c>
+      <c r="K198" t="n">
+        <v>29</v>
+      </c>
+      <c r="L198" t="n">
+        <v>41</v>
+      </c>
+      <c r="M198" t="n">
+        <v>46</v>
+      </c>
+      <c r="N198" t="n">
+        <v>47</v>
+      </c>
+      <c r="O198" t="n">
+        <v>55</v>
+      </c>
+      <c r="P198" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>61</v>
+      </c>
+      <c r="R198" t="n">
+        <v>64</v>
+      </c>
+      <c r="S198" t="n">
+        <v>66</v>
+      </c>
+      <c r="T198" t="n">
+        <v>67</v>
+      </c>
+      <c r="U198" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>7</v>
+      </c>
+      <c r="D199" t="n">
+        <v>16</v>
+      </c>
+      <c r="E199" t="n">
+        <v>17</v>
+      </c>
+      <c r="F199" t="n">
+        <v>22</v>
+      </c>
+      <c r="G199" t="n">
+        <v>31</v>
+      </c>
+      <c r="H199" t="n">
+        <v>34</v>
+      </c>
+      <c r="I199" t="n">
+        <v>35</v>
+      </c>
+      <c r="J199" t="n">
+        <v>45</v>
+      </c>
+      <c r="K199" t="n">
+        <v>50</v>
+      </c>
+      <c r="L199" t="n">
+        <v>53</v>
+      </c>
+      <c r="M199" t="n">
+        <v>55</v>
+      </c>
+      <c r="N199" t="n">
+        <v>57</v>
+      </c>
+      <c r="O199" t="n">
+        <v>60</v>
+      </c>
+      <c r="P199" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>67</v>
+      </c>
+      <c r="R199" t="n">
+        <v>76</v>
+      </c>
+      <c r="S199" t="n">
+        <v>77</v>
+      </c>
+      <c r="T199" t="n">
+        <v>78</v>
+      </c>
+      <c r="U199" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>10</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15</v>
+      </c>
+      <c r="D200" t="n">
+        <v>18</v>
+      </c>
+      <c r="E200" t="n">
+        <v>25</v>
+      </c>
+      <c r="F200" t="n">
+        <v>26</v>
+      </c>
+      <c r="G200" t="n">
+        <v>27</v>
+      </c>
+      <c r="H200" t="n">
+        <v>29</v>
+      </c>
+      <c r="I200" t="n">
+        <v>34</v>
+      </c>
+      <c r="J200" t="n">
+        <v>36</v>
+      </c>
+      <c r="K200" t="n">
+        <v>37</v>
+      </c>
+      <c r="L200" t="n">
+        <v>39</v>
+      </c>
+      <c r="M200" t="n">
+        <v>42</v>
+      </c>
+      <c r="N200" t="n">
+        <v>44</v>
+      </c>
+      <c r="O200" t="n">
+        <v>46</v>
+      </c>
+      <c r="P200" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>56</v>
+      </c>
+      <c r="R200" t="n">
+        <v>58</v>
+      </c>
+      <c r="S200" t="n">
+        <v>69</v>
+      </c>
+      <c r="T200" t="n">
+        <v>73</v>
+      </c>
+      <c r="U200" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11</v>
+      </c>
+      <c r="E201" t="n">
+        <v>14</v>
+      </c>
+      <c r="F201" t="n">
+        <v>24</v>
+      </c>
+      <c r="G201" t="n">
+        <v>33</v>
+      </c>
+      <c r="H201" t="n">
+        <v>36</v>
+      </c>
+      <c r="I201" t="n">
+        <v>39</v>
+      </c>
+      <c r="J201" t="n">
+        <v>42</v>
+      </c>
+      <c r="K201" t="n">
+        <v>47</v>
+      </c>
+      <c r="L201" t="n">
+        <v>50</v>
+      </c>
+      <c r="M201" t="n">
+        <v>54</v>
+      </c>
+      <c r="N201" t="n">
+        <v>56</v>
+      </c>
+      <c r="O201" t="n">
+        <v>58</v>
+      </c>
+      <c r="P201" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>69</v>
+      </c>
+      <c r="R201" t="n">
+        <v>70</v>
+      </c>
+      <c r="S201" t="n">
+        <v>71</v>
+      </c>
+      <c r="T201" t="n">
+        <v>73</v>
+      </c>
+      <c r="U201" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>10</v>
+      </c>
+      <c r="C202" t="n">
+        <v>13</v>
+      </c>
+      <c r="D202" t="n">
+        <v>16</v>
+      </c>
+      <c r="E202" t="n">
+        <v>17</v>
+      </c>
+      <c r="F202" t="n">
+        <v>18</v>
+      </c>
+      <c r="G202" t="n">
+        <v>21</v>
+      </c>
+      <c r="H202" t="n">
+        <v>22</v>
+      </c>
+      <c r="I202" t="n">
+        <v>24</v>
+      </c>
+      <c r="J202" t="n">
+        <v>30</v>
+      </c>
+      <c r="K202" t="n">
+        <v>38</v>
+      </c>
+      <c r="L202" t="n">
+        <v>44</v>
+      </c>
+      <c r="M202" t="n">
+        <v>48</v>
+      </c>
+      <c r="N202" t="n">
+        <v>52</v>
+      </c>
+      <c r="O202" t="n">
+        <v>55</v>
+      </c>
+      <c r="P202" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>64</v>
+      </c>
+      <c r="R202" t="n">
+        <v>70</v>
+      </c>
+      <c r="S202" t="n">
+        <v>71</v>
+      </c>
+      <c r="T202" t="n">
+        <v>77</v>
+      </c>
+      <c r="U202" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6</v>
+      </c>
+      <c r="D203" t="n">
+        <v>7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>17</v>
+      </c>
+      <c r="F203" t="n">
+        <v>23</v>
+      </c>
+      <c r="G203" t="n">
+        <v>29</v>
+      </c>
+      <c r="H203" t="n">
+        <v>35</v>
+      </c>
+      <c r="I203" t="n">
+        <v>36</v>
+      </c>
+      <c r="J203" t="n">
+        <v>41</v>
+      </c>
+      <c r="K203" t="n">
+        <v>44</v>
+      </c>
+      <c r="L203" t="n">
+        <v>45</v>
+      </c>
+      <c r="M203" t="n">
+        <v>48</v>
+      </c>
+      <c r="N203" t="n">
+        <v>50</v>
+      </c>
+      <c r="O203" t="n">
+        <v>51</v>
+      </c>
+      <c r="P203" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>53</v>
+      </c>
+      <c r="R203" t="n">
+        <v>60</v>
+      </c>
+      <c r="S203" t="n">
+        <v>67</v>
+      </c>
+      <c r="T203" t="n">
+        <v>68</v>
+      </c>
+      <c r="U203" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8</v>
+      </c>
+      <c r="D204" t="n">
+        <v>9</v>
+      </c>
+      <c r="E204" t="n">
+        <v>10</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="n">
+        <v>37</v>
+      </c>
+      <c r="H204" t="n">
+        <v>43</v>
+      </c>
+      <c r="I204" t="n">
+        <v>45</v>
+      </c>
+      <c r="J204" t="n">
+        <v>47</v>
+      </c>
+      <c r="K204" t="n">
+        <v>48</v>
+      </c>
+      <c r="L204" t="n">
+        <v>51</v>
+      </c>
+      <c r="M204" t="n">
+        <v>53</v>
+      </c>
+      <c r="N204" t="n">
+        <v>56</v>
+      </c>
+      <c r="O204" t="n">
+        <v>58</v>
+      </c>
+      <c r="P204" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>63</v>
+      </c>
+      <c r="R204" t="n">
+        <v>66</v>
+      </c>
+      <c r="S204" t="n">
+        <v>68</v>
+      </c>
+      <c r="T204" t="n">
+        <v>78</v>
+      </c>
+      <c r="U204" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11</v>
+      </c>
+      <c r="F205" t="n">
+        <v>15</v>
+      </c>
+      <c r="G205" t="n">
+        <v>19</v>
+      </c>
+      <c r="H205" t="n">
+        <v>22</v>
+      </c>
+      <c r="I205" t="n">
+        <v>23</v>
+      </c>
+      <c r="J205" t="n">
+        <v>38</v>
+      </c>
+      <c r="K205" t="n">
+        <v>40</v>
+      </c>
+      <c r="L205" t="n">
+        <v>46</v>
+      </c>
+      <c r="M205" t="n">
+        <v>48</v>
+      </c>
+      <c r="N205" t="n">
+        <v>52</v>
+      </c>
+      <c r="O205" t="n">
+        <v>59</v>
+      </c>
+      <c r="P205" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>66</v>
+      </c>
+      <c r="R205" t="n">
+        <v>70</v>
+      </c>
+      <c r="S205" t="n">
+        <v>72</v>
+      </c>
+      <c r="T205" t="n">
+        <v>77</v>
+      </c>
+      <c r="U205" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8</v>
+      </c>
+      <c r="C206" t="n">
+        <v>9</v>
+      </c>
+      <c r="D206" t="n">
+        <v>10</v>
+      </c>
+      <c r="E206" t="n">
+        <v>27</v>
+      </c>
+      <c r="F206" t="n">
+        <v>28</v>
+      </c>
+      <c r="G206" t="n">
+        <v>34</v>
+      </c>
+      <c r="H206" t="n">
+        <v>45</v>
+      </c>
+      <c r="I206" t="n">
+        <v>46</v>
+      </c>
+      <c r="J206" t="n">
+        <v>49</v>
+      </c>
+      <c r="K206" t="n">
+        <v>51</v>
+      </c>
+      <c r="L206" t="n">
+        <v>54</v>
+      </c>
+      <c r="M206" t="n">
+        <v>57</v>
+      </c>
+      <c r="N206" t="n">
+        <v>67</v>
+      </c>
+      <c r="O206" t="n">
+        <v>68</v>
+      </c>
+      <c r="P206" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>72</v>
+      </c>
+      <c r="R206" t="n">
+        <v>75</v>
+      </c>
+      <c r="S206" t="n">
+        <v>77</v>
+      </c>
+      <c r="T206" t="n">
+        <v>78</v>
+      </c>
+      <c r="U206" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>17</v>
+      </c>
+      <c r="D207" t="n">
+        <v>18</v>
+      </c>
+      <c r="E207" t="n">
+        <v>19</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22</v>
+      </c>
+      <c r="G207" t="n">
+        <v>29</v>
+      </c>
+      <c r="H207" t="n">
+        <v>34</v>
+      </c>
+      <c r="I207" t="n">
+        <v>37</v>
+      </c>
+      <c r="J207" t="n">
+        <v>41</v>
+      </c>
+      <c r="K207" t="n">
+        <v>42</v>
+      </c>
+      <c r="L207" t="n">
+        <v>43</v>
+      </c>
+      <c r="M207" t="n">
+        <v>44</v>
+      </c>
+      <c r="N207" t="n">
+        <v>48</v>
+      </c>
+      <c r="O207" t="n">
+        <v>51</v>
+      </c>
+      <c r="P207" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>56</v>
+      </c>
+      <c r="R207" t="n">
+        <v>58</v>
+      </c>
+      <c r="S207" t="n">
+        <v>60</v>
+      </c>
+      <c r="T207" t="n">
+        <v>61</v>
+      </c>
+      <c r="U207" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>12</v>
+      </c>
+      <c r="D208" t="n">
+        <v>18</v>
+      </c>
+      <c r="E208" t="n">
+        <v>22</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24</v>
+      </c>
+      <c r="G208" t="n">
+        <v>26</v>
+      </c>
+      <c r="H208" t="n">
+        <v>28</v>
+      </c>
+      <c r="I208" t="n">
+        <v>32</v>
+      </c>
+      <c r="J208" t="n">
+        <v>42</v>
+      </c>
+      <c r="K208" t="n">
+        <v>44</v>
+      </c>
+      <c r="L208" t="n">
+        <v>50</v>
+      </c>
+      <c r="M208" t="n">
+        <v>52</v>
+      </c>
+      <c r="N208" t="n">
+        <v>59</v>
+      </c>
+      <c r="O208" t="n">
+        <v>63</v>
+      </c>
+      <c r="P208" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>65</v>
+      </c>
+      <c r="R208" t="n">
+        <v>67</v>
+      </c>
+      <c r="S208" t="n">
+        <v>68</v>
+      </c>
+      <c r="T208" t="n">
+        <v>79</v>
+      </c>
+      <c r="U208" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15</v>
+      </c>
+      <c r="E209" t="n">
+        <v>22</v>
+      </c>
+      <c r="F209" t="n">
+        <v>23</v>
+      </c>
+      <c r="G209" t="n">
+        <v>27</v>
+      </c>
+      <c r="H209" t="n">
+        <v>30</v>
+      </c>
+      <c r="I209" t="n">
+        <v>34</v>
+      </c>
+      <c r="J209" t="n">
+        <v>36</v>
+      </c>
+      <c r="K209" t="n">
+        <v>39</v>
+      </c>
+      <c r="L209" t="n">
+        <v>46</v>
+      </c>
+      <c r="M209" t="n">
+        <v>47</v>
+      </c>
+      <c r="N209" t="n">
+        <v>48</v>
+      </c>
+      <c r="O209" t="n">
+        <v>49</v>
+      </c>
+      <c r="P209" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>57</v>
+      </c>
+      <c r="R209" t="n">
+        <v>58</v>
+      </c>
+      <c r="S209" t="n">
+        <v>74</v>
+      </c>
+      <c r="T209" t="n">
+        <v>77</v>
+      </c>
+      <c r="U209" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11</v>
+      </c>
+      <c r="G210" t="n">
+        <v>12</v>
+      </c>
+      <c r="H210" t="n">
+        <v>18</v>
+      </c>
+      <c r="I210" t="n">
+        <v>19</v>
+      </c>
+      <c r="J210" t="n">
+        <v>28</v>
+      </c>
+      <c r="K210" t="n">
+        <v>34</v>
+      </c>
+      <c r="L210" t="n">
+        <v>42</v>
+      </c>
+      <c r="M210" t="n">
+        <v>44</v>
+      </c>
+      <c r="N210" t="n">
+        <v>48</v>
+      </c>
+      <c r="O210" t="n">
+        <v>50</v>
+      </c>
+      <c r="P210" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>55</v>
+      </c>
+      <c r="R210" t="n">
+        <v>64</v>
+      </c>
+      <c r="S210" t="n">
+        <v>69</v>
+      </c>
+      <c r="T210" t="n">
+        <v>75</v>
+      </c>
+      <c r="U210" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>10</v>
+      </c>
+      <c r="C211" t="n">
+        <v>12</v>
+      </c>
+      <c r="D211" t="n">
+        <v>13</v>
+      </c>
+      <c r="E211" t="n">
+        <v>18</v>
+      </c>
+      <c r="F211" t="n">
+        <v>23</v>
+      </c>
+      <c r="G211" t="n">
+        <v>27</v>
+      </c>
+      <c r="H211" t="n">
+        <v>28</v>
+      </c>
+      <c r="I211" t="n">
+        <v>30</v>
+      </c>
+      <c r="J211" t="n">
+        <v>33</v>
+      </c>
+      <c r="K211" t="n">
+        <v>34</v>
+      </c>
+      <c r="L211" t="n">
+        <v>37</v>
+      </c>
+      <c r="M211" t="n">
+        <v>47</v>
+      </c>
+      <c r="N211" t="n">
+        <v>49</v>
+      </c>
+      <c r="O211" t="n">
+        <v>53</v>
+      </c>
+      <c r="P211" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>60</v>
+      </c>
+      <c r="R211" t="n">
+        <v>61</v>
+      </c>
+      <c r="S211" t="n">
+        <v>62</v>
+      </c>
+      <c r="T211" t="n">
+        <v>63</v>
+      </c>
+      <c r="U211" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12</v>
+      </c>
+      <c r="E212" t="n">
+        <v>22</v>
+      </c>
+      <c r="F212" t="n">
+        <v>24</v>
+      </c>
+      <c r="G212" t="n">
+        <v>26</v>
+      </c>
+      <c r="H212" t="n">
+        <v>27</v>
+      </c>
+      <c r="I212" t="n">
+        <v>43</v>
+      </c>
+      <c r="J212" t="n">
+        <v>44</v>
+      </c>
+      <c r="K212" t="n">
+        <v>45</v>
+      </c>
+      <c r="L212" t="n">
+        <v>47</v>
+      </c>
+      <c r="M212" t="n">
+        <v>51</v>
+      </c>
+      <c r="N212" t="n">
+        <v>52</v>
+      </c>
+      <c r="O212" t="n">
+        <v>61</v>
+      </c>
+      <c r="P212" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>68</v>
+      </c>
+      <c r="R212" t="n">
+        <v>70</v>
+      </c>
+      <c r="S212" t="n">
+        <v>73</v>
+      </c>
+      <c r="T212" t="n">
+        <v>74</v>
+      </c>
+      <c r="U212" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>20</v>
+      </c>
+      <c r="C213" t="n">
+        <v>21</v>
+      </c>
+      <c r="D213" t="n">
+        <v>22</v>
+      </c>
+      <c r="E213" t="n">
+        <v>23</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="n">
+        <v>28</v>
+      </c>
+      <c r="H213" t="n">
+        <v>30</v>
+      </c>
+      <c r="I213" t="n">
+        <v>31</v>
+      </c>
+      <c r="J213" t="n">
+        <v>33</v>
+      </c>
+      <c r="K213" t="n">
+        <v>35</v>
+      </c>
+      <c r="L213" t="n">
+        <v>43</v>
+      </c>
+      <c r="M213" t="n">
+        <v>47</v>
+      </c>
+      <c r="N213" t="n">
+        <v>53</v>
+      </c>
+      <c r="O213" t="n">
+        <v>55</v>
+      </c>
+      <c r="P213" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>63</v>
+      </c>
+      <c r="R213" t="n">
+        <v>67</v>
+      </c>
+      <c r="S213" t="n">
+        <v>68</v>
+      </c>
+      <c r="T213" t="n">
+        <v>69</v>
+      </c>
+      <c r="U213" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>7</v>
+      </c>
+      <c r="D214" t="n">
+        <v>14</v>
+      </c>
+      <c r="E214" t="n">
+        <v>16</v>
+      </c>
+      <c r="F214" t="n">
+        <v>19</v>
+      </c>
+      <c r="G214" t="n">
+        <v>31</v>
+      </c>
+      <c r="H214" t="n">
+        <v>33</v>
+      </c>
+      <c r="I214" t="n">
+        <v>34</v>
+      </c>
+      <c r="J214" t="n">
+        <v>40</v>
+      </c>
+      <c r="K214" t="n">
+        <v>44</v>
+      </c>
+      <c r="L214" t="n">
+        <v>48</v>
+      </c>
+      <c r="M214" t="n">
+        <v>49</v>
+      </c>
+      <c r="N214" t="n">
+        <v>50</v>
+      </c>
+      <c r="O214" t="n">
+        <v>55</v>
+      </c>
+      <c r="P214" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>66</v>
+      </c>
+      <c r="R214" t="n">
+        <v>68</v>
+      </c>
+      <c r="S214" t="n">
+        <v>69</v>
+      </c>
+      <c r="T214" t="n">
+        <v>71</v>
+      </c>
+      <c r="U214" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>15</v>
+      </c>
+      <c r="E215" t="n">
+        <v>18</v>
+      </c>
+      <c r="F215" t="n">
+        <v>25</v>
+      </c>
+      <c r="G215" t="n">
+        <v>29</v>
+      </c>
+      <c r="H215" t="n">
+        <v>30</v>
+      </c>
+      <c r="I215" t="n">
+        <v>31</v>
+      </c>
+      <c r="J215" t="n">
+        <v>35</v>
+      </c>
+      <c r="K215" t="n">
+        <v>38</v>
+      </c>
+      <c r="L215" t="n">
+        <v>43</v>
+      </c>
+      <c r="M215" t="n">
+        <v>47</v>
+      </c>
+      <c r="N215" t="n">
+        <v>52</v>
+      </c>
+      <c r="O215" t="n">
+        <v>61</v>
+      </c>
+      <c r="P215" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>63</v>
+      </c>
+      <c r="R215" t="n">
+        <v>69</v>
+      </c>
+      <c r="S215" t="n">
+        <v>75</v>
+      </c>
+      <c r="T215" t="n">
+        <v>77</v>
+      </c>
+      <c r="U215" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11</v>
+      </c>
+      <c r="F216" t="n">
+        <v>13</v>
+      </c>
+      <c r="G216" t="n">
+        <v>15</v>
+      </c>
+      <c r="H216" t="n">
+        <v>23</v>
+      </c>
+      <c r="I216" t="n">
+        <v>27</v>
+      </c>
+      <c r="J216" t="n">
+        <v>37</v>
+      </c>
+      <c r="K216" t="n">
+        <v>40</v>
+      </c>
+      <c r="L216" t="n">
+        <v>43</v>
+      </c>
+      <c r="M216" t="n">
+        <v>45</v>
+      </c>
+      <c r="N216" t="n">
+        <v>50</v>
+      </c>
+      <c r="O216" t="n">
+        <v>51</v>
+      </c>
+      <c r="P216" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>62</v>
+      </c>
+      <c r="R216" t="n">
+        <v>63</v>
+      </c>
+      <c r="S216" t="n">
+        <v>70</v>
+      </c>
+      <c r="T216" t="n">
+        <v>76</v>
+      </c>
+      <c r="U216" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>17</v>
+      </c>
+      <c r="C217" t="n">
+        <v>19</v>
+      </c>
+      <c r="D217" t="n">
+        <v>25</v>
+      </c>
+      <c r="E217" t="n">
+        <v>26</v>
+      </c>
+      <c r="F217" t="n">
+        <v>31</v>
+      </c>
+      <c r="G217" t="n">
+        <v>33</v>
+      </c>
+      <c r="H217" t="n">
+        <v>36</v>
+      </c>
+      <c r="I217" t="n">
+        <v>37</v>
+      </c>
+      <c r="J217" t="n">
+        <v>40</v>
+      </c>
+      <c r="K217" t="n">
+        <v>42</v>
+      </c>
+      <c r="L217" t="n">
+        <v>44</v>
+      </c>
+      <c r="M217" t="n">
+        <v>48</v>
+      </c>
+      <c r="N217" t="n">
+        <v>53</v>
+      </c>
+      <c r="O217" t="n">
+        <v>55</v>
+      </c>
+      <c r="P217" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>59</v>
+      </c>
+      <c r="R217" t="n">
+        <v>63</v>
+      </c>
+      <c r="S217" t="n">
+        <v>67</v>
+      </c>
+      <c r="T217" t="n">
+        <v>70</v>
+      </c>
+      <c r="U217" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4</v>
+      </c>
+      <c r="D218" t="n">
+        <v>15</v>
+      </c>
+      <c r="E218" t="n">
+        <v>19</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="n">
+        <v>26</v>
+      </c>
+      <c r="H218" t="n">
+        <v>27</v>
+      </c>
+      <c r="I218" t="n">
+        <v>33</v>
+      </c>
+      <c r="J218" t="n">
+        <v>34</v>
+      </c>
+      <c r="K218" t="n">
+        <v>37</v>
+      </c>
+      <c r="L218" t="n">
+        <v>44</v>
+      </c>
+      <c r="M218" t="n">
+        <v>45</v>
+      </c>
+      <c r="N218" t="n">
+        <v>47</v>
+      </c>
+      <c r="O218" t="n">
+        <v>52</v>
+      </c>
+      <c r="P218" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>57</v>
+      </c>
+      <c r="R218" t="n">
+        <v>58</v>
+      </c>
+      <c r="S218" t="n">
+        <v>68</v>
+      </c>
+      <c r="T218" t="n">
+        <v>75</v>
+      </c>
+      <c r="U218" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>7</v>
+      </c>
+      <c r="E219" t="n">
+        <v>8</v>
+      </c>
+      <c r="F219" t="n">
+        <v>19</v>
+      </c>
+      <c r="G219" t="n">
+        <v>26</v>
+      </c>
+      <c r="H219" t="n">
+        <v>28</v>
+      </c>
+      <c r="I219" t="n">
+        <v>32</v>
+      </c>
+      <c r="J219" t="n">
+        <v>39</v>
+      </c>
+      <c r="K219" t="n">
+        <v>43</v>
+      </c>
+      <c r="L219" t="n">
+        <v>44</v>
+      </c>
+      <c r="M219" t="n">
+        <v>50</v>
+      </c>
+      <c r="N219" t="n">
+        <v>62</v>
+      </c>
+      <c r="O219" t="n">
+        <v>63</v>
+      </c>
+      <c r="P219" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>69</v>
+      </c>
+      <c r="R219" t="n">
+        <v>73</v>
+      </c>
+      <c r="S219" t="n">
+        <v>76</v>
+      </c>
+      <c r="T219" t="n">
+        <v>77</v>
+      </c>
+      <c r="U219" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+      <c r="D220" t="n">
+        <v>6</v>
+      </c>
+      <c r="E220" t="n">
+        <v>8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>21</v>
+      </c>
+      <c r="G220" t="n">
+        <v>27</v>
+      </c>
+      <c r="H220" t="n">
+        <v>32</v>
+      </c>
+      <c r="I220" t="n">
+        <v>34</v>
+      </c>
+      <c r="J220" t="n">
+        <v>39</v>
+      </c>
+      <c r="K220" t="n">
+        <v>40</v>
+      </c>
+      <c r="L220" t="n">
+        <v>41</v>
+      </c>
+      <c r="M220" t="n">
+        <v>42</v>
+      </c>
+      <c r="N220" t="n">
+        <v>46</v>
+      </c>
+      <c r="O220" t="n">
+        <v>49</v>
+      </c>
+      <c r="P220" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>57</v>
+      </c>
+      <c r="R220" t="n">
+        <v>73</v>
+      </c>
+      <c r="S220" t="n">
+        <v>74</v>
+      </c>
+      <c r="T220" t="n">
+        <v>75</v>
+      </c>
+      <c r="U220" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>14</v>
+      </c>
+      <c r="D221" t="n">
+        <v>15</v>
+      </c>
+      <c r="E221" t="n">
+        <v>16</v>
+      </c>
+      <c r="F221" t="n">
+        <v>17</v>
+      </c>
+      <c r="G221" t="n">
+        <v>18</v>
+      </c>
+      <c r="H221" t="n">
+        <v>24</v>
+      </c>
+      <c r="I221" t="n">
+        <v>25</v>
+      </c>
+      <c r="J221" t="n">
+        <v>31</v>
+      </c>
+      <c r="K221" t="n">
+        <v>39</v>
+      </c>
+      <c r="L221" t="n">
+        <v>43</v>
+      </c>
+      <c r="M221" t="n">
+        <v>47</v>
+      </c>
+      <c r="N221" t="n">
+        <v>51</v>
+      </c>
+      <c r="O221" t="n">
+        <v>58</v>
+      </c>
+      <c r="P221" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>66</v>
+      </c>
+      <c r="R221" t="n">
+        <v>68</v>
+      </c>
+      <c r="S221" t="n">
+        <v>70</v>
+      </c>
+      <c r="T221" t="n">
+        <v>72</v>
+      </c>
+      <c r="U221" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4</v>
+      </c>
+      <c r="C222" t="n">
+        <v>7</v>
+      </c>
+      <c r="D222" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" t="n">
+        <v>16</v>
+      </c>
+      <c r="F222" t="n">
+        <v>20</v>
+      </c>
+      <c r="G222" t="n">
+        <v>22</v>
+      </c>
+      <c r="H222" t="n">
+        <v>25</v>
+      </c>
+      <c r="I222" t="n">
+        <v>26</v>
+      </c>
+      <c r="J222" t="n">
+        <v>28</v>
+      </c>
+      <c r="K222" t="n">
+        <v>29</v>
+      </c>
+      <c r="L222" t="n">
+        <v>34</v>
+      </c>
+      <c r="M222" t="n">
+        <v>35</v>
+      </c>
+      <c r="N222" t="n">
+        <v>40</v>
+      </c>
+      <c r="O222" t="n">
+        <v>51</v>
+      </c>
+      <c r="P222" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>61</v>
+      </c>
+      <c r="R222" t="n">
+        <v>63</v>
+      </c>
+      <c r="S222" t="n">
+        <v>64</v>
+      </c>
+      <c r="T222" t="n">
+        <v>70</v>
+      </c>
+      <c r="U222" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>8</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10</v>
+      </c>
+      <c r="F223" t="n">
+        <v>19</v>
+      </c>
+      <c r="G223" t="n">
+        <v>23</v>
+      </c>
+      <c r="H223" t="n">
+        <v>34</v>
+      </c>
+      <c r="I223" t="n">
+        <v>43</v>
+      </c>
+      <c r="J223" t="n">
+        <v>45</v>
+      </c>
+      <c r="K223" t="n">
+        <v>49</v>
+      </c>
+      <c r="L223" t="n">
+        <v>52</v>
+      </c>
+      <c r="M223" t="n">
+        <v>54</v>
+      </c>
+      <c r="N223" t="n">
+        <v>60</v>
+      </c>
+      <c r="O223" t="n">
+        <v>61</v>
+      </c>
+      <c r="P223" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>65</v>
+      </c>
+      <c r="R223" t="n">
+        <v>67</v>
+      </c>
+      <c r="S223" t="n">
+        <v>69</v>
+      </c>
+      <c r="T223" t="n">
+        <v>74</v>
+      </c>
+      <c r="U223" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8</v>
+      </c>
+      <c r="C224" t="n">
+        <v>10</v>
+      </c>
+      <c r="D224" t="n">
+        <v>13</v>
+      </c>
+      <c r="E224" t="n">
+        <v>23</v>
+      </c>
+      <c r="F224" t="n">
+        <v>29</v>
+      </c>
+      <c r="G224" t="n">
+        <v>31</v>
+      </c>
+      <c r="H224" t="n">
+        <v>34</v>
+      </c>
+      <c r="I224" t="n">
+        <v>35</v>
+      </c>
+      <c r="J224" t="n">
+        <v>43</v>
+      </c>
+      <c r="K224" t="n">
+        <v>50</v>
+      </c>
+      <c r="L224" t="n">
+        <v>51</v>
+      </c>
+      <c r="M224" t="n">
+        <v>52</v>
+      </c>
+      <c r="N224" t="n">
+        <v>55</v>
+      </c>
+      <c r="O224" t="n">
+        <v>59</v>
+      </c>
+      <c r="P224" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>69</v>
+      </c>
+      <c r="R224" t="n">
+        <v>71</v>
+      </c>
+      <c r="S224" t="n">
+        <v>73</v>
+      </c>
+      <c r="T224" t="n">
+        <v>74</v>
+      </c>
+      <c r="U224" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9</v>
+      </c>
+      <c r="E225" t="n">
+        <v>16</v>
+      </c>
+      <c r="F225" t="n">
+        <v>17</v>
+      </c>
+      <c r="G225" t="n">
+        <v>21</v>
+      </c>
+      <c r="H225" t="n">
+        <v>23</v>
+      </c>
+      <c r="I225" t="n">
+        <v>29</v>
+      </c>
+      <c r="J225" t="n">
+        <v>33</v>
+      </c>
+      <c r="K225" t="n">
+        <v>36</v>
+      </c>
+      <c r="L225" t="n">
+        <v>41</v>
+      </c>
+      <c r="M225" t="n">
+        <v>47</v>
+      </c>
+      <c r="N225" t="n">
+        <v>54</v>
+      </c>
+      <c r="O225" t="n">
+        <v>57</v>
+      </c>
+      <c r="P225" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>70</v>
+      </c>
+      <c r="R225" t="n">
+        <v>72</v>
+      </c>
+      <c r="S225" t="n">
+        <v>76</v>
+      </c>
+      <c r="T225" t="n">
+        <v>77</v>
+      </c>
+      <c r="U225" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9</v>
+      </c>
+      <c r="E226" t="n">
+        <v>12</v>
+      </c>
+      <c r="F226" t="n">
+        <v>15</v>
+      </c>
+      <c r="G226" t="n">
+        <v>17</v>
+      </c>
+      <c r="H226" t="n">
+        <v>22</v>
+      </c>
+      <c r="I226" t="n">
+        <v>29</v>
+      </c>
+      <c r="J226" t="n">
+        <v>34</v>
+      </c>
+      <c r="K226" t="n">
+        <v>37</v>
+      </c>
+      <c r="L226" t="n">
+        <v>41</v>
+      </c>
+      <c r="M226" t="n">
+        <v>49</v>
+      </c>
+      <c r="N226" t="n">
+        <v>52</v>
+      </c>
+      <c r="O226" t="n">
+        <v>53</v>
+      </c>
+      <c r="P226" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>56</v>
+      </c>
+      <c r="R226" t="n">
+        <v>58</v>
+      </c>
+      <c r="S226" t="n">
+        <v>63</v>
+      </c>
+      <c r="T226" t="n">
+        <v>69</v>
+      </c>
+      <c r="U226" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>17</v>
+      </c>
+      <c r="C227" t="n">
+        <v>18</v>
+      </c>
+      <c r="D227" t="n">
+        <v>24</v>
+      </c>
+      <c r="E227" t="n">
+        <v>28</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="n">
+        <v>31</v>
+      </c>
+      <c r="H227" t="n">
+        <v>33</v>
+      </c>
+      <c r="I227" t="n">
+        <v>34</v>
+      </c>
+      <c r="J227" t="n">
+        <v>35</v>
+      </c>
+      <c r="K227" t="n">
+        <v>40</v>
+      </c>
+      <c r="L227" t="n">
+        <v>41</v>
+      </c>
+      <c r="M227" t="n">
+        <v>55</v>
+      </c>
+      <c r="N227" t="n">
+        <v>57</v>
+      </c>
+      <c r="O227" t="n">
+        <v>58</v>
+      </c>
+      <c r="P227" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>68</v>
+      </c>
+      <c r="R227" t="n">
+        <v>71</v>
+      </c>
+      <c r="S227" t="n">
+        <v>72</v>
+      </c>
+      <c r="T227" t="n">
+        <v>73</v>
+      </c>
+      <c r="U227" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3</v>
+      </c>
+      <c r="C228" t="n">
+        <v>10</v>
+      </c>
+      <c r="D228" t="n">
+        <v>17</v>
+      </c>
+      <c r="E228" t="n">
+        <v>21</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="n">
+        <v>25</v>
+      </c>
+      <c r="H228" t="n">
+        <v>28</v>
+      </c>
+      <c r="I228" t="n">
+        <v>36</v>
+      </c>
+      <c r="J228" t="n">
+        <v>37</v>
+      </c>
+      <c r="K228" t="n">
+        <v>38</v>
+      </c>
+      <c r="L228" t="n">
+        <v>53</v>
+      </c>
+      <c r="M228" t="n">
+        <v>55</v>
+      </c>
+      <c r="N228" t="n">
+        <v>64</v>
+      </c>
+      <c r="O228" t="n">
+        <v>65</v>
+      </c>
+      <c r="P228" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>70</v>
+      </c>
+      <c r="R228" t="n">
+        <v>71</v>
+      </c>
+      <c r="S228" t="n">
+        <v>74</v>
+      </c>
+      <c r="T228" t="n">
+        <v>75</v>
+      </c>
+      <c r="U228" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+      <c r="D229" t="n">
+        <v>7</v>
+      </c>
+      <c r="E229" t="n">
+        <v>9</v>
+      </c>
+      <c r="F229" t="n">
+        <v>14</v>
+      </c>
+      <c r="G229" t="n">
+        <v>15</v>
+      </c>
+      <c r="H229" t="n">
+        <v>16</v>
+      </c>
+      <c r="I229" t="n">
+        <v>17</v>
+      </c>
+      <c r="J229" t="n">
+        <v>20</v>
+      </c>
+      <c r="K229" t="n">
+        <v>21</v>
+      </c>
+      <c r="L229" t="n">
+        <v>23</v>
+      </c>
+      <c r="M229" t="n">
+        <v>24</v>
+      </c>
+      <c r="N229" t="n">
+        <v>28</v>
+      </c>
+      <c r="O229" t="n">
+        <v>30</v>
+      </c>
+      <c r="P229" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>40</v>
+      </c>
+      <c r="R229" t="n">
+        <v>43</v>
+      </c>
+      <c r="S229" t="n">
+        <v>54</v>
+      </c>
+      <c r="T229" t="n">
+        <v>67</v>
+      </c>
+      <c r="U229" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>16</v>
+      </c>
+      <c r="D230" t="n">
+        <v>18</v>
+      </c>
+      <c r="E230" t="n">
+        <v>19</v>
+      </c>
+      <c r="F230" t="n">
+        <v>27</v>
+      </c>
+      <c r="G230" t="n">
+        <v>30</v>
+      </c>
+      <c r="H230" t="n">
+        <v>33</v>
+      </c>
+      <c r="I230" t="n">
+        <v>34</v>
+      </c>
+      <c r="J230" t="n">
+        <v>36</v>
+      </c>
+      <c r="K230" t="n">
+        <v>37</v>
+      </c>
+      <c r="L230" t="n">
+        <v>38</v>
+      </c>
+      <c r="M230" t="n">
+        <v>47</v>
+      </c>
+      <c r="N230" t="n">
+        <v>49</v>
+      </c>
+      <c r="O230" t="n">
+        <v>50</v>
+      </c>
+      <c r="P230" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>54</v>
+      </c>
+      <c r="R230" t="n">
+        <v>55</v>
+      </c>
+      <c r="S230" t="n">
+        <v>61</v>
+      </c>
+      <c r="T230" t="n">
+        <v>73</v>
+      </c>
+      <c r="U230" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>11</v>
+      </c>
+      <c r="F231" t="n">
+        <v>14</v>
+      </c>
+      <c r="G231" t="n">
+        <v>17</v>
+      </c>
+      <c r="H231" t="n">
+        <v>19</v>
+      </c>
+      <c r="I231" t="n">
+        <v>22</v>
+      </c>
+      <c r="J231" t="n">
+        <v>24</v>
+      </c>
+      <c r="K231" t="n">
+        <v>41</v>
+      </c>
+      <c r="L231" t="n">
+        <v>43</v>
+      </c>
+      <c r="M231" t="n">
+        <v>45</v>
+      </c>
+      <c r="N231" t="n">
+        <v>50</v>
+      </c>
+      <c r="O231" t="n">
+        <v>54</v>
+      </c>
+      <c r="P231" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>57</v>
+      </c>
+      <c r="R231" t="n">
+        <v>65</v>
+      </c>
+      <c r="S231" t="n">
+        <v>70</v>
+      </c>
+      <c r="T231" t="n">
+        <v>72</v>
+      </c>
+      <c r="U231" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>14</v>
+      </c>
+      <c r="F232" t="n">
+        <v>15</v>
+      </c>
+      <c r="G232" t="n">
+        <v>20</v>
+      </c>
+      <c r="H232" t="n">
+        <v>30</v>
+      </c>
+      <c r="I232" t="n">
+        <v>31</v>
+      </c>
+      <c r="J232" t="n">
+        <v>33</v>
+      </c>
+      <c r="K232" t="n">
+        <v>37</v>
+      </c>
+      <c r="L232" t="n">
+        <v>38</v>
+      </c>
+      <c r="M232" t="n">
+        <v>40</v>
+      </c>
+      <c r="N232" t="n">
+        <v>45</v>
+      </c>
+      <c r="O232" t="n">
+        <v>48</v>
+      </c>
+      <c r="P232" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>62</v>
+      </c>
+      <c r="R232" t="n">
+        <v>63</v>
+      </c>
+      <c r="S232" t="n">
+        <v>68</v>
+      </c>
+      <c r="T232" t="n">
+        <v>71</v>
+      </c>
+      <c r="U232" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>12</v>
+      </c>
+      <c r="F233" t="n">
+        <v>13</v>
+      </c>
+      <c r="G233" t="n">
+        <v>19</v>
+      </c>
+      <c r="H233" t="n">
+        <v>21</v>
+      </c>
+      <c r="I233" t="n">
+        <v>23</v>
+      </c>
+      <c r="J233" t="n">
+        <v>27</v>
+      </c>
+      <c r="K233" t="n">
+        <v>35</v>
+      </c>
+      <c r="L233" t="n">
+        <v>36</v>
+      </c>
+      <c r="M233" t="n">
+        <v>37</v>
+      </c>
+      <c r="N233" t="n">
+        <v>46</v>
+      </c>
+      <c r="O233" t="n">
+        <v>50</v>
+      </c>
+      <c r="P233" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>52</v>
+      </c>
+      <c r="R233" t="n">
+        <v>66</v>
+      </c>
+      <c r="S233" t="n">
+        <v>67</v>
+      </c>
+      <c r="T233" t="n">
+        <v>71</v>
+      </c>
+      <c r="U233" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6</v>
+      </c>
+      <c r="E234" t="n">
+        <v>8</v>
+      </c>
+      <c r="F234" t="n">
+        <v>9</v>
+      </c>
+      <c r="G234" t="n">
+        <v>12</v>
+      </c>
+      <c r="H234" t="n">
+        <v>16</v>
+      </c>
+      <c r="I234" t="n">
+        <v>25</v>
+      </c>
+      <c r="J234" t="n">
+        <v>29</v>
+      </c>
+      <c r="K234" t="n">
+        <v>32</v>
+      </c>
+      <c r="L234" t="n">
+        <v>35</v>
+      </c>
+      <c r="M234" t="n">
+        <v>39</v>
+      </c>
+      <c r="N234" t="n">
+        <v>40</v>
+      </c>
+      <c r="O234" t="n">
+        <v>45</v>
+      </c>
+      <c r="P234" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>57</v>
+      </c>
+      <c r="R234" t="n">
+        <v>64</v>
+      </c>
+      <c r="S234" t="n">
+        <v>74</v>
+      </c>
+      <c r="T234" t="n">
+        <v>76</v>
+      </c>
+      <c r="U234" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6</v>
+      </c>
+      <c r="C235" t="n">
+        <v>9</v>
+      </c>
+      <c r="D235" t="n">
+        <v>12</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13</v>
+      </c>
+      <c r="F235" t="n">
+        <v>15</v>
+      </c>
+      <c r="G235" t="n">
+        <v>19</v>
+      </c>
+      <c r="H235" t="n">
+        <v>25</v>
+      </c>
+      <c r="I235" t="n">
+        <v>29</v>
+      </c>
+      <c r="J235" t="n">
+        <v>33</v>
+      </c>
+      <c r="K235" t="n">
+        <v>34</v>
+      </c>
+      <c r="L235" t="n">
+        <v>35</v>
+      </c>
+      <c r="M235" t="n">
+        <v>36</v>
+      </c>
+      <c r="N235" t="n">
+        <v>37</v>
+      </c>
+      <c r="O235" t="n">
+        <v>39</v>
+      </c>
+      <c r="P235" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>65</v>
+      </c>
+      <c r="R235" t="n">
+        <v>66</v>
+      </c>
+      <c r="S235" t="n">
+        <v>77</v>
+      </c>
+      <c r="T235" t="n">
+        <v>78</v>
+      </c>
+      <c r="U235" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4</v>
+      </c>
+      <c r="D236" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9</v>
+      </c>
+      <c r="F236" t="n">
+        <v>18</v>
+      </c>
+      <c r="G236" t="n">
+        <v>19</v>
+      </c>
+      <c r="H236" t="n">
+        <v>24</v>
+      </c>
+      <c r="I236" t="n">
+        <v>26</v>
+      </c>
+      <c r="J236" t="n">
+        <v>34</v>
+      </c>
+      <c r="K236" t="n">
+        <v>42</v>
+      </c>
+      <c r="L236" t="n">
+        <v>45</v>
+      </c>
+      <c r="M236" t="n">
+        <v>50</v>
+      </c>
+      <c r="N236" t="n">
+        <v>52</v>
+      </c>
+      <c r="O236" t="n">
+        <v>58</v>
+      </c>
+      <c r="P236" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>64</v>
+      </c>
+      <c r="R236" t="n">
+        <v>70</v>
+      </c>
+      <c r="S236" t="n">
+        <v>76</v>
+      </c>
+      <c r="T236" t="n">
+        <v>78</v>
+      </c>
+      <c r="U236" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>6</v>
+      </c>
+      <c r="E237" t="n">
+        <v>7</v>
+      </c>
+      <c r="F237" t="n">
+        <v>10</v>
+      </c>
+      <c r="G237" t="n">
+        <v>20</v>
+      </c>
+      <c r="H237" t="n">
+        <v>21</v>
+      </c>
+      <c r="I237" t="n">
+        <v>27</v>
+      </c>
+      <c r="J237" t="n">
+        <v>32</v>
+      </c>
+      <c r="K237" t="n">
+        <v>36</v>
+      </c>
+      <c r="L237" t="n">
+        <v>41</v>
+      </c>
+      <c r="M237" t="n">
+        <v>43</v>
+      </c>
+      <c r="N237" t="n">
+        <v>44</v>
+      </c>
+      <c r="O237" t="n">
+        <v>46</v>
+      </c>
+      <c r="P237" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>59</v>
+      </c>
+      <c r="R237" t="n">
+        <v>60</v>
+      </c>
+      <c r="S237" t="n">
+        <v>67</v>
+      </c>
+      <c r="T237" t="n">
+        <v>70</v>
+      </c>
+      <c r="U237" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4</v>
+      </c>
+      <c r="C238" t="n">
+        <v>7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>13</v>
+      </c>
+      <c r="E238" t="n">
+        <v>17</v>
+      </c>
+      <c r="F238" t="n">
+        <v>18</v>
+      </c>
+      <c r="G238" t="n">
+        <v>19</v>
+      </c>
+      <c r="H238" t="n">
+        <v>29</v>
+      </c>
+      <c r="I238" t="n">
+        <v>39</v>
+      </c>
+      <c r="J238" t="n">
+        <v>42</v>
+      </c>
+      <c r="K238" t="n">
+        <v>47</v>
+      </c>
+      <c r="L238" t="n">
+        <v>48</v>
+      </c>
+      <c r="M238" t="n">
+        <v>53</v>
+      </c>
+      <c r="N238" t="n">
+        <v>54</v>
+      </c>
+      <c r="O238" t="n">
+        <v>55</v>
+      </c>
+      <c r="P238" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>64</v>
+      </c>
+      <c r="R238" t="n">
+        <v>67</v>
+      </c>
+      <c r="S238" t="n">
+        <v>73</v>
+      </c>
+      <c r="T238" t="n">
+        <v>74</v>
+      </c>
+      <c r="U238" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4</v>
+      </c>
+      <c r="E239" t="n">
+        <v>6</v>
+      </c>
+      <c r="F239" t="n">
+        <v>11</v>
+      </c>
+      <c r="G239" t="n">
+        <v>13</v>
+      </c>
+      <c r="H239" t="n">
+        <v>24</v>
+      </c>
+      <c r="I239" t="n">
+        <v>27</v>
+      </c>
+      <c r="J239" t="n">
+        <v>29</v>
+      </c>
+      <c r="K239" t="n">
+        <v>33</v>
+      </c>
+      <c r="L239" t="n">
+        <v>37</v>
+      </c>
+      <c r="M239" t="n">
+        <v>38</v>
+      </c>
+      <c r="N239" t="n">
+        <v>48</v>
+      </c>
+      <c r="O239" t="n">
+        <v>56</v>
+      </c>
+      <c r="P239" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>65</v>
+      </c>
+      <c r="R239" t="n">
+        <v>66</v>
+      </c>
+      <c r="S239" t="n">
+        <v>72</v>
+      </c>
+      <c r="T239" t="n">
+        <v>76</v>
+      </c>
+      <c r="U239" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>8</v>
+      </c>
+      <c r="C240" t="n">
+        <v>9</v>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="n">
+        <v>17</v>
+      </c>
+      <c r="F240" t="n">
+        <v>20</v>
+      </c>
+      <c r="G240" t="n">
+        <v>30</v>
+      </c>
+      <c r="H240" t="n">
+        <v>31</v>
+      </c>
+      <c r="I240" t="n">
+        <v>33</v>
+      </c>
+      <c r="J240" t="n">
+        <v>34</v>
+      </c>
+      <c r="K240" t="n">
+        <v>35</v>
+      </c>
+      <c r="L240" t="n">
+        <v>41</v>
+      </c>
+      <c r="M240" t="n">
+        <v>43</v>
+      </c>
+      <c r="N240" t="n">
+        <v>45</v>
+      </c>
+      <c r="O240" t="n">
+        <v>51</v>
+      </c>
+      <c r="P240" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>57</v>
+      </c>
+      <c r="R240" t="n">
+        <v>65</v>
+      </c>
+      <c r="S240" t="n">
+        <v>67</v>
+      </c>
+      <c r="T240" t="n">
+        <v>74</v>
+      </c>
+      <c r="U240" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>11</v>
+      </c>
+      <c r="F241" t="n">
+        <v>12</v>
+      </c>
+      <c r="G241" t="n">
+        <v>15</v>
+      </c>
+      <c r="H241" t="n">
+        <v>16</v>
+      </c>
+      <c r="I241" t="n">
+        <v>21</v>
+      </c>
+      <c r="J241" t="n">
+        <v>28</v>
+      </c>
+      <c r="K241" t="n">
+        <v>33</v>
+      </c>
+      <c r="L241" t="n">
+        <v>38</v>
+      </c>
+      <c r="M241" t="n">
+        <v>41</v>
+      </c>
+      <c r="N241" t="n">
+        <v>44</v>
+      </c>
+      <c r="O241" t="n">
+        <v>49</v>
+      </c>
+      <c r="P241" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>59</v>
+      </c>
+      <c r="R241" t="n">
+        <v>62</v>
+      </c>
+      <c r="S241" t="n">
+        <v>64</v>
+      </c>
+      <c r="T241" t="n">
+        <v>76</v>
+      </c>
+      <c r="U241" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5</v>
+      </c>
+      <c r="C242" t="n">
+        <v>8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9</v>
+      </c>
+      <c r="E242" t="n">
+        <v>12</v>
+      </c>
+      <c r="F242" t="n">
+        <v>16</v>
+      </c>
+      <c r="G242" t="n">
+        <v>19</v>
+      </c>
+      <c r="H242" t="n">
+        <v>30</v>
+      </c>
+      <c r="I242" t="n">
+        <v>31</v>
+      </c>
+      <c r="J242" t="n">
+        <v>32</v>
+      </c>
+      <c r="K242" t="n">
+        <v>35</v>
+      </c>
+      <c r="L242" t="n">
+        <v>49</v>
+      </c>
+      <c r="M242" t="n">
+        <v>51</v>
+      </c>
+      <c r="N242" t="n">
+        <v>54</v>
+      </c>
+      <c r="O242" t="n">
+        <v>56</v>
+      </c>
+      <c r="P242" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>72</v>
+      </c>
+      <c r="R242" t="n">
+        <v>73</v>
+      </c>
+      <c r="S242" t="n">
+        <v>75</v>
+      </c>
+      <c r="T242" t="n">
+        <v>77</v>
+      </c>
+      <c r="U242" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6</v>
+      </c>
+      <c r="C243" t="n">
+        <v>8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>10</v>
+      </c>
+      <c r="E243" t="n">
+        <v>16</v>
+      </c>
+      <c r="F243" t="n">
+        <v>20</v>
+      </c>
+      <c r="G243" t="n">
+        <v>21</v>
+      </c>
+      <c r="H243" t="n">
+        <v>23</v>
+      </c>
+      <c r="I243" t="n">
+        <v>26</v>
+      </c>
+      <c r="J243" t="n">
+        <v>30</v>
+      </c>
+      <c r="K243" t="n">
+        <v>32</v>
+      </c>
+      <c r="L243" t="n">
+        <v>34</v>
+      </c>
+      <c r="M243" t="n">
+        <v>38</v>
+      </c>
+      <c r="N243" t="n">
+        <v>41</v>
+      </c>
+      <c r="O243" t="n">
+        <v>42</v>
+      </c>
+      <c r="P243" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>63</v>
+      </c>
+      <c r="R243" t="n">
+        <v>64</v>
+      </c>
+      <c r="S243" t="n">
+        <v>66</v>
+      </c>
+      <c r="T243" t="n">
+        <v>67</v>
+      </c>
+      <c r="U243" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6</v>
+      </c>
+      <c r="E244" t="n">
+        <v>14</v>
+      </c>
+      <c r="F244" t="n">
+        <v>15</v>
+      </c>
+      <c r="G244" t="n">
+        <v>19</v>
+      </c>
+      <c r="H244" t="n">
+        <v>20</v>
+      </c>
+      <c r="I244" t="n">
+        <v>24</v>
+      </c>
+      <c r="J244" t="n">
+        <v>28</v>
+      </c>
+      <c r="K244" t="n">
+        <v>38</v>
+      </c>
+      <c r="L244" t="n">
+        <v>41</v>
+      </c>
+      <c r="M244" t="n">
+        <v>45</v>
+      </c>
+      <c r="N244" t="n">
+        <v>46</v>
+      </c>
+      <c r="O244" t="n">
+        <v>48</v>
+      </c>
+      <c r="P244" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>60</v>
+      </c>
+      <c r="R244" t="n">
+        <v>67</v>
+      </c>
+      <c r="S244" t="n">
+        <v>77</v>
+      </c>
+      <c r="T244" t="n">
+        <v>78</v>
+      </c>
+      <c r="U244" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>11</v>
+      </c>
+      <c r="D245" t="n">
+        <v>18</v>
+      </c>
+      <c r="E245" t="n">
+        <v>19</v>
+      </c>
+      <c r="F245" t="n">
+        <v>26</v>
+      </c>
+      <c r="G245" t="n">
+        <v>27</v>
+      </c>
+      <c r="H245" t="n">
+        <v>34</v>
+      </c>
+      <c r="I245" t="n">
+        <v>37</v>
+      </c>
+      <c r="J245" t="n">
+        <v>41</v>
+      </c>
+      <c r="K245" t="n">
+        <v>44</v>
+      </c>
+      <c r="L245" t="n">
+        <v>45</v>
+      </c>
+      <c r="M245" t="n">
+        <v>51</v>
+      </c>
+      <c r="N245" t="n">
+        <v>60</v>
+      </c>
+      <c r="O245" t="n">
+        <v>63</v>
+      </c>
+      <c r="P245" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>66</v>
+      </c>
+      <c r="R245" t="n">
+        <v>71</v>
+      </c>
+      <c r="S245" t="n">
+        <v>72</v>
+      </c>
+      <c r="T245" t="n">
+        <v>78</v>
+      </c>
+      <c r="U245" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>7</v>
+      </c>
+      <c r="D246" t="n">
+        <v>11</v>
+      </c>
+      <c r="E246" t="n">
+        <v>17</v>
+      </c>
+      <c r="F246" t="n">
+        <v>18</v>
+      </c>
+      <c r="G246" t="n">
+        <v>19</v>
+      </c>
+      <c r="H246" t="n">
+        <v>27</v>
+      </c>
+      <c r="I246" t="n">
+        <v>30</v>
+      </c>
+      <c r="J246" t="n">
+        <v>31</v>
+      </c>
+      <c r="K246" t="n">
+        <v>32</v>
+      </c>
+      <c r="L246" t="n">
+        <v>34</v>
+      </c>
+      <c r="M246" t="n">
+        <v>45</v>
+      </c>
+      <c r="N246" t="n">
+        <v>47</v>
+      </c>
+      <c r="O246" t="n">
+        <v>49</v>
+      </c>
+      <c r="P246" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>63</v>
+      </c>
+      <c r="R246" t="n">
+        <v>64</v>
+      </c>
+      <c r="S246" t="n">
+        <v>75</v>
+      </c>
+      <c r="T246" t="n">
+        <v>77</v>
+      </c>
+      <c r="U246" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+      <c r="D247" t="n">
+        <v>9</v>
+      </c>
+      <c r="E247" t="n">
+        <v>13</v>
+      </c>
+      <c r="F247" t="n">
+        <v>22</v>
+      </c>
+      <c r="G247" t="n">
+        <v>30</v>
+      </c>
+      <c r="H247" t="n">
+        <v>32</v>
+      </c>
+      <c r="I247" t="n">
+        <v>34</v>
+      </c>
+      <c r="J247" t="n">
+        <v>37</v>
+      </c>
+      <c r="K247" t="n">
+        <v>40</v>
+      </c>
+      <c r="L247" t="n">
+        <v>41</v>
+      </c>
+      <c r="M247" t="n">
+        <v>44</v>
+      </c>
+      <c r="N247" t="n">
+        <v>47</v>
+      </c>
+      <c r="O247" t="n">
+        <v>48</v>
+      </c>
+      <c r="P247" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>53</v>
+      </c>
+      <c r="R247" t="n">
+        <v>55</v>
+      </c>
+      <c r="S247" t="n">
+        <v>56</v>
+      </c>
+      <c r="T247" t="n">
+        <v>59</v>
+      </c>
+      <c r="U247" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4</v>
+      </c>
+      <c r="C248" t="n">
+        <v>5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>8</v>
+      </c>
+      <c r="E248" t="n">
+        <v>9</v>
+      </c>
+      <c r="F248" t="n">
+        <v>11</v>
+      </c>
+      <c r="G248" t="n">
+        <v>16</v>
+      </c>
+      <c r="H248" t="n">
+        <v>19</v>
+      </c>
+      <c r="I248" t="n">
+        <v>20</v>
+      </c>
+      <c r="J248" t="n">
+        <v>25</v>
+      </c>
+      <c r="K248" t="n">
+        <v>26</v>
+      </c>
+      <c r="L248" t="n">
+        <v>30</v>
+      </c>
+      <c r="M248" t="n">
+        <v>45</v>
+      </c>
+      <c r="N248" t="n">
+        <v>47</v>
+      </c>
+      <c r="O248" t="n">
+        <v>53</v>
+      </c>
+      <c r="P248" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>59</v>
+      </c>
+      <c r="R248" t="n">
+        <v>62</v>
+      </c>
+      <c r="S248" t="n">
+        <v>72</v>
+      </c>
+      <c r="T248" t="n">
+        <v>77</v>
+      </c>
+      <c r="U248" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+      <c r="C249" t="n">
+        <v>10</v>
+      </c>
+      <c r="D249" t="n">
+        <v>12</v>
+      </c>
+      <c r="E249" t="n">
+        <v>17</v>
+      </c>
+      <c r="F249" t="n">
+        <v>18</v>
+      </c>
+      <c r="G249" t="n">
+        <v>22</v>
+      </c>
+      <c r="H249" t="n">
+        <v>28</v>
+      </c>
+      <c r="I249" t="n">
+        <v>33</v>
+      </c>
+      <c r="J249" t="n">
+        <v>37</v>
+      </c>
+      <c r="K249" t="n">
+        <v>41</v>
+      </c>
+      <c r="L249" t="n">
+        <v>53</v>
+      </c>
+      <c r="M249" t="n">
+        <v>60</v>
+      </c>
+      <c r="N249" t="n">
+        <v>61</v>
+      </c>
+      <c r="O249" t="n">
+        <v>67</v>
+      </c>
+      <c r="P249" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>72</v>
+      </c>
+      <c r="R249" t="n">
+        <v>73</v>
+      </c>
+      <c r="S249" t="n">
+        <v>76</v>
+      </c>
+      <c r="T249" t="n">
+        <v>77</v>
+      </c>
+      <c r="U249" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>8</v>
+      </c>
+      <c r="E250" t="n">
+        <v>10</v>
+      </c>
+      <c r="F250" t="n">
+        <v>13</v>
+      </c>
+      <c r="G250" t="n">
+        <v>14</v>
+      </c>
+      <c r="H250" t="n">
+        <v>17</v>
+      </c>
+      <c r="I250" t="n">
+        <v>26</v>
+      </c>
+      <c r="J250" t="n">
+        <v>39</v>
+      </c>
+      <c r="K250" t="n">
+        <v>42</v>
+      </c>
+      <c r="L250" t="n">
+        <v>44</v>
+      </c>
+      <c r="M250" t="n">
+        <v>45</v>
+      </c>
+      <c r="N250" t="n">
+        <v>46</v>
+      </c>
+      <c r="O250" t="n">
+        <v>47</v>
+      </c>
+      <c r="P250" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>54</v>
+      </c>
+      <c r="R250" t="n">
+        <v>55</v>
+      </c>
+      <c r="S250" t="n">
+        <v>67</v>
+      </c>
+      <c r="T250" t="n">
+        <v>71</v>
+      </c>
+      <c r="U250" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>7</v>
+      </c>
+      <c r="D251" t="n">
+        <v>10</v>
+      </c>
+      <c r="E251" t="n">
+        <v>12</v>
+      </c>
+      <c r="F251" t="n">
+        <v>13</v>
+      </c>
+      <c r="G251" t="n">
+        <v>22</v>
+      </c>
+      <c r="H251" t="n">
+        <v>25</v>
+      </c>
+      <c r="I251" t="n">
+        <v>30</v>
+      </c>
+      <c r="J251" t="n">
+        <v>38</v>
+      </c>
+      <c r="K251" t="n">
+        <v>43</v>
+      </c>
+      <c r="L251" t="n">
+        <v>46</v>
+      </c>
+      <c r="M251" t="n">
+        <v>47</v>
+      </c>
+      <c r="N251" t="n">
+        <v>50</v>
+      </c>
+      <c r="O251" t="n">
+        <v>51</v>
+      </c>
+      <c r="P251" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>54</v>
+      </c>
+      <c r="R251" t="n">
+        <v>55</v>
+      </c>
+      <c r="S251" t="n">
+        <v>64</v>
+      </c>
+      <c r="T251" t="n">
+        <v>67</v>
+      </c>
+      <c r="U251" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4</v>
+      </c>
+      <c r="D252" t="n">
+        <v>10</v>
+      </c>
+      <c r="E252" t="n">
+        <v>12</v>
+      </c>
+      <c r="F252" t="n">
+        <v>14</v>
+      </c>
+      <c r="G252" t="n">
+        <v>17</v>
+      </c>
+      <c r="H252" t="n">
+        <v>22</v>
+      </c>
+      <c r="I252" t="n">
+        <v>24</v>
+      </c>
+      <c r="J252" t="n">
+        <v>37</v>
+      </c>
+      <c r="K252" t="n">
+        <v>38</v>
+      </c>
+      <c r="L252" t="n">
+        <v>41</v>
+      </c>
+      <c r="M252" t="n">
+        <v>42</v>
+      </c>
+      <c r="N252" t="n">
+        <v>46</v>
+      </c>
+      <c r="O252" t="n">
+        <v>54</v>
+      </c>
+      <c r="P252" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>66</v>
+      </c>
+      <c r="R252" t="n">
+        <v>68</v>
+      </c>
+      <c r="S252" t="n">
+        <v>69</v>
+      </c>
+      <c r="T252" t="n">
+        <v>73</v>
+      </c>
+      <c r="U252" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4</v>
+      </c>
+      <c r="C253" t="n">
+        <v>8</v>
+      </c>
+      <c r="D253" t="n">
+        <v>13</v>
+      </c>
+      <c r="E253" t="n">
+        <v>16</v>
+      </c>
+      <c r="F253" t="n">
+        <v>22</v>
+      </c>
+      <c r="G253" t="n">
+        <v>23</v>
+      </c>
+      <c r="H253" t="n">
+        <v>27</v>
+      </c>
+      <c r="I253" t="n">
+        <v>28</v>
+      </c>
+      <c r="J253" t="n">
+        <v>33</v>
+      </c>
+      <c r="K253" t="n">
+        <v>34</v>
+      </c>
+      <c r="L253" t="n">
+        <v>35</v>
+      </c>
+      <c r="M253" t="n">
+        <v>37</v>
+      </c>
+      <c r="N253" t="n">
+        <v>43</v>
+      </c>
+      <c r="O253" t="n">
+        <v>50</v>
+      </c>
+      <c r="P253" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>54</v>
+      </c>
+      <c r="R253" t="n">
+        <v>66</v>
+      </c>
+      <c r="S253" t="n">
+        <v>68</v>
+      </c>
+      <c r="T253" t="n">
+        <v>73</v>
+      </c>
+      <c r="U253" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4</v>
+      </c>
+      <c r="D254" t="n">
+        <v>10</v>
+      </c>
+      <c r="E254" t="n">
+        <v>12</v>
+      </c>
+      <c r="F254" t="n">
+        <v>16</v>
+      </c>
+      <c r="G254" t="n">
+        <v>26</v>
+      </c>
+      <c r="H254" t="n">
+        <v>34</v>
+      </c>
+      <c r="I254" t="n">
+        <v>36</v>
+      </c>
+      <c r="J254" t="n">
+        <v>40</v>
+      </c>
+      <c r="K254" t="n">
+        <v>43</v>
+      </c>
+      <c r="L254" t="n">
+        <v>47</v>
+      </c>
+      <c r="M254" t="n">
+        <v>50</v>
+      </c>
+      <c r="N254" t="n">
+        <v>52</v>
+      </c>
+      <c r="O254" t="n">
+        <v>54</v>
+      </c>
+      <c r="P254" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>64</v>
+      </c>
+      <c r="R254" t="n">
+        <v>65</v>
+      </c>
+      <c r="S254" t="n">
+        <v>76</v>
+      </c>
+      <c r="T254" t="n">
+        <v>78</v>
+      </c>
+      <c r="U254" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3</v>
+      </c>
+      <c r="D255" t="n">
+        <v>7</v>
+      </c>
+      <c r="E255" t="n">
+        <v>23</v>
+      </c>
+      <c r="F255" t="n">
+        <v>24</v>
+      </c>
+      <c r="G255" t="n">
+        <v>30</v>
+      </c>
+      <c r="H255" t="n">
+        <v>35</v>
+      </c>
+      <c r="I255" t="n">
+        <v>36</v>
+      </c>
+      <c r="J255" t="n">
+        <v>42</v>
+      </c>
+      <c r="K255" t="n">
+        <v>47</v>
+      </c>
+      <c r="L255" t="n">
+        <v>48</v>
+      </c>
+      <c r="M255" t="n">
+        <v>53</v>
+      </c>
+      <c r="N255" t="n">
+        <v>60</v>
+      </c>
+      <c r="O255" t="n">
+        <v>65</v>
+      </c>
+      <c r="P255" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>72</v>
+      </c>
+      <c r="R255" t="n">
+        <v>73</v>
+      </c>
+      <c r="S255" t="n">
+        <v>75</v>
+      </c>
+      <c r="T255" t="n">
+        <v>77</v>
+      </c>
+      <c r="U255" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2</v>
+      </c>
+      <c r="D256" t="n">
+        <v>11</v>
+      </c>
+      <c r="E256" t="n">
+        <v>14</v>
+      </c>
+      <c r="F256" t="n">
+        <v>24</v>
+      </c>
+      <c r="G256" t="n">
+        <v>25</v>
+      </c>
+      <c r="H256" t="n">
+        <v>27</v>
+      </c>
+      <c r="I256" t="n">
+        <v>29</v>
+      </c>
+      <c r="J256" t="n">
+        <v>33</v>
+      </c>
+      <c r="K256" t="n">
+        <v>36</v>
+      </c>
+      <c r="L256" t="n">
+        <v>37</v>
+      </c>
+      <c r="M256" t="n">
+        <v>38</v>
+      </c>
+      <c r="N256" t="n">
+        <v>41</v>
+      </c>
+      <c r="O256" t="n">
+        <v>55</v>
+      </c>
+      <c r="P256" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>61</v>
+      </c>
+      <c r="R256" t="n">
+        <v>62</v>
+      </c>
+      <c r="S256" t="n">
+        <v>71</v>
+      </c>
+      <c r="T256" t="n">
+        <v>73</v>
+      </c>
+      <c r="U256" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="n">
+        <v>8</v>
+      </c>
+      <c r="E257" t="n">
+        <v>17</v>
+      </c>
+      <c r="F257" t="n">
+        <v>22</v>
+      </c>
+      <c r="G257" t="n">
+        <v>26</v>
+      </c>
+      <c r="H257" t="n">
+        <v>27</v>
+      </c>
+      <c r="I257" t="n">
+        <v>28</v>
+      </c>
+      <c r="J257" t="n">
+        <v>30</v>
+      </c>
+      <c r="K257" t="n">
+        <v>38</v>
+      </c>
+      <c r="L257" t="n">
+        <v>39</v>
+      </c>
+      <c r="M257" t="n">
+        <v>50</v>
+      </c>
+      <c r="N257" t="n">
+        <v>55</v>
+      </c>
+      <c r="O257" t="n">
+        <v>61</v>
+      </c>
+      <c r="P257" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>69</v>
+      </c>
+      <c r="R257" t="n">
+        <v>71</v>
+      </c>
+      <c r="S257" t="n">
+        <v>72</v>
+      </c>
+      <c r="T257" t="n">
+        <v>75</v>
+      </c>
+      <c r="U257" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+      <c r="C258" t="n">
+        <v>7</v>
+      </c>
+      <c r="D258" t="n">
+        <v>9</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="n">
+        <v>11</v>
+      </c>
+      <c r="G258" t="n">
+        <v>18</v>
+      </c>
+      <c r="H258" t="n">
+        <v>22</v>
+      </c>
+      <c r="I258" t="n">
+        <v>39</v>
+      </c>
+      <c r="J258" t="n">
+        <v>45</v>
+      </c>
+      <c r="K258" t="n">
+        <v>47</v>
+      </c>
+      <c r="L258" t="n">
+        <v>48</v>
+      </c>
+      <c r="M258" t="n">
+        <v>51</v>
+      </c>
+      <c r="N258" t="n">
+        <v>54</v>
+      </c>
+      <c r="O258" t="n">
+        <v>55</v>
+      </c>
+      <c r="P258" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>57</v>
+      </c>
+      <c r="R258" t="n">
+        <v>61</v>
+      </c>
+      <c r="S258" t="n">
+        <v>64</v>
+      </c>
+      <c r="T258" t="n">
+        <v>72</v>
+      </c>
+      <c r="U258" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4</v>
+      </c>
+      <c r="C259" t="n">
+        <v>7</v>
+      </c>
+      <c r="D259" t="n">
+        <v>9</v>
+      </c>
+      <c r="E259" t="n">
+        <v>13</v>
+      </c>
+      <c r="F259" t="n">
+        <v>17</v>
+      </c>
+      <c r="G259" t="n">
+        <v>27</v>
+      </c>
+      <c r="H259" t="n">
+        <v>33</v>
+      </c>
+      <c r="I259" t="n">
+        <v>37</v>
+      </c>
+      <c r="J259" t="n">
+        <v>42</v>
+      </c>
+      <c r="K259" t="n">
+        <v>47</v>
+      </c>
+      <c r="L259" t="n">
+        <v>48</v>
+      </c>
+      <c r="M259" t="n">
+        <v>51</v>
+      </c>
+      <c r="N259" t="n">
+        <v>53</v>
+      </c>
+      <c r="O259" t="n">
+        <v>60</v>
+      </c>
+      <c r="P259" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>64</v>
+      </c>
+      <c r="R259" t="n">
+        <v>67</v>
+      </c>
+      <c r="S259" t="n">
+        <v>69</v>
+      </c>
+      <c r="T259" t="n">
+        <v>77</v>
+      </c>
+      <c r="U259" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>14</v>
+      </c>
+      <c r="C260" t="n">
+        <v>15</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" t="n">
+        <v>17</v>
+      </c>
+      <c r="F260" t="n">
+        <v>18</v>
+      </c>
+      <c r="G260" t="n">
+        <v>20</v>
+      </c>
+      <c r="H260" t="n">
+        <v>21</v>
+      </c>
+      <c r="I260" t="n">
+        <v>22</v>
+      </c>
+      <c r="J260" t="n">
+        <v>23</v>
+      </c>
+      <c r="K260" t="n">
+        <v>28</v>
+      </c>
+      <c r="L260" t="n">
+        <v>30</v>
+      </c>
+      <c r="M260" t="n">
+        <v>32</v>
+      </c>
+      <c r="N260" t="n">
+        <v>36</v>
+      </c>
+      <c r="O260" t="n">
+        <v>44</v>
+      </c>
+      <c r="P260" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>51</v>
+      </c>
+      <c r="R260" t="n">
+        <v>56</v>
+      </c>
+      <c r="S260" t="n">
+        <v>57</v>
+      </c>
+      <c r="T260" t="n">
+        <v>64</v>
+      </c>
+      <c r="U260" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+      <c r="C261" t="n">
+        <v>10</v>
+      </c>
+      <c r="D261" t="n">
+        <v>14</v>
+      </c>
+      <c r="E261" t="n">
+        <v>21</v>
+      </c>
+      <c r="F261" t="n">
+        <v>23</v>
+      </c>
+      <c r="G261" t="n">
+        <v>29</v>
+      </c>
+      <c r="H261" t="n">
+        <v>30</v>
+      </c>
+      <c r="I261" t="n">
+        <v>31</v>
+      </c>
+      <c r="J261" t="n">
+        <v>35</v>
+      </c>
+      <c r="K261" t="n">
+        <v>38</v>
+      </c>
+      <c r="L261" t="n">
+        <v>39</v>
+      </c>
+      <c r="M261" t="n">
+        <v>41</v>
+      </c>
+      <c r="N261" t="n">
+        <v>46</v>
+      </c>
+      <c r="O261" t="n">
+        <v>47</v>
+      </c>
+      <c r="P261" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>52</v>
+      </c>
+      <c r="R261" t="n">
+        <v>53</v>
+      </c>
+      <c r="S261" t="n">
+        <v>62</v>
+      </c>
+      <c r="T261" t="n">
+        <v>72</v>
+      </c>
+      <c r="U261" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>8</v>
+      </c>
+      <c r="C262" t="n">
+        <v>14</v>
+      </c>
+      <c r="D262" t="n">
+        <v>17</v>
+      </c>
+      <c r="E262" t="n">
+        <v>23</v>
+      </c>
+      <c r="F262" t="n">
+        <v>33</v>
+      </c>
+      <c r="G262" t="n">
+        <v>34</v>
+      </c>
+      <c r="H262" t="n">
+        <v>35</v>
+      </c>
+      <c r="I262" t="n">
+        <v>37</v>
+      </c>
+      <c r="J262" t="n">
+        <v>44</v>
+      </c>
+      <c r="K262" t="n">
+        <v>50</v>
+      </c>
+      <c r="L262" t="n">
+        <v>54</v>
+      </c>
+      <c r="M262" t="n">
+        <v>57</v>
+      </c>
+      <c r="N262" t="n">
+        <v>62</v>
+      </c>
+      <c r="O262" t="n">
+        <v>64</v>
+      </c>
+      <c r="P262" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>67</v>
+      </c>
+      <c r="R262" t="n">
+        <v>69</v>
+      </c>
+      <c r="S262" t="n">
+        <v>70</v>
+      </c>
+      <c r="T262" t="n">
+        <v>74</v>
+      </c>
+      <c r="U262" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4</v>
+      </c>
+      <c r="C263" t="n">
+        <v>5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>12</v>
+      </c>
+      <c r="E263" t="n">
+        <v>20</v>
+      </c>
+      <c r="F263" t="n">
+        <v>21</v>
+      </c>
+      <c r="G263" t="n">
+        <v>22</v>
+      </c>
+      <c r="H263" t="n">
+        <v>29</v>
+      </c>
+      <c r="I263" t="n">
+        <v>36</v>
+      </c>
+      <c r="J263" t="n">
+        <v>37</v>
+      </c>
+      <c r="K263" t="n">
+        <v>53</v>
+      </c>
+      <c r="L263" t="n">
+        <v>55</v>
+      </c>
+      <c r="M263" t="n">
+        <v>59</v>
+      </c>
+      <c r="N263" t="n">
+        <v>61</v>
+      </c>
+      <c r="O263" t="n">
+        <v>62</v>
+      </c>
+      <c r="P263" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>71</v>
+      </c>
+      <c r="R263" t="n">
+        <v>72</v>
+      </c>
+      <c r="S263" t="n">
+        <v>75</v>
+      </c>
+      <c r="T263" t="n">
+        <v>76</v>
+      </c>
+      <c r="U263" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>11</v>
+      </c>
+      <c r="C264" t="n">
+        <v>12</v>
+      </c>
+      <c r="D264" t="n">
+        <v>15</v>
+      </c>
+      <c r="E264" t="n">
+        <v>19</v>
+      </c>
+      <c r="F264" t="n">
+        <v>23</v>
+      </c>
+      <c r="G264" t="n">
+        <v>24</v>
+      </c>
+      <c r="H264" t="n">
+        <v>28</v>
+      </c>
+      <c r="I264" t="n">
+        <v>32</v>
+      </c>
+      <c r="J264" t="n">
+        <v>36</v>
+      </c>
+      <c r="K264" t="n">
+        <v>46</v>
+      </c>
+      <c r="L264" t="n">
+        <v>54</v>
+      </c>
+      <c r="M264" t="n">
+        <v>56</v>
+      </c>
+      <c r="N264" t="n">
+        <v>61</v>
+      </c>
+      <c r="O264" t="n">
+        <v>65</v>
+      </c>
+      <c r="P264" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>73</v>
+      </c>
+      <c r="R264" t="n">
+        <v>76</v>
+      </c>
+      <c r="S264" t="n">
+        <v>77</v>
+      </c>
+      <c r="T264" t="n">
+        <v>78</v>
+      </c>
+      <c r="U264" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>7</v>
+      </c>
+      <c r="D265" t="n">
+        <v>14</v>
+      </c>
+      <c r="E265" t="n">
+        <v>17</v>
+      </c>
+      <c r="F265" t="n">
+        <v>23</v>
+      </c>
+      <c r="G265" t="n">
+        <v>27</v>
+      </c>
+      <c r="H265" t="n">
+        <v>34</v>
+      </c>
+      <c r="I265" t="n">
+        <v>37</v>
+      </c>
+      <c r="J265" t="n">
+        <v>39</v>
+      </c>
+      <c r="K265" t="n">
+        <v>40</v>
+      </c>
+      <c r="L265" t="n">
+        <v>42</v>
+      </c>
+      <c r="M265" t="n">
+        <v>44</v>
+      </c>
+      <c r="N265" t="n">
+        <v>49</v>
+      </c>
+      <c r="O265" t="n">
+        <v>57</v>
+      </c>
+      <c r="P265" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>64</v>
+      </c>
+      <c r="R265" t="n">
+        <v>66</v>
+      </c>
+      <c r="S265" t="n">
+        <v>70</v>
+      </c>
+      <c r="T265" t="n">
+        <v>74</v>
+      </c>
+      <c r="U265" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" t="n">
+        <v>9</v>
+      </c>
+      <c r="E266" t="n">
+        <v>10</v>
+      </c>
+      <c r="F266" t="n">
+        <v>13</v>
+      </c>
+      <c r="G266" t="n">
+        <v>19</v>
+      </c>
+      <c r="H266" t="n">
+        <v>24</v>
+      </c>
+      <c r="I266" t="n">
+        <v>37</v>
+      </c>
+      <c r="J266" t="n">
+        <v>38</v>
+      </c>
+      <c r="K266" t="n">
+        <v>41</v>
+      </c>
+      <c r="L266" t="n">
+        <v>51</v>
+      </c>
+      <c r="M266" t="n">
+        <v>52</v>
+      </c>
+      <c r="N266" t="n">
+        <v>53</v>
+      </c>
+      <c r="O266" t="n">
+        <v>55</v>
+      </c>
+      <c r="P266" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>60</v>
+      </c>
+      <c r="R266" t="n">
+        <v>62</v>
+      </c>
+      <c r="S266" t="n">
+        <v>65</v>
+      </c>
+      <c r="T266" t="n">
+        <v>68</v>
+      </c>
+      <c r="U266" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3</v>
+      </c>
+      <c r="E267" t="n">
+        <v>4</v>
+      </c>
+      <c r="F267" t="n">
+        <v>8</v>
+      </c>
+      <c r="G267" t="n">
+        <v>10</v>
+      </c>
+      <c r="H267" t="n">
+        <v>12</v>
+      </c>
+      <c r="I267" t="n">
+        <v>16</v>
+      </c>
+      <c r="J267" t="n">
+        <v>17</v>
+      </c>
+      <c r="K267" t="n">
+        <v>21</v>
+      </c>
+      <c r="L267" t="n">
+        <v>22</v>
+      </c>
+      <c r="M267" t="n">
+        <v>35</v>
+      </c>
+      <c r="N267" t="n">
+        <v>41</v>
+      </c>
+      <c r="O267" t="n">
+        <v>45</v>
+      </c>
+      <c r="P267" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>61</v>
+      </c>
+      <c r="R267" t="n">
+        <v>62</v>
+      </c>
+      <c r="S267" t="n">
+        <v>67</v>
+      </c>
+      <c r="T267" t="n">
+        <v>75</v>
+      </c>
+      <c r="U267" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3</v>
+      </c>
+      <c r="D268" t="n">
+        <v>7</v>
+      </c>
+      <c r="E268" t="n">
+        <v>9</v>
+      </c>
+      <c r="F268" t="n">
+        <v>11</v>
+      </c>
+      <c r="G268" t="n">
+        <v>12</v>
+      </c>
+      <c r="H268" t="n">
+        <v>14</v>
+      </c>
+      <c r="I268" t="n">
+        <v>17</v>
+      </c>
+      <c r="J268" t="n">
+        <v>19</v>
+      </c>
+      <c r="K268" t="n">
+        <v>24</v>
+      </c>
+      <c r="L268" t="n">
+        <v>35</v>
+      </c>
+      <c r="M268" t="n">
+        <v>37</v>
+      </c>
+      <c r="N268" t="n">
+        <v>39</v>
+      </c>
+      <c r="O268" t="n">
+        <v>44</v>
+      </c>
+      <c r="P268" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>51</v>
+      </c>
+      <c r="R268" t="n">
+        <v>65</v>
+      </c>
+      <c r="S268" t="n">
+        <v>71</v>
+      </c>
+      <c r="T268" t="n">
+        <v>78</v>
+      </c>
+      <c r="U268" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7</v>
+      </c>
+      <c r="D269" t="n">
+        <v>11</v>
+      </c>
+      <c r="E269" t="n">
+        <v>12</v>
+      </c>
+      <c r="F269" t="n">
+        <v>14</v>
+      </c>
+      <c r="G269" t="n">
+        <v>21</v>
+      </c>
+      <c r="H269" t="n">
+        <v>24</v>
+      </c>
+      <c r="I269" t="n">
+        <v>27</v>
+      </c>
+      <c r="J269" t="n">
+        <v>29</v>
+      </c>
+      <c r="K269" t="n">
+        <v>33</v>
+      </c>
+      <c r="L269" t="n">
+        <v>41</v>
+      </c>
+      <c r="M269" t="n">
+        <v>45</v>
+      </c>
+      <c r="N269" t="n">
+        <v>57</v>
+      </c>
+      <c r="O269" t="n">
+        <v>59</v>
+      </c>
+      <c r="P269" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>62</v>
+      </c>
+      <c r="R269" t="n">
+        <v>67</v>
+      </c>
+      <c r="S269" t="n">
+        <v>70</v>
+      </c>
+      <c r="T269" t="n">
+        <v>74</v>
+      </c>
+      <c r="U269" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>8</v>
+      </c>
+      <c r="D270" t="n">
+        <v>15</v>
+      </c>
+      <c r="E270" t="n">
+        <v>18</v>
+      </c>
+      <c r="F270" t="n">
+        <v>19</v>
+      </c>
+      <c r="G270" t="n">
+        <v>21</v>
+      </c>
+      <c r="H270" t="n">
+        <v>22</v>
+      </c>
+      <c r="I270" t="n">
+        <v>23</v>
+      </c>
+      <c r="J270" t="n">
+        <v>26</v>
+      </c>
+      <c r="K270" t="n">
+        <v>36</v>
+      </c>
+      <c r="L270" t="n">
+        <v>37</v>
+      </c>
+      <c r="M270" t="n">
+        <v>40</v>
+      </c>
+      <c r="N270" t="n">
+        <v>47</v>
+      </c>
+      <c r="O270" t="n">
+        <v>51</v>
+      </c>
+      <c r="P270" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>59</v>
+      </c>
+      <c r="R270" t="n">
+        <v>61</v>
+      </c>
+      <c r="S270" t="n">
+        <v>64</v>
+      </c>
+      <c r="T270" t="n">
+        <v>68</v>
+      </c>
+      <c r="U270" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="n">
+        <v>6</v>
+      </c>
+      <c r="E271" t="n">
+        <v>13</v>
+      </c>
+      <c r="F271" t="n">
+        <v>16</v>
+      </c>
+      <c r="G271" t="n">
+        <v>19</v>
+      </c>
+      <c r="H271" t="n">
+        <v>21</v>
+      </c>
+      <c r="I271" t="n">
+        <v>24</v>
+      </c>
+      <c r="J271" t="n">
+        <v>38</v>
+      </c>
+      <c r="K271" t="n">
+        <v>39</v>
+      </c>
+      <c r="L271" t="n">
+        <v>43</v>
+      </c>
+      <c r="M271" t="n">
+        <v>46</v>
+      </c>
+      <c r="N271" t="n">
+        <v>47</v>
+      </c>
+      <c r="O271" t="n">
+        <v>54</v>
+      </c>
+      <c r="P271" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>56</v>
+      </c>
+      <c r="R271" t="n">
+        <v>61</v>
+      </c>
+      <c r="S271" t="n">
+        <v>66</v>
+      </c>
+      <c r="T271" t="n">
+        <v>69</v>
+      </c>
+      <c r="U271" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>9</v>
+      </c>
+      <c r="C272" t="n">
+        <v>13</v>
+      </c>
+      <c r="D272" t="n">
+        <v>30</v>
+      </c>
+      <c r="E272" t="n">
+        <v>32</v>
+      </c>
+      <c r="F272" t="n">
+        <v>36</v>
+      </c>
+      <c r="G272" t="n">
+        <v>37</v>
+      </c>
+      <c r="H272" t="n">
+        <v>38</v>
+      </c>
+      <c r="I272" t="n">
+        <v>40</v>
+      </c>
+      <c r="J272" t="n">
+        <v>46</v>
+      </c>
+      <c r="K272" t="n">
+        <v>51</v>
+      </c>
+      <c r="L272" t="n">
+        <v>54</v>
+      </c>
+      <c r="M272" t="n">
+        <v>56</v>
+      </c>
+      <c r="N272" t="n">
+        <v>59</v>
+      </c>
+      <c r="O272" t="n">
+        <v>60</v>
+      </c>
+      <c r="P272" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>63</v>
+      </c>
+      <c r="R272" t="n">
+        <v>67</v>
+      </c>
+      <c r="S272" t="n">
+        <v>69</v>
+      </c>
+      <c r="T272" t="n">
+        <v>74</v>
+      </c>
+      <c r="U272" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>10</v>
+      </c>
+      <c r="E273" t="n">
+        <v>11</v>
+      </c>
+      <c r="F273" t="n">
+        <v>15</v>
+      </c>
+      <c r="G273" t="n">
+        <v>20</v>
+      </c>
+      <c r="H273" t="n">
+        <v>25</v>
+      </c>
+      <c r="I273" t="n">
+        <v>26</v>
+      </c>
+      <c r="J273" t="n">
+        <v>33</v>
+      </c>
+      <c r="K273" t="n">
+        <v>36</v>
+      </c>
+      <c r="L273" t="n">
+        <v>40</v>
+      </c>
+      <c r="M273" t="n">
+        <v>42</v>
+      </c>
+      <c r="N273" t="n">
+        <v>48</v>
+      </c>
+      <c r="O273" t="n">
+        <v>52</v>
+      </c>
+      <c r="P273" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>68</v>
+      </c>
+      <c r="R273" t="n">
+        <v>70</v>
+      </c>
+      <c r="S273" t="n">
+        <v>72</v>
+      </c>
+      <c r="T273" t="n">
+        <v>76</v>
+      </c>
+      <c r="U273" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
+      <c r="D274" t="n">
+        <v>10</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12</v>
+      </c>
+      <c r="F274" t="n">
+        <v>15</v>
+      </c>
+      <c r="G274" t="n">
+        <v>17</v>
+      </c>
+      <c r="H274" t="n">
+        <v>23</v>
+      </c>
+      <c r="I274" t="n">
+        <v>26</v>
+      </c>
+      <c r="J274" t="n">
+        <v>28</v>
+      </c>
+      <c r="K274" t="n">
+        <v>35</v>
+      </c>
+      <c r="L274" t="n">
+        <v>54</v>
+      </c>
+      <c r="M274" t="n">
+        <v>57</v>
+      </c>
+      <c r="N274" t="n">
+        <v>61</v>
+      </c>
+      <c r="O274" t="n">
+        <v>62</v>
+      </c>
+      <c r="P274" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>68</v>
+      </c>
+      <c r="R274" t="n">
+        <v>73</v>
+      </c>
+      <c r="S274" t="n">
+        <v>75</v>
+      </c>
+      <c r="T274" t="n">
+        <v>77</v>
+      </c>
+      <c r="U274" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3</v>
+      </c>
+      <c r="C275" t="n">
+        <v>15</v>
+      </c>
+      <c r="D275" t="n">
+        <v>16</v>
+      </c>
+      <c r="E275" t="n">
+        <v>17</v>
+      </c>
+      <c r="F275" t="n">
+        <v>18</v>
+      </c>
+      <c r="G275" t="n">
+        <v>29</v>
+      </c>
+      <c r="H275" t="n">
+        <v>32</v>
+      </c>
+      <c r="I275" t="n">
+        <v>37</v>
+      </c>
+      <c r="J275" t="n">
+        <v>41</v>
+      </c>
+      <c r="K275" t="n">
+        <v>43</v>
+      </c>
+      <c r="L275" t="n">
+        <v>50</v>
+      </c>
+      <c r="M275" t="n">
+        <v>53</v>
+      </c>
+      <c r="N275" t="n">
+        <v>55</v>
+      </c>
+      <c r="O275" t="n">
+        <v>58</v>
+      </c>
+      <c r="P275" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>68</v>
+      </c>
+      <c r="R275" t="n">
+        <v>70</v>
+      </c>
+      <c r="S275" t="n">
+        <v>73</v>
+      </c>
+      <c r="T275" t="n">
+        <v>76</v>
+      </c>
+      <c r="U275" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7</v>
+      </c>
+      <c r="D276" t="n">
+        <v>9</v>
+      </c>
+      <c r="E276" t="n">
+        <v>10</v>
+      </c>
+      <c r="F276" t="n">
+        <v>12</v>
+      </c>
+      <c r="G276" t="n">
+        <v>13</v>
+      </c>
+      <c r="H276" t="n">
+        <v>17</v>
+      </c>
+      <c r="I276" t="n">
+        <v>20</v>
+      </c>
+      <c r="J276" t="n">
+        <v>24</v>
+      </c>
+      <c r="K276" t="n">
+        <v>38</v>
+      </c>
+      <c r="L276" t="n">
+        <v>46</v>
+      </c>
+      <c r="M276" t="n">
+        <v>50</v>
+      </c>
+      <c r="N276" t="n">
+        <v>51</v>
+      </c>
+      <c r="O276" t="n">
+        <v>59</v>
+      </c>
+      <c r="P276" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>65</v>
+      </c>
+      <c r="R276" t="n">
+        <v>66</v>
+      </c>
+      <c r="S276" t="n">
+        <v>71</v>
+      </c>
+      <c r="T276" t="n">
+        <v>74</v>
+      </c>
+      <c r="U276" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4</v>
+      </c>
+      <c r="C277" t="n">
+        <v>5</v>
+      </c>
+      <c r="D277" t="n">
+        <v>19</v>
+      </c>
+      <c r="E277" t="n">
+        <v>20</v>
+      </c>
+      <c r="F277" t="n">
+        <v>26</v>
+      </c>
+      <c r="G277" t="n">
+        <v>27</v>
+      </c>
+      <c r="H277" t="n">
+        <v>29</v>
+      </c>
+      <c r="I277" t="n">
+        <v>34</v>
+      </c>
+      <c r="J277" t="n">
+        <v>36</v>
+      </c>
+      <c r="K277" t="n">
+        <v>37</v>
+      </c>
+      <c r="L277" t="n">
+        <v>46</v>
+      </c>
+      <c r="M277" t="n">
+        <v>48</v>
+      </c>
+      <c r="N277" t="n">
+        <v>58</v>
+      </c>
+      <c r="O277" t="n">
+        <v>60</v>
+      </c>
+      <c r="P277" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>67</v>
+      </c>
+      <c r="R277" t="n">
+        <v>68</v>
+      </c>
+      <c r="S277" t="n">
+        <v>76</v>
+      </c>
+      <c r="T277" t="n">
+        <v>78</v>
+      </c>
+      <c r="U277" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3</v>
+      </c>
+      <c r="D278" t="n">
+        <v>12</v>
+      </c>
+      <c r="E278" t="n">
+        <v>13</v>
+      </c>
+      <c r="F278" t="n">
+        <v>15</v>
+      </c>
+      <c r="G278" t="n">
+        <v>22</v>
+      </c>
+      <c r="H278" t="n">
+        <v>29</v>
+      </c>
+      <c r="I278" t="n">
+        <v>30</v>
+      </c>
+      <c r="J278" t="n">
+        <v>31</v>
+      </c>
+      <c r="K278" t="n">
+        <v>32</v>
+      </c>
+      <c r="L278" t="n">
+        <v>34</v>
+      </c>
+      <c r="M278" t="n">
+        <v>45</v>
+      </c>
+      <c r="N278" t="n">
+        <v>48</v>
+      </c>
+      <c r="O278" t="n">
+        <v>49</v>
+      </c>
+      <c r="P278" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>51</v>
+      </c>
+      <c r="R278" t="n">
+        <v>63</v>
+      </c>
+      <c r="S278" t="n">
+        <v>67</v>
+      </c>
+      <c r="T278" t="n">
+        <v>70</v>
+      </c>
+      <c r="U278" t="n">
         <v>80</v>
       </c>
     </row>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U278"/>
+  <dimension ref="A1:U418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18501,6 +18501,9106 @@
         <v>80</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4</v>
+      </c>
+      <c r="C279" t="n">
+        <v>11</v>
+      </c>
+      <c r="D279" t="n">
+        <v>12</v>
+      </c>
+      <c r="E279" t="n">
+        <v>15</v>
+      </c>
+      <c r="F279" t="n">
+        <v>18</v>
+      </c>
+      <c r="G279" t="n">
+        <v>24</v>
+      </c>
+      <c r="H279" t="n">
+        <v>34</v>
+      </c>
+      <c r="I279" t="n">
+        <v>36</v>
+      </c>
+      <c r="J279" t="n">
+        <v>38</v>
+      </c>
+      <c r="K279" t="n">
+        <v>44</v>
+      </c>
+      <c r="L279" t="n">
+        <v>51</v>
+      </c>
+      <c r="M279" t="n">
+        <v>55</v>
+      </c>
+      <c r="N279" t="n">
+        <v>60</v>
+      </c>
+      <c r="O279" t="n">
+        <v>61</v>
+      </c>
+      <c r="P279" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>67</v>
+      </c>
+      <c r="R279" t="n">
+        <v>68</v>
+      </c>
+      <c r="S279" t="n">
+        <v>74</v>
+      </c>
+      <c r="T279" t="n">
+        <v>79</v>
+      </c>
+      <c r="U279" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>7</v>
+      </c>
+      <c r="C280" t="n">
+        <v>16</v>
+      </c>
+      <c r="D280" t="n">
+        <v>21</v>
+      </c>
+      <c r="E280" t="n">
+        <v>23</v>
+      </c>
+      <c r="F280" t="n">
+        <v>24</v>
+      </c>
+      <c r="G280" t="n">
+        <v>27</v>
+      </c>
+      <c r="H280" t="n">
+        <v>28</v>
+      </c>
+      <c r="I280" t="n">
+        <v>32</v>
+      </c>
+      <c r="J280" t="n">
+        <v>37</v>
+      </c>
+      <c r="K280" t="n">
+        <v>44</v>
+      </c>
+      <c r="L280" t="n">
+        <v>48</v>
+      </c>
+      <c r="M280" t="n">
+        <v>49</v>
+      </c>
+      <c r="N280" t="n">
+        <v>51</v>
+      </c>
+      <c r="O280" t="n">
+        <v>55</v>
+      </c>
+      <c r="P280" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>62</v>
+      </c>
+      <c r="R280" t="n">
+        <v>64</v>
+      </c>
+      <c r="S280" t="n">
+        <v>67</v>
+      </c>
+      <c r="T280" t="n">
+        <v>77</v>
+      </c>
+      <c r="U280" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>6</v>
+      </c>
+      <c r="C281" t="n">
+        <v>15</v>
+      </c>
+      <c r="D281" t="n">
+        <v>19</v>
+      </c>
+      <c r="E281" t="n">
+        <v>25</v>
+      </c>
+      <c r="F281" t="n">
+        <v>27</v>
+      </c>
+      <c r="G281" t="n">
+        <v>29</v>
+      </c>
+      <c r="H281" t="n">
+        <v>31</v>
+      </c>
+      <c r="I281" t="n">
+        <v>32</v>
+      </c>
+      <c r="J281" t="n">
+        <v>34</v>
+      </c>
+      <c r="K281" t="n">
+        <v>39</v>
+      </c>
+      <c r="L281" t="n">
+        <v>41</v>
+      </c>
+      <c r="M281" t="n">
+        <v>43</v>
+      </c>
+      <c r="N281" t="n">
+        <v>50</v>
+      </c>
+      <c r="O281" t="n">
+        <v>51</v>
+      </c>
+      <c r="P281" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>62</v>
+      </c>
+      <c r="R281" t="n">
+        <v>64</v>
+      </c>
+      <c r="S281" t="n">
+        <v>69</v>
+      </c>
+      <c r="T281" t="n">
+        <v>75</v>
+      </c>
+      <c r="U281" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3</v>
+      </c>
+      <c r="C282" t="n">
+        <v>10</v>
+      </c>
+      <c r="D282" t="n">
+        <v>12</v>
+      </c>
+      <c r="E282" t="n">
+        <v>13</v>
+      </c>
+      <c r="F282" t="n">
+        <v>14</v>
+      </c>
+      <c r="G282" t="n">
+        <v>17</v>
+      </c>
+      <c r="H282" t="n">
+        <v>26</v>
+      </c>
+      <c r="I282" t="n">
+        <v>29</v>
+      </c>
+      <c r="J282" t="n">
+        <v>31</v>
+      </c>
+      <c r="K282" t="n">
+        <v>38</v>
+      </c>
+      <c r="L282" t="n">
+        <v>39</v>
+      </c>
+      <c r="M282" t="n">
+        <v>42</v>
+      </c>
+      <c r="N282" t="n">
+        <v>46</v>
+      </c>
+      <c r="O282" t="n">
+        <v>47</v>
+      </c>
+      <c r="P282" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>62</v>
+      </c>
+      <c r="R282" t="n">
+        <v>65</v>
+      </c>
+      <c r="S282" t="n">
+        <v>67</v>
+      </c>
+      <c r="T282" t="n">
+        <v>77</v>
+      </c>
+      <c r="U282" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4</v>
+      </c>
+      <c r="C283" t="n">
+        <v>10</v>
+      </c>
+      <c r="D283" t="n">
+        <v>16</v>
+      </c>
+      <c r="E283" t="n">
+        <v>22</v>
+      </c>
+      <c r="F283" t="n">
+        <v>32</v>
+      </c>
+      <c r="G283" t="n">
+        <v>33</v>
+      </c>
+      <c r="H283" t="n">
+        <v>34</v>
+      </c>
+      <c r="I283" t="n">
+        <v>35</v>
+      </c>
+      <c r="J283" t="n">
+        <v>37</v>
+      </c>
+      <c r="K283" t="n">
+        <v>42</v>
+      </c>
+      <c r="L283" t="n">
+        <v>51</v>
+      </c>
+      <c r="M283" t="n">
+        <v>55</v>
+      </c>
+      <c r="N283" t="n">
+        <v>60</v>
+      </c>
+      <c r="O283" t="n">
+        <v>61</v>
+      </c>
+      <c r="P283" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>67</v>
+      </c>
+      <c r="R283" t="n">
+        <v>68</v>
+      </c>
+      <c r="S283" t="n">
+        <v>71</v>
+      </c>
+      <c r="T283" t="n">
+        <v>77</v>
+      </c>
+      <c r="U283" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>7</v>
+      </c>
+      <c r="C284" t="n">
+        <v>17</v>
+      </c>
+      <c r="D284" t="n">
+        <v>18</v>
+      </c>
+      <c r="E284" t="n">
+        <v>19</v>
+      </c>
+      <c r="F284" t="n">
+        <v>20</v>
+      </c>
+      <c r="G284" t="n">
+        <v>21</v>
+      </c>
+      <c r="H284" t="n">
+        <v>29</v>
+      </c>
+      <c r="I284" t="n">
+        <v>30</v>
+      </c>
+      <c r="J284" t="n">
+        <v>33</v>
+      </c>
+      <c r="K284" t="n">
+        <v>52</v>
+      </c>
+      <c r="L284" t="n">
+        <v>54</v>
+      </c>
+      <c r="M284" t="n">
+        <v>57</v>
+      </c>
+      <c r="N284" t="n">
+        <v>58</v>
+      </c>
+      <c r="O284" t="n">
+        <v>59</v>
+      </c>
+      <c r="P284" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>63</v>
+      </c>
+      <c r="R284" t="n">
+        <v>64</v>
+      </c>
+      <c r="S284" t="n">
+        <v>68</v>
+      </c>
+      <c r="T284" t="n">
+        <v>76</v>
+      </c>
+      <c r="U284" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3</v>
+      </c>
+      <c r="C285" t="n">
+        <v>9</v>
+      </c>
+      <c r="D285" t="n">
+        <v>13</v>
+      </c>
+      <c r="E285" t="n">
+        <v>15</v>
+      </c>
+      <c r="F285" t="n">
+        <v>17</v>
+      </c>
+      <c r="G285" t="n">
+        <v>22</v>
+      </c>
+      <c r="H285" t="n">
+        <v>23</v>
+      </c>
+      <c r="I285" t="n">
+        <v>30</v>
+      </c>
+      <c r="J285" t="n">
+        <v>31</v>
+      </c>
+      <c r="K285" t="n">
+        <v>33</v>
+      </c>
+      <c r="L285" t="n">
+        <v>35</v>
+      </c>
+      <c r="M285" t="n">
+        <v>37</v>
+      </c>
+      <c r="N285" t="n">
+        <v>42</v>
+      </c>
+      <c r="O285" t="n">
+        <v>47</v>
+      </c>
+      <c r="P285" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>56</v>
+      </c>
+      <c r="R285" t="n">
+        <v>65</v>
+      </c>
+      <c r="S285" t="n">
+        <v>69</v>
+      </c>
+      <c r="T285" t="n">
+        <v>70</v>
+      </c>
+      <c r="U285" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>6</v>
+      </c>
+      <c r="C286" t="n">
+        <v>13</v>
+      </c>
+      <c r="D286" t="n">
+        <v>14</v>
+      </c>
+      <c r="E286" t="n">
+        <v>15</v>
+      </c>
+      <c r="F286" t="n">
+        <v>16</v>
+      </c>
+      <c r="G286" t="n">
+        <v>22</v>
+      </c>
+      <c r="H286" t="n">
+        <v>24</v>
+      </c>
+      <c r="I286" t="n">
+        <v>25</v>
+      </c>
+      <c r="J286" t="n">
+        <v>27</v>
+      </c>
+      <c r="K286" t="n">
+        <v>31</v>
+      </c>
+      <c r="L286" t="n">
+        <v>33</v>
+      </c>
+      <c r="M286" t="n">
+        <v>37</v>
+      </c>
+      <c r="N286" t="n">
+        <v>49</v>
+      </c>
+      <c r="O286" t="n">
+        <v>52</v>
+      </c>
+      <c r="P286" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>62</v>
+      </c>
+      <c r="R286" t="n">
+        <v>64</v>
+      </c>
+      <c r="S286" t="n">
+        <v>69</v>
+      </c>
+      <c r="T286" t="n">
+        <v>71</v>
+      </c>
+      <c r="U286" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" t="n">
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>7</v>
+      </c>
+      <c r="E287" t="n">
+        <v>11</v>
+      </c>
+      <c r="F287" t="n">
+        <v>15</v>
+      </c>
+      <c r="G287" t="n">
+        <v>27</v>
+      </c>
+      <c r="H287" t="n">
+        <v>28</v>
+      </c>
+      <c r="I287" t="n">
+        <v>31</v>
+      </c>
+      <c r="J287" t="n">
+        <v>34</v>
+      </c>
+      <c r="K287" t="n">
+        <v>36</v>
+      </c>
+      <c r="L287" t="n">
+        <v>38</v>
+      </c>
+      <c r="M287" t="n">
+        <v>44</v>
+      </c>
+      <c r="N287" t="n">
+        <v>49</v>
+      </c>
+      <c r="O287" t="n">
+        <v>60</v>
+      </c>
+      <c r="P287" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>67</v>
+      </c>
+      <c r="R287" t="n">
+        <v>71</v>
+      </c>
+      <c r="S287" t="n">
+        <v>75</v>
+      </c>
+      <c r="T287" t="n">
+        <v>77</v>
+      </c>
+      <c r="U287" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3</v>
+      </c>
+      <c r="C288" t="n">
+        <v>15</v>
+      </c>
+      <c r="D288" t="n">
+        <v>17</v>
+      </c>
+      <c r="E288" t="n">
+        <v>26</v>
+      </c>
+      <c r="F288" t="n">
+        <v>27</v>
+      </c>
+      <c r="G288" t="n">
+        <v>28</v>
+      </c>
+      <c r="H288" t="n">
+        <v>32</v>
+      </c>
+      <c r="I288" t="n">
+        <v>33</v>
+      </c>
+      <c r="J288" t="n">
+        <v>36</v>
+      </c>
+      <c r="K288" t="n">
+        <v>38</v>
+      </c>
+      <c r="L288" t="n">
+        <v>52</v>
+      </c>
+      <c r="M288" t="n">
+        <v>54</v>
+      </c>
+      <c r="N288" t="n">
+        <v>60</v>
+      </c>
+      <c r="O288" t="n">
+        <v>66</v>
+      </c>
+      <c r="P288" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>69</v>
+      </c>
+      <c r="R288" t="n">
+        <v>74</v>
+      </c>
+      <c r="S288" t="n">
+        <v>75</v>
+      </c>
+      <c r="T288" t="n">
+        <v>79</v>
+      </c>
+      <c r="U288" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3</v>
+      </c>
+      <c r="D289" t="n">
+        <v>6</v>
+      </c>
+      <c r="E289" t="n">
+        <v>10</v>
+      </c>
+      <c r="F289" t="n">
+        <v>15</v>
+      </c>
+      <c r="G289" t="n">
+        <v>25</v>
+      </c>
+      <c r="H289" t="n">
+        <v>27</v>
+      </c>
+      <c r="I289" t="n">
+        <v>30</v>
+      </c>
+      <c r="J289" t="n">
+        <v>37</v>
+      </c>
+      <c r="K289" t="n">
+        <v>41</v>
+      </c>
+      <c r="L289" t="n">
+        <v>43</v>
+      </c>
+      <c r="M289" t="n">
+        <v>53</v>
+      </c>
+      <c r="N289" t="n">
+        <v>56</v>
+      </c>
+      <c r="O289" t="n">
+        <v>57</v>
+      </c>
+      <c r="P289" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>65</v>
+      </c>
+      <c r="R289" t="n">
+        <v>71</v>
+      </c>
+      <c r="S289" t="n">
+        <v>77</v>
+      </c>
+      <c r="T289" t="n">
+        <v>78</v>
+      </c>
+      <c r="U289" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>5</v>
+      </c>
+      <c r="D290" t="n">
+        <v>9</v>
+      </c>
+      <c r="E290" t="n">
+        <v>10</v>
+      </c>
+      <c r="F290" t="n">
+        <v>32</v>
+      </c>
+      <c r="G290" t="n">
+        <v>33</v>
+      </c>
+      <c r="H290" t="n">
+        <v>34</v>
+      </c>
+      <c r="I290" t="n">
+        <v>35</v>
+      </c>
+      <c r="J290" t="n">
+        <v>40</v>
+      </c>
+      <c r="K290" t="n">
+        <v>41</v>
+      </c>
+      <c r="L290" t="n">
+        <v>51</v>
+      </c>
+      <c r="M290" t="n">
+        <v>53</v>
+      </c>
+      <c r="N290" t="n">
+        <v>54</v>
+      </c>
+      <c r="O290" t="n">
+        <v>55</v>
+      </c>
+      <c r="P290" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>63</v>
+      </c>
+      <c r="R290" t="n">
+        <v>66</v>
+      </c>
+      <c r="S290" t="n">
+        <v>69</v>
+      </c>
+      <c r="T290" t="n">
+        <v>71</v>
+      </c>
+      <c r="U290" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3</v>
+      </c>
+      <c r="C291" t="n">
+        <v>4</v>
+      </c>
+      <c r="D291" t="n">
+        <v>5</v>
+      </c>
+      <c r="E291" t="n">
+        <v>13</v>
+      </c>
+      <c r="F291" t="n">
+        <v>16</v>
+      </c>
+      <c r="G291" t="n">
+        <v>25</v>
+      </c>
+      <c r="H291" t="n">
+        <v>28</v>
+      </c>
+      <c r="I291" t="n">
+        <v>30</v>
+      </c>
+      <c r="J291" t="n">
+        <v>32</v>
+      </c>
+      <c r="K291" t="n">
+        <v>38</v>
+      </c>
+      <c r="L291" t="n">
+        <v>43</v>
+      </c>
+      <c r="M291" t="n">
+        <v>44</v>
+      </c>
+      <c r="N291" t="n">
+        <v>50</v>
+      </c>
+      <c r="O291" t="n">
+        <v>51</v>
+      </c>
+      <c r="P291" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>65</v>
+      </c>
+      <c r="R291" t="n">
+        <v>67</v>
+      </c>
+      <c r="S291" t="n">
+        <v>68</v>
+      </c>
+      <c r="T291" t="n">
+        <v>72</v>
+      </c>
+      <c r="U291" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+      <c r="C292" t="n">
+        <v>5</v>
+      </c>
+      <c r="D292" t="n">
+        <v>6</v>
+      </c>
+      <c r="E292" t="n">
+        <v>8</v>
+      </c>
+      <c r="F292" t="n">
+        <v>31</v>
+      </c>
+      <c r="G292" t="n">
+        <v>33</v>
+      </c>
+      <c r="H292" t="n">
+        <v>37</v>
+      </c>
+      <c r="I292" t="n">
+        <v>39</v>
+      </c>
+      <c r="J292" t="n">
+        <v>40</v>
+      </c>
+      <c r="K292" t="n">
+        <v>41</v>
+      </c>
+      <c r="L292" t="n">
+        <v>46</v>
+      </c>
+      <c r="M292" t="n">
+        <v>52</v>
+      </c>
+      <c r="N292" t="n">
+        <v>54</v>
+      </c>
+      <c r="O292" t="n">
+        <v>59</v>
+      </c>
+      <c r="P292" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>63</v>
+      </c>
+      <c r="R292" t="n">
+        <v>67</v>
+      </c>
+      <c r="S292" t="n">
+        <v>70</v>
+      </c>
+      <c r="T292" t="n">
+        <v>77</v>
+      </c>
+      <c r="U292" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3</v>
+      </c>
+      <c r="C293" t="n">
+        <v>4</v>
+      </c>
+      <c r="D293" t="n">
+        <v>13</v>
+      </c>
+      <c r="E293" t="n">
+        <v>19</v>
+      </c>
+      <c r="F293" t="n">
+        <v>25</v>
+      </c>
+      <c r="G293" t="n">
+        <v>26</v>
+      </c>
+      <c r="H293" t="n">
+        <v>28</v>
+      </c>
+      <c r="I293" t="n">
+        <v>35</v>
+      </c>
+      <c r="J293" t="n">
+        <v>42</v>
+      </c>
+      <c r="K293" t="n">
+        <v>43</v>
+      </c>
+      <c r="L293" t="n">
+        <v>44</v>
+      </c>
+      <c r="M293" t="n">
+        <v>51</v>
+      </c>
+      <c r="N293" t="n">
+        <v>58</v>
+      </c>
+      <c r="O293" t="n">
+        <v>63</v>
+      </c>
+      <c r="P293" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>69</v>
+      </c>
+      <c r="R293" t="n">
+        <v>74</v>
+      </c>
+      <c r="S293" t="n">
+        <v>76</v>
+      </c>
+      <c r="T293" t="n">
+        <v>77</v>
+      </c>
+      <c r="U293" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>7</v>
+      </c>
+      <c r="C294" t="n">
+        <v>8</v>
+      </c>
+      <c r="D294" t="n">
+        <v>16</v>
+      </c>
+      <c r="E294" t="n">
+        <v>17</v>
+      </c>
+      <c r="F294" t="n">
+        <v>18</v>
+      </c>
+      <c r="G294" t="n">
+        <v>24</v>
+      </c>
+      <c r="H294" t="n">
+        <v>26</v>
+      </c>
+      <c r="I294" t="n">
+        <v>28</v>
+      </c>
+      <c r="J294" t="n">
+        <v>30</v>
+      </c>
+      <c r="K294" t="n">
+        <v>36</v>
+      </c>
+      <c r="L294" t="n">
+        <v>38</v>
+      </c>
+      <c r="M294" t="n">
+        <v>39</v>
+      </c>
+      <c r="N294" t="n">
+        <v>49</v>
+      </c>
+      <c r="O294" t="n">
+        <v>57</v>
+      </c>
+      <c r="P294" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>61</v>
+      </c>
+      <c r="R294" t="n">
+        <v>62</v>
+      </c>
+      <c r="S294" t="n">
+        <v>69</v>
+      </c>
+      <c r="T294" t="n">
+        <v>70</v>
+      </c>
+      <c r="U294" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>4</v>
+      </c>
+      <c r="D295" t="n">
+        <v>9</v>
+      </c>
+      <c r="E295" t="n">
+        <v>16</v>
+      </c>
+      <c r="F295" t="n">
+        <v>22</v>
+      </c>
+      <c r="G295" t="n">
+        <v>23</v>
+      </c>
+      <c r="H295" t="n">
+        <v>26</v>
+      </c>
+      <c r="I295" t="n">
+        <v>39</v>
+      </c>
+      <c r="J295" t="n">
+        <v>42</v>
+      </c>
+      <c r="K295" t="n">
+        <v>44</v>
+      </c>
+      <c r="L295" t="n">
+        <v>45</v>
+      </c>
+      <c r="M295" t="n">
+        <v>46</v>
+      </c>
+      <c r="N295" t="n">
+        <v>47</v>
+      </c>
+      <c r="O295" t="n">
+        <v>57</v>
+      </c>
+      <c r="P295" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>68</v>
+      </c>
+      <c r="R295" t="n">
+        <v>71</v>
+      </c>
+      <c r="S295" t="n">
+        <v>73</v>
+      </c>
+      <c r="T295" t="n">
+        <v>76</v>
+      </c>
+      <c r="U295" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3</v>
+      </c>
+      <c r="C296" t="n">
+        <v>9</v>
+      </c>
+      <c r="D296" t="n">
+        <v>16</v>
+      </c>
+      <c r="E296" t="n">
+        <v>18</v>
+      </c>
+      <c r="F296" t="n">
+        <v>21</v>
+      </c>
+      <c r="G296" t="n">
+        <v>22</v>
+      </c>
+      <c r="H296" t="n">
+        <v>26</v>
+      </c>
+      <c r="I296" t="n">
+        <v>27</v>
+      </c>
+      <c r="J296" t="n">
+        <v>30</v>
+      </c>
+      <c r="K296" t="n">
+        <v>31</v>
+      </c>
+      <c r="L296" t="n">
+        <v>33</v>
+      </c>
+      <c r="M296" t="n">
+        <v>35</v>
+      </c>
+      <c r="N296" t="n">
+        <v>42</v>
+      </c>
+      <c r="O296" t="n">
+        <v>45</v>
+      </c>
+      <c r="P296" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>51</v>
+      </c>
+      <c r="R296" t="n">
+        <v>65</v>
+      </c>
+      <c r="S296" t="n">
+        <v>71</v>
+      </c>
+      <c r="T296" t="n">
+        <v>77</v>
+      </c>
+      <c r="U296" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>7</v>
+      </c>
+      <c r="D297" t="n">
+        <v>9</v>
+      </c>
+      <c r="E297" t="n">
+        <v>10</v>
+      </c>
+      <c r="F297" t="n">
+        <v>16</v>
+      </c>
+      <c r="G297" t="n">
+        <v>21</v>
+      </c>
+      <c r="H297" t="n">
+        <v>26</v>
+      </c>
+      <c r="I297" t="n">
+        <v>29</v>
+      </c>
+      <c r="J297" t="n">
+        <v>30</v>
+      </c>
+      <c r="K297" t="n">
+        <v>34</v>
+      </c>
+      <c r="L297" t="n">
+        <v>36</v>
+      </c>
+      <c r="M297" t="n">
+        <v>39</v>
+      </c>
+      <c r="N297" t="n">
+        <v>45</v>
+      </c>
+      <c r="O297" t="n">
+        <v>52</v>
+      </c>
+      <c r="P297" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>57</v>
+      </c>
+      <c r="R297" t="n">
+        <v>62</v>
+      </c>
+      <c r="S297" t="n">
+        <v>63</v>
+      </c>
+      <c r="T297" t="n">
+        <v>64</v>
+      </c>
+      <c r="U297" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>14</v>
+      </c>
+      <c r="D298" t="n">
+        <v>18</v>
+      </c>
+      <c r="E298" t="n">
+        <v>19</v>
+      </c>
+      <c r="F298" t="n">
+        <v>20</v>
+      </c>
+      <c r="G298" t="n">
+        <v>26</v>
+      </c>
+      <c r="H298" t="n">
+        <v>34</v>
+      </c>
+      <c r="I298" t="n">
+        <v>36</v>
+      </c>
+      <c r="J298" t="n">
+        <v>39</v>
+      </c>
+      <c r="K298" t="n">
+        <v>40</v>
+      </c>
+      <c r="L298" t="n">
+        <v>43</v>
+      </c>
+      <c r="M298" t="n">
+        <v>46</v>
+      </c>
+      <c r="N298" t="n">
+        <v>49</v>
+      </c>
+      <c r="O298" t="n">
+        <v>51</v>
+      </c>
+      <c r="P298" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>67</v>
+      </c>
+      <c r="R298" t="n">
+        <v>70</v>
+      </c>
+      <c r="S298" t="n">
+        <v>72</v>
+      </c>
+      <c r="T298" t="n">
+        <v>77</v>
+      </c>
+      <c r="U298" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+      <c r="C299" t="n">
+        <v>4</v>
+      </c>
+      <c r="D299" t="n">
+        <v>7</v>
+      </c>
+      <c r="E299" t="n">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>22</v>
+      </c>
+      <c r="G299" t="n">
+        <v>23</v>
+      </c>
+      <c r="H299" t="n">
+        <v>34</v>
+      </c>
+      <c r="I299" t="n">
+        <v>38</v>
+      </c>
+      <c r="J299" t="n">
+        <v>42</v>
+      </c>
+      <c r="K299" t="n">
+        <v>46</v>
+      </c>
+      <c r="L299" t="n">
+        <v>49</v>
+      </c>
+      <c r="M299" t="n">
+        <v>50</v>
+      </c>
+      <c r="N299" t="n">
+        <v>52</v>
+      </c>
+      <c r="O299" t="n">
+        <v>53</v>
+      </c>
+      <c r="P299" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>65</v>
+      </c>
+      <c r="R299" t="n">
+        <v>69</v>
+      </c>
+      <c r="S299" t="n">
+        <v>71</v>
+      </c>
+      <c r="T299" t="n">
+        <v>78</v>
+      </c>
+      <c r="U299" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+      <c r="C300" t="n">
+        <v>3</v>
+      </c>
+      <c r="D300" t="n">
+        <v>5</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6</v>
+      </c>
+      <c r="F300" t="n">
+        <v>10</v>
+      </c>
+      <c r="G300" t="n">
+        <v>11</v>
+      </c>
+      <c r="H300" t="n">
+        <v>13</v>
+      </c>
+      <c r="I300" t="n">
+        <v>18</v>
+      </c>
+      <c r="J300" t="n">
+        <v>20</v>
+      </c>
+      <c r="K300" t="n">
+        <v>26</v>
+      </c>
+      <c r="L300" t="n">
+        <v>29</v>
+      </c>
+      <c r="M300" t="n">
+        <v>34</v>
+      </c>
+      <c r="N300" t="n">
+        <v>39</v>
+      </c>
+      <c r="O300" t="n">
+        <v>49</v>
+      </c>
+      <c r="P300" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>55</v>
+      </c>
+      <c r="R300" t="n">
+        <v>57</v>
+      </c>
+      <c r="S300" t="n">
+        <v>58</v>
+      </c>
+      <c r="T300" t="n">
+        <v>66</v>
+      </c>
+      <c r="U300" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3</v>
+      </c>
+      <c r="C301" t="n">
+        <v>5</v>
+      </c>
+      <c r="D301" t="n">
+        <v>7</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8</v>
+      </c>
+      <c r="F301" t="n">
+        <v>14</v>
+      </c>
+      <c r="G301" t="n">
+        <v>20</v>
+      </c>
+      <c r="H301" t="n">
+        <v>31</v>
+      </c>
+      <c r="I301" t="n">
+        <v>34</v>
+      </c>
+      <c r="J301" t="n">
+        <v>39</v>
+      </c>
+      <c r="K301" t="n">
+        <v>40</v>
+      </c>
+      <c r="L301" t="n">
+        <v>45</v>
+      </c>
+      <c r="M301" t="n">
+        <v>46</v>
+      </c>
+      <c r="N301" t="n">
+        <v>50</v>
+      </c>
+      <c r="O301" t="n">
+        <v>61</v>
+      </c>
+      <c r="P301" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>66</v>
+      </c>
+      <c r="R301" t="n">
+        <v>69</v>
+      </c>
+      <c r="S301" t="n">
+        <v>73</v>
+      </c>
+      <c r="T301" t="n">
+        <v>77</v>
+      </c>
+      <c r="U301" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+      <c r="C302" t="n">
+        <v>14</v>
+      </c>
+      <c r="D302" t="n">
+        <v>25</v>
+      </c>
+      <c r="E302" t="n">
+        <v>29</v>
+      </c>
+      <c r="F302" t="n">
+        <v>33</v>
+      </c>
+      <c r="G302" t="n">
+        <v>35</v>
+      </c>
+      <c r="H302" t="n">
+        <v>39</v>
+      </c>
+      <c r="I302" t="n">
+        <v>41</v>
+      </c>
+      <c r="J302" t="n">
+        <v>47</v>
+      </c>
+      <c r="K302" t="n">
+        <v>48</v>
+      </c>
+      <c r="L302" t="n">
+        <v>49</v>
+      </c>
+      <c r="M302" t="n">
+        <v>52</v>
+      </c>
+      <c r="N302" t="n">
+        <v>54</v>
+      </c>
+      <c r="O302" t="n">
+        <v>55</v>
+      </c>
+      <c r="P302" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>61</v>
+      </c>
+      <c r="R302" t="n">
+        <v>63</v>
+      </c>
+      <c r="S302" t="n">
+        <v>69</v>
+      </c>
+      <c r="T302" t="n">
+        <v>72</v>
+      </c>
+      <c r="U302" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>5</v>
+      </c>
+      <c r="C303" t="n">
+        <v>6</v>
+      </c>
+      <c r="D303" t="n">
+        <v>8</v>
+      </c>
+      <c r="E303" t="n">
+        <v>13</v>
+      </c>
+      <c r="F303" t="n">
+        <v>18</v>
+      </c>
+      <c r="G303" t="n">
+        <v>22</v>
+      </c>
+      <c r="H303" t="n">
+        <v>26</v>
+      </c>
+      <c r="I303" t="n">
+        <v>29</v>
+      </c>
+      <c r="J303" t="n">
+        <v>32</v>
+      </c>
+      <c r="K303" t="n">
+        <v>34</v>
+      </c>
+      <c r="L303" t="n">
+        <v>37</v>
+      </c>
+      <c r="M303" t="n">
+        <v>41</v>
+      </c>
+      <c r="N303" t="n">
+        <v>44</v>
+      </c>
+      <c r="O303" t="n">
+        <v>46</v>
+      </c>
+      <c r="P303" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>59</v>
+      </c>
+      <c r="R303" t="n">
+        <v>63</v>
+      </c>
+      <c r="S303" t="n">
+        <v>64</v>
+      </c>
+      <c r="T303" t="n">
+        <v>67</v>
+      </c>
+      <c r="U303" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>10</v>
+      </c>
+      <c r="C304" t="n">
+        <v>21</v>
+      </c>
+      <c r="D304" t="n">
+        <v>28</v>
+      </c>
+      <c r="E304" t="n">
+        <v>29</v>
+      </c>
+      <c r="F304" t="n">
+        <v>30</v>
+      </c>
+      <c r="G304" t="n">
+        <v>31</v>
+      </c>
+      <c r="H304" t="n">
+        <v>33</v>
+      </c>
+      <c r="I304" t="n">
+        <v>41</v>
+      </c>
+      <c r="J304" t="n">
+        <v>42</v>
+      </c>
+      <c r="K304" t="n">
+        <v>46</v>
+      </c>
+      <c r="L304" t="n">
+        <v>49</v>
+      </c>
+      <c r="M304" t="n">
+        <v>51</v>
+      </c>
+      <c r="N304" t="n">
+        <v>52</v>
+      </c>
+      <c r="O304" t="n">
+        <v>55</v>
+      </c>
+      <c r="P304" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>59</v>
+      </c>
+      <c r="R304" t="n">
+        <v>69</v>
+      </c>
+      <c r="S304" t="n">
+        <v>70</v>
+      </c>
+      <c r="T304" t="n">
+        <v>73</v>
+      </c>
+      <c r="U304" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>4</v>
+      </c>
+      <c r="D305" t="n">
+        <v>8</v>
+      </c>
+      <c r="E305" t="n">
+        <v>13</v>
+      </c>
+      <c r="F305" t="n">
+        <v>15</v>
+      </c>
+      <c r="G305" t="n">
+        <v>21</v>
+      </c>
+      <c r="H305" t="n">
+        <v>24</v>
+      </c>
+      <c r="I305" t="n">
+        <v>25</v>
+      </c>
+      <c r="J305" t="n">
+        <v>27</v>
+      </c>
+      <c r="K305" t="n">
+        <v>35</v>
+      </c>
+      <c r="L305" t="n">
+        <v>36</v>
+      </c>
+      <c r="M305" t="n">
+        <v>41</v>
+      </c>
+      <c r="N305" t="n">
+        <v>42</v>
+      </c>
+      <c r="O305" t="n">
+        <v>43</v>
+      </c>
+      <c r="P305" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>50</v>
+      </c>
+      <c r="R305" t="n">
+        <v>52</v>
+      </c>
+      <c r="S305" t="n">
+        <v>54</v>
+      </c>
+      <c r="T305" t="n">
+        <v>57</v>
+      </c>
+      <c r="U305" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>7</v>
+      </c>
+      <c r="C306" t="n">
+        <v>15</v>
+      </c>
+      <c r="D306" t="n">
+        <v>16</v>
+      </c>
+      <c r="E306" t="n">
+        <v>19</v>
+      </c>
+      <c r="F306" t="n">
+        <v>21</v>
+      </c>
+      <c r="G306" t="n">
+        <v>23</v>
+      </c>
+      <c r="H306" t="n">
+        <v>38</v>
+      </c>
+      <c r="I306" t="n">
+        <v>39</v>
+      </c>
+      <c r="J306" t="n">
+        <v>44</v>
+      </c>
+      <c r="K306" t="n">
+        <v>45</v>
+      </c>
+      <c r="L306" t="n">
+        <v>48</v>
+      </c>
+      <c r="M306" t="n">
+        <v>49</v>
+      </c>
+      <c r="N306" t="n">
+        <v>55</v>
+      </c>
+      <c r="O306" t="n">
+        <v>66</v>
+      </c>
+      <c r="P306" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>70</v>
+      </c>
+      <c r="R306" t="n">
+        <v>71</v>
+      </c>
+      <c r="S306" t="n">
+        <v>76</v>
+      </c>
+      <c r="T306" t="n">
+        <v>79</v>
+      </c>
+      <c r="U306" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>4</v>
+      </c>
+      <c r="D307" t="n">
+        <v>6</v>
+      </c>
+      <c r="E307" t="n">
+        <v>15</v>
+      </c>
+      <c r="F307" t="n">
+        <v>19</v>
+      </c>
+      <c r="G307" t="n">
+        <v>20</v>
+      </c>
+      <c r="H307" t="n">
+        <v>24</v>
+      </c>
+      <c r="I307" t="n">
+        <v>28</v>
+      </c>
+      <c r="J307" t="n">
+        <v>33</v>
+      </c>
+      <c r="K307" t="n">
+        <v>42</v>
+      </c>
+      <c r="L307" t="n">
+        <v>48</v>
+      </c>
+      <c r="M307" t="n">
+        <v>50</v>
+      </c>
+      <c r="N307" t="n">
+        <v>52</v>
+      </c>
+      <c r="O307" t="n">
+        <v>54</v>
+      </c>
+      <c r="P307" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>59</v>
+      </c>
+      <c r="R307" t="n">
+        <v>67</v>
+      </c>
+      <c r="S307" t="n">
+        <v>68</v>
+      </c>
+      <c r="T307" t="n">
+        <v>70</v>
+      </c>
+      <c r="U307" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3</v>
+      </c>
+      <c r="C308" t="n">
+        <v>9</v>
+      </c>
+      <c r="D308" t="n">
+        <v>10</v>
+      </c>
+      <c r="E308" t="n">
+        <v>14</v>
+      </c>
+      <c r="F308" t="n">
+        <v>15</v>
+      </c>
+      <c r="G308" t="n">
+        <v>21</v>
+      </c>
+      <c r="H308" t="n">
+        <v>29</v>
+      </c>
+      <c r="I308" t="n">
+        <v>38</v>
+      </c>
+      <c r="J308" t="n">
+        <v>42</v>
+      </c>
+      <c r="K308" t="n">
+        <v>47</v>
+      </c>
+      <c r="L308" t="n">
+        <v>54</v>
+      </c>
+      <c r="M308" t="n">
+        <v>55</v>
+      </c>
+      <c r="N308" t="n">
+        <v>56</v>
+      </c>
+      <c r="O308" t="n">
+        <v>60</v>
+      </c>
+      <c r="P308" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>62</v>
+      </c>
+      <c r="R308" t="n">
+        <v>65</v>
+      </c>
+      <c r="S308" t="n">
+        <v>68</v>
+      </c>
+      <c r="T308" t="n">
+        <v>70</v>
+      </c>
+      <c r="U308" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>9</v>
+      </c>
+      <c r="C309" t="n">
+        <v>11</v>
+      </c>
+      <c r="D309" t="n">
+        <v>15</v>
+      </c>
+      <c r="E309" t="n">
+        <v>19</v>
+      </c>
+      <c r="F309" t="n">
+        <v>21</v>
+      </c>
+      <c r="G309" t="n">
+        <v>25</v>
+      </c>
+      <c r="H309" t="n">
+        <v>28</v>
+      </c>
+      <c r="I309" t="n">
+        <v>29</v>
+      </c>
+      <c r="J309" t="n">
+        <v>31</v>
+      </c>
+      <c r="K309" t="n">
+        <v>33</v>
+      </c>
+      <c r="L309" t="n">
+        <v>35</v>
+      </c>
+      <c r="M309" t="n">
+        <v>36</v>
+      </c>
+      <c r="N309" t="n">
+        <v>41</v>
+      </c>
+      <c r="O309" t="n">
+        <v>47</v>
+      </c>
+      <c r="P309" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>58</v>
+      </c>
+      <c r="R309" t="n">
+        <v>65</v>
+      </c>
+      <c r="S309" t="n">
+        <v>67</v>
+      </c>
+      <c r="T309" t="n">
+        <v>68</v>
+      </c>
+      <c r="U309" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3</v>
+      </c>
+      <c r="C310" t="n">
+        <v>8</v>
+      </c>
+      <c r="D310" t="n">
+        <v>12</v>
+      </c>
+      <c r="E310" t="n">
+        <v>15</v>
+      </c>
+      <c r="F310" t="n">
+        <v>23</v>
+      </c>
+      <c r="G310" t="n">
+        <v>26</v>
+      </c>
+      <c r="H310" t="n">
+        <v>27</v>
+      </c>
+      <c r="I310" t="n">
+        <v>31</v>
+      </c>
+      <c r="J310" t="n">
+        <v>32</v>
+      </c>
+      <c r="K310" t="n">
+        <v>34</v>
+      </c>
+      <c r="L310" t="n">
+        <v>37</v>
+      </c>
+      <c r="M310" t="n">
+        <v>39</v>
+      </c>
+      <c r="N310" t="n">
+        <v>41</v>
+      </c>
+      <c r="O310" t="n">
+        <v>49</v>
+      </c>
+      <c r="P310" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>59</v>
+      </c>
+      <c r="R310" t="n">
+        <v>61</v>
+      </c>
+      <c r="S310" t="n">
+        <v>67</v>
+      </c>
+      <c r="T310" t="n">
+        <v>78</v>
+      </c>
+      <c r="U310" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>6</v>
+      </c>
+      <c r="C311" t="n">
+        <v>13</v>
+      </c>
+      <c r="D311" t="n">
+        <v>15</v>
+      </c>
+      <c r="E311" t="n">
+        <v>16</v>
+      </c>
+      <c r="F311" t="n">
+        <v>21</v>
+      </c>
+      <c r="G311" t="n">
+        <v>24</v>
+      </c>
+      <c r="H311" t="n">
+        <v>26</v>
+      </c>
+      <c r="I311" t="n">
+        <v>36</v>
+      </c>
+      <c r="J311" t="n">
+        <v>37</v>
+      </c>
+      <c r="K311" t="n">
+        <v>41</v>
+      </c>
+      <c r="L311" t="n">
+        <v>42</v>
+      </c>
+      <c r="M311" t="n">
+        <v>45</v>
+      </c>
+      <c r="N311" t="n">
+        <v>48</v>
+      </c>
+      <c r="O311" t="n">
+        <v>50</v>
+      </c>
+      <c r="P311" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>55</v>
+      </c>
+      <c r="R311" t="n">
+        <v>57</v>
+      </c>
+      <c r="S311" t="n">
+        <v>64</v>
+      </c>
+      <c r="T311" t="n">
+        <v>69</v>
+      </c>
+      <c r="U311" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>11</v>
+      </c>
+      <c r="C312" t="n">
+        <v>14</v>
+      </c>
+      <c r="D312" t="n">
+        <v>15</v>
+      </c>
+      <c r="E312" t="n">
+        <v>20</v>
+      </c>
+      <c r="F312" t="n">
+        <v>21</v>
+      </c>
+      <c r="G312" t="n">
+        <v>32</v>
+      </c>
+      <c r="H312" t="n">
+        <v>36</v>
+      </c>
+      <c r="I312" t="n">
+        <v>42</v>
+      </c>
+      <c r="J312" t="n">
+        <v>49</v>
+      </c>
+      <c r="K312" t="n">
+        <v>50</v>
+      </c>
+      <c r="L312" t="n">
+        <v>51</v>
+      </c>
+      <c r="M312" t="n">
+        <v>55</v>
+      </c>
+      <c r="N312" t="n">
+        <v>56</v>
+      </c>
+      <c r="O312" t="n">
+        <v>57</v>
+      </c>
+      <c r="P312" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>62</v>
+      </c>
+      <c r="R312" t="n">
+        <v>65</v>
+      </c>
+      <c r="S312" t="n">
+        <v>69</v>
+      </c>
+      <c r="T312" t="n">
+        <v>77</v>
+      </c>
+      <c r="U312" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>27</v>
+      </c>
+      <c r="C313" t="n">
+        <v>32</v>
+      </c>
+      <c r="D313" t="n">
+        <v>35</v>
+      </c>
+      <c r="E313" t="n">
+        <v>39</v>
+      </c>
+      <c r="F313" t="n">
+        <v>45</v>
+      </c>
+      <c r="G313" t="n">
+        <v>46</v>
+      </c>
+      <c r="H313" t="n">
+        <v>47</v>
+      </c>
+      <c r="I313" t="n">
+        <v>48</v>
+      </c>
+      <c r="J313" t="n">
+        <v>49</v>
+      </c>
+      <c r="K313" t="n">
+        <v>51</v>
+      </c>
+      <c r="L313" t="n">
+        <v>53</v>
+      </c>
+      <c r="M313" t="n">
+        <v>54</v>
+      </c>
+      <c r="N313" t="n">
+        <v>55</v>
+      </c>
+      <c r="O313" t="n">
+        <v>61</v>
+      </c>
+      <c r="P313" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>67</v>
+      </c>
+      <c r="R313" t="n">
+        <v>69</v>
+      </c>
+      <c r="S313" t="n">
+        <v>72</v>
+      </c>
+      <c r="T313" t="n">
+        <v>75</v>
+      </c>
+      <c r="U313" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>4</v>
+      </c>
+      <c r="D314" t="n">
+        <v>15</v>
+      </c>
+      <c r="E314" t="n">
+        <v>21</v>
+      </c>
+      <c r="F314" t="n">
+        <v>25</v>
+      </c>
+      <c r="G314" t="n">
+        <v>28</v>
+      </c>
+      <c r="H314" t="n">
+        <v>32</v>
+      </c>
+      <c r="I314" t="n">
+        <v>33</v>
+      </c>
+      <c r="J314" t="n">
+        <v>36</v>
+      </c>
+      <c r="K314" t="n">
+        <v>37</v>
+      </c>
+      <c r="L314" t="n">
+        <v>40</v>
+      </c>
+      <c r="M314" t="n">
+        <v>51</v>
+      </c>
+      <c r="N314" t="n">
+        <v>54</v>
+      </c>
+      <c r="O314" t="n">
+        <v>55</v>
+      </c>
+      <c r="P314" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>61</v>
+      </c>
+      <c r="R314" t="n">
+        <v>63</v>
+      </c>
+      <c r="S314" t="n">
+        <v>65</v>
+      </c>
+      <c r="T314" t="n">
+        <v>74</v>
+      </c>
+      <c r="U314" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+      <c r="C315" t="n">
+        <v>5</v>
+      </c>
+      <c r="D315" t="n">
+        <v>14</v>
+      </c>
+      <c r="E315" t="n">
+        <v>20</v>
+      </c>
+      <c r="F315" t="n">
+        <v>21</v>
+      </c>
+      <c r="G315" t="n">
+        <v>25</v>
+      </c>
+      <c r="H315" t="n">
+        <v>28</v>
+      </c>
+      <c r="I315" t="n">
+        <v>29</v>
+      </c>
+      <c r="J315" t="n">
+        <v>31</v>
+      </c>
+      <c r="K315" t="n">
+        <v>37</v>
+      </c>
+      <c r="L315" t="n">
+        <v>48</v>
+      </c>
+      <c r="M315" t="n">
+        <v>50</v>
+      </c>
+      <c r="N315" t="n">
+        <v>51</v>
+      </c>
+      <c r="O315" t="n">
+        <v>54</v>
+      </c>
+      <c r="P315" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>61</v>
+      </c>
+      <c r="R315" t="n">
+        <v>67</v>
+      </c>
+      <c r="S315" t="n">
+        <v>72</v>
+      </c>
+      <c r="T315" t="n">
+        <v>75</v>
+      </c>
+      <c r="U315" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+      <c r="C316" t="n">
+        <v>12</v>
+      </c>
+      <c r="D316" t="n">
+        <v>13</v>
+      </c>
+      <c r="E316" t="n">
+        <v>14</v>
+      </c>
+      <c r="F316" t="n">
+        <v>15</v>
+      </c>
+      <c r="G316" t="n">
+        <v>18</v>
+      </c>
+      <c r="H316" t="n">
+        <v>19</v>
+      </c>
+      <c r="I316" t="n">
+        <v>23</v>
+      </c>
+      <c r="J316" t="n">
+        <v>27</v>
+      </c>
+      <c r="K316" t="n">
+        <v>41</v>
+      </c>
+      <c r="L316" t="n">
+        <v>46</v>
+      </c>
+      <c r="M316" t="n">
+        <v>52</v>
+      </c>
+      <c r="N316" t="n">
+        <v>53</v>
+      </c>
+      <c r="O316" t="n">
+        <v>56</v>
+      </c>
+      <c r="P316" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>62</v>
+      </c>
+      <c r="R316" t="n">
+        <v>63</v>
+      </c>
+      <c r="S316" t="n">
+        <v>70</v>
+      </c>
+      <c r="T316" t="n">
+        <v>72</v>
+      </c>
+      <c r="U316" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3</v>
+      </c>
+      <c r="C317" t="n">
+        <v>8</v>
+      </c>
+      <c r="D317" t="n">
+        <v>18</v>
+      </c>
+      <c r="E317" t="n">
+        <v>22</v>
+      </c>
+      <c r="F317" t="n">
+        <v>27</v>
+      </c>
+      <c r="G317" t="n">
+        <v>34</v>
+      </c>
+      <c r="H317" t="n">
+        <v>36</v>
+      </c>
+      <c r="I317" t="n">
+        <v>38</v>
+      </c>
+      <c r="J317" t="n">
+        <v>42</v>
+      </c>
+      <c r="K317" t="n">
+        <v>45</v>
+      </c>
+      <c r="L317" t="n">
+        <v>47</v>
+      </c>
+      <c r="M317" t="n">
+        <v>49</v>
+      </c>
+      <c r="N317" t="n">
+        <v>53</v>
+      </c>
+      <c r="O317" t="n">
+        <v>57</v>
+      </c>
+      <c r="P317" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>66</v>
+      </c>
+      <c r="R317" t="n">
+        <v>68</v>
+      </c>
+      <c r="S317" t="n">
+        <v>76</v>
+      </c>
+      <c r="T317" t="n">
+        <v>77</v>
+      </c>
+      <c r="U317" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3</v>
+      </c>
+      <c r="C318" t="n">
+        <v>4</v>
+      </c>
+      <c r="D318" t="n">
+        <v>25</v>
+      </c>
+      <c r="E318" t="n">
+        <v>26</v>
+      </c>
+      <c r="F318" t="n">
+        <v>32</v>
+      </c>
+      <c r="G318" t="n">
+        <v>35</v>
+      </c>
+      <c r="H318" t="n">
+        <v>37</v>
+      </c>
+      <c r="I318" t="n">
+        <v>38</v>
+      </c>
+      <c r="J318" t="n">
+        <v>40</v>
+      </c>
+      <c r="K318" t="n">
+        <v>41</v>
+      </c>
+      <c r="L318" t="n">
+        <v>48</v>
+      </c>
+      <c r="M318" t="n">
+        <v>49</v>
+      </c>
+      <c r="N318" t="n">
+        <v>62</v>
+      </c>
+      <c r="O318" t="n">
+        <v>67</v>
+      </c>
+      <c r="P318" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>71</v>
+      </c>
+      <c r="R318" t="n">
+        <v>72</v>
+      </c>
+      <c r="S318" t="n">
+        <v>78</v>
+      </c>
+      <c r="T318" t="n">
+        <v>79</v>
+      </c>
+      <c r="U318" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3</v>
+      </c>
+      <c r="C319" t="n">
+        <v>4</v>
+      </c>
+      <c r="D319" t="n">
+        <v>13</v>
+      </c>
+      <c r="E319" t="n">
+        <v>16</v>
+      </c>
+      <c r="F319" t="n">
+        <v>22</v>
+      </c>
+      <c r="G319" t="n">
+        <v>35</v>
+      </c>
+      <c r="H319" t="n">
+        <v>36</v>
+      </c>
+      <c r="I319" t="n">
+        <v>39</v>
+      </c>
+      <c r="J319" t="n">
+        <v>43</v>
+      </c>
+      <c r="K319" t="n">
+        <v>53</v>
+      </c>
+      <c r="L319" t="n">
+        <v>54</v>
+      </c>
+      <c r="M319" t="n">
+        <v>55</v>
+      </c>
+      <c r="N319" t="n">
+        <v>63</v>
+      </c>
+      <c r="O319" t="n">
+        <v>65</v>
+      </c>
+      <c r="P319" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>70</v>
+      </c>
+      <c r="R319" t="n">
+        <v>72</v>
+      </c>
+      <c r="S319" t="n">
+        <v>77</v>
+      </c>
+      <c r="T319" t="n">
+        <v>79</v>
+      </c>
+      <c r="U319" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3</v>
+      </c>
+      <c r="D320" t="n">
+        <v>6</v>
+      </c>
+      <c r="E320" t="n">
+        <v>8</v>
+      </c>
+      <c r="F320" t="n">
+        <v>11</v>
+      </c>
+      <c r="G320" t="n">
+        <v>16</v>
+      </c>
+      <c r="H320" t="n">
+        <v>18</v>
+      </c>
+      <c r="I320" t="n">
+        <v>25</v>
+      </c>
+      <c r="J320" t="n">
+        <v>33</v>
+      </c>
+      <c r="K320" t="n">
+        <v>40</v>
+      </c>
+      <c r="L320" t="n">
+        <v>44</v>
+      </c>
+      <c r="M320" t="n">
+        <v>45</v>
+      </c>
+      <c r="N320" t="n">
+        <v>51</v>
+      </c>
+      <c r="O320" t="n">
+        <v>56</v>
+      </c>
+      <c r="P320" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>64</v>
+      </c>
+      <c r="R320" t="n">
+        <v>68</v>
+      </c>
+      <c r="S320" t="n">
+        <v>73</v>
+      </c>
+      <c r="T320" t="n">
+        <v>76</v>
+      </c>
+      <c r="U320" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>8</v>
+      </c>
+      <c r="C321" t="n">
+        <v>15</v>
+      </c>
+      <c r="D321" t="n">
+        <v>16</v>
+      </c>
+      <c r="E321" t="n">
+        <v>22</v>
+      </c>
+      <c r="F321" t="n">
+        <v>24</v>
+      </c>
+      <c r="G321" t="n">
+        <v>28</v>
+      </c>
+      <c r="H321" t="n">
+        <v>30</v>
+      </c>
+      <c r="I321" t="n">
+        <v>34</v>
+      </c>
+      <c r="J321" t="n">
+        <v>38</v>
+      </c>
+      <c r="K321" t="n">
+        <v>43</v>
+      </c>
+      <c r="L321" t="n">
+        <v>45</v>
+      </c>
+      <c r="M321" t="n">
+        <v>51</v>
+      </c>
+      <c r="N321" t="n">
+        <v>52</v>
+      </c>
+      <c r="O321" t="n">
+        <v>56</v>
+      </c>
+      <c r="P321" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>61</v>
+      </c>
+      <c r="R321" t="n">
+        <v>70</v>
+      </c>
+      <c r="S321" t="n">
+        <v>74</v>
+      </c>
+      <c r="T321" t="n">
+        <v>77</v>
+      </c>
+      <c r="U321" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>7</v>
+      </c>
+      <c r="C322" t="n">
+        <v>11</v>
+      </c>
+      <c r="D322" t="n">
+        <v>19</v>
+      </c>
+      <c r="E322" t="n">
+        <v>20</v>
+      </c>
+      <c r="F322" t="n">
+        <v>21</v>
+      </c>
+      <c r="G322" t="n">
+        <v>24</v>
+      </c>
+      <c r="H322" t="n">
+        <v>29</v>
+      </c>
+      <c r="I322" t="n">
+        <v>31</v>
+      </c>
+      <c r="J322" t="n">
+        <v>34</v>
+      </c>
+      <c r="K322" t="n">
+        <v>52</v>
+      </c>
+      <c r="L322" t="n">
+        <v>54</v>
+      </c>
+      <c r="M322" t="n">
+        <v>57</v>
+      </c>
+      <c r="N322" t="n">
+        <v>59</v>
+      </c>
+      <c r="O322" t="n">
+        <v>63</v>
+      </c>
+      <c r="P322" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>66</v>
+      </c>
+      <c r="R322" t="n">
+        <v>71</v>
+      </c>
+      <c r="S322" t="n">
+        <v>73</v>
+      </c>
+      <c r="T322" t="n">
+        <v>74</v>
+      </c>
+      <c r="U322" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>7</v>
+      </c>
+      <c r="D323" t="n">
+        <v>9</v>
+      </c>
+      <c r="E323" t="n">
+        <v>10</v>
+      </c>
+      <c r="F323" t="n">
+        <v>16</v>
+      </c>
+      <c r="G323" t="n">
+        <v>18</v>
+      </c>
+      <c r="H323" t="n">
+        <v>20</v>
+      </c>
+      <c r="I323" t="n">
+        <v>24</v>
+      </c>
+      <c r="J323" t="n">
+        <v>27</v>
+      </c>
+      <c r="K323" t="n">
+        <v>48</v>
+      </c>
+      <c r="L323" t="n">
+        <v>50</v>
+      </c>
+      <c r="M323" t="n">
+        <v>51</v>
+      </c>
+      <c r="N323" t="n">
+        <v>55</v>
+      </c>
+      <c r="O323" t="n">
+        <v>58</v>
+      </c>
+      <c r="P323" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>64</v>
+      </c>
+      <c r="R323" t="n">
+        <v>68</v>
+      </c>
+      <c r="S323" t="n">
+        <v>76</v>
+      </c>
+      <c r="T323" t="n">
+        <v>77</v>
+      </c>
+      <c r="U323" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>7</v>
+      </c>
+      <c r="C324" t="n">
+        <v>10</v>
+      </c>
+      <c r="D324" t="n">
+        <v>12</v>
+      </c>
+      <c r="E324" t="n">
+        <v>14</v>
+      </c>
+      <c r="F324" t="n">
+        <v>19</v>
+      </c>
+      <c r="G324" t="n">
+        <v>23</v>
+      </c>
+      <c r="H324" t="n">
+        <v>24</v>
+      </c>
+      <c r="I324" t="n">
+        <v>29</v>
+      </c>
+      <c r="J324" t="n">
+        <v>30</v>
+      </c>
+      <c r="K324" t="n">
+        <v>33</v>
+      </c>
+      <c r="L324" t="n">
+        <v>34</v>
+      </c>
+      <c r="M324" t="n">
+        <v>38</v>
+      </c>
+      <c r="N324" t="n">
+        <v>46</v>
+      </c>
+      <c r="O324" t="n">
+        <v>48</v>
+      </c>
+      <c r="P324" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>56</v>
+      </c>
+      <c r="R324" t="n">
+        <v>60</v>
+      </c>
+      <c r="S324" t="n">
+        <v>65</v>
+      </c>
+      <c r="T324" t="n">
+        <v>68</v>
+      </c>
+      <c r="U324" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>3</v>
+      </c>
+      <c r="C325" t="n">
+        <v>4</v>
+      </c>
+      <c r="D325" t="n">
+        <v>6</v>
+      </c>
+      <c r="E325" t="n">
+        <v>16</v>
+      </c>
+      <c r="F325" t="n">
+        <v>21</v>
+      </c>
+      <c r="G325" t="n">
+        <v>22</v>
+      </c>
+      <c r="H325" t="n">
+        <v>23</v>
+      </c>
+      <c r="I325" t="n">
+        <v>34</v>
+      </c>
+      <c r="J325" t="n">
+        <v>39</v>
+      </c>
+      <c r="K325" t="n">
+        <v>42</v>
+      </c>
+      <c r="L325" t="n">
+        <v>47</v>
+      </c>
+      <c r="M325" t="n">
+        <v>48</v>
+      </c>
+      <c r="N325" t="n">
+        <v>53</v>
+      </c>
+      <c r="O325" t="n">
+        <v>55</v>
+      </c>
+      <c r="P325" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>65</v>
+      </c>
+      <c r="R325" t="n">
+        <v>68</v>
+      </c>
+      <c r="S325" t="n">
+        <v>72</v>
+      </c>
+      <c r="T325" t="n">
+        <v>77</v>
+      </c>
+      <c r="U325" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3</v>
+      </c>
+      <c r="D326" t="n">
+        <v>4</v>
+      </c>
+      <c r="E326" t="n">
+        <v>6</v>
+      </c>
+      <c r="F326" t="n">
+        <v>13</v>
+      </c>
+      <c r="G326" t="n">
+        <v>14</v>
+      </c>
+      <c r="H326" t="n">
+        <v>18</v>
+      </c>
+      <c r="I326" t="n">
+        <v>20</v>
+      </c>
+      <c r="J326" t="n">
+        <v>23</v>
+      </c>
+      <c r="K326" t="n">
+        <v>25</v>
+      </c>
+      <c r="L326" t="n">
+        <v>29</v>
+      </c>
+      <c r="M326" t="n">
+        <v>40</v>
+      </c>
+      <c r="N326" t="n">
+        <v>41</v>
+      </c>
+      <c r="O326" t="n">
+        <v>43</v>
+      </c>
+      <c r="P326" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>63</v>
+      </c>
+      <c r="R326" t="n">
+        <v>64</v>
+      </c>
+      <c r="S326" t="n">
+        <v>72</v>
+      </c>
+      <c r="T326" t="n">
+        <v>75</v>
+      </c>
+      <c r="U326" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>4</v>
+      </c>
+      <c r="C327" t="n">
+        <v>8</v>
+      </c>
+      <c r="D327" t="n">
+        <v>9</v>
+      </c>
+      <c r="E327" t="n">
+        <v>11</v>
+      </c>
+      <c r="F327" t="n">
+        <v>13</v>
+      </c>
+      <c r="G327" t="n">
+        <v>14</v>
+      </c>
+      <c r="H327" t="n">
+        <v>18</v>
+      </c>
+      <c r="I327" t="n">
+        <v>19</v>
+      </c>
+      <c r="J327" t="n">
+        <v>21</v>
+      </c>
+      <c r="K327" t="n">
+        <v>30</v>
+      </c>
+      <c r="L327" t="n">
+        <v>39</v>
+      </c>
+      <c r="M327" t="n">
+        <v>40</v>
+      </c>
+      <c r="N327" t="n">
+        <v>47</v>
+      </c>
+      <c r="O327" t="n">
+        <v>51</v>
+      </c>
+      <c r="P327" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>56</v>
+      </c>
+      <c r="R327" t="n">
+        <v>57</v>
+      </c>
+      <c r="S327" t="n">
+        <v>60</v>
+      </c>
+      <c r="T327" t="n">
+        <v>74</v>
+      </c>
+      <c r="U327" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>6</v>
+      </c>
+      <c r="E328" t="n">
+        <v>9</v>
+      </c>
+      <c r="F328" t="n">
+        <v>14</v>
+      </c>
+      <c r="G328" t="n">
+        <v>15</v>
+      </c>
+      <c r="H328" t="n">
+        <v>17</v>
+      </c>
+      <c r="I328" t="n">
+        <v>18</v>
+      </c>
+      <c r="J328" t="n">
+        <v>22</v>
+      </c>
+      <c r="K328" t="n">
+        <v>23</v>
+      </c>
+      <c r="L328" t="n">
+        <v>36</v>
+      </c>
+      <c r="M328" t="n">
+        <v>38</v>
+      </c>
+      <c r="N328" t="n">
+        <v>44</v>
+      </c>
+      <c r="O328" t="n">
+        <v>45</v>
+      </c>
+      <c r="P328" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>53</v>
+      </c>
+      <c r="R328" t="n">
+        <v>65</v>
+      </c>
+      <c r="S328" t="n">
+        <v>71</v>
+      </c>
+      <c r="T328" t="n">
+        <v>73</v>
+      </c>
+      <c r="U328" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3</v>
+      </c>
+      <c r="E329" t="n">
+        <v>5</v>
+      </c>
+      <c r="F329" t="n">
+        <v>15</v>
+      </c>
+      <c r="G329" t="n">
+        <v>17</v>
+      </c>
+      <c r="H329" t="n">
+        <v>25</v>
+      </c>
+      <c r="I329" t="n">
+        <v>29</v>
+      </c>
+      <c r="J329" t="n">
+        <v>33</v>
+      </c>
+      <c r="K329" t="n">
+        <v>46</v>
+      </c>
+      <c r="L329" t="n">
+        <v>47</v>
+      </c>
+      <c r="M329" t="n">
+        <v>49</v>
+      </c>
+      <c r="N329" t="n">
+        <v>52</v>
+      </c>
+      <c r="O329" t="n">
+        <v>60</v>
+      </c>
+      <c r="P329" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>66</v>
+      </c>
+      <c r="R329" t="n">
+        <v>70</v>
+      </c>
+      <c r="S329" t="n">
+        <v>73</v>
+      </c>
+      <c r="T329" t="n">
+        <v>74</v>
+      </c>
+      <c r="U329" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>3</v>
+      </c>
+      <c r="C330" t="n">
+        <v>7</v>
+      </c>
+      <c r="D330" t="n">
+        <v>9</v>
+      </c>
+      <c r="E330" t="n">
+        <v>10</v>
+      </c>
+      <c r="F330" t="n">
+        <v>11</v>
+      </c>
+      <c r="G330" t="n">
+        <v>16</v>
+      </c>
+      <c r="H330" t="n">
+        <v>18</v>
+      </c>
+      <c r="I330" t="n">
+        <v>20</v>
+      </c>
+      <c r="J330" t="n">
+        <v>24</v>
+      </c>
+      <c r="K330" t="n">
+        <v>32</v>
+      </c>
+      <c r="L330" t="n">
+        <v>42</v>
+      </c>
+      <c r="M330" t="n">
+        <v>45</v>
+      </c>
+      <c r="N330" t="n">
+        <v>47</v>
+      </c>
+      <c r="O330" t="n">
+        <v>53</v>
+      </c>
+      <c r="P330" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>57</v>
+      </c>
+      <c r="R330" t="n">
+        <v>60</v>
+      </c>
+      <c r="S330" t="n">
+        <v>63</v>
+      </c>
+      <c r="T330" t="n">
+        <v>79</v>
+      </c>
+      <c r="U330" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>6</v>
+      </c>
+      <c r="C331" t="n">
+        <v>13</v>
+      </c>
+      <c r="D331" t="n">
+        <v>17</v>
+      </c>
+      <c r="E331" t="n">
+        <v>23</v>
+      </c>
+      <c r="F331" t="n">
+        <v>26</v>
+      </c>
+      <c r="G331" t="n">
+        <v>27</v>
+      </c>
+      <c r="H331" t="n">
+        <v>30</v>
+      </c>
+      <c r="I331" t="n">
+        <v>31</v>
+      </c>
+      <c r="J331" t="n">
+        <v>33</v>
+      </c>
+      <c r="K331" t="n">
+        <v>36</v>
+      </c>
+      <c r="L331" t="n">
+        <v>37</v>
+      </c>
+      <c r="M331" t="n">
+        <v>50</v>
+      </c>
+      <c r="N331" t="n">
+        <v>51</v>
+      </c>
+      <c r="O331" t="n">
+        <v>52</v>
+      </c>
+      <c r="P331" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>57</v>
+      </c>
+      <c r="R331" t="n">
+        <v>59</v>
+      </c>
+      <c r="S331" t="n">
+        <v>62</v>
+      </c>
+      <c r="T331" t="n">
+        <v>64</v>
+      </c>
+      <c r="U331" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>9</v>
+      </c>
+      <c r="C332" t="n">
+        <v>10</v>
+      </c>
+      <c r="D332" t="n">
+        <v>15</v>
+      </c>
+      <c r="E332" t="n">
+        <v>17</v>
+      </c>
+      <c r="F332" t="n">
+        <v>23</v>
+      </c>
+      <c r="G332" t="n">
+        <v>28</v>
+      </c>
+      <c r="H332" t="n">
+        <v>30</v>
+      </c>
+      <c r="I332" t="n">
+        <v>32</v>
+      </c>
+      <c r="J332" t="n">
+        <v>34</v>
+      </c>
+      <c r="K332" t="n">
+        <v>36</v>
+      </c>
+      <c r="L332" t="n">
+        <v>39</v>
+      </c>
+      <c r="M332" t="n">
+        <v>45</v>
+      </c>
+      <c r="N332" t="n">
+        <v>49</v>
+      </c>
+      <c r="O332" t="n">
+        <v>54</v>
+      </c>
+      <c r="P332" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>62</v>
+      </c>
+      <c r="R332" t="n">
+        <v>65</v>
+      </c>
+      <c r="S332" t="n">
+        <v>68</v>
+      </c>
+      <c r="T332" t="n">
+        <v>71</v>
+      </c>
+      <c r="U332" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2</v>
+      </c>
+      <c r="D333" t="n">
+        <v>4</v>
+      </c>
+      <c r="E333" t="n">
+        <v>17</v>
+      </c>
+      <c r="F333" t="n">
+        <v>21</v>
+      </c>
+      <c r="G333" t="n">
+        <v>26</v>
+      </c>
+      <c r="H333" t="n">
+        <v>27</v>
+      </c>
+      <c r="I333" t="n">
+        <v>31</v>
+      </c>
+      <c r="J333" t="n">
+        <v>33</v>
+      </c>
+      <c r="K333" t="n">
+        <v>34</v>
+      </c>
+      <c r="L333" t="n">
+        <v>40</v>
+      </c>
+      <c r="M333" t="n">
+        <v>46</v>
+      </c>
+      <c r="N333" t="n">
+        <v>47</v>
+      </c>
+      <c r="O333" t="n">
+        <v>53</v>
+      </c>
+      <c r="P333" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>60</v>
+      </c>
+      <c r="R333" t="n">
+        <v>67</v>
+      </c>
+      <c r="S333" t="n">
+        <v>73</v>
+      </c>
+      <c r="T333" t="n">
+        <v>78</v>
+      </c>
+      <c r="U333" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+      <c r="C334" t="n">
+        <v>8</v>
+      </c>
+      <c r="D334" t="n">
+        <v>10</v>
+      </c>
+      <c r="E334" t="n">
+        <v>20</v>
+      </c>
+      <c r="F334" t="n">
+        <v>21</v>
+      </c>
+      <c r="G334" t="n">
+        <v>22</v>
+      </c>
+      <c r="H334" t="n">
+        <v>24</v>
+      </c>
+      <c r="I334" t="n">
+        <v>29</v>
+      </c>
+      <c r="J334" t="n">
+        <v>32</v>
+      </c>
+      <c r="K334" t="n">
+        <v>34</v>
+      </c>
+      <c r="L334" t="n">
+        <v>35</v>
+      </c>
+      <c r="M334" t="n">
+        <v>44</v>
+      </c>
+      <c r="N334" t="n">
+        <v>47</v>
+      </c>
+      <c r="O334" t="n">
+        <v>49</v>
+      </c>
+      <c r="P334" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>59</v>
+      </c>
+      <c r="R334" t="n">
+        <v>60</v>
+      </c>
+      <c r="S334" t="n">
+        <v>69</v>
+      </c>
+      <c r="T334" t="n">
+        <v>75</v>
+      </c>
+      <c r="U334" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2</v>
+      </c>
+      <c r="C335" t="n">
+        <v>10</v>
+      </c>
+      <c r="D335" t="n">
+        <v>11</v>
+      </c>
+      <c r="E335" t="n">
+        <v>15</v>
+      </c>
+      <c r="F335" t="n">
+        <v>19</v>
+      </c>
+      <c r="G335" t="n">
+        <v>23</v>
+      </c>
+      <c r="H335" t="n">
+        <v>24</v>
+      </c>
+      <c r="I335" t="n">
+        <v>28</v>
+      </c>
+      <c r="J335" t="n">
+        <v>30</v>
+      </c>
+      <c r="K335" t="n">
+        <v>36</v>
+      </c>
+      <c r="L335" t="n">
+        <v>41</v>
+      </c>
+      <c r="M335" t="n">
+        <v>42</v>
+      </c>
+      <c r="N335" t="n">
+        <v>57</v>
+      </c>
+      <c r="O335" t="n">
+        <v>59</v>
+      </c>
+      <c r="P335" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>62</v>
+      </c>
+      <c r="R335" t="n">
+        <v>64</v>
+      </c>
+      <c r="S335" t="n">
+        <v>65</v>
+      </c>
+      <c r="T335" t="n">
+        <v>68</v>
+      </c>
+      <c r="U335" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>6</v>
+      </c>
+      <c r="C336" t="n">
+        <v>11</v>
+      </c>
+      <c r="D336" t="n">
+        <v>15</v>
+      </c>
+      <c r="E336" t="n">
+        <v>17</v>
+      </c>
+      <c r="F336" t="n">
+        <v>18</v>
+      </c>
+      <c r="G336" t="n">
+        <v>19</v>
+      </c>
+      <c r="H336" t="n">
+        <v>20</v>
+      </c>
+      <c r="I336" t="n">
+        <v>23</v>
+      </c>
+      <c r="J336" t="n">
+        <v>26</v>
+      </c>
+      <c r="K336" t="n">
+        <v>29</v>
+      </c>
+      <c r="L336" t="n">
+        <v>33</v>
+      </c>
+      <c r="M336" t="n">
+        <v>52</v>
+      </c>
+      <c r="N336" t="n">
+        <v>53</v>
+      </c>
+      <c r="O336" t="n">
+        <v>58</v>
+      </c>
+      <c r="P336" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>60</v>
+      </c>
+      <c r="R336" t="n">
+        <v>67</v>
+      </c>
+      <c r="S336" t="n">
+        <v>73</v>
+      </c>
+      <c r="T336" t="n">
+        <v>74</v>
+      </c>
+      <c r="U336" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2</v>
+      </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
+      <c r="D337" t="n">
+        <v>10</v>
+      </c>
+      <c r="E337" t="n">
+        <v>11</v>
+      </c>
+      <c r="F337" t="n">
+        <v>18</v>
+      </c>
+      <c r="G337" t="n">
+        <v>28</v>
+      </c>
+      <c r="H337" t="n">
+        <v>32</v>
+      </c>
+      <c r="I337" t="n">
+        <v>34</v>
+      </c>
+      <c r="J337" t="n">
+        <v>36</v>
+      </c>
+      <c r="K337" t="n">
+        <v>40</v>
+      </c>
+      <c r="L337" t="n">
+        <v>44</v>
+      </c>
+      <c r="M337" t="n">
+        <v>47</v>
+      </c>
+      <c r="N337" t="n">
+        <v>49</v>
+      </c>
+      <c r="O337" t="n">
+        <v>61</v>
+      </c>
+      <c r="P337" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>64</v>
+      </c>
+      <c r="R337" t="n">
+        <v>65</v>
+      </c>
+      <c r="S337" t="n">
+        <v>71</v>
+      </c>
+      <c r="T337" t="n">
+        <v>73</v>
+      </c>
+      <c r="U337" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3</v>
+      </c>
+      <c r="C338" t="n">
+        <v>11</v>
+      </c>
+      <c r="D338" t="n">
+        <v>12</v>
+      </c>
+      <c r="E338" t="n">
+        <v>18</v>
+      </c>
+      <c r="F338" t="n">
+        <v>26</v>
+      </c>
+      <c r="G338" t="n">
+        <v>27</v>
+      </c>
+      <c r="H338" t="n">
+        <v>29</v>
+      </c>
+      <c r="I338" t="n">
+        <v>30</v>
+      </c>
+      <c r="J338" t="n">
+        <v>31</v>
+      </c>
+      <c r="K338" t="n">
+        <v>32</v>
+      </c>
+      <c r="L338" t="n">
+        <v>37</v>
+      </c>
+      <c r="M338" t="n">
+        <v>41</v>
+      </c>
+      <c r="N338" t="n">
+        <v>48</v>
+      </c>
+      <c r="O338" t="n">
+        <v>56</v>
+      </c>
+      <c r="P338" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>62</v>
+      </c>
+      <c r="R338" t="n">
+        <v>66</v>
+      </c>
+      <c r="S338" t="n">
+        <v>74</v>
+      </c>
+      <c r="T338" t="n">
+        <v>77</v>
+      </c>
+      <c r="U338" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>12</v>
+      </c>
+      <c r="C339" t="n">
+        <v>18</v>
+      </c>
+      <c r="D339" t="n">
+        <v>24</v>
+      </c>
+      <c r="E339" t="n">
+        <v>28</v>
+      </c>
+      <c r="F339" t="n">
+        <v>29</v>
+      </c>
+      <c r="G339" t="n">
+        <v>30</v>
+      </c>
+      <c r="H339" t="n">
+        <v>31</v>
+      </c>
+      <c r="I339" t="n">
+        <v>42</v>
+      </c>
+      <c r="J339" t="n">
+        <v>46</v>
+      </c>
+      <c r="K339" t="n">
+        <v>51</v>
+      </c>
+      <c r="L339" t="n">
+        <v>52</v>
+      </c>
+      <c r="M339" t="n">
+        <v>55</v>
+      </c>
+      <c r="N339" t="n">
+        <v>58</v>
+      </c>
+      <c r="O339" t="n">
+        <v>59</v>
+      </c>
+      <c r="P339" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>65</v>
+      </c>
+      <c r="R339" t="n">
+        <v>70</v>
+      </c>
+      <c r="S339" t="n">
+        <v>74</v>
+      </c>
+      <c r="T339" t="n">
+        <v>78</v>
+      </c>
+      <c r="U339" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6</v>
+      </c>
+      <c r="C340" t="n">
+        <v>9</v>
+      </c>
+      <c r="D340" t="n">
+        <v>11</v>
+      </c>
+      <c r="E340" t="n">
+        <v>12</v>
+      </c>
+      <c r="F340" t="n">
+        <v>13</v>
+      </c>
+      <c r="G340" t="n">
+        <v>19</v>
+      </c>
+      <c r="H340" t="n">
+        <v>27</v>
+      </c>
+      <c r="I340" t="n">
+        <v>31</v>
+      </c>
+      <c r="J340" t="n">
+        <v>34</v>
+      </c>
+      <c r="K340" t="n">
+        <v>35</v>
+      </c>
+      <c r="L340" t="n">
+        <v>49</v>
+      </c>
+      <c r="M340" t="n">
+        <v>52</v>
+      </c>
+      <c r="N340" t="n">
+        <v>58</v>
+      </c>
+      <c r="O340" t="n">
+        <v>60</v>
+      </c>
+      <c r="P340" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>63</v>
+      </c>
+      <c r="R340" t="n">
+        <v>64</v>
+      </c>
+      <c r="S340" t="n">
+        <v>70</v>
+      </c>
+      <c r="T340" t="n">
+        <v>73</v>
+      </c>
+      <c r="U340" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3</v>
+      </c>
+      <c r="C341" t="n">
+        <v>7</v>
+      </c>
+      <c r="D341" t="n">
+        <v>9</v>
+      </c>
+      <c r="E341" t="n">
+        <v>11</v>
+      </c>
+      <c r="F341" t="n">
+        <v>12</v>
+      </c>
+      <c r="G341" t="n">
+        <v>19</v>
+      </c>
+      <c r="H341" t="n">
+        <v>23</v>
+      </c>
+      <c r="I341" t="n">
+        <v>26</v>
+      </c>
+      <c r="J341" t="n">
+        <v>28</v>
+      </c>
+      <c r="K341" t="n">
+        <v>37</v>
+      </c>
+      <c r="L341" t="n">
+        <v>42</v>
+      </c>
+      <c r="M341" t="n">
+        <v>43</v>
+      </c>
+      <c r="N341" t="n">
+        <v>44</v>
+      </c>
+      <c r="O341" t="n">
+        <v>45</v>
+      </c>
+      <c r="P341" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>61</v>
+      </c>
+      <c r="R341" t="n">
+        <v>63</v>
+      </c>
+      <c r="S341" t="n">
+        <v>64</v>
+      </c>
+      <c r="T341" t="n">
+        <v>75</v>
+      </c>
+      <c r="U341" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3</v>
+      </c>
+      <c r="C342" t="n">
+        <v>5</v>
+      </c>
+      <c r="D342" t="n">
+        <v>7</v>
+      </c>
+      <c r="E342" t="n">
+        <v>8</v>
+      </c>
+      <c r="F342" t="n">
+        <v>14</v>
+      </c>
+      <c r="G342" t="n">
+        <v>16</v>
+      </c>
+      <c r="H342" t="n">
+        <v>32</v>
+      </c>
+      <c r="I342" t="n">
+        <v>38</v>
+      </c>
+      <c r="J342" t="n">
+        <v>42</v>
+      </c>
+      <c r="K342" t="n">
+        <v>46</v>
+      </c>
+      <c r="L342" t="n">
+        <v>51</v>
+      </c>
+      <c r="M342" t="n">
+        <v>53</v>
+      </c>
+      <c r="N342" t="n">
+        <v>55</v>
+      </c>
+      <c r="O342" t="n">
+        <v>56</v>
+      </c>
+      <c r="P342" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>66</v>
+      </c>
+      <c r="R342" t="n">
+        <v>70</v>
+      </c>
+      <c r="S342" t="n">
+        <v>71</v>
+      </c>
+      <c r="T342" t="n">
+        <v>72</v>
+      </c>
+      <c r="U342" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>7</v>
+      </c>
+      <c r="C343" t="n">
+        <v>11</v>
+      </c>
+      <c r="D343" t="n">
+        <v>12</v>
+      </c>
+      <c r="E343" t="n">
+        <v>13</v>
+      </c>
+      <c r="F343" t="n">
+        <v>15</v>
+      </c>
+      <c r="G343" t="n">
+        <v>24</v>
+      </c>
+      <c r="H343" t="n">
+        <v>26</v>
+      </c>
+      <c r="I343" t="n">
+        <v>27</v>
+      </c>
+      <c r="J343" t="n">
+        <v>31</v>
+      </c>
+      <c r="K343" t="n">
+        <v>43</v>
+      </c>
+      <c r="L343" t="n">
+        <v>49</v>
+      </c>
+      <c r="M343" t="n">
+        <v>51</v>
+      </c>
+      <c r="N343" t="n">
+        <v>52</v>
+      </c>
+      <c r="O343" t="n">
+        <v>53</v>
+      </c>
+      <c r="P343" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>66</v>
+      </c>
+      <c r="R343" t="n">
+        <v>74</v>
+      </c>
+      <c r="S343" t="n">
+        <v>76</v>
+      </c>
+      <c r="T343" t="n">
+        <v>77</v>
+      </c>
+      <c r="U343" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2</v>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+      <c r="D344" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" t="n">
+        <v>10</v>
+      </c>
+      <c r="F344" t="n">
+        <v>11</v>
+      </c>
+      <c r="G344" t="n">
+        <v>15</v>
+      </c>
+      <c r="H344" t="n">
+        <v>21</v>
+      </c>
+      <c r="I344" t="n">
+        <v>25</v>
+      </c>
+      <c r="J344" t="n">
+        <v>26</v>
+      </c>
+      <c r="K344" t="n">
+        <v>31</v>
+      </c>
+      <c r="L344" t="n">
+        <v>33</v>
+      </c>
+      <c r="M344" t="n">
+        <v>40</v>
+      </c>
+      <c r="N344" t="n">
+        <v>45</v>
+      </c>
+      <c r="O344" t="n">
+        <v>46</v>
+      </c>
+      <c r="P344" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>54</v>
+      </c>
+      <c r="R344" t="n">
+        <v>57</v>
+      </c>
+      <c r="S344" t="n">
+        <v>65</v>
+      </c>
+      <c r="T344" t="n">
+        <v>75</v>
+      </c>
+      <c r="U344" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>4</v>
+      </c>
+      <c r="C345" t="n">
+        <v>11</v>
+      </c>
+      <c r="D345" t="n">
+        <v>12</v>
+      </c>
+      <c r="E345" t="n">
+        <v>16</v>
+      </c>
+      <c r="F345" t="n">
+        <v>20</v>
+      </c>
+      <c r="G345" t="n">
+        <v>22</v>
+      </c>
+      <c r="H345" t="n">
+        <v>23</v>
+      </c>
+      <c r="I345" t="n">
+        <v>34</v>
+      </c>
+      <c r="J345" t="n">
+        <v>36</v>
+      </c>
+      <c r="K345" t="n">
+        <v>45</v>
+      </c>
+      <c r="L345" t="n">
+        <v>46</v>
+      </c>
+      <c r="M345" t="n">
+        <v>48</v>
+      </c>
+      <c r="N345" t="n">
+        <v>52</v>
+      </c>
+      <c r="O345" t="n">
+        <v>54</v>
+      </c>
+      <c r="P345" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>66</v>
+      </c>
+      <c r="R345" t="n">
+        <v>67</v>
+      </c>
+      <c r="S345" t="n">
+        <v>71</v>
+      </c>
+      <c r="T345" t="n">
+        <v>73</v>
+      </c>
+      <c r="U345" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3</v>
+      </c>
+      <c r="C346" t="n">
+        <v>6</v>
+      </c>
+      <c r="D346" t="n">
+        <v>13</v>
+      </c>
+      <c r="E346" t="n">
+        <v>14</v>
+      </c>
+      <c r="F346" t="n">
+        <v>21</v>
+      </c>
+      <c r="G346" t="n">
+        <v>22</v>
+      </c>
+      <c r="H346" t="n">
+        <v>26</v>
+      </c>
+      <c r="I346" t="n">
+        <v>30</v>
+      </c>
+      <c r="J346" t="n">
+        <v>34</v>
+      </c>
+      <c r="K346" t="n">
+        <v>35</v>
+      </c>
+      <c r="L346" t="n">
+        <v>36</v>
+      </c>
+      <c r="M346" t="n">
+        <v>39</v>
+      </c>
+      <c r="N346" t="n">
+        <v>43</v>
+      </c>
+      <c r="O346" t="n">
+        <v>44</v>
+      </c>
+      <c r="P346" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>56</v>
+      </c>
+      <c r="R346" t="n">
+        <v>58</v>
+      </c>
+      <c r="S346" t="n">
+        <v>62</v>
+      </c>
+      <c r="T346" t="n">
+        <v>64</v>
+      </c>
+      <c r="U346" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>4</v>
+      </c>
+      <c r="C347" t="n">
+        <v>8</v>
+      </c>
+      <c r="D347" t="n">
+        <v>11</v>
+      </c>
+      <c r="E347" t="n">
+        <v>14</v>
+      </c>
+      <c r="F347" t="n">
+        <v>17</v>
+      </c>
+      <c r="G347" t="n">
+        <v>19</v>
+      </c>
+      <c r="H347" t="n">
+        <v>22</v>
+      </c>
+      <c r="I347" t="n">
+        <v>32</v>
+      </c>
+      <c r="J347" t="n">
+        <v>35</v>
+      </c>
+      <c r="K347" t="n">
+        <v>41</v>
+      </c>
+      <c r="L347" t="n">
+        <v>42</v>
+      </c>
+      <c r="M347" t="n">
+        <v>44</v>
+      </c>
+      <c r="N347" t="n">
+        <v>51</v>
+      </c>
+      <c r="O347" t="n">
+        <v>55</v>
+      </c>
+      <c r="P347" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>62</v>
+      </c>
+      <c r="R347" t="n">
+        <v>64</v>
+      </c>
+      <c r="S347" t="n">
+        <v>69</v>
+      </c>
+      <c r="T347" t="n">
+        <v>70</v>
+      </c>
+      <c r="U347" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2</v>
+      </c>
+      <c r="D348" t="n">
+        <v>10</v>
+      </c>
+      <c r="E348" t="n">
+        <v>12</v>
+      </c>
+      <c r="F348" t="n">
+        <v>13</v>
+      </c>
+      <c r="G348" t="n">
+        <v>15</v>
+      </c>
+      <c r="H348" t="n">
+        <v>18</v>
+      </c>
+      <c r="I348" t="n">
+        <v>23</v>
+      </c>
+      <c r="J348" t="n">
+        <v>31</v>
+      </c>
+      <c r="K348" t="n">
+        <v>33</v>
+      </c>
+      <c r="L348" t="n">
+        <v>35</v>
+      </c>
+      <c r="M348" t="n">
+        <v>41</v>
+      </c>
+      <c r="N348" t="n">
+        <v>43</v>
+      </c>
+      <c r="O348" t="n">
+        <v>46</v>
+      </c>
+      <c r="P348" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>50</v>
+      </c>
+      <c r="R348" t="n">
+        <v>52</v>
+      </c>
+      <c r="S348" t="n">
+        <v>57</v>
+      </c>
+      <c r="T348" t="n">
+        <v>65</v>
+      </c>
+      <c r="U348" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>8</v>
+      </c>
+      <c r="C349" t="n">
+        <v>11</v>
+      </c>
+      <c r="D349" t="n">
+        <v>12</v>
+      </c>
+      <c r="E349" t="n">
+        <v>13</v>
+      </c>
+      <c r="F349" t="n">
+        <v>18</v>
+      </c>
+      <c r="G349" t="n">
+        <v>20</v>
+      </c>
+      <c r="H349" t="n">
+        <v>24</v>
+      </c>
+      <c r="I349" t="n">
+        <v>33</v>
+      </c>
+      <c r="J349" t="n">
+        <v>35</v>
+      </c>
+      <c r="K349" t="n">
+        <v>38</v>
+      </c>
+      <c r="L349" t="n">
+        <v>39</v>
+      </c>
+      <c r="M349" t="n">
+        <v>44</v>
+      </c>
+      <c r="N349" t="n">
+        <v>45</v>
+      </c>
+      <c r="O349" t="n">
+        <v>54</v>
+      </c>
+      <c r="P349" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>61</v>
+      </c>
+      <c r="R349" t="n">
+        <v>64</v>
+      </c>
+      <c r="S349" t="n">
+        <v>66</v>
+      </c>
+      <c r="T349" t="n">
+        <v>70</v>
+      </c>
+      <c r="U349" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+      <c r="C350" t="n">
+        <v>8</v>
+      </c>
+      <c r="D350" t="n">
+        <v>9</v>
+      </c>
+      <c r="E350" t="n">
+        <v>16</v>
+      </c>
+      <c r="F350" t="n">
+        <v>17</v>
+      </c>
+      <c r="G350" t="n">
+        <v>19</v>
+      </c>
+      <c r="H350" t="n">
+        <v>24</v>
+      </c>
+      <c r="I350" t="n">
+        <v>34</v>
+      </c>
+      <c r="J350" t="n">
+        <v>38</v>
+      </c>
+      <c r="K350" t="n">
+        <v>39</v>
+      </c>
+      <c r="L350" t="n">
+        <v>52</v>
+      </c>
+      <c r="M350" t="n">
+        <v>53</v>
+      </c>
+      <c r="N350" t="n">
+        <v>59</v>
+      </c>
+      <c r="O350" t="n">
+        <v>60</v>
+      </c>
+      <c r="P350" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>63</v>
+      </c>
+      <c r="R350" t="n">
+        <v>67</v>
+      </c>
+      <c r="S350" t="n">
+        <v>68</v>
+      </c>
+      <c r="T350" t="n">
+        <v>77</v>
+      </c>
+      <c r="U350" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2</v>
+      </c>
+      <c r="D351" t="n">
+        <v>15</v>
+      </c>
+      <c r="E351" t="n">
+        <v>20</v>
+      </c>
+      <c r="F351" t="n">
+        <v>27</v>
+      </c>
+      <c r="G351" t="n">
+        <v>35</v>
+      </c>
+      <c r="H351" t="n">
+        <v>41</v>
+      </c>
+      <c r="I351" t="n">
+        <v>45</v>
+      </c>
+      <c r="J351" t="n">
+        <v>46</v>
+      </c>
+      <c r="K351" t="n">
+        <v>47</v>
+      </c>
+      <c r="L351" t="n">
+        <v>48</v>
+      </c>
+      <c r="M351" t="n">
+        <v>50</v>
+      </c>
+      <c r="N351" t="n">
+        <v>55</v>
+      </c>
+      <c r="O351" t="n">
+        <v>59</v>
+      </c>
+      <c r="P351" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>63</v>
+      </c>
+      <c r="R351" t="n">
+        <v>64</v>
+      </c>
+      <c r="S351" t="n">
+        <v>70</v>
+      </c>
+      <c r="T351" t="n">
+        <v>71</v>
+      </c>
+      <c r="U351" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>8</v>
+      </c>
+      <c r="C352" t="n">
+        <v>14</v>
+      </c>
+      <c r="D352" t="n">
+        <v>17</v>
+      </c>
+      <c r="E352" t="n">
+        <v>18</v>
+      </c>
+      <c r="F352" t="n">
+        <v>26</v>
+      </c>
+      <c r="G352" t="n">
+        <v>30</v>
+      </c>
+      <c r="H352" t="n">
+        <v>38</v>
+      </c>
+      <c r="I352" t="n">
+        <v>41</v>
+      </c>
+      <c r="J352" t="n">
+        <v>43</v>
+      </c>
+      <c r="K352" t="n">
+        <v>47</v>
+      </c>
+      <c r="L352" t="n">
+        <v>51</v>
+      </c>
+      <c r="M352" t="n">
+        <v>53</v>
+      </c>
+      <c r="N352" t="n">
+        <v>56</v>
+      </c>
+      <c r="O352" t="n">
+        <v>58</v>
+      </c>
+      <c r="P352" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>64</v>
+      </c>
+      <c r="R352" t="n">
+        <v>72</v>
+      </c>
+      <c r="S352" t="n">
+        <v>74</v>
+      </c>
+      <c r="T352" t="n">
+        <v>78</v>
+      </c>
+      <c r="U352" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+      <c r="C353" t="n">
+        <v>5</v>
+      </c>
+      <c r="D353" t="n">
+        <v>16</v>
+      </c>
+      <c r="E353" t="n">
+        <v>18</v>
+      </c>
+      <c r="F353" t="n">
+        <v>19</v>
+      </c>
+      <c r="G353" t="n">
+        <v>28</v>
+      </c>
+      <c r="H353" t="n">
+        <v>33</v>
+      </c>
+      <c r="I353" t="n">
+        <v>34</v>
+      </c>
+      <c r="J353" t="n">
+        <v>46</v>
+      </c>
+      <c r="K353" t="n">
+        <v>54</v>
+      </c>
+      <c r="L353" t="n">
+        <v>57</v>
+      </c>
+      <c r="M353" t="n">
+        <v>61</v>
+      </c>
+      <c r="N353" t="n">
+        <v>64</v>
+      </c>
+      <c r="O353" t="n">
+        <v>65</v>
+      </c>
+      <c r="P353" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>73</v>
+      </c>
+      <c r="R353" t="n">
+        <v>75</v>
+      </c>
+      <c r="S353" t="n">
+        <v>77</v>
+      </c>
+      <c r="T353" t="n">
+        <v>78</v>
+      </c>
+      <c r="U353" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>5</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6</v>
+      </c>
+      <c r="D354" t="n">
+        <v>9</v>
+      </c>
+      <c r="E354" t="n">
+        <v>14</v>
+      </c>
+      <c r="F354" t="n">
+        <v>17</v>
+      </c>
+      <c r="G354" t="n">
+        <v>19</v>
+      </c>
+      <c r="H354" t="n">
+        <v>24</v>
+      </c>
+      <c r="I354" t="n">
+        <v>25</v>
+      </c>
+      <c r="J354" t="n">
+        <v>26</v>
+      </c>
+      <c r="K354" t="n">
+        <v>40</v>
+      </c>
+      <c r="L354" t="n">
+        <v>58</v>
+      </c>
+      <c r="M354" t="n">
+        <v>59</v>
+      </c>
+      <c r="N354" t="n">
+        <v>60</v>
+      </c>
+      <c r="O354" t="n">
+        <v>62</v>
+      </c>
+      <c r="P354" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>65</v>
+      </c>
+      <c r="R354" t="n">
+        <v>67</v>
+      </c>
+      <c r="S354" t="n">
+        <v>75</v>
+      </c>
+      <c r="T354" t="n">
+        <v>78</v>
+      </c>
+      <c r="U354" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+      <c r="C355" t="n">
+        <v>3</v>
+      </c>
+      <c r="D355" t="n">
+        <v>4</v>
+      </c>
+      <c r="E355" t="n">
+        <v>6</v>
+      </c>
+      <c r="F355" t="n">
+        <v>11</v>
+      </c>
+      <c r="G355" t="n">
+        <v>15</v>
+      </c>
+      <c r="H355" t="n">
+        <v>18</v>
+      </c>
+      <c r="I355" t="n">
+        <v>19</v>
+      </c>
+      <c r="J355" t="n">
+        <v>35</v>
+      </c>
+      <c r="K355" t="n">
+        <v>51</v>
+      </c>
+      <c r="L355" t="n">
+        <v>52</v>
+      </c>
+      <c r="M355" t="n">
+        <v>53</v>
+      </c>
+      <c r="N355" t="n">
+        <v>57</v>
+      </c>
+      <c r="O355" t="n">
+        <v>58</v>
+      </c>
+      <c r="P355" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>62</v>
+      </c>
+      <c r="R355" t="n">
+        <v>65</v>
+      </c>
+      <c r="S355" t="n">
+        <v>69</v>
+      </c>
+      <c r="T355" t="n">
+        <v>74</v>
+      </c>
+      <c r="U355" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>5</v>
+      </c>
+      <c r="C356" t="n">
+        <v>7</v>
+      </c>
+      <c r="D356" t="n">
+        <v>23</v>
+      </c>
+      <c r="E356" t="n">
+        <v>24</v>
+      </c>
+      <c r="F356" t="n">
+        <v>27</v>
+      </c>
+      <c r="G356" t="n">
+        <v>28</v>
+      </c>
+      <c r="H356" t="n">
+        <v>31</v>
+      </c>
+      <c r="I356" t="n">
+        <v>33</v>
+      </c>
+      <c r="J356" t="n">
+        <v>37</v>
+      </c>
+      <c r="K356" t="n">
+        <v>38</v>
+      </c>
+      <c r="L356" t="n">
+        <v>40</v>
+      </c>
+      <c r="M356" t="n">
+        <v>43</v>
+      </c>
+      <c r="N356" t="n">
+        <v>46</v>
+      </c>
+      <c r="O356" t="n">
+        <v>55</v>
+      </c>
+      <c r="P356" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>72</v>
+      </c>
+      <c r="R356" t="n">
+        <v>73</v>
+      </c>
+      <c r="S356" t="n">
+        <v>75</v>
+      </c>
+      <c r="T356" t="n">
+        <v>77</v>
+      </c>
+      <c r="U356" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>6</v>
+      </c>
+      <c r="E357" t="n">
+        <v>10</v>
+      </c>
+      <c r="F357" t="n">
+        <v>12</v>
+      </c>
+      <c r="G357" t="n">
+        <v>21</v>
+      </c>
+      <c r="H357" t="n">
+        <v>24</v>
+      </c>
+      <c r="I357" t="n">
+        <v>34</v>
+      </c>
+      <c r="J357" t="n">
+        <v>52</v>
+      </c>
+      <c r="K357" t="n">
+        <v>53</v>
+      </c>
+      <c r="L357" t="n">
+        <v>54</v>
+      </c>
+      <c r="M357" t="n">
+        <v>55</v>
+      </c>
+      <c r="N357" t="n">
+        <v>56</v>
+      </c>
+      <c r="O357" t="n">
+        <v>57</v>
+      </c>
+      <c r="P357" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>65</v>
+      </c>
+      <c r="R357" t="n">
+        <v>67</v>
+      </c>
+      <c r="S357" t="n">
+        <v>75</v>
+      </c>
+      <c r="T357" t="n">
+        <v>77</v>
+      </c>
+      <c r="U357" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2</v>
+      </c>
+      <c r="D358" t="n">
+        <v>6</v>
+      </c>
+      <c r="E358" t="n">
+        <v>8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>10</v>
+      </c>
+      <c r="G358" t="n">
+        <v>11</v>
+      </c>
+      <c r="H358" t="n">
+        <v>16</v>
+      </c>
+      <c r="I358" t="n">
+        <v>20</v>
+      </c>
+      <c r="J358" t="n">
+        <v>23</v>
+      </c>
+      <c r="K358" t="n">
+        <v>32</v>
+      </c>
+      <c r="L358" t="n">
+        <v>40</v>
+      </c>
+      <c r="M358" t="n">
+        <v>41</v>
+      </c>
+      <c r="N358" t="n">
+        <v>49</v>
+      </c>
+      <c r="O358" t="n">
+        <v>53</v>
+      </c>
+      <c r="P358" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>60</v>
+      </c>
+      <c r="R358" t="n">
+        <v>68</v>
+      </c>
+      <c r="S358" t="n">
+        <v>72</v>
+      </c>
+      <c r="T358" t="n">
+        <v>73</v>
+      </c>
+      <c r="U358" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4</v>
+      </c>
+      <c r="C359" t="n">
+        <v>20</v>
+      </c>
+      <c r="D359" t="n">
+        <v>25</v>
+      </c>
+      <c r="E359" t="n">
+        <v>27</v>
+      </c>
+      <c r="F359" t="n">
+        <v>31</v>
+      </c>
+      <c r="G359" t="n">
+        <v>33</v>
+      </c>
+      <c r="H359" t="n">
+        <v>36</v>
+      </c>
+      <c r="I359" t="n">
+        <v>40</v>
+      </c>
+      <c r="J359" t="n">
+        <v>42</v>
+      </c>
+      <c r="K359" t="n">
+        <v>44</v>
+      </c>
+      <c r="L359" t="n">
+        <v>45</v>
+      </c>
+      <c r="M359" t="n">
+        <v>46</v>
+      </c>
+      <c r="N359" t="n">
+        <v>47</v>
+      </c>
+      <c r="O359" t="n">
+        <v>49</v>
+      </c>
+      <c r="P359" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>67</v>
+      </c>
+      <c r="R359" t="n">
+        <v>70</v>
+      </c>
+      <c r="S359" t="n">
+        <v>72</v>
+      </c>
+      <c r="T359" t="n">
+        <v>75</v>
+      </c>
+      <c r="U359" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+      <c r="C360" t="n">
+        <v>3</v>
+      </c>
+      <c r="D360" t="n">
+        <v>8</v>
+      </c>
+      <c r="E360" t="n">
+        <v>11</v>
+      </c>
+      <c r="F360" t="n">
+        <v>12</v>
+      </c>
+      <c r="G360" t="n">
+        <v>15</v>
+      </c>
+      <c r="H360" t="n">
+        <v>17</v>
+      </c>
+      <c r="I360" t="n">
+        <v>23</v>
+      </c>
+      <c r="J360" t="n">
+        <v>25</v>
+      </c>
+      <c r="K360" t="n">
+        <v>27</v>
+      </c>
+      <c r="L360" t="n">
+        <v>31</v>
+      </c>
+      <c r="M360" t="n">
+        <v>38</v>
+      </c>
+      <c r="N360" t="n">
+        <v>48</v>
+      </c>
+      <c r="O360" t="n">
+        <v>51</v>
+      </c>
+      <c r="P360" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>58</v>
+      </c>
+      <c r="R360" t="n">
+        <v>63</v>
+      </c>
+      <c r="S360" t="n">
+        <v>67</v>
+      </c>
+      <c r="T360" t="n">
+        <v>72</v>
+      </c>
+      <c r="U360" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>5</v>
+      </c>
+      <c r="C361" t="n">
+        <v>6</v>
+      </c>
+      <c r="D361" t="n">
+        <v>9</v>
+      </c>
+      <c r="E361" t="n">
+        <v>15</v>
+      </c>
+      <c r="F361" t="n">
+        <v>21</v>
+      </c>
+      <c r="G361" t="n">
+        <v>33</v>
+      </c>
+      <c r="H361" t="n">
+        <v>36</v>
+      </c>
+      <c r="I361" t="n">
+        <v>40</v>
+      </c>
+      <c r="J361" t="n">
+        <v>41</v>
+      </c>
+      <c r="K361" t="n">
+        <v>43</v>
+      </c>
+      <c r="L361" t="n">
+        <v>47</v>
+      </c>
+      <c r="M361" t="n">
+        <v>48</v>
+      </c>
+      <c r="N361" t="n">
+        <v>52</v>
+      </c>
+      <c r="O361" t="n">
+        <v>53</v>
+      </c>
+      <c r="P361" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>59</v>
+      </c>
+      <c r="R361" t="n">
+        <v>60</v>
+      </c>
+      <c r="S361" t="n">
+        <v>69</v>
+      </c>
+      <c r="T361" t="n">
+        <v>78</v>
+      </c>
+      <c r="U361" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3</v>
+      </c>
+      <c r="C362" t="n">
+        <v>10</v>
+      </c>
+      <c r="D362" t="n">
+        <v>11</v>
+      </c>
+      <c r="E362" t="n">
+        <v>15</v>
+      </c>
+      <c r="F362" t="n">
+        <v>24</v>
+      </c>
+      <c r="G362" t="n">
+        <v>29</v>
+      </c>
+      <c r="H362" t="n">
+        <v>33</v>
+      </c>
+      <c r="I362" t="n">
+        <v>34</v>
+      </c>
+      <c r="J362" t="n">
+        <v>35</v>
+      </c>
+      <c r="K362" t="n">
+        <v>38</v>
+      </c>
+      <c r="L362" t="n">
+        <v>40</v>
+      </c>
+      <c r="M362" t="n">
+        <v>43</v>
+      </c>
+      <c r="N362" t="n">
+        <v>47</v>
+      </c>
+      <c r="O362" t="n">
+        <v>56</v>
+      </c>
+      <c r="P362" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>62</v>
+      </c>
+      <c r="R362" t="n">
+        <v>64</v>
+      </c>
+      <c r="S362" t="n">
+        <v>70</v>
+      </c>
+      <c r="T362" t="n">
+        <v>71</v>
+      </c>
+      <c r="U362" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>4</v>
+      </c>
+      <c r="C363" t="n">
+        <v>6</v>
+      </c>
+      <c r="D363" t="n">
+        <v>10</v>
+      </c>
+      <c r="E363" t="n">
+        <v>17</v>
+      </c>
+      <c r="F363" t="n">
+        <v>20</v>
+      </c>
+      <c r="G363" t="n">
+        <v>22</v>
+      </c>
+      <c r="H363" t="n">
+        <v>24</v>
+      </c>
+      <c r="I363" t="n">
+        <v>25</v>
+      </c>
+      <c r="J363" t="n">
+        <v>29</v>
+      </c>
+      <c r="K363" t="n">
+        <v>36</v>
+      </c>
+      <c r="L363" t="n">
+        <v>38</v>
+      </c>
+      <c r="M363" t="n">
+        <v>43</v>
+      </c>
+      <c r="N363" t="n">
+        <v>47</v>
+      </c>
+      <c r="O363" t="n">
+        <v>49</v>
+      </c>
+      <c r="P363" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>51</v>
+      </c>
+      <c r="R363" t="n">
+        <v>58</v>
+      </c>
+      <c r="S363" t="n">
+        <v>61</v>
+      </c>
+      <c r="T363" t="n">
+        <v>63</v>
+      </c>
+      <c r="U363" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3</v>
+      </c>
+      <c r="C364" t="n">
+        <v>6</v>
+      </c>
+      <c r="D364" t="n">
+        <v>9</v>
+      </c>
+      <c r="E364" t="n">
+        <v>11</v>
+      </c>
+      <c r="F364" t="n">
+        <v>14</v>
+      </c>
+      <c r="G364" t="n">
+        <v>16</v>
+      </c>
+      <c r="H364" t="n">
+        <v>17</v>
+      </c>
+      <c r="I364" t="n">
+        <v>19</v>
+      </c>
+      <c r="J364" t="n">
+        <v>21</v>
+      </c>
+      <c r="K364" t="n">
+        <v>26</v>
+      </c>
+      <c r="L364" t="n">
+        <v>34</v>
+      </c>
+      <c r="M364" t="n">
+        <v>41</v>
+      </c>
+      <c r="N364" t="n">
+        <v>48</v>
+      </c>
+      <c r="O364" t="n">
+        <v>51</v>
+      </c>
+      <c r="P364" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>63</v>
+      </c>
+      <c r="R364" t="n">
+        <v>69</v>
+      </c>
+      <c r="S364" t="n">
+        <v>71</v>
+      </c>
+      <c r="T364" t="n">
+        <v>74</v>
+      </c>
+      <c r="U364" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4</v>
+      </c>
+      <c r="D365" t="n">
+        <v>6</v>
+      </c>
+      <c r="E365" t="n">
+        <v>9</v>
+      </c>
+      <c r="F365" t="n">
+        <v>19</v>
+      </c>
+      <c r="G365" t="n">
+        <v>23</v>
+      </c>
+      <c r="H365" t="n">
+        <v>34</v>
+      </c>
+      <c r="I365" t="n">
+        <v>36</v>
+      </c>
+      <c r="J365" t="n">
+        <v>40</v>
+      </c>
+      <c r="K365" t="n">
+        <v>45</v>
+      </c>
+      <c r="L365" t="n">
+        <v>48</v>
+      </c>
+      <c r="M365" t="n">
+        <v>50</v>
+      </c>
+      <c r="N365" t="n">
+        <v>56</v>
+      </c>
+      <c r="O365" t="n">
+        <v>58</v>
+      </c>
+      <c r="P365" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>64</v>
+      </c>
+      <c r="R365" t="n">
+        <v>66</v>
+      </c>
+      <c r="S365" t="n">
+        <v>67</v>
+      </c>
+      <c r="T365" t="n">
+        <v>69</v>
+      </c>
+      <c r="U365" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>5</v>
+      </c>
+      <c r="C366" t="n">
+        <v>9</v>
+      </c>
+      <c r="D366" t="n">
+        <v>11</v>
+      </c>
+      <c r="E366" t="n">
+        <v>22</v>
+      </c>
+      <c r="F366" t="n">
+        <v>23</v>
+      </c>
+      <c r="G366" t="n">
+        <v>24</v>
+      </c>
+      <c r="H366" t="n">
+        <v>27</v>
+      </c>
+      <c r="I366" t="n">
+        <v>33</v>
+      </c>
+      <c r="J366" t="n">
+        <v>36</v>
+      </c>
+      <c r="K366" t="n">
+        <v>38</v>
+      </c>
+      <c r="L366" t="n">
+        <v>39</v>
+      </c>
+      <c r="M366" t="n">
+        <v>42</v>
+      </c>
+      <c r="N366" t="n">
+        <v>44</v>
+      </c>
+      <c r="O366" t="n">
+        <v>47</v>
+      </c>
+      <c r="P366" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>61</v>
+      </c>
+      <c r="R366" t="n">
+        <v>69</v>
+      </c>
+      <c r="S366" t="n">
+        <v>72</v>
+      </c>
+      <c r="T366" t="n">
+        <v>73</v>
+      </c>
+      <c r="U366" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>14</v>
+      </c>
+      <c r="C367" t="n">
+        <v>16</v>
+      </c>
+      <c r="D367" t="n">
+        <v>17</v>
+      </c>
+      <c r="E367" t="n">
+        <v>19</v>
+      </c>
+      <c r="F367" t="n">
+        <v>28</v>
+      </c>
+      <c r="G367" t="n">
+        <v>35</v>
+      </c>
+      <c r="H367" t="n">
+        <v>37</v>
+      </c>
+      <c r="I367" t="n">
+        <v>38</v>
+      </c>
+      <c r="J367" t="n">
+        <v>39</v>
+      </c>
+      <c r="K367" t="n">
+        <v>41</v>
+      </c>
+      <c r="L367" t="n">
+        <v>44</v>
+      </c>
+      <c r="M367" t="n">
+        <v>45</v>
+      </c>
+      <c r="N367" t="n">
+        <v>48</v>
+      </c>
+      <c r="O367" t="n">
+        <v>52</v>
+      </c>
+      <c r="P367" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>62</v>
+      </c>
+      <c r="R367" t="n">
+        <v>65</v>
+      </c>
+      <c r="S367" t="n">
+        <v>70</v>
+      </c>
+      <c r="T367" t="n">
+        <v>75</v>
+      </c>
+      <c r="U367" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>8</v>
+      </c>
+      <c r="C368" t="n">
+        <v>11</v>
+      </c>
+      <c r="D368" t="n">
+        <v>12</v>
+      </c>
+      <c r="E368" t="n">
+        <v>14</v>
+      </c>
+      <c r="F368" t="n">
+        <v>20</v>
+      </c>
+      <c r="G368" t="n">
+        <v>23</v>
+      </c>
+      <c r="H368" t="n">
+        <v>24</v>
+      </c>
+      <c r="I368" t="n">
+        <v>32</v>
+      </c>
+      <c r="J368" t="n">
+        <v>37</v>
+      </c>
+      <c r="K368" t="n">
+        <v>39</v>
+      </c>
+      <c r="L368" t="n">
+        <v>42</v>
+      </c>
+      <c r="M368" t="n">
+        <v>45</v>
+      </c>
+      <c r="N368" t="n">
+        <v>47</v>
+      </c>
+      <c r="O368" t="n">
+        <v>48</v>
+      </c>
+      <c r="P368" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>56</v>
+      </c>
+      <c r="R368" t="n">
+        <v>57</v>
+      </c>
+      <c r="S368" t="n">
+        <v>72</v>
+      </c>
+      <c r="T368" t="n">
+        <v>78</v>
+      </c>
+      <c r="U368" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4</v>
+      </c>
+      <c r="C369" t="n">
+        <v>7</v>
+      </c>
+      <c r="D369" t="n">
+        <v>11</v>
+      </c>
+      <c r="E369" t="n">
+        <v>16</v>
+      </c>
+      <c r="F369" t="n">
+        <v>20</v>
+      </c>
+      <c r="G369" t="n">
+        <v>21</v>
+      </c>
+      <c r="H369" t="n">
+        <v>22</v>
+      </c>
+      <c r="I369" t="n">
+        <v>28</v>
+      </c>
+      <c r="J369" t="n">
+        <v>33</v>
+      </c>
+      <c r="K369" t="n">
+        <v>37</v>
+      </c>
+      <c r="L369" t="n">
+        <v>47</v>
+      </c>
+      <c r="M369" t="n">
+        <v>51</v>
+      </c>
+      <c r="N369" t="n">
+        <v>63</v>
+      </c>
+      <c r="O369" t="n">
+        <v>64</v>
+      </c>
+      <c r="P369" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>66</v>
+      </c>
+      <c r="R369" t="n">
+        <v>67</v>
+      </c>
+      <c r="S369" t="n">
+        <v>70</v>
+      </c>
+      <c r="T369" t="n">
+        <v>71</v>
+      </c>
+      <c r="U369" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>10</v>
+      </c>
+      <c r="C370" t="n">
+        <v>11</v>
+      </c>
+      <c r="D370" t="n">
+        <v>14</v>
+      </c>
+      <c r="E370" t="n">
+        <v>16</v>
+      </c>
+      <c r="F370" t="n">
+        <v>18</v>
+      </c>
+      <c r="G370" t="n">
+        <v>24</v>
+      </c>
+      <c r="H370" t="n">
+        <v>33</v>
+      </c>
+      <c r="I370" t="n">
+        <v>34</v>
+      </c>
+      <c r="J370" t="n">
+        <v>38</v>
+      </c>
+      <c r="K370" t="n">
+        <v>39</v>
+      </c>
+      <c r="L370" t="n">
+        <v>42</v>
+      </c>
+      <c r="M370" t="n">
+        <v>43</v>
+      </c>
+      <c r="N370" t="n">
+        <v>55</v>
+      </c>
+      <c r="O370" t="n">
+        <v>59</v>
+      </c>
+      <c r="P370" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>63</v>
+      </c>
+      <c r="R370" t="n">
+        <v>64</v>
+      </c>
+      <c r="S370" t="n">
+        <v>67</v>
+      </c>
+      <c r="T370" t="n">
+        <v>68</v>
+      </c>
+      <c r="U370" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+      <c r="C371" t="n">
+        <v>4</v>
+      </c>
+      <c r="D371" t="n">
+        <v>5</v>
+      </c>
+      <c r="E371" t="n">
+        <v>6</v>
+      </c>
+      <c r="F371" t="n">
+        <v>13</v>
+      </c>
+      <c r="G371" t="n">
+        <v>15</v>
+      </c>
+      <c r="H371" t="n">
+        <v>23</v>
+      </c>
+      <c r="I371" t="n">
+        <v>26</v>
+      </c>
+      <c r="J371" t="n">
+        <v>28</v>
+      </c>
+      <c r="K371" t="n">
+        <v>35</v>
+      </c>
+      <c r="L371" t="n">
+        <v>37</v>
+      </c>
+      <c r="M371" t="n">
+        <v>39</v>
+      </c>
+      <c r="N371" t="n">
+        <v>44</v>
+      </c>
+      <c r="O371" t="n">
+        <v>59</v>
+      </c>
+      <c r="P371" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>64</v>
+      </c>
+      <c r="R371" t="n">
+        <v>66</v>
+      </c>
+      <c r="S371" t="n">
+        <v>69</v>
+      </c>
+      <c r="T371" t="n">
+        <v>70</v>
+      </c>
+      <c r="U371" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2</v>
+      </c>
+      <c r="C372" t="n">
+        <v>12</v>
+      </c>
+      <c r="D372" t="n">
+        <v>16</v>
+      </c>
+      <c r="E372" t="n">
+        <v>19</v>
+      </c>
+      <c r="F372" t="n">
+        <v>24</v>
+      </c>
+      <c r="G372" t="n">
+        <v>27</v>
+      </c>
+      <c r="H372" t="n">
+        <v>36</v>
+      </c>
+      <c r="I372" t="n">
+        <v>42</v>
+      </c>
+      <c r="J372" t="n">
+        <v>44</v>
+      </c>
+      <c r="K372" t="n">
+        <v>49</v>
+      </c>
+      <c r="L372" t="n">
+        <v>54</v>
+      </c>
+      <c r="M372" t="n">
+        <v>55</v>
+      </c>
+      <c r="N372" t="n">
+        <v>56</v>
+      </c>
+      <c r="O372" t="n">
+        <v>58</v>
+      </c>
+      <c r="P372" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>64</v>
+      </c>
+      <c r="R372" t="n">
+        <v>67</v>
+      </c>
+      <c r="S372" t="n">
+        <v>69</v>
+      </c>
+      <c r="T372" t="n">
+        <v>74</v>
+      </c>
+      <c r="U372" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2</v>
+      </c>
+      <c r="D373" t="n">
+        <v>9</v>
+      </c>
+      <c r="E373" t="n">
+        <v>17</v>
+      </c>
+      <c r="F373" t="n">
+        <v>18</v>
+      </c>
+      <c r="G373" t="n">
+        <v>19</v>
+      </c>
+      <c r="H373" t="n">
+        <v>23</v>
+      </c>
+      <c r="I373" t="n">
+        <v>27</v>
+      </c>
+      <c r="J373" t="n">
+        <v>30</v>
+      </c>
+      <c r="K373" t="n">
+        <v>36</v>
+      </c>
+      <c r="L373" t="n">
+        <v>42</v>
+      </c>
+      <c r="M373" t="n">
+        <v>48</v>
+      </c>
+      <c r="N373" t="n">
+        <v>49</v>
+      </c>
+      <c r="O373" t="n">
+        <v>54</v>
+      </c>
+      <c r="P373" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>59</v>
+      </c>
+      <c r="R373" t="n">
+        <v>62</v>
+      </c>
+      <c r="S373" t="n">
+        <v>65</v>
+      </c>
+      <c r="T373" t="n">
+        <v>66</v>
+      </c>
+      <c r="U373" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2</v>
+      </c>
+      <c r="C374" t="n">
+        <v>3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>6</v>
+      </c>
+      <c r="E374" t="n">
+        <v>8</v>
+      </c>
+      <c r="F374" t="n">
+        <v>11</v>
+      </c>
+      <c r="G374" t="n">
+        <v>12</v>
+      </c>
+      <c r="H374" t="n">
+        <v>17</v>
+      </c>
+      <c r="I374" t="n">
+        <v>19</v>
+      </c>
+      <c r="J374" t="n">
+        <v>24</v>
+      </c>
+      <c r="K374" t="n">
+        <v>27</v>
+      </c>
+      <c r="L374" t="n">
+        <v>28</v>
+      </c>
+      <c r="M374" t="n">
+        <v>29</v>
+      </c>
+      <c r="N374" t="n">
+        <v>37</v>
+      </c>
+      <c r="O374" t="n">
+        <v>44</v>
+      </c>
+      <c r="P374" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>57</v>
+      </c>
+      <c r="R374" t="n">
+        <v>60</v>
+      </c>
+      <c r="S374" t="n">
+        <v>73</v>
+      </c>
+      <c r="T374" t="n">
+        <v>75</v>
+      </c>
+      <c r="U374" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2</v>
+      </c>
+      <c r="D375" t="n">
+        <v>3</v>
+      </c>
+      <c r="E375" t="n">
+        <v>6</v>
+      </c>
+      <c r="F375" t="n">
+        <v>8</v>
+      </c>
+      <c r="G375" t="n">
+        <v>12</v>
+      </c>
+      <c r="H375" t="n">
+        <v>15</v>
+      </c>
+      <c r="I375" t="n">
+        <v>26</v>
+      </c>
+      <c r="J375" t="n">
+        <v>42</v>
+      </c>
+      <c r="K375" t="n">
+        <v>44</v>
+      </c>
+      <c r="L375" t="n">
+        <v>51</v>
+      </c>
+      <c r="M375" t="n">
+        <v>52</v>
+      </c>
+      <c r="N375" t="n">
+        <v>53</v>
+      </c>
+      <c r="O375" t="n">
+        <v>55</v>
+      </c>
+      <c r="P375" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>70</v>
+      </c>
+      <c r="R375" t="n">
+        <v>73</v>
+      </c>
+      <c r="S375" t="n">
+        <v>74</v>
+      </c>
+      <c r="T375" t="n">
+        <v>76</v>
+      </c>
+      <c r="U375" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>5</v>
+      </c>
+      <c r="C376" t="n">
+        <v>7</v>
+      </c>
+      <c r="D376" t="n">
+        <v>9</v>
+      </c>
+      <c r="E376" t="n">
+        <v>13</v>
+      </c>
+      <c r="F376" t="n">
+        <v>15</v>
+      </c>
+      <c r="G376" t="n">
+        <v>18</v>
+      </c>
+      <c r="H376" t="n">
+        <v>19</v>
+      </c>
+      <c r="I376" t="n">
+        <v>27</v>
+      </c>
+      <c r="J376" t="n">
+        <v>33</v>
+      </c>
+      <c r="K376" t="n">
+        <v>36</v>
+      </c>
+      <c r="L376" t="n">
+        <v>39</v>
+      </c>
+      <c r="M376" t="n">
+        <v>44</v>
+      </c>
+      <c r="N376" t="n">
+        <v>45</v>
+      </c>
+      <c r="O376" t="n">
+        <v>59</v>
+      </c>
+      <c r="P376" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>66</v>
+      </c>
+      <c r="R376" t="n">
+        <v>70</v>
+      </c>
+      <c r="S376" t="n">
+        <v>71</v>
+      </c>
+      <c r="T376" t="n">
+        <v>76</v>
+      </c>
+      <c r="U376" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>5</v>
+      </c>
+      <c r="C377" t="n">
+        <v>7</v>
+      </c>
+      <c r="D377" t="n">
+        <v>11</v>
+      </c>
+      <c r="E377" t="n">
+        <v>19</v>
+      </c>
+      <c r="F377" t="n">
+        <v>20</v>
+      </c>
+      <c r="G377" t="n">
+        <v>27</v>
+      </c>
+      <c r="H377" t="n">
+        <v>32</v>
+      </c>
+      <c r="I377" t="n">
+        <v>35</v>
+      </c>
+      <c r="J377" t="n">
+        <v>40</v>
+      </c>
+      <c r="K377" t="n">
+        <v>41</v>
+      </c>
+      <c r="L377" t="n">
+        <v>45</v>
+      </c>
+      <c r="M377" t="n">
+        <v>46</v>
+      </c>
+      <c r="N377" t="n">
+        <v>48</v>
+      </c>
+      <c r="O377" t="n">
+        <v>51</v>
+      </c>
+      <c r="P377" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>62</v>
+      </c>
+      <c r="R377" t="n">
+        <v>63</v>
+      </c>
+      <c r="S377" t="n">
+        <v>75</v>
+      </c>
+      <c r="T377" t="n">
+        <v>78</v>
+      </c>
+      <c r="U377" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2</v>
+      </c>
+      <c r="C378" t="n">
+        <v>7</v>
+      </c>
+      <c r="D378" t="n">
+        <v>12</v>
+      </c>
+      <c r="E378" t="n">
+        <v>24</v>
+      </c>
+      <c r="F378" t="n">
+        <v>31</v>
+      </c>
+      <c r="G378" t="n">
+        <v>33</v>
+      </c>
+      <c r="H378" t="n">
+        <v>37</v>
+      </c>
+      <c r="I378" t="n">
+        <v>39</v>
+      </c>
+      <c r="J378" t="n">
+        <v>40</v>
+      </c>
+      <c r="K378" t="n">
+        <v>47</v>
+      </c>
+      <c r="L378" t="n">
+        <v>48</v>
+      </c>
+      <c r="M378" t="n">
+        <v>52</v>
+      </c>
+      <c r="N378" t="n">
+        <v>56</v>
+      </c>
+      <c r="O378" t="n">
+        <v>58</v>
+      </c>
+      <c r="P378" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>68</v>
+      </c>
+      <c r="R378" t="n">
+        <v>71</v>
+      </c>
+      <c r="S378" t="n">
+        <v>74</v>
+      </c>
+      <c r="T378" t="n">
+        <v>75</v>
+      </c>
+      <c r="U378" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>6</v>
+      </c>
+      <c r="C379" t="n">
+        <v>10</v>
+      </c>
+      <c r="D379" t="n">
+        <v>22</v>
+      </c>
+      <c r="E379" t="n">
+        <v>23</v>
+      </c>
+      <c r="F379" t="n">
+        <v>26</v>
+      </c>
+      <c r="G379" t="n">
+        <v>27</v>
+      </c>
+      <c r="H379" t="n">
+        <v>29</v>
+      </c>
+      <c r="I379" t="n">
+        <v>31</v>
+      </c>
+      <c r="J379" t="n">
+        <v>34</v>
+      </c>
+      <c r="K379" t="n">
+        <v>37</v>
+      </c>
+      <c r="L379" t="n">
+        <v>38</v>
+      </c>
+      <c r="M379" t="n">
+        <v>40</v>
+      </c>
+      <c r="N379" t="n">
+        <v>49</v>
+      </c>
+      <c r="O379" t="n">
+        <v>50</v>
+      </c>
+      <c r="P379" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>60</v>
+      </c>
+      <c r="R379" t="n">
+        <v>65</v>
+      </c>
+      <c r="S379" t="n">
+        <v>66</v>
+      </c>
+      <c r="T379" t="n">
+        <v>70</v>
+      </c>
+      <c r="U379" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>6</v>
+      </c>
+      <c r="C380" t="n">
+        <v>13</v>
+      </c>
+      <c r="D380" t="n">
+        <v>15</v>
+      </c>
+      <c r="E380" t="n">
+        <v>17</v>
+      </c>
+      <c r="F380" t="n">
+        <v>23</v>
+      </c>
+      <c r="G380" t="n">
+        <v>24</v>
+      </c>
+      <c r="H380" t="n">
+        <v>26</v>
+      </c>
+      <c r="I380" t="n">
+        <v>27</v>
+      </c>
+      <c r="J380" t="n">
+        <v>30</v>
+      </c>
+      <c r="K380" t="n">
+        <v>31</v>
+      </c>
+      <c r="L380" t="n">
+        <v>33</v>
+      </c>
+      <c r="M380" t="n">
+        <v>40</v>
+      </c>
+      <c r="N380" t="n">
+        <v>45</v>
+      </c>
+      <c r="O380" t="n">
+        <v>52</v>
+      </c>
+      <c r="P380" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>58</v>
+      </c>
+      <c r="R380" t="n">
+        <v>60</v>
+      </c>
+      <c r="S380" t="n">
+        <v>61</v>
+      </c>
+      <c r="T380" t="n">
+        <v>63</v>
+      </c>
+      <c r="U380" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>6</v>
+      </c>
+      <c r="C381" t="n">
+        <v>7</v>
+      </c>
+      <c r="D381" t="n">
+        <v>9</v>
+      </c>
+      <c r="E381" t="n">
+        <v>10</v>
+      </c>
+      <c r="F381" t="n">
+        <v>11</v>
+      </c>
+      <c r="G381" t="n">
+        <v>12</v>
+      </c>
+      <c r="H381" t="n">
+        <v>20</v>
+      </c>
+      <c r="I381" t="n">
+        <v>22</v>
+      </c>
+      <c r="J381" t="n">
+        <v>23</v>
+      </c>
+      <c r="K381" t="n">
+        <v>30</v>
+      </c>
+      <c r="L381" t="n">
+        <v>31</v>
+      </c>
+      <c r="M381" t="n">
+        <v>38</v>
+      </c>
+      <c r="N381" t="n">
+        <v>40</v>
+      </c>
+      <c r="O381" t="n">
+        <v>48</v>
+      </c>
+      <c r="P381" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>53</v>
+      </c>
+      <c r="R381" t="n">
+        <v>59</v>
+      </c>
+      <c r="S381" t="n">
+        <v>72</v>
+      </c>
+      <c r="T381" t="n">
+        <v>75</v>
+      </c>
+      <c r="U381" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2</v>
+      </c>
+      <c r="D382" t="n">
+        <v>4</v>
+      </c>
+      <c r="E382" t="n">
+        <v>8</v>
+      </c>
+      <c r="F382" t="n">
+        <v>11</v>
+      </c>
+      <c r="G382" t="n">
+        <v>14</v>
+      </c>
+      <c r="H382" t="n">
+        <v>18</v>
+      </c>
+      <c r="I382" t="n">
+        <v>25</v>
+      </c>
+      <c r="J382" t="n">
+        <v>26</v>
+      </c>
+      <c r="K382" t="n">
+        <v>33</v>
+      </c>
+      <c r="L382" t="n">
+        <v>36</v>
+      </c>
+      <c r="M382" t="n">
+        <v>43</v>
+      </c>
+      <c r="N382" t="n">
+        <v>45</v>
+      </c>
+      <c r="O382" t="n">
+        <v>49</v>
+      </c>
+      <c r="P382" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>58</v>
+      </c>
+      <c r="R382" t="n">
+        <v>61</v>
+      </c>
+      <c r="S382" t="n">
+        <v>70</v>
+      </c>
+      <c r="T382" t="n">
+        <v>74</v>
+      </c>
+      <c r="U382" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>4</v>
+      </c>
+      <c r="C383" t="n">
+        <v>10</v>
+      </c>
+      <c r="D383" t="n">
+        <v>16</v>
+      </c>
+      <c r="E383" t="n">
+        <v>17</v>
+      </c>
+      <c r="F383" t="n">
+        <v>18</v>
+      </c>
+      <c r="G383" t="n">
+        <v>25</v>
+      </c>
+      <c r="H383" t="n">
+        <v>28</v>
+      </c>
+      <c r="I383" t="n">
+        <v>31</v>
+      </c>
+      <c r="J383" t="n">
+        <v>33</v>
+      </c>
+      <c r="K383" t="n">
+        <v>35</v>
+      </c>
+      <c r="L383" t="n">
+        <v>38</v>
+      </c>
+      <c r="M383" t="n">
+        <v>46</v>
+      </c>
+      <c r="N383" t="n">
+        <v>49</v>
+      </c>
+      <c r="O383" t="n">
+        <v>57</v>
+      </c>
+      <c r="P383" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>65</v>
+      </c>
+      <c r="R383" t="n">
+        <v>70</v>
+      </c>
+      <c r="S383" t="n">
+        <v>71</v>
+      </c>
+      <c r="T383" t="n">
+        <v>73</v>
+      </c>
+      <c r="U383" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+      <c r="C384" t="n">
+        <v>3</v>
+      </c>
+      <c r="D384" t="n">
+        <v>5</v>
+      </c>
+      <c r="E384" t="n">
+        <v>6</v>
+      </c>
+      <c r="F384" t="n">
+        <v>7</v>
+      </c>
+      <c r="G384" t="n">
+        <v>12</v>
+      </c>
+      <c r="H384" t="n">
+        <v>14</v>
+      </c>
+      <c r="I384" t="n">
+        <v>19</v>
+      </c>
+      <c r="J384" t="n">
+        <v>22</v>
+      </c>
+      <c r="K384" t="n">
+        <v>29</v>
+      </c>
+      <c r="L384" t="n">
+        <v>30</v>
+      </c>
+      <c r="M384" t="n">
+        <v>35</v>
+      </c>
+      <c r="N384" t="n">
+        <v>38</v>
+      </c>
+      <c r="O384" t="n">
+        <v>39</v>
+      </c>
+      <c r="P384" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>52</v>
+      </c>
+      <c r="R384" t="n">
+        <v>59</v>
+      </c>
+      <c r="S384" t="n">
+        <v>67</v>
+      </c>
+      <c r="T384" t="n">
+        <v>70</v>
+      </c>
+      <c r="U384" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2</v>
+      </c>
+      <c r="D385" t="n">
+        <v>3</v>
+      </c>
+      <c r="E385" t="n">
+        <v>8</v>
+      </c>
+      <c r="F385" t="n">
+        <v>20</v>
+      </c>
+      <c r="G385" t="n">
+        <v>21</v>
+      </c>
+      <c r="H385" t="n">
+        <v>26</v>
+      </c>
+      <c r="I385" t="n">
+        <v>27</v>
+      </c>
+      <c r="J385" t="n">
+        <v>38</v>
+      </c>
+      <c r="K385" t="n">
+        <v>39</v>
+      </c>
+      <c r="L385" t="n">
+        <v>45</v>
+      </c>
+      <c r="M385" t="n">
+        <v>53</v>
+      </c>
+      <c r="N385" t="n">
+        <v>57</v>
+      </c>
+      <c r="O385" t="n">
+        <v>59</v>
+      </c>
+      <c r="P385" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>71</v>
+      </c>
+      <c r="R385" t="n">
+        <v>72</v>
+      </c>
+      <c r="S385" t="n">
+        <v>73</v>
+      </c>
+      <c r="T385" t="n">
+        <v>74</v>
+      </c>
+      <c r="U385" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>6</v>
+      </c>
+      <c r="C386" t="n">
+        <v>9</v>
+      </c>
+      <c r="D386" t="n">
+        <v>10</v>
+      </c>
+      <c r="E386" t="n">
+        <v>12</v>
+      </c>
+      <c r="F386" t="n">
+        <v>15</v>
+      </c>
+      <c r="G386" t="n">
+        <v>17</v>
+      </c>
+      <c r="H386" t="n">
+        <v>22</v>
+      </c>
+      <c r="I386" t="n">
+        <v>25</v>
+      </c>
+      <c r="J386" t="n">
+        <v>29</v>
+      </c>
+      <c r="K386" t="n">
+        <v>41</v>
+      </c>
+      <c r="L386" t="n">
+        <v>43</v>
+      </c>
+      <c r="M386" t="n">
+        <v>54</v>
+      </c>
+      <c r="N386" t="n">
+        <v>57</v>
+      </c>
+      <c r="O386" t="n">
+        <v>63</v>
+      </c>
+      <c r="P386" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>65</v>
+      </c>
+      <c r="R386" t="n">
+        <v>75</v>
+      </c>
+      <c r="S386" t="n">
+        <v>76</v>
+      </c>
+      <c r="T386" t="n">
+        <v>78</v>
+      </c>
+      <c r="U386" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3</v>
+      </c>
+      <c r="D387" t="n">
+        <v>11</v>
+      </c>
+      <c r="E387" t="n">
+        <v>15</v>
+      </c>
+      <c r="F387" t="n">
+        <v>16</v>
+      </c>
+      <c r="G387" t="n">
+        <v>23</v>
+      </c>
+      <c r="H387" t="n">
+        <v>28</v>
+      </c>
+      <c r="I387" t="n">
+        <v>35</v>
+      </c>
+      <c r="J387" t="n">
+        <v>36</v>
+      </c>
+      <c r="K387" t="n">
+        <v>37</v>
+      </c>
+      <c r="L387" t="n">
+        <v>42</v>
+      </c>
+      <c r="M387" t="n">
+        <v>46</v>
+      </c>
+      <c r="N387" t="n">
+        <v>48</v>
+      </c>
+      <c r="O387" t="n">
+        <v>53</v>
+      </c>
+      <c r="P387" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>57</v>
+      </c>
+      <c r="R387" t="n">
+        <v>63</v>
+      </c>
+      <c r="S387" t="n">
+        <v>70</v>
+      </c>
+      <c r="T387" t="n">
+        <v>74</v>
+      </c>
+      <c r="U387" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>5</v>
+      </c>
+      <c r="C388" t="n">
+        <v>8</v>
+      </c>
+      <c r="D388" t="n">
+        <v>11</v>
+      </c>
+      <c r="E388" t="n">
+        <v>15</v>
+      </c>
+      <c r="F388" t="n">
+        <v>25</v>
+      </c>
+      <c r="G388" t="n">
+        <v>28</v>
+      </c>
+      <c r="H388" t="n">
+        <v>32</v>
+      </c>
+      <c r="I388" t="n">
+        <v>35</v>
+      </c>
+      <c r="J388" t="n">
+        <v>41</v>
+      </c>
+      <c r="K388" t="n">
+        <v>47</v>
+      </c>
+      <c r="L388" t="n">
+        <v>58</v>
+      </c>
+      <c r="M388" t="n">
+        <v>60</v>
+      </c>
+      <c r="N388" t="n">
+        <v>66</v>
+      </c>
+      <c r="O388" t="n">
+        <v>67</v>
+      </c>
+      <c r="P388" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>72</v>
+      </c>
+      <c r="R388" t="n">
+        <v>73</v>
+      </c>
+      <c r="S388" t="n">
+        <v>74</v>
+      </c>
+      <c r="T388" t="n">
+        <v>78</v>
+      </c>
+      <c r="U388" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2</v>
+      </c>
+      <c r="D389" t="n">
+        <v>7</v>
+      </c>
+      <c r="E389" t="n">
+        <v>8</v>
+      </c>
+      <c r="F389" t="n">
+        <v>9</v>
+      </c>
+      <c r="G389" t="n">
+        <v>15</v>
+      </c>
+      <c r="H389" t="n">
+        <v>19</v>
+      </c>
+      <c r="I389" t="n">
+        <v>28</v>
+      </c>
+      <c r="J389" t="n">
+        <v>40</v>
+      </c>
+      <c r="K389" t="n">
+        <v>47</v>
+      </c>
+      <c r="L389" t="n">
+        <v>48</v>
+      </c>
+      <c r="M389" t="n">
+        <v>49</v>
+      </c>
+      <c r="N389" t="n">
+        <v>50</v>
+      </c>
+      <c r="O389" t="n">
+        <v>52</v>
+      </c>
+      <c r="P389" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>64</v>
+      </c>
+      <c r="R389" t="n">
+        <v>70</v>
+      </c>
+      <c r="S389" t="n">
+        <v>73</v>
+      </c>
+      <c r="T389" t="n">
+        <v>77</v>
+      </c>
+      <c r="U389" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>5</v>
+      </c>
+      <c r="C390" t="n">
+        <v>7</v>
+      </c>
+      <c r="D390" t="n">
+        <v>11</v>
+      </c>
+      <c r="E390" t="n">
+        <v>17</v>
+      </c>
+      <c r="F390" t="n">
+        <v>20</v>
+      </c>
+      <c r="G390" t="n">
+        <v>22</v>
+      </c>
+      <c r="H390" t="n">
+        <v>31</v>
+      </c>
+      <c r="I390" t="n">
+        <v>36</v>
+      </c>
+      <c r="J390" t="n">
+        <v>37</v>
+      </c>
+      <c r="K390" t="n">
+        <v>38</v>
+      </c>
+      <c r="L390" t="n">
+        <v>40</v>
+      </c>
+      <c r="M390" t="n">
+        <v>43</v>
+      </c>
+      <c r="N390" t="n">
+        <v>48</v>
+      </c>
+      <c r="O390" t="n">
+        <v>50</v>
+      </c>
+      <c r="P390" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>54</v>
+      </c>
+      <c r="R390" t="n">
+        <v>58</v>
+      </c>
+      <c r="S390" t="n">
+        <v>66</v>
+      </c>
+      <c r="T390" t="n">
+        <v>69</v>
+      </c>
+      <c r="U390" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>3</v>
+      </c>
+      <c r="C391" t="n">
+        <v>7</v>
+      </c>
+      <c r="D391" t="n">
+        <v>8</v>
+      </c>
+      <c r="E391" t="n">
+        <v>10</v>
+      </c>
+      <c r="F391" t="n">
+        <v>16</v>
+      </c>
+      <c r="G391" t="n">
+        <v>20</v>
+      </c>
+      <c r="H391" t="n">
+        <v>24</v>
+      </c>
+      <c r="I391" t="n">
+        <v>27</v>
+      </c>
+      <c r="J391" t="n">
+        <v>31</v>
+      </c>
+      <c r="K391" t="n">
+        <v>32</v>
+      </c>
+      <c r="L391" t="n">
+        <v>33</v>
+      </c>
+      <c r="M391" t="n">
+        <v>35</v>
+      </c>
+      <c r="N391" t="n">
+        <v>43</v>
+      </c>
+      <c r="O391" t="n">
+        <v>49</v>
+      </c>
+      <c r="P391" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>65</v>
+      </c>
+      <c r="R391" t="n">
+        <v>71</v>
+      </c>
+      <c r="S391" t="n">
+        <v>72</v>
+      </c>
+      <c r="T391" t="n">
+        <v>79</v>
+      </c>
+      <c r="U391" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>4</v>
+      </c>
+      <c r="C392" t="n">
+        <v>12</v>
+      </c>
+      <c r="D392" t="n">
+        <v>15</v>
+      </c>
+      <c r="E392" t="n">
+        <v>19</v>
+      </c>
+      <c r="F392" t="n">
+        <v>20</v>
+      </c>
+      <c r="G392" t="n">
+        <v>22</v>
+      </c>
+      <c r="H392" t="n">
+        <v>25</v>
+      </c>
+      <c r="I392" t="n">
+        <v>26</v>
+      </c>
+      <c r="J392" t="n">
+        <v>27</v>
+      </c>
+      <c r="K392" t="n">
+        <v>28</v>
+      </c>
+      <c r="L392" t="n">
+        <v>34</v>
+      </c>
+      <c r="M392" t="n">
+        <v>40</v>
+      </c>
+      <c r="N392" t="n">
+        <v>45</v>
+      </c>
+      <c r="O392" t="n">
+        <v>50</v>
+      </c>
+      <c r="P392" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>66</v>
+      </c>
+      <c r="R392" t="n">
+        <v>69</v>
+      </c>
+      <c r="S392" t="n">
+        <v>70</v>
+      </c>
+      <c r="T392" t="n">
+        <v>75</v>
+      </c>
+      <c r="U392" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>3</v>
+      </c>
+      <c r="C393" t="n">
+        <v>12</v>
+      </c>
+      <c r="D393" t="n">
+        <v>13</v>
+      </c>
+      <c r="E393" t="n">
+        <v>14</v>
+      </c>
+      <c r="F393" t="n">
+        <v>15</v>
+      </c>
+      <c r="G393" t="n">
+        <v>19</v>
+      </c>
+      <c r="H393" t="n">
+        <v>21</v>
+      </c>
+      <c r="I393" t="n">
+        <v>31</v>
+      </c>
+      <c r="J393" t="n">
+        <v>33</v>
+      </c>
+      <c r="K393" t="n">
+        <v>34</v>
+      </c>
+      <c r="L393" t="n">
+        <v>46</v>
+      </c>
+      <c r="M393" t="n">
+        <v>48</v>
+      </c>
+      <c r="N393" t="n">
+        <v>51</v>
+      </c>
+      <c r="O393" t="n">
+        <v>59</v>
+      </c>
+      <c r="P393" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>66</v>
+      </c>
+      <c r="R393" t="n">
+        <v>68</v>
+      </c>
+      <c r="S393" t="n">
+        <v>74</v>
+      </c>
+      <c r="T393" t="n">
+        <v>78</v>
+      </c>
+      <c r="U393" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>5</v>
+      </c>
+      <c r="C394" t="n">
+        <v>8</v>
+      </c>
+      <c r="D394" t="n">
+        <v>12</v>
+      </c>
+      <c r="E394" t="n">
+        <v>14</v>
+      </c>
+      <c r="F394" t="n">
+        <v>23</v>
+      </c>
+      <c r="G394" t="n">
+        <v>24</v>
+      </c>
+      <c r="H394" t="n">
+        <v>27</v>
+      </c>
+      <c r="I394" t="n">
+        <v>32</v>
+      </c>
+      <c r="J394" t="n">
+        <v>34</v>
+      </c>
+      <c r="K394" t="n">
+        <v>36</v>
+      </c>
+      <c r="L394" t="n">
+        <v>38</v>
+      </c>
+      <c r="M394" t="n">
+        <v>49</v>
+      </c>
+      <c r="N394" t="n">
+        <v>50</v>
+      </c>
+      <c r="O394" t="n">
+        <v>51</v>
+      </c>
+      <c r="P394" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>61</v>
+      </c>
+      <c r="R394" t="n">
+        <v>64</v>
+      </c>
+      <c r="S394" t="n">
+        <v>69</v>
+      </c>
+      <c r="T394" t="n">
+        <v>76</v>
+      </c>
+      <c r="U394" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>4</v>
+      </c>
+      <c r="C395" t="n">
+        <v>7</v>
+      </c>
+      <c r="D395" t="n">
+        <v>11</v>
+      </c>
+      <c r="E395" t="n">
+        <v>15</v>
+      </c>
+      <c r="F395" t="n">
+        <v>16</v>
+      </c>
+      <c r="G395" t="n">
+        <v>18</v>
+      </c>
+      <c r="H395" t="n">
+        <v>19</v>
+      </c>
+      <c r="I395" t="n">
+        <v>26</v>
+      </c>
+      <c r="J395" t="n">
+        <v>31</v>
+      </c>
+      <c r="K395" t="n">
+        <v>36</v>
+      </c>
+      <c r="L395" t="n">
+        <v>37</v>
+      </c>
+      <c r="M395" t="n">
+        <v>39</v>
+      </c>
+      <c r="N395" t="n">
+        <v>42</v>
+      </c>
+      <c r="O395" t="n">
+        <v>43</v>
+      </c>
+      <c r="P395" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>52</v>
+      </c>
+      <c r="R395" t="n">
+        <v>55</v>
+      </c>
+      <c r="S395" t="n">
+        <v>64</v>
+      </c>
+      <c r="T395" t="n">
+        <v>66</v>
+      </c>
+      <c r="U395" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>3</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4</v>
+      </c>
+      <c r="D396" t="n">
+        <v>9</v>
+      </c>
+      <c r="E396" t="n">
+        <v>11</v>
+      </c>
+      <c r="F396" t="n">
+        <v>12</v>
+      </c>
+      <c r="G396" t="n">
+        <v>14</v>
+      </c>
+      <c r="H396" t="n">
+        <v>16</v>
+      </c>
+      <c r="I396" t="n">
+        <v>21</v>
+      </c>
+      <c r="J396" t="n">
+        <v>25</v>
+      </c>
+      <c r="K396" t="n">
+        <v>26</v>
+      </c>
+      <c r="L396" t="n">
+        <v>29</v>
+      </c>
+      <c r="M396" t="n">
+        <v>30</v>
+      </c>
+      <c r="N396" t="n">
+        <v>41</v>
+      </c>
+      <c r="O396" t="n">
+        <v>46</v>
+      </c>
+      <c r="P396" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>50</v>
+      </c>
+      <c r="R396" t="n">
+        <v>62</v>
+      </c>
+      <c r="S396" t="n">
+        <v>63</v>
+      </c>
+      <c r="T396" t="n">
+        <v>70</v>
+      </c>
+      <c r="U396" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2</v>
+      </c>
+      <c r="C397" t="n">
+        <v>9</v>
+      </c>
+      <c r="D397" t="n">
+        <v>11</v>
+      </c>
+      <c r="E397" t="n">
+        <v>15</v>
+      </c>
+      <c r="F397" t="n">
+        <v>17</v>
+      </c>
+      <c r="G397" t="n">
+        <v>18</v>
+      </c>
+      <c r="H397" t="n">
+        <v>20</v>
+      </c>
+      <c r="I397" t="n">
+        <v>24</v>
+      </c>
+      <c r="J397" t="n">
+        <v>28</v>
+      </c>
+      <c r="K397" t="n">
+        <v>35</v>
+      </c>
+      <c r="L397" t="n">
+        <v>36</v>
+      </c>
+      <c r="M397" t="n">
+        <v>42</v>
+      </c>
+      <c r="N397" t="n">
+        <v>43</v>
+      </c>
+      <c r="O397" t="n">
+        <v>50</v>
+      </c>
+      <c r="P397" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>55</v>
+      </c>
+      <c r="R397" t="n">
+        <v>57</v>
+      </c>
+      <c r="S397" t="n">
+        <v>59</v>
+      </c>
+      <c r="T397" t="n">
+        <v>65</v>
+      </c>
+      <c r="U397" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="n">
+        <v>9</v>
+      </c>
+      <c r="D398" t="n">
+        <v>13</v>
+      </c>
+      <c r="E398" t="n">
+        <v>18</v>
+      </c>
+      <c r="F398" t="n">
+        <v>25</v>
+      </c>
+      <c r="G398" t="n">
+        <v>35</v>
+      </c>
+      <c r="H398" t="n">
+        <v>36</v>
+      </c>
+      <c r="I398" t="n">
+        <v>37</v>
+      </c>
+      <c r="J398" t="n">
+        <v>44</v>
+      </c>
+      <c r="K398" t="n">
+        <v>51</v>
+      </c>
+      <c r="L398" t="n">
+        <v>53</v>
+      </c>
+      <c r="M398" t="n">
+        <v>54</v>
+      </c>
+      <c r="N398" t="n">
+        <v>58</v>
+      </c>
+      <c r="O398" t="n">
+        <v>60</v>
+      </c>
+      <c r="P398" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>65</v>
+      </c>
+      <c r="R398" t="n">
+        <v>69</v>
+      </c>
+      <c r="S398" t="n">
+        <v>74</v>
+      </c>
+      <c r="T398" t="n">
+        <v>76</v>
+      </c>
+      <c r="U398" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2</v>
+      </c>
+      <c r="C399" t="n">
+        <v>13</v>
+      </c>
+      <c r="D399" t="n">
+        <v>17</v>
+      </c>
+      <c r="E399" t="n">
+        <v>18</v>
+      </c>
+      <c r="F399" t="n">
+        <v>20</v>
+      </c>
+      <c r="G399" t="n">
+        <v>24</v>
+      </c>
+      <c r="H399" t="n">
+        <v>28</v>
+      </c>
+      <c r="I399" t="n">
+        <v>29</v>
+      </c>
+      <c r="J399" t="n">
+        <v>34</v>
+      </c>
+      <c r="K399" t="n">
+        <v>41</v>
+      </c>
+      <c r="L399" t="n">
+        <v>42</v>
+      </c>
+      <c r="M399" t="n">
+        <v>47</v>
+      </c>
+      <c r="N399" t="n">
+        <v>48</v>
+      </c>
+      <c r="O399" t="n">
+        <v>50</v>
+      </c>
+      <c r="P399" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>64</v>
+      </c>
+      <c r="R399" t="n">
+        <v>66</v>
+      </c>
+      <c r="S399" t="n">
+        <v>69</v>
+      </c>
+      <c r="T399" t="n">
+        <v>70</v>
+      </c>
+      <c r="U399" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+      <c r="C400" t="n">
+        <v>5</v>
+      </c>
+      <c r="D400" t="n">
+        <v>7</v>
+      </c>
+      <c r="E400" t="n">
+        <v>9</v>
+      </c>
+      <c r="F400" t="n">
+        <v>10</v>
+      </c>
+      <c r="G400" t="n">
+        <v>13</v>
+      </c>
+      <c r="H400" t="n">
+        <v>19</v>
+      </c>
+      <c r="I400" t="n">
+        <v>21</v>
+      </c>
+      <c r="J400" t="n">
+        <v>27</v>
+      </c>
+      <c r="K400" t="n">
+        <v>30</v>
+      </c>
+      <c r="L400" t="n">
+        <v>34</v>
+      </c>
+      <c r="M400" t="n">
+        <v>40</v>
+      </c>
+      <c r="N400" t="n">
+        <v>41</v>
+      </c>
+      <c r="O400" t="n">
+        <v>44</v>
+      </c>
+      <c r="P400" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>58</v>
+      </c>
+      <c r="R400" t="n">
+        <v>62</v>
+      </c>
+      <c r="S400" t="n">
+        <v>64</v>
+      </c>
+      <c r="T400" t="n">
+        <v>76</v>
+      </c>
+      <c r="U400" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>16</v>
+      </c>
+      <c r="C401" t="n">
+        <v>21</v>
+      </c>
+      <c r="D401" t="n">
+        <v>24</v>
+      </c>
+      <c r="E401" t="n">
+        <v>26</v>
+      </c>
+      <c r="F401" t="n">
+        <v>27</v>
+      </c>
+      <c r="G401" t="n">
+        <v>29</v>
+      </c>
+      <c r="H401" t="n">
+        <v>31</v>
+      </c>
+      <c r="I401" t="n">
+        <v>35</v>
+      </c>
+      <c r="J401" t="n">
+        <v>36</v>
+      </c>
+      <c r="K401" t="n">
+        <v>38</v>
+      </c>
+      <c r="L401" t="n">
+        <v>42</v>
+      </c>
+      <c r="M401" t="n">
+        <v>44</v>
+      </c>
+      <c r="N401" t="n">
+        <v>50</v>
+      </c>
+      <c r="O401" t="n">
+        <v>51</v>
+      </c>
+      <c r="P401" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>66</v>
+      </c>
+      <c r="R401" t="n">
+        <v>67</v>
+      </c>
+      <c r="S401" t="n">
+        <v>71</v>
+      </c>
+      <c r="T401" t="n">
+        <v>75</v>
+      </c>
+      <c r="U401" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>9</v>
+      </c>
+      <c r="C402" t="n">
+        <v>14</v>
+      </c>
+      <c r="D402" t="n">
+        <v>15</v>
+      </c>
+      <c r="E402" t="n">
+        <v>21</v>
+      </c>
+      <c r="F402" t="n">
+        <v>25</v>
+      </c>
+      <c r="G402" t="n">
+        <v>30</v>
+      </c>
+      <c r="H402" t="n">
+        <v>31</v>
+      </c>
+      <c r="I402" t="n">
+        <v>33</v>
+      </c>
+      <c r="J402" t="n">
+        <v>34</v>
+      </c>
+      <c r="K402" t="n">
+        <v>44</v>
+      </c>
+      <c r="L402" t="n">
+        <v>47</v>
+      </c>
+      <c r="M402" t="n">
+        <v>50</v>
+      </c>
+      <c r="N402" t="n">
+        <v>53</v>
+      </c>
+      <c r="O402" t="n">
+        <v>61</v>
+      </c>
+      <c r="P402" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>72</v>
+      </c>
+      <c r="R402" t="n">
+        <v>75</v>
+      </c>
+      <c r="S402" t="n">
+        <v>78</v>
+      </c>
+      <c r="T402" t="n">
+        <v>79</v>
+      </c>
+      <c r="U402" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2</v>
+      </c>
+      <c r="C403" t="n">
+        <v>3</v>
+      </c>
+      <c r="D403" t="n">
+        <v>8</v>
+      </c>
+      <c r="E403" t="n">
+        <v>16</v>
+      </c>
+      <c r="F403" t="n">
+        <v>20</v>
+      </c>
+      <c r="G403" t="n">
+        <v>30</v>
+      </c>
+      <c r="H403" t="n">
+        <v>31</v>
+      </c>
+      <c r="I403" t="n">
+        <v>33</v>
+      </c>
+      <c r="J403" t="n">
+        <v>38</v>
+      </c>
+      <c r="K403" t="n">
+        <v>43</v>
+      </c>
+      <c r="L403" t="n">
+        <v>45</v>
+      </c>
+      <c r="M403" t="n">
+        <v>46</v>
+      </c>
+      <c r="N403" t="n">
+        <v>49</v>
+      </c>
+      <c r="O403" t="n">
+        <v>51</v>
+      </c>
+      <c r="P403" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>57</v>
+      </c>
+      <c r="R403" t="n">
+        <v>62</v>
+      </c>
+      <c r="S403" t="n">
+        <v>70</v>
+      </c>
+      <c r="T403" t="n">
+        <v>72</v>
+      </c>
+      <c r="U403" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+      <c r="C404" t="n">
+        <v>6</v>
+      </c>
+      <c r="D404" t="n">
+        <v>8</v>
+      </c>
+      <c r="E404" t="n">
+        <v>16</v>
+      </c>
+      <c r="F404" t="n">
+        <v>22</v>
+      </c>
+      <c r="G404" t="n">
+        <v>25</v>
+      </c>
+      <c r="H404" t="n">
+        <v>29</v>
+      </c>
+      <c r="I404" t="n">
+        <v>30</v>
+      </c>
+      <c r="J404" t="n">
+        <v>32</v>
+      </c>
+      <c r="K404" t="n">
+        <v>33</v>
+      </c>
+      <c r="L404" t="n">
+        <v>37</v>
+      </c>
+      <c r="M404" t="n">
+        <v>41</v>
+      </c>
+      <c r="N404" t="n">
+        <v>42</v>
+      </c>
+      <c r="O404" t="n">
+        <v>47</v>
+      </c>
+      <c r="P404" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>55</v>
+      </c>
+      <c r="R404" t="n">
+        <v>56</v>
+      </c>
+      <c r="S404" t="n">
+        <v>59</v>
+      </c>
+      <c r="T404" t="n">
+        <v>71</v>
+      </c>
+      <c r="U404" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+      <c r="C405" t="n">
+        <v>3</v>
+      </c>
+      <c r="D405" t="n">
+        <v>5</v>
+      </c>
+      <c r="E405" t="n">
+        <v>6</v>
+      </c>
+      <c r="F405" t="n">
+        <v>10</v>
+      </c>
+      <c r="G405" t="n">
+        <v>13</v>
+      </c>
+      <c r="H405" t="n">
+        <v>14</v>
+      </c>
+      <c r="I405" t="n">
+        <v>17</v>
+      </c>
+      <c r="J405" t="n">
+        <v>24</v>
+      </c>
+      <c r="K405" t="n">
+        <v>25</v>
+      </c>
+      <c r="L405" t="n">
+        <v>27</v>
+      </c>
+      <c r="M405" t="n">
+        <v>31</v>
+      </c>
+      <c r="N405" t="n">
+        <v>32</v>
+      </c>
+      <c r="O405" t="n">
+        <v>42</v>
+      </c>
+      <c r="P405" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>57</v>
+      </c>
+      <c r="R405" t="n">
+        <v>58</v>
+      </c>
+      <c r="S405" t="n">
+        <v>69</v>
+      </c>
+      <c r="T405" t="n">
+        <v>74</v>
+      </c>
+      <c r="U405" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2</v>
+      </c>
+      <c r="D406" t="n">
+        <v>12</v>
+      </c>
+      <c r="E406" t="n">
+        <v>20</v>
+      </c>
+      <c r="F406" t="n">
+        <v>29</v>
+      </c>
+      <c r="G406" t="n">
+        <v>35</v>
+      </c>
+      <c r="H406" t="n">
+        <v>36</v>
+      </c>
+      <c r="I406" t="n">
+        <v>40</v>
+      </c>
+      <c r="J406" t="n">
+        <v>41</v>
+      </c>
+      <c r="K406" t="n">
+        <v>43</v>
+      </c>
+      <c r="L406" t="n">
+        <v>46</v>
+      </c>
+      <c r="M406" t="n">
+        <v>48</v>
+      </c>
+      <c r="N406" t="n">
+        <v>50</v>
+      </c>
+      <c r="O406" t="n">
+        <v>52</v>
+      </c>
+      <c r="P406" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>67</v>
+      </c>
+      <c r="R406" t="n">
+        <v>68</v>
+      </c>
+      <c r="S406" t="n">
+        <v>70</v>
+      </c>
+      <c r="T406" t="n">
+        <v>72</v>
+      </c>
+      <c r="U406" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>8</v>
+      </c>
+      <c r="C407" t="n">
+        <v>17</v>
+      </c>
+      <c r="D407" t="n">
+        <v>20</v>
+      </c>
+      <c r="E407" t="n">
+        <v>22</v>
+      </c>
+      <c r="F407" t="n">
+        <v>23</v>
+      </c>
+      <c r="G407" t="n">
+        <v>29</v>
+      </c>
+      <c r="H407" t="n">
+        <v>34</v>
+      </c>
+      <c r="I407" t="n">
+        <v>36</v>
+      </c>
+      <c r="J407" t="n">
+        <v>37</v>
+      </c>
+      <c r="K407" t="n">
+        <v>50</v>
+      </c>
+      <c r="L407" t="n">
+        <v>53</v>
+      </c>
+      <c r="M407" t="n">
+        <v>56</v>
+      </c>
+      <c r="N407" t="n">
+        <v>57</v>
+      </c>
+      <c r="O407" t="n">
+        <v>60</v>
+      </c>
+      <c r="P407" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>66</v>
+      </c>
+      <c r="R407" t="n">
+        <v>71</v>
+      </c>
+      <c r="S407" t="n">
+        <v>74</v>
+      </c>
+      <c r="T407" t="n">
+        <v>76</v>
+      </c>
+      <c r="U407" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>3</v>
+      </c>
+      <c r="C408" t="n">
+        <v>5</v>
+      </c>
+      <c r="D408" t="n">
+        <v>7</v>
+      </c>
+      <c r="E408" t="n">
+        <v>9</v>
+      </c>
+      <c r="F408" t="n">
+        <v>13</v>
+      </c>
+      <c r="G408" t="n">
+        <v>16</v>
+      </c>
+      <c r="H408" t="n">
+        <v>19</v>
+      </c>
+      <c r="I408" t="n">
+        <v>20</v>
+      </c>
+      <c r="J408" t="n">
+        <v>31</v>
+      </c>
+      <c r="K408" t="n">
+        <v>32</v>
+      </c>
+      <c r="L408" t="n">
+        <v>39</v>
+      </c>
+      <c r="M408" t="n">
+        <v>40</v>
+      </c>
+      <c r="N408" t="n">
+        <v>48</v>
+      </c>
+      <c r="O408" t="n">
+        <v>55</v>
+      </c>
+      <c r="P408" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>62</v>
+      </c>
+      <c r="R408" t="n">
+        <v>68</v>
+      </c>
+      <c r="S408" t="n">
+        <v>69</v>
+      </c>
+      <c r="T408" t="n">
+        <v>75</v>
+      </c>
+      <c r="U408" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>6</v>
+      </c>
+      <c r="C409" t="n">
+        <v>12</v>
+      </c>
+      <c r="D409" t="n">
+        <v>13</v>
+      </c>
+      <c r="E409" t="n">
+        <v>14</v>
+      </c>
+      <c r="F409" t="n">
+        <v>16</v>
+      </c>
+      <c r="G409" t="n">
+        <v>17</v>
+      </c>
+      <c r="H409" t="n">
+        <v>28</v>
+      </c>
+      <c r="I409" t="n">
+        <v>30</v>
+      </c>
+      <c r="J409" t="n">
+        <v>32</v>
+      </c>
+      <c r="K409" t="n">
+        <v>35</v>
+      </c>
+      <c r="L409" t="n">
+        <v>40</v>
+      </c>
+      <c r="M409" t="n">
+        <v>42</v>
+      </c>
+      <c r="N409" t="n">
+        <v>47</v>
+      </c>
+      <c r="O409" t="n">
+        <v>53</v>
+      </c>
+      <c r="P409" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>64</v>
+      </c>
+      <c r="R409" t="n">
+        <v>66</v>
+      </c>
+      <c r="S409" t="n">
+        <v>73</v>
+      </c>
+      <c r="T409" t="n">
+        <v>75</v>
+      </c>
+      <c r="U409" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>4</v>
+      </c>
+      <c r="C410" t="n">
+        <v>5</v>
+      </c>
+      <c r="D410" t="n">
+        <v>6</v>
+      </c>
+      <c r="E410" t="n">
+        <v>7</v>
+      </c>
+      <c r="F410" t="n">
+        <v>10</v>
+      </c>
+      <c r="G410" t="n">
+        <v>12</v>
+      </c>
+      <c r="H410" t="n">
+        <v>14</v>
+      </c>
+      <c r="I410" t="n">
+        <v>26</v>
+      </c>
+      <c r="J410" t="n">
+        <v>29</v>
+      </c>
+      <c r="K410" t="n">
+        <v>34</v>
+      </c>
+      <c r="L410" t="n">
+        <v>47</v>
+      </c>
+      <c r="M410" t="n">
+        <v>48</v>
+      </c>
+      <c r="N410" t="n">
+        <v>49</v>
+      </c>
+      <c r="O410" t="n">
+        <v>51</v>
+      </c>
+      <c r="P410" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>63</v>
+      </c>
+      <c r="R410" t="n">
+        <v>68</v>
+      </c>
+      <c r="S410" t="n">
+        <v>73</v>
+      </c>
+      <c r="T410" t="n">
+        <v>79</v>
+      </c>
+      <c r="U410" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>5</v>
+      </c>
+      <c r="C411" t="n">
+        <v>6</v>
+      </c>
+      <c r="D411" t="n">
+        <v>12</v>
+      </c>
+      <c r="E411" t="n">
+        <v>16</v>
+      </c>
+      <c r="F411" t="n">
+        <v>17</v>
+      </c>
+      <c r="G411" t="n">
+        <v>21</v>
+      </c>
+      <c r="H411" t="n">
+        <v>22</v>
+      </c>
+      <c r="I411" t="n">
+        <v>23</v>
+      </c>
+      <c r="J411" t="n">
+        <v>32</v>
+      </c>
+      <c r="K411" t="n">
+        <v>36</v>
+      </c>
+      <c r="L411" t="n">
+        <v>40</v>
+      </c>
+      <c r="M411" t="n">
+        <v>42</v>
+      </c>
+      <c r="N411" t="n">
+        <v>43</v>
+      </c>
+      <c r="O411" t="n">
+        <v>45</v>
+      </c>
+      <c r="P411" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>55</v>
+      </c>
+      <c r="R411" t="n">
+        <v>67</v>
+      </c>
+      <c r="S411" t="n">
+        <v>70</v>
+      </c>
+      <c r="T411" t="n">
+        <v>73</v>
+      </c>
+      <c r="U411" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+      <c r="C412" t="n">
+        <v>5</v>
+      </c>
+      <c r="D412" t="n">
+        <v>8</v>
+      </c>
+      <c r="E412" t="n">
+        <v>14</v>
+      </c>
+      <c r="F412" t="n">
+        <v>18</v>
+      </c>
+      <c r="G412" t="n">
+        <v>20</v>
+      </c>
+      <c r="H412" t="n">
+        <v>24</v>
+      </c>
+      <c r="I412" t="n">
+        <v>27</v>
+      </c>
+      <c r="J412" t="n">
+        <v>29</v>
+      </c>
+      <c r="K412" t="n">
+        <v>36</v>
+      </c>
+      <c r="L412" t="n">
+        <v>39</v>
+      </c>
+      <c r="M412" t="n">
+        <v>45</v>
+      </c>
+      <c r="N412" t="n">
+        <v>47</v>
+      </c>
+      <c r="O412" t="n">
+        <v>64</v>
+      </c>
+      <c r="P412" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>68</v>
+      </c>
+      <c r="R412" t="n">
+        <v>70</v>
+      </c>
+      <c r="S412" t="n">
+        <v>75</v>
+      </c>
+      <c r="T412" t="n">
+        <v>76</v>
+      </c>
+      <c r="U412" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>3</v>
+      </c>
+      <c r="C413" t="n">
+        <v>4</v>
+      </c>
+      <c r="D413" t="n">
+        <v>5</v>
+      </c>
+      <c r="E413" t="n">
+        <v>19</v>
+      </c>
+      <c r="F413" t="n">
+        <v>20</v>
+      </c>
+      <c r="G413" t="n">
+        <v>32</v>
+      </c>
+      <c r="H413" t="n">
+        <v>35</v>
+      </c>
+      <c r="I413" t="n">
+        <v>37</v>
+      </c>
+      <c r="J413" t="n">
+        <v>39</v>
+      </c>
+      <c r="K413" t="n">
+        <v>44</v>
+      </c>
+      <c r="L413" t="n">
+        <v>45</v>
+      </c>
+      <c r="M413" t="n">
+        <v>48</v>
+      </c>
+      <c r="N413" t="n">
+        <v>50</v>
+      </c>
+      <c r="O413" t="n">
+        <v>55</v>
+      </c>
+      <c r="P413" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>68</v>
+      </c>
+      <c r="R413" t="n">
+        <v>69</v>
+      </c>
+      <c r="S413" t="n">
+        <v>70</v>
+      </c>
+      <c r="T413" t="n">
+        <v>71</v>
+      </c>
+      <c r="U413" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2</v>
+      </c>
+      <c r="C414" t="n">
+        <v>8</v>
+      </c>
+      <c r="D414" t="n">
+        <v>9</v>
+      </c>
+      <c r="E414" t="n">
+        <v>10</v>
+      </c>
+      <c r="F414" t="n">
+        <v>18</v>
+      </c>
+      <c r="G414" t="n">
+        <v>27</v>
+      </c>
+      <c r="H414" t="n">
+        <v>43</v>
+      </c>
+      <c r="I414" t="n">
+        <v>44</v>
+      </c>
+      <c r="J414" t="n">
+        <v>45</v>
+      </c>
+      <c r="K414" t="n">
+        <v>46</v>
+      </c>
+      <c r="L414" t="n">
+        <v>47</v>
+      </c>
+      <c r="M414" t="n">
+        <v>48</v>
+      </c>
+      <c r="N414" t="n">
+        <v>53</v>
+      </c>
+      <c r="O414" t="n">
+        <v>54</v>
+      </c>
+      <c r="P414" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>64</v>
+      </c>
+      <c r="R414" t="n">
+        <v>65</v>
+      </c>
+      <c r="S414" t="n">
+        <v>66</v>
+      </c>
+      <c r="T414" t="n">
+        <v>69</v>
+      </c>
+      <c r="U414" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>3</v>
+      </c>
+      <c r="C415" t="n">
+        <v>10</v>
+      </c>
+      <c r="D415" t="n">
+        <v>14</v>
+      </c>
+      <c r="E415" t="n">
+        <v>15</v>
+      </c>
+      <c r="F415" t="n">
+        <v>18</v>
+      </c>
+      <c r="G415" t="n">
+        <v>22</v>
+      </c>
+      <c r="H415" t="n">
+        <v>23</v>
+      </c>
+      <c r="I415" t="n">
+        <v>24</v>
+      </c>
+      <c r="J415" t="n">
+        <v>29</v>
+      </c>
+      <c r="K415" t="n">
+        <v>35</v>
+      </c>
+      <c r="L415" t="n">
+        <v>36</v>
+      </c>
+      <c r="M415" t="n">
+        <v>46</v>
+      </c>
+      <c r="N415" t="n">
+        <v>48</v>
+      </c>
+      <c r="O415" t="n">
+        <v>49</v>
+      </c>
+      <c r="P415" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>54</v>
+      </c>
+      <c r="R415" t="n">
+        <v>55</v>
+      </c>
+      <c r="S415" t="n">
+        <v>61</v>
+      </c>
+      <c r="T415" t="n">
+        <v>70</v>
+      </c>
+      <c r="U415" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>12</v>
+      </c>
+      <c r="C416" t="n">
+        <v>13</v>
+      </c>
+      <c r="D416" t="n">
+        <v>15</v>
+      </c>
+      <c r="E416" t="n">
+        <v>16</v>
+      </c>
+      <c r="F416" t="n">
+        <v>17</v>
+      </c>
+      <c r="G416" t="n">
+        <v>21</v>
+      </c>
+      <c r="H416" t="n">
+        <v>22</v>
+      </c>
+      <c r="I416" t="n">
+        <v>25</v>
+      </c>
+      <c r="J416" t="n">
+        <v>26</v>
+      </c>
+      <c r="K416" t="n">
+        <v>29</v>
+      </c>
+      <c r="L416" t="n">
+        <v>31</v>
+      </c>
+      <c r="M416" t="n">
+        <v>37</v>
+      </c>
+      <c r="N416" t="n">
+        <v>48</v>
+      </c>
+      <c r="O416" t="n">
+        <v>50</v>
+      </c>
+      <c r="P416" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>52</v>
+      </c>
+      <c r="R416" t="n">
+        <v>62</v>
+      </c>
+      <c r="S416" t="n">
+        <v>71</v>
+      </c>
+      <c r="T416" t="n">
+        <v>76</v>
+      </c>
+      <c r="U416" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>5</v>
+      </c>
+      <c r="C417" t="n">
+        <v>7</v>
+      </c>
+      <c r="D417" t="n">
+        <v>8</v>
+      </c>
+      <c r="E417" t="n">
+        <v>13</v>
+      </c>
+      <c r="F417" t="n">
+        <v>17</v>
+      </c>
+      <c r="G417" t="n">
+        <v>19</v>
+      </c>
+      <c r="H417" t="n">
+        <v>29</v>
+      </c>
+      <c r="I417" t="n">
+        <v>31</v>
+      </c>
+      <c r="J417" t="n">
+        <v>35</v>
+      </c>
+      <c r="K417" t="n">
+        <v>44</v>
+      </c>
+      <c r="L417" t="n">
+        <v>46</v>
+      </c>
+      <c r="M417" t="n">
+        <v>50</v>
+      </c>
+      <c r="N417" t="n">
+        <v>51</v>
+      </c>
+      <c r="O417" t="n">
+        <v>52</v>
+      </c>
+      <c r="P417" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>57</v>
+      </c>
+      <c r="R417" t="n">
+        <v>59</v>
+      </c>
+      <c r="S417" t="n">
+        <v>70</v>
+      </c>
+      <c r="T417" t="n">
+        <v>72</v>
+      </c>
+      <c r="U417" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+      <c r="C418" t="n">
+        <v>5</v>
+      </c>
+      <c r="D418" t="n">
+        <v>17</v>
+      </c>
+      <c r="E418" t="n">
+        <v>22</v>
+      </c>
+      <c r="F418" t="n">
+        <v>33</v>
+      </c>
+      <c r="G418" t="n">
+        <v>35</v>
+      </c>
+      <c r="H418" t="n">
+        <v>36</v>
+      </c>
+      <c r="I418" t="n">
+        <v>39</v>
+      </c>
+      <c r="J418" t="n">
+        <v>41</v>
+      </c>
+      <c r="K418" t="n">
+        <v>42</v>
+      </c>
+      <c r="L418" t="n">
+        <v>43</v>
+      </c>
+      <c r="M418" t="n">
+        <v>44</v>
+      </c>
+      <c r="N418" t="n">
+        <v>47</v>
+      </c>
+      <c r="O418" t="n">
+        <v>48</v>
+      </c>
+      <c r="P418" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>51</v>
+      </c>
+      <c r="R418" t="n">
+        <v>55</v>
+      </c>
+      <c r="S418" t="n">
+        <v>57</v>
+      </c>
+      <c r="T418" t="n">
+        <v>61</v>
+      </c>
+      <c r="U418" t="n">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U418"/>
+  <dimension ref="A1:U546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27601,6 +27601,8326 @@
         <v>63</v>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>3</v>
+      </c>
+      <c r="C419" t="n">
+        <v>12</v>
+      </c>
+      <c r="D419" t="n">
+        <v>13</v>
+      </c>
+      <c r="E419" t="n">
+        <v>14</v>
+      </c>
+      <c r="F419" t="n">
+        <v>15</v>
+      </c>
+      <c r="G419" t="n">
+        <v>18</v>
+      </c>
+      <c r="H419" t="n">
+        <v>26</v>
+      </c>
+      <c r="I419" t="n">
+        <v>29</v>
+      </c>
+      <c r="J419" t="n">
+        <v>31</v>
+      </c>
+      <c r="K419" t="n">
+        <v>32</v>
+      </c>
+      <c r="L419" t="n">
+        <v>35</v>
+      </c>
+      <c r="M419" t="n">
+        <v>37</v>
+      </c>
+      <c r="N419" t="n">
+        <v>38</v>
+      </c>
+      <c r="O419" t="n">
+        <v>43</v>
+      </c>
+      <c r="P419" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>52</v>
+      </c>
+      <c r="R419" t="n">
+        <v>59</v>
+      </c>
+      <c r="S419" t="n">
+        <v>61</v>
+      </c>
+      <c r="T419" t="n">
+        <v>73</v>
+      </c>
+      <c r="U419" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>5</v>
+      </c>
+      <c r="C420" t="n">
+        <v>8</v>
+      </c>
+      <c r="D420" t="n">
+        <v>13</v>
+      </c>
+      <c r="E420" t="n">
+        <v>17</v>
+      </c>
+      <c r="F420" t="n">
+        <v>19</v>
+      </c>
+      <c r="G420" t="n">
+        <v>21</v>
+      </c>
+      <c r="H420" t="n">
+        <v>24</v>
+      </c>
+      <c r="I420" t="n">
+        <v>28</v>
+      </c>
+      <c r="J420" t="n">
+        <v>32</v>
+      </c>
+      <c r="K420" t="n">
+        <v>35</v>
+      </c>
+      <c r="L420" t="n">
+        <v>41</v>
+      </c>
+      <c r="M420" t="n">
+        <v>42</v>
+      </c>
+      <c r="N420" t="n">
+        <v>44</v>
+      </c>
+      <c r="O420" t="n">
+        <v>45</v>
+      </c>
+      <c r="P420" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>50</v>
+      </c>
+      <c r="R420" t="n">
+        <v>59</v>
+      </c>
+      <c r="S420" t="n">
+        <v>63</v>
+      </c>
+      <c r="T420" t="n">
+        <v>67</v>
+      </c>
+      <c r="U420" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>4</v>
+      </c>
+      <c r="C421" t="n">
+        <v>10</v>
+      </c>
+      <c r="D421" t="n">
+        <v>11</v>
+      </c>
+      <c r="E421" t="n">
+        <v>12</v>
+      </c>
+      <c r="F421" t="n">
+        <v>14</v>
+      </c>
+      <c r="G421" t="n">
+        <v>16</v>
+      </c>
+      <c r="H421" t="n">
+        <v>18</v>
+      </c>
+      <c r="I421" t="n">
+        <v>20</v>
+      </c>
+      <c r="J421" t="n">
+        <v>25</v>
+      </c>
+      <c r="K421" t="n">
+        <v>26</v>
+      </c>
+      <c r="L421" t="n">
+        <v>29</v>
+      </c>
+      <c r="M421" t="n">
+        <v>36</v>
+      </c>
+      <c r="N421" t="n">
+        <v>37</v>
+      </c>
+      <c r="O421" t="n">
+        <v>42</v>
+      </c>
+      <c r="P421" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>47</v>
+      </c>
+      <c r="R421" t="n">
+        <v>55</v>
+      </c>
+      <c r="S421" t="n">
+        <v>60</v>
+      </c>
+      <c r="T421" t="n">
+        <v>64</v>
+      </c>
+      <c r="U421" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>10</v>
+      </c>
+      <c r="C422" t="n">
+        <v>14</v>
+      </c>
+      <c r="D422" t="n">
+        <v>15</v>
+      </c>
+      <c r="E422" t="n">
+        <v>18</v>
+      </c>
+      <c r="F422" t="n">
+        <v>20</v>
+      </c>
+      <c r="G422" t="n">
+        <v>22</v>
+      </c>
+      <c r="H422" t="n">
+        <v>27</v>
+      </c>
+      <c r="I422" t="n">
+        <v>30</v>
+      </c>
+      <c r="J422" t="n">
+        <v>31</v>
+      </c>
+      <c r="K422" t="n">
+        <v>32</v>
+      </c>
+      <c r="L422" t="n">
+        <v>36</v>
+      </c>
+      <c r="M422" t="n">
+        <v>39</v>
+      </c>
+      <c r="N422" t="n">
+        <v>40</v>
+      </c>
+      <c r="O422" t="n">
+        <v>43</v>
+      </c>
+      <c r="P422" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>57</v>
+      </c>
+      <c r="R422" t="n">
+        <v>64</v>
+      </c>
+      <c r="S422" t="n">
+        <v>72</v>
+      </c>
+      <c r="T422" t="n">
+        <v>74</v>
+      </c>
+      <c r="U422" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>15</v>
+      </c>
+      <c r="C423" t="n">
+        <v>16</v>
+      </c>
+      <c r="D423" t="n">
+        <v>20</v>
+      </c>
+      <c r="E423" t="n">
+        <v>26</v>
+      </c>
+      <c r="F423" t="n">
+        <v>27</v>
+      </c>
+      <c r="G423" t="n">
+        <v>29</v>
+      </c>
+      <c r="H423" t="n">
+        <v>31</v>
+      </c>
+      <c r="I423" t="n">
+        <v>34</v>
+      </c>
+      <c r="J423" t="n">
+        <v>35</v>
+      </c>
+      <c r="K423" t="n">
+        <v>38</v>
+      </c>
+      <c r="L423" t="n">
+        <v>43</v>
+      </c>
+      <c r="M423" t="n">
+        <v>45</v>
+      </c>
+      <c r="N423" t="n">
+        <v>46</v>
+      </c>
+      <c r="O423" t="n">
+        <v>59</v>
+      </c>
+      <c r="P423" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>65</v>
+      </c>
+      <c r="R423" t="n">
+        <v>72</v>
+      </c>
+      <c r="S423" t="n">
+        <v>74</v>
+      </c>
+      <c r="T423" t="n">
+        <v>79</v>
+      </c>
+      <c r="U423" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>3</v>
+      </c>
+      <c r="C424" t="n">
+        <v>4</v>
+      </c>
+      <c r="D424" t="n">
+        <v>7</v>
+      </c>
+      <c r="E424" t="n">
+        <v>9</v>
+      </c>
+      <c r="F424" t="n">
+        <v>12</v>
+      </c>
+      <c r="G424" t="n">
+        <v>13</v>
+      </c>
+      <c r="H424" t="n">
+        <v>15</v>
+      </c>
+      <c r="I424" t="n">
+        <v>23</v>
+      </c>
+      <c r="J424" t="n">
+        <v>32</v>
+      </c>
+      <c r="K424" t="n">
+        <v>34</v>
+      </c>
+      <c r="L424" t="n">
+        <v>39</v>
+      </c>
+      <c r="M424" t="n">
+        <v>40</v>
+      </c>
+      <c r="N424" t="n">
+        <v>42</v>
+      </c>
+      <c r="O424" t="n">
+        <v>44</v>
+      </c>
+      <c r="P424" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>59</v>
+      </c>
+      <c r="R424" t="n">
+        <v>60</v>
+      </c>
+      <c r="S424" t="n">
+        <v>61</v>
+      </c>
+      <c r="T424" t="n">
+        <v>69</v>
+      </c>
+      <c r="U424" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>4</v>
+      </c>
+      <c r="C425" t="n">
+        <v>5</v>
+      </c>
+      <c r="D425" t="n">
+        <v>10</v>
+      </c>
+      <c r="E425" t="n">
+        <v>15</v>
+      </c>
+      <c r="F425" t="n">
+        <v>16</v>
+      </c>
+      <c r="G425" t="n">
+        <v>20</v>
+      </c>
+      <c r="H425" t="n">
+        <v>24</v>
+      </c>
+      <c r="I425" t="n">
+        <v>25</v>
+      </c>
+      <c r="J425" t="n">
+        <v>30</v>
+      </c>
+      <c r="K425" t="n">
+        <v>31</v>
+      </c>
+      <c r="L425" t="n">
+        <v>32</v>
+      </c>
+      <c r="M425" t="n">
+        <v>43</v>
+      </c>
+      <c r="N425" t="n">
+        <v>44</v>
+      </c>
+      <c r="O425" t="n">
+        <v>48</v>
+      </c>
+      <c r="P425" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>54</v>
+      </c>
+      <c r="R425" t="n">
+        <v>67</v>
+      </c>
+      <c r="S425" t="n">
+        <v>69</v>
+      </c>
+      <c r="T425" t="n">
+        <v>77</v>
+      </c>
+      <c r="U425" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>9</v>
+      </c>
+      <c r="C426" t="n">
+        <v>10</v>
+      </c>
+      <c r="D426" t="n">
+        <v>14</v>
+      </c>
+      <c r="E426" t="n">
+        <v>15</v>
+      </c>
+      <c r="F426" t="n">
+        <v>21</v>
+      </c>
+      <c r="G426" t="n">
+        <v>22</v>
+      </c>
+      <c r="H426" t="n">
+        <v>30</v>
+      </c>
+      <c r="I426" t="n">
+        <v>32</v>
+      </c>
+      <c r="J426" t="n">
+        <v>34</v>
+      </c>
+      <c r="K426" t="n">
+        <v>49</v>
+      </c>
+      <c r="L426" t="n">
+        <v>51</v>
+      </c>
+      <c r="M426" t="n">
+        <v>54</v>
+      </c>
+      <c r="N426" t="n">
+        <v>55</v>
+      </c>
+      <c r="O426" t="n">
+        <v>58</v>
+      </c>
+      <c r="P426" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>71</v>
+      </c>
+      <c r="R426" t="n">
+        <v>73</v>
+      </c>
+      <c r="S426" t="n">
+        <v>74</v>
+      </c>
+      <c r="T426" t="n">
+        <v>77</v>
+      </c>
+      <c r="U426" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>5</v>
+      </c>
+      <c r="C427" t="n">
+        <v>12</v>
+      </c>
+      <c r="D427" t="n">
+        <v>14</v>
+      </c>
+      <c r="E427" t="n">
+        <v>16</v>
+      </c>
+      <c r="F427" t="n">
+        <v>19</v>
+      </c>
+      <c r="G427" t="n">
+        <v>22</v>
+      </c>
+      <c r="H427" t="n">
+        <v>24</v>
+      </c>
+      <c r="I427" t="n">
+        <v>26</v>
+      </c>
+      <c r="J427" t="n">
+        <v>34</v>
+      </c>
+      <c r="K427" t="n">
+        <v>38</v>
+      </c>
+      <c r="L427" t="n">
+        <v>40</v>
+      </c>
+      <c r="M427" t="n">
+        <v>42</v>
+      </c>
+      <c r="N427" t="n">
+        <v>46</v>
+      </c>
+      <c r="O427" t="n">
+        <v>54</v>
+      </c>
+      <c r="P427" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>69</v>
+      </c>
+      <c r="R427" t="n">
+        <v>70</v>
+      </c>
+      <c r="S427" t="n">
+        <v>71</v>
+      </c>
+      <c r="T427" t="n">
+        <v>72</v>
+      </c>
+      <c r="U427" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>3</v>
+      </c>
+      <c r="C428" t="n">
+        <v>4</v>
+      </c>
+      <c r="D428" t="n">
+        <v>12</v>
+      </c>
+      <c r="E428" t="n">
+        <v>13</v>
+      </c>
+      <c r="F428" t="n">
+        <v>18</v>
+      </c>
+      <c r="G428" t="n">
+        <v>23</v>
+      </c>
+      <c r="H428" t="n">
+        <v>27</v>
+      </c>
+      <c r="I428" t="n">
+        <v>28</v>
+      </c>
+      <c r="J428" t="n">
+        <v>31</v>
+      </c>
+      <c r="K428" t="n">
+        <v>34</v>
+      </c>
+      <c r="L428" t="n">
+        <v>43</v>
+      </c>
+      <c r="M428" t="n">
+        <v>46</v>
+      </c>
+      <c r="N428" t="n">
+        <v>47</v>
+      </c>
+      <c r="O428" t="n">
+        <v>57</v>
+      </c>
+      <c r="P428" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>59</v>
+      </c>
+      <c r="R428" t="n">
+        <v>65</v>
+      </c>
+      <c r="S428" t="n">
+        <v>74</v>
+      </c>
+      <c r="T428" t="n">
+        <v>75</v>
+      </c>
+      <c r="U428" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2</v>
+      </c>
+      <c r="C429" t="n">
+        <v>10</v>
+      </c>
+      <c r="D429" t="n">
+        <v>11</v>
+      </c>
+      <c r="E429" t="n">
+        <v>24</v>
+      </c>
+      <c r="F429" t="n">
+        <v>28</v>
+      </c>
+      <c r="G429" t="n">
+        <v>33</v>
+      </c>
+      <c r="H429" t="n">
+        <v>35</v>
+      </c>
+      <c r="I429" t="n">
+        <v>41</v>
+      </c>
+      <c r="J429" t="n">
+        <v>44</v>
+      </c>
+      <c r="K429" t="n">
+        <v>50</v>
+      </c>
+      <c r="L429" t="n">
+        <v>51</v>
+      </c>
+      <c r="M429" t="n">
+        <v>58</v>
+      </c>
+      <c r="N429" t="n">
+        <v>62</v>
+      </c>
+      <c r="O429" t="n">
+        <v>67</v>
+      </c>
+      <c r="P429" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>73</v>
+      </c>
+      <c r="R429" t="n">
+        <v>74</v>
+      </c>
+      <c r="S429" t="n">
+        <v>75</v>
+      </c>
+      <c r="T429" t="n">
+        <v>77</v>
+      </c>
+      <c r="U429" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2</v>
+      </c>
+      <c r="C430" t="n">
+        <v>5</v>
+      </c>
+      <c r="D430" t="n">
+        <v>8</v>
+      </c>
+      <c r="E430" t="n">
+        <v>24</v>
+      </c>
+      <c r="F430" t="n">
+        <v>25</v>
+      </c>
+      <c r="G430" t="n">
+        <v>33</v>
+      </c>
+      <c r="H430" t="n">
+        <v>34</v>
+      </c>
+      <c r="I430" t="n">
+        <v>36</v>
+      </c>
+      <c r="J430" t="n">
+        <v>42</v>
+      </c>
+      <c r="K430" t="n">
+        <v>43</v>
+      </c>
+      <c r="L430" t="n">
+        <v>44</v>
+      </c>
+      <c r="M430" t="n">
+        <v>45</v>
+      </c>
+      <c r="N430" t="n">
+        <v>48</v>
+      </c>
+      <c r="O430" t="n">
+        <v>52</v>
+      </c>
+      <c r="P430" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>58</v>
+      </c>
+      <c r="R430" t="n">
+        <v>61</v>
+      </c>
+      <c r="S430" t="n">
+        <v>64</v>
+      </c>
+      <c r="T430" t="n">
+        <v>68</v>
+      </c>
+      <c r="U430" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>6</v>
+      </c>
+      <c r="C431" t="n">
+        <v>7</v>
+      </c>
+      <c r="D431" t="n">
+        <v>10</v>
+      </c>
+      <c r="E431" t="n">
+        <v>19</v>
+      </c>
+      <c r="F431" t="n">
+        <v>23</v>
+      </c>
+      <c r="G431" t="n">
+        <v>24</v>
+      </c>
+      <c r="H431" t="n">
+        <v>25</v>
+      </c>
+      <c r="I431" t="n">
+        <v>36</v>
+      </c>
+      <c r="J431" t="n">
+        <v>41</v>
+      </c>
+      <c r="K431" t="n">
+        <v>42</v>
+      </c>
+      <c r="L431" t="n">
+        <v>43</v>
+      </c>
+      <c r="M431" t="n">
+        <v>54</v>
+      </c>
+      <c r="N431" t="n">
+        <v>57</v>
+      </c>
+      <c r="O431" t="n">
+        <v>58</v>
+      </c>
+      <c r="P431" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>65</v>
+      </c>
+      <c r="R431" t="n">
+        <v>66</v>
+      </c>
+      <c r="S431" t="n">
+        <v>67</v>
+      </c>
+      <c r="T431" t="n">
+        <v>73</v>
+      </c>
+      <c r="U431" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>11</v>
+      </c>
+      <c r="C432" t="n">
+        <v>12</v>
+      </c>
+      <c r="D432" t="n">
+        <v>13</v>
+      </c>
+      <c r="E432" t="n">
+        <v>16</v>
+      </c>
+      <c r="F432" t="n">
+        <v>22</v>
+      </c>
+      <c r="G432" t="n">
+        <v>25</v>
+      </c>
+      <c r="H432" t="n">
+        <v>28</v>
+      </c>
+      <c r="I432" t="n">
+        <v>33</v>
+      </c>
+      <c r="J432" t="n">
+        <v>37</v>
+      </c>
+      <c r="K432" t="n">
+        <v>42</v>
+      </c>
+      <c r="L432" t="n">
+        <v>44</v>
+      </c>
+      <c r="M432" t="n">
+        <v>46</v>
+      </c>
+      <c r="N432" t="n">
+        <v>49</v>
+      </c>
+      <c r="O432" t="n">
+        <v>58</v>
+      </c>
+      <c r="P432" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>66</v>
+      </c>
+      <c r="R432" t="n">
+        <v>67</v>
+      </c>
+      <c r="S432" t="n">
+        <v>69</v>
+      </c>
+      <c r="T432" t="n">
+        <v>74</v>
+      </c>
+      <c r="U432" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2</v>
+      </c>
+      <c r="C433" t="n">
+        <v>8</v>
+      </c>
+      <c r="D433" t="n">
+        <v>10</v>
+      </c>
+      <c r="E433" t="n">
+        <v>16</v>
+      </c>
+      <c r="F433" t="n">
+        <v>17</v>
+      </c>
+      <c r="G433" t="n">
+        <v>18</v>
+      </c>
+      <c r="H433" t="n">
+        <v>21</v>
+      </c>
+      <c r="I433" t="n">
+        <v>25</v>
+      </c>
+      <c r="J433" t="n">
+        <v>31</v>
+      </c>
+      <c r="K433" t="n">
+        <v>35</v>
+      </c>
+      <c r="L433" t="n">
+        <v>38</v>
+      </c>
+      <c r="M433" t="n">
+        <v>42</v>
+      </c>
+      <c r="N433" t="n">
+        <v>51</v>
+      </c>
+      <c r="O433" t="n">
+        <v>53</v>
+      </c>
+      <c r="P433" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>67</v>
+      </c>
+      <c r="R433" t="n">
+        <v>69</v>
+      </c>
+      <c r="S433" t="n">
+        <v>70</v>
+      </c>
+      <c r="T433" t="n">
+        <v>75</v>
+      </c>
+      <c r="U433" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>4</v>
+      </c>
+      <c r="C434" t="n">
+        <v>5</v>
+      </c>
+      <c r="D434" t="n">
+        <v>6</v>
+      </c>
+      <c r="E434" t="n">
+        <v>10</v>
+      </c>
+      <c r="F434" t="n">
+        <v>11</v>
+      </c>
+      <c r="G434" t="n">
+        <v>16</v>
+      </c>
+      <c r="H434" t="n">
+        <v>25</v>
+      </c>
+      <c r="I434" t="n">
+        <v>31</v>
+      </c>
+      <c r="J434" t="n">
+        <v>33</v>
+      </c>
+      <c r="K434" t="n">
+        <v>35</v>
+      </c>
+      <c r="L434" t="n">
+        <v>36</v>
+      </c>
+      <c r="M434" t="n">
+        <v>39</v>
+      </c>
+      <c r="N434" t="n">
+        <v>41</v>
+      </c>
+      <c r="O434" t="n">
+        <v>43</v>
+      </c>
+      <c r="P434" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>67</v>
+      </c>
+      <c r="R434" t="n">
+        <v>70</v>
+      </c>
+      <c r="S434" t="n">
+        <v>71</v>
+      </c>
+      <c r="T434" t="n">
+        <v>73</v>
+      </c>
+      <c r="U434" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>3</v>
+      </c>
+      <c r="C435" t="n">
+        <v>6</v>
+      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="n">
+        <v>9</v>
+      </c>
+      <c r="F435" t="n">
+        <v>10</v>
+      </c>
+      <c r="G435" t="n">
+        <v>16</v>
+      </c>
+      <c r="H435" t="n">
+        <v>17</v>
+      </c>
+      <c r="I435" t="n">
+        <v>23</v>
+      </c>
+      <c r="J435" t="n">
+        <v>24</v>
+      </c>
+      <c r="K435" t="n">
+        <v>31</v>
+      </c>
+      <c r="L435" t="n">
+        <v>34</v>
+      </c>
+      <c r="M435" t="n">
+        <v>35</v>
+      </c>
+      <c r="N435" t="n">
+        <v>40</v>
+      </c>
+      <c r="O435" t="n">
+        <v>48</v>
+      </c>
+      <c r="P435" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>54</v>
+      </c>
+      <c r="R435" t="n">
+        <v>55</v>
+      </c>
+      <c r="S435" t="n">
+        <v>60</v>
+      </c>
+      <c r="T435" t="n">
+        <v>74</v>
+      </c>
+      <c r="U435" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+      <c r="C436" t="n">
+        <v>12</v>
+      </c>
+      <c r="D436" t="n">
+        <v>14</v>
+      </c>
+      <c r="E436" t="n">
+        <v>17</v>
+      </c>
+      <c r="F436" t="n">
+        <v>19</v>
+      </c>
+      <c r="G436" t="n">
+        <v>21</v>
+      </c>
+      <c r="H436" t="n">
+        <v>27</v>
+      </c>
+      <c r="I436" t="n">
+        <v>28</v>
+      </c>
+      <c r="J436" t="n">
+        <v>39</v>
+      </c>
+      <c r="K436" t="n">
+        <v>53</v>
+      </c>
+      <c r="L436" t="n">
+        <v>55</v>
+      </c>
+      <c r="M436" t="n">
+        <v>57</v>
+      </c>
+      <c r="N436" t="n">
+        <v>60</v>
+      </c>
+      <c r="O436" t="n">
+        <v>64</v>
+      </c>
+      <c r="P436" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>68</v>
+      </c>
+      <c r="R436" t="n">
+        <v>70</v>
+      </c>
+      <c r="S436" t="n">
+        <v>73</v>
+      </c>
+      <c r="T436" t="n">
+        <v>76</v>
+      </c>
+      <c r="U436" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>4</v>
+      </c>
+      <c r="C437" t="n">
+        <v>5</v>
+      </c>
+      <c r="D437" t="n">
+        <v>11</v>
+      </c>
+      <c r="E437" t="n">
+        <v>12</v>
+      </c>
+      <c r="F437" t="n">
+        <v>21</v>
+      </c>
+      <c r="G437" t="n">
+        <v>29</v>
+      </c>
+      <c r="H437" t="n">
+        <v>34</v>
+      </c>
+      <c r="I437" t="n">
+        <v>37</v>
+      </c>
+      <c r="J437" t="n">
+        <v>38</v>
+      </c>
+      <c r="K437" t="n">
+        <v>44</v>
+      </c>
+      <c r="L437" t="n">
+        <v>53</v>
+      </c>
+      <c r="M437" t="n">
+        <v>57</v>
+      </c>
+      <c r="N437" t="n">
+        <v>60</v>
+      </c>
+      <c r="O437" t="n">
+        <v>62</v>
+      </c>
+      <c r="P437" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>64</v>
+      </c>
+      <c r="R437" t="n">
+        <v>65</v>
+      </c>
+      <c r="S437" t="n">
+        <v>75</v>
+      </c>
+      <c r="T437" t="n">
+        <v>78</v>
+      </c>
+      <c r="U437" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>4</v>
+      </c>
+      <c r="C438" t="n">
+        <v>5</v>
+      </c>
+      <c r="D438" t="n">
+        <v>9</v>
+      </c>
+      <c r="E438" t="n">
+        <v>17</v>
+      </c>
+      <c r="F438" t="n">
+        <v>20</v>
+      </c>
+      <c r="G438" t="n">
+        <v>24</v>
+      </c>
+      <c r="H438" t="n">
+        <v>28</v>
+      </c>
+      <c r="I438" t="n">
+        <v>34</v>
+      </c>
+      <c r="J438" t="n">
+        <v>42</v>
+      </c>
+      <c r="K438" t="n">
+        <v>49</v>
+      </c>
+      <c r="L438" t="n">
+        <v>50</v>
+      </c>
+      <c r="M438" t="n">
+        <v>51</v>
+      </c>
+      <c r="N438" t="n">
+        <v>53</v>
+      </c>
+      <c r="O438" t="n">
+        <v>56</v>
+      </c>
+      <c r="P438" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>62</v>
+      </c>
+      <c r="R438" t="n">
+        <v>64</v>
+      </c>
+      <c r="S438" t="n">
+        <v>67</v>
+      </c>
+      <c r="T438" t="n">
+        <v>72</v>
+      </c>
+      <c r="U438" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>3</v>
+      </c>
+      <c r="C439" t="n">
+        <v>8</v>
+      </c>
+      <c r="D439" t="n">
+        <v>9</v>
+      </c>
+      <c r="E439" t="n">
+        <v>17</v>
+      </c>
+      <c r="F439" t="n">
+        <v>23</v>
+      </c>
+      <c r="G439" t="n">
+        <v>29</v>
+      </c>
+      <c r="H439" t="n">
+        <v>43</v>
+      </c>
+      <c r="I439" t="n">
+        <v>45</v>
+      </c>
+      <c r="J439" t="n">
+        <v>47</v>
+      </c>
+      <c r="K439" t="n">
+        <v>50</v>
+      </c>
+      <c r="L439" t="n">
+        <v>53</v>
+      </c>
+      <c r="M439" t="n">
+        <v>58</v>
+      </c>
+      <c r="N439" t="n">
+        <v>60</v>
+      </c>
+      <c r="O439" t="n">
+        <v>67</v>
+      </c>
+      <c r="P439" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>73</v>
+      </c>
+      <c r="R439" t="n">
+        <v>77</v>
+      </c>
+      <c r="S439" t="n">
+        <v>78</v>
+      </c>
+      <c r="T439" t="n">
+        <v>79</v>
+      </c>
+      <c r="U439" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>4</v>
+      </c>
+      <c r="C440" t="n">
+        <v>7</v>
+      </c>
+      <c r="D440" t="n">
+        <v>11</v>
+      </c>
+      <c r="E440" t="n">
+        <v>12</v>
+      </c>
+      <c r="F440" t="n">
+        <v>24</v>
+      </c>
+      <c r="G440" t="n">
+        <v>26</v>
+      </c>
+      <c r="H440" t="n">
+        <v>30</v>
+      </c>
+      <c r="I440" t="n">
+        <v>31</v>
+      </c>
+      <c r="J440" t="n">
+        <v>36</v>
+      </c>
+      <c r="K440" t="n">
+        <v>38</v>
+      </c>
+      <c r="L440" t="n">
+        <v>46</v>
+      </c>
+      <c r="M440" t="n">
+        <v>48</v>
+      </c>
+      <c r="N440" t="n">
+        <v>49</v>
+      </c>
+      <c r="O440" t="n">
+        <v>52</v>
+      </c>
+      <c r="P440" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>57</v>
+      </c>
+      <c r="R440" t="n">
+        <v>65</v>
+      </c>
+      <c r="S440" t="n">
+        <v>74</v>
+      </c>
+      <c r="T440" t="n">
+        <v>77</v>
+      </c>
+      <c r="U440" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+      <c r="C441" t="n">
+        <v>3</v>
+      </c>
+      <c r="D441" t="n">
+        <v>6</v>
+      </c>
+      <c r="E441" t="n">
+        <v>12</v>
+      </c>
+      <c r="F441" t="n">
+        <v>13</v>
+      </c>
+      <c r="G441" t="n">
+        <v>17</v>
+      </c>
+      <c r="H441" t="n">
+        <v>21</v>
+      </c>
+      <c r="I441" t="n">
+        <v>23</v>
+      </c>
+      <c r="J441" t="n">
+        <v>28</v>
+      </c>
+      <c r="K441" t="n">
+        <v>38</v>
+      </c>
+      <c r="L441" t="n">
+        <v>41</v>
+      </c>
+      <c r="M441" t="n">
+        <v>42</v>
+      </c>
+      <c r="N441" t="n">
+        <v>43</v>
+      </c>
+      <c r="O441" t="n">
+        <v>47</v>
+      </c>
+      <c r="P441" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>60</v>
+      </c>
+      <c r="R441" t="n">
+        <v>67</v>
+      </c>
+      <c r="S441" t="n">
+        <v>69</v>
+      </c>
+      <c r="T441" t="n">
+        <v>70</v>
+      </c>
+      <c r="U441" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2</v>
+      </c>
+      <c r="C442" t="n">
+        <v>8</v>
+      </c>
+      <c r="D442" t="n">
+        <v>15</v>
+      </c>
+      <c r="E442" t="n">
+        <v>16</v>
+      </c>
+      <c r="F442" t="n">
+        <v>18</v>
+      </c>
+      <c r="G442" t="n">
+        <v>21</v>
+      </c>
+      <c r="H442" t="n">
+        <v>29</v>
+      </c>
+      <c r="I442" t="n">
+        <v>31</v>
+      </c>
+      <c r="J442" t="n">
+        <v>35</v>
+      </c>
+      <c r="K442" t="n">
+        <v>39</v>
+      </c>
+      <c r="L442" t="n">
+        <v>40</v>
+      </c>
+      <c r="M442" t="n">
+        <v>43</v>
+      </c>
+      <c r="N442" t="n">
+        <v>44</v>
+      </c>
+      <c r="O442" t="n">
+        <v>46</v>
+      </c>
+      <c r="P442" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>60</v>
+      </c>
+      <c r="R442" t="n">
+        <v>62</v>
+      </c>
+      <c r="S442" t="n">
+        <v>68</v>
+      </c>
+      <c r="T442" t="n">
+        <v>69</v>
+      </c>
+      <c r="U442" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2</v>
+      </c>
+      <c r="C443" t="n">
+        <v>5</v>
+      </c>
+      <c r="D443" t="n">
+        <v>7</v>
+      </c>
+      <c r="E443" t="n">
+        <v>11</v>
+      </c>
+      <c r="F443" t="n">
+        <v>15</v>
+      </c>
+      <c r="G443" t="n">
+        <v>22</v>
+      </c>
+      <c r="H443" t="n">
+        <v>31</v>
+      </c>
+      <c r="I443" t="n">
+        <v>34</v>
+      </c>
+      <c r="J443" t="n">
+        <v>40</v>
+      </c>
+      <c r="K443" t="n">
+        <v>42</v>
+      </c>
+      <c r="L443" t="n">
+        <v>48</v>
+      </c>
+      <c r="M443" t="n">
+        <v>51</v>
+      </c>
+      <c r="N443" t="n">
+        <v>54</v>
+      </c>
+      <c r="O443" t="n">
+        <v>64</v>
+      </c>
+      <c r="P443" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>66</v>
+      </c>
+      <c r="R443" t="n">
+        <v>68</v>
+      </c>
+      <c r="S443" t="n">
+        <v>69</v>
+      </c>
+      <c r="T443" t="n">
+        <v>71</v>
+      </c>
+      <c r="U443" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+      <c r="C444" t="n">
+        <v>6</v>
+      </c>
+      <c r="D444" t="n">
+        <v>8</v>
+      </c>
+      <c r="E444" t="n">
+        <v>9</v>
+      </c>
+      <c r="F444" t="n">
+        <v>21</v>
+      </c>
+      <c r="G444" t="n">
+        <v>23</v>
+      </c>
+      <c r="H444" t="n">
+        <v>31</v>
+      </c>
+      <c r="I444" t="n">
+        <v>36</v>
+      </c>
+      <c r="J444" t="n">
+        <v>43</v>
+      </c>
+      <c r="K444" t="n">
+        <v>46</v>
+      </c>
+      <c r="L444" t="n">
+        <v>52</v>
+      </c>
+      <c r="M444" t="n">
+        <v>55</v>
+      </c>
+      <c r="N444" t="n">
+        <v>57</v>
+      </c>
+      <c r="O444" t="n">
+        <v>65</v>
+      </c>
+      <c r="P444" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>72</v>
+      </c>
+      <c r="R444" t="n">
+        <v>73</v>
+      </c>
+      <c r="S444" t="n">
+        <v>74</v>
+      </c>
+      <c r="T444" t="n">
+        <v>75</v>
+      </c>
+      <c r="U444" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3</v>
+      </c>
+      <c r="C445" t="n">
+        <v>7</v>
+      </c>
+      <c r="D445" t="n">
+        <v>8</v>
+      </c>
+      <c r="E445" t="n">
+        <v>12</v>
+      </c>
+      <c r="F445" t="n">
+        <v>14</v>
+      </c>
+      <c r="G445" t="n">
+        <v>15</v>
+      </c>
+      <c r="H445" t="n">
+        <v>26</v>
+      </c>
+      <c r="I445" t="n">
+        <v>32</v>
+      </c>
+      <c r="J445" t="n">
+        <v>34</v>
+      </c>
+      <c r="K445" t="n">
+        <v>36</v>
+      </c>
+      <c r="L445" t="n">
+        <v>38</v>
+      </c>
+      <c r="M445" t="n">
+        <v>40</v>
+      </c>
+      <c r="N445" t="n">
+        <v>42</v>
+      </c>
+      <c r="O445" t="n">
+        <v>48</v>
+      </c>
+      <c r="P445" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>51</v>
+      </c>
+      <c r="R445" t="n">
+        <v>67</v>
+      </c>
+      <c r="S445" t="n">
+        <v>68</v>
+      </c>
+      <c r="T445" t="n">
+        <v>71</v>
+      </c>
+      <c r="U445" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>4</v>
+      </c>
+      <c r="C446" t="n">
+        <v>6</v>
+      </c>
+      <c r="D446" t="n">
+        <v>10</v>
+      </c>
+      <c r="E446" t="n">
+        <v>15</v>
+      </c>
+      <c r="F446" t="n">
+        <v>20</v>
+      </c>
+      <c r="G446" t="n">
+        <v>21</v>
+      </c>
+      <c r="H446" t="n">
+        <v>25</v>
+      </c>
+      <c r="I446" t="n">
+        <v>26</v>
+      </c>
+      <c r="J446" t="n">
+        <v>31</v>
+      </c>
+      <c r="K446" t="n">
+        <v>36</v>
+      </c>
+      <c r="L446" t="n">
+        <v>40</v>
+      </c>
+      <c r="M446" t="n">
+        <v>41</v>
+      </c>
+      <c r="N446" t="n">
+        <v>51</v>
+      </c>
+      <c r="O446" t="n">
+        <v>54</v>
+      </c>
+      <c r="P446" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>57</v>
+      </c>
+      <c r="R446" t="n">
+        <v>63</v>
+      </c>
+      <c r="S446" t="n">
+        <v>65</v>
+      </c>
+      <c r="T446" t="n">
+        <v>67</v>
+      </c>
+      <c r="U446" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>6</v>
+      </c>
+      <c r="C447" t="n">
+        <v>8</v>
+      </c>
+      <c r="D447" t="n">
+        <v>16</v>
+      </c>
+      <c r="E447" t="n">
+        <v>23</v>
+      </c>
+      <c r="F447" t="n">
+        <v>27</v>
+      </c>
+      <c r="G447" t="n">
+        <v>36</v>
+      </c>
+      <c r="H447" t="n">
+        <v>39</v>
+      </c>
+      <c r="I447" t="n">
+        <v>44</v>
+      </c>
+      <c r="J447" t="n">
+        <v>53</v>
+      </c>
+      <c r="K447" t="n">
+        <v>54</v>
+      </c>
+      <c r="L447" t="n">
+        <v>55</v>
+      </c>
+      <c r="M447" t="n">
+        <v>57</v>
+      </c>
+      <c r="N447" t="n">
+        <v>58</v>
+      </c>
+      <c r="O447" t="n">
+        <v>61</v>
+      </c>
+      <c r="P447" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>69</v>
+      </c>
+      <c r="R447" t="n">
+        <v>70</v>
+      </c>
+      <c r="S447" t="n">
+        <v>72</v>
+      </c>
+      <c r="T447" t="n">
+        <v>74</v>
+      </c>
+      <c r="U447" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+      <c r="C448" t="n">
+        <v>3</v>
+      </c>
+      <c r="D448" t="n">
+        <v>4</v>
+      </c>
+      <c r="E448" t="n">
+        <v>6</v>
+      </c>
+      <c r="F448" t="n">
+        <v>7</v>
+      </c>
+      <c r="G448" t="n">
+        <v>10</v>
+      </c>
+      <c r="H448" t="n">
+        <v>14</v>
+      </c>
+      <c r="I448" t="n">
+        <v>16</v>
+      </c>
+      <c r="J448" t="n">
+        <v>23</v>
+      </c>
+      <c r="K448" t="n">
+        <v>26</v>
+      </c>
+      <c r="L448" t="n">
+        <v>37</v>
+      </c>
+      <c r="M448" t="n">
+        <v>38</v>
+      </c>
+      <c r="N448" t="n">
+        <v>39</v>
+      </c>
+      <c r="O448" t="n">
+        <v>49</v>
+      </c>
+      <c r="P448" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>65</v>
+      </c>
+      <c r="R448" t="n">
+        <v>69</v>
+      </c>
+      <c r="S448" t="n">
+        <v>73</v>
+      </c>
+      <c r="T448" t="n">
+        <v>76</v>
+      </c>
+      <c r="U448" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>7</v>
+      </c>
+      <c r="C449" t="n">
+        <v>10</v>
+      </c>
+      <c r="D449" t="n">
+        <v>13</v>
+      </c>
+      <c r="E449" t="n">
+        <v>14</v>
+      </c>
+      <c r="F449" t="n">
+        <v>16</v>
+      </c>
+      <c r="G449" t="n">
+        <v>21</v>
+      </c>
+      <c r="H449" t="n">
+        <v>22</v>
+      </c>
+      <c r="I449" t="n">
+        <v>29</v>
+      </c>
+      <c r="J449" t="n">
+        <v>36</v>
+      </c>
+      <c r="K449" t="n">
+        <v>43</v>
+      </c>
+      <c r="L449" t="n">
+        <v>44</v>
+      </c>
+      <c r="M449" t="n">
+        <v>51</v>
+      </c>
+      <c r="N449" t="n">
+        <v>57</v>
+      </c>
+      <c r="O449" t="n">
+        <v>58</v>
+      </c>
+      <c r="P449" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>61</v>
+      </c>
+      <c r="R449" t="n">
+        <v>63</v>
+      </c>
+      <c r="S449" t="n">
+        <v>64</v>
+      </c>
+      <c r="T449" t="n">
+        <v>65</v>
+      </c>
+      <c r="U449" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+      <c r="C450" t="n">
+        <v>2</v>
+      </c>
+      <c r="D450" t="n">
+        <v>6</v>
+      </c>
+      <c r="E450" t="n">
+        <v>7</v>
+      </c>
+      <c r="F450" t="n">
+        <v>15</v>
+      </c>
+      <c r="G450" t="n">
+        <v>22</v>
+      </c>
+      <c r="H450" t="n">
+        <v>23</v>
+      </c>
+      <c r="I450" t="n">
+        <v>28</v>
+      </c>
+      <c r="J450" t="n">
+        <v>33</v>
+      </c>
+      <c r="K450" t="n">
+        <v>37</v>
+      </c>
+      <c r="L450" t="n">
+        <v>40</v>
+      </c>
+      <c r="M450" t="n">
+        <v>52</v>
+      </c>
+      <c r="N450" t="n">
+        <v>55</v>
+      </c>
+      <c r="O450" t="n">
+        <v>62</v>
+      </c>
+      <c r="P450" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>64</v>
+      </c>
+      <c r="R450" t="n">
+        <v>65</v>
+      </c>
+      <c r="S450" t="n">
+        <v>69</v>
+      </c>
+      <c r="T450" t="n">
+        <v>79</v>
+      </c>
+      <c r="U450" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2</v>
+      </c>
+      <c r="C451" t="n">
+        <v>3</v>
+      </c>
+      <c r="D451" t="n">
+        <v>5</v>
+      </c>
+      <c r="E451" t="n">
+        <v>7</v>
+      </c>
+      <c r="F451" t="n">
+        <v>9</v>
+      </c>
+      <c r="G451" t="n">
+        <v>15</v>
+      </c>
+      <c r="H451" t="n">
+        <v>34</v>
+      </c>
+      <c r="I451" t="n">
+        <v>35</v>
+      </c>
+      <c r="J451" t="n">
+        <v>36</v>
+      </c>
+      <c r="K451" t="n">
+        <v>39</v>
+      </c>
+      <c r="L451" t="n">
+        <v>44</v>
+      </c>
+      <c r="M451" t="n">
+        <v>47</v>
+      </c>
+      <c r="N451" t="n">
+        <v>48</v>
+      </c>
+      <c r="O451" t="n">
+        <v>50</v>
+      </c>
+      <c r="P451" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>64</v>
+      </c>
+      <c r="R451" t="n">
+        <v>68</v>
+      </c>
+      <c r="S451" t="n">
+        <v>69</v>
+      </c>
+      <c r="T451" t="n">
+        <v>72</v>
+      </c>
+      <c r="U451" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>5</v>
+      </c>
+      <c r="C452" t="n">
+        <v>6</v>
+      </c>
+      <c r="D452" t="n">
+        <v>7</v>
+      </c>
+      <c r="E452" t="n">
+        <v>16</v>
+      </c>
+      <c r="F452" t="n">
+        <v>18</v>
+      </c>
+      <c r="G452" t="n">
+        <v>19</v>
+      </c>
+      <c r="H452" t="n">
+        <v>23</v>
+      </c>
+      <c r="I452" t="n">
+        <v>27</v>
+      </c>
+      <c r="J452" t="n">
+        <v>30</v>
+      </c>
+      <c r="K452" t="n">
+        <v>41</v>
+      </c>
+      <c r="L452" t="n">
+        <v>42</v>
+      </c>
+      <c r="M452" t="n">
+        <v>46</v>
+      </c>
+      <c r="N452" t="n">
+        <v>54</v>
+      </c>
+      <c r="O452" t="n">
+        <v>63</v>
+      </c>
+      <c r="P452" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>66</v>
+      </c>
+      <c r="R452" t="n">
+        <v>71</v>
+      </c>
+      <c r="S452" t="n">
+        <v>76</v>
+      </c>
+      <c r="T452" t="n">
+        <v>78</v>
+      </c>
+      <c r="U452" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>3</v>
+      </c>
+      <c r="C453" t="n">
+        <v>7</v>
+      </c>
+      <c r="D453" t="n">
+        <v>9</v>
+      </c>
+      <c r="E453" t="n">
+        <v>10</v>
+      </c>
+      <c r="F453" t="n">
+        <v>13</v>
+      </c>
+      <c r="G453" t="n">
+        <v>16</v>
+      </c>
+      <c r="H453" t="n">
+        <v>20</v>
+      </c>
+      <c r="I453" t="n">
+        <v>21</v>
+      </c>
+      <c r="J453" t="n">
+        <v>25</v>
+      </c>
+      <c r="K453" t="n">
+        <v>33</v>
+      </c>
+      <c r="L453" t="n">
+        <v>42</v>
+      </c>
+      <c r="M453" t="n">
+        <v>46</v>
+      </c>
+      <c r="N453" t="n">
+        <v>50</v>
+      </c>
+      <c r="O453" t="n">
+        <v>56</v>
+      </c>
+      <c r="P453" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>68</v>
+      </c>
+      <c r="R453" t="n">
+        <v>69</v>
+      </c>
+      <c r="S453" t="n">
+        <v>71</v>
+      </c>
+      <c r="T453" t="n">
+        <v>75</v>
+      </c>
+      <c r="U453" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+      <c r="C454" t="n">
+        <v>5</v>
+      </c>
+      <c r="D454" t="n">
+        <v>8</v>
+      </c>
+      <c r="E454" t="n">
+        <v>14</v>
+      </c>
+      <c r="F454" t="n">
+        <v>16</v>
+      </c>
+      <c r="G454" t="n">
+        <v>17</v>
+      </c>
+      <c r="H454" t="n">
+        <v>20</v>
+      </c>
+      <c r="I454" t="n">
+        <v>27</v>
+      </c>
+      <c r="J454" t="n">
+        <v>28</v>
+      </c>
+      <c r="K454" t="n">
+        <v>30</v>
+      </c>
+      <c r="L454" t="n">
+        <v>32</v>
+      </c>
+      <c r="M454" t="n">
+        <v>33</v>
+      </c>
+      <c r="N454" t="n">
+        <v>37</v>
+      </c>
+      <c r="O454" t="n">
+        <v>44</v>
+      </c>
+      <c r="P454" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>62</v>
+      </c>
+      <c r="R454" t="n">
+        <v>70</v>
+      </c>
+      <c r="S454" t="n">
+        <v>75</v>
+      </c>
+      <c r="T454" t="n">
+        <v>76</v>
+      </c>
+      <c r="U454" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>4</v>
+      </c>
+      <c r="C455" t="n">
+        <v>6</v>
+      </c>
+      <c r="D455" t="n">
+        <v>18</v>
+      </c>
+      <c r="E455" t="n">
+        <v>23</v>
+      </c>
+      <c r="F455" t="n">
+        <v>24</v>
+      </c>
+      <c r="G455" t="n">
+        <v>28</v>
+      </c>
+      <c r="H455" t="n">
+        <v>32</v>
+      </c>
+      <c r="I455" t="n">
+        <v>34</v>
+      </c>
+      <c r="J455" t="n">
+        <v>41</v>
+      </c>
+      <c r="K455" t="n">
+        <v>47</v>
+      </c>
+      <c r="L455" t="n">
+        <v>50</v>
+      </c>
+      <c r="M455" t="n">
+        <v>53</v>
+      </c>
+      <c r="N455" t="n">
+        <v>57</v>
+      </c>
+      <c r="O455" t="n">
+        <v>58</v>
+      </c>
+      <c r="P455" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>67</v>
+      </c>
+      <c r="R455" t="n">
+        <v>70</v>
+      </c>
+      <c r="S455" t="n">
+        <v>72</v>
+      </c>
+      <c r="T455" t="n">
+        <v>75</v>
+      </c>
+      <c r="U455" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>2</v>
+      </c>
+      <c r="C456" t="n">
+        <v>16</v>
+      </c>
+      <c r="D456" t="n">
+        <v>18</v>
+      </c>
+      <c r="E456" t="n">
+        <v>19</v>
+      </c>
+      <c r="F456" t="n">
+        <v>23</v>
+      </c>
+      <c r="G456" t="n">
+        <v>32</v>
+      </c>
+      <c r="H456" t="n">
+        <v>34</v>
+      </c>
+      <c r="I456" t="n">
+        <v>35</v>
+      </c>
+      <c r="J456" t="n">
+        <v>50</v>
+      </c>
+      <c r="K456" t="n">
+        <v>58</v>
+      </c>
+      <c r="L456" t="n">
+        <v>62</v>
+      </c>
+      <c r="M456" t="n">
+        <v>64</v>
+      </c>
+      <c r="N456" t="n">
+        <v>66</v>
+      </c>
+      <c r="O456" t="n">
+        <v>70</v>
+      </c>
+      <c r="P456" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>74</v>
+      </c>
+      <c r="R456" t="n">
+        <v>76</v>
+      </c>
+      <c r="S456" t="n">
+        <v>77</v>
+      </c>
+      <c r="T456" t="n">
+        <v>79</v>
+      </c>
+      <c r="U456" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+      <c r="C457" t="n">
+        <v>2</v>
+      </c>
+      <c r="D457" t="n">
+        <v>5</v>
+      </c>
+      <c r="E457" t="n">
+        <v>13</v>
+      </c>
+      <c r="F457" t="n">
+        <v>14</v>
+      </c>
+      <c r="G457" t="n">
+        <v>24</v>
+      </c>
+      <c r="H457" t="n">
+        <v>27</v>
+      </c>
+      <c r="I457" t="n">
+        <v>29</v>
+      </c>
+      <c r="J457" t="n">
+        <v>31</v>
+      </c>
+      <c r="K457" t="n">
+        <v>32</v>
+      </c>
+      <c r="L457" t="n">
+        <v>34</v>
+      </c>
+      <c r="M457" t="n">
+        <v>38</v>
+      </c>
+      <c r="N457" t="n">
+        <v>41</v>
+      </c>
+      <c r="O457" t="n">
+        <v>43</v>
+      </c>
+      <c r="P457" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>49</v>
+      </c>
+      <c r="R457" t="n">
+        <v>61</v>
+      </c>
+      <c r="S457" t="n">
+        <v>66</v>
+      </c>
+      <c r="T457" t="n">
+        <v>68</v>
+      </c>
+      <c r="U457" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+      <c r="C458" t="n">
+        <v>2</v>
+      </c>
+      <c r="D458" t="n">
+        <v>6</v>
+      </c>
+      <c r="E458" t="n">
+        <v>9</v>
+      </c>
+      <c r="F458" t="n">
+        <v>19</v>
+      </c>
+      <c r="G458" t="n">
+        <v>22</v>
+      </c>
+      <c r="H458" t="n">
+        <v>24</v>
+      </c>
+      <c r="I458" t="n">
+        <v>28</v>
+      </c>
+      <c r="J458" t="n">
+        <v>32</v>
+      </c>
+      <c r="K458" t="n">
+        <v>40</v>
+      </c>
+      <c r="L458" t="n">
+        <v>41</v>
+      </c>
+      <c r="M458" t="n">
+        <v>49</v>
+      </c>
+      <c r="N458" t="n">
+        <v>50</v>
+      </c>
+      <c r="O458" t="n">
+        <v>55</v>
+      </c>
+      <c r="P458" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>61</v>
+      </c>
+      <c r="R458" t="n">
+        <v>67</v>
+      </c>
+      <c r="S458" t="n">
+        <v>72</v>
+      </c>
+      <c r="T458" t="n">
+        <v>76</v>
+      </c>
+      <c r="U458" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>4</v>
+      </c>
+      <c r="C459" t="n">
+        <v>7</v>
+      </c>
+      <c r="D459" t="n">
+        <v>15</v>
+      </c>
+      <c r="E459" t="n">
+        <v>21</v>
+      </c>
+      <c r="F459" t="n">
+        <v>22</v>
+      </c>
+      <c r="G459" t="n">
+        <v>23</v>
+      </c>
+      <c r="H459" t="n">
+        <v>26</v>
+      </c>
+      <c r="I459" t="n">
+        <v>28</v>
+      </c>
+      <c r="J459" t="n">
+        <v>30</v>
+      </c>
+      <c r="K459" t="n">
+        <v>33</v>
+      </c>
+      <c r="L459" t="n">
+        <v>35</v>
+      </c>
+      <c r="M459" t="n">
+        <v>41</v>
+      </c>
+      <c r="N459" t="n">
+        <v>48</v>
+      </c>
+      <c r="O459" t="n">
+        <v>50</v>
+      </c>
+      <c r="P459" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>59</v>
+      </c>
+      <c r="R459" t="n">
+        <v>62</v>
+      </c>
+      <c r="S459" t="n">
+        <v>75</v>
+      </c>
+      <c r="T459" t="n">
+        <v>77</v>
+      </c>
+      <c r="U459" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>9</v>
+      </c>
+      <c r="C460" t="n">
+        <v>13</v>
+      </c>
+      <c r="D460" t="n">
+        <v>16</v>
+      </c>
+      <c r="E460" t="n">
+        <v>17</v>
+      </c>
+      <c r="F460" t="n">
+        <v>20</v>
+      </c>
+      <c r="G460" t="n">
+        <v>22</v>
+      </c>
+      <c r="H460" t="n">
+        <v>24</v>
+      </c>
+      <c r="I460" t="n">
+        <v>28</v>
+      </c>
+      <c r="J460" t="n">
+        <v>35</v>
+      </c>
+      <c r="K460" t="n">
+        <v>38</v>
+      </c>
+      <c r="L460" t="n">
+        <v>41</v>
+      </c>
+      <c r="M460" t="n">
+        <v>45</v>
+      </c>
+      <c r="N460" t="n">
+        <v>48</v>
+      </c>
+      <c r="O460" t="n">
+        <v>50</v>
+      </c>
+      <c r="P460" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>63</v>
+      </c>
+      <c r="R460" t="n">
+        <v>69</v>
+      </c>
+      <c r="S460" t="n">
+        <v>73</v>
+      </c>
+      <c r="T460" t="n">
+        <v>74</v>
+      </c>
+      <c r="U460" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>4</v>
+      </c>
+      <c r="C461" t="n">
+        <v>12</v>
+      </c>
+      <c r="D461" t="n">
+        <v>20</v>
+      </c>
+      <c r="E461" t="n">
+        <v>23</v>
+      </c>
+      <c r="F461" t="n">
+        <v>24</v>
+      </c>
+      <c r="G461" t="n">
+        <v>26</v>
+      </c>
+      <c r="H461" t="n">
+        <v>33</v>
+      </c>
+      <c r="I461" t="n">
+        <v>36</v>
+      </c>
+      <c r="J461" t="n">
+        <v>38</v>
+      </c>
+      <c r="K461" t="n">
+        <v>39</v>
+      </c>
+      <c r="L461" t="n">
+        <v>43</v>
+      </c>
+      <c r="M461" t="n">
+        <v>44</v>
+      </c>
+      <c r="N461" t="n">
+        <v>45</v>
+      </c>
+      <c r="O461" t="n">
+        <v>47</v>
+      </c>
+      <c r="P461" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>54</v>
+      </c>
+      <c r="R461" t="n">
+        <v>58</v>
+      </c>
+      <c r="S461" t="n">
+        <v>69</v>
+      </c>
+      <c r="T461" t="n">
+        <v>70</v>
+      </c>
+      <c r="U461" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+      <c r="C462" t="n">
+        <v>7</v>
+      </c>
+      <c r="D462" t="n">
+        <v>9</v>
+      </c>
+      <c r="E462" t="n">
+        <v>10</v>
+      </c>
+      <c r="F462" t="n">
+        <v>18</v>
+      </c>
+      <c r="G462" t="n">
+        <v>27</v>
+      </c>
+      <c r="H462" t="n">
+        <v>30</v>
+      </c>
+      <c r="I462" t="n">
+        <v>36</v>
+      </c>
+      <c r="J462" t="n">
+        <v>37</v>
+      </c>
+      <c r="K462" t="n">
+        <v>46</v>
+      </c>
+      <c r="L462" t="n">
+        <v>58</v>
+      </c>
+      <c r="M462" t="n">
+        <v>59</v>
+      </c>
+      <c r="N462" t="n">
+        <v>60</v>
+      </c>
+      <c r="O462" t="n">
+        <v>61</v>
+      </c>
+      <c r="P462" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>64</v>
+      </c>
+      <c r="R462" t="n">
+        <v>71</v>
+      </c>
+      <c r="S462" t="n">
+        <v>73</v>
+      </c>
+      <c r="T462" t="n">
+        <v>78</v>
+      </c>
+      <c r="U462" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+      <c r="C463" t="n">
+        <v>3</v>
+      </c>
+      <c r="D463" t="n">
+        <v>4</v>
+      </c>
+      <c r="E463" t="n">
+        <v>10</v>
+      </c>
+      <c r="F463" t="n">
+        <v>14</v>
+      </c>
+      <c r="G463" t="n">
+        <v>19</v>
+      </c>
+      <c r="H463" t="n">
+        <v>20</v>
+      </c>
+      <c r="I463" t="n">
+        <v>23</v>
+      </c>
+      <c r="J463" t="n">
+        <v>24</v>
+      </c>
+      <c r="K463" t="n">
+        <v>26</v>
+      </c>
+      <c r="L463" t="n">
+        <v>33</v>
+      </c>
+      <c r="M463" t="n">
+        <v>40</v>
+      </c>
+      <c r="N463" t="n">
+        <v>57</v>
+      </c>
+      <c r="O463" t="n">
+        <v>61</v>
+      </c>
+      <c r="P463" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>68</v>
+      </c>
+      <c r="R463" t="n">
+        <v>74</v>
+      </c>
+      <c r="S463" t="n">
+        <v>76</v>
+      </c>
+      <c r="T463" t="n">
+        <v>77</v>
+      </c>
+      <c r="U463" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>4</v>
+      </c>
+      <c r="C464" t="n">
+        <v>8</v>
+      </c>
+      <c r="D464" t="n">
+        <v>20</v>
+      </c>
+      <c r="E464" t="n">
+        <v>28</v>
+      </c>
+      <c r="F464" t="n">
+        <v>29</v>
+      </c>
+      <c r="G464" t="n">
+        <v>38</v>
+      </c>
+      <c r="H464" t="n">
+        <v>41</v>
+      </c>
+      <c r="I464" t="n">
+        <v>46</v>
+      </c>
+      <c r="J464" t="n">
+        <v>50</v>
+      </c>
+      <c r="K464" t="n">
+        <v>57</v>
+      </c>
+      <c r="L464" t="n">
+        <v>59</v>
+      </c>
+      <c r="M464" t="n">
+        <v>60</v>
+      </c>
+      <c r="N464" t="n">
+        <v>64</v>
+      </c>
+      <c r="O464" t="n">
+        <v>70</v>
+      </c>
+      <c r="P464" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>72</v>
+      </c>
+      <c r="R464" t="n">
+        <v>73</v>
+      </c>
+      <c r="S464" t="n">
+        <v>75</v>
+      </c>
+      <c r="T464" t="n">
+        <v>77</v>
+      </c>
+      <c r="U464" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>2</v>
+      </c>
+      <c r="C465" t="n">
+        <v>6</v>
+      </c>
+      <c r="D465" t="n">
+        <v>10</v>
+      </c>
+      <c r="E465" t="n">
+        <v>12</v>
+      </c>
+      <c r="F465" t="n">
+        <v>17</v>
+      </c>
+      <c r="G465" t="n">
+        <v>26</v>
+      </c>
+      <c r="H465" t="n">
+        <v>29</v>
+      </c>
+      <c r="I465" t="n">
+        <v>30</v>
+      </c>
+      <c r="J465" t="n">
+        <v>34</v>
+      </c>
+      <c r="K465" t="n">
+        <v>36</v>
+      </c>
+      <c r="L465" t="n">
+        <v>42</v>
+      </c>
+      <c r="M465" t="n">
+        <v>45</v>
+      </c>
+      <c r="N465" t="n">
+        <v>46</v>
+      </c>
+      <c r="O465" t="n">
+        <v>48</v>
+      </c>
+      <c r="P465" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>55</v>
+      </c>
+      <c r="R465" t="n">
+        <v>56</v>
+      </c>
+      <c r="S465" t="n">
+        <v>57</v>
+      </c>
+      <c r="T465" t="n">
+        <v>68</v>
+      </c>
+      <c r="U465" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+      <c r="C466" t="n">
+        <v>12</v>
+      </c>
+      <c r="D466" t="n">
+        <v>15</v>
+      </c>
+      <c r="E466" t="n">
+        <v>21</v>
+      </c>
+      <c r="F466" t="n">
+        <v>23</v>
+      </c>
+      <c r="G466" t="n">
+        <v>31</v>
+      </c>
+      <c r="H466" t="n">
+        <v>34</v>
+      </c>
+      <c r="I466" t="n">
+        <v>36</v>
+      </c>
+      <c r="J466" t="n">
+        <v>41</v>
+      </c>
+      <c r="K466" t="n">
+        <v>42</v>
+      </c>
+      <c r="L466" t="n">
+        <v>44</v>
+      </c>
+      <c r="M466" t="n">
+        <v>45</v>
+      </c>
+      <c r="N466" t="n">
+        <v>47</v>
+      </c>
+      <c r="O466" t="n">
+        <v>48</v>
+      </c>
+      <c r="P466" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>53</v>
+      </c>
+      <c r="R466" t="n">
+        <v>59</v>
+      </c>
+      <c r="S466" t="n">
+        <v>64</v>
+      </c>
+      <c r="T466" t="n">
+        <v>75</v>
+      </c>
+      <c r="U466" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>8</v>
+      </c>
+      <c r="C467" t="n">
+        <v>15</v>
+      </c>
+      <c r="D467" t="n">
+        <v>16</v>
+      </c>
+      <c r="E467" t="n">
+        <v>17</v>
+      </c>
+      <c r="F467" t="n">
+        <v>21</v>
+      </c>
+      <c r="G467" t="n">
+        <v>25</v>
+      </c>
+      <c r="H467" t="n">
+        <v>30</v>
+      </c>
+      <c r="I467" t="n">
+        <v>35</v>
+      </c>
+      <c r="J467" t="n">
+        <v>40</v>
+      </c>
+      <c r="K467" t="n">
+        <v>47</v>
+      </c>
+      <c r="L467" t="n">
+        <v>48</v>
+      </c>
+      <c r="M467" t="n">
+        <v>49</v>
+      </c>
+      <c r="N467" t="n">
+        <v>56</v>
+      </c>
+      <c r="O467" t="n">
+        <v>58</v>
+      </c>
+      <c r="P467" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>63</v>
+      </c>
+      <c r="R467" t="n">
+        <v>66</v>
+      </c>
+      <c r="S467" t="n">
+        <v>68</v>
+      </c>
+      <c r="T467" t="n">
+        <v>69</v>
+      </c>
+      <c r="U467" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>4</v>
+      </c>
+      <c r="C468" t="n">
+        <v>14</v>
+      </c>
+      <c r="D468" t="n">
+        <v>18</v>
+      </c>
+      <c r="E468" t="n">
+        <v>21</v>
+      </c>
+      <c r="F468" t="n">
+        <v>25</v>
+      </c>
+      <c r="G468" t="n">
+        <v>26</v>
+      </c>
+      <c r="H468" t="n">
+        <v>29</v>
+      </c>
+      <c r="I468" t="n">
+        <v>32</v>
+      </c>
+      <c r="J468" t="n">
+        <v>34</v>
+      </c>
+      <c r="K468" t="n">
+        <v>40</v>
+      </c>
+      <c r="L468" t="n">
+        <v>43</v>
+      </c>
+      <c r="M468" t="n">
+        <v>46</v>
+      </c>
+      <c r="N468" t="n">
+        <v>47</v>
+      </c>
+      <c r="O468" t="n">
+        <v>51</v>
+      </c>
+      <c r="P468" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>61</v>
+      </c>
+      <c r="R468" t="n">
+        <v>64</v>
+      </c>
+      <c r="S468" t="n">
+        <v>66</v>
+      </c>
+      <c r="T468" t="n">
+        <v>73</v>
+      </c>
+      <c r="U468" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+      <c r="C469" t="n">
+        <v>3</v>
+      </c>
+      <c r="D469" t="n">
+        <v>12</v>
+      </c>
+      <c r="E469" t="n">
+        <v>19</v>
+      </c>
+      <c r="F469" t="n">
+        <v>27</v>
+      </c>
+      <c r="G469" t="n">
+        <v>28</v>
+      </c>
+      <c r="H469" t="n">
+        <v>31</v>
+      </c>
+      <c r="I469" t="n">
+        <v>32</v>
+      </c>
+      <c r="J469" t="n">
+        <v>38</v>
+      </c>
+      <c r="K469" t="n">
+        <v>41</v>
+      </c>
+      <c r="L469" t="n">
+        <v>46</v>
+      </c>
+      <c r="M469" t="n">
+        <v>52</v>
+      </c>
+      <c r="N469" t="n">
+        <v>53</v>
+      </c>
+      <c r="O469" t="n">
+        <v>57</v>
+      </c>
+      <c r="P469" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>60</v>
+      </c>
+      <c r="R469" t="n">
+        <v>62</v>
+      </c>
+      <c r="S469" t="n">
+        <v>63</v>
+      </c>
+      <c r="T469" t="n">
+        <v>65</v>
+      </c>
+      <c r="U469" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>4</v>
+      </c>
+      <c r="C470" t="n">
+        <v>6</v>
+      </c>
+      <c r="D470" t="n">
+        <v>7</v>
+      </c>
+      <c r="E470" t="n">
+        <v>9</v>
+      </c>
+      <c r="F470" t="n">
+        <v>16</v>
+      </c>
+      <c r="G470" t="n">
+        <v>18</v>
+      </c>
+      <c r="H470" t="n">
+        <v>19</v>
+      </c>
+      <c r="I470" t="n">
+        <v>22</v>
+      </c>
+      <c r="J470" t="n">
+        <v>31</v>
+      </c>
+      <c r="K470" t="n">
+        <v>35</v>
+      </c>
+      <c r="L470" t="n">
+        <v>38</v>
+      </c>
+      <c r="M470" t="n">
+        <v>39</v>
+      </c>
+      <c r="N470" t="n">
+        <v>56</v>
+      </c>
+      <c r="O470" t="n">
+        <v>60</v>
+      </c>
+      <c r="P470" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>66</v>
+      </c>
+      <c r="R470" t="n">
+        <v>68</v>
+      </c>
+      <c r="S470" t="n">
+        <v>70</v>
+      </c>
+      <c r="T470" t="n">
+        <v>73</v>
+      </c>
+      <c r="U470" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>3</v>
+      </c>
+      <c r="C471" t="n">
+        <v>4</v>
+      </c>
+      <c r="D471" t="n">
+        <v>15</v>
+      </c>
+      <c r="E471" t="n">
+        <v>19</v>
+      </c>
+      <c r="F471" t="n">
+        <v>22</v>
+      </c>
+      <c r="G471" t="n">
+        <v>24</v>
+      </c>
+      <c r="H471" t="n">
+        <v>25</v>
+      </c>
+      <c r="I471" t="n">
+        <v>30</v>
+      </c>
+      <c r="J471" t="n">
+        <v>31</v>
+      </c>
+      <c r="K471" t="n">
+        <v>35</v>
+      </c>
+      <c r="L471" t="n">
+        <v>40</v>
+      </c>
+      <c r="M471" t="n">
+        <v>47</v>
+      </c>
+      <c r="N471" t="n">
+        <v>49</v>
+      </c>
+      <c r="O471" t="n">
+        <v>52</v>
+      </c>
+      <c r="P471" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>55</v>
+      </c>
+      <c r="R471" t="n">
+        <v>61</v>
+      </c>
+      <c r="S471" t="n">
+        <v>67</v>
+      </c>
+      <c r="T471" t="n">
+        <v>73</v>
+      </c>
+      <c r="U471" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>2</v>
+      </c>
+      <c r="C472" t="n">
+        <v>3</v>
+      </c>
+      <c r="D472" t="n">
+        <v>14</v>
+      </c>
+      <c r="E472" t="n">
+        <v>20</v>
+      </c>
+      <c r="F472" t="n">
+        <v>23</v>
+      </c>
+      <c r="G472" t="n">
+        <v>25</v>
+      </c>
+      <c r="H472" t="n">
+        <v>31</v>
+      </c>
+      <c r="I472" t="n">
+        <v>34</v>
+      </c>
+      <c r="J472" t="n">
+        <v>40</v>
+      </c>
+      <c r="K472" t="n">
+        <v>42</v>
+      </c>
+      <c r="L472" t="n">
+        <v>48</v>
+      </c>
+      <c r="M472" t="n">
+        <v>55</v>
+      </c>
+      <c r="N472" t="n">
+        <v>57</v>
+      </c>
+      <c r="O472" t="n">
+        <v>66</v>
+      </c>
+      <c r="P472" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>70</v>
+      </c>
+      <c r="R472" t="n">
+        <v>71</v>
+      </c>
+      <c r="S472" t="n">
+        <v>74</v>
+      </c>
+      <c r="T472" t="n">
+        <v>75</v>
+      </c>
+      <c r="U472" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>6</v>
+      </c>
+      <c r="C473" t="n">
+        <v>15</v>
+      </c>
+      <c r="D473" t="n">
+        <v>20</v>
+      </c>
+      <c r="E473" t="n">
+        <v>27</v>
+      </c>
+      <c r="F473" t="n">
+        <v>32</v>
+      </c>
+      <c r="G473" t="n">
+        <v>37</v>
+      </c>
+      <c r="H473" t="n">
+        <v>51</v>
+      </c>
+      <c r="I473" t="n">
+        <v>53</v>
+      </c>
+      <c r="J473" t="n">
+        <v>58</v>
+      </c>
+      <c r="K473" t="n">
+        <v>60</v>
+      </c>
+      <c r="L473" t="n">
+        <v>62</v>
+      </c>
+      <c r="M473" t="n">
+        <v>64</v>
+      </c>
+      <c r="N473" t="n">
+        <v>65</v>
+      </c>
+      <c r="O473" t="n">
+        <v>66</v>
+      </c>
+      <c r="P473" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>71</v>
+      </c>
+      <c r="R473" t="n">
+        <v>73</v>
+      </c>
+      <c r="S473" t="n">
+        <v>77</v>
+      </c>
+      <c r="T473" t="n">
+        <v>78</v>
+      </c>
+      <c r="U473" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>2</v>
+      </c>
+      <c r="C474" t="n">
+        <v>4</v>
+      </c>
+      <c r="D474" t="n">
+        <v>5</v>
+      </c>
+      <c r="E474" t="n">
+        <v>13</v>
+      </c>
+      <c r="F474" t="n">
+        <v>14</v>
+      </c>
+      <c r="G474" t="n">
+        <v>19</v>
+      </c>
+      <c r="H474" t="n">
+        <v>22</v>
+      </c>
+      <c r="I474" t="n">
+        <v>23</v>
+      </c>
+      <c r="J474" t="n">
+        <v>24</v>
+      </c>
+      <c r="K474" t="n">
+        <v>25</v>
+      </c>
+      <c r="L474" t="n">
+        <v>26</v>
+      </c>
+      <c r="M474" t="n">
+        <v>27</v>
+      </c>
+      <c r="N474" t="n">
+        <v>31</v>
+      </c>
+      <c r="O474" t="n">
+        <v>49</v>
+      </c>
+      <c r="P474" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>55</v>
+      </c>
+      <c r="R474" t="n">
+        <v>63</v>
+      </c>
+      <c r="S474" t="n">
+        <v>66</v>
+      </c>
+      <c r="T474" t="n">
+        <v>74</v>
+      </c>
+      <c r="U474" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>2</v>
+      </c>
+      <c r="C475" t="n">
+        <v>4</v>
+      </c>
+      <c r="D475" t="n">
+        <v>8</v>
+      </c>
+      <c r="E475" t="n">
+        <v>11</v>
+      </c>
+      <c r="F475" t="n">
+        <v>14</v>
+      </c>
+      <c r="G475" t="n">
+        <v>16</v>
+      </c>
+      <c r="H475" t="n">
+        <v>17</v>
+      </c>
+      <c r="I475" t="n">
+        <v>26</v>
+      </c>
+      <c r="J475" t="n">
+        <v>32</v>
+      </c>
+      <c r="K475" t="n">
+        <v>33</v>
+      </c>
+      <c r="L475" t="n">
+        <v>48</v>
+      </c>
+      <c r="M475" t="n">
+        <v>51</v>
+      </c>
+      <c r="N475" t="n">
+        <v>61</v>
+      </c>
+      <c r="O475" t="n">
+        <v>62</v>
+      </c>
+      <c r="P475" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>65</v>
+      </c>
+      <c r="R475" t="n">
+        <v>68</v>
+      </c>
+      <c r="S475" t="n">
+        <v>69</v>
+      </c>
+      <c r="T475" t="n">
+        <v>74</v>
+      </c>
+      <c r="U475" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>2</v>
+      </c>
+      <c r="C476" t="n">
+        <v>9</v>
+      </c>
+      <c r="D476" t="n">
+        <v>10</v>
+      </c>
+      <c r="E476" t="n">
+        <v>12</v>
+      </c>
+      <c r="F476" t="n">
+        <v>13</v>
+      </c>
+      <c r="G476" t="n">
+        <v>14</v>
+      </c>
+      <c r="H476" t="n">
+        <v>19</v>
+      </c>
+      <c r="I476" t="n">
+        <v>20</v>
+      </c>
+      <c r="J476" t="n">
+        <v>22</v>
+      </c>
+      <c r="K476" t="n">
+        <v>33</v>
+      </c>
+      <c r="L476" t="n">
+        <v>34</v>
+      </c>
+      <c r="M476" t="n">
+        <v>40</v>
+      </c>
+      <c r="N476" t="n">
+        <v>44</v>
+      </c>
+      <c r="O476" t="n">
+        <v>53</v>
+      </c>
+      <c r="P476" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>58</v>
+      </c>
+      <c r="R476" t="n">
+        <v>60</v>
+      </c>
+      <c r="S476" t="n">
+        <v>70</v>
+      </c>
+      <c r="T476" t="n">
+        <v>73</v>
+      </c>
+      <c r="U476" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+      <c r="C477" t="n">
+        <v>7</v>
+      </c>
+      <c r="D477" t="n">
+        <v>10</v>
+      </c>
+      <c r="E477" t="n">
+        <v>14</v>
+      </c>
+      <c r="F477" t="n">
+        <v>26</v>
+      </c>
+      <c r="G477" t="n">
+        <v>30</v>
+      </c>
+      <c r="H477" t="n">
+        <v>34</v>
+      </c>
+      <c r="I477" t="n">
+        <v>37</v>
+      </c>
+      <c r="J477" t="n">
+        <v>38</v>
+      </c>
+      <c r="K477" t="n">
+        <v>44</v>
+      </c>
+      <c r="L477" t="n">
+        <v>48</v>
+      </c>
+      <c r="M477" t="n">
+        <v>51</v>
+      </c>
+      <c r="N477" t="n">
+        <v>52</v>
+      </c>
+      <c r="O477" t="n">
+        <v>53</v>
+      </c>
+      <c r="P477" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>60</v>
+      </c>
+      <c r="R477" t="n">
+        <v>66</v>
+      </c>
+      <c r="S477" t="n">
+        <v>69</v>
+      </c>
+      <c r="T477" t="n">
+        <v>72</v>
+      </c>
+      <c r="U477" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>2</v>
+      </c>
+      <c r="C478" t="n">
+        <v>4</v>
+      </c>
+      <c r="D478" t="n">
+        <v>7</v>
+      </c>
+      <c r="E478" t="n">
+        <v>11</v>
+      </c>
+      <c r="F478" t="n">
+        <v>24</v>
+      </c>
+      <c r="G478" t="n">
+        <v>29</v>
+      </c>
+      <c r="H478" t="n">
+        <v>34</v>
+      </c>
+      <c r="I478" t="n">
+        <v>36</v>
+      </c>
+      <c r="J478" t="n">
+        <v>41</v>
+      </c>
+      <c r="K478" t="n">
+        <v>42</v>
+      </c>
+      <c r="L478" t="n">
+        <v>47</v>
+      </c>
+      <c r="M478" t="n">
+        <v>48</v>
+      </c>
+      <c r="N478" t="n">
+        <v>50</v>
+      </c>
+      <c r="O478" t="n">
+        <v>53</v>
+      </c>
+      <c r="P478" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>57</v>
+      </c>
+      <c r="R478" t="n">
+        <v>58</v>
+      </c>
+      <c r="S478" t="n">
+        <v>60</v>
+      </c>
+      <c r="T478" t="n">
+        <v>65</v>
+      </c>
+      <c r="U478" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>4</v>
+      </c>
+      <c r="C479" t="n">
+        <v>5</v>
+      </c>
+      <c r="D479" t="n">
+        <v>6</v>
+      </c>
+      <c r="E479" t="n">
+        <v>10</v>
+      </c>
+      <c r="F479" t="n">
+        <v>18</v>
+      </c>
+      <c r="G479" t="n">
+        <v>31</v>
+      </c>
+      <c r="H479" t="n">
+        <v>32</v>
+      </c>
+      <c r="I479" t="n">
+        <v>38</v>
+      </c>
+      <c r="J479" t="n">
+        <v>45</v>
+      </c>
+      <c r="K479" t="n">
+        <v>48</v>
+      </c>
+      <c r="L479" t="n">
+        <v>49</v>
+      </c>
+      <c r="M479" t="n">
+        <v>50</v>
+      </c>
+      <c r="N479" t="n">
+        <v>52</v>
+      </c>
+      <c r="O479" t="n">
+        <v>53</v>
+      </c>
+      <c r="P479" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>58</v>
+      </c>
+      <c r="R479" t="n">
+        <v>64</v>
+      </c>
+      <c r="S479" t="n">
+        <v>67</v>
+      </c>
+      <c r="T479" t="n">
+        <v>73</v>
+      </c>
+      <c r="U479" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>3</v>
+      </c>
+      <c r="C480" t="n">
+        <v>9</v>
+      </c>
+      <c r="D480" t="n">
+        <v>11</v>
+      </c>
+      <c r="E480" t="n">
+        <v>12</v>
+      </c>
+      <c r="F480" t="n">
+        <v>16</v>
+      </c>
+      <c r="G480" t="n">
+        <v>19</v>
+      </c>
+      <c r="H480" t="n">
+        <v>23</v>
+      </c>
+      <c r="I480" t="n">
+        <v>28</v>
+      </c>
+      <c r="J480" t="n">
+        <v>31</v>
+      </c>
+      <c r="K480" t="n">
+        <v>34</v>
+      </c>
+      <c r="L480" t="n">
+        <v>36</v>
+      </c>
+      <c r="M480" t="n">
+        <v>39</v>
+      </c>
+      <c r="N480" t="n">
+        <v>43</v>
+      </c>
+      <c r="O480" t="n">
+        <v>44</v>
+      </c>
+      <c r="P480" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>46</v>
+      </c>
+      <c r="R480" t="n">
+        <v>59</v>
+      </c>
+      <c r="S480" t="n">
+        <v>61</v>
+      </c>
+      <c r="T480" t="n">
+        <v>63</v>
+      </c>
+      <c r="U480" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>4</v>
+      </c>
+      <c r="C481" t="n">
+        <v>11</v>
+      </c>
+      <c r="D481" t="n">
+        <v>15</v>
+      </c>
+      <c r="E481" t="n">
+        <v>16</v>
+      </c>
+      <c r="F481" t="n">
+        <v>21</v>
+      </c>
+      <c r="G481" t="n">
+        <v>22</v>
+      </c>
+      <c r="H481" t="n">
+        <v>24</v>
+      </c>
+      <c r="I481" t="n">
+        <v>33</v>
+      </c>
+      <c r="J481" t="n">
+        <v>34</v>
+      </c>
+      <c r="K481" t="n">
+        <v>37</v>
+      </c>
+      <c r="L481" t="n">
+        <v>44</v>
+      </c>
+      <c r="M481" t="n">
+        <v>46</v>
+      </c>
+      <c r="N481" t="n">
+        <v>47</v>
+      </c>
+      <c r="O481" t="n">
+        <v>56</v>
+      </c>
+      <c r="P481" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>63</v>
+      </c>
+      <c r="R481" t="n">
+        <v>65</v>
+      </c>
+      <c r="S481" t="n">
+        <v>66</v>
+      </c>
+      <c r="T481" t="n">
+        <v>72</v>
+      </c>
+      <c r="U481" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>3</v>
+      </c>
+      <c r="C482" t="n">
+        <v>8</v>
+      </c>
+      <c r="D482" t="n">
+        <v>9</v>
+      </c>
+      <c r="E482" t="n">
+        <v>14</v>
+      </c>
+      <c r="F482" t="n">
+        <v>19</v>
+      </c>
+      <c r="G482" t="n">
+        <v>21</v>
+      </c>
+      <c r="H482" t="n">
+        <v>23</v>
+      </c>
+      <c r="I482" t="n">
+        <v>26</v>
+      </c>
+      <c r="J482" t="n">
+        <v>27</v>
+      </c>
+      <c r="K482" t="n">
+        <v>33</v>
+      </c>
+      <c r="L482" t="n">
+        <v>36</v>
+      </c>
+      <c r="M482" t="n">
+        <v>39</v>
+      </c>
+      <c r="N482" t="n">
+        <v>43</v>
+      </c>
+      <c r="O482" t="n">
+        <v>56</v>
+      </c>
+      <c r="P482" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>65</v>
+      </c>
+      <c r="R482" t="n">
+        <v>67</v>
+      </c>
+      <c r="S482" t="n">
+        <v>69</v>
+      </c>
+      <c r="T482" t="n">
+        <v>71</v>
+      </c>
+      <c r="U482" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>10</v>
+      </c>
+      <c r="C483" t="n">
+        <v>16</v>
+      </c>
+      <c r="D483" t="n">
+        <v>19</v>
+      </c>
+      <c r="E483" t="n">
+        <v>24</v>
+      </c>
+      <c r="F483" t="n">
+        <v>26</v>
+      </c>
+      <c r="G483" t="n">
+        <v>34</v>
+      </c>
+      <c r="H483" t="n">
+        <v>37</v>
+      </c>
+      <c r="I483" t="n">
+        <v>39</v>
+      </c>
+      <c r="J483" t="n">
+        <v>40</v>
+      </c>
+      <c r="K483" t="n">
+        <v>42</v>
+      </c>
+      <c r="L483" t="n">
+        <v>44</v>
+      </c>
+      <c r="M483" t="n">
+        <v>51</v>
+      </c>
+      <c r="N483" t="n">
+        <v>53</v>
+      </c>
+      <c r="O483" t="n">
+        <v>55</v>
+      </c>
+      <c r="P483" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>60</v>
+      </c>
+      <c r="R483" t="n">
+        <v>62</v>
+      </c>
+      <c r="S483" t="n">
+        <v>69</v>
+      </c>
+      <c r="T483" t="n">
+        <v>73</v>
+      </c>
+      <c r="U483" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>10</v>
+      </c>
+      <c r="C484" t="n">
+        <v>12</v>
+      </c>
+      <c r="D484" t="n">
+        <v>16</v>
+      </c>
+      <c r="E484" t="n">
+        <v>19</v>
+      </c>
+      <c r="F484" t="n">
+        <v>26</v>
+      </c>
+      <c r="G484" t="n">
+        <v>27</v>
+      </c>
+      <c r="H484" t="n">
+        <v>31</v>
+      </c>
+      <c r="I484" t="n">
+        <v>39</v>
+      </c>
+      <c r="J484" t="n">
+        <v>40</v>
+      </c>
+      <c r="K484" t="n">
+        <v>42</v>
+      </c>
+      <c r="L484" t="n">
+        <v>44</v>
+      </c>
+      <c r="M484" t="n">
+        <v>45</v>
+      </c>
+      <c r="N484" t="n">
+        <v>51</v>
+      </c>
+      <c r="O484" t="n">
+        <v>54</v>
+      </c>
+      <c r="P484" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>66</v>
+      </c>
+      <c r="R484" t="n">
+        <v>67</v>
+      </c>
+      <c r="S484" t="n">
+        <v>72</v>
+      </c>
+      <c r="T484" t="n">
+        <v>78</v>
+      </c>
+      <c r="U484" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+      <c r="C485" t="n">
+        <v>3</v>
+      </c>
+      <c r="D485" t="n">
+        <v>4</v>
+      </c>
+      <c r="E485" t="n">
+        <v>6</v>
+      </c>
+      <c r="F485" t="n">
+        <v>17</v>
+      </c>
+      <c r="G485" t="n">
+        <v>23</v>
+      </c>
+      <c r="H485" t="n">
+        <v>28</v>
+      </c>
+      <c r="I485" t="n">
+        <v>33</v>
+      </c>
+      <c r="J485" t="n">
+        <v>36</v>
+      </c>
+      <c r="K485" t="n">
+        <v>38</v>
+      </c>
+      <c r="L485" t="n">
+        <v>41</v>
+      </c>
+      <c r="M485" t="n">
+        <v>46</v>
+      </c>
+      <c r="N485" t="n">
+        <v>50</v>
+      </c>
+      <c r="O485" t="n">
+        <v>51</v>
+      </c>
+      <c r="P485" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>57</v>
+      </c>
+      <c r="R485" t="n">
+        <v>61</v>
+      </c>
+      <c r="S485" t="n">
+        <v>74</v>
+      </c>
+      <c r="T485" t="n">
+        <v>79</v>
+      </c>
+      <c r="U485" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+      <c r="C486" t="n">
+        <v>7</v>
+      </c>
+      <c r="D486" t="n">
+        <v>8</v>
+      </c>
+      <c r="E486" t="n">
+        <v>12</v>
+      </c>
+      <c r="F486" t="n">
+        <v>13</v>
+      </c>
+      <c r="G486" t="n">
+        <v>21</v>
+      </c>
+      <c r="H486" t="n">
+        <v>24</v>
+      </c>
+      <c r="I486" t="n">
+        <v>28</v>
+      </c>
+      <c r="J486" t="n">
+        <v>31</v>
+      </c>
+      <c r="K486" t="n">
+        <v>33</v>
+      </c>
+      <c r="L486" t="n">
+        <v>34</v>
+      </c>
+      <c r="M486" t="n">
+        <v>35</v>
+      </c>
+      <c r="N486" t="n">
+        <v>37</v>
+      </c>
+      <c r="O486" t="n">
+        <v>41</v>
+      </c>
+      <c r="P486" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>51</v>
+      </c>
+      <c r="R486" t="n">
+        <v>58</v>
+      </c>
+      <c r="S486" t="n">
+        <v>60</v>
+      </c>
+      <c r="T486" t="n">
+        <v>72</v>
+      </c>
+      <c r="U486" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>3</v>
+      </c>
+      <c r="C487" t="n">
+        <v>5</v>
+      </c>
+      <c r="D487" t="n">
+        <v>11</v>
+      </c>
+      <c r="E487" t="n">
+        <v>15</v>
+      </c>
+      <c r="F487" t="n">
+        <v>17</v>
+      </c>
+      <c r="G487" t="n">
+        <v>20</v>
+      </c>
+      <c r="H487" t="n">
+        <v>23</v>
+      </c>
+      <c r="I487" t="n">
+        <v>28</v>
+      </c>
+      <c r="J487" t="n">
+        <v>31</v>
+      </c>
+      <c r="K487" t="n">
+        <v>40</v>
+      </c>
+      <c r="L487" t="n">
+        <v>41</v>
+      </c>
+      <c r="M487" t="n">
+        <v>42</v>
+      </c>
+      <c r="N487" t="n">
+        <v>44</v>
+      </c>
+      <c r="O487" t="n">
+        <v>50</v>
+      </c>
+      <c r="P487" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>53</v>
+      </c>
+      <c r="R487" t="n">
+        <v>60</v>
+      </c>
+      <c r="S487" t="n">
+        <v>73</v>
+      </c>
+      <c r="T487" t="n">
+        <v>75</v>
+      </c>
+      <c r="U487" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+      <c r="C488" t="n">
+        <v>2</v>
+      </c>
+      <c r="D488" t="n">
+        <v>8</v>
+      </c>
+      <c r="E488" t="n">
+        <v>10</v>
+      </c>
+      <c r="F488" t="n">
+        <v>25</v>
+      </c>
+      <c r="G488" t="n">
+        <v>28</v>
+      </c>
+      <c r="H488" t="n">
+        <v>31</v>
+      </c>
+      <c r="I488" t="n">
+        <v>35</v>
+      </c>
+      <c r="J488" t="n">
+        <v>37</v>
+      </c>
+      <c r="K488" t="n">
+        <v>38</v>
+      </c>
+      <c r="L488" t="n">
+        <v>39</v>
+      </c>
+      <c r="M488" t="n">
+        <v>47</v>
+      </c>
+      <c r="N488" t="n">
+        <v>48</v>
+      </c>
+      <c r="O488" t="n">
+        <v>49</v>
+      </c>
+      <c r="P488" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>52</v>
+      </c>
+      <c r="R488" t="n">
+        <v>70</v>
+      </c>
+      <c r="S488" t="n">
+        <v>71</v>
+      </c>
+      <c r="T488" t="n">
+        <v>72</v>
+      </c>
+      <c r="U488" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3</v>
+      </c>
+      <c r="C489" t="n">
+        <v>6</v>
+      </c>
+      <c r="D489" t="n">
+        <v>9</v>
+      </c>
+      <c r="E489" t="n">
+        <v>10</v>
+      </c>
+      <c r="F489" t="n">
+        <v>19</v>
+      </c>
+      <c r="G489" t="n">
+        <v>21</v>
+      </c>
+      <c r="H489" t="n">
+        <v>26</v>
+      </c>
+      <c r="I489" t="n">
+        <v>31</v>
+      </c>
+      <c r="J489" t="n">
+        <v>34</v>
+      </c>
+      <c r="K489" t="n">
+        <v>36</v>
+      </c>
+      <c r="L489" t="n">
+        <v>39</v>
+      </c>
+      <c r="M489" t="n">
+        <v>40</v>
+      </c>
+      <c r="N489" t="n">
+        <v>43</v>
+      </c>
+      <c r="O489" t="n">
+        <v>46</v>
+      </c>
+      <c r="P489" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>63</v>
+      </c>
+      <c r="R489" t="n">
+        <v>69</v>
+      </c>
+      <c r="S489" t="n">
+        <v>75</v>
+      </c>
+      <c r="T489" t="n">
+        <v>78</v>
+      </c>
+      <c r="U489" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>2</v>
+      </c>
+      <c r="C490" t="n">
+        <v>3</v>
+      </c>
+      <c r="D490" t="n">
+        <v>8</v>
+      </c>
+      <c r="E490" t="n">
+        <v>12</v>
+      </c>
+      <c r="F490" t="n">
+        <v>13</v>
+      </c>
+      <c r="G490" t="n">
+        <v>16</v>
+      </c>
+      <c r="H490" t="n">
+        <v>17</v>
+      </c>
+      <c r="I490" t="n">
+        <v>20</v>
+      </c>
+      <c r="J490" t="n">
+        <v>25</v>
+      </c>
+      <c r="K490" t="n">
+        <v>29</v>
+      </c>
+      <c r="L490" t="n">
+        <v>42</v>
+      </c>
+      <c r="M490" t="n">
+        <v>47</v>
+      </c>
+      <c r="N490" t="n">
+        <v>49</v>
+      </c>
+      <c r="O490" t="n">
+        <v>50</v>
+      </c>
+      <c r="P490" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>54</v>
+      </c>
+      <c r="R490" t="n">
+        <v>55</v>
+      </c>
+      <c r="S490" t="n">
+        <v>60</v>
+      </c>
+      <c r="T490" t="n">
+        <v>69</v>
+      </c>
+      <c r="U490" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>2</v>
+      </c>
+      <c r="C491" t="n">
+        <v>7</v>
+      </c>
+      <c r="D491" t="n">
+        <v>10</v>
+      </c>
+      <c r="E491" t="n">
+        <v>12</v>
+      </c>
+      <c r="F491" t="n">
+        <v>19</v>
+      </c>
+      <c r="G491" t="n">
+        <v>22</v>
+      </c>
+      <c r="H491" t="n">
+        <v>34</v>
+      </c>
+      <c r="I491" t="n">
+        <v>38</v>
+      </c>
+      <c r="J491" t="n">
+        <v>40</v>
+      </c>
+      <c r="K491" t="n">
+        <v>43</v>
+      </c>
+      <c r="L491" t="n">
+        <v>45</v>
+      </c>
+      <c r="M491" t="n">
+        <v>49</v>
+      </c>
+      <c r="N491" t="n">
+        <v>53</v>
+      </c>
+      <c r="O491" t="n">
+        <v>56</v>
+      </c>
+      <c r="P491" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>61</v>
+      </c>
+      <c r="R491" t="n">
+        <v>66</v>
+      </c>
+      <c r="S491" t="n">
+        <v>67</v>
+      </c>
+      <c r="T491" t="n">
+        <v>73</v>
+      </c>
+      <c r="U491" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>6</v>
+      </c>
+      <c r="C492" t="n">
+        <v>7</v>
+      </c>
+      <c r="D492" t="n">
+        <v>8</v>
+      </c>
+      <c r="E492" t="n">
+        <v>10</v>
+      </c>
+      <c r="F492" t="n">
+        <v>11</v>
+      </c>
+      <c r="G492" t="n">
+        <v>15</v>
+      </c>
+      <c r="H492" t="n">
+        <v>16</v>
+      </c>
+      <c r="I492" t="n">
+        <v>17</v>
+      </c>
+      <c r="J492" t="n">
+        <v>24</v>
+      </c>
+      <c r="K492" t="n">
+        <v>27</v>
+      </c>
+      <c r="L492" t="n">
+        <v>29</v>
+      </c>
+      <c r="M492" t="n">
+        <v>31</v>
+      </c>
+      <c r="N492" t="n">
+        <v>33</v>
+      </c>
+      <c r="O492" t="n">
+        <v>40</v>
+      </c>
+      <c r="P492" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>46</v>
+      </c>
+      <c r="R492" t="n">
+        <v>52</v>
+      </c>
+      <c r="S492" t="n">
+        <v>63</v>
+      </c>
+      <c r="T492" t="n">
+        <v>64</v>
+      </c>
+      <c r="U492" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>4</v>
+      </c>
+      <c r="C493" t="n">
+        <v>5</v>
+      </c>
+      <c r="D493" t="n">
+        <v>9</v>
+      </c>
+      <c r="E493" t="n">
+        <v>12</v>
+      </c>
+      <c r="F493" t="n">
+        <v>13</v>
+      </c>
+      <c r="G493" t="n">
+        <v>25</v>
+      </c>
+      <c r="H493" t="n">
+        <v>26</v>
+      </c>
+      <c r="I493" t="n">
+        <v>27</v>
+      </c>
+      <c r="J493" t="n">
+        <v>32</v>
+      </c>
+      <c r="K493" t="n">
+        <v>35</v>
+      </c>
+      <c r="L493" t="n">
+        <v>37</v>
+      </c>
+      <c r="M493" t="n">
+        <v>40</v>
+      </c>
+      <c r="N493" t="n">
+        <v>48</v>
+      </c>
+      <c r="O493" t="n">
+        <v>50</v>
+      </c>
+      <c r="P493" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>62</v>
+      </c>
+      <c r="R493" t="n">
+        <v>64</v>
+      </c>
+      <c r="S493" t="n">
+        <v>75</v>
+      </c>
+      <c r="T493" t="n">
+        <v>77</v>
+      </c>
+      <c r="U493" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>4</v>
+      </c>
+      <c r="C494" t="n">
+        <v>5</v>
+      </c>
+      <c r="D494" t="n">
+        <v>6</v>
+      </c>
+      <c r="E494" t="n">
+        <v>8</v>
+      </c>
+      <c r="F494" t="n">
+        <v>10</v>
+      </c>
+      <c r="G494" t="n">
+        <v>14</v>
+      </c>
+      <c r="H494" t="n">
+        <v>25</v>
+      </c>
+      <c r="I494" t="n">
+        <v>29</v>
+      </c>
+      <c r="J494" t="n">
+        <v>37</v>
+      </c>
+      <c r="K494" t="n">
+        <v>45</v>
+      </c>
+      <c r="L494" t="n">
+        <v>46</v>
+      </c>
+      <c r="M494" t="n">
+        <v>47</v>
+      </c>
+      <c r="N494" t="n">
+        <v>48</v>
+      </c>
+      <c r="O494" t="n">
+        <v>51</v>
+      </c>
+      <c r="P494" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>58</v>
+      </c>
+      <c r="R494" t="n">
+        <v>59</v>
+      </c>
+      <c r="S494" t="n">
+        <v>65</v>
+      </c>
+      <c r="T494" t="n">
+        <v>77</v>
+      </c>
+      <c r="U494" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>3</v>
+      </c>
+      <c r="C495" t="n">
+        <v>4</v>
+      </c>
+      <c r="D495" t="n">
+        <v>6</v>
+      </c>
+      <c r="E495" t="n">
+        <v>7</v>
+      </c>
+      <c r="F495" t="n">
+        <v>8</v>
+      </c>
+      <c r="G495" t="n">
+        <v>10</v>
+      </c>
+      <c r="H495" t="n">
+        <v>13</v>
+      </c>
+      <c r="I495" t="n">
+        <v>14</v>
+      </c>
+      <c r="J495" t="n">
+        <v>15</v>
+      </c>
+      <c r="K495" t="n">
+        <v>27</v>
+      </c>
+      <c r="L495" t="n">
+        <v>29</v>
+      </c>
+      <c r="M495" t="n">
+        <v>30</v>
+      </c>
+      <c r="N495" t="n">
+        <v>38</v>
+      </c>
+      <c r="O495" t="n">
+        <v>46</v>
+      </c>
+      <c r="P495" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>73</v>
+      </c>
+      <c r="R495" t="n">
+        <v>75</v>
+      </c>
+      <c r="S495" t="n">
+        <v>77</v>
+      </c>
+      <c r="T495" t="n">
+        <v>78</v>
+      </c>
+      <c r="U495" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>2</v>
+      </c>
+      <c r="C496" t="n">
+        <v>3</v>
+      </c>
+      <c r="D496" t="n">
+        <v>4</v>
+      </c>
+      <c r="E496" t="n">
+        <v>13</v>
+      </c>
+      <c r="F496" t="n">
+        <v>17</v>
+      </c>
+      <c r="G496" t="n">
+        <v>20</v>
+      </c>
+      <c r="H496" t="n">
+        <v>22</v>
+      </c>
+      <c r="I496" t="n">
+        <v>30</v>
+      </c>
+      <c r="J496" t="n">
+        <v>31</v>
+      </c>
+      <c r="K496" t="n">
+        <v>42</v>
+      </c>
+      <c r="L496" t="n">
+        <v>43</v>
+      </c>
+      <c r="M496" t="n">
+        <v>44</v>
+      </c>
+      <c r="N496" t="n">
+        <v>47</v>
+      </c>
+      <c r="O496" t="n">
+        <v>50</v>
+      </c>
+      <c r="P496" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>57</v>
+      </c>
+      <c r="R496" t="n">
+        <v>68</v>
+      </c>
+      <c r="S496" t="n">
+        <v>72</v>
+      </c>
+      <c r="T496" t="n">
+        <v>73</v>
+      </c>
+      <c r="U496" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>5</v>
+      </c>
+      <c r="C497" t="n">
+        <v>6</v>
+      </c>
+      <c r="D497" t="n">
+        <v>12</v>
+      </c>
+      <c r="E497" t="n">
+        <v>15</v>
+      </c>
+      <c r="F497" t="n">
+        <v>18</v>
+      </c>
+      <c r="G497" t="n">
+        <v>19</v>
+      </c>
+      <c r="H497" t="n">
+        <v>20</v>
+      </c>
+      <c r="I497" t="n">
+        <v>23</v>
+      </c>
+      <c r="J497" t="n">
+        <v>24</v>
+      </c>
+      <c r="K497" t="n">
+        <v>30</v>
+      </c>
+      <c r="L497" t="n">
+        <v>32</v>
+      </c>
+      <c r="M497" t="n">
+        <v>37</v>
+      </c>
+      <c r="N497" t="n">
+        <v>43</v>
+      </c>
+      <c r="O497" t="n">
+        <v>48</v>
+      </c>
+      <c r="P497" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>57</v>
+      </c>
+      <c r="R497" t="n">
+        <v>66</v>
+      </c>
+      <c r="S497" t="n">
+        <v>70</v>
+      </c>
+      <c r="T497" t="n">
+        <v>75</v>
+      </c>
+      <c r="U497" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3</v>
+      </c>
+      <c r="C498" t="n">
+        <v>5</v>
+      </c>
+      <c r="D498" t="n">
+        <v>15</v>
+      </c>
+      <c r="E498" t="n">
+        <v>19</v>
+      </c>
+      <c r="F498" t="n">
+        <v>20</v>
+      </c>
+      <c r="G498" t="n">
+        <v>23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>25</v>
+      </c>
+      <c r="I498" t="n">
+        <v>40</v>
+      </c>
+      <c r="J498" t="n">
+        <v>42</v>
+      </c>
+      <c r="K498" t="n">
+        <v>45</v>
+      </c>
+      <c r="L498" t="n">
+        <v>47</v>
+      </c>
+      <c r="M498" t="n">
+        <v>49</v>
+      </c>
+      <c r="N498" t="n">
+        <v>57</v>
+      </c>
+      <c r="O498" t="n">
+        <v>58</v>
+      </c>
+      <c r="P498" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>67</v>
+      </c>
+      <c r="R498" t="n">
+        <v>73</v>
+      </c>
+      <c r="S498" t="n">
+        <v>75</v>
+      </c>
+      <c r="T498" t="n">
+        <v>78</v>
+      </c>
+      <c r="U498" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+      <c r="C499" t="n">
+        <v>6</v>
+      </c>
+      <c r="D499" t="n">
+        <v>14</v>
+      </c>
+      <c r="E499" t="n">
+        <v>15</v>
+      </c>
+      <c r="F499" t="n">
+        <v>19</v>
+      </c>
+      <c r="G499" t="n">
+        <v>22</v>
+      </c>
+      <c r="H499" t="n">
+        <v>24</v>
+      </c>
+      <c r="I499" t="n">
+        <v>25</v>
+      </c>
+      <c r="J499" t="n">
+        <v>28</v>
+      </c>
+      <c r="K499" t="n">
+        <v>32</v>
+      </c>
+      <c r="L499" t="n">
+        <v>36</v>
+      </c>
+      <c r="M499" t="n">
+        <v>45</v>
+      </c>
+      <c r="N499" t="n">
+        <v>51</v>
+      </c>
+      <c r="O499" t="n">
+        <v>52</v>
+      </c>
+      <c r="P499" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>63</v>
+      </c>
+      <c r="R499" t="n">
+        <v>69</v>
+      </c>
+      <c r="S499" t="n">
+        <v>70</v>
+      </c>
+      <c r="T499" t="n">
+        <v>75</v>
+      </c>
+      <c r="U499" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>5</v>
+      </c>
+      <c r="C500" t="n">
+        <v>7</v>
+      </c>
+      <c r="D500" t="n">
+        <v>8</v>
+      </c>
+      <c r="E500" t="n">
+        <v>12</v>
+      </c>
+      <c r="F500" t="n">
+        <v>17</v>
+      </c>
+      <c r="G500" t="n">
+        <v>18</v>
+      </c>
+      <c r="H500" t="n">
+        <v>22</v>
+      </c>
+      <c r="I500" t="n">
+        <v>25</v>
+      </c>
+      <c r="J500" t="n">
+        <v>31</v>
+      </c>
+      <c r="K500" t="n">
+        <v>44</v>
+      </c>
+      <c r="L500" t="n">
+        <v>45</v>
+      </c>
+      <c r="M500" t="n">
+        <v>63</v>
+      </c>
+      <c r="N500" t="n">
+        <v>66</v>
+      </c>
+      <c r="O500" t="n">
+        <v>67</v>
+      </c>
+      <c r="P500" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>71</v>
+      </c>
+      <c r="R500" t="n">
+        <v>72</v>
+      </c>
+      <c r="S500" t="n">
+        <v>74</v>
+      </c>
+      <c r="T500" t="n">
+        <v>79</v>
+      </c>
+      <c r="U500" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+      <c r="C501" t="n">
+        <v>4</v>
+      </c>
+      <c r="D501" t="n">
+        <v>6</v>
+      </c>
+      <c r="E501" t="n">
+        <v>8</v>
+      </c>
+      <c r="F501" t="n">
+        <v>13</v>
+      </c>
+      <c r="G501" t="n">
+        <v>16</v>
+      </c>
+      <c r="H501" t="n">
+        <v>17</v>
+      </c>
+      <c r="I501" t="n">
+        <v>18</v>
+      </c>
+      <c r="J501" t="n">
+        <v>29</v>
+      </c>
+      <c r="K501" t="n">
+        <v>33</v>
+      </c>
+      <c r="L501" t="n">
+        <v>37</v>
+      </c>
+      <c r="M501" t="n">
+        <v>44</v>
+      </c>
+      <c r="N501" t="n">
+        <v>46</v>
+      </c>
+      <c r="O501" t="n">
+        <v>52</v>
+      </c>
+      <c r="P501" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>62</v>
+      </c>
+      <c r="R501" t="n">
+        <v>67</v>
+      </c>
+      <c r="S501" t="n">
+        <v>69</v>
+      </c>
+      <c r="T501" t="n">
+        <v>72</v>
+      </c>
+      <c r="U501" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>2</v>
+      </c>
+      <c r="C502" t="n">
+        <v>6</v>
+      </c>
+      <c r="D502" t="n">
+        <v>7</v>
+      </c>
+      <c r="E502" t="n">
+        <v>9</v>
+      </c>
+      <c r="F502" t="n">
+        <v>12</v>
+      </c>
+      <c r="G502" t="n">
+        <v>17</v>
+      </c>
+      <c r="H502" t="n">
+        <v>20</v>
+      </c>
+      <c r="I502" t="n">
+        <v>22</v>
+      </c>
+      <c r="J502" t="n">
+        <v>23</v>
+      </c>
+      <c r="K502" t="n">
+        <v>31</v>
+      </c>
+      <c r="L502" t="n">
+        <v>43</v>
+      </c>
+      <c r="M502" t="n">
+        <v>44</v>
+      </c>
+      <c r="N502" t="n">
+        <v>51</v>
+      </c>
+      <c r="O502" t="n">
+        <v>53</v>
+      </c>
+      <c r="P502" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>63</v>
+      </c>
+      <c r="R502" t="n">
+        <v>66</v>
+      </c>
+      <c r="S502" t="n">
+        <v>71</v>
+      </c>
+      <c r="T502" t="n">
+        <v>76</v>
+      </c>
+      <c r="U502" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3</v>
+      </c>
+      <c r="C503" t="n">
+        <v>5</v>
+      </c>
+      <c r="D503" t="n">
+        <v>8</v>
+      </c>
+      <c r="E503" t="n">
+        <v>9</v>
+      </c>
+      <c r="F503" t="n">
+        <v>13</v>
+      </c>
+      <c r="G503" t="n">
+        <v>24</v>
+      </c>
+      <c r="H503" t="n">
+        <v>28</v>
+      </c>
+      <c r="I503" t="n">
+        <v>30</v>
+      </c>
+      <c r="J503" t="n">
+        <v>37</v>
+      </c>
+      <c r="K503" t="n">
+        <v>41</v>
+      </c>
+      <c r="L503" t="n">
+        <v>45</v>
+      </c>
+      <c r="M503" t="n">
+        <v>48</v>
+      </c>
+      <c r="N503" t="n">
+        <v>50</v>
+      </c>
+      <c r="O503" t="n">
+        <v>59</v>
+      </c>
+      <c r="P503" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>63</v>
+      </c>
+      <c r="R503" t="n">
+        <v>67</v>
+      </c>
+      <c r="S503" t="n">
+        <v>70</v>
+      </c>
+      <c r="T503" t="n">
+        <v>74</v>
+      </c>
+      <c r="U503" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>6</v>
+      </c>
+      <c r="C504" t="n">
+        <v>11</v>
+      </c>
+      <c r="D504" t="n">
+        <v>13</v>
+      </c>
+      <c r="E504" t="n">
+        <v>14</v>
+      </c>
+      <c r="F504" t="n">
+        <v>28</v>
+      </c>
+      <c r="G504" t="n">
+        <v>29</v>
+      </c>
+      <c r="H504" t="n">
+        <v>31</v>
+      </c>
+      <c r="I504" t="n">
+        <v>32</v>
+      </c>
+      <c r="J504" t="n">
+        <v>35</v>
+      </c>
+      <c r="K504" t="n">
+        <v>39</v>
+      </c>
+      <c r="L504" t="n">
+        <v>43</v>
+      </c>
+      <c r="M504" t="n">
+        <v>52</v>
+      </c>
+      <c r="N504" t="n">
+        <v>53</v>
+      </c>
+      <c r="O504" t="n">
+        <v>55</v>
+      </c>
+      <c r="P504" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>60</v>
+      </c>
+      <c r="R504" t="n">
+        <v>63</v>
+      </c>
+      <c r="S504" t="n">
+        <v>71</v>
+      </c>
+      <c r="T504" t="n">
+        <v>77</v>
+      </c>
+      <c r="U504" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>10</v>
+      </c>
+      <c r="C505" t="n">
+        <v>13</v>
+      </c>
+      <c r="D505" t="n">
+        <v>16</v>
+      </c>
+      <c r="E505" t="n">
+        <v>17</v>
+      </c>
+      <c r="F505" t="n">
+        <v>18</v>
+      </c>
+      <c r="G505" t="n">
+        <v>24</v>
+      </c>
+      <c r="H505" t="n">
+        <v>30</v>
+      </c>
+      <c r="I505" t="n">
+        <v>32</v>
+      </c>
+      <c r="J505" t="n">
+        <v>33</v>
+      </c>
+      <c r="K505" t="n">
+        <v>34</v>
+      </c>
+      <c r="L505" t="n">
+        <v>39</v>
+      </c>
+      <c r="M505" t="n">
+        <v>42</v>
+      </c>
+      <c r="N505" t="n">
+        <v>45</v>
+      </c>
+      <c r="O505" t="n">
+        <v>47</v>
+      </c>
+      <c r="P505" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>62</v>
+      </c>
+      <c r="R505" t="n">
+        <v>67</v>
+      </c>
+      <c r="S505" t="n">
+        <v>69</v>
+      </c>
+      <c r="T505" t="n">
+        <v>71</v>
+      </c>
+      <c r="U505" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>5</v>
+      </c>
+      <c r="C506" t="n">
+        <v>10</v>
+      </c>
+      <c r="D506" t="n">
+        <v>15</v>
+      </c>
+      <c r="E506" t="n">
+        <v>16</v>
+      </c>
+      <c r="F506" t="n">
+        <v>17</v>
+      </c>
+      <c r="G506" t="n">
+        <v>26</v>
+      </c>
+      <c r="H506" t="n">
+        <v>31</v>
+      </c>
+      <c r="I506" t="n">
+        <v>32</v>
+      </c>
+      <c r="J506" t="n">
+        <v>36</v>
+      </c>
+      <c r="K506" t="n">
+        <v>46</v>
+      </c>
+      <c r="L506" t="n">
+        <v>53</v>
+      </c>
+      <c r="M506" t="n">
+        <v>56</v>
+      </c>
+      <c r="N506" t="n">
+        <v>64</v>
+      </c>
+      <c r="O506" t="n">
+        <v>67</v>
+      </c>
+      <c r="P506" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>70</v>
+      </c>
+      <c r="R506" t="n">
+        <v>71</v>
+      </c>
+      <c r="S506" t="n">
+        <v>76</v>
+      </c>
+      <c r="T506" t="n">
+        <v>78</v>
+      </c>
+      <c r="U506" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>2</v>
+      </c>
+      <c r="C507" t="n">
+        <v>3</v>
+      </c>
+      <c r="D507" t="n">
+        <v>4</v>
+      </c>
+      <c r="E507" t="n">
+        <v>6</v>
+      </c>
+      <c r="F507" t="n">
+        <v>10</v>
+      </c>
+      <c r="G507" t="n">
+        <v>15</v>
+      </c>
+      <c r="H507" t="n">
+        <v>16</v>
+      </c>
+      <c r="I507" t="n">
+        <v>18</v>
+      </c>
+      <c r="J507" t="n">
+        <v>26</v>
+      </c>
+      <c r="K507" t="n">
+        <v>27</v>
+      </c>
+      <c r="L507" t="n">
+        <v>31</v>
+      </c>
+      <c r="M507" t="n">
+        <v>32</v>
+      </c>
+      <c r="N507" t="n">
+        <v>33</v>
+      </c>
+      <c r="O507" t="n">
+        <v>43</v>
+      </c>
+      <c r="P507" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>47</v>
+      </c>
+      <c r="R507" t="n">
+        <v>52</v>
+      </c>
+      <c r="S507" t="n">
+        <v>61</v>
+      </c>
+      <c r="T507" t="n">
+        <v>62</v>
+      </c>
+      <c r="U507" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+      <c r="C508" t="n">
+        <v>5</v>
+      </c>
+      <c r="D508" t="n">
+        <v>7</v>
+      </c>
+      <c r="E508" t="n">
+        <v>8</v>
+      </c>
+      <c r="F508" t="n">
+        <v>11</v>
+      </c>
+      <c r="G508" t="n">
+        <v>12</v>
+      </c>
+      <c r="H508" t="n">
+        <v>21</v>
+      </c>
+      <c r="I508" t="n">
+        <v>32</v>
+      </c>
+      <c r="J508" t="n">
+        <v>35</v>
+      </c>
+      <c r="K508" t="n">
+        <v>37</v>
+      </c>
+      <c r="L508" t="n">
+        <v>41</v>
+      </c>
+      <c r="M508" t="n">
+        <v>49</v>
+      </c>
+      <c r="N508" t="n">
+        <v>52</v>
+      </c>
+      <c r="O508" t="n">
+        <v>54</v>
+      </c>
+      <c r="P508" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>64</v>
+      </c>
+      <c r="R508" t="n">
+        <v>67</v>
+      </c>
+      <c r="S508" t="n">
+        <v>70</v>
+      </c>
+      <c r="T508" t="n">
+        <v>74</v>
+      </c>
+      <c r="U508" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3</v>
+      </c>
+      <c r="C509" t="n">
+        <v>5</v>
+      </c>
+      <c r="D509" t="n">
+        <v>7</v>
+      </c>
+      <c r="E509" t="n">
+        <v>9</v>
+      </c>
+      <c r="F509" t="n">
+        <v>10</v>
+      </c>
+      <c r="G509" t="n">
+        <v>11</v>
+      </c>
+      <c r="H509" t="n">
+        <v>18</v>
+      </c>
+      <c r="I509" t="n">
+        <v>25</v>
+      </c>
+      <c r="J509" t="n">
+        <v>31</v>
+      </c>
+      <c r="K509" t="n">
+        <v>32</v>
+      </c>
+      <c r="L509" t="n">
+        <v>39</v>
+      </c>
+      <c r="M509" t="n">
+        <v>45</v>
+      </c>
+      <c r="N509" t="n">
+        <v>48</v>
+      </c>
+      <c r="O509" t="n">
+        <v>49</v>
+      </c>
+      <c r="P509" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>55</v>
+      </c>
+      <c r="R509" t="n">
+        <v>64</v>
+      </c>
+      <c r="S509" t="n">
+        <v>65</v>
+      </c>
+      <c r="T509" t="n">
+        <v>73</v>
+      </c>
+      <c r="U509" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+      <c r="C510" t="n">
+        <v>5</v>
+      </c>
+      <c r="D510" t="n">
+        <v>9</v>
+      </c>
+      <c r="E510" t="n">
+        <v>10</v>
+      </c>
+      <c r="F510" t="n">
+        <v>13</v>
+      </c>
+      <c r="G510" t="n">
+        <v>14</v>
+      </c>
+      <c r="H510" t="n">
+        <v>15</v>
+      </c>
+      <c r="I510" t="n">
+        <v>18</v>
+      </c>
+      <c r="J510" t="n">
+        <v>23</v>
+      </c>
+      <c r="K510" t="n">
+        <v>24</v>
+      </c>
+      <c r="L510" t="n">
+        <v>30</v>
+      </c>
+      <c r="M510" t="n">
+        <v>37</v>
+      </c>
+      <c r="N510" t="n">
+        <v>47</v>
+      </c>
+      <c r="O510" t="n">
+        <v>55</v>
+      </c>
+      <c r="P510" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>63</v>
+      </c>
+      <c r="R510" t="n">
+        <v>66</v>
+      </c>
+      <c r="S510" t="n">
+        <v>67</v>
+      </c>
+      <c r="T510" t="n">
+        <v>69</v>
+      </c>
+      <c r="U510" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>12</v>
+      </c>
+      <c r="C511" t="n">
+        <v>16</v>
+      </c>
+      <c r="D511" t="n">
+        <v>18</v>
+      </c>
+      <c r="E511" t="n">
+        <v>22</v>
+      </c>
+      <c r="F511" t="n">
+        <v>24</v>
+      </c>
+      <c r="G511" t="n">
+        <v>34</v>
+      </c>
+      <c r="H511" t="n">
+        <v>37</v>
+      </c>
+      <c r="I511" t="n">
+        <v>39</v>
+      </c>
+      <c r="J511" t="n">
+        <v>40</v>
+      </c>
+      <c r="K511" t="n">
+        <v>43</v>
+      </c>
+      <c r="L511" t="n">
+        <v>46</v>
+      </c>
+      <c r="M511" t="n">
+        <v>49</v>
+      </c>
+      <c r="N511" t="n">
+        <v>52</v>
+      </c>
+      <c r="O511" t="n">
+        <v>55</v>
+      </c>
+      <c r="P511" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>61</v>
+      </c>
+      <c r="R511" t="n">
+        <v>67</v>
+      </c>
+      <c r="S511" t="n">
+        <v>70</v>
+      </c>
+      <c r="T511" t="n">
+        <v>74</v>
+      </c>
+      <c r="U511" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+      <c r="C512" t="n">
+        <v>4</v>
+      </c>
+      <c r="D512" t="n">
+        <v>11</v>
+      </c>
+      <c r="E512" t="n">
+        <v>14</v>
+      </c>
+      <c r="F512" t="n">
+        <v>15</v>
+      </c>
+      <c r="G512" t="n">
+        <v>21</v>
+      </c>
+      <c r="H512" t="n">
+        <v>28</v>
+      </c>
+      <c r="I512" t="n">
+        <v>40</v>
+      </c>
+      <c r="J512" t="n">
+        <v>49</v>
+      </c>
+      <c r="K512" t="n">
+        <v>50</v>
+      </c>
+      <c r="L512" t="n">
+        <v>51</v>
+      </c>
+      <c r="M512" t="n">
+        <v>53</v>
+      </c>
+      <c r="N512" t="n">
+        <v>57</v>
+      </c>
+      <c r="O512" t="n">
+        <v>58</v>
+      </c>
+      <c r="P512" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>65</v>
+      </c>
+      <c r="R512" t="n">
+        <v>69</v>
+      </c>
+      <c r="S512" t="n">
+        <v>71</v>
+      </c>
+      <c r="T512" t="n">
+        <v>77</v>
+      </c>
+      <c r="U512" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="C513" t="n">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>7</v>
+      </c>
+      <c r="E513" t="n">
+        <v>10</v>
+      </c>
+      <c r="F513" t="n">
+        <v>12</v>
+      </c>
+      <c r="G513" t="n">
+        <v>18</v>
+      </c>
+      <c r="H513" t="n">
+        <v>19</v>
+      </c>
+      <c r="I513" t="n">
+        <v>20</v>
+      </c>
+      <c r="J513" t="n">
+        <v>24</v>
+      </c>
+      <c r="K513" t="n">
+        <v>32</v>
+      </c>
+      <c r="L513" t="n">
+        <v>40</v>
+      </c>
+      <c r="M513" t="n">
+        <v>43</v>
+      </c>
+      <c r="N513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O513" t="n">
+        <v>55</v>
+      </c>
+      <c r="P513" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>59</v>
+      </c>
+      <c r="R513" t="n">
+        <v>63</v>
+      </c>
+      <c r="S513" t="n">
+        <v>75</v>
+      </c>
+      <c r="T513" t="n">
+        <v>77</v>
+      </c>
+      <c r="U513" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>6</v>
+      </c>
+      <c r="C514" t="n">
+        <v>7</v>
+      </c>
+      <c r="D514" t="n">
+        <v>20</v>
+      </c>
+      <c r="E514" t="n">
+        <v>24</v>
+      </c>
+      <c r="F514" t="n">
+        <v>27</v>
+      </c>
+      <c r="G514" t="n">
+        <v>28</v>
+      </c>
+      <c r="H514" t="n">
+        <v>29</v>
+      </c>
+      <c r="I514" t="n">
+        <v>35</v>
+      </c>
+      <c r="J514" t="n">
+        <v>39</v>
+      </c>
+      <c r="K514" t="n">
+        <v>41</v>
+      </c>
+      <c r="L514" t="n">
+        <v>50</v>
+      </c>
+      <c r="M514" t="n">
+        <v>52</v>
+      </c>
+      <c r="N514" t="n">
+        <v>58</v>
+      </c>
+      <c r="O514" t="n">
+        <v>63</v>
+      </c>
+      <c r="P514" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>67</v>
+      </c>
+      <c r="R514" t="n">
+        <v>71</v>
+      </c>
+      <c r="S514" t="n">
+        <v>72</v>
+      </c>
+      <c r="T514" t="n">
+        <v>73</v>
+      </c>
+      <c r="U514" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>2</v>
+      </c>
+      <c r="C515" t="n">
+        <v>5</v>
+      </c>
+      <c r="D515" t="n">
+        <v>7</v>
+      </c>
+      <c r="E515" t="n">
+        <v>10</v>
+      </c>
+      <c r="F515" t="n">
+        <v>14</v>
+      </c>
+      <c r="G515" t="n">
+        <v>19</v>
+      </c>
+      <c r="H515" t="n">
+        <v>25</v>
+      </c>
+      <c r="I515" t="n">
+        <v>29</v>
+      </c>
+      <c r="J515" t="n">
+        <v>39</v>
+      </c>
+      <c r="K515" t="n">
+        <v>42</v>
+      </c>
+      <c r="L515" t="n">
+        <v>44</v>
+      </c>
+      <c r="M515" t="n">
+        <v>45</v>
+      </c>
+      <c r="N515" t="n">
+        <v>46</v>
+      </c>
+      <c r="O515" t="n">
+        <v>47</v>
+      </c>
+      <c r="P515" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>58</v>
+      </c>
+      <c r="R515" t="n">
+        <v>59</v>
+      </c>
+      <c r="S515" t="n">
+        <v>69</v>
+      </c>
+      <c r="T515" t="n">
+        <v>72</v>
+      </c>
+      <c r="U515" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>4</v>
+      </c>
+      <c r="C516" t="n">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>8</v>
+      </c>
+      <c r="E516" t="n">
+        <v>10</v>
+      </c>
+      <c r="F516" t="n">
+        <v>20</v>
+      </c>
+      <c r="G516" t="n">
+        <v>24</v>
+      </c>
+      <c r="H516" t="n">
+        <v>25</v>
+      </c>
+      <c r="I516" t="n">
+        <v>27</v>
+      </c>
+      <c r="J516" t="n">
+        <v>31</v>
+      </c>
+      <c r="K516" t="n">
+        <v>34</v>
+      </c>
+      <c r="L516" t="n">
+        <v>37</v>
+      </c>
+      <c r="M516" t="n">
+        <v>38</v>
+      </c>
+      <c r="N516" t="n">
+        <v>41</v>
+      </c>
+      <c r="O516" t="n">
+        <v>43</v>
+      </c>
+      <c r="P516" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>59</v>
+      </c>
+      <c r="R516" t="n">
+        <v>64</v>
+      </c>
+      <c r="S516" t="n">
+        <v>65</v>
+      </c>
+      <c r="T516" t="n">
+        <v>73</v>
+      </c>
+      <c r="U516" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>2</v>
+      </c>
+      <c r="C517" t="n">
+        <v>4</v>
+      </c>
+      <c r="D517" t="n">
+        <v>12</v>
+      </c>
+      <c r="E517" t="n">
+        <v>15</v>
+      </c>
+      <c r="F517" t="n">
+        <v>18</v>
+      </c>
+      <c r="G517" t="n">
+        <v>19</v>
+      </c>
+      <c r="H517" t="n">
+        <v>26</v>
+      </c>
+      <c r="I517" t="n">
+        <v>28</v>
+      </c>
+      <c r="J517" t="n">
+        <v>33</v>
+      </c>
+      <c r="K517" t="n">
+        <v>45</v>
+      </c>
+      <c r="L517" t="n">
+        <v>46</v>
+      </c>
+      <c r="M517" t="n">
+        <v>49</v>
+      </c>
+      <c r="N517" t="n">
+        <v>50</v>
+      </c>
+      <c r="O517" t="n">
+        <v>53</v>
+      </c>
+      <c r="P517" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>56</v>
+      </c>
+      <c r="R517" t="n">
+        <v>62</v>
+      </c>
+      <c r="S517" t="n">
+        <v>63</v>
+      </c>
+      <c r="T517" t="n">
+        <v>64</v>
+      </c>
+      <c r="U517" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+      <c r="C518" t="n">
+        <v>3</v>
+      </c>
+      <c r="D518" t="n">
+        <v>5</v>
+      </c>
+      <c r="E518" t="n">
+        <v>8</v>
+      </c>
+      <c r="F518" t="n">
+        <v>9</v>
+      </c>
+      <c r="G518" t="n">
+        <v>16</v>
+      </c>
+      <c r="H518" t="n">
+        <v>18</v>
+      </c>
+      <c r="I518" t="n">
+        <v>21</v>
+      </c>
+      <c r="J518" t="n">
+        <v>25</v>
+      </c>
+      <c r="K518" t="n">
+        <v>30</v>
+      </c>
+      <c r="L518" t="n">
+        <v>33</v>
+      </c>
+      <c r="M518" t="n">
+        <v>37</v>
+      </c>
+      <c r="N518" t="n">
+        <v>38</v>
+      </c>
+      <c r="O518" t="n">
+        <v>43</v>
+      </c>
+      <c r="P518" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>45</v>
+      </c>
+      <c r="R518" t="n">
+        <v>54</v>
+      </c>
+      <c r="S518" t="n">
+        <v>69</v>
+      </c>
+      <c r="T518" t="n">
+        <v>70</v>
+      </c>
+      <c r="U518" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>8</v>
+      </c>
+      <c r="C519" t="n">
+        <v>12</v>
+      </c>
+      <c r="D519" t="n">
+        <v>13</v>
+      </c>
+      <c r="E519" t="n">
+        <v>16</v>
+      </c>
+      <c r="F519" t="n">
+        <v>22</v>
+      </c>
+      <c r="G519" t="n">
+        <v>24</v>
+      </c>
+      <c r="H519" t="n">
+        <v>33</v>
+      </c>
+      <c r="I519" t="n">
+        <v>42</v>
+      </c>
+      <c r="J519" t="n">
+        <v>52</v>
+      </c>
+      <c r="K519" t="n">
+        <v>55</v>
+      </c>
+      <c r="L519" t="n">
+        <v>58</v>
+      </c>
+      <c r="M519" t="n">
+        <v>60</v>
+      </c>
+      <c r="N519" t="n">
+        <v>61</v>
+      </c>
+      <c r="O519" t="n">
+        <v>63</v>
+      </c>
+      <c r="P519" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>68</v>
+      </c>
+      <c r="R519" t="n">
+        <v>72</v>
+      </c>
+      <c r="S519" t="n">
+        <v>74</v>
+      </c>
+      <c r="T519" t="n">
+        <v>75</v>
+      </c>
+      <c r="U519" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>4</v>
+      </c>
+      <c r="C520" t="n">
+        <v>5</v>
+      </c>
+      <c r="D520" t="n">
+        <v>6</v>
+      </c>
+      <c r="E520" t="n">
+        <v>7</v>
+      </c>
+      <c r="F520" t="n">
+        <v>8</v>
+      </c>
+      <c r="G520" t="n">
+        <v>10</v>
+      </c>
+      <c r="H520" t="n">
+        <v>13</v>
+      </c>
+      <c r="I520" t="n">
+        <v>15</v>
+      </c>
+      <c r="J520" t="n">
+        <v>19</v>
+      </c>
+      <c r="K520" t="n">
+        <v>27</v>
+      </c>
+      <c r="L520" t="n">
+        <v>36</v>
+      </c>
+      <c r="M520" t="n">
+        <v>40</v>
+      </c>
+      <c r="N520" t="n">
+        <v>41</v>
+      </c>
+      <c r="O520" t="n">
+        <v>46</v>
+      </c>
+      <c r="P520" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>48</v>
+      </c>
+      <c r="R520" t="n">
+        <v>62</v>
+      </c>
+      <c r="S520" t="n">
+        <v>66</v>
+      </c>
+      <c r="T520" t="n">
+        <v>72</v>
+      </c>
+      <c r="U520" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+      <c r="C521" t="n">
+        <v>5</v>
+      </c>
+      <c r="D521" t="n">
+        <v>10</v>
+      </c>
+      <c r="E521" t="n">
+        <v>19</v>
+      </c>
+      <c r="F521" t="n">
+        <v>27</v>
+      </c>
+      <c r="G521" t="n">
+        <v>32</v>
+      </c>
+      <c r="H521" t="n">
+        <v>38</v>
+      </c>
+      <c r="I521" t="n">
+        <v>41</v>
+      </c>
+      <c r="J521" t="n">
+        <v>43</v>
+      </c>
+      <c r="K521" t="n">
+        <v>44</v>
+      </c>
+      <c r="L521" t="n">
+        <v>46</v>
+      </c>
+      <c r="M521" t="n">
+        <v>50</v>
+      </c>
+      <c r="N521" t="n">
+        <v>51</v>
+      </c>
+      <c r="O521" t="n">
+        <v>52</v>
+      </c>
+      <c r="P521" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>57</v>
+      </c>
+      <c r="R521" t="n">
+        <v>59</v>
+      </c>
+      <c r="S521" t="n">
+        <v>64</v>
+      </c>
+      <c r="T521" t="n">
+        <v>74</v>
+      </c>
+      <c r="U521" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>4</v>
+      </c>
+      <c r="C522" t="n">
+        <v>8</v>
+      </c>
+      <c r="D522" t="n">
+        <v>12</v>
+      </c>
+      <c r="E522" t="n">
+        <v>16</v>
+      </c>
+      <c r="F522" t="n">
+        <v>17</v>
+      </c>
+      <c r="G522" t="n">
+        <v>19</v>
+      </c>
+      <c r="H522" t="n">
+        <v>21</v>
+      </c>
+      <c r="I522" t="n">
+        <v>25</v>
+      </c>
+      <c r="J522" t="n">
+        <v>29</v>
+      </c>
+      <c r="K522" t="n">
+        <v>38</v>
+      </c>
+      <c r="L522" t="n">
+        <v>40</v>
+      </c>
+      <c r="M522" t="n">
+        <v>45</v>
+      </c>
+      <c r="N522" t="n">
+        <v>50</v>
+      </c>
+      <c r="O522" t="n">
+        <v>52</v>
+      </c>
+      <c r="P522" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>59</v>
+      </c>
+      <c r="R522" t="n">
+        <v>60</v>
+      </c>
+      <c r="S522" t="n">
+        <v>61</v>
+      </c>
+      <c r="T522" t="n">
+        <v>67</v>
+      </c>
+      <c r="U522" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3</v>
+      </c>
+      <c r="C523" t="n">
+        <v>6</v>
+      </c>
+      <c r="D523" t="n">
+        <v>9</v>
+      </c>
+      <c r="E523" t="n">
+        <v>10</v>
+      </c>
+      <c r="F523" t="n">
+        <v>19</v>
+      </c>
+      <c r="G523" t="n">
+        <v>24</v>
+      </c>
+      <c r="H523" t="n">
+        <v>26</v>
+      </c>
+      <c r="I523" t="n">
+        <v>29</v>
+      </c>
+      <c r="J523" t="n">
+        <v>34</v>
+      </c>
+      <c r="K523" t="n">
+        <v>36</v>
+      </c>
+      <c r="L523" t="n">
+        <v>37</v>
+      </c>
+      <c r="M523" t="n">
+        <v>38</v>
+      </c>
+      <c r="N523" t="n">
+        <v>43</v>
+      </c>
+      <c r="O523" t="n">
+        <v>45</v>
+      </c>
+      <c r="P523" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>56</v>
+      </c>
+      <c r="R523" t="n">
+        <v>57</v>
+      </c>
+      <c r="S523" t="n">
+        <v>60</v>
+      </c>
+      <c r="T523" t="n">
+        <v>71</v>
+      </c>
+      <c r="U523" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+      <c r="C524" t="n">
+        <v>4</v>
+      </c>
+      <c r="D524" t="n">
+        <v>6</v>
+      </c>
+      <c r="E524" t="n">
+        <v>12</v>
+      </c>
+      <c r="F524" t="n">
+        <v>14</v>
+      </c>
+      <c r="G524" t="n">
+        <v>16</v>
+      </c>
+      <c r="H524" t="n">
+        <v>17</v>
+      </c>
+      <c r="I524" t="n">
+        <v>18</v>
+      </c>
+      <c r="J524" t="n">
+        <v>23</v>
+      </c>
+      <c r="K524" t="n">
+        <v>25</v>
+      </c>
+      <c r="L524" t="n">
+        <v>32</v>
+      </c>
+      <c r="M524" t="n">
+        <v>44</v>
+      </c>
+      <c r="N524" t="n">
+        <v>51</v>
+      </c>
+      <c r="O524" t="n">
+        <v>54</v>
+      </c>
+      <c r="P524" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>67</v>
+      </c>
+      <c r="R524" t="n">
+        <v>69</v>
+      </c>
+      <c r="S524" t="n">
+        <v>71</v>
+      </c>
+      <c r="T524" t="n">
+        <v>79</v>
+      </c>
+      <c r="U524" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>2</v>
+      </c>
+      <c r="C525" t="n">
+        <v>3</v>
+      </c>
+      <c r="D525" t="n">
+        <v>4</v>
+      </c>
+      <c r="E525" t="n">
+        <v>6</v>
+      </c>
+      <c r="F525" t="n">
+        <v>9</v>
+      </c>
+      <c r="G525" t="n">
+        <v>20</v>
+      </c>
+      <c r="H525" t="n">
+        <v>22</v>
+      </c>
+      <c r="I525" t="n">
+        <v>28</v>
+      </c>
+      <c r="J525" t="n">
+        <v>33</v>
+      </c>
+      <c r="K525" t="n">
+        <v>36</v>
+      </c>
+      <c r="L525" t="n">
+        <v>43</v>
+      </c>
+      <c r="M525" t="n">
+        <v>47</v>
+      </c>
+      <c r="N525" t="n">
+        <v>53</v>
+      </c>
+      <c r="O525" t="n">
+        <v>56</v>
+      </c>
+      <c r="P525" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>68</v>
+      </c>
+      <c r="R525" t="n">
+        <v>69</v>
+      </c>
+      <c r="S525" t="n">
+        <v>70</v>
+      </c>
+      <c r="T525" t="n">
+        <v>71</v>
+      </c>
+      <c r="U525" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>3</v>
+      </c>
+      <c r="C526" t="n">
+        <v>9</v>
+      </c>
+      <c r="D526" t="n">
+        <v>10</v>
+      </c>
+      <c r="E526" t="n">
+        <v>11</v>
+      </c>
+      <c r="F526" t="n">
+        <v>12</v>
+      </c>
+      <c r="G526" t="n">
+        <v>14</v>
+      </c>
+      <c r="H526" t="n">
+        <v>16</v>
+      </c>
+      <c r="I526" t="n">
+        <v>20</v>
+      </c>
+      <c r="J526" t="n">
+        <v>26</v>
+      </c>
+      <c r="K526" t="n">
+        <v>33</v>
+      </c>
+      <c r="L526" t="n">
+        <v>37</v>
+      </c>
+      <c r="M526" t="n">
+        <v>44</v>
+      </c>
+      <c r="N526" t="n">
+        <v>49</v>
+      </c>
+      <c r="O526" t="n">
+        <v>50</v>
+      </c>
+      <c r="P526" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>55</v>
+      </c>
+      <c r="R526" t="n">
+        <v>61</v>
+      </c>
+      <c r="S526" t="n">
+        <v>65</v>
+      </c>
+      <c r="T526" t="n">
+        <v>68</v>
+      </c>
+      <c r="U526" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+      <c r="C527" t="n">
+        <v>2</v>
+      </c>
+      <c r="D527" t="n">
+        <v>5</v>
+      </c>
+      <c r="E527" t="n">
+        <v>9</v>
+      </c>
+      <c r="F527" t="n">
+        <v>13</v>
+      </c>
+      <c r="G527" t="n">
+        <v>17</v>
+      </c>
+      <c r="H527" t="n">
+        <v>23</v>
+      </c>
+      <c r="I527" t="n">
+        <v>25</v>
+      </c>
+      <c r="J527" t="n">
+        <v>29</v>
+      </c>
+      <c r="K527" t="n">
+        <v>38</v>
+      </c>
+      <c r="L527" t="n">
+        <v>40</v>
+      </c>
+      <c r="M527" t="n">
+        <v>43</v>
+      </c>
+      <c r="N527" t="n">
+        <v>46</v>
+      </c>
+      <c r="O527" t="n">
+        <v>48</v>
+      </c>
+      <c r="P527" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>59</v>
+      </c>
+      <c r="R527" t="n">
+        <v>60</v>
+      </c>
+      <c r="S527" t="n">
+        <v>63</v>
+      </c>
+      <c r="T527" t="n">
+        <v>64</v>
+      </c>
+      <c r="U527" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+      <c r="C528" t="n">
+        <v>9</v>
+      </c>
+      <c r="D528" t="n">
+        <v>10</v>
+      </c>
+      <c r="E528" t="n">
+        <v>11</v>
+      </c>
+      <c r="F528" t="n">
+        <v>12</v>
+      </c>
+      <c r="G528" t="n">
+        <v>13</v>
+      </c>
+      <c r="H528" t="n">
+        <v>14</v>
+      </c>
+      <c r="I528" t="n">
+        <v>18</v>
+      </c>
+      <c r="J528" t="n">
+        <v>22</v>
+      </c>
+      <c r="K528" t="n">
+        <v>25</v>
+      </c>
+      <c r="L528" t="n">
+        <v>26</v>
+      </c>
+      <c r="M528" t="n">
+        <v>32</v>
+      </c>
+      <c r="N528" t="n">
+        <v>36</v>
+      </c>
+      <c r="O528" t="n">
+        <v>41</v>
+      </c>
+      <c r="P528" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>61</v>
+      </c>
+      <c r="R528" t="n">
+        <v>68</v>
+      </c>
+      <c r="S528" t="n">
+        <v>69</v>
+      </c>
+      <c r="T528" t="n">
+        <v>70</v>
+      </c>
+      <c r="U528" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>5</v>
+      </c>
+      <c r="C529" t="n">
+        <v>10</v>
+      </c>
+      <c r="D529" t="n">
+        <v>12</v>
+      </c>
+      <c r="E529" t="n">
+        <v>14</v>
+      </c>
+      <c r="F529" t="n">
+        <v>15</v>
+      </c>
+      <c r="G529" t="n">
+        <v>17</v>
+      </c>
+      <c r="H529" t="n">
+        <v>21</v>
+      </c>
+      <c r="I529" t="n">
+        <v>24</v>
+      </c>
+      <c r="J529" t="n">
+        <v>25</v>
+      </c>
+      <c r="K529" t="n">
+        <v>29</v>
+      </c>
+      <c r="L529" t="n">
+        <v>46</v>
+      </c>
+      <c r="M529" t="n">
+        <v>50</v>
+      </c>
+      <c r="N529" t="n">
+        <v>53</v>
+      </c>
+      <c r="O529" t="n">
+        <v>56</v>
+      </c>
+      <c r="P529" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>65</v>
+      </c>
+      <c r="R529" t="n">
+        <v>70</v>
+      </c>
+      <c r="S529" t="n">
+        <v>73</v>
+      </c>
+      <c r="T529" t="n">
+        <v>76</v>
+      </c>
+      <c r="U529" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>12</v>
+      </c>
+      <c r="C530" t="n">
+        <v>13</v>
+      </c>
+      <c r="D530" t="n">
+        <v>18</v>
+      </c>
+      <c r="E530" t="n">
+        <v>24</v>
+      </c>
+      <c r="F530" t="n">
+        <v>25</v>
+      </c>
+      <c r="G530" t="n">
+        <v>27</v>
+      </c>
+      <c r="H530" t="n">
+        <v>30</v>
+      </c>
+      <c r="I530" t="n">
+        <v>32</v>
+      </c>
+      <c r="J530" t="n">
+        <v>39</v>
+      </c>
+      <c r="K530" t="n">
+        <v>46</v>
+      </c>
+      <c r="L530" t="n">
+        <v>50</v>
+      </c>
+      <c r="M530" t="n">
+        <v>53</v>
+      </c>
+      <c r="N530" t="n">
+        <v>54</v>
+      </c>
+      <c r="O530" t="n">
+        <v>57</v>
+      </c>
+      <c r="P530" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>60</v>
+      </c>
+      <c r="R530" t="n">
+        <v>64</v>
+      </c>
+      <c r="S530" t="n">
+        <v>74</v>
+      </c>
+      <c r="T530" t="n">
+        <v>77</v>
+      </c>
+      <c r="U530" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>4</v>
+      </c>
+      <c r="C531" t="n">
+        <v>6</v>
+      </c>
+      <c r="D531" t="n">
+        <v>8</v>
+      </c>
+      <c r="E531" t="n">
+        <v>14</v>
+      </c>
+      <c r="F531" t="n">
+        <v>24</v>
+      </c>
+      <c r="G531" t="n">
+        <v>31</v>
+      </c>
+      <c r="H531" t="n">
+        <v>37</v>
+      </c>
+      <c r="I531" t="n">
+        <v>39</v>
+      </c>
+      <c r="J531" t="n">
+        <v>43</v>
+      </c>
+      <c r="K531" t="n">
+        <v>55</v>
+      </c>
+      <c r="L531" t="n">
+        <v>64</v>
+      </c>
+      <c r="M531" t="n">
+        <v>65</v>
+      </c>
+      <c r="N531" t="n">
+        <v>66</v>
+      </c>
+      <c r="O531" t="n">
+        <v>67</v>
+      </c>
+      <c r="P531" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>71</v>
+      </c>
+      <c r="R531" t="n">
+        <v>72</v>
+      </c>
+      <c r="S531" t="n">
+        <v>76</v>
+      </c>
+      <c r="T531" t="n">
+        <v>78</v>
+      </c>
+      <c r="U531" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>3</v>
+      </c>
+      <c r="C532" t="n">
+        <v>4</v>
+      </c>
+      <c r="D532" t="n">
+        <v>10</v>
+      </c>
+      <c r="E532" t="n">
+        <v>14</v>
+      </c>
+      <c r="F532" t="n">
+        <v>22</v>
+      </c>
+      <c r="G532" t="n">
+        <v>23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>25</v>
+      </c>
+      <c r="I532" t="n">
+        <v>26</v>
+      </c>
+      <c r="J532" t="n">
+        <v>33</v>
+      </c>
+      <c r="K532" t="n">
+        <v>36</v>
+      </c>
+      <c r="L532" t="n">
+        <v>39</v>
+      </c>
+      <c r="M532" t="n">
+        <v>41</v>
+      </c>
+      <c r="N532" t="n">
+        <v>45</v>
+      </c>
+      <c r="O532" t="n">
+        <v>49</v>
+      </c>
+      <c r="P532" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>53</v>
+      </c>
+      <c r="R532" t="n">
+        <v>64</v>
+      </c>
+      <c r="S532" t="n">
+        <v>65</v>
+      </c>
+      <c r="T532" t="n">
+        <v>69</v>
+      </c>
+      <c r="U532" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+      <c r="C533" t="n">
+        <v>9</v>
+      </c>
+      <c r="D533" t="n">
+        <v>19</v>
+      </c>
+      <c r="E533" t="n">
+        <v>21</v>
+      </c>
+      <c r="F533" t="n">
+        <v>24</v>
+      </c>
+      <c r="G533" t="n">
+        <v>27</v>
+      </c>
+      <c r="H533" t="n">
+        <v>32</v>
+      </c>
+      <c r="I533" t="n">
+        <v>37</v>
+      </c>
+      <c r="J533" t="n">
+        <v>39</v>
+      </c>
+      <c r="K533" t="n">
+        <v>40</v>
+      </c>
+      <c r="L533" t="n">
+        <v>42</v>
+      </c>
+      <c r="M533" t="n">
+        <v>47</v>
+      </c>
+      <c r="N533" t="n">
+        <v>52</v>
+      </c>
+      <c r="O533" t="n">
+        <v>53</v>
+      </c>
+      <c r="P533" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>55</v>
+      </c>
+      <c r="R533" t="n">
+        <v>60</v>
+      </c>
+      <c r="S533" t="n">
+        <v>74</v>
+      </c>
+      <c r="T533" t="n">
+        <v>78</v>
+      </c>
+      <c r="U533" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>2</v>
+      </c>
+      <c r="C534" t="n">
+        <v>8</v>
+      </c>
+      <c r="D534" t="n">
+        <v>20</v>
+      </c>
+      <c r="E534" t="n">
+        <v>22</v>
+      </c>
+      <c r="F534" t="n">
+        <v>26</v>
+      </c>
+      <c r="G534" t="n">
+        <v>28</v>
+      </c>
+      <c r="H534" t="n">
+        <v>35</v>
+      </c>
+      <c r="I534" t="n">
+        <v>38</v>
+      </c>
+      <c r="J534" t="n">
+        <v>39</v>
+      </c>
+      <c r="K534" t="n">
+        <v>40</v>
+      </c>
+      <c r="L534" t="n">
+        <v>45</v>
+      </c>
+      <c r="M534" t="n">
+        <v>50</v>
+      </c>
+      <c r="N534" t="n">
+        <v>51</v>
+      </c>
+      <c r="O534" t="n">
+        <v>61</v>
+      </c>
+      <c r="P534" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>67</v>
+      </c>
+      <c r="R534" t="n">
+        <v>69</v>
+      </c>
+      <c r="S534" t="n">
+        <v>70</v>
+      </c>
+      <c r="T534" t="n">
+        <v>72</v>
+      </c>
+      <c r="U534" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>3</v>
+      </c>
+      <c r="C535" t="n">
+        <v>8</v>
+      </c>
+      <c r="D535" t="n">
+        <v>11</v>
+      </c>
+      <c r="E535" t="n">
+        <v>17</v>
+      </c>
+      <c r="F535" t="n">
+        <v>24</v>
+      </c>
+      <c r="G535" t="n">
+        <v>30</v>
+      </c>
+      <c r="H535" t="n">
+        <v>32</v>
+      </c>
+      <c r="I535" t="n">
+        <v>34</v>
+      </c>
+      <c r="J535" t="n">
+        <v>43</v>
+      </c>
+      <c r="K535" t="n">
+        <v>45</v>
+      </c>
+      <c r="L535" t="n">
+        <v>50</v>
+      </c>
+      <c r="M535" t="n">
+        <v>51</v>
+      </c>
+      <c r="N535" t="n">
+        <v>59</v>
+      </c>
+      <c r="O535" t="n">
+        <v>62</v>
+      </c>
+      <c r="P535" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>66</v>
+      </c>
+      <c r="R535" t="n">
+        <v>72</v>
+      </c>
+      <c r="S535" t="n">
+        <v>73</v>
+      </c>
+      <c r="T535" t="n">
+        <v>75</v>
+      </c>
+      <c r="U535" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>5</v>
+      </c>
+      <c r="C536" t="n">
+        <v>7</v>
+      </c>
+      <c r="D536" t="n">
+        <v>11</v>
+      </c>
+      <c r="E536" t="n">
+        <v>16</v>
+      </c>
+      <c r="F536" t="n">
+        <v>22</v>
+      </c>
+      <c r="G536" t="n">
+        <v>24</v>
+      </c>
+      <c r="H536" t="n">
+        <v>32</v>
+      </c>
+      <c r="I536" t="n">
+        <v>40</v>
+      </c>
+      <c r="J536" t="n">
+        <v>44</v>
+      </c>
+      <c r="K536" t="n">
+        <v>51</v>
+      </c>
+      <c r="L536" t="n">
+        <v>56</v>
+      </c>
+      <c r="M536" t="n">
+        <v>58</v>
+      </c>
+      <c r="N536" t="n">
+        <v>59</v>
+      </c>
+      <c r="O536" t="n">
+        <v>61</v>
+      </c>
+      <c r="P536" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>65</v>
+      </c>
+      <c r="R536" t="n">
+        <v>69</v>
+      </c>
+      <c r="S536" t="n">
+        <v>71</v>
+      </c>
+      <c r="T536" t="n">
+        <v>74</v>
+      </c>
+      <c r="U536" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+      <c r="C537" t="n">
+        <v>3</v>
+      </c>
+      <c r="D537" t="n">
+        <v>6</v>
+      </c>
+      <c r="E537" t="n">
+        <v>11</v>
+      </c>
+      <c r="F537" t="n">
+        <v>13</v>
+      </c>
+      <c r="G537" t="n">
+        <v>18</v>
+      </c>
+      <c r="H537" t="n">
+        <v>21</v>
+      </c>
+      <c r="I537" t="n">
+        <v>22</v>
+      </c>
+      <c r="J537" t="n">
+        <v>23</v>
+      </c>
+      <c r="K537" t="n">
+        <v>36</v>
+      </c>
+      <c r="L537" t="n">
+        <v>40</v>
+      </c>
+      <c r="M537" t="n">
+        <v>45</v>
+      </c>
+      <c r="N537" t="n">
+        <v>47</v>
+      </c>
+      <c r="O537" t="n">
+        <v>56</v>
+      </c>
+      <c r="P537" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>61</v>
+      </c>
+      <c r="R537" t="n">
+        <v>62</v>
+      </c>
+      <c r="S537" t="n">
+        <v>72</v>
+      </c>
+      <c r="T537" t="n">
+        <v>77</v>
+      </c>
+      <c r="U537" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>6</v>
+      </c>
+      <c r="C538" t="n">
+        <v>7</v>
+      </c>
+      <c r="D538" t="n">
+        <v>9</v>
+      </c>
+      <c r="E538" t="n">
+        <v>13</v>
+      </c>
+      <c r="F538" t="n">
+        <v>16</v>
+      </c>
+      <c r="G538" t="n">
+        <v>17</v>
+      </c>
+      <c r="H538" t="n">
+        <v>18</v>
+      </c>
+      <c r="I538" t="n">
+        <v>25</v>
+      </c>
+      <c r="J538" t="n">
+        <v>29</v>
+      </c>
+      <c r="K538" t="n">
+        <v>32</v>
+      </c>
+      <c r="L538" t="n">
+        <v>33</v>
+      </c>
+      <c r="M538" t="n">
+        <v>37</v>
+      </c>
+      <c r="N538" t="n">
+        <v>42</v>
+      </c>
+      <c r="O538" t="n">
+        <v>46</v>
+      </c>
+      <c r="P538" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>54</v>
+      </c>
+      <c r="R538" t="n">
+        <v>56</v>
+      </c>
+      <c r="S538" t="n">
+        <v>64</v>
+      </c>
+      <c r="T538" t="n">
+        <v>71</v>
+      </c>
+      <c r="U538" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>4</v>
+      </c>
+      <c r="C539" t="n">
+        <v>7</v>
+      </c>
+      <c r="D539" t="n">
+        <v>9</v>
+      </c>
+      <c r="E539" t="n">
+        <v>11</v>
+      </c>
+      <c r="F539" t="n">
+        <v>16</v>
+      </c>
+      <c r="G539" t="n">
+        <v>17</v>
+      </c>
+      <c r="H539" t="n">
+        <v>18</v>
+      </c>
+      <c r="I539" t="n">
+        <v>22</v>
+      </c>
+      <c r="J539" t="n">
+        <v>23</v>
+      </c>
+      <c r="K539" t="n">
+        <v>28</v>
+      </c>
+      <c r="L539" t="n">
+        <v>29</v>
+      </c>
+      <c r="M539" t="n">
+        <v>32</v>
+      </c>
+      <c r="N539" t="n">
+        <v>34</v>
+      </c>
+      <c r="O539" t="n">
+        <v>41</v>
+      </c>
+      <c r="P539" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>47</v>
+      </c>
+      <c r="R539" t="n">
+        <v>54</v>
+      </c>
+      <c r="S539" t="n">
+        <v>57</v>
+      </c>
+      <c r="T539" t="n">
+        <v>77</v>
+      </c>
+      <c r="U539" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+      <c r="C540" t="n">
+        <v>2</v>
+      </c>
+      <c r="D540" t="n">
+        <v>3</v>
+      </c>
+      <c r="E540" t="n">
+        <v>5</v>
+      </c>
+      <c r="F540" t="n">
+        <v>10</v>
+      </c>
+      <c r="G540" t="n">
+        <v>28</v>
+      </c>
+      <c r="H540" t="n">
+        <v>32</v>
+      </c>
+      <c r="I540" t="n">
+        <v>34</v>
+      </c>
+      <c r="J540" t="n">
+        <v>38</v>
+      </c>
+      <c r="K540" t="n">
+        <v>49</v>
+      </c>
+      <c r="L540" t="n">
+        <v>53</v>
+      </c>
+      <c r="M540" t="n">
+        <v>54</v>
+      </c>
+      <c r="N540" t="n">
+        <v>55</v>
+      </c>
+      <c r="O540" t="n">
+        <v>58</v>
+      </c>
+      <c r="P540" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>64</v>
+      </c>
+      <c r="R540" t="n">
+        <v>66</v>
+      </c>
+      <c r="S540" t="n">
+        <v>69</v>
+      </c>
+      <c r="T540" t="n">
+        <v>72</v>
+      </c>
+      <c r="U540" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>18</v>
+      </c>
+      <c r="C541" t="n">
+        <v>22</v>
+      </c>
+      <c r="D541" t="n">
+        <v>33</v>
+      </c>
+      <c r="E541" t="n">
+        <v>35</v>
+      </c>
+      <c r="F541" t="n">
+        <v>36</v>
+      </c>
+      <c r="G541" t="n">
+        <v>41</v>
+      </c>
+      <c r="H541" t="n">
+        <v>45</v>
+      </c>
+      <c r="I541" t="n">
+        <v>47</v>
+      </c>
+      <c r="J541" t="n">
+        <v>48</v>
+      </c>
+      <c r="K541" t="n">
+        <v>54</v>
+      </c>
+      <c r="L541" t="n">
+        <v>57</v>
+      </c>
+      <c r="M541" t="n">
+        <v>59</v>
+      </c>
+      <c r="N541" t="n">
+        <v>61</v>
+      </c>
+      <c r="O541" t="n">
+        <v>65</v>
+      </c>
+      <c r="P541" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>68</v>
+      </c>
+      <c r="R541" t="n">
+        <v>72</v>
+      </c>
+      <c r="S541" t="n">
+        <v>75</v>
+      </c>
+      <c r="T541" t="n">
+        <v>76</v>
+      </c>
+      <c r="U541" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>2</v>
+      </c>
+      <c r="C542" t="n">
+        <v>3</v>
+      </c>
+      <c r="D542" t="n">
+        <v>4</v>
+      </c>
+      <c r="E542" t="n">
+        <v>13</v>
+      </c>
+      <c r="F542" t="n">
+        <v>17</v>
+      </c>
+      <c r="G542" t="n">
+        <v>18</v>
+      </c>
+      <c r="H542" t="n">
+        <v>21</v>
+      </c>
+      <c r="I542" t="n">
+        <v>22</v>
+      </c>
+      <c r="J542" t="n">
+        <v>24</v>
+      </c>
+      <c r="K542" t="n">
+        <v>25</v>
+      </c>
+      <c r="L542" t="n">
+        <v>30</v>
+      </c>
+      <c r="M542" t="n">
+        <v>33</v>
+      </c>
+      <c r="N542" t="n">
+        <v>34</v>
+      </c>
+      <c r="O542" t="n">
+        <v>47</v>
+      </c>
+      <c r="P542" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>54</v>
+      </c>
+      <c r="R542" t="n">
+        <v>62</v>
+      </c>
+      <c r="S542" t="n">
+        <v>72</v>
+      </c>
+      <c r="T542" t="n">
+        <v>73</v>
+      </c>
+      <c r="U542" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>2</v>
+      </c>
+      <c r="C543" t="n">
+        <v>3</v>
+      </c>
+      <c r="D543" t="n">
+        <v>4</v>
+      </c>
+      <c r="E543" t="n">
+        <v>6</v>
+      </c>
+      <c r="F543" t="n">
+        <v>7</v>
+      </c>
+      <c r="G543" t="n">
+        <v>15</v>
+      </c>
+      <c r="H543" t="n">
+        <v>21</v>
+      </c>
+      <c r="I543" t="n">
+        <v>26</v>
+      </c>
+      <c r="J543" t="n">
+        <v>29</v>
+      </c>
+      <c r="K543" t="n">
+        <v>32</v>
+      </c>
+      <c r="L543" t="n">
+        <v>36</v>
+      </c>
+      <c r="M543" t="n">
+        <v>37</v>
+      </c>
+      <c r="N543" t="n">
+        <v>40</v>
+      </c>
+      <c r="O543" t="n">
+        <v>43</v>
+      </c>
+      <c r="P543" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>49</v>
+      </c>
+      <c r="R543" t="n">
+        <v>53</v>
+      </c>
+      <c r="S543" t="n">
+        <v>54</v>
+      </c>
+      <c r="T543" t="n">
+        <v>64</v>
+      </c>
+      <c r="U543" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>6</v>
+      </c>
+      <c r="C544" t="n">
+        <v>7</v>
+      </c>
+      <c r="D544" t="n">
+        <v>13</v>
+      </c>
+      <c r="E544" t="n">
+        <v>17</v>
+      </c>
+      <c r="F544" t="n">
+        <v>19</v>
+      </c>
+      <c r="G544" t="n">
+        <v>23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>27</v>
+      </c>
+      <c r="I544" t="n">
+        <v>29</v>
+      </c>
+      <c r="J544" t="n">
+        <v>31</v>
+      </c>
+      <c r="K544" t="n">
+        <v>32</v>
+      </c>
+      <c r="L544" t="n">
+        <v>33</v>
+      </c>
+      <c r="M544" t="n">
+        <v>34</v>
+      </c>
+      <c r="N544" t="n">
+        <v>37</v>
+      </c>
+      <c r="O544" t="n">
+        <v>45</v>
+      </c>
+      <c r="P544" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>50</v>
+      </c>
+      <c r="R544" t="n">
+        <v>61</v>
+      </c>
+      <c r="S544" t="n">
+        <v>66</v>
+      </c>
+      <c r="T544" t="n">
+        <v>67</v>
+      </c>
+      <c r="U544" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+      <c r="C545" t="n">
+        <v>2</v>
+      </c>
+      <c r="D545" t="n">
+        <v>4</v>
+      </c>
+      <c r="E545" t="n">
+        <v>11</v>
+      </c>
+      <c r="F545" t="n">
+        <v>12</v>
+      </c>
+      <c r="G545" t="n">
+        <v>19</v>
+      </c>
+      <c r="H545" t="n">
+        <v>20</v>
+      </c>
+      <c r="I545" t="n">
+        <v>21</v>
+      </c>
+      <c r="J545" t="n">
+        <v>22</v>
+      </c>
+      <c r="K545" t="n">
+        <v>24</v>
+      </c>
+      <c r="L545" t="n">
+        <v>25</v>
+      </c>
+      <c r="M545" t="n">
+        <v>32</v>
+      </c>
+      <c r="N545" t="n">
+        <v>37</v>
+      </c>
+      <c r="O545" t="n">
+        <v>38</v>
+      </c>
+      <c r="P545" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>47</v>
+      </c>
+      <c r="R545" t="n">
+        <v>53</v>
+      </c>
+      <c r="S545" t="n">
+        <v>58</v>
+      </c>
+      <c r="T545" t="n">
+        <v>63</v>
+      </c>
+      <c r="U545" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>5</v>
+      </c>
+      <c r="C546" t="n">
+        <v>8</v>
+      </c>
+      <c r="D546" t="n">
+        <v>10</v>
+      </c>
+      <c r="E546" t="n">
+        <v>13</v>
+      </c>
+      <c r="F546" t="n">
+        <v>16</v>
+      </c>
+      <c r="G546" t="n">
+        <v>18</v>
+      </c>
+      <c r="H546" t="n">
+        <v>25</v>
+      </c>
+      <c r="I546" t="n">
+        <v>26</v>
+      </c>
+      <c r="J546" t="n">
+        <v>31</v>
+      </c>
+      <c r="K546" t="n">
+        <v>37</v>
+      </c>
+      <c r="L546" t="n">
+        <v>38</v>
+      </c>
+      <c r="M546" t="n">
+        <v>40</v>
+      </c>
+      <c r="N546" t="n">
+        <v>42</v>
+      </c>
+      <c r="O546" t="n">
+        <v>47</v>
+      </c>
+      <c r="P546" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>69</v>
+      </c>
+      <c r="R546" t="n">
+        <v>73</v>
+      </c>
+      <c r="S546" t="n">
+        <v>74</v>
+      </c>
+      <c r="T546" t="n">
+        <v>79</v>
+      </c>
+      <c r="U546" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U546"/>
+  <dimension ref="A1:U687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35921,6 +35921,9171 @@
         <v>80</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>16</v>
+      </c>
+      <c r="C547" t="n">
+        <v>18</v>
+      </c>
+      <c r="D547" t="n">
+        <v>26</v>
+      </c>
+      <c r="E547" t="n">
+        <v>27</v>
+      </c>
+      <c r="F547" t="n">
+        <v>30</v>
+      </c>
+      <c r="G547" t="n">
+        <v>31</v>
+      </c>
+      <c r="H547" t="n">
+        <v>33</v>
+      </c>
+      <c r="I547" t="n">
+        <v>42</v>
+      </c>
+      <c r="J547" t="n">
+        <v>51</v>
+      </c>
+      <c r="K547" t="n">
+        <v>54</v>
+      </c>
+      <c r="L547" t="n">
+        <v>55</v>
+      </c>
+      <c r="M547" t="n">
+        <v>56</v>
+      </c>
+      <c r="N547" t="n">
+        <v>65</v>
+      </c>
+      <c r="O547" t="n">
+        <v>66</v>
+      </c>
+      <c r="P547" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>70</v>
+      </c>
+      <c r="R547" t="n">
+        <v>71</v>
+      </c>
+      <c r="S547" t="n">
+        <v>77</v>
+      </c>
+      <c r="T547" t="n">
+        <v>78</v>
+      </c>
+      <c r="U547" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>2</v>
+      </c>
+      <c r="C548" t="n">
+        <v>5</v>
+      </c>
+      <c r="D548" t="n">
+        <v>7</v>
+      </c>
+      <c r="E548" t="n">
+        <v>8</v>
+      </c>
+      <c r="F548" t="n">
+        <v>12</v>
+      </c>
+      <c r="G548" t="n">
+        <v>13</v>
+      </c>
+      <c r="H548" t="n">
+        <v>19</v>
+      </c>
+      <c r="I548" t="n">
+        <v>22</v>
+      </c>
+      <c r="J548" t="n">
+        <v>25</v>
+      </c>
+      <c r="K548" t="n">
+        <v>29</v>
+      </c>
+      <c r="L548" t="n">
+        <v>30</v>
+      </c>
+      <c r="M548" t="n">
+        <v>41</v>
+      </c>
+      <c r="N548" t="n">
+        <v>43</v>
+      </c>
+      <c r="O548" t="n">
+        <v>49</v>
+      </c>
+      <c r="P548" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>53</v>
+      </c>
+      <c r="R548" t="n">
+        <v>55</v>
+      </c>
+      <c r="S548" t="n">
+        <v>59</v>
+      </c>
+      <c r="T548" t="n">
+        <v>69</v>
+      </c>
+      <c r="U548" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>4</v>
+      </c>
+      <c r="C549" t="n">
+        <v>5</v>
+      </c>
+      <c r="D549" t="n">
+        <v>9</v>
+      </c>
+      <c r="E549" t="n">
+        <v>11</v>
+      </c>
+      <c r="F549" t="n">
+        <v>14</v>
+      </c>
+      <c r="G549" t="n">
+        <v>16</v>
+      </c>
+      <c r="H549" t="n">
+        <v>19</v>
+      </c>
+      <c r="I549" t="n">
+        <v>22</v>
+      </c>
+      <c r="J549" t="n">
+        <v>23</v>
+      </c>
+      <c r="K549" t="n">
+        <v>27</v>
+      </c>
+      <c r="L549" t="n">
+        <v>41</v>
+      </c>
+      <c r="M549" t="n">
+        <v>43</v>
+      </c>
+      <c r="N549" t="n">
+        <v>50</v>
+      </c>
+      <c r="O549" t="n">
+        <v>52</v>
+      </c>
+      <c r="P549" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>70</v>
+      </c>
+      <c r="R549" t="n">
+        <v>74</v>
+      </c>
+      <c r="S549" t="n">
+        <v>76</v>
+      </c>
+      <c r="T549" t="n">
+        <v>77</v>
+      </c>
+      <c r="U549" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>2</v>
+      </c>
+      <c r="C550" t="n">
+        <v>3</v>
+      </c>
+      <c r="D550" t="n">
+        <v>6</v>
+      </c>
+      <c r="E550" t="n">
+        <v>7</v>
+      </c>
+      <c r="F550" t="n">
+        <v>9</v>
+      </c>
+      <c r="G550" t="n">
+        <v>15</v>
+      </c>
+      <c r="H550" t="n">
+        <v>24</v>
+      </c>
+      <c r="I550" t="n">
+        <v>25</v>
+      </c>
+      <c r="J550" t="n">
+        <v>30</v>
+      </c>
+      <c r="K550" t="n">
+        <v>34</v>
+      </c>
+      <c r="L550" t="n">
+        <v>35</v>
+      </c>
+      <c r="M550" t="n">
+        <v>45</v>
+      </c>
+      <c r="N550" t="n">
+        <v>47</v>
+      </c>
+      <c r="O550" t="n">
+        <v>49</v>
+      </c>
+      <c r="P550" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>56</v>
+      </c>
+      <c r="R550" t="n">
+        <v>64</v>
+      </c>
+      <c r="S550" t="n">
+        <v>65</v>
+      </c>
+      <c r="T550" t="n">
+        <v>70</v>
+      </c>
+      <c r="U550" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>14</v>
+      </c>
+      <c r="C551" t="n">
+        <v>16</v>
+      </c>
+      <c r="D551" t="n">
+        <v>20</v>
+      </c>
+      <c r="E551" t="n">
+        <v>27</v>
+      </c>
+      <c r="F551" t="n">
+        <v>28</v>
+      </c>
+      <c r="G551" t="n">
+        <v>29</v>
+      </c>
+      <c r="H551" t="n">
+        <v>32</v>
+      </c>
+      <c r="I551" t="n">
+        <v>37</v>
+      </c>
+      <c r="J551" t="n">
+        <v>40</v>
+      </c>
+      <c r="K551" t="n">
+        <v>42</v>
+      </c>
+      <c r="L551" t="n">
+        <v>48</v>
+      </c>
+      <c r="M551" t="n">
+        <v>50</v>
+      </c>
+      <c r="N551" t="n">
+        <v>52</v>
+      </c>
+      <c r="O551" t="n">
+        <v>54</v>
+      </c>
+      <c r="P551" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>63</v>
+      </c>
+      <c r="R551" t="n">
+        <v>64</v>
+      </c>
+      <c r="S551" t="n">
+        <v>68</v>
+      </c>
+      <c r="T551" t="n">
+        <v>72</v>
+      </c>
+      <c r="U551" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>2</v>
+      </c>
+      <c r="C552" t="n">
+        <v>3</v>
+      </c>
+      <c r="D552" t="n">
+        <v>4</v>
+      </c>
+      <c r="E552" t="n">
+        <v>5</v>
+      </c>
+      <c r="F552" t="n">
+        <v>9</v>
+      </c>
+      <c r="G552" t="n">
+        <v>10</v>
+      </c>
+      <c r="H552" t="n">
+        <v>15</v>
+      </c>
+      <c r="I552" t="n">
+        <v>27</v>
+      </c>
+      <c r="J552" t="n">
+        <v>30</v>
+      </c>
+      <c r="K552" t="n">
+        <v>31</v>
+      </c>
+      <c r="L552" t="n">
+        <v>34</v>
+      </c>
+      <c r="M552" t="n">
+        <v>37</v>
+      </c>
+      <c r="N552" t="n">
+        <v>45</v>
+      </c>
+      <c r="O552" t="n">
+        <v>48</v>
+      </c>
+      <c r="P552" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>61</v>
+      </c>
+      <c r="R552" t="n">
+        <v>71</v>
+      </c>
+      <c r="S552" t="n">
+        <v>77</v>
+      </c>
+      <c r="T552" t="n">
+        <v>79</v>
+      </c>
+      <c r="U552" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>3</v>
+      </c>
+      <c r="C553" t="n">
+        <v>12</v>
+      </c>
+      <c r="D553" t="n">
+        <v>14</v>
+      </c>
+      <c r="E553" t="n">
+        <v>15</v>
+      </c>
+      <c r="F553" t="n">
+        <v>18</v>
+      </c>
+      <c r="G553" t="n">
+        <v>20</v>
+      </c>
+      <c r="H553" t="n">
+        <v>22</v>
+      </c>
+      <c r="I553" t="n">
+        <v>23</v>
+      </c>
+      <c r="J553" t="n">
+        <v>28</v>
+      </c>
+      <c r="K553" t="n">
+        <v>32</v>
+      </c>
+      <c r="L553" t="n">
+        <v>36</v>
+      </c>
+      <c r="M553" t="n">
+        <v>37</v>
+      </c>
+      <c r="N553" t="n">
+        <v>40</v>
+      </c>
+      <c r="O553" t="n">
+        <v>51</v>
+      </c>
+      <c r="P553" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>58</v>
+      </c>
+      <c r="R553" t="n">
+        <v>60</v>
+      </c>
+      <c r="S553" t="n">
+        <v>61</v>
+      </c>
+      <c r="T553" t="n">
+        <v>67</v>
+      </c>
+      <c r="U553" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3</v>
+      </c>
+      <c r="C554" t="n">
+        <v>8</v>
+      </c>
+      <c r="D554" t="n">
+        <v>12</v>
+      </c>
+      <c r="E554" t="n">
+        <v>17</v>
+      </c>
+      <c r="F554" t="n">
+        <v>19</v>
+      </c>
+      <c r="G554" t="n">
+        <v>20</v>
+      </c>
+      <c r="H554" t="n">
+        <v>22</v>
+      </c>
+      <c r="I554" t="n">
+        <v>32</v>
+      </c>
+      <c r="J554" t="n">
+        <v>35</v>
+      </c>
+      <c r="K554" t="n">
+        <v>43</v>
+      </c>
+      <c r="L554" t="n">
+        <v>44</v>
+      </c>
+      <c r="M554" t="n">
+        <v>50</v>
+      </c>
+      <c r="N554" t="n">
+        <v>52</v>
+      </c>
+      <c r="O554" t="n">
+        <v>56</v>
+      </c>
+      <c r="P554" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>59</v>
+      </c>
+      <c r="R554" t="n">
+        <v>60</v>
+      </c>
+      <c r="S554" t="n">
+        <v>63</v>
+      </c>
+      <c r="T554" t="n">
+        <v>67</v>
+      </c>
+      <c r="U554" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>3</v>
+      </c>
+      <c r="C555" t="n">
+        <v>6</v>
+      </c>
+      <c r="D555" t="n">
+        <v>7</v>
+      </c>
+      <c r="E555" t="n">
+        <v>10</v>
+      </c>
+      <c r="F555" t="n">
+        <v>18</v>
+      </c>
+      <c r="G555" t="n">
+        <v>22</v>
+      </c>
+      <c r="H555" t="n">
+        <v>24</v>
+      </c>
+      <c r="I555" t="n">
+        <v>30</v>
+      </c>
+      <c r="J555" t="n">
+        <v>33</v>
+      </c>
+      <c r="K555" t="n">
+        <v>34</v>
+      </c>
+      <c r="L555" t="n">
+        <v>36</v>
+      </c>
+      <c r="M555" t="n">
+        <v>48</v>
+      </c>
+      <c r="N555" t="n">
+        <v>54</v>
+      </c>
+      <c r="O555" t="n">
+        <v>56</v>
+      </c>
+      <c r="P555" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>63</v>
+      </c>
+      <c r="R555" t="n">
+        <v>65</v>
+      </c>
+      <c r="S555" t="n">
+        <v>70</v>
+      </c>
+      <c r="T555" t="n">
+        <v>72</v>
+      </c>
+      <c r="U555" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+      <c r="C556" t="n">
+        <v>4</v>
+      </c>
+      <c r="D556" t="n">
+        <v>12</v>
+      </c>
+      <c r="E556" t="n">
+        <v>16</v>
+      </c>
+      <c r="F556" t="n">
+        <v>20</v>
+      </c>
+      <c r="G556" t="n">
+        <v>28</v>
+      </c>
+      <c r="H556" t="n">
+        <v>31</v>
+      </c>
+      <c r="I556" t="n">
+        <v>37</v>
+      </c>
+      <c r="J556" t="n">
+        <v>40</v>
+      </c>
+      <c r="K556" t="n">
+        <v>42</v>
+      </c>
+      <c r="L556" t="n">
+        <v>43</v>
+      </c>
+      <c r="M556" t="n">
+        <v>44</v>
+      </c>
+      <c r="N556" t="n">
+        <v>46</v>
+      </c>
+      <c r="O556" t="n">
+        <v>54</v>
+      </c>
+      <c r="P556" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>59</v>
+      </c>
+      <c r="R556" t="n">
+        <v>65</v>
+      </c>
+      <c r="S556" t="n">
+        <v>73</v>
+      </c>
+      <c r="T556" t="n">
+        <v>74</v>
+      </c>
+      <c r="U556" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>2</v>
+      </c>
+      <c r="C557" t="n">
+        <v>7</v>
+      </c>
+      <c r="D557" t="n">
+        <v>8</v>
+      </c>
+      <c r="E557" t="n">
+        <v>9</v>
+      </c>
+      <c r="F557" t="n">
+        <v>10</v>
+      </c>
+      <c r="G557" t="n">
+        <v>14</v>
+      </c>
+      <c r="H557" t="n">
+        <v>15</v>
+      </c>
+      <c r="I557" t="n">
+        <v>16</v>
+      </c>
+      <c r="J557" t="n">
+        <v>18</v>
+      </c>
+      <c r="K557" t="n">
+        <v>27</v>
+      </c>
+      <c r="L557" t="n">
+        <v>28</v>
+      </c>
+      <c r="M557" t="n">
+        <v>29</v>
+      </c>
+      <c r="N557" t="n">
+        <v>33</v>
+      </c>
+      <c r="O557" t="n">
+        <v>36</v>
+      </c>
+      <c r="P557" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>49</v>
+      </c>
+      <c r="R557" t="n">
+        <v>52</v>
+      </c>
+      <c r="S557" t="n">
+        <v>55</v>
+      </c>
+      <c r="T557" t="n">
+        <v>67</v>
+      </c>
+      <c r="U557" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>3</v>
+      </c>
+      <c r="C558" t="n">
+        <v>5</v>
+      </c>
+      <c r="D558" t="n">
+        <v>6</v>
+      </c>
+      <c r="E558" t="n">
+        <v>10</v>
+      </c>
+      <c r="F558" t="n">
+        <v>12</v>
+      </c>
+      <c r="G558" t="n">
+        <v>15</v>
+      </c>
+      <c r="H558" t="n">
+        <v>19</v>
+      </c>
+      <c r="I558" t="n">
+        <v>20</v>
+      </c>
+      <c r="J558" t="n">
+        <v>28</v>
+      </c>
+      <c r="K558" t="n">
+        <v>32</v>
+      </c>
+      <c r="L558" t="n">
+        <v>33</v>
+      </c>
+      <c r="M558" t="n">
+        <v>46</v>
+      </c>
+      <c r="N558" t="n">
+        <v>47</v>
+      </c>
+      <c r="O558" t="n">
+        <v>48</v>
+      </c>
+      <c r="P558" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>64</v>
+      </c>
+      <c r="R558" t="n">
+        <v>67</v>
+      </c>
+      <c r="S558" t="n">
+        <v>68</v>
+      </c>
+      <c r="T558" t="n">
+        <v>75</v>
+      </c>
+      <c r="U558" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>4</v>
+      </c>
+      <c r="C559" t="n">
+        <v>10</v>
+      </c>
+      <c r="D559" t="n">
+        <v>12</v>
+      </c>
+      <c r="E559" t="n">
+        <v>20</v>
+      </c>
+      <c r="F559" t="n">
+        <v>22</v>
+      </c>
+      <c r="G559" t="n">
+        <v>23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>26</v>
+      </c>
+      <c r="I559" t="n">
+        <v>33</v>
+      </c>
+      <c r="J559" t="n">
+        <v>36</v>
+      </c>
+      <c r="K559" t="n">
+        <v>42</v>
+      </c>
+      <c r="L559" t="n">
+        <v>44</v>
+      </c>
+      <c r="M559" t="n">
+        <v>49</v>
+      </c>
+      <c r="N559" t="n">
+        <v>52</v>
+      </c>
+      <c r="O559" t="n">
+        <v>54</v>
+      </c>
+      <c r="P559" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>57</v>
+      </c>
+      <c r="R559" t="n">
+        <v>60</v>
+      </c>
+      <c r="S559" t="n">
+        <v>68</v>
+      </c>
+      <c r="T559" t="n">
+        <v>70</v>
+      </c>
+      <c r="U559" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>3</v>
+      </c>
+      <c r="C560" t="n">
+        <v>5</v>
+      </c>
+      <c r="D560" t="n">
+        <v>7</v>
+      </c>
+      <c r="E560" t="n">
+        <v>9</v>
+      </c>
+      <c r="F560" t="n">
+        <v>11</v>
+      </c>
+      <c r="G560" t="n">
+        <v>17</v>
+      </c>
+      <c r="H560" t="n">
+        <v>22</v>
+      </c>
+      <c r="I560" t="n">
+        <v>28</v>
+      </c>
+      <c r="J560" t="n">
+        <v>35</v>
+      </c>
+      <c r="K560" t="n">
+        <v>37</v>
+      </c>
+      <c r="L560" t="n">
+        <v>45</v>
+      </c>
+      <c r="M560" t="n">
+        <v>51</v>
+      </c>
+      <c r="N560" t="n">
+        <v>54</v>
+      </c>
+      <c r="O560" t="n">
+        <v>63</v>
+      </c>
+      <c r="P560" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>72</v>
+      </c>
+      <c r="R560" t="n">
+        <v>74</v>
+      </c>
+      <c r="S560" t="n">
+        <v>76</v>
+      </c>
+      <c r="T560" t="n">
+        <v>78</v>
+      </c>
+      <c r="U560" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>5</v>
+      </c>
+      <c r="C561" t="n">
+        <v>7</v>
+      </c>
+      <c r="D561" t="n">
+        <v>10</v>
+      </c>
+      <c r="E561" t="n">
+        <v>14</v>
+      </c>
+      <c r="F561" t="n">
+        <v>17</v>
+      </c>
+      <c r="G561" t="n">
+        <v>20</v>
+      </c>
+      <c r="H561" t="n">
+        <v>22</v>
+      </c>
+      <c r="I561" t="n">
+        <v>27</v>
+      </c>
+      <c r="J561" t="n">
+        <v>29</v>
+      </c>
+      <c r="K561" t="n">
+        <v>34</v>
+      </c>
+      <c r="L561" t="n">
+        <v>36</v>
+      </c>
+      <c r="M561" t="n">
+        <v>39</v>
+      </c>
+      <c r="N561" t="n">
+        <v>42</v>
+      </c>
+      <c r="O561" t="n">
+        <v>43</v>
+      </c>
+      <c r="P561" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>50</v>
+      </c>
+      <c r="R561" t="n">
+        <v>64</v>
+      </c>
+      <c r="S561" t="n">
+        <v>69</v>
+      </c>
+      <c r="T561" t="n">
+        <v>70</v>
+      </c>
+      <c r="U561" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>2</v>
+      </c>
+      <c r="C562" t="n">
+        <v>6</v>
+      </c>
+      <c r="D562" t="n">
+        <v>16</v>
+      </c>
+      <c r="E562" t="n">
+        <v>17</v>
+      </c>
+      <c r="F562" t="n">
+        <v>18</v>
+      </c>
+      <c r="G562" t="n">
+        <v>23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>28</v>
+      </c>
+      <c r="I562" t="n">
+        <v>29</v>
+      </c>
+      <c r="J562" t="n">
+        <v>35</v>
+      </c>
+      <c r="K562" t="n">
+        <v>36</v>
+      </c>
+      <c r="L562" t="n">
+        <v>44</v>
+      </c>
+      <c r="M562" t="n">
+        <v>49</v>
+      </c>
+      <c r="N562" t="n">
+        <v>50</v>
+      </c>
+      <c r="O562" t="n">
+        <v>52</v>
+      </c>
+      <c r="P562" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>66</v>
+      </c>
+      <c r="R562" t="n">
+        <v>71</v>
+      </c>
+      <c r="S562" t="n">
+        <v>78</v>
+      </c>
+      <c r="T562" t="n">
+        <v>79</v>
+      </c>
+      <c r="U562" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>5</v>
+      </c>
+      <c r="C563" t="n">
+        <v>11</v>
+      </c>
+      <c r="D563" t="n">
+        <v>16</v>
+      </c>
+      <c r="E563" t="n">
+        <v>17</v>
+      </c>
+      <c r="F563" t="n">
+        <v>18</v>
+      </c>
+      <c r="G563" t="n">
+        <v>20</v>
+      </c>
+      <c r="H563" t="n">
+        <v>31</v>
+      </c>
+      <c r="I563" t="n">
+        <v>35</v>
+      </c>
+      <c r="J563" t="n">
+        <v>36</v>
+      </c>
+      <c r="K563" t="n">
+        <v>37</v>
+      </c>
+      <c r="L563" t="n">
+        <v>46</v>
+      </c>
+      <c r="M563" t="n">
+        <v>50</v>
+      </c>
+      <c r="N563" t="n">
+        <v>51</v>
+      </c>
+      <c r="O563" t="n">
+        <v>64</v>
+      </c>
+      <c r="P563" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>67</v>
+      </c>
+      <c r="R563" t="n">
+        <v>72</v>
+      </c>
+      <c r="S563" t="n">
+        <v>77</v>
+      </c>
+      <c r="T563" t="n">
+        <v>79</v>
+      </c>
+      <c r="U563" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>2</v>
+      </c>
+      <c r="C564" t="n">
+        <v>4</v>
+      </c>
+      <c r="D564" t="n">
+        <v>9</v>
+      </c>
+      <c r="E564" t="n">
+        <v>10</v>
+      </c>
+      <c r="F564" t="n">
+        <v>13</v>
+      </c>
+      <c r="G564" t="n">
+        <v>17</v>
+      </c>
+      <c r="H564" t="n">
+        <v>23</v>
+      </c>
+      <c r="I564" t="n">
+        <v>24</v>
+      </c>
+      <c r="J564" t="n">
+        <v>30</v>
+      </c>
+      <c r="K564" t="n">
+        <v>40</v>
+      </c>
+      <c r="L564" t="n">
+        <v>44</v>
+      </c>
+      <c r="M564" t="n">
+        <v>45</v>
+      </c>
+      <c r="N564" t="n">
+        <v>46</v>
+      </c>
+      <c r="O564" t="n">
+        <v>49</v>
+      </c>
+      <c r="P564" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>70</v>
+      </c>
+      <c r="R564" t="n">
+        <v>72</v>
+      </c>
+      <c r="S564" t="n">
+        <v>77</v>
+      </c>
+      <c r="T564" t="n">
+        <v>79</v>
+      </c>
+      <c r="U564" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>7</v>
+      </c>
+      <c r="C565" t="n">
+        <v>8</v>
+      </c>
+      <c r="D565" t="n">
+        <v>15</v>
+      </c>
+      <c r="E565" t="n">
+        <v>21</v>
+      </c>
+      <c r="F565" t="n">
+        <v>33</v>
+      </c>
+      <c r="G565" t="n">
+        <v>34</v>
+      </c>
+      <c r="H565" t="n">
+        <v>35</v>
+      </c>
+      <c r="I565" t="n">
+        <v>42</v>
+      </c>
+      <c r="J565" t="n">
+        <v>43</v>
+      </c>
+      <c r="K565" t="n">
+        <v>45</v>
+      </c>
+      <c r="L565" t="n">
+        <v>46</v>
+      </c>
+      <c r="M565" t="n">
+        <v>48</v>
+      </c>
+      <c r="N565" t="n">
+        <v>53</v>
+      </c>
+      <c r="O565" t="n">
+        <v>56</v>
+      </c>
+      <c r="P565" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>70</v>
+      </c>
+      <c r="R565" t="n">
+        <v>71</v>
+      </c>
+      <c r="S565" t="n">
+        <v>72</v>
+      </c>
+      <c r="T565" t="n">
+        <v>73</v>
+      </c>
+      <c r="U565" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>2</v>
+      </c>
+      <c r="C566" t="n">
+        <v>4</v>
+      </c>
+      <c r="D566" t="n">
+        <v>5</v>
+      </c>
+      <c r="E566" t="n">
+        <v>6</v>
+      </c>
+      <c r="F566" t="n">
+        <v>13</v>
+      </c>
+      <c r="G566" t="n">
+        <v>14</v>
+      </c>
+      <c r="H566" t="n">
+        <v>18</v>
+      </c>
+      <c r="I566" t="n">
+        <v>20</v>
+      </c>
+      <c r="J566" t="n">
+        <v>26</v>
+      </c>
+      <c r="K566" t="n">
+        <v>28</v>
+      </c>
+      <c r="L566" t="n">
+        <v>40</v>
+      </c>
+      <c r="M566" t="n">
+        <v>42</v>
+      </c>
+      <c r="N566" t="n">
+        <v>49</v>
+      </c>
+      <c r="O566" t="n">
+        <v>56</v>
+      </c>
+      <c r="P566" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>64</v>
+      </c>
+      <c r="R566" t="n">
+        <v>66</v>
+      </c>
+      <c r="S566" t="n">
+        <v>69</v>
+      </c>
+      <c r="T566" t="n">
+        <v>72</v>
+      </c>
+      <c r="U566" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>4</v>
+      </c>
+      <c r="C567" t="n">
+        <v>8</v>
+      </c>
+      <c r="D567" t="n">
+        <v>12</v>
+      </c>
+      <c r="E567" t="n">
+        <v>18</v>
+      </c>
+      <c r="F567" t="n">
+        <v>19</v>
+      </c>
+      <c r="G567" t="n">
+        <v>20</v>
+      </c>
+      <c r="H567" t="n">
+        <v>26</v>
+      </c>
+      <c r="I567" t="n">
+        <v>29</v>
+      </c>
+      <c r="J567" t="n">
+        <v>31</v>
+      </c>
+      <c r="K567" t="n">
+        <v>32</v>
+      </c>
+      <c r="L567" t="n">
+        <v>37</v>
+      </c>
+      <c r="M567" t="n">
+        <v>39</v>
+      </c>
+      <c r="N567" t="n">
+        <v>40</v>
+      </c>
+      <c r="O567" t="n">
+        <v>45</v>
+      </c>
+      <c r="P567" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>55</v>
+      </c>
+      <c r="R567" t="n">
+        <v>56</v>
+      </c>
+      <c r="S567" t="n">
+        <v>66</v>
+      </c>
+      <c r="T567" t="n">
+        <v>70</v>
+      </c>
+      <c r="U567" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>5</v>
+      </c>
+      <c r="C568" t="n">
+        <v>17</v>
+      </c>
+      <c r="D568" t="n">
+        <v>20</v>
+      </c>
+      <c r="E568" t="n">
+        <v>26</v>
+      </c>
+      <c r="F568" t="n">
+        <v>29</v>
+      </c>
+      <c r="G568" t="n">
+        <v>37</v>
+      </c>
+      <c r="H568" t="n">
+        <v>38</v>
+      </c>
+      <c r="I568" t="n">
+        <v>39</v>
+      </c>
+      <c r="J568" t="n">
+        <v>40</v>
+      </c>
+      <c r="K568" t="n">
+        <v>41</v>
+      </c>
+      <c r="L568" t="n">
+        <v>42</v>
+      </c>
+      <c r="M568" t="n">
+        <v>47</v>
+      </c>
+      <c r="N568" t="n">
+        <v>52</v>
+      </c>
+      <c r="O568" t="n">
+        <v>54</v>
+      </c>
+      <c r="P568" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>57</v>
+      </c>
+      <c r="R568" t="n">
+        <v>59</v>
+      </c>
+      <c r="S568" t="n">
+        <v>60</v>
+      </c>
+      <c r="T568" t="n">
+        <v>64</v>
+      </c>
+      <c r="U568" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+      <c r="C569" t="n">
+        <v>4</v>
+      </c>
+      <c r="D569" t="n">
+        <v>6</v>
+      </c>
+      <c r="E569" t="n">
+        <v>7</v>
+      </c>
+      <c r="F569" t="n">
+        <v>15</v>
+      </c>
+      <c r="G569" t="n">
+        <v>16</v>
+      </c>
+      <c r="H569" t="n">
+        <v>34</v>
+      </c>
+      <c r="I569" t="n">
+        <v>35</v>
+      </c>
+      <c r="J569" t="n">
+        <v>37</v>
+      </c>
+      <c r="K569" t="n">
+        <v>42</v>
+      </c>
+      <c r="L569" t="n">
+        <v>45</v>
+      </c>
+      <c r="M569" t="n">
+        <v>49</v>
+      </c>
+      <c r="N569" t="n">
+        <v>51</v>
+      </c>
+      <c r="O569" t="n">
+        <v>52</v>
+      </c>
+      <c r="P569" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>62</v>
+      </c>
+      <c r="R569" t="n">
+        <v>66</v>
+      </c>
+      <c r="S569" t="n">
+        <v>69</v>
+      </c>
+      <c r="T569" t="n">
+        <v>73</v>
+      </c>
+      <c r="U569" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>5</v>
+      </c>
+      <c r="C570" t="n">
+        <v>7</v>
+      </c>
+      <c r="D570" t="n">
+        <v>8</v>
+      </c>
+      <c r="E570" t="n">
+        <v>17</v>
+      </c>
+      <c r="F570" t="n">
+        <v>20</v>
+      </c>
+      <c r="G570" t="n">
+        <v>24</v>
+      </c>
+      <c r="H570" t="n">
+        <v>29</v>
+      </c>
+      <c r="I570" t="n">
+        <v>42</v>
+      </c>
+      <c r="J570" t="n">
+        <v>44</v>
+      </c>
+      <c r="K570" t="n">
+        <v>46</v>
+      </c>
+      <c r="L570" t="n">
+        <v>48</v>
+      </c>
+      <c r="M570" t="n">
+        <v>50</v>
+      </c>
+      <c r="N570" t="n">
+        <v>54</v>
+      </c>
+      <c r="O570" t="n">
+        <v>57</v>
+      </c>
+      <c r="P570" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>61</v>
+      </c>
+      <c r="R570" t="n">
+        <v>65</v>
+      </c>
+      <c r="S570" t="n">
+        <v>71</v>
+      </c>
+      <c r="T570" t="n">
+        <v>75</v>
+      </c>
+      <c r="U570" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+      <c r="C571" t="n">
+        <v>6</v>
+      </c>
+      <c r="D571" t="n">
+        <v>7</v>
+      </c>
+      <c r="E571" t="n">
+        <v>9</v>
+      </c>
+      <c r="F571" t="n">
+        <v>10</v>
+      </c>
+      <c r="G571" t="n">
+        <v>17</v>
+      </c>
+      <c r="H571" t="n">
+        <v>19</v>
+      </c>
+      <c r="I571" t="n">
+        <v>26</v>
+      </c>
+      <c r="J571" t="n">
+        <v>29</v>
+      </c>
+      <c r="K571" t="n">
+        <v>30</v>
+      </c>
+      <c r="L571" t="n">
+        <v>32</v>
+      </c>
+      <c r="M571" t="n">
+        <v>33</v>
+      </c>
+      <c r="N571" t="n">
+        <v>37</v>
+      </c>
+      <c r="O571" t="n">
+        <v>45</v>
+      </c>
+      <c r="P571" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>55</v>
+      </c>
+      <c r="R571" t="n">
+        <v>62</v>
+      </c>
+      <c r="S571" t="n">
+        <v>69</v>
+      </c>
+      <c r="T571" t="n">
+        <v>72</v>
+      </c>
+      <c r="U571" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>3</v>
+      </c>
+      <c r="C572" t="n">
+        <v>6</v>
+      </c>
+      <c r="D572" t="n">
+        <v>19</v>
+      </c>
+      <c r="E572" t="n">
+        <v>25</v>
+      </c>
+      <c r="F572" t="n">
+        <v>27</v>
+      </c>
+      <c r="G572" t="n">
+        <v>30</v>
+      </c>
+      <c r="H572" t="n">
+        <v>31</v>
+      </c>
+      <c r="I572" t="n">
+        <v>33</v>
+      </c>
+      <c r="J572" t="n">
+        <v>46</v>
+      </c>
+      <c r="K572" t="n">
+        <v>54</v>
+      </c>
+      <c r="L572" t="n">
+        <v>56</v>
+      </c>
+      <c r="M572" t="n">
+        <v>60</v>
+      </c>
+      <c r="N572" t="n">
+        <v>64</v>
+      </c>
+      <c r="O572" t="n">
+        <v>65</v>
+      </c>
+      <c r="P572" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>71</v>
+      </c>
+      <c r="R572" t="n">
+        <v>73</v>
+      </c>
+      <c r="S572" t="n">
+        <v>75</v>
+      </c>
+      <c r="T572" t="n">
+        <v>77</v>
+      </c>
+      <c r="U572" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>2</v>
+      </c>
+      <c r="C573" t="n">
+        <v>4</v>
+      </c>
+      <c r="D573" t="n">
+        <v>8</v>
+      </c>
+      <c r="E573" t="n">
+        <v>14</v>
+      </c>
+      <c r="F573" t="n">
+        <v>15</v>
+      </c>
+      <c r="G573" t="n">
+        <v>16</v>
+      </c>
+      <c r="H573" t="n">
+        <v>20</v>
+      </c>
+      <c r="I573" t="n">
+        <v>24</v>
+      </c>
+      <c r="J573" t="n">
+        <v>28</v>
+      </c>
+      <c r="K573" t="n">
+        <v>44</v>
+      </c>
+      <c r="L573" t="n">
+        <v>48</v>
+      </c>
+      <c r="M573" t="n">
+        <v>50</v>
+      </c>
+      <c r="N573" t="n">
+        <v>57</v>
+      </c>
+      <c r="O573" t="n">
+        <v>58</v>
+      </c>
+      <c r="P573" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>63</v>
+      </c>
+      <c r="R573" t="n">
+        <v>68</v>
+      </c>
+      <c r="S573" t="n">
+        <v>69</v>
+      </c>
+      <c r="T573" t="n">
+        <v>76</v>
+      </c>
+      <c r="U573" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>3</v>
+      </c>
+      <c r="C574" t="n">
+        <v>4</v>
+      </c>
+      <c r="D574" t="n">
+        <v>8</v>
+      </c>
+      <c r="E574" t="n">
+        <v>13</v>
+      </c>
+      <c r="F574" t="n">
+        <v>22</v>
+      </c>
+      <c r="G574" t="n">
+        <v>24</v>
+      </c>
+      <c r="H574" t="n">
+        <v>25</v>
+      </c>
+      <c r="I574" t="n">
+        <v>32</v>
+      </c>
+      <c r="J574" t="n">
+        <v>35</v>
+      </c>
+      <c r="K574" t="n">
+        <v>39</v>
+      </c>
+      <c r="L574" t="n">
+        <v>40</v>
+      </c>
+      <c r="M574" t="n">
+        <v>51</v>
+      </c>
+      <c r="N574" t="n">
+        <v>58</v>
+      </c>
+      <c r="O574" t="n">
+        <v>64</v>
+      </c>
+      <c r="P574" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>71</v>
+      </c>
+      <c r="R574" t="n">
+        <v>72</v>
+      </c>
+      <c r="S574" t="n">
+        <v>73</v>
+      </c>
+      <c r="T574" t="n">
+        <v>78</v>
+      </c>
+      <c r="U574" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>3</v>
+      </c>
+      <c r="C575" t="n">
+        <v>4</v>
+      </c>
+      <c r="D575" t="n">
+        <v>7</v>
+      </c>
+      <c r="E575" t="n">
+        <v>10</v>
+      </c>
+      <c r="F575" t="n">
+        <v>11</v>
+      </c>
+      <c r="G575" t="n">
+        <v>13</v>
+      </c>
+      <c r="H575" t="n">
+        <v>15</v>
+      </c>
+      <c r="I575" t="n">
+        <v>18</v>
+      </c>
+      <c r="J575" t="n">
+        <v>19</v>
+      </c>
+      <c r="K575" t="n">
+        <v>22</v>
+      </c>
+      <c r="L575" t="n">
+        <v>24</v>
+      </c>
+      <c r="M575" t="n">
+        <v>27</v>
+      </c>
+      <c r="N575" t="n">
+        <v>35</v>
+      </c>
+      <c r="O575" t="n">
+        <v>37</v>
+      </c>
+      <c r="P575" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>39</v>
+      </c>
+      <c r="R575" t="n">
+        <v>67</v>
+      </c>
+      <c r="S575" t="n">
+        <v>69</v>
+      </c>
+      <c r="T575" t="n">
+        <v>72</v>
+      </c>
+      <c r="U575" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>3</v>
+      </c>
+      <c r="C576" t="n">
+        <v>7</v>
+      </c>
+      <c r="D576" t="n">
+        <v>9</v>
+      </c>
+      <c r="E576" t="n">
+        <v>10</v>
+      </c>
+      <c r="F576" t="n">
+        <v>21</v>
+      </c>
+      <c r="G576" t="n">
+        <v>22</v>
+      </c>
+      <c r="H576" t="n">
+        <v>24</v>
+      </c>
+      <c r="I576" t="n">
+        <v>26</v>
+      </c>
+      <c r="J576" t="n">
+        <v>30</v>
+      </c>
+      <c r="K576" t="n">
+        <v>43</v>
+      </c>
+      <c r="L576" t="n">
+        <v>44</v>
+      </c>
+      <c r="M576" t="n">
+        <v>50</v>
+      </c>
+      <c r="N576" t="n">
+        <v>51</v>
+      </c>
+      <c r="O576" t="n">
+        <v>52</v>
+      </c>
+      <c r="P576" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>63</v>
+      </c>
+      <c r="R576" t="n">
+        <v>64</v>
+      </c>
+      <c r="S576" t="n">
+        <v>78</v>
+      </c>
+      <c r="T576" t="n">
+        <v>79</v>
+      </c>
+      <c r="U576" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>3</v>
+      </c>
+      <c r="C577" t="n">
+        <v>6</v>
+      </c>
+      <c r="D577" t="n">
+        <v>10</v>
+      </c>
+      <c r="E577" t="n">
+        <v>11</v>
+      </c>
+      <c r="F577" t="n">
+        <v>12</v>
+      </c>
+      <c r="G577" t="n">
+        <v>18</v>
+      </c>
+      <c r="H577" t="n">
+        <v>26</v>
+      </c>
+      <c r="I577" t="n">
+        <v>27</v>
+      </c>
+      <c r="J577" t="n">
+        <v>29</v>
+      </c>
+      <c r="K577" t="n">
+        <v>31</v>
+      </c>
+      <c r="L577" t="n">
+        <v>51</v>
+      </c>
+      <c r="M577" t="n">
+        <v>55</v>
+      </c>
+      <c r="N577" t="n">
+        <v>67</v>
+      </c>
+      <c r="O577" t="n">
+        <v>68</v>
+      </c>
+      <c r="P577" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>72</v>
+      </c>
+      <c r="R577" t="n">
+        <v>74</v>
+      </c>
+      <c r="S577" t="n">
+        <v>76</v>
+      </c>
+      <c r="T577" t="n">
+        <v>79</v>
+      </c>
+      <c r="U577" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>2</v>
+      </c>
+      <c r="C578" t="n">
+        <v>4</v>
+      </c>
+      <c r="D578" t="n">
+        <v>21</v>
+      </c>
+      <c r="E578" t="n">
+        <v>27</v>
+      </c>
+      <c r="F578" t="n">
+        <v>28</v>
+      </c>
+      <c r="G578" t="n">
+        <v>30</v>
+      </c>
+      <c r="H578" t="n">
+        <v>31</v>
+      </c>
+      <c r="I578" t="n">
+        <v>42</v>
+      </c>
+      <c r="J578" t="n">
+        <v>47</v>
+      </c>
+      <c r="K578" t="n">
+        <v>48</v>
+      </c>
+      <c r="L578" t="n">
+        <v>50</v>
+      </c>
+      <c r="M578" t="n">
+        <v>52</v>
+      </c>
+      <c r="N578" t="n">
+        <v>56</v>
+      </c>
+      <c r="O578" t="n">
+        <v>61</v>
+      </c>
+      <c r="P578" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>68</v>
+      </c>
+      <c r="R578" t="n">
+        <v>69</v>
+      </c>
+      <c r="S578" t="n">
+        <v>70</v>
+      </c>
+      <c r="T578" t="n">
+        <v>76</v>
+      </c>
+      <c r="U578" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>6</v>
+      </c>
+      <c r="C579" t="n">
+        <v>8</v>
+      </c>
+      <c r="D579" t="n">
+        <v>9</v>
+      </c>
+      <c r="E579" t="n">
+        <v>10</v>
+      </c>
+      <c r="F579" t="n">
+        <v>11</v>
+      </c>
+      <c r="G579" t="n">
+        <v>13</v>
+      </c>
+      <c r="H579" t="n">
+        <v>18</v>
+      </c>
+      <c r="I579" t="n">
+        <v>20</v>
+      </c>
+      <c r="J579" t="n">
+        <v>24</v>
+      </c>
+      <c r="K579" t="n">
+        <v>41</v>
+      </c>
+      <c r="L579" t="n">
+        <v>43</v>
+      </c>
+      <c r="M579" t="n">
+        <v>47</v>
+      </c>
+      <c r="N579" t="n">
+        <v>48</v>
+      </c>
+      <c r="O579" t="n">
+        <v>53</v>
+      </c>
+      <c r="P579" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>57</v>
+      </c>
+      <c r="R579" t="n">
+        <v>59</v>
+      </c>
+      <c r="S579" t="n">
+        <v>70</v>
+      </c>
+      <c r="T579" t="n">
+        <v>71</v>
+      </c>
+      <c r="U579" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>6</v>
+      </c>
+      <c r="C580" t="n">
+        <v>11</v>
+      </c>
+      <c r="D580" t="n">
+        <v>20</v>
+      </c>
+      <c r="E580" t="n">
+        <v>22</v>
+      </c>
+      <c r="F580" t="n">
+        <v>23</v>
+      </c>
+      <c r="G580" t="n">
+        <v>26</v>
+      </c>
+      <c r="H580" t="n">
+        <v>32</v>
+      </c>
+      <c r="I580" t="n">
+        <v>35</v>
+      </c>
+      <c r="J580" t="n">
+        <v>37</v>
+      </c>
+      <c r="K580" t="n">
+        <v>40</v>
+      </c>
+      <c r="L580" t="n">
+        <v>44</v>
+      </c>
+      <c r="M580" t="n">
+        <v>46</v>
+      </c>
+      <c r="N580" t="n">
+        <v>47</v>
+      </c>
+      <c r="O580" t="n">
+        <v>51</v>
+      </c>
+      <c r="P580" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>54</v>
+      </c>
+      <c r="R580" t="n">
+        <v>55</v>
+      </c>
+      <c r="S580" t="n">
+        <v>59</v>
+      </c>
+      <c r="T580" t="n">
+        <v>76</v>
+      </c>
+      <c r="U580" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>2</v>
+      </c>
+      <c r="C581" t="n">
+        <v>7</v>
+      </c>
+      <c r="D581" t="n">
+        <v>20</v>
+      </c>
+      <c r="E581" t="n">
+        <v>25</v>
+      </c>
+      <c r="F581" t="n">
+        <v>27</v>
+      </c>
+      <c r="G581" t="n">
+        <v>34</v>
+      </c>
+      <c r="H581" t="n">
+        <v>40</v>
+      </c>
+      <c r="I581" t="n">
+        <v>41</v>
+      </c>
+      <c r="J581" t="n">
+        <v>43</v>
+      </c>
+      <c r="K581" t="n">
+        <v>46</v>
+      </c>
+      <c r="L581" t="n">
+        <v>47</v>
+      </c>
+      <c r="M581" t="n">
+        <v>48</v>
+      </c>
+      <c r="N581" t="n">
+        <v>56</v>
+      </c>
+      <c r="O581" t="n">
+        <v>58</v>
+      </c>
+      <c r="P581" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>66</v>
+      </c>
+      <c r="R581" t="n">
+        <v>68</v>
+      </c>
+      <c r="S581" t="n">
+        <v>72</v>
+      </c>
+      <c r="T581" t="n">
+        <v>76</v>
+      </c>
+      <c r="U581" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+      <c r="C582" t="n">
+        <v>7</v>
+      </c>
+      <c r="D582" t="n">
+        <v>9</v>
+      </c>
+      <c r="E582" t="n">
+        <v>16</v>
+      </c>
+      <c r="F582" t="n">
+        <v>22</v>
+      </c>
+      <c r="G582" t="n">
+        <v>27</v>
+      </c>
+      <c r="H582" t="n">
+        <v>29</v>
+      </c>
+      <c r="I582" t="n">
+        <v>30</v>
+      </c>
+      <c r="J582" t="n">
+        <v>33</v>
+      </c>
+      <c r="K582" t="n">
+        <v>37</v>
+      </c>
+      <c r="L582" t="n">
+        <v>44</v>
+      </c>
+      <c r="M582" t="n">
+        <v>45</v>
+      </c>
+      <c r="N582" t="n">
+        <v>58</v>
+      </c>
+      <c r="O582" t="n">
+        <v>60</v>
+      </c>
+      <c r="P582" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>66</v>
+      </c>
+      <c r="R582" t="n">
+        <v>68</v>
+      </c>
+      <c r="S582" t="n">
+        <v>75</v>
+      </c>
+      <c r="T582" t="n">
+        <v>78</v>
+      </c>
+      <c r="U582" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>5</v>
+      </c>
+      <c r="C583" t="n">
+        <v>13</v>
+      </c>
+      <c r="D583" t="n">
+        <v>15</v>
+      </c>
+      <c r="E583" t="n">
+        <v>17</v>
+      </c>
+      <c r="F583" t="n">
+        <v>21</v>
+      </c>
+      <c r="G583" t="n">
+        <v>22</v>
+      </c>
+      <c r="H583" t="n">
+        <v>28</v>
+      </c>
+      <c r="I583" t="n">
+        <v>30</v>
+      </c>
+      <c r="J583" t="n">
+        <v>31</v>
+      </c>
+      <c r="K583" t="n">
+        <v>37</v>
+      </c>
+      <c r="L583" t="n">
+        <v>40</v>
+      </c>
+      <c r="M583" t="n">
+        <v>42</v>
+      </c>
+      <c r="N583" t="n">
+        <v>47</v>
+      </c>
+      <c r="O583" t="n">
+        <v>49</v>
+      </c>
+      <c r="P583" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>52</v>
+      </c>
+      <c r="R583" t="n">
+        <v>63</v>
+      </c>
+      <c r="S583" t="n">
+        <v>70</v>
+      </c>
+      <c r="T583" t="n">
+        <v>73</v>
+      </c>
+      <c r="U583" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>12</v>
+      </c>
+      <c r="C584" t="n">
+        <v>16</v>
+      </c>
+      <c r="D584" t="n">
+        <v>19</v>
+      </c>
+      <c r="E584" t="n">
+        <v>26</v>
+      </c>
+      <c r="F584" t="n">
+        <v>36</v>
+      </c>
+      <c r="G584" t="n">
+        <v>43</v>
+      </c>
+      <c r="H584" t="n">
+        <v>45</v>
+      </c>
+      <c r="I584" t="n">
+        <v>50</v>
+      </c>
+      <c r="J584" t="n">
+        <v>52</v>
+      </c>
+      <c r="K584" t="n">
+        <v>57</v>
+      </c>
+      <c r="L584" t="n">
+        <v>61</v>
+      </c>
+      <c r="M584" t="n">
+        <v>65</v>
+      </c>
+      <c r="N584" t="n">
+        <v>66</v>
+      </c>
+      <c r="O584" t="n">
+        <v>67</v>
+      </c>
+      <c r="P584" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>71</v>
+      </c>
+      <c r="R584" t="n">
+        <v>72</v>
+      </c>
+      <c r="S584" t="n">
+        <v>74</v>
+      </c>
+      <c r="T584" t="n">
+        <v>76</v>
+      </c>
+      <c r="U584" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>3</v>
+      </c>
+      <c r="C585" t="n">
+        <v>5</v>
+      </c>
+      <c r="D585" t="n">
+        <v>6</v>
+      </c>
+      <c r="E585" t="n">
+        <v>10</v>
+      </c>
+      <c r="F585" t="n">
+        <v>25</v>
+      </c>
+      <c r="G585" t="n">
+        <v>33</v>
+      </c>
+      <c r="H585" t="n">
+        <v>35</v>
+      </c>
+      <c r="I585" t="n">
+        <v>37</v>
+      </c>
+      <c r="J585" t="n">
+        <v>45</v>
+      </c>
+      <c r="K585" t="n">
+        <v>48</v>
+      </c>
+      <c r="L585" t="n">
+        <v>54</v>
+      </c>
+      <c r="M585" t="n">
+        <v>56</v>
+      </c>
+      <c r="N585" t="n">
+        <v>59</v>
+      </c>
+      <c r="O585" t="n">
+        <v>63</v>
+      </c>
+      <c r="P585" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>67</v>
+      </c>
+      <c r="R585" t="n">
+        <v>68</v>
+      </c>
+      <c r="S585" t="n">
+        <v>70</v>
+      </c>
+      <c r="T585" t="n">
+        <v>72</v>
+      </c>
+      <c r="U585" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+      <c r="C586" t="n">
+        <v>2</v>
+      </c>
+      <c r="D586" t="n">
+        <v>3</v>
+      </c>
+      <c r="E586" t="n">
+        <v>16</v>
+      </c>
+      <c r="F586" t="n">
+        <v>18</v>
+      </c>
+      <c r="G586" t="n">
+        <v>20</v>
+      </c>
+      <c r="H586" t="n">
+        <v>28</v>
+      </c>
+      <c r="I586" t="n">
+        <v>32</v>
+      </c>
+      <c r="J586" t="n">
+        <v>38</v>
+      </c>
+      <c r="K586" t="n">
+        <v>45</v>
+      </c>
+      <c r="L586" t="n">
+        <v>48</v>
+      </c>
+      <c r="M586" t="n">
+        <v>52</v>
+      </c>
+      <c r="N586" t="n">
+        <v>53</v>
+      </c>
+      <c r="O586" t="n">
+        <v>57</v>
+      </c>
+      <c r="P586" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>70</v>
+      </c>
+      <c r="R586" t="n">
+        <v>71</v>
+      </c>
+      <c r="S586" t="n">
+        <v>72</v>
+      </c>
+      <c r="T586" t="n">
+        <v>76</v>
+      </c>
+      <c r="U586" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+      <c r="C587" t="n">
+        <v>2</v>
+      </c>
+      <c r="D587" t="n">
+        <v>5</v>
+      </c>
+      <c r="E587" t="n">
+        <v>10</v>
+      </c>
+      <c r="F587" t="n">
+        <v>11</v>
+      </c>
+      <c r="G587" t="n">
+        <v>18</v>
+      </c>
+      <c r="H587" t="n">
+        <v>21</v>
+      </c>
+      <c r="I587" t="n">
+        <v>24</v>
+      </c>
+      <c r="J587" t="n">
+        <v>26</v>
+      </c>
+      <c r="K587" t="n">
+        <v>36</v>
+      </c>
+      <c r="L587" t="n">
+        <v>39</v>
+      </c>
+      <c r="M587" t="n">
+        <v>45</v>
+      </c>
+      <c r="N587" t="n">
+        <v>51</v>
+      </c>
+      <c r="O587" t="n">
+        <v>53</v>
+      </c>
+      <c r="P587" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>64</v>
+      </c>
+      <c r="R587" t="n">
+        <v>65</v>
+      </c>
+      <c r="S587" t="n">
+        <v>72</v>
+      </c>
+      <c r="T587" t="n">
+        <v>75</v>
+      </c>
+      <c r="U587" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>2</v>
+      </c>
+      <c r="C588" t="n">
+        <v>4</v>
+      </c>
+      <c r="D588" t="n">
+        <v>12</v>
+      </c>
+      <c r="E588" t="n">
+        <v>13</v>
+      </c>
+      <c r="F588" t="n">
+        <v>17</v>
+      </c>
+      <c r="G588" t="n">
+        <v>22</v>
+      </c>
+      <c r="H588" t="n">
+        <v>29</v>
+      </c>
+      <c r="I588" t="n">
+        <v>31</v>
+      </c>
+      <c r="J588" t="n">
+        <v>34</v>
+      </c>
+      <c r="K588" t="n">
+        <v>40</v>
+      </c>
+      <c r="L588" t="n">
+        <v>41</v>
+      </c>
+      <c r="M588" t="n">
+        <v>47</v>
+      </c>
+      <c r="N588" t="n">
+        <v>52</v>
+      </c>
+      <c r="O588" t="n">
+        <v>53</v>
+      </c>
+      <c r="P588" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>59</v>
+      </c>
+      <c r="R588" t="n">
+        <v>74</v>
+      </c>
+      <c r="S588" t="n">
+        <v>76</v>
+      </c>
+      <c r="T588" t="n">
+        <v>77</v>
+      </c>
+      <c r="U588" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+      <c r="C589" t="n">
+        <v>2</v>
+      </c>
+      <c r="D589" t="n">
+        <v>3</v>
+      </c>
+      <c r="E589" t="n">
+        <v>6</v>
+      </c>
+      <c r="F589" t="n">
+        <v>14</v>
+      </c>
+      <c r="G589" t="n">
+        <v>20</v>
+      </c>
+      <c r="H589" t="n">
+        <v>25</v>
+      </c>
+      <c r="I589" t="n">
+        <v>26</v>
+      </c>
+      <c r="J589" t="n">
+        <v>30</v>
+      </c>
+      <c r="K589" t="n">
+        <v>33</v>
+      </c>
+      <c r="L589" t="n">
+        <v>36</v>
+      </c>
+      <c r="M589" t="n">
+        <v>38</v>
+      </c>
+      <c r="N589" t="n">
+        <v>40</v>
+      </c>
+      <c r="O589" t="n">
+        <v>42</v>
+      </c>
+      <c r="P589" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>59</v>
+      </c>
+      <c r="R589" t="n">
+        <v>60</v>
+      </c>
+      <c r="S589" t="n">
+        <v>64</v>
+      </c>
+      <c r="T589" t="n">
+        <v>66</v>
+      </c>
+      <c r="U589" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>2</v>
+      </c>
+      <c r="C590" t="n">
+        <v>13</v>
+      </c>
+      <c r="D590" t="n">
+        <v>16</v>
+      </c>
+      <c r="E590" t="n">
+        <v>27</v>
+      </c>
+      <c r="F590" t="n">
+        <v>28</v>
+      </c>
+      <c r="G590" t="n">
+        <v>30</v>
+      </c>
+      <c r="H590" t="n">
+        <v>36</v>
+      </c>
+      <c r="I590" t="n">
+        <v>40</v>
+      </c>
+      <c r="J590" t="n">
+        <v>47</v>
+      </c>
+      <c r="K590" t="n">
+        <v>48</v>
+      </c>
+      <c r="L590" t="n">
+        <v>55</v>
+      </c>
+      <c r="M590" t="n">
+        <v>58</v>
+      </c>
+      <c r="N590" t="n">
+        <v>65</v>
+      </c>
+      <c r="O590" t="n">
+        <v>66</v>
+      </c>
+      <c r="P590" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>73</v>
+      </c>
+      <c r="R590" t="n">
+        <v>77</v>
+      </c>
+      <c r="S590" t="n">
+        <v>78</v>
+      </c>
+      <c r="T590" t="n">
+        <v>79</v>
+      </c>
+      <c r="U590" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>2</v>
+      </c>
+      <c r="C591" t="n">
+        <v>9</v>
+      </c>
+      <c r="D591" t="n">
+        <v>17</v>
+      </c>
+      <c r="E591" t="n">
+        <v>20</v>
+      </c>
+      <c r="F591" t="n">
+        <v>21</v>
+      </c>
+      <c r="G591" t="n">
+        <v>23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>24</v>
+      </c>
+      <c r="I591" t="n">
+        <v>32</v>
+      </c>
+      <c r="J591" t="n">
+        <v>34</v>
+      </c>
+      <c r="K591" t="n">
+        <v>41</v>
+      </c>
+      <c r="L591" t="n">
+        <v>43</v>
+      </c>
+      <c r="M591" t="n">
+        <v>47</v>
+      </c>
+      <c r="N591" t="n">
+        <v>49</v>
+      </c>
+      <c r="O591" t="n">
+        <v>55</v>
+      </c>
+      <c r="P591" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>59</v>
+      </c>
+      <c r="R591" t="n">
+        <v>68</v>
+      </c>
+      <c r="S591" t="n">
+        <v>69</v>
+      </c>
+      <c r="T591" t="n">
+        <v>76</v>
+      </c>
+      <c r="U591" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>6</v>
+      </c>
+      <c r="C592" t="n">
+        <v>7</v>
+      </c>
+      <c r="D592" t="n">
+        <v>8</v>
+      </c>
+      <c r="E592" t="n">
+        <v>11</v>
+      </c>
+      <c r="F592" t="n">
+        <v>16</v>
+      </c>
+      <c r="G592" t="n">
+        <v>25</v>
+      </c>
+      <c r="H592" t="n">
+        <v>32</v>
+      </c>
+      <c r="I592" t="n">
+        <v>33</v>
+      </c>
+      <c r="J592" t="n">
+        <v>41</v>
+      </c>
+      <c r="K592" t="n">
+        <v>42</v>
+      </c>
+      <c r="L592" t="n">
+        <v>49</v>
+      </c>
+      <c r="M592" t="n">
+        <v>52</v>
+      </c>
+      <c r="N592" t="n">
+        <v>64</v>
+      </c>
+      <c r="O592" t="n">
+        <v>65</v>
+      </c>
+      <c r="P592" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>70</v>
+      </c>
+      <c r="R592" t="n">
+        <v>71</v>
+      </c>
+      <c r="S592" t="n">
+        <v>75</v>
+      </c>
+      <c r="T592" t="n">
+        <v>78</v>
+      </c>
+      <c r="U592" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>3</v>
+      </c>
+      <c r="C593" t="n">
+        <v>6</v>
+      </c>
+      <c r="D593" t="n">
+        <v>12</v>
+      </c>
+      <c r="E593" t="n">
+        <v>16</v>
+      </c>
+      <c r="F593" t="n">
+        <v>18</v>
+      </c>
+      <c r="G593" t="n">
+        <v>27</v>
+      </c>
+      <c r="H593" t="n">
+        <v>28</v>
+      </c>
+      <c r="I593" t="n">
+        <v>32</v>
+      </c>
+      <c r="J593" t="n">
+        <v>42</v>
+      </c>
+      <c r="K593" t="n">
+        <v>45</v>
+      </c>
+      <c r="L593" t="n">
+        <v>54</v>
+      </c>
+      <c r="M593" t="n">
+        <v>59</v>
+      </c>
+      <c r="N593" t="n">
+        <v>61</v>
+      </c>
+      <c r="O593" t="n">
+        <v>63</v>
+      </c>
+      <c r="P593" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>69</v>
+      </c>
+      <c r="R593" t="n">
+        <v>70</v>
+      </c>
+      <c r="S593" t="n">
+        <v>71</v>
+      </c>
+      <c r="T593" t="n">
+        <v>74</v>
+      </c>
+      <c r="U593" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>3</v>
+      </c>
+      <c r="C594" t="n">
+        <v>7</v>
+      </c>
+      <c r="D594" t="n">
+        <v>14</v>
+      </c>
+      <c r="E594" t="n">
+        <v>15</v>
+      </c>
+      <c r="F594" t="n">
+        <v>19</v>
+      </c>
+      <c r="G594" t="n">
+        <v>20</v>
+      </c>
+      <c r="H594" t="n">
+        <v>22</v>
+      </c>
+      <c r="I594" t="n">
+        <v>33</v>
+      </c>
+      <c r="J594" t="n">
+        <v>36</v>
+      </c>
+      <c r="K594" t="n">
+        <v>39</v>
+      </c>
+      <c r="L594" t="n">
+        <v>56</v>
+      </c>
+      <c r="M594" t="n">
+        <v>58</v>
+      </c>
+      <c r="N594" t="n">
+        <v>59</v>
+      </c>
+      <c r="O594" t="n">
+        <v>60</v>
+      </c>
+      <c r="P594" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>73</v>
+      </c>
+      <c r="R594" t="n">
+        <v>74</v>
+      </c>
+      <c r="S594" t="n">
+        <v>78</v>
+      </c>
+      <c r="T594" t="n">
+        <v>79</v>
+      </c>
+      <c r="U594" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+      <c r="C595" t="n">
+        <v>4</v>
+      </c>
+      <c r="D595" t="n">
+        <v>11</v>
+      </c>
+      <c r="E595" t="n">
+        <v>13</v>
+      </c>
+      <c r="F595" t="n">
+        <v>20</v>
+      </c>
+      <c r="G595" t="n">
+        <v>25</v>
+      </c>
+      <c r="H595" t="n">
+        <v>34</v>
+      </c>
+      <c r="I595" t="n">
+        <v>38</v>
+      </c>
+      <c r="J595" t="n">
+        <v>42</v>
+      </c>
+      <c r="K595" t="n">
+        <v>43</v>
+      </c>
+      <c r="L595" t="n">
+        <v>44</v>
+      </c>
+      <c r="M595" t="n">
+        <v>49</v>
+      </c>
+      <c r="N595" t="n">
+        <v>50</v>
+      </c>
+      <c r="O595" t="n">
+        <v>54</v>
+      </c>
+      <c r="P595" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>59</v>
+      </c>
+      <c r="R595" t="n">
+        <v>66</v>
+      </c>
+      <c r="S595" t="n">
+        <v>71</v>
+      </c>
+      <c r="T595" t="n">
+        <v>77</v>
+      </c>
+      <c r="U595" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>5</v>
+      </c>
+      <c r="C596" t="n">
+        <v>8</v>
+      </c>
+      <c r="D596" t="n">
+        <v>10</v>
+      </c>
+      <c r="E596" t="n">
+        <v>12</v>
+      </c>
+      <c r="F596" t="n">
+        <v>13</v>
+      </c>
+      <c r="G596" t="n">
+        <v>19</v>
+      </c>
+      <c r="H596" t="n">
+        <v>23</v>
+      </c>
+      <c r="I596" t="n">
+        <v>29</v>
+      </c>
+      <c r="J596" t="n">
+        <v>30</v>
+      </c>
+      <c r="K596" t="n">
+        <v>33</v>
+      </c>
+      <c r="L596" t="n">
+        <v>36</v>
+      </c>
+      <c r="M596" t="n">
+        <v>37</v>
+      </c>
+      <c r="N596" t="n">
+        <v>38</v>
+      </c>
+      <c r="O596" t="n">
+        <v>50</v>
+      </c>
+      <c r="P596" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>59</v>
+      </c>
+      <c r="R596" t="n">
+        <v>61</v>
+      </c>
+      <c r="S596" t="n">
+        <v>63</v>
+      </c>
+      <c r="T596" t="n">
+        <v>65</v>
+      </c>
+      <c r="U596" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>18</v>
+      </c>
+      <c r="C597" t="n">
+        <v>25</v>
+      </c>
+      <c r="D597" t="n">
+        <v>28</v>
+      </c>
+      <c r="E597" t="n">
+        <v>30</v>
+      </c>
+      <c r="F597" t="n">
+        <v>33</v>
+      </c>
+      <c r="G597" t="n">
+        <v>38</v>
+      </c>
+      <c r="H597" t="n">
+        <v>39</v>
+      </c>
+      <c r="I597" t="n">
+        <v>46</v>
+      </c>
+      <c r="J597" t="n">
+        <v>47</v>
+      </c>
+      <c r="K597" t="n">
+        <v>48</v>
+      </c>
+      <c r="L597" t="n">
+        <v>53</v>
+      </c>
+      <c r="M597" t="n">
+        <v>55</v>
+      </c>
+      <c r="N597" t="n">
+        <v>61</v>
+      </c>
+      <c r="O597" t="n">
+        <v>62</v>
+      </c>
+      <c r="P597" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>71</v>
+      </c>
+      <c r="R597" t="n">
+        <v>72</v>
+      </c>
+      <c r="S597" t="n">
+        <v>74</v>
+      </c>
+      <c r="T597" t="n">
+        <v>78</v>
+      </c>
+      <c r="U597" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>2</v>
+      </c>
+      <c r="C598" t="n">
+        <v>3</v>
+      </c>
+      <c r="D598" t="n">
+        <v>4</v>
+      </c>
+      <c r="E598" t="n">
+        <v>8</v>
+      </c>
+      <c r="F598" t="n">
+        <v>23</v>
+      </c>
+      <c r="G598" t="n">
+        <v>32</v>
+      </c>
+      <c r="H598" t="n">
+        <v>35</v>
+      </c>
+      <c r="I598" t="n">
+        <v>37</v>
+      </c>
+      <c r="J598" t="n">
+        <v>39</v>
+      </c>
+      <c r="K598" t="n">
+        <v>45</v>
+      </c>
+      <c r="L598" t="n">
+        <v>46</v>
+      </c>
+      <c r="M598" t="n">
+        <v>49</v>
+      </c>
+      <c r="N598" t="n">
+        <v>52</v>
+      </c>
+      <c r="O598" t="n">
+        <v>59</v>
+      </c>
+      <c r="P598" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>62</v>
+      </c>
+      <c r="R598" t="n">
+        <v>64</v>
+      </c>
+      <c r="S598" t="n">
+        <v>66</v>
+      </c>
+      <c r="T598" t="n">
+        <v>70</v>
+      </c>
+      <c r="U598" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>3</v>
+      </c>
+      <c r="C599" t="n">
+        <v>10</v>
+      </c>
+      <c r="D599" t="n">
+        <v>13</v>
+      </c>
+      <c r="E599" t="n">
+        <v>18</v>
+      </c>
+      <c r="F599" t="n">
+        <v>28</v>
+      </c>
+      <c r="G599" t="n">
+        <v>37</v>
+      </c>
+      <c r="H599" t="n">
+        <v>39</v>
+      </c>
+      <c r="I599" t="n">
+        <v>41</v>
+      </c>
+      <c r="J599" t="n">
+        <v>45</v>
+      </c>
+      <c r="K599" t="n">
+        <v>51</v>
+      </c>
+      <c r="L599" t="n">
+        <v>52</v>
+      </c>
+      <c r="M599" t="n">
+        <v>53</v>
+      </c>
+      <c r="N599" t="n">
+        <v>54</v>
+      </c>
+      <c r="O599" t="n">
+        <v>56</v>
+      </c>
+      <c r="P599" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>70</v>
+      </c>
+      <c r="R599" t="n">
+        <v>71</v>
+      </c>
+      <c r="S599" t="n">
+        <v>73</v>
+      </c>
+      <c r="T599" t="n">
+        <v>75</v>
+      </c>
+      <c r="U599" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+      <c r="C600" t="n">
+        <v>3</v>
+      </c>
+      <c r="D600" t="n">
+        <v>4</v>
+      </c>
+      <c r="E600" t="n">
+        <v>5</v>
+      </c>
+      <c r="F600" t="n">
+        <v>9</v>
+      </c>
+      <c r="G600" t="n">
+        <v>23</v>
+      </c>
+      <c r="H600" t="n">
+        <v>25</v>
+      </c>
+      <c r="I600" t="n">
+        <v>27</v>
+      </c>
+      <c r="J600" t="n">
+        <v>34</v>
+      </c>
+      <c r="K600" t="n">
+        <v>39</v>
+      </c>
+      <c r="L600" t="n">
+        <v>44</v>
+      </c>
+      <c r="M600" t="n">
+        <v>45</v>
+      </c>
+      <c r="N600" t="n">
+        <v>46</v>
+      </c>
+      <c r="O600" t="n">
+        <v>48</v>
+      </c>
+      <c r="P600" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>60</v>
+      </c>
+      <c r="R600" t="n">
+        <v>62</v>
+      </c>
+      <c r="S600" t="n">
+        <v>71</v>
+      </c>
+      <c r="T600" t="n">
+        <v>74</v>
+      </c>
+      <c r="U600" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+      <c r="C601" t="n">
+        <v>6</v>
+      </c>
+      <c r="D601" t="n">
+        <v>11</v>
+      </c>
+      <c r="E601" t="n">
+        <v>13</v>
+      </c>
+      <c r="F601" t="n">
+        <v>20</v>
+      </c>
+      <c r="G601" t="n">
+        <v>21</v>
+      </c>
+      <c r="H601" t="n">
+        <v>39</v>
+      </c>
+      <c r="I601" t="n">
+        <v>45</v>
+      </c>
+      <c r="J601" t="n">
+        <v>53</v>
+      </c>
+      <c r="K601" t="n">
+        <v>54</v>
+      </c>
+      <c r="L601" t="n">
+        <v>58</v>
+      </c>
+      <c r="M601" t="n">
+        <v>59</v>
+      </c>
+      <c r="N601" t="n">
+        <v>65</v>
+      </c>
+      <c r="O601" t="n">
+        <v>68</v>
+      </c>
+      <c r="P601" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>74</v>
+      </c>
+      <c r="R601" t="n">
+        <v>75</v>
+      </c>
+      <c r="S601" t="n">
+        <v>76</v>
+      </c>
+      <c r="T601" t="n">
+        <v>77</v>
+      </c>
+      <c r="U601" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>2</v>
+      </c>
+      <c r="C602" t="n">
+        <v>5</v>
+      </c>
+      <c r="D602" t="n">
+        <v>18</v>
+      </c>
+      <c r="E602" t="n">
+        <v>20</v>
+      </c>
+      <c r="F602" t="n">
+        <v>21</v>
+      </c>
+      <c r="G602" t="n">
+        <v>31</v>
+      </c>
+      <c r="H602" t="n">
+        <v>34</v>
+      </c>
+      <c r="I602" t="n">
+        <v>35</v>
+      </c>
+      <c r="J602" t="n">
+        <v>36</v>
+      </c>
+      <c r="K602" t="n">
+        <v>38</v>
+      </c>
+      <c r="L602" t="n">
+        <v>41</v>
+      </c>
+      <c r="M602" t="n">
+        <v>44</v>
+      </c>
+      <c r="N602" t="n">
+        <v>46</v>
+      </c>
+      <c r="O602" t="n">
+        <v>50</v>
+      </c>
+      <c r="P602" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>62</v>
+      </c>
+      <c r="R602" t="n">
+        <v>63</v>
+      </c>
+      <c r="S602" t="n">
+        <v>64</v>
+      </c>
+      <c r="T602" t="n">
+        <v>72</v>
+      </c>
+      <c r="U602" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+      <c r="C603" t="n">
+        <v>7</v>
+      </c>
+      <c r="D603" t="n">
+        <v>9</v>
+      </c>
+      <c r="E603" t="n">
+        <v>10</v>
+      </c>
+      <c r="F603" t="n">
+        <v>17</v>
+      </c>
+      <c r="G603" t="n">
+        <v>18</v>
+      </c>
+      <c r="H603" t="n">
+        <v>24</v>
+      </c>
+      <c r="I603" t="n">
+        <v>26</v>
+      </c>
+      <c r="J603" t="n">
+        <v>27</v>
+      </c>
+      <c r="K603" t="n">
+        <v>29</v>
+      </c>
+      <c r="L603" t="n">
+        <v>30</v>
+      </c>
+      <c r="M603" t="n">
+        <v>39</v>
+      </c>
+      <c r="N603" t="n">
+        <v>41</v>
+      </c>
+      <c r="O603" t="n">
+        <v>42</v>
+      </c>
+      <c r="P603" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>46</v>
+      </c>
+      <c r="R603" t="n">
+        <v>60</v>
+      </c>
+      <c r="S603" t="n">
+        <v>66</v>
+      </c>
+      <c r="T603" t="n">
+        <v>71</v>
+      </c>
+      <c r="U603" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>2</v>
+      </c>
+      <c r="C604" t="n">
+        <v>7</v>
+      </c>
+      <c r="D604" t="n">
+        <v>8</v>
+      </c>
+      <c r="E604" t="n">
+        <v>11</v>
+      </c>
+      <c r="F604" t="n">
+        <v>20</v>
+      </c>
+      <c r="G604" t="n">
+        <v>27</v>
+      </c>
+      <c r="H604" t="n">
+        <v>29</v>
+      </c>
+      <c r="I604" t="n">
+        <v>33</v>
+      </c>
+      <c r="J604" t="n">
+        <v>42</v>
+      </c>
+      <c r="K604" t="n">
+        <v>43</v>
+      </c>
+      <c r="L604" t="n">
+        <v>49</v>
+      </c>
+      <c r="M604" t="n">
+        <v>56</v>
+      </c>
+      <c r="N604" t="n">
+        <v>58</v>
+      </c>
+      <c r="O604" t="n">
+        <v>63</v>
+      </c>
+      <c r="P604" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>68</v>
+      </c>
+      <c r="R604" t="n">
+        <v>69</v>
+      </c>
+      <c r="S604" t="n">
+        <v>77</v>
+      </c>
+      <c r="T604" t="n">
+        <v>78</v>
+      </c>
+      <c r="U604" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>6</v>
+      </c>
+      <c r="C605" t="n">
+        <v>13</v>
+      </c>
+      <c r="D605" t="n">
+        <v>16</v>
+      </c>
+      <c r="E605" t="n">
+        <v>17</v>
+      </c>
+      <c r="F605" t="n">
+        <v>18</v>
+      </c>
+      <c r="G605" t="n">
+        <v>22</v>
+      </c>
+      <c r="H605" t="n">
+        <v>25</v>
+      </c>
+      <c r="I605" t="n">
+        <v>26</v>
+      </c>
+      <c r="J605" t="n">
+        <v>27</v>
+      </c>
+      <c r="K605" t="n">
+        <v>33</v>
+      </c>
+      <c r="L605" t="n">
+        <v>35</v>
+      </c>
+      <c r="M605" t="n">
+        <v>40</v>
+      </c>
+      <c r="N605" t="n">
+        <v>41</v>
+      </c>
+      <c r="O605" t="n">
+        <v>50</v>
+      </c>
+      <c r="P605" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>55</v>
+      </c>
+      <c r="R605" t="n">
+        <v>59</v>
+      </c>
+      <c r="S605" t="n">
+        <v>63</v>
+      </c>
+      <c r="T605" t="n">
+        <v>70</v>
+      </c>
+      <c r="U605" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>3</v>
+      </c>
+      <c r="C606" t="n">
+        <v>4</v>
+      </c>
+      <c r="D606" t="n">
+        <v>5</v>
+      </c>
+      <c r="E606" t="n">
+        <v>16</v>
+      </c>
+      <c r="F606" t="n">
+        <v>21</v>
+      </c>
+      <c r="G606" t="n">
+        <v>23</v>
+      </c>
+      <c r="H606" t="n">
+        <v>27</v>
+      </c>
+      <c r="I606" t="n">
+        <v>28</v>
+      </c>
+      <c r="J606" t="n">
+        <v>29</v>
+      </c>
+      <c r="K606" t="n">
+        <v>33</v>
+      </c>
+      <c r="L606" t="n">
+        <v>34</v>
+      </c>
+      <c r="M606" t="n">
+        <v>42</v>
+      </c>
+      <c r="N606" t="n">
+        <v>49</v>
+      </c>
+      <c r="O606" t="n">
+        <v>63</v>
+      </c>
+      <c r="P606" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>70</v>
+      </c>
+      <c r="R606" t="n">
+        <v>71</v>
+      </c>
+      <c r="S606" t="n">
+        <v>74</v>
+      </c>
+      <c r="T606" t="n">
+        <v>78</v>
+      </c>
+      <c r="U606" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>3</v>
+      </c>
+      <c r="C607" t="n">
+        <v>5</v>
+      </c>
+      <c r="D607" t="n">
+        <v>16</v>
+      </c>
+      <c r="E607" t="n">
+        <v>20</v>
+      </c>
+      <c r="F607" t="n">
+        <v>27</v>
+      </c>
+      <c r="G607" t="n">
+        <v>31</v>
+      </c>
+      <c r="H607" t="n">
+        <v>34</v>
+      </c>
+      <c r="I607" t="n">
+        <v>36</v>
+      </c>
+      <c r="J607" t="n">
+        <v>39</v>
+      </c>
+      <c r="K607" t="n">
+        <v>41</v>
+      </c>
+      <c r="L607" t="n">
+        <v>46</v>
+      </c>
+      <c r="M607" t="n">
+        <v>47</v>
+      </c>
+      <c r="N607" t="n">
+        <v>50</v>
+      </c>
+      <c r="O607" t="n">
+        <v>53</v>
+      </c>
+      <c r="P607" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>63</v>
+      </c>
+      <c r="R607" t="n">
+        <v>68</v>
+      </c>
+      <c r="S607" t="n">
+        <v>70</v>
+      </c>
+      <c r="T607" t="n">
+        <v>75</v>
+      </c>
+      <c r="U607" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>6</v>
+      </c>
+      <c r="C608" t="n">
+        <v>11</v>
+      </c>
+      <c r="D608" t="n">
+        <v>14</v>
+      </c>
+      <c r="E608" t="n">
+        <v>15</v>
+      </c>
+      <c r="F608" t="n">
+        <v>19</v>
+      </c>
+      <c r="G608" t="n">
+        <v>24</v>
+      </c>
+      <c r="H608" t="n">
+        <v>30</v>
+      </c>
+      <c r="I608" t="n">
+        <v>33</v>
+      </c>
+      <c r="J608" t="n">
+        <v>34</v>
+      </c>
+      <c r="K608" t="n">
+        <v>39</v>
+      </c>
+      <c r="L608" t="n">
+        <v>47</v>
+      </c>
+      <c r="M608" t="n">
+        <v>49</v>
+      </c>
+      <c r="N608" t="n">
+        <v>52</v>
+      </c>
+      <c r="O608" t="n">
+        <v>63</v>
+      </c>
+      <c r="P608" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>71</v>
+      </c>
+      <c r="R608" t="n">
+        <v>73</v>
+      </c>
+      <c r="S608" t="n">
+        <v>74</v>
+      </c>
+      <c r="T608" t="n">
+        <v>78</v>
+      </c>
+      <c r="U608" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+      <c r="C609" t="n">
+        <v>2</v>
+      </c>
+      <c r="D609" t="n">
+        <v>7</v>
+      </c>
+      <c r="E609" t="n">
+        <v>11</v>
+      </c>
+      <c r="F609" t="n">
+        <v>16</v>
+      </c>
+      <c r="G609" t="n">
+        <v>17</v>
+      </c>
+      <c r="H609" t="n">
+        <v>19</v>
+      </c>
+      <c r="I609" t="n">
+        <v>21</v>
+      </c>
+      <c r="J609" t="n">
+        <v>22</v>
+      </c>
+      <c r="K609" t="n">
+        <v>33</v>
+      </c>
+      <c r="L609" t="n">
+        <v>41</v>
+      </c>
+      <c r="M609" t="n">
+        <v>46</v>
+      </c>
+      <c r="N609" t="n">
+        <v>49</v>
+      </c>
+      <c r="O609" t="n">
+        <v>52</v>
+      </c>
+      <c r="P609" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>61</v>
+      </c>
+      <c r="R609" t="n">
+        <v>62</v>
+      </c>
+      <c r="S609" t="n">
+        <v>63</v>
+      </c>
+      <c r="T609" t="n">
+        <v>64</v>
+      </c>
+      <c r="U609" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>5</v>
+      </c>
+      <c r="C610" t="n">
+        <v>11</v>
+      </c>
+      <c r="D610" t="n">
+        <v>15</v>
+      </c>
+      <c r="E610" t="n">
+        <v>19</v>
+      </c>
+      <c r="F610" t="n">
+        <v>21</v>
+      </c>
+      <c r="G610" t="n">
+        <v>25</v>
+      </c>
+      <c r="H610" t="n">
+        <v>26</v>
+      </c>
+      <c r="I610" t="n">
+        <v>27</v>
+      </c>
+      <c r="J610" t="n">
+        <v>29</v>
+      </c>
+      <c r="K610" t="n">
+        <v>41</v>
+      </c>
+      <c r="L610" t="n">
+        <v>44</v>
+      </c>
+      <c r="M610" t="n">
+        <v>46</v>
+      </c>
+      <c r="N610" t="n">
+        <v>51</v>
+      </c>
+      <c r="O610" t="n">
+        <v>52</v>
+      </c>
+      <c r="P610" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>64</v>
+      </c>
+      <c r="R610" t="n">
+        <v>67</v>
+      </c>
+      <c r="S610" t="n">
+        <v>75</v>
+      </c>
+      <c r="T610" t="n">
+        <v>76</v>
+      </c>
+      <c r="U610" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>3</v>
+      </c>
+      <c r="C611" t="n">
+        <v>4</v>
+      </c>
+      <c r="D611" t="n">
+        <v>6</v>
+      </c>
+      <c r="E611" t="n">
+        <v>9</v>
+      </c>
+      <c r="F611" t="n">
+        <v>22</v>
+      </c>
+      <c r="G611" t="n">
+        <v>25</v>
+      </c>
+      <c r="H611" t="n">
+        <v>26</v>
+      </c>
+      <c r="I611" t="n">
+        <v>28</v>
+      </c>
+      <c r="J611" t="n">
+        <v>31</v>
+      </c>
+      <c r="K611" t="n">
+        <v>34</v>
+      </c>
+      <c r="L611" t="n">
+        <v>35</v>
+      </c>
+      <c r="M611" t="n">
+        <v>41</v>
+      </c>
+      <c r="N611" t="n">
+        <v>50</v>
+      </c>
+      <c r="O611" t="n">
+        <v>52</v>
+      </c>
+      <c r="P611" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>55</v>
+      </c>
+      <c r="R611" t="n">
+        <v>63</v>
+      </c>
+      <c r="S611" t="n">
+        <v>68</v>
+      </c>
+      <c r="T611" t="n">
+        <v>75</v>
+      </c>
+      <c r="U611" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>4</v>
+      </c>
+      <c r="C612" t="n">
+        <v>5</v>
+      </c>
+      <c r="D612" t="n">
+        <v>6</v>
+      </c>
+      <c r="E612" t="n">
+        <v>15</v>
+      </c>
+      <c r="F612" t="n">
+        <v>19</v>
+      </c>
+      <c r="G612" t="n">
+        <v>26</v>
+      </c>
+      <c r="H612" t="n">
+        <v>29</v>
+      </c>
+      <c r="I612" t="n">
+        <v>35</v>
+      </c>
+      <c r="J612" t="n">
+        <v>37</v>
+      </c>
+      <c r="K612" t="n">
+        <v>43</v>
+      </c>
+      <c r="L612" t="n">
+        <v>52</v>
+      </c>
+      <c r="M612" t="n">
+        <v>53</v>
+      </c>
+      <c r="N612" t="n">
+        <v>57</v>
+      </c>
+      <c r="O612" t="n">
+        <v>65</v>
+      </c>
+      <c r="P612" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>67</v>
+      </c>
+      <c r="R612" t="n">
+        <v>68</v>
+      </c>
+      <c r="S612" t="n">
+        <v>69</v>
+      </c>
+      <c r="T612" t="n">
+        <v>76</v>
+      </c>
+      <c r="U612" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>2</v>
+      </c>
+      <c r="C613" t="n">
+        <v>4</v>
+      </c>
+      <c r="D613" t="n">
+        <v>9</v>
+      </c>
+      <c r="E613" t="n">
+        <v>10</v>
+      </c>
+      <c r="F613" t="n">
+        <v>21</v>
+      </c>
+      <c r="G613" t="n">
+        <v>23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>24</v>
+      </c>
+      <c r="I613" t="n">
+        <v>27</v>
+      </c>
+      <c r="J613" t="n">
+        <v>34</v>
+      </c>
+      <c r="K613" t="n">
+        <v>36</v>
+      </c>
+      <c r="L613" t="n">
+        <v>40</v>
+      </c>
+      <c r="M613" t="n">
+        <v>42</v>
+      </c>
+      <c r="N613" t="n">
+        <v>43</v>
+      </c>
+      <c r="O613" t="n">
+        <v>48</v>
+      </c>
+      <c r="P613" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>58</v>
+      </c>
+      <c r="R613" t="n">
+        <v>59</v>
+      </c>
+      <c r="S613" t="n">
+        <v>61</v>
+      </c>
+      <c r="T613" t="n">
+        <v>73</v>
+      </c>
+      <c r="U613" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>2</v>
+      </c>
+      <c r="C614" t="n">
+        <v>6</v>
+      </c>
+      <c r="D614" t="n">
+        <v>8</v>
+      </c>
+      <c r="E614" t="n">
+        <v>17</v>
+      </c>
+      <c r="F614" t="n">
+        <v>21</v>
+      </c>
+      <c r="G614" t="n">
+        <v>23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>25</v>
+      </c>
+      <c r="I614" t="n">
+        <v>28</v>
+      </c>
+      <c r="J614" t="n">
+        <v>30</v>
+      </c>
+      <c r="K614" t="n">
+        <v>38</v>
+      </c>
+      <c r="L614" t="n">
+        <v>43</v>
+      </c>
+      <c r="M614" t="n">
+        <v>44</v>
+      </c>
+      <c r="N614" t="n">
+        <v>47</v>
+      </c>
+      <c r="O614" t="n">
+        <v>54</v>
+      </c>
+      <c r="P614" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>59</v>
+      </c>
+      <c r="R614" t="n">
+        <v>61</v>
+      </c>
+      <c r="S614" t="n">
+        <v>66</v>
+      </c>
+      <c r="T614" t="n">
+        <v>74</v>
+      </c>
+      <c r="U614" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>5</v>
+      </c>
+      <c r="C615" t="n">
+        <v>11</v>
+      </c>
+      <c r="D615" t="n">
+        <v>12</v>
+      </c>
+      <c r="E615" t="n">
+        <v>14</v>
+      </c>
+      <c r="F615" t="n">
+        <v>16</v>
+      </c>
+      <c r="G615" t="n">
+        <v>22</v>
+      </c>
+      <c r="H615" t="n">
+        <v>24</v>
+      </c>
+      <c r="I615" t="n">
+        <v>26</v>
+      </c>
+      <c r="J615" t="n">
+        <v>34</v>
+      </c>
+      <c r="K615" t="n">
+        <v>36</v>
+      </c>
+      <c r="L615" t="n">
+        <v>39</v>
+      </c>
+      <c r="M615" t="n">
+        <v>50</v>
+      </c>
+      <c r="N615" t="n">
+        <v>55</v>
+      </c>
+      <c r="O615" t="n">
+        <v>64</v>
+      </c>
+      <c r="P615" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>71</v>
+      </c>
+      <c r="R615" t="n">
+        <v>73</v>
+      </c>
+      <c r="S615" t="n">
+        <v>75</v>
+      </c>
+      <c r="T615" t="n">
+        <v>77</v>
+      </c>
+      <c r="U615" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>6</v>
+      </c>
+      <c r="C616" t="n">
+        <v>7</v>
+      </c>
+      <c r="D616" t="n">
+        <v>8</v>
+      </c>
+      <c r="E616" t="n">
+        <v>11</v>
+      </c>
+      <c r="F616" t="n">
+        <v>16</v>
+      </c>
+      <c r="G616" t="n">
+        <v>17</v>
+      </c>
+      <c r="H616" t="n">
+        <v>18</v>
+      </c>
+      <c r="I616" t="n">
+        <v>20</v>
+      </c>
+      <c r="J616" t="n">
+        <v>21</v>
+      </c>
+      <c r="K616" t="n">
+        <v>29</v>
+      </c>
+      <c r="L616" t="n">
+        <v>48</v>
+      </c>
+      <c r="M616" t="n">
+        <v>57</v>
+      </c>
+      <c r="N616" t="n">
+        <v>59</v>
+      </c>
+      <c r="O616" t="n">
+        <v>61</v>
+      </c>
+      <c r="P616" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>70</v>
+      </c>
+      <c r="R616" t="n">
+        <v>71</v>
+      </c>
+      <c r="S616" t="n">
+        <v>72</v>
+      </c>
+      <c r="T616" t="n">
+        <v>76</v>
+      </c>
+      <c r="U616" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>3</v>
+      </c>
+      <c r="C617" t="n">
+        <v>8</v>
+      </c>
+      <c r="D617" t="n">
+        <v>9</v>
+      </c>
+      <c r="E617" t="n">
+        <v>13</v>
+      </c>
+      <c r="F617" t="n">
+        <v>14</v>
+      </c>
+      <c r="G617" t="n">
+        <v>15</v>
+      </c>
+      <c r="H617" t="n">
+        <v>20</v>
+      </c>
+      <c r="I617" t="n">
+        <v>24</v>
+      </c>
+      <c r="J617" t="n">
+        <v>26</v>
+      </c>
+      <c r="K617" t="n">
+        <v>36</v>
+      </c>
+      <c r="L617" t="n">
+        <v>41</v>
+      </c>
+      <c r="M617" t="n">
+        <v>47</v>
+      </c>
+      <c r="N617" t="n">
+        <v>49</v>
+      </c>
+      <c r="O617" t="n">
+        <v>50</v>
+      </c>
+      <c r="P617" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>60</v>
+      </c>
+      <c r="R617" t="n">
+        <v>62</v>
+      </c>
+      <c r="S617" t="n">
+        <v>70</v>
+      </c>
+      <c r="T617" t="n">
+        <v>79</v>
+      </c>
+      <c r="U617" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>4</v>
+      </c>
+      <c r="C618" t="n">
+        <v>7</v>
+      </c>
+      <c r="D618" t="n">
+        <v>14</v>
+      </c>
+      <c r="E618" t="n">
+        <v>15</v>
+      </c>
+      <c r="F618" t="n">
+        <v>25</v>
+      </c>
+      <c r="G618" t="n">
+        <v>27</v>
+      </c>
+      <c r="H618" t="n">
+        <v>30</v>
+      </c>
+      <c r="I618" t="n">
+        <v>32</v>
+      </c>
+      <c r="J618" t="n">
+        <v>38</v>
+      </c>
+      <c r="K618" t="n">
+        <v>40</v>
+      </c>
+      <c r="L618" t="n">
+        <v>47</v>
+      </c>
+      <c r="M618" t="n">
+        <v>57</v>
+      </c>
+      <c r="N618" t="n">
+        <v>60</v>
+      </c>
+      <c r="O618" t="n">
+        <v>61</v>
+      </c>
+      <c r="P618" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>71</v>
+      </c>
+      <c r="R618" t="n">
+        <v>72</v>
+      </c>
+      <c r="S618" t="n">
+        <v>76</v>
+      </c>
+      <c r="T618" t="n">
+        <v>78</v>
+      </c>
+      <c r="U618" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>6</v>
+      </c>
+      <c r="C619" t="n">
+        <v>7</v>
+      </c>
+      <c r="D619" t="n">
+        <v>16</v>
+      </c>
+      <c r="E619" t="n">
+        <v>17</v>
+      </c>
+      <c r="F619" t="n">
+        <v>19</v>
+      </c>
+      <c r="G619" t="n">
+        <v>20</v>
+      </c>
+      <c r="H619" t="n">
+        <v>22</v>
+      </c>
+      <c r="I619" t="n">
+        <v>29</v>
+      </c>
+      <c r="J619" t="n">
+        <v>41</v>
+      </c>
+      <c r="K619" t="n">
+        <v>42</v>
+      </c>
+      <c r="L619" t="n">
+        <v>47</v>
+      </c>
+      <c r="M619" t="n">
+        <v>48</v>
+      </c>
+      <c r="N619" t="n">
+        <v>51</v>
+      </c>
+      <c r="O619" t="n">
+        <v>53</v>
+      </c>
+      <c r="P619" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>56</v>
+      </c>
+      <c r="R619" t="n">
+        <v>64</v>
+      </c>
+      <c r="S619" t="n">
+        <v>68</v>
+      </c>
+      <c r="T619" t="n">
+        <v>74</v>
+      </c>
+      <c r="U619" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>5</v>
+      </c>
+      <c r="C620" t="n">
+        <v>10</v>
+      </c>
+      <c r="D620" t="n">
+        <v>11</v>
+      </c>
+      <c r="E620" t="n">
+        <v>16</v>
+      </c>
+      <c r="F620" t="n">
+        <v>24</v>
+      </c>
+      <c r="G620" t="n">
+        <v>31</v>
+      </c>
+      <c r="H620" t="n">
+        <v>33</v>
+      </c>
+      <c r="I620" t="n">
+        <v>34</v>
+      </c>
+      <c r="J620" t="n">
+        <v>35</v>
+      </c>
+      <c r="K620" t="n">
+        <v>36</v>
+      </c>
+      <c r="L620" t="n">
+        <v>44</v>
+      </c>
+      <c r="M620" t="n">
+        <v>50</v>
+      </c>
+      <c r="N620" t="n">
+        <v>60</v>
+      </c>
+      <c r="O620" t="n">
+        <v>61</v>
+      </c>
+      <c r="P620" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>64</v>
+      </c>
+      <c r="R620" t="n">
+        <v>67</v>
+      </c>
+      <c r="S620" t="n">
+        <v>69</v>
+      </c>
+      <c r="T620" t="n">
+        <v>70</v>
+      </c>
+      <c r="U620" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>12</v>
+      </c>
+      <c r="C621" t="n">
+        <v>15</v>
+      </c>
+      <c r="D621" t="n">
+        <v>19</v>
+      </c>
+      <c r="E621" t="n">
+        <v>20</v>
+      </c>
+      <c r="F621" t="n">
+        <v>22</v>
+      </c>
+      <c r="G621" t="n">
+        <v>23</v>
+      </c>
+      <c r="H621" t="n">
+        <v>28</v>
+      </c>
+      <c r="I621" t="n">
+        <v>33</v>
+      </c>
+      <c r="J621" t="n">
+        <v>34</v>
+      </c>
+      <c r="K621" t="n">
+        <v>38</v>
+      </c>
+      <c r="L621" t="n">
+        <v>41</v>
+      </c>
+      <c r="M621" t="n">
+        <v>43</v>
+      </c>
+      <c r="N621" t="n">
+        <v>46</v>
+      </c>
+      <c r="O621" t="n">
+        <v>49</v>
+      </c>
+      <c r="P621" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>59</v>
+      </c>
+      <c r="R621" t="n">
+        <v>64</v>
+      </c>
+      <c r="S621" t="n">
+        <v>74</v>
+      </c>
+      <c r="T621" t="n">
+        <v>77</v>
+      </c>
+      <c r="U621" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+      <c r="C622" t="n">
+        <v>5</v>
+      </c>
+      <c r="D622" t="n">
+        <v>7</v>
+      </c>
+      <c r="E622" t="n">
+        <v>8</v>
+      </c>
+      <c r="F622" t="n">
+        <v>14</v>
+      </c>
+      <c r="G622" t="n">
+        <v>17</v>
+      </c>
+      <c r="H622" t="n">
+        <v>21</v>
+      </c>
+      <c r="I622" t="n">
+        <v>25</v>
+      </c>
+      <c r="J622" t="n">
+        <v>35</v>
+      </c>
+      <c r="K622" t="n">
+        <v>38</v>
+      </c>
+      <c r="L622" t="n">
+        <v>41</v>
+      </c>
+      <c r="M622" t="n">
+        <v>45</v>
+      </c>
+      <c r="N622" t="n">
+        <v>54</v>
+      </c>
+      <c r="O622" t="n">
+        <v>56</v>
+      </c>
+      <c r="P622" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>59</v>
+      </c>
+      <c r="R622" t="n">
+        <v>61</v>
+      </c>
+      <c r="S622" t="n">
+        <v>65</v>
+      </c>
+      <c r="T622" t="n">
+        <v>67</v>
+      </c>
+      <c r="U622" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>6</v>
+      </c>
+      <c r="C623" t="n">
+        <v>18</v>
+      </c>
+      <c r="D623" t="n">
+        <v>19</v>
+      </c>
+      <c r="E623" t="n">
+        <v>22</v>
+      </c>
+      <c r="F623" t="n">
+        <v>23</v>
+      </c>
+      <c r="G623" t="n">
+        <v>24</v>
+      </c>
+      <c r="H623" t="n">
+        <v>26</v>
+      </c>
+      <c r="I623" t="n">
+        <v>28</v>
+      </c>
+      <c r="J623" t="n">
+        <v>33</v>
+      </c>
+      <c r="K623" t="n">
+        <v>34</v>
+      </c>
+      <c r="L623" t="n">
+        <v>35</v>
+      </c>
+      <c r="M623" t="n">
+        <v>40</v>
+      </c>
+      <c r="N623" t="n">
+        <v>47</v>
+      </c>
+      <c r="O623" t="n">
+        <v>50</v>
+      </c>
+      <c r="P623" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>64</v>
+      </c>
+      <c r="R623" t="n">
+        <v>66</v>
+      </c>
+      <c r="S623" t="n">
+        <v>67</v>
+      </c>
+      <c r="T623" t="n">
+        <v>72</v>
+      </c>
+      <c r="U623" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>4</v>
+      </c>
+      <c r="C624" t="n">
+        <v>9</v>
+      </c>
+      <c r="D624" t="n">
+        <v>10</v>
+      </c>
+      <c r="E624" t="n">
+        <v>13</v>
+      </c>
+      <c r="F624" t="n">
+        <v>14</v>
+      </c>
+      <c r="G624" t="n">
+        <v>17</v>
+      </c>
+      <c r="H624" t="n">
+        <v>27</v>
+      </c>
+      <c r="I624" t="n">
+        <v>28</v>
+      </c>
+      <c r="J624" t="n">
+        <v>34</v>
+      </c>
+      <c r="K624" t="n">
+        <v>42</v>
+      </c>
+      <c r="L624" t="n">
+        <v>46</v>
+      </c>
+      <c r="M624" t="n">
+        <v>49</v>
+      </c>
+      <c r="N624" t="n">
+        <v>52</v>
+      </c>
+      <c r="O624" t="n">
+        <v>54</v>
+      </c>
+      <c r="P624" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q624" t="n">
+        <v>58</v>
+      </c>
+      <c r="R624" t="n">
+        <v>65</v>
+      </c>
+      <c r="S624" t="n">
+        <v>73</v>
+      </c>
+      <c r="T624" t="n">
+        <v>74</v>
+      </c>
+      <c r="U624" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>4</v>
+      </c>
+      <c r="C625" t="n">
+        <v>5</v>
+      </c>
+      <c r="D625" t="n">
+        <v>6</v>
+      </c>
+      <c r="E625" t="n">
+        <v>11</v>
+      </c>
+      <c r="F625" t="n">
+        <v>13</v>
+      </c>
+      <c r="G625" t="n">
+        <v>17</v>
+      </c>
+      <c r="H625" t="n">
+        <v>19</v>
+      </c>
+      <c r="I625" t="n">
+        <v>20</v>
+      </c>
+      <c r="J625" t="n">
+        <v>25</v>
+      </c>
+      <c r="K625" t="n">
+        <v>26</v>
+      </c>
+      <c r="L625" t="n">
+        <v>29</v>
+      </c>
+      <c r="M625" t="n">
+        <v>39</v>
+      </c>
+      <c r="N625" t="n">
+        <v>42</v>
+      </c>
+      <c r="O625" t="n">
+        <v>44</v>
+      </c>
+      <c r="P625" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q625" t="n">
+        <v>62</v>
+      </c>
+      <c r="R625" t="n">
+        <v>64</v>
+      </c>
+      <c r="S625" t="n">
+        <v>65</v>
+      </c>
+      <c r="T625" t="n">
+        <v>74</v>
+      </c>
+      <c r="U625" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+      <c r="C626" t="n">
+        <v>6</v>
+      </c>
+      <c r="D626" t="n">
+        <v>13</v>
+      </c>
+      <c r="E626" t="n">
+        <v>15</v>
+      </c>
+      <c r="F626" t="n">
+        <v>23</v>
+      </c>
+      <c r="G626" t="n">
+        <v>25</v>
+      </c>
+      <c r="H626" t="n">
+        <v>35</v>
+      </c>
+      <c r="I626" t="n">
+        <v>37</v>
+      </c>
+      <c r="J626" t="n">
+        <v>39</v>
+      </c>
+      <c r="K626" t="n">
+        <v>43</v>
+      </c>
+      <c r="L626" t="n">
+        <v>44</v>
+      </c>
+      <c r="M626" t="n">
+        <v>46</v>
+      </c>
+      <c r="N626" t="n">
+        <v>55</v>
+      </c>
+      <c r="O626" t="n">
+        <v>57</v>
+      </c>
+      <c r="P626" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q626" t="n">
+        <v>61</v>
+      </c>
+      <c r="R626" t="n">
+        <v>63</v>
+      </c>
+      <c r="S626" t="n">
+        <v>64</v>
+      </c>
+      <c r="T626" t="n">
+        <v>65</v>
+      </c>
+      <c r="U626" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>3</v>
+      </c>
+      <c r="C627" t="n">
+        <v>12</v>
+      </c>
+      <c r="D627" t="n">
+        <v>13</v>
+      </c>
+      <c r="E627" t="n">
+        <v>15</v>
+      </c>
+      <c r="F627" t="n">
+        <v>22</v>
+      </c>
+      <c r="G627" t="n">
+        <v>24</v>
+      </c>
+      <c r="H627" t="n">
+        <v>26</v>
+      </c>
+      <c r="I627" t="n">
+        <v>28</v>
+      </c>
+      <c r="J627" t="n">
+        <v>31</v>
+      </c>
+      <c r="K627" t="n">
+        <v>33</v>
+      </c>
+      <c r="L627" t="n">
+        <v>34</v>
+      </c>
+      <c r="M627" t="n">
+        <v>38</v>
+      </c>
+      <c r="N627" t="n">
+        <v>40</v>
+      </c>
+      <c r="O627" t="n">
+        <v>43</v>
+      </c>
+      <c r="P627" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>56</v>
+      </c>
+      <c r="R627" t="n">
+        <v>64</v>
+      </c>
+      <c r="S627" t="n">
+        <v>67</v>
+      </c>
+      <c r="T627" t="n">
+        <v>70</v>
+      </c>
+      <c r="U627" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>2</v>
+      </c>
+      <c r="C628" t="n">
+        <v>3</v>
+      </c>
+      <c r="D628" t="n">
+        <v>10</v>
+      </c>
+      <c r="E628" t="n">
+        <v>19</v>
+      </c>
+      <c r="F628" t="n">
+        <v>23</v>
+      </c>
+      <c r="G628" t="n">
+        <v>24</v>
+      </c>
+      <c r="H628" t="n">
+        <v>28</v>
+      </c>
+      <c r="I628" t="n">
+        <v>35</v>
+      </c>
+      <c r="J628" t="n">
+        <v>45</v>
+      </c>
+      <c r="K628" t="n">
+        <v>50</v>
+      </c>
+      <c r="L628" t="n">
+        <v>53</v>
+      </c>
+      <c r="M628" t="n">
+        <v>55</v>
+      </c>
+      <c r="N628" t="n">
+        <v>56</v>
+      </c>
+      <c r="O628" t="n">
+        <v>57</v>
+      </c>
+      <c r="P628" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q628" t="n">
+        <v>69</v>
+      </c>
+      <c r="R628" t="n">
+        <v>73</v>
+      </c>
+      <c r="S628" t="n">
+        <v>75</v>
+      </c>
+      <c r="T628" t="n">
+        <v>77</v>
+      </c>
+      <c r="U628" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>6</v>
+      </c>
+      <c r="C629" t="n">
+        <v>8</v>
+      </c>
+      <c r="D629" t="n">
+        <v>9</v>
+      </c>
+      <c r="E629" t="n">
+        <v>11</v>
+      </c>
+      <c r="F629" t="n">
+        <v>12</v>
+      </c>
+      <c r="G629" t="n">
+        <v>18</v>
+      </c>
+      <c r="H629" t="n">
+        <v>21</v>
+      </c>
+      <c r="I629" t="n">
+        <v>29</v>
+      </c>
+      <c r="J629" t="n">
+        <v>31</v>
+      </c>
+      <c r="K629" t="n">
+        <v>34</v>
+      </c>
+      <c r="L629" t="n">
+        <v>36</v>
+      </c>
+      <c r="M629" t="n">
+        <v>39</v>
+      </c>
+      <c r="N629" t="n">
+        <v>42</v>
+      </c>
+      <c r="O629" t="n">
+        <v>46</v>
+      </c>
+      <c r="P629" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>60</v>
+      </c>
+      <c r="R629" t="n">
+        <v>63</v>
+      </c>
+      <c r="S629" t="n">
+        <v>65</v>
+      </c>
+      <c r="T629" t="n">
+        <v>73</v>
+      </c>
+      <c r="U629" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>4</v>
+      </c>
+      <c r="C630" t="n">
+        <v>5</v>
+      </c>
+      <c r="D630" t="n">
+        <v>11</v>
+      </c>
+      <c r="E630" t="n">
+        <v>14</v>
+      </c>
+      <c r="F630" t="n">
+        <v>15</v>
+      </c>
+      <c r="G630" t="n">
+        <v>18</v>
+      </c>
+      <c r="H630" t="n">
+        <v>20</v>
+      </c>
+      <c r="I630" t="n">
+        <v>23</v>
+      </c>
+      <c r="J630" t="n">
+        <v>29</v>
+      </c>
+      <c r="K630" t="n">
+        <v>32</v>
+      </c>
+      <c r="L630" t="n">
+        <v>34</v>
+      </c>
+      <c r="M630" t="n">
+        <v>37</v>
+      </c>
+      <c r="N630" t="n">
+        <v>40</v>
+      </c>
+      <c r="O630" t="n">
+        <v>43</v>
+      </c>
+      <c r="P630" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>55</v>
+      </c>
+      <c r="R630" t="n">
+        <v>57</v>
+      </c>
+      <c r="S630" t="n">
+        <v>64</v>
+      </c>
+      <c r="T630" t="n">
+        <v>69</v>
+      </c>
+      <c r="U630" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+      <c r="C631" t="n">
+        <v>6</v>
+      </c>
+      <c r="D631" t="n">
+        <v>10</v>
+      </c>
+      <c r="E631" t="n">
+        <v>11</v>
+      </c>
+      <c r="F631" t="n">
+        <v>12</v>
+      </c>
+      <c r="G631" t="n">
+        <v>14</v>
+      </c>
+      <c r="H631" t="n">
+        <v>23</v>
+      </c>
+      <c r="I631" t="n">
+        <v>32</v>
+      </c>
+      <c r="J631" t="n">
+        <v>42</v>
+      </c>
+      <c r="K631" t="n">
+        <v>43</v>
+      </c>
+      <c r="L631" t="n">
+        <v>46</v>
+      </c>
+      <c r="M631" t="n">
+        <v>48</v>
+      </c>
+      <c r="N631" t="n">
+        <v>50</v>
+      </c>
+      <c r="O631" t="n">
+        <v>51</v>
+      </c>
+      <c r="P631" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q631" t="n">
+        <v>59</v>
+      </c>
+      <c r="R631" t="n">
+        <v>64</v>
+      </c>
+      <c r="S631" t="n">
+        <v>70</v>
+      </c>
+      <c r="T631" t="n">
+        <v>72</v>
+      </c>
+      <c r="U631" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+      <c r="C632" t="n">
+        <v>3</v>
+      </c>
+      <c r="D632" t="n">
+        <v>8</v>
+      </c>
+      <c r="E632" t="n">
+        <v>10</v>
+      </c>
+      <c r="F632" t="n">
+        <v>23</v>
+      </c>
+      <c r="G632" t="n">
+        <v>24</v>
+      </c>
+      <c r="H632" t="n">
+        <v>25</v>
+      </c>
+      <c r="I632" t="n">
+        <v>26</v>
+      </c>
+      <c r="J632" t="n">
+        <v>28</v>
+      </c>
+      <c r="K632" t="n">
+        <v>30</v>
+      </c>
+      <c r="L632" t="n">
+        <v>32</v>
+      </c>
+      <c r="M632" t="n">
+        <v>49</v>
+      </c>
+      <c r="N632" t="n">
+        <v>57</v>
+      </c>
+      <c r="O632" t="n">
+        <v>58</v>
+      </c>
+      <c r="P632" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q632" t="n">
+        <v>69</v>
+      </c>
+      <c r="R632" t="n">
+        <v>70</v>
+      </c>
+      <c r="S632" t="n">
+        <v>74</v>
+      </c>
+      <c r="T632" t="n">
+        <v>76</v>
+      </c>
+      <c r="U632" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>4</v>
+      </c>
+      <c r="C633" t="n">
+        <v>5</v>
+      </c>
+      <c r="D633" t="n">
+        <v>9</v>
+      </c>
+      <c r="E633" t="n">
+        <v>11</v>
+      </c>
+      <c r="F633" t="n">
+        <v>14</v>
+      </c>
+      <c r="G633" t="n">
+        <v>17</v>
+      </c>
+      <c r="H633" t="n">
+        <v>25</v>
+      </c>
+      <c r="I633" t="n">
+        <v>27</v>
+      </c>
+      <c r="J633" t="n">
+        <v>38</v>
+      </c>
+      <c r="K633" t="n">
+        <v>39</v>
+      </c>
+      <c r="L633" t="n">
+        <v>40</v>
+      </c>
+      <c r="M633" t="n">
+        <v>41</v>
+      </c>
+      <c r="N633" t="n">
+        <v>45</v>
+      </c>
+      <c r="O633" t="n">
+        <v>48</v>
+      </c>
+      <c r="P633" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q633" t="n">
+        <v>51</v>
+      </c>
+      <c r="R633" t="n">
+        <v>55</v>
+      </c>
+      <c r="S633" t="n">
+        <v>59</v>
+      </c>
+      <c r="T633" t="n">
+        <v>62</v>
+      </c>
+      <c r="U633" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>3</v>
+      </c>
+      <c r="C634" t="n">
+        <v>10</v>
+      </c>
+      <c r="D634" t="n">
+        <v>15</v>
+      </c>
+      <c r="E634" t="n">
+        <v>16</v>
+      </c>
+      <c r="F634" t="n">
+        <v>24</v>
+      </c>
+      <c r="G634" t="n">
+        <v>27</v>
+      </c>
+      <c r="H634" t="n">
+        <v>28</v>
+      </c>
+      <c r="I634" t="n">
+        <v>29</v>
+      </c>
+      <c r="J634" t="n">
+        <v>33</v>
+      </c>
+      <c r="K634" t="n">
+        <v>41</v>
+      </c>
+      <c r="L634" t="n">
+        <v>44</v>
+      </c>
+      <c r="M634" t="n">
+        <v>50</v>
+      </c>
+      <c r="N634" t="n">
+        <v>51</v>
+      </c>
+      <c r="O634" t="n">
+        <v>52</v>
+      </c>
+      <c r="P634" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>55</v>
+      </c>
+      <c r="R634" t="n">
+        <v>63</v>
+      </c>
+      <c r="S634" t="n">
+        <v>72</v>
+      </c>
+      <c r="T634" t="n">
+        <v>75</v>
+      </c>
+      <c r="U634" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>2</v>
+      </c>
+      <c r="C635" t="n">
+        <v>4</v>
+      </c>
+      <c r="D635" t="n">
+        <v>8</v>
+      </c>
+      <c r="E635" t="n">
+        <v>9</v>
+      </c>
+      <c r="F635" t="n">
+        <v>10</v>
+      </c>
+      <c r="G635" t="n">
+        <v>11</v>
+      </c>
+      <c r="H635" t="n">
+        <v>24</v>
+      </c>
+      <c r="I635" t="n">
+        <v>27</v>
+      </c>
+      <c r="J635" t="n">
+        <v>29</v>
+      </c>
+      <c r="K635" t="n">
+        <v>34</v>
+      </c>
+      <c r="L635" t="n">
+        <v>35</v>
+      </c>
+      <c r="M635" t="n">
+        <v>38</v>
+      </c>
+      <c r="N635" t="n">
+        <v>48</v>
+      </c>
+      <c r="O635" t="n">
+        <v>49</v>
+      </c>
+      <c r="P635" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q635" t="n">
+        <v>51</v>
+      </c>
+      <c r="R635" t="n">
+        <v>56</v>
+      </c>
+      <c r="S635" t="n">
+        <v>57</v>
+      </c>
+      <c r="T635" t="n">
+        <v>66</v>
+      </c>
+      <c r="U635" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>11</v>
+      </c>
+      <c r="C636" t="n">
+        <v>12</v>
+      </c>
+      <c r="D636" t="n">
+        <v>13</v>
+      </c>
+      <c r="E636" t="n">
+        <v>15</v>
+      </c>
+      <c r="F636" t="n">
+        <v>18</v>
+      </c>
+      <c r="G636" t="n">
+        <v>28</v>
+      </c>
+      <c r="H636" t="n">
+        <v>32</v>
+      </c>
+      <c r="I636" t="n">
+        <v>33</v>
+      </c>
+      <c r="J636" t="n">
+        <v>34</v>
+      </c>
+      <c r="K636" t="n">
+        <v>41</v>
+      </c>
+      <c r="L636" t="n">
+        <v>44</v>
+      </c>
+      <c r="M636" t="n">
+        <v>48</v>
+      </c>
+      <c r="N636" t="n">
+        <v>51</v>
+      </c>
+      <c r="O636" t="n">
+        <v>56</v>
+      </c>
+      <c r="P636" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q636" t="n">
+        <v>70</v>
+      </c>
+      <c r="R636" t="n">
+        <v>71</v>
+      </c>
+      <c r="S636" t="n">
+        <v>72</v>
+      </c>
+      <c r="T636" t="n">
+        <v>78</v>
+      </c>
+      <c r="U636" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+      <c r="C637" t="n">
+        <v>6</v>
+      </c>
+      <c r="D637" t="n">
+        <v>16</v>
+      </c>
+      <c r="E637" t="n">
+        <v>18</v>
+      </c>
+      <c r="F637" t="n">
+        <v>22</v>
+      </c>
+      <c r="G637" t="n">
+        <v>25</v>
+      </c>
+      <c r="H637" t="n">
+        <v>27</v>
+      </c>
+      <c r="I637" t="n">
+        <v>35</v>
+      </c>
+      <c r="J637" t="n">
+        <v>38</v>
+      </c>
+      <c r="K637" t="n">
+        <v>39</v>
+      </c>
+      <c r="L637" t="n">
+        <v>40</v>
+      </c>
+      <c r="M637" t="n">
+        <v>42</v>
+      </c>
+      <c r="N637" t="n">
+        <v>44</v>
+      </c>
+      <c r="O637" t="n">
+        <v>48</v>
+      </c>
+      <c r="P637" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>54</v>
+      </c>
+      <c r="R637" t="n">
+        <v>59</v>
+      </c>
+      <c r="S637" t="n">
+        <v>64</v>
+      </c>
+      <c r="T637" t="n">
+        <v>70</v>
+      </c>
+      <c r="U637" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>4</v>
+      </c>
+      <c r="C638" t="n">
+        <v>8</v>
+      </c>
+      <c r="D638" t="n">
+        <v>9</v>
+      </c>
+      <c r="E638" t="n">
+        <v>14</v>
+      </c>
+      <c r="F638" t="n">
+        <v>18</v>
+      </c>
+      <c r="G638" t="n">
+        <v>20</v>
+      </c>
+      <c r="H638" t="n">
+        <v>24</v>
+      </c>
+      <c r="I638" t="n">
+        <v>26</v>
+      </c>
+      <c r="J638" t="n">
+        <v>32</v>
+      </c>
+      <c r="K638" t="n">
+        <v>37</v>
+      </c>
+      <c r="L638" t="n">
+        <v>41</v>
+      </c>
+      <c r="M638" t="n">
+        <v>43</v>
+      </c>
+      <c r="N638" t="n">
+        <v>45</v>
+      </c>
+      <c r="O638" t="n">
+        <v>47</v>
+      </c>
+      <c r="P638" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>64</v>
+      </c>
+      <c r="R638" t="n">
+        <v>71</v>
+      </c>
+      <c r="S638" t="n">
+        <v>72</v>
+      </c>
+      <c r="T638" t="n">
+        <v>73</v>
+      </c>
+      <c r="U638" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>6</v>
+      </c>
+      <c r="C639" t="n">
+        <v>8</v>
+      </c>
+      <c r="D639" t="n">
+        <v>9</v>
+      </c>
+      <c r="E639" t="n">
+        <v>20</v>
+      </c>
+      <c r="F639" t="n">
+        <v>26</v>
+      </c>
+      <c r="G639" t="n">
+        <v>27</v>
+      </c>
+      <c r="H639" t="n">
+        <v>28</v>
+      </c>
+      <c r="I639" t="n">
+        <v>29</v>
+      </c>
+      <c r="J639" t="n">
+        <v>32</v>
+      </c>
+      <c r="K639" t="n">
+        <v>33</v>
+      </c>
+      <c r="L639" t="n">
+        <v>39</v>
+      </c>
+      <c r="M639" t="n">
+        <v>40</v>
+      </c>
+      <c r="N639" t="n">
+        <v>51</v>
+      </c>
+      <c r="O639" t="n">
+        <v>53</v>
+      </c>
+      <c r="P639" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>63</v>
+      </c>
+      <c r="R639" t="n">
+        <v>64</v>
+      </c>
+      <c r="S639" t="n">
+        <v>65</v>
+      </c>
+      <c r="T639" t="n">
+        <v>74</v>
+      </c>
+      <c r="U639" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>3</v>
+      </c>
+      <c r="C640" t="n">
+        <v>8</v>
+      </c>
+      <c r="D640" t="n">
+        <v>18</v>
+      </c>
+      <c r="E640" t="n">
+        <v>20</v>
+      </c>
+      <c r="F640" t="n">
+        <v>23</v>
+      </c>
+      <c r="G640" t="n">
+        <v>24</v>
+      </c>
+      <c r="H640" t="n">
+        <v>30</v>
+      </c>
+      <c r="I640" t="n">
+        <v>31</v>
+      </c>
+      <c r="J640" t="n">
+        <v>35</v>
+      </c>
+      <c r="K640" t="n">
+        <v>44</v>
+      </c>
+      <c r="L640" t="n">
+        <v>49</v>
+      </c>
+      <c r="M640" t="n">
+        <v>53</v>
+      </c>
+      <c r="N640" t="n">
+        <v>55</v>
+      </c>
+      <c r="O640" t="n">
+        <v>60</v>
+      </c>
+      <c r="P640" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>69</v>
+      </c>
+      <c r="R640" t="n">
+        <v>70</v>
+      </c>
+      <c r="S640" t="n">
+        <v>71</v>
+      </c>
+      <c r="T640" t="n">
+        <v>73</v>
+      </c>
+      <c r="U640" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>6</v>
+      </c>
+      <c r="C641" t="n">
+        <v>7</v>
+      </c>
+      <c r="D641" t="n">
+        <v>9</v>
+      </c>
+      <c r="E641" t="n">
+        <v>11</v>
+      </c>
+      <c r="F641" t="n">
+        <v>13</v>
+      </c>
+      <c r="G641" t="n">
+        <v>16</v>
+      </c>
+      <c r="H641" t="n">
+        <v>23</v>
+      </c>
+      <c r="I641" t="n">
+        <v>26</v>
+      </c>
+      <c r="J641" t="n">
+        <v>27</v>
+      </c>
+      <c r="K641" t="n">
+        <v>28</v>
+      </c>
+      <c r="L641" t="n">
+        <v>33</v>
+      </c>
+      <c r="M641" t="n">
+        <v>38</v>
+      </c>
+      <c r="N641" t="n">
+        <v>50</v>
+      </c>
+      <c r="O641" t="n">
+        <v>51</v>
+      </c>
+      <c r="P641" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>61</v>
+      </c>
+      <c r="R641" t="n">
+        <v>62</v>
+      </c>
+      <c r="S641" t="n">
+        <v>63</v>
+      </c>
+      <c r="T641" t="n">
+        <v>73</v>
+      </c>
+      <c r="U641" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+      <c r="C642" t="n">
+        <v>15</v>
+      </c>
+      <c r="D642" t="n">
+        <v>16</v>
+      </c>
+      <c r="E642" t="n">
+        <v>20</v>
+      </c>
+      <c r="F642" t="n">
+        <v>27</v>
+      </c>
+      <c r="G642" t="n">
+        <v>28</v>
+      </c>
+      <c r="H642" t="n">
+        <v>30</v>
+      </c>
+      <c r="I642" t="n">
+        <v>31</v>
+      </c>
+      <c r="J642" t="n">
+        <v>34</v>
+      </c>
+      <c r="K642" t="n">
+        <v>35</v>
+      </c>
+      <c r="L642" t="n">
+        <v>38</v>
+      </c>
+      <c r="M642" t="n">
+        <v>40</v>
+      </c>
+      <c r="N642" t="n">
+        <v>41</v>
+      </c>
+      <c r="O642" t="n">
+        <v>43</v>
+      </c>
+      <c r="P642" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>49</v>
+      </c>
+      <c r="R642" t="n">
+        <v>50</v>
+      </c>
+      <c r="S642" t="n">
+        <v>56</v>
+      </c>
+      <c r="T642" t="n">
+        <v>78</v>
+      </c>
+      <c r="U642" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>3</v>
+      </c>
+      <c r="C643" t="n">
+        <v>4</v>
+      </c>
+      <c r="D643" t="n">
+        <v>8</v>
+      </c>
+      <c r="E643" t="n">
+        <v>9</v>
+      </c>
+      <c r="F643" t="n">
+        <v>10</v>
+      </c>
+      <c r="G643" t="n">
+        <v>11</v>
+      </c>
+      <c r="H643" t="n">
+        <v>12</v>
+      </c>
+      <c r="I643" t="n">
+        <v>19</v>
+      </c>
+      <c r="J643" t="n">
+        <v>26</v>
+      </c>
+      <c r="K643" t="n">
+        <v>28</v>
+      </c>
+      <c r="L643" t="n">
+        <v>38</v>
+      </c>
+      <c r="M643" t="n">
+        <v>48</v>
+      </c>
+      <c r="N643" t="n">
+        <v>54</v>
+      </c>
+      <c r="O643" t="n">
+        <v>61</v>
+      </c>
+      <c r="P643" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>70</v>
+      </c>
+      <c r="R643" t="n">
+        <v>71</v>
+      </c>
+      <c r="S643" t="n">
+        <v>72</v>
+      </c>
+      <c r="T643" t="n">
+        <v>75</v>
+      </c>
+      <c r="U643" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+      <c r="C644" t="n">
+        <v>14</v>
+      </c>
+      <c r="D644" t="n">
+        <v>16</v>
+      </c>
+      <c r="E644" t="n">
+        <v>19</v>
+      </c>
+      <c r="F644" t="n">
+        <v>22</v>
+      </c>
+      <c r="G644" t="n">
+        <v>24</v>
+      </c>
+      <c r="H644" t="n">
+        <v>25</v>
+      </c>
+      <c r="I644" t="n">
+        <v>27</v>
+      </c>
+      <c r="J644" t="n">
+        <v>29</v>
+      </c>
+      <c r="K644" t="n">
+        <v>35</v>
+      </c>
+      <c r="L644" t="n">
+        <v>37</v>
+      </c>
+      <c r="M644" t="n">
+        <v>42</v>
+      </c>
+      <c r="N644" t="n">
+        <v>47</v>
+      </c>
+      <c r="O644" t="n">
+        <v>49</v>
+      </c>
+      <c r="P644" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>55</v>
+      </c>
+      <c r="R644" t="n">
+        <v>67</v>
+      </c>
+      <c r="S644" t="n">
+        <v>72</v>
+      </c>
+      <c r="T644" t="n">
+        <v>73</v>
+      </c>
+      <c r="U644" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>5</v>
+      </c>
+      <c r="C645" t="n">
+        <v>11</v>
+      </c>
+      <c r="D645" t="n">
+        <v>16</v>
+      </c>
+      <c r="E645" t="n">
+        <v>19</v>
+      </c>
+      <c r="F645" t="n">
+        <v>22</v>
+      </c>
+      <c r="G645" t="n">
+        <v>34</v>
+      </c>
+      <c r="H645" t="n">
+        <v>39</v>
+      </c>
+      <c r="I645" t="n">
+        <v>42</v>
+      </c>
+      <c r="J645" t="n">
+        <v>45</v>
+      </c>
+      <c r="K645" t="n">
+        <v>48</v>
+      </c>
+      <c r="L645" t="n">
+        <v>49</v>
+      </c>
+      <c r="M645" t="n">
+        <v>54</v>
+      </c>
+      <c r="N645" t="n">
+        <v>57</v>
+      </c>
+      <c r="O645" t="n">
+        <v>62</v>
+      </c>
+      <c r="P645" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>67</v>
+      </c>
+      <c r="R645" t="n">
+        <v>69</v>
+      </c>
+      <c r="S645" t="n">
+        <v>73</v>
+      </c>
+      <c r="T645" t="n">
+        <v>76</v>
+      </c>
+      <c r="U645" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>8</v>
+      </c>
+      <c r="C646" t="n">
+        <v>12</v>
+      </c>
+      <c r="D646" t="n">
+        <v>14</v>
+      </c>
+      <c r="E646" t="n">
+        <v>17</v>
+      </c>
+      <c r="F646" t="n">
+        <v>25</v>
+      </c>
+      <c r="G646" t="n">
+        <v>28</v>
+      </c>
+      <c r="H646" t="n">
+        <v>33</v>
+      </c>
+      <c r="I646" t="n">
+        <v>35</v>
+      </c>
+      <c r="J646" t="n">
+        <v>39</v>
+      </c>
+      <c r="K646" t="n">
+        <v>42</v>
+      </c>
+      <c r="L646" t="n">
+        <v>47</v>
+      </c>
+      <c r="M646" t="n">
+        <v>50</v>
+      </c>
+      <c r="N646" t="n">
+        <v>57</v>
+      </c>
+      <c r="O646" t="n">
+        <v>60</v>
+      </c>
+      <c r="P646" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>62</v>
+      </c>
+      <c r="R646" t="n">
+        <v>63</v>
+      </c>
+      <c r="S646" t="n">
+        <v>64</v>
+      </c>
+      <c r="T646" t="n">
+        <v>73</v>
+      </c>
+      <c r="U646" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>10</v>
+      </c>
+      <c r="C647" t="n">
+        <v>11</v>
+      </c>
+      <c r="D647" t="n">
+        <v>12</v>
+      </c>
+      <c r="E647" t="n">
+        <v>13</v>
+      </c>
+      <c r="F647" t="n">
+        <v>15</v>
+      </c>
+      <c r="G647" t="n">
+        <v>18</v>
+      </c>
+      <c r="H647" t="n">
+        <v>22</v>
+      </c>
+      <c r="I647" t="n">
+        <v>25</v>
+      </c>
+      <c r="J647" t="n">
+        <v>28</v>
+      </c>
+      <c r="K647" t="n">
+        <v>30</v>
+      </c>
+      <c r="L647" t="n">
+        <v>38</v>
+      </c>
+      <c r="M647" t="n">
+        <v>44</v>
+      </c>
+      <c r="N647" t="n">
+        <v>52</v>
+      </c>
+      <c r="O647" t="n">
+        <v>60</v>
+      </c>
+      <c r="P647" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>64</v>
+      </c>
+      <c r="R647" t="n">
+        <v>65</v>
+      </c>
+      <c r="S647" t="n">
+        <v>70</v>
+      </c>
+      <c r="T647" t="n">
+        <v>76</v>
+      </c>
+      <c r="U647" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>2</v>
+      </c>
+      <c r="C648" t="n">
+        <v>8</v>
+      </c>
+      <c r="D648" t="n">
+        <v>20</v>
+      </c>
+      <c r="E648" t="n">
+        <v>25</v>
+      </c>
+      <c r="F648" t="n">
+        <v>32</v>
+      </c>
+      <c r="G648" t="n">
+        <v>34</v>
+      </c>
+      <c r="H648" t="n">
+        <v>37</v>
+      </c>
+      <c r="I648" t="n">
+        <v>38</v>
+      </c>
+      <c r="J648" t="n">
+        <v>41</v>
+      </c>
+      <c r="K648" t="n">
+        <v>44</v>
+      </c>
+      <c r="L648" t="n">
+        <v>49</v>
+      </c>
+      <c r="M648" t="n">
+        <v>57</v>
+      </c>
+      <c r="N648" t="n">
+        <v>58</v>
+      </c>
+      <c r="O648" t="n">
+        <v>65</v>
+      </c>
+      <c r="P648" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>72</v>
+      </c>
+      <c r="R648" t="n">
+        <v>74</v>
+      </c>
+      <c r="S648" t="n">
+        <v>77</v>
+      </c>
+      <c r="T648" t="n">
+        <v>78</v>
+      </c>
+      <c r="U648" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>3</v>
+      </c>
+      <c r="C649" t="n">
+        <v>7</v>
+      </c>
+      <c r="D649" t="n">
+        <v>9</v>
+      </c>
+      <c r="E649" t="n">
+        <v>12</v>
+      </c>
+      <c r="F649" t="n">
+        <v>15</v>
+      </c>
+      <c r="G649" t="n">
+        <v>29</v>
+      </c>
+      <c r="H649" t="n">
+        <v>32</v>
+      </c>
+      <c r="I649" t="n">
+        <v>33</v>
+      </c>
+      <c r="J649" t="n">
+        <v>37</v>
+      </c>
+      <c r="K649" t="n">
+        <v>38</v>
+      </c>
+      <c r="L649" t="n">
+        <v>39</v>
+      </c>
+      <c r="M649" t="n">
+        <v>43</v>
+      </c>
+      <c r="N649" t="n">
+        <v>49</v>
+      </c>
+      <c r="O649" t="n">
+        <v>50</v>
+      </c>
+      <c r="P649" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>64</v>
+      </c>
+      <c r="R649" t="n">
+        <v>69</v>
+      </c>
+      <c r="S649" t="n">
+        <v>70</v>
+      </c>
+      <c r="T649" t="n">
+        <v>71</v>
+      </c>
+      <c r="U649" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>3</v>
+      </c>
+      <c r="C650" t="n">
+        <v>5</v>
+      </c>
+      <c r="D650" t="n">
+        <v>6</v>
+      </c>
+      <c r="E650" t="n">
+        <v>16</v>
+      </c>
+      <c r="F650" t="n">
+        <v>25</v>
+      </c>
+      <c r="G650" t="n">
+        <v>26</v>
+      </c>
+      <c r="H650" t="n">
+        <v>30</v>
+      </c>
+      <c r="I650" t="n">
+        <v>36</v>
+      </c>
+      <c r="J650" t="n">
+        <v>40</v>
+      </c>
+      <c r="K650" t="n">
+        <v>43</v>
+      </c>
+      <c r="L650" t="n">
+        <v>45</v>
+      </c>
+      <c r="M650" t="n">
+        <v>46</v>
+      </c>
+      <c r="N650" t="n">
+        <v>49</v>
+      </c>
+      <c r="O650" t="n">
+        <v>52</v>
+      </c>
+      <c r="P650" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>74</v>
+      </c>
+      <c r="R650" t="n">
+        <v>76</v>
+      </c>
+      <c r="S650" t="n">
+        <v>77</v>
+      </c>
+      <c r="T650" t="n">
+        <v>78</v>
+      </c>
+      <c r="U650" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>2</v>
+      </c>
+      <c r="C651" t="n">
+        <v>6</v>
+      </c>
+      <c r="D651" t="n">
+        <v>8</v>
+      </c>
+      <c r="E651" t="n">
+        <v>10</v>
+      </c>
+      <c r="F651" t="n">
+        <v>13</v>
+      </c>
+      <c r="G651" t="n">
+        <v>14</v>
+      </c>
+      <c r="H651" t="n">
+        <v>15</v>
+      </c>
+      <c r="I651" t="n">
+        <v>16</v>
+      </c>
+      <c r="J651" t="n">
+        <v>31</v>
+      </c>
+      <c r="K651" t="n">
+        <v>37</v>
+      </c>
+      <c r="L651" t="n">
+        <v>41</v>
+      </c>
+      <c r="M651" t="n">
+        <v>45</v>
+      </c>
+      <c r="N651" t="n">
+        <v>46</v>
+      </c>
+      <c r="O651" t="n">
+        <v>47</v>
+      </c>
+      <c r="P651" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q651" t="n">
+        <v>66</v>
+      </c>
+      <c r="R651" t="n">
+        <v>74</v>
+      </c>
+      <c r="S651" t="n">
+        <v>76</v>
+      </c>
+      <c r="T651" t="n">
+        <v>78</v>
+      </c>
+      <c r="U651" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+      <c r="C652" t="n">
+        <v>8</v>
+      </c>
+      <c r="D652" t="n">
+        <v>9</v>
+      </c>
+      <c r="E652" t="n">
+        <v>25</v>
+      </c>
+      <c r="F652" t="n">
+        <v>28</v>
+      </c>
+      <c r="G652" t="n">
+        <v>35</v>
+      </c>
+      <c r="H652" t="n">
+        <v>37</v>
+      </c>
+      <c r="I652" t="n">
+        <v>39</v>
+      </c>
+      <c r="J652" t="n">
+        <v>46</v>
+      </c>
+      <c r="K652" t="n">
+        <v>54</v>
+      </c>
+      <c r="L652" t="n">
+        <v>55</v>
+      </c>
+      <c r="M652" t="n">
+        <v>60</v>
+      </c>
+      <c r="N652" t="n">
+        <v>61</v>
+      </c>
+      <c r="O652" t="n">
+        <v>66</v>
+      </c>
+      <c r="P652" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q652" t="n">
+        <v>69</v>
+      </c>
+      <c r="R652" t="n">
+        <v>73</v>
+      </c>
+      <c r="S652" t="n">
+        <v>74</v>
+      </c>
+      <c r="T652" t="n">
+        <v>76</v>
+      </c>
+      <c r="U652" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>2</v>
+      </c>
+      <c r="C653" t="n">
+        <v>4</v>
+      </c>
+      <c r="D653" t="n">
+        <v>12</v>
+      </c>
+      <c r="E653" t="n">
+        <v>25</v>
+      </c>
+      <c r="F653" t="n">
+        <v>26</v>
+      </c>
+      <c r="G653" t="n">
+        <v>28</v>
+      </c>
+      <c r="H653" t="n">
+        <v>31</v>
+      </c>
+      <c r="I653" t="n">
+        <v>41</v>
+      </c>
+      <c r="J653" t="n">
+        <v>47</v>
+      </c>
+      <c r="K653" t="n">
+        <v>50</v>
+      </c>
+      <c r="L653" t="n">
+        <v>51</v>
+      </c>
+      <c r="M653" t="n">
+        <v>54</v>
+      </c>
+      <c r="N653" t="n">
+        <v>56</v>
+      </c>
+      <c r="O653" t="n">
+        <v>57</v>
+      </c>
+      <c r="P653" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q653" t="n">
+        <v>65</v>
+      </c>
+      <c r="R653" t="n">
+        <v>70</v>
+      </c>
+      <c r="S653" t="n">
+        <v>73</v>
+      </c>
+      <c r="T653" t="n">
+        <v>74</v>
+      </c>
+      <c r="U653" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+      <c r="C654" t="n">
+        <v>9</v>
+      </c>
+      <c r="D654" t="n">
+        <v>15</v>
+      </c>
+      <c r="E654" t="n">
+        <v>18</v>
+      </c>
+      <c r="F654" t="n">
+        <v>21</v>
+      </c>
+      <c r="G654" t="n">
+        <v>24</v>
+      </c>
+      <c r="H654" t="n">
+        <v>27</v>
+      </c>
+      <c r="I654" t="n">
+        <v>34</v>
+      </c>
+      <c r="J654" t="n">
+        <v>41</v>
+      </c>
+      <c r="K654" t="n">
+        <v>44</v>
+      </c>
+      <c r="L654" t="n">
+        <v>45</v>
+      </c>
+      <c r="M654" t="n">
+        <v>49</v>
+      </c>
+      <c r="N654" t="n">
+        <v>50</v>
+      </c>
+      <c r="O654" t="n">
+        <v>51</v>
+      </c>
+      <c r="P654" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q654" t="n">
+        <v>60</v>
+      </c>
+      <c r="R654" t="n">
+        <v>62</v>
+      </c>
+      <c r="S654" t="n">
+        <v>68</v>
+      </c>
+      <c r="T654" t="n">
+        <v>75</v>
+      </c>
+      <c r="U654" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+      <c r="C655" t="n">
+        <v>2</v>
+      </c>
+      <c r="D655" t="n">
+        <v>3</v>
+      </c>
+      <c r="E655" t="n">
+        <v>10</v>
+      </c>
+      <c r="F655" t="n">
+        <v>20</v>
+      </c>
+      <c r="G655" t="n">
+        <v>21</v>
+      </c>
+      <c r="H655" t="n">
+        <v>25</v>
+      </c>
+      <c r="I655" t="n">
+        <v>30</v>
+      </c>
+      <c r="J655" t="n">
+        <v>37</v>
+      </c>
+      <c r="K655" t="n">
+        <v>42</v>
+      </c>
+      <c r="L655" t="n">
+        <v>44</v>
+      </c>
+      <c r="M655" t="n">
+        <v>57</v>
+      </c>
+      <c r="N655" t="n">
+        <v>59</v>
+      </c>
+      <c r="O655" t="n">
+        <v>61</v>
+      </c>
+      <c r="P655" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>67</v>
+      </c>
+      <c r="R655" t="n">
+        <v>70</v>
+      </c>
+      <c r="S655" t="n">
+        <v>73</v>
+      </c>
+      <c r="T655" t="n">
+        <v>74</v>
+      </c>
+      <c r="U655" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>7</v>
+      </c>
+      <c r="C656" t="n">
+        <v>8</v>
+      </c>
+      <c r="D656" t="n">
+        <v>13</v>
+      </c>
+      <c r="E656" t="n">
+        <v>14</v>
+      </c>
+      <c r="F656" t="n">
+        <v>17</v>
+      </c>
+      <c r="G656" t="n">
+        <v>18</v>
+      </c>
+      <c r="H656" t="n">
+        <v>23</v>
+      </c>
+      <c r="I656" t="n">
+        <v>28</v>
+      </c>
+      <c r="J656" t="n">
+        <v>29</v>
+      </c>
+      <c r="K656" t="n">
+        <v>32</v>
+      </c>
+      <c r="L656" t="n">
+        <v>36</v>
+      </c>
+      <c r="M656" t="n">
+        <v>40</v>
+      </c>
+      <c r="N656" t="n">
+        <v>44</v>
+      </c>
+      <c r="O656" t="n">
+        <v>45</v>
+      </c>
+      <c r="P656" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>52</v>
+      </c>
+      <c r="R656" t="n">
+        <v>57</v>
+      </c>
+      <c r="S656" t="n">
+        <v>58</v>
+      </c>
+      <c r="T656" t="n">
+        <v>71</v>
+      </c>
+      <c r="U656" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>2</v>
+      </c>
+      <c r="C657" t="n">
+        <v>6</v>
+      </c>
+      <c r="D657" t="n">
+        <v>7</v>
+      </c>
+      <c r="E657" t="n">
+        <v>11</v>
+      </c>
+      <c r="F657" t="n">
+        <v>12</v>
+      </c>
+      <c r="G657" t="n">
+        <v>20</v>
+      </c>
+      <c r="H657" t="n">
+        <v>30</v>
+      </c>
+      <c r="I657" t="n">
+        <v>35</v>
+      </c>
+      <c r="J657" t="n">
+        <v>36</v>
+      </c>
+      <c r="K657" t="n">
+        <v>40</v>
+      </c>
+      <c r="L657" t="n">
+        <v>46</v>
+      </c>
+      <c r="M657" t="n">
+        <v>53</v>
+      </c>
+      <c r="N657" t="n">
+        <v>55</v>
+      </c>
+      <c r="O657" t="n">
+        <v>60</v>
+      </c>
+      <c r="P657" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>70</v>
+      </c>
+      <c r="R657" t="n">
+        <v>73</v>
+      </c>
+      <c r="S657" t="n">
+        <v>75</v>
+      </c>
+      <c r="T657" t="n">
+        <v>76</v>
+      </c>
+      <c r="U657" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+      <c r="C658" t="n">
+        <v>6</v>
+      </c>
+      <c r="D658" t="n">
+        <v>7</v>
+      </c>
+      <c r="E658" t="n">
+        <v>12</v>
+      </c>
+      <c r="F658" t="n">
+        <v>13</v>
+      </c>
+      <c r="G658" t="n">
+        <v>14</v>
+      </c>
+      <c r="H658" t="n">
+        <v>16</v>
+      </c>
+      <c r="I658" t="n">
+        <v>20</v>
+      </c>
+      <c r="J658" t="n">
+        <v>21</v>
+      </c>
+      <c r="K658" t="n">
+        <v>27</v>
+      </c>
+      <c r="L658" t="n">
+        <v>30</v>
+      </c>
+      <c r="M658" t="n">
+        <v>35</v>
+      </c>
+      <c r="N658" t="n">
+        <v>56</v>
+      </c>
+      <c r="O658" t="n">
+        <v>65</v>
+      </c>
+      <c r="P658" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>68</v>
+      </c>
+      <c r="R658" t="n">
+        <v>69</v>
+      </c>
+      <c r="S658" t="n">
+        <v>71</v>
+      </c>
+      <c r="T658" t="n">
+        <v>74</v>
+      </c>
+      <c r="U658" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+      <c r="C659" t="n">
+        <v>8</v>
+      </c>
+      <c r="D659" t="n">
+        <v>12</v>
+      </c>
+      <c r="E659" t="n">
+        <v>13</v>
+      </c>
+      <c r="F659" t="n">
+        <v>17</v>
+      </c>
+      <c r="G659" t="n">
+        <v>24</v>
+      </c>
+      <c r="H659" t="n">
+        <v>26</v>
+      </c>
+      <c r="I659" t="n">
+        <v>30</v>
+      </c>
+      <c r="J659" t="n">
+        <v>31</v>
+      </c>
+      <c r="K659" t="n">
+        <v>38</v>
+      </c>
+      <c r="L659" t="n">
+        <v>40</v>
+      </c>
+      <c r="M659" t="n">
+        <v>44</v>
+      </c>
+      <c r="N659" t="n">
+        <v>52</v>
+      </c>
+      <c r="O659" t="n">
+        <v>55</v>
+      </c>
+      <c r="P659" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q659" t="n">
+        <v>68</v>
+      </c>
+      <c r="R659" t="n">
+        <v>71</v>
+      </c>
+      <c r="S659" t="n">
+        <v>74</v>
+      </c>
+      <c r="T659" t="n">
+        <v>77</v>
+      </c>
+      <c r="U659" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+      <c r="C660" t="n">
+        <v>16</v>
+      </c>
+      <c r="D660" t="n">
+        <v>17</v>
+      </c>
+      <c r="E660" t="n">
+        <v>19</v>
+      </c>
+      <c r="F660" t="n">
+        <v>20</v>
+      </c>
+      <c r="G660" t="n">
+        <v>21</v>
+      </c>
+      <c r="H660" t="n">
+        <v>23</v>
+      </c>
+      <c r="I660" t="n">
+        <v>38</v>
+      </c>
+      <c r="J660" t="n">
+        <v>42</v>
+      </c>
+      <c r="K660" t="n">
+        <v>45</v>
+      </c>
+      <c r="L660" t="n">
+        <v>51</v>
+      </c>
+      <c r="M660" t="n">
+        <v>58</v>
+      </c>
+      <c r="N660" t="n">
+        <v>64</v>
+      </c>
+      <c r="O660" t="n">
+        <v>65</v>
+      </c>
+      <c r="P660" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q660" t="n">
+        <v>67</v>
+      </c>
+      <c r="R660" t="n">
+        <v>71</v>
+      </c>
+      <c r="S660" t="n">
+        <v>72</v>
+      </c>
+      <c r="T660" t="n">
+        <v>76</v>
+      </c>
+      <c r="U660" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+      <c r="C661" t="n">
+        <v>4</v>
+      </c>
+      <c r="D661" t="n">
+        <v>7</v>
+      </c>
+      <c r="E661" t="n">
+        <v>9</v>
+      </c>
+      <c r="F661" t="n">
+        <v>11</v>
+      </c>
+      <c r="G661" t="n">
+        <v>13</v>
+      </c>
+      <c r="H661" t="n">
+        <v>16</v>
+      </c>
+      <c r="I661" t="n">
+        <v>19</v>
+      </c>
+      <c r="J661" t="n">
+        <v>20</v>
+      </c>
+      <c r="K661" t="n">
+        <v>34</v>
+      </c>
+      <c r="L661" t="n">
+        <v>36</v>
+      </c>
+      <c r="M661" t="n">
+        <v>43</v>
+      </c>
+      <c r="N661" t="n">
+        <v>48</v>
+      </c>
+      <c r="O661" t="n">
+        <v>56</v>
+      </c>
+      <c r="P661" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q661" t="n">
+        <v>72</v>
+      </c>
+      <c r="R661" t="n">
+        <v>77</v>
+      </c>
+      <c r="S661" t="n">
+        <v>78</v>
+      </c>
+      <c r="T661" t="n">
+        <v>79</v>
+      </c>
+      <c r="U661" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+      <c r="C662" t="n">
+        <v>2</v>
+      </c>
+      <c r="D662" t="n">
+        <v>5</v>
+      </c>
+      <c r="E662" t="n">
+        <v>11</v>
+      </c>
+      <c r="F662" t="n">
+        <v>12</v>
+      </c>
+      <c r="G662" t="n">
+        <v>17</v>
+      </c>
+      <c r="H662" t="n">
+        <v>18</v>
+      </c>
+      <c r="I662" t="n">
+        <v>22</v>
+      </c>
+      <c r="J662" t="n">
+        <v>26</v>
+      </c>
+      <c r="K662" t="n">
+        <v>27</v>
+      </c>
+      <c r="L662" t="n">
+        <v>30</v>
+      </c>
+      <c r="M662" t="n">
+        <v>33</v>
+      </c>
+      <c r="N662" t="n">
+        <v>34</v>
+      </c>
+      <c r="O662" t="n">
+        <v>43</v>
+      </c>
+      <c r="P662" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q662" t="n">
+        <v>63</v>
+      </c>
+      <c r="R662" t="n">
+        <v>66</v>
+      </c>
+      <c r="S662" t="n">
+        <v>70</v>
+      </c>
+      <c r="T662" t="n">
+        <v>73</v>
+      </c>
+      <c r="U662" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+      <c r="C663" t="n">
+        <v>4</v>
+      </c>
+      <c r="D663" t="n">
+        <v>7</v>
+      </c>
+      <c r="E663" t="n">
+        <v>9</v>
+      </c>
+      <c r="F663" t="n">
+        <v>10</v>
+      </c>
+      <c r="G663" t="n">
+        <v>14</v>
+      </c>
+      <c r="H663" t="n">
+        <v>17</v>
+      </c>
+      <c r="I663" t="n">
+        <v>31</v>
+      </c>
+      <c r="J663" t="n">
+        <v>38</v>
+      </c>
+      <c r="K663" t="n">
+        <v>40</v>
+      </c>
+      <c r="L663" t="n">
+        <v>54</v>
+      </c>
+      <c r="M663" t="n">
+        <v>55</v>
+      </c>
+      <c r="N663" t="n">
+        <v>59</v>
+      </c>
+      <c r="O663" t="n">
+        <v>60</v>
+      </c>
+      <c r="P663" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q663" t="n">
+        <v>63</v>
+      </c>
+      <c r="R663" t="n">
+        <v>70</v>
+      </c>
+      <c r="S663" t="n">
+        <v>71</v>
+      </c>
+      <c r="T663" t="n">
+        <v>77</v>
+      </c>
+      <c r="U663" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+      <c r="C664" t="n">
+        <v>3</v>
+      </c>
+      <c r="D664" t="n">
+        <v>8</v>
+      </c>
+      <c r="E664" t="n">
+        <v>9</v>
+      </c>
+      <c r="F664" t="n">
+        <v>10</v>
+      </c>
+      <c r="G664" t="n">
+        <v>12</v>
+      </c>
+      <c r="H664" t="n">
+        <v>19</v>
+      </c>
+      <c r="I664" t="n">
+        <v>20</v>
+      </c>
+      <c r="J664" t="n">
+        <v>21</v>
+      </c>
+      <c r="K664" t="n">
+        <v>30</v>
+      </c>
+      <c r="L664" t="n">
+        <v>40</v>
+      </c>
+      <c r="M664" t="n">
+        <v>44</v>
+      </c>
+      <c r="N664" t="n">
+        <v>50</v>
+      </c>
+      <c r="O664" t="n">
+        <v>51</v>
+      </c>
+      <c r="P664" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q664" t="n">
+        <v>66</v>
+      </c>
+      <c r="R664" t="n">
+        <v>71</v>
+      </c>
+      <c r="S664" t="n">
+        <v>78</v>
+      </c>
+      <c r="T664" t="n">
+        <v>79</v>
+      </c>
+      <c r="U664" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>4</v>
+      </c>
+      <c r="C665" t="n">
+        <v>5</v>
+      </c>
+      <c r="D665" t="n">
+        <v>8</v>
+      </c>
+      <c r="E665" t="n">
+        <v>10</v>
+      </c>
+      <c r="F665" t="n">
+        <v>12</v>
+      </c>
+      <c r="G665" t="n">
+        <v>28</v>
+      </c>
+      <c r="H665" t="n">
+        <v>32</v>
+      </c>
+      <c r="I665" t="n">
+        <v>38</v>
+      </c>
+      <c r="J665" t="n">
+        <v>40</v>
+      </c>
+      <c r="K665" t="n">
+        <v>41</v>
+      </c>
+      <c r="L665" t="n">
+        <v>44</v>
+      </c>
+      <c r="M665" t="n">
+        <v>48</v>
+      </c>
+      <c r="N665" t="n">
+        <v>52</v>
+      </c>
+      <c r="O665" t="n">
+        <v>54</v>
+      </c>
+      <c r="P665" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q665" t="n">
+        <v>57</v>
+      </c>
+      <c r="R665" t="n">
+        <v>59</v>
+      </c>
+      <c r="S665" t="n">
+        <v>65</v>
+      </c>
+      <c r="T665" t="n">
+        <v>73</v>
+      </c>
+      <c r="U665" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>6</v>
+      </c>
+      <c r="C666" t="n">
+        <v>8</v>
+      </c>
+      <c r="D666" t="n">
+        <v>9</v>
+      </c>
+      <c r="E666" t="n">
+        <v>10</v>
+      </c>
+      <c r="F666" t="n">
+        <v>16</v>
+      </c>
+      <c r="G666" t="n">
+        <v>24</v>
+      </c>
+      <c r="H666" t="n">
+        <v>29</v>
+      </c>
+      <c r="I666" t="n">
+        <v>32</v>
+      </c>
+      <c r="J666" t="n">
+        <v>33</v>
+      </c>
+      <c r="K666" t="n">
+        <v>36</v>
+      </c>
+      <c r="L666" t="n">
+        <v>37</v>
+      </c>
+      <c r="M666" t="n">
+        <v>39</v>
+      </c>
+      <c r="N666" t="n">
+        <v>41</v>
+      </c>
+      <c r="O666" t="n">
+        <v>46</v>
+      </c>
+      <c r="P666" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q666" t="n">
+        <v>60</v>
+      </c>
+      <c r="R666" t="n">
+        <v>62</v>
+      </c>
+      <c r="S666" t="n">
+        <v>63</v>
+      </c>
+      <c r="T666" t="n">
+        <v>69</v>
+      </c>
+      <c r="U666" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>13</v>
+      </c>
+      <c r="C667" t="n">
+        <v>20</v>
+      </c>
+      <c r="D667" t="n">
+        <v>22</v>
+      </c>
+      <c r="E667" t="n">
+        <v>24</v>
+      </c>
+      <c r="F667" t="n">
+        <v>26</v>
+      </c>
+      <c r="G667" t="n">
+        <v>28</v>
+      </c>
+      <c r="H667" t="n">
+        <v>35</v>
+      </c>
+      <c r="I667" t="n">
+        <v>39</v>
+      </c>
+      <c r="J667" t="n">
+        <v>42</v>
+      </c>
+      <c r="K667" t="n">
+        <v>45</v>
+      </c>
+      <c r="L667" t="n">
+        <v>47</v>
+      </c>
+      <c r="M667" t="n">
+        <v>48</v>
+      </c>
+      <c r="N667" t="n">
+        <v>51</v>
+      </c>
+      <c r="O667" t="n">
+        <v>61</v>
+      </c>
+      <c r="P667" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q667" t="n">
+        <v>70</v>
+      </c>
+      <c r="R667" t="n">
+        <v>71</v>
+      </c>
+      <c r="S667" t="n">
+        <v>72</v>
+      </c>
+      <c r="T667" t="n">
+        <v>73</v>
+      </c>
+      <c r="U667" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+      <c r="C668" t="n">
+        <v>2</v>
+      </c>
+      <c r="D668" t="n">
+        <v>4</v>
+      </c>
+      <c r="E668" t="n">
+        <v>6</v>
+      </c>
+      <c r="F668" t="n">
+        <v>8</v>
+      </c>
+      <c r="G668" t="n">
+        <v>10</v>
+      </c>
+      <c r="H668" t="n">
+        <v>11</v>
+      </c>
+      <c r="I668" t="n">
+        <v>17</v>
+      </c>
+      <c r="J668" t="n">
+        <v>18</v>
+      </c>
+      <c r="K668" t="n">
+        <v>19</v>
+      </c>
+      <c r="L668" t="n">
+        <v>20</v>
+      </c>
+      <c r="M668" t="n">
+        <v>27</v>
+      </c>
+      <c r="N668" t="n">
+        <v>33</v>
+      </c>
+      <c r="O668" t="n">
+        <v>41</v>
+      </c>
+      <c r="P668" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q668" t="n">
+        <v>45</v>
+      </c>
+      <c r="R668" t="n">
+        <v>56</v>
+      </c>
+      <c r="S668" t="n">
+        <v>66</v>
+      </c>
+      <c r="T668" t="n">
+        <v>69</v>
+      </c>
+      <c r="U668" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+      <c r="C669" t="n">
+        <v>2</v>
+      </c>
+      <c r="D669" t="n">
+        <v>10</v>
+      </c>
+      <c r="E669" t="n">
+        <v>17</v>
+      </c>
+      <c r="F669" t="n">
+        <v>20</v>
+      </c>
+      <c r="G669" t="n">
+        <v>21</v>
+      </c>
+      <c r="H669" t="n">
+        <v>26</v>
+      </c>
+      <c r="I669" t="n">
+        <v>27</v>
+      </c>
+      <c r="J669" t="n">
+        <v>29</v>
+      </c>
+      <c r="K669" t="n">
+        <v>36</v>
+      </c>
+      <c r="L669" t="n">
+        <v>37</v>
+      </c>
+      <c r="M669" t="n">
+        <v>38</v>
+      </c>
+      <c r="N669" t="n">
+        <v>39</v>
+      </c>
+      <c r="O669" t="n">
+        <v>42</v>
+      </c>
+      <c r="P669" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q669" t="n">
+        <v>54</v>
+      </c>
+      <c r="R669" t="n">
+        <v>69</v>
+      </c>
+      <c r="S669" t="n">
+        <v>72</v>
+      </c>
+      <c r="T669" t="n">
+        <v>78</v>
+      </c>
+      <c r="U669" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>2</v>
+      </c>
+      <c r="C670" t="n">
+        <v>6</v>
+      </c>
+      <c r="D670" t="n">
+        <v>9</v>
+      </c>
+      <c r="E670" t="n">
+        <v>15</v>
+      </c>
+      <c r="F670" t="n">
+        <v>16</v>
+      </c>
+      <c r="G670" t="n">
+        <v>22</v>
+      </c>
+      <c r="H670" t="n">
+        <v>24</v>
+      </c>
+      <c r="I670" t="n">
+        <v>27</v>
+      </c>
+      <c r="J670" t="n">
+        <v>28</v>
+      </c>
+      <c r="K670" t="n">
+        <v>33</v>
+      </c>
+      <c r="L670" t="n">
+        <v>37</v>
+      </c>
+      <c r="M670" t="n">
+        <v>57</v>
+      </c>
+      <c r="N670" t="n">
+        <v>60</v>
+      </c>
+      <c r="O670" t="n">
+        <v>63</v>
+      </c>
+      <c r="P670" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q670" t="n">
+        <v>65</v>
+      </c>
+      <c r="R670" t="n">
+        <v>70</v>
+      </c>
+      <c r="S670" t="n">
+        <v>72</v>
+      </c>
+      <c r="T670" t="n">
+        <v>73</v>
+      </c>
+      <c r="U670" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+      <c r="C671" t="n">
+        <v>3</v>
+      </c>
+      <c r="D671" t="n">
+        <v>10</v>
+      </c>
+      <c r="E671" t="n">
+        <v>14</v>
+      </c>
+      <c r="F671" t="n">
+        <v>17</v>
+      </c>
+      <c r="G671" t="n">
+        <v>19</v>
+      </c>
+      <c r="H671" t="n">
+        <v>24</v>
+      </c>
+      <c r="I671" t="n">
+        <v>28</v>
+      </c>
+      <c r="J671" t="n">
+        <v>31</v>
+      </c>
+      <c r="K671" t="n">
+        <v>37</v>
+      </c>
+      <c r="L671" t="n">
+        <v>45</v>
+      </c>
+      <c r="M671" t="n">
+        <v>47</v>
+      </c>
+      <c r="N671" t="n">
+        <v>49</v>
+      </c>
+      <c r="O671" t="n">
+        <v>51</v>
+      </c>
+      <c r="P671" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q671" t="n">
+        <v>68</v>
+      </c>
+      <c r="R671" t="n">
+        <v>72</v>
+      </c>
+      <c r="S671" t="n">
+        <v>75</v>
+      </c>
+      <c r="T671" t="n">
+        <v>79</v>
+      </c>
+      <c r="U671" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>2</v>
+      </c>
+      <c r="C672" t="n">
+        <v>5</v>
+      </c>
+      <c r="D672" t="n">
+        <v>7</v>
+      </c>
+      <c r="E672" t="n">
+        <v>18</v>
+      </c>
+      <c r="F672" t="n">
+        <v>21</v>
+      </c>
+      <c r="G672" t="n">
+        <v>22</v>
+      </c>
+      <c r="H672" t="n">
+        <v>26</v>
+      </c>
+      <c r="I672" t="n">
+        <v>28</v>
+      </c>
+      <c r="J672" t="n">
+        <v>29</v>
+      </c>
+      <c r="K672" t="n">
+        <v>33</v>
+      </c>
+      <c r="L672" t="n">
+        <v>34</v>
+      </c>
+      <c r="M672" t="n">
+        <v>39</v>
+      </c>
+      <c r="N672" t="n">
+        <v>45</v>
+      </c>
+      <c r="O672" t="n">
+        <v>62</v>
+      </c>
+      <c r="P672" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q672" t="n">
+        <v>69</v>
+      </c>
+      <c r="R672" t="n">
+        <v>70</v>
+      </c>
+      <c r="S672" t="n">
+        <v>73</v>
+      </c>
+      <c r="T672" t="n">
+        <v>76</v>
+      </c>
+      <c r="U672" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>4</v>
+      </c>
+      <c r="C673" t="n">
+        <v>5</v>
+      </c>
+      <c r="D673" t="n">
+        <v>6</v>
+      </c>
+      <c r="E673" t="n">
+        <v>12</v>
+      </c>
+      <c r="F673" t="n">
+        <v>21</v>
+      </c>
+      <c r="G673" t="n">
+        <v>27</v>
+      </c>
+      <c r="H673" t="n">
+        <v>30</v>
+      </c>
+      <c r="I673" t="n">
+        <v>32</v>
+      </c>
+      <c r="J673" t="n">
+        <v>41</v>
+      </c>
+      <c r="K673" t="n">
+        <v>42</v>
+      </c>
+      <c r="L673" t="n">
+        <v>46</v>
+      </c>
+      <c r="M673" t="n">
+        <v>47</v>
+      </c>
+      <c r="N673" t="n">
+        <v>51</v>
+      </c>
+      <c r="O673" t="n">
+        <v>62</v>
+      </c>
+      <c r="P673" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q673" t="n">
+        <v>68</v>
+      </c>
+      <c r="R673" t="n">
+        <v>73</v>
+      </c>
+      <c r="S673" t="n">
+        <v>74</v>
+      </c>
+      <c r="T673" t="n">
+        <v>76</v>
+      </c>
+      <c r="U673" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>3</v>
+      </c>
+      <c r="C674" t="n">
+        <v>10</v>
+      </c>
+      <c r="D674" t="n">
+        <v>13</v>
+      </c>
+      <c r="E674" t="n">
+        <v>21</v>
+      </c>
+      <c r="F674" t="n">
+        <v>23</v>
+      </c>
+      <c r="G674" t="n">
+        <v>26</v>
+      </c>
+      <c r="H674" t="n">
+        <v>45</v>
+      </c>
+      <c r="I674" t="n">
+        <v>47</v>
+      </c>
+      <c r="J674" t="n">
+        <v>48</v>
+      </c>
+      <c r="K674" t="n">
+        <v>56</v>
+      </c>
+      <c r="L674" t="n">
+        <v>57</v>
+      </c>
+      <c r="M674" t="n">
+        <v>59</v>
+      </c>
+      <c r="N674" t="n">
+        <v>65</v>
+      </c>
+      <c r="O674" t="n">
+        <v>70</v>
+      </c>
+      <c r="P674" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q674" t="n">
+        <v>73</v>
+      </c>
+      <c r="R674" t="n">
+        <v>74</v>
+      </c>
+      <c r="S674" t="n">
+        <v>75</v>
+      </c>
+      <c r="T674" t="n">
+        <v>79</v>
+      </c>
+      <c r="U674" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>3</v>
+      </c>
+      <c r="C675" t="n">
+        <v>7</v>
+      </c>
+      <c r="D675" t="n">
+        <v>11</v>
+      </c>
+      <c r="E675" t="n">
+        <v>13</v>
+      </c>
+      <c r="F675" t="n">
+        <v>20</v>
+      </c>
+      <c r="G675" t="n">
+        <v>21</v>
+      </c>
+      <c r="H675" t="n">
+        <v>26</v>
+      </c>
+      <c r="I675" t="n">
+        <v>27</v>
+      </c>
+      <c r="J675" t="n">
+        <v>35</v>
+      </c>
+      <c r="K675" t="n">
+        <v>37</v>
+      </c>
+      <c r="L675" t="n">
+        <v>39</v>
+      </c>
+      <c r="M675" t="n">
+        <v>41</v>
+      </c>
+      <c r="N675" t="n">
+        <v>42</v>
+      </c>
+      <c r="O675" t="n">
+        <v>50</v>
+      </c>
+      <c r="P675" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q675" t="n">
+        <v>59</v>
+      </c>
+      <c r="R675" t="n">
+        <v>69</v>
+      </c>
+      <c r="S675" t="n">
+        <v>70</v>
+      </c>
+      <c r="T675" t="n">
+        <v>71</v>
+      </c>
+      <c r="U675" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>11</v>
+      </c>
+      <c r="C676" t="n">
+        <v>17</v>
+      </c>
+      <c r="D676" t="n">
+        <v>26</v>
+      </c>
+      <c r="E676" t="n">
+        <v>27</v>
+      </c>
+      <c r="F676" t="n">
+        <v>31</v>
+      </c>
+      <c r="G676" t="n">
+        <v>32</v>
+      </c>
+      <c r="H676" t="n">
+        <v>38</v>
+      </c>
+      <c r="I676" t="n">
+        <v>39</v>
+      </c>
+      <c r="J676" t="n">
+        <v>40</v>
+      </c>
+      <c r="K676" t="n">
+        <v>42</v>
+      </c>
+      <c r="L676" t="n">
+        <v>47</v>
+      </c>
+      <c r="M676" t="n">
+        <v>52</v>
+      </c>
+      <c r="N676" t="n">
+        <v>56</v>
+      </c>
+      <c r="O676" t="n">
+        <v>58</v>
+      </c>
+      <c r="P676" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q676" t="n">
+        <v>64</v>
+      </c>
+      <c r="R676" t="n">
+        <v>66</v>
+      </c>
+      <c r="S676" t="n">
+        <v>73</v>
+      </c>
+      <c r="T676" t="n">
+        <v>74</v>
+      </c>
+      <c r="U676" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+      <c r="C677" t="n">
+        <v>4</v>
+      </c>
+      <c r="D677" t="n">
+        <v>6</v>
+      </c>
+      <c r="E677" t="n">
+        <v>8</v>
+      </c>
+      <c r="F677" t="n">
+        <v>10</v>
+      </c>
+      <c r="G677" t="n">
+        <v>14</v>
+      </c>
+      <c r="H677" t="n">
+        <v>16</v>
+      </c>
+      <c r="I677" t="n">
+        <v>24</v>
+      </c>
+      <c r="J677" t="n">
+        <v>31</v>
+      </c>
+      <c r="K677" t="n">
+        <v>38</v>
+      </c>
+      <c r="L677" t="n">
+        <v>40</v>
+      </c>
+      <c r="M677" t="n">
+        <v>41</v>
+      </c>
+      <c r="N677" t="n">
+        <v>42</v>
+      </c>
+      <c r="O677" t="n">
+        <v>49</v>
+      </c>
+      <c r="P677" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q677" t="n">
+        <v>59</v>
+      </c>
+      <c r="R677" t="n">
+        <v>63</v>
+      </c>
+      <c r="S677" t="n">
+        <v>65</v>
+      </c>
+      <c r="T677" t="n">
+        <v>74</v>
+      </c>
+      <c r="U677" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>15</v>
+      </c>
+      <c r="C678" t="n">
+        <v>16</v>
+      </c>
+      <c r="D678" t="n">
+        <v>18</v>
+      </c>
+      <c r="E678" t="n">
+        <v>32</v>
+      </c>
+      <c r="F678" t="n">
+        <v>33</v>
+      </c>
+      <c r="G678" t="n">
+        <v>34</v>
+      </c>
+      <c r="H678" t="n">
+        <v>36</v>
+      </c>
+      <c r="I678" t="n">
+        <v>37</v>
+      </c>
+      <c r="J678" t="n">
+        <v>40</v>
+      </c>
+      <c r="K678" t="n">
+        <v>47</v>
+      </c>
+      <c r="L678" t="n">
+        <v>50</v>
+      </c>
+      <c r="M678" t="n">
+        <v>51</v>
+      </c>
+      <c r="N678" t="n">
+        <v>52</v>
+      </c>
+      <c r="O678" t="n">
+        <v>60</v>
+      </c>
+      <c r="P678" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q678" t="n">
+        <v>64</v>
+      </c>
+      <c r="R678" t="n">
+        <v>67</v>
+      </c>
+      <c r="S678" t="n">
+        <v>71</v>
+      </c>
+      <c r="T678" t="n">
+        <v>75</v>
+      </c>
+      <c r="U678" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>4</v>
+      </c>
+      <c r="C679" t="n">
+        <v>12</v>
+      </c>
+      <c r="D679" t="n">
+        <v>13</v>
+      </c>
+      <c r="E679" t="n">
+        <v>18</v>
+      </c>
+      <c r="F679" t="n">
+        <v>19</v>
+      </c>
+      <c r="G679" t="n">
+        <v>22</v>
+      </c>
+      <c r="H679" t="n">
+        <v>27</v>
+      </c>
+      <c r="I679" t="n">
+        <v>29</v>
+      </c>
+      <c r="J679" t="n">
+        <v>33</v>
+      </c>
+      <c r="K679" t="n">
+        <v>34</v>
+      </c>
+      <c r="L679" t="n">
+        <v>40</v>
+      </c>
+      <c r="M679" t="n">
+        <v>44</v>
+      </c>
+      <c r="N679" t="n">
+        <v>47</v>
+      </c>
+      <c r="O679" t="n">
+        <v>56</v>
+      </c>
+      <c r="P679" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q679" t="n">
+        <v>62</v>
+      </c>
+      <c r="R679" t="n">
+        <v>66</v>
+      </c>
+      <c r="S679" t="n">
+        <v>67</v>
+      </c>
+      <c r="T679" t="n">
+        <v>71</v>
+      </c>
+      <c r="U679" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>7</v>
+      </c>
+      <c r="C680" t="n">
+        <v>8</v>
+      </c>
+      <c r="D680" t="n">
+        <v>17</v>
+      </c>
+      <c r="E680" t="n">
+        <v>18</v>
+      </c>
+      <c r="F680" t="n">
+        <v>21</v>
+      </c>
+      <c r="G680" t="n">
+        <v>27</v>
+      </c>
+      <c r="H680" t="n">
+        <v>28</v>
+      </c>
+      <c r="I680" t="n">
+        <v>29</v>
+      </c>
+      <c r="J680" t="n">
+        <v>30</v>
+      </c>
+      <c r="K680" t="n">
+        <v>32</v>
+      </c>
+      <c r="L680" t="n">
+        <v>33</v>
+      </c>
+      <c r="M680" t="n">
+        <v>35</v>
+      </c>
+      <c r="N680" t="n">
+        <v>38</v>
+      </c>
+      <c r="O680" t="n">
+        <v>42</v>
+      </c>
+      <c r="P680" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q680" t="n">
+        <v>69</v>
+      </c>
+      <c r="R680" t="n">
+        <v>71</v>
+      </c>
+      <c r="S680" t="n">
+        <v>74</v>
+      </c>
+      <c r="T680" t="n">
+        <v>77</v>
+      </c>
+      <c r="U680" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>3</v>
+      </c>
+      <c r="C681" t="n">
+        <v>7</v>
+      </c>
+      <c r="D681" t="n">
+        <v>11</v>
+      </c>
+      <c r="E681" t="n">
+        <v>15</v>
+      </c>
+      <c r="F681" t="n">
+        <v>20</v>
+      </c>
+      <c r="G681" t="n">
+        <v>22</v>
+      </c>
+      <c r="H681" t="n">
+        <v>26</v>
+      </c>
+      <c r="I681" t="n">
+        <v>30</v>
+      </c>
+      <c r="J681" t="n">
+        <v>34</v>
+      </c>
+      <c r="K681" t="n">
+        <v>35</v>
+      </c>
+      <c r="L681" t="n">
+        <v>36</v>
+      </c>
+      <c r="M681" t="n">
+        <v>38</v>
+      </c>
+      <c r="N681" t="n">
+        <v>39</v>
+      </c>
+      <c r="O681" t="n">
+        <v>54</v>
+      </c>
+      <c r="P681" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>57</v>
+      </c>
+      <c r="R681" t="n">
+        <v>61</v>
+      </c>
+      <c r="S681" t="n">
+        <v>67</v>
+      </c>
+      <c r="T681" t="n">
+        <v>72</v>
+      </c>
+      <c r="U681" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>7</v>
+      </c>
+      <c r="C682" t="n">
+        <v>8</v>
+      </c>
+      <c r="D682" t="n">
+        <v>9</v>
+      </c>
+      <c r="E682" t="n">
+        <v>10</v>
+      </c>
+      <c r="F682" t="n">
+        <v>13</v>
+      </c>
+      <c r="G682" t="n">
+        <v>14</v>
+      </c>
+      <c r="H682" t="n">
+        <v>27</v>
+      </c>
+      <c r="I682" t="n">
+        <v>29</v>
+      </c>
+      <c r="J682" t="n">
+        <v>30</v>
+      </c>
+      <c r="K682" t="n">
+        <v>32</v>
+      </c>
+      <c r="L682" t="n">
+        <v>41</v>
+      </c>
+      <c r="M682" t="n">
+        <v>47</v>
+      </c>
+      <c r="N682" t="n">
+        <v>51</v>
+      </c>
+      <c r="O682" t="n">
+        <v>58</v>
+      </c>
+      <c r="P682" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q682" t="n">
+        <v>66</v>
+      </c>
+      <c r="R682" t="n">
+        <v>69</v>
+      </c>
+      <c r="S682" t="n">
+        <v>72</v>
+      </c>
+      <c r="T682" t="n">
+        <v>73</v>
+      </c>
+      <c r="U682" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>6</v>
+      </c>
+      <c r="C683" t="n">
+        <v>7</v>
+      </c>
+      <c r="D683" t="n">
+        <v>12</v>
+      </c>
+      <c r="E683" t="n">
+        <v>20</v>
+      </c>
+      <c r="F683" t="n">
+        <v>23</v>
+      </c>
+      <c r="G683" t="n">
+        <v>25</v>
+      </c>
+      <c r="H683" t="n">
+        <v>33</v>
+      </c>
+      <c r="I683" t="n">
+        <v>35</v>
+      </c>
+      <c r="J683" t="n">
+        <v>49</v>
+      </c>
+      <c r="K683" t="n">
+        <v>53</v>
+      </c>
+      <c r="L683" t="n">
+        <v>56</v>
+      </c>
+      <c r="M683" t="n">
+        <v>59</v>
+      </c>
+      <c r="N683" t="n">
+        <v>61</v>
+      </c>
+      <c r="O683" t="n">
+        <v>62</v>
+      </c>
+      <c r="P683" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q683" t="n">
+        <v>69</v>
+      </c>
+      <c r="R683" t="n">
+        <v>71</v>
+      </c>
+      <c r="S683" t="n">
+        <v>77</v>
+      </c>
+      <c r="T683" t="n">
+        <v>78</v>
+      </c>
+      <c r="U683" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>7</v>
+      </c>
+      <c r="C684" t="n">
+        <v>8</v>
+      </c>
+      <c r="D684" t="n">
+        <v>12</v>
+      </c>
+      <c r="E684" t="n">
+        <v>20</v>
+      </c>
+      <c r="F684" t="n">
+        <v>26</v>
+      </c>
+      <c r="G684" t="n">
+        <v>27</v>
+      </c>
+      <c r="H684" t="n">
+        <v>31</v>
+      </c>
+      <c r="I684" t="n">
+        <v>34</v>
+      </c>
+      <c r="J684" t="n">
+        <v>36</v>
+      </c>
+      <c r="K684" t="n">
+        <v>38</v>
+      </c>
+      <c r="L684" t="n">
+        <v>41</v>
+      </c>
+      <c r="M684" t="n">
+        <v>52</v>
+      </c>
+      <c r="N684" t="n">
+        <v>53</v>
+      </c>
+      <c r="O684" t="n">
+        <v>55</v>
+      </c>
+      <c r="P684" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q684" t="n">
+        <v>60</v>
+      </c>
+      <c r="R684" t="n">
+        <v>63</v>
+      </c>
+      <c r="S684" t="n">
+        <v>65</v>
+      </c>
+      <c r="T684" t="n">
+        <v>78</v>
+      </c>
+      <c r="U684" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>3</v>
+      </c>
+      <c r="C685" t="n">
+        <v>6</v>
+      </c>
+      <c r="D685" t="n">
+        <v>13</v>
+      </c>
+      <c r="E685" t="n">
+        <v>19</v>
+      </c>
+      <c r="F685" t="n">
+        <v>21</v>
+      </c>
+      <c r="G685" t="n">
+        <v>22</v>
+      </c>
+      <c r="H685" t="n">
+        <v>25</v>
+      </c>
+      <c r="I685" t="n">
+        <v>29</v>
+      </c>
+      <c r="J685" t="n">
+        <v>39</v>
+      </c>
+      <c r="K685" t="n">
+        <v>40</v>
+      </c>
+      <c r="L685" t="n">
+        <v>45</v>
+      </c>
+      <c r="M685" t="n">
+        <v>47</v>
+      </c>
+      <c r="N685" t="n">
+        <v>60</v>
+      </c>
+      <c r="O685" t="n">
+        <v>61</v>
+      </c>
+      <c r="P685" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q685" t="n">
+        <v>67</v>
+      </c>
+      <c r="R685" t="n">
+        <v>70</v>
+      </c>
+      <c r="S685" t="n">
+        <v>75</v>
+      </c>
+      <c r="T685" t="n">
+        <v>76</v>
+      </c>
+      <c r="U685" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>2</v>
+      </c>
+      <c r="C686" t="n">
+        <v>4</v>
+      </c>
+      <c r="D686" t="n">
+        <v>27</v>
+      </c>
+      <c r="E686" t="n">
+        <v>31</v>
+      </c>
+      <c r="F686" t="n">
+        <v>38</v>
+      </c>
+      <c r="G686" t="n">
+        <v>39</v>
+      </c>
+      <c r="H686" t="n">
+        <v>40</v>
+      </c>
+      <c r="I686" t="n">
+        <v>45</v>
+      </c>
+      <c r="J686" t="n">
+        <v>49</v>
+      </c>
+      <c r="K686" t="n">
+        <v>53</v>
+      </c>
+      <c r="L686" t="n">
+        <v>58</v>
+      </c>
+      <c r="M686" t="n">
+        <v>61</v>
+      </c>
+      <c r="N686" t="n">
+        <v>63</v>
+      </c>
+      <c r="O686" t="n">
+        <v>65</v>
+      </c>
+      <c r="P686" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q686" t="n">
+        <v>69</v>
+      </c>
+      <c r="R686" t="n">
+        <v>70</v>
+      </c>
+      <c r="S686" t="n">
+        <v>72</v>
+      </c>
+      <c r="T686" t="n">
+        <v>74</v>
+      </c>
+      <c r="U686" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>4</v>
+      </c>
+      <c r="C687" t="n">
+        <v>7</v>
+      </c>
+      <c r="D687" t="n">
+        <v>11</v>
+      </c>
+      <c r="E687" t="n">
+        <v>18</v>
+      </c>
+      <c r="F687" t="n">
+        <v>19</v>
+      </c>
+      <c r="G687" t="n">
+        <v>32</v>
+      </c>
+      <c r="H687" t="n">
+        <v>37</v>
+      </c>
+      <c r="I687" t="n">
+        <v>45</v>
+      </c>
+      <c r="J687" t="n">
+        <v>51</v>
+      </c>
+      <c r="K687" t="n">
+        <v>56</v>
+      </c>
+      <c r="L687" t="n">
+        <v>57</v>
+      </c>
+      <c r="M687" t="n">
+        <v>59</v>
+      </c>
+      <c r="N687" t="n">
+        <v>62</v>
+      </c>
+      <c r="O687" t="n">
+        <v>63</v>
+      </c>
+      <c r="P687" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>67</v>
+      </c>
+      <c r="R687" t="n">
+        <v>71</v>
+      </c>
+      <c r="S687" t="n">
+        <v>74</v>
+      </c>
+      <c r="T687" t="n">
+        <v>78</v>
+      </c>
+      <c r="U687" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U687"/>
+  <dimension ref="A1:U839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45086,6 +45086,9886 @@
         <v>80</v>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>6</v>
+      </c>
+      <c r="C688" t="n">
+        <v>12</v>
+      </c>
+      <c r="D688" t="n">
+        <v>14</v>
+      </c>
+      <c r="E688" t="n">
+        <v>16</v>
+      </c>
+      <c r="F688" t="n">
+        <v>18</v>
+      </c>
+      <c r="G688" t="n">
+        <v>28</v>
+      </c>
+      <c r="H688" t="n">
+        <v>30</v>
+      </c>
+      <c r="I688" t="n">
+        <v>32</v>
+      </c>
+      <c r="J688" t="n">
+        <v>35</v>
+      </c>
+      <c r="K688" t="n">
+        <v>37</v>
+      </c>
+      <c r="L688" t="n">
+        <v>51</v>
+      </c>
+      <c r="M688" t="n">
+        <v>52</v>
+      </c>
+      <c r="N688" t="n">
+        <v>58</v>
+      </c>
+      <c r="O688" t="n">
+        <v>60</v>
+      </c>
+      <c r="P688" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q688" t="n">
+        <v>66</v>
+      </c>
+      <c r="R688" t="n">
+        <v>69</v>
+      </c>
+      <c r="S688" t="n">
+        <v>73</v>
+      </c>
+      <c r="T688" t="n">
+        <v>75</v>
+      </c>
+      <c r="U688" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>6</v>
+      </c>
+      <c r="C689" t="n">
+        <v>8</v>
+      </c>
+      <c r="D689" t="n">
+        <v>9</v>
+      </c>
+      <c r="E689" t="n">
+        <v>11</v>
+      </c>
+      <c r="F689" t="n">
+        <v>12</v>
+      </c>
+      <c r="G689" t="n">
+        <v>14</v>
+      </c>
+      <c r="H689" t="n">
+        <v>27</v>
+      </c>
+      <c r="I689" t="n">
+        <v>32</v>
+      </c>
+      <c r="J689" t="n">
+        <v>40</v>
+      </c>
+      <c r="K689" t="n">
+        <v>46</v>
+      </c>
+      <c r="L689" t="n">
+        <v>47</v>
+      </c>
+      <c r="M689" t="n">
+        <v>48</v>
+      </c>
+      <c r="N689" t="n">
+        <v>50</v>
+      </c>
+      <c r="O689" t="n">
+        <v>54</v>
+      </c>
+      <c r="P689" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q689" t="n">
+        <v>57</v>
+      </c>
+      <c r="R689" t="n">
+        <v>59</v>
+      </c>
+      <c r="S689" t="n">
+        <v>67</v>
+      </c>
+      <c r="T689" t="n">
+        <v>71</v>
+      </c>
+      <c r="U689" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>2</v>
+      </c>
+      <c r="C690" t="n">
+        <v>7</v>
+      </c>
+      <c r="D690" t="n">
+        <v>10</v>
+      </c>
+      <c r="E690" t="n">
+        <v>13</v>
+      </c>
+      <c r="F690" t="n">
+        <v>17</v>
+      </c>
+      <c r="G690" t="n">
+        <v>25</v>
+      </c>
+      <c r="H690" t="n">
+        <v>29</v>
+      </c>
+      <c r="I690" t="n">
+        <v>35</v>
+      </c>
+      <c r="J690" t="n">
+        <v>40</v>
+      </c>
+      <c r="K690" t="n">
+        <v>46</v>
+      </c>
+      <c r="L690" t="n">
+        <v>47</v>
+      </c>
+      <c r="M690" t="n">
+        <v>62</v>
+      </c>
+      <c r="N690" t="n">
+        <v>63</v>
+      </c>
+      <c r="O690" t="n">
+        <v>64</v>
+      </c>
+      <c r="P690" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q690" t="n">
+        <v>67</v>
+      </c>
+      <c r="R690" t="n">
+        <v>73</v>
+      </c>
+      <c r="S690" t="n">
+        <v>75</v>
+      </c>
+      <c r="T690" t="n">
+        <v>76</v>
+      </c>
+      <c r="U690" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>6</v>
+      </c>
+      <c r="C691" t="n">
+        <v>12</v>
+      </c>
+      <c r="D691" t="n">
+        <v>14</v>
+      </c>
+      <c r="E691" t="n">
+        <v>15</v>
+      </c>
+      <c r="F691" t="n">
+        <v>20</v>
+      </c>
+      <c r="G691" t="n">
+        <v>32</v>
+      </c>
+      <c r="H691" t="n">
+        <v>38</v>
+      </c>
+      <c r="I691" t="n">
+        <v>40</v>
+      </c>
+      <c r="J691" t="n">
+        <v>42</v>
+      </c>
+      <c r="K691" t="n">
+        <v>50</v>
+      </c>
+      <c r="L691" t="n">
+        <v>55</v>
+      </c>
+      <c r="M691" t="n">
+        <v>57</v>
+      </c>
+      <c r="N691" t="n">
+        <v>59</v>
+      </c>
+      <c r="O691" t="n">
+        <v>60</v>
+      </c>
+      <c r="P691" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q691" t="n">
+        <v>65</v>
+      </c>
+      <c r="R691" t="n">
+        <v>69</v>
+      </c>
+      <c r="S691" t="n">
+        <v>71</v>
+      </c>
+      <c r="T691" t="n">
+        <v>74</v>
+      </c>
+      <c r="U691" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>8</v>
+      </c>
+      <c r="C692" t="n">
+        <v>10</v>
+      </c>
+      <c r="D692" t="n">
+        <v>11</v>
+      </c>
+      <c r="E692" t="n">
+        <v>20</v>
+      </c>
+      <c r="F692" t="n">
+        <v>23</v>
+      </c>
+      <c r="G692" t="n">
+        <v>29</v>
+      </c>
+      <c r="H692" t="n">
+        <v>35</v>
+      </c>
+      <c r="I692" t="n">
+        <v>36</v>
+      </c>
+      <c r="J692" t="n">
+        <v>37</v>
+      </c>
+      <c r="K692" t="n">
+        <v>38</v>
+      </c>
+      <c r="L692" t="n">
+        <v>48</v>
+      </c>
+      <c r="M692" t="n">
+        <v>58</v>
+      </c>
+      <c r="N692" t="n">
+        <v>63</v>
+      </c>
+      <c r="O692" t="n">
+        <v>64</v>
+      </c>
+      <c r="P692" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q692" t="n">
+        <v>71</v>
+      </c>
+      <c r="R692" t="n">
+        <v>73</v>
+      </c>
+      <c r="S692" t="n">
+        <v>74</v>
+      </c>
+      <c r="T692" t="n">
+        <v>75</v>
+      </c>
+      <c r="U692" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>2</v>
+      </c>
+      <c r="C693" t="n">
+        <v>6</v>
+      </c>
+      <c r="D693" t="n">
+        <v>15</v>
+      </c>
+      <c r="E693" t="n">
+        <v>18</v>
+      </c>
+      <c r="F693" t="n">
+        <v>19</v>
+      </c>
+      <c r="G693" t="n">
+        <v>25</v>
+      </c>
+      <c r="H693" t="n">
+        <v>26</v>
+      </c>
+      <c r="I693" t="n">
+        <v>30</v>
+      </c>
+      <c r="J693" t="n">
+        <v>33</v>
+      </c>
+      <c r="K693" t="n">
+        <v>45</v>
+      </c>
+      <c r="L693" t="n">
+        <v>51</v>
+      </c>
+      <c r="M693" t="n">
+        <v>52</v>
+      </c>
+      <c r="N693" t="n">
+        <v>53</v>
+      </c>
+      <c r="O693" t="n">
+        <v>58</v>
+      </c>
+      <c r="P693" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q693" t="n">
+        <v>63</v>
+      </c>
+      <c r="R693" t="n">
+        <v>67</v>
+      </c>
+      <c r="S693" t="n">
+        <v>68</v>
+      </c>
+      <c r="T693" t="n">
+        <v>71</v>
+      </c>
+      <c r="U693" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>2</v>
+      </c>
+      <c r="C694" t="n">
+        <v>4</v>
+      </c>
+      <c r="D694" t="n">
+        <v>5</v>
+      </c>
+      <c r="E694" t="n">
+        <v>8</v>
+      </c>
+      <c r="F694" t="n">
+        <v>9</v>
+      </c>
+      <c r="G694" t="n">
+        <v>12</v>
+      </c>
+      <c r="H694" t="n">
+        <v>26</v>
+      </c>
+      <c r="I694" t="n">
+        <v>30</v>
+      </c>
+      <c r="J694" t="n">
+        <v>33</v>
+      </c>
+      <c r="K694" t="n">
+        <v>36</v>
+      </c>
+      <c r="L694" t="n">
+        <v>42</v>
+      </c>
+      <c r="M694" t="n">
+        <v>44</v>
+      </c>
+      <c r="N694" t="n">
+        <v>46</v>
+      </c>
+      <c r="O694" t="n">
+        <v>58</v>
+      </c>
+      <c r="P694" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q694" t="n">
+        <v>66</v>
+      </c>
+      <c r="R694" t="n">
+        <v>68</v>
+      </c>
+      <c r="S694" t="n">
+        <v>72</v>
+      </c>
+      <c r="T694" t="n">
+        <v>76</v>
+      </c>
+      <c r="U694" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>5</v>
+      </c>
+      <c r="C695" t="n">
+        <v>11</v>
+      </c>
+      <c r="D695" t="n">
+        <v>12</v>
+      </c>
+      <c r="E695" t="n">
+        <v>15</v>
+      </c>
+      <c r="F695" t="n">
+        <v>22</v>
+      </c>
+      <c r="G695" t="n">
+        <v>26</v>
+      </c>
+      <c r="H695" t="n">
+        <v>32</v>
+      </c>
+      <c r="I695" t="n">
+        <v>39</v>
+      </c>
+      <c r="J695" t="n">
+        <v>40</v>
+      </c>
+      <c r="K695" t="n">
+        <v>51</v>
+      </c>
+      <c r="L695" t="n">
+        <v>54</v>
+      </c>
+      <c r="M695" t="n">
+        <v>57</v>
+      </c>
+      <c r="N695" t="n">
+        <v>60</v>
+      </c>
+      <c r="O695" t="n">
+        <v>65</v>
+      </c>
+      <c r="P695" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q695" t="n">
+        <v>67</v>
+      </c>
+      <c r="R695" t="n">
+        <v>68</v>
+      </c>
+      <c r="S695" t="n">
+        <v>69</v>
+      </c>
+      <c r="T695" t="n">
+        <v>73</v>
+      </c>
+      <c r="U695" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3</v>
+      </c>
+      <c r="D696" t="n">
+        <v>7</v>
+      </c>
+      <c r="E696" t="n">
+        <v>9</v>
+      </c>
+      <c r="F696" t="n">
+        <v>12</v>
+      </c>
+      <c r="G696" t="n">
+        <v>16</v>
+      </c>
+      <c r="H696" t="n">
+        <v>19</v>
+      </c>
+      <c r="I696" t="n">
+        <v>25</v>
+      </c>
+      <c r="J696" t="n">
+        <v>29</v>
+      </c>
+      <c r="K696" t="n">
+        <v>31</v>
+      </c>
+      <c r="L696" t="n">
+        <v>42</v>
+      </c>
+      <c r="M696" t="n">
+        <v>48</v>
+      </c>
+      <c r="N696" t="n">
+        <v>51</v>
+      </c>
+      <c r="O696" t="n">
+        <v>54</v>
+      </c>
+      <c r="P696" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q696" t="n">
+        <v>58</v>
+      </c>
+      <c r="R696" t="n">
+        <v>60</v>
+      </c>
+      <c r="S696" t="n">
+        <v>61</v>
+      </c>
+      <c r="T696" t="n">
+        <v>70</v>
+      </c>
+      <c r="U696" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>2</v>
+      </c>
+      <c r="C697" t="n">
+        <v>7</v>
+      </c>
+      <c r="D697" t="n">
+        <v>14</v>
+      </c>
+      <c r="E697" t="n">
+        <v>19</v>
+      </c>
+      <c r="F697" t="n">
+        <v>23</v>
+      </c>
+      <c r="G697" t="n">
+        <v>25</v>
+      </c>
+      <c r="H697" t="n">
+        <v>27</v>
+      </c>
+      <c r="I697" t="n">
+        <v>30</v>
+      </c>
+      <c r="J697" t="n">
+        <v>33</v>
+      </c>
+      <c r="K697" t="n">
+        <v>34</v>
+      </c>
+      <c r="L697" t="n">
+        <v>45</v>
+      </c>
+      <c r="M697" t="n">
+        <v>47</v>
+      </c>
+      <c r="N697" t="n">
+        <v>50</v>
+      </c>
+      <c r="O697" t="n">
+        <v>54</v>
+      </c>
+      <c r="P697" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q697" t="n">
+        <v>68</v>
+      </c>
+      <c r="R697" t="n">
+        <v>70</v>
+      </c>
+      <c r="S697" t="n">
+        <v>71</v>
+      </c>
+      <c r="T697" t="n">
+        <v>72</v>
+      </c>
+      <c r="U697" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>2</v>
+      </c>
+      <c r="C698" t="n">
+        <v>4</v>
+      </c>
+      <c r="D698" t="n">
+        <v>7</v>
+      </c>
+      <c r="E698" t="n">
+        <v>11</v>
+      </c>
+      <c r="F698" t="n">
+        <v>12</v>
+      </c>
+      <c r="G698" t="n">
+        <v>23</v>
+      </c>
+      <c r="H698" t="n">
+        <v>25</v>
+      </c>
+      <c r="I698" t="n">
+        <v>27</v>
+      </c>
+      <c r="J698" t="n">
+        <v>28</v>
+      </c>
+      <c r="K698" t="n">
+        <v>30</v>
+      </c>
+      <c r="L698" t="n">
+        <v>33</v>
+      </c>
+      <c r="M698" t="n">
+        <v>34</v>
+      </c>
+      <c r="N698" t="n">
+        <v>41</v>
+      </c>
+      <c r="O698" t="n">
+        <v>48</v>
+      </c>
+      <c r="P698" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q698" t="n">
+        <v>54</v>
+      </c>
+      <c r="R698" t="n">
+        <v>60</v>
+      </c>
+      <c r="S698" t="n">
+        <v>64</v>
+      </c>
+      <c r="T698" t="n">
+        <v>78</v>
+      </c>
+      <c r="U698" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>3</v>
+      </c>
+      <c r="C699" t="n">
+        <v>4</v>
+      </c>
+      <c r="D699" t="n">
+        <v>8</v>
+      </c>
+      <c r="E699" t="n">
+        <v>16</v>
+      </c>
+      <c r="F699" t="n">
+        <v>17</v>
+      </c>
+      <c r="G699" t="n">
+        <v>18</v>
+      </c>
+      <c r="H699" t="n">
+        <v>29</v>
+      </c>
+      <c r="I699" t="n">
+        <v>34</v>
+      </c>
+      <c r="J699" t="n">
+        <v>35</v>
+      </c>
+      <c r="K699" t="n">
+        <v>43</v>
+      </c>
+      <c r="L699" t="n">
+        <v>46</v>
+      </c>
+      <c r="M699" t="n">
+        <v>48</v>
+      </c>
+      <c r="N699" t="n">
+        <v>50</v>
+      </c>
+      <c r="O699" t="n">
+        <v>52</v>
+      </c>
+      <c r="P699" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q699" t="n">
+        <v>69</v>
+      </c>
+      <c r="R699" t="n">
+        <v>73</v>
+      </c>
+      <c r="S699" t="n">
+        <v>74</v>
+      </c>
+      <c r="T699" t="n">
+        <v>78</v>
+      </c>
+      <c r="U699" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>9</v>
+      </c>
+      <c r="C700" t="n">
+        <v>10</v>
+      </c>
+      <c r="D700" t="n">
+        <v>18</v>
+      </c>
+      <c r="E700" t="n">
+        <v>23</v>
+      </c>
+      <c r="F700" t="n">
+        <v>24</v>
+      </c>
+      <c r="G700" t="n">
+        <v>28</v>
+      </c>
+      <c r="H700" t="n">
+        <v>29</v>
+      </c>
+      <c r="I700" t="n">
+        <v>31</v>
+      </c>
+      <c r="J700" t="n">
+        <v>35</v>
+      </c>
+      <c r="K700" t="n">
+        <v>37</v>
+      </c>
+      <c r="L700" t="n">
+        <v>40</v>
+      </c>
+      <c r="M700" t="n">
+        <v>41</v>
+      </c>
+      <c r="N700" t="n">
+        <v>51</v>
+      </c>
+      <c r="O700" t="n">
+        <v>52</v>
+      </c>
+      <c r="P700" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q700" t="n">
+        <v>64</v>
+      </c>
+      <c r="R700" t="n">
+        <v>65</v>
+      </c>
+      <c r="S700" t="n">
+        <v>66</v>
+      </c>
+      <c r="T700" t="n">
+        <v>76</v>
+      </c>
+      <c r="U700" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+      <c r="C701" t="n">
+        <v>4</v>
+      </c>
+      <c r="D701" t="n">
+        <v>6</v>
+      </c>
+      <c r="E701" t="n">
+        <v>16</v>
+      </c>
+      <c r="F701" t="n">
+        <v>18</v>
+      </c>
+      <c r="G701" t="n">
+        <v>31</v>
+      </c>
+      <c r="H701" t="n">
+        <v>33</v>
+      </c>
+      <c r="I701" t="n">
+        <v>34</v>
+      </c>
+      <c r="J701" t="n">
+        <v>35</v>
+      </c>
+      <c r="K701" t="n">
+        <v>38</v>
+      </c>
+      <c r="L701" t="n">
+        <v>45</v>
+      </c>
+      <c r="M701" t="n">
+        <v>47</v>
+      </c>
+      <c r="N701" t="n">
+        <v>48</v>
+      </c>
+      <c r="O701" t="n">
+        <v>51</v>
+      </c>
+      <c r="P701" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q701" t="n">
+        <v>54</v>
+      </c>
+      <c r="R701" t="n">
+        <v>60</v>
+      </c>
+      <c r="S701" t="n">
+        <v>71</v>
+      </c>
+      <c r="T701" t="n">
+        <v>75</v>
+      </c>
+      <c r="U701" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>2</v>
+      </c>
+      <c r="C702" t="n">
+        <v>4</v>
+      </c>
+      <c r="D702" t="n">
+        <v>11</v>
+      </c>
+      <c r="E702" t="n">
+        <v>19</v>
+      </c>
+      <c r="F702" t="n">
+        <v>24</v>
+      </c>
+      <c r="G702" t="n">
+        <v>25</v>
+      </c>
+      <c r="H702" t="n">
+        <v>35</v>
+      </c>
+      <c r="I702" t="n">
+        <v>44</v>
+      </c>
+      <c r="J702" t="n">
+        <v>45</v>
+      </c>
+      <c r="K702" t="n">
+        <v>50</v>
+      </c>
+      <c r="L702" t="n">
+        <v>55</v>
+      </c>
+      <c r="M702" t="n">
+        <v>56</v>
+      </c>
+      <c r="N702" t="n">
+        <v>58</v>
+      </c>
+      <c r="O702" t="n">
+        <v>60</v>
+      </c>
+      <c r="P702" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q702" t="n">
+        <v>63</v>
+      </c>
+      <c r="R702" t="n">
+        <v>67</v>
+      </c>
+      <c r="S702" t="n">
+        <v>71</v>
+      </c>
+      <c r="T702" t="n">
+        <v>78</v>
+      </c>
+      <c r="U702" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>2</v>
+      </c>
+      <c r="C703" t="n">
+        <v>7</v>
+      </c>
+      <c r="D703" t="n">
+        <v>21</v>
+      </c>
+      <c r="E703" t="n">
+        <v>22</v>
+      </c>
+      <c r="F703" t="n">
+        <v>23</v>
+      </c>
+      <c r="G703" t="n">
+        <v>29</v>
+      </c>
+      <c r="H703" t="n">
+        <v>38</v>
+      </c>
+      <c r="I703" t="n">
+        <v>39</v>
+      </c>
+      <c r="J703" t="n">
+        <v>40</v>
+      </c>
+      <c r="K703" t="n">
+        <v>42</v>
+      </c>
+      <c r="L703" t="n">
+        <v>47</v>
+      </c>
+      <c r="M703" t="n">
+        <v>50</v>
+      </c>
+      <c r="N703" t="n">
+        <v>52</v>
+      </c>
+      <c r="O703" t="n">
+        <v>58</v>
+      </c>
+      <c r="P703" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q703" t="n">
+        <v>63</v>
+      </c>
+      <c r="R703" t="n">
+        <v>64</v>
+      </c>
+      <c r="S703" t="n">
+        <v>66</v>
+      </c>
+      <c r="T703" t="n">
+        <v>71</v>
+      </c>
+      <c r="U703" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>3</v>
+      </c>
+      <c r="C704" t="n">
+        <v>11</v>
+      </c>
+      <c r="D704" t="n">
+        <v>14</v>
+      </c>
+      <c r="E704" t="n">
+        <v>15</v>
+      </c>
+      <c r="F704" t="n">
+        <v>20</v>
+      </c>
+      <c r="G704" t="n">
+        <v>24</v>
+      </c>
+      <c r="H704" t="n">
+        <v>25</v>
+      </c>
+      <c r="I704" t="n">
+        <v>26</v>
+      </c>
+      <c r="J704" t="n">
+        <v>36</v>
+      </c>
+      <c r="K704" t="n">
+        <v>38</v>
+      </c>
+      <c r="L704" t="n">
+        <v>40</v>
+      </c>
+      <c r="M704" t="n">
+        <v>42</v>
+      </c>
+      <c r="N704" t="n">
+        <v>48</v>
+      </c>
+      <c r="O704" t="n">
+        <v>50</v>
+      </c>
+      <c r="P704" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q704" t="n">
+        <v>53</v>
+      </c>
+      <c r="R704" t="n">
+        <v>61</v>
+      </c>
+      <c r="S704" t="n">
+        <v>65</v>
+      </c>
+      <c r="T704" t="n">
+        <v>67</v>
+      </c>
+      <c r="U704" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+      <c r="C705" t="n">
+        <v>5</v>
+      </c>
+      <c r="D705" t="n">
+        <v>12</v>
+      </c>
+      <c r="E705" t="n">
+        <v>13</v>
+      </c>
+      <c r="F705" t="n">
+        <v>19</v>
+      </c>
+      <c r="G705" t="n">
+        <v>20</v>
+      </c>
+      <c r="H705" t="n">
+        <v>22</v>
+      </c>
+      <c r="I705" t="n">
+        <v>25</v>
+      </c>
+      <c r="J705" t="n">
+        <v>39</v>
+      </c>
+      <c r="K705" t="n">
+        <v>42</v>
+      </c>
+      <c r="L705" t="n">
+        <v>44</v>
+      </c>
+      <c r="M705" t="n">
+        <v>47</v>
+      </c>
+      <c r="N705" t="n">
+        <v>51</v>
+      </c>
+      <c r="O705" t="n">
+        <v>55</v>
+      </c>
+      <c r="P705" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q705" t="n">
+        <v>60</v>
+      </c>
+      <c r="R705" t="n">
+        <v>68</v>
+      </c>
+      <c r="S705" t="n">
+        <v>72</v>
+      </c>
+      <c r="T705" t="n">
+        <v>75</v>
+      </c>
+      <c r="U705" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>3</v>
+      </c>
+      <c r="C706" t="n">
+        <v>6</v>
+      </c>
+      <c r="D706" t="n">
+        <v>18</v>
+      </c>
+      <c r="E706" t="n">
+        <v>19</v>
+      </c>
+      <c r="F706" t="n">
+        <v>21</v>
+      </c>
+      <c r="G706" t="n">
+        <v>24</v>
+      </c>
+      <c r="H706" t="n">
+        <v>28</v>
+      </c>
+      <c r="I706" t="n">
+        <v>30</v>
+      </c>
+      <c r="J706" t="n">
+        <v>39</v>
+      </c>
+      <c r="K706" t="n">
+        <v>43</v>
+      </c>
+      <c r="L706" t="n">
+        <v>49</v>
+      </c>
+      <c r="M706" t="n">
+        <v>52</v>
+      </c>
+      <c r="N706" t="n">
+        <v>56</v>
+      </c>
+      <c r="O706" t="n">
+        <v>60</v>
+      </c>
+      <c r="P706" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q706" t="n">
+        <v>67</v>
+      </c>
+      <c r="R706" t="n">
+        <v>68</v>
+      </c>
+      <c r="S706" t="n">
+        <v>70</v>
+      </c>
+      <c r="T706" t="n">
+        <v>74</v>
+      </c>
+      <c r="U706" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>2</v>
+      </c>
+      <c r="C707" t="n">
+        <v>4</v>
+      </c>
+      <c r="D707" t="n">
+        <v>8</v>
+      </c>
+      <c r="E707" t="n">
+        <v>9</v>
+      </c>
+      <c r="F707" t="n">
+        <v>12</v>
+      </c>
+      <c r="G707" t="n">
+        <v>16</v>
+      </c>
+      <c r="H707" t="n">
+        <v>17</v>
+      </c>
+      <c r="I707" t="n">
+        <v>21</v>
+      </c>
+      <c r="J707" t="n">
+        <v>24</v>
+      </c>
+      <c r="K707" t="n">
+        <v>25</v>
+      </c>
+      <c r="L707" t="n">
+        <v>28</v>
+      </c>
+      <c r="M707" t="n">
+        <v>37</v>
+      </c>
+      <c r="N707" t="n">
+        <v>39</v>
+      </c>
+      <c r="O707" t="n">
+        <v>40</v>
+      </c>
+      <c r="P707" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q707" t="n">
+        <v>74</v>
+      </c>
+      <c r="R707" t="n">
+        <v>75</v>
+      </c>
+      <c r="S707" t="n">
+        <v>77</v>
+      </c>
+      <c r="T707" t="n">
+        <v>78</v>
+      </c>
+      <c r="U707" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>4</v>
+      </c>
+      <c r="C708" t="n">
+        <v>7</v>
+      </c>
+      <c r="D708" t="n">
+        <v>9</v>
+      </c>
+      <c r="E708" t="n">
+        <v>12</v>
+      </c>
+      <c r="F708" t="n">
+        <v>15</v>
+      </c>
+      <c r="G708" t="n">
+        <v>18</v>
+      </c>
+      <c r="H708" t="n">
+        <v>20</v>
+      </c>
+      <c r="I708" t="n">
+        <v>24</v>
+      </c>
+      <c r="J708" t="n">
+        <v>25</v>
+      </c>
+      <c r="K708" t="n">
+        <v>29</v>
+      </c>
+      <c r="L708" t="n">
+        <v>32</v>
+      </c>
+      <c r="M708" t="n">
+        <v>34</v>
+      </c>
+      <c r="N708" t="n">
+        <v>37</v>
+      </c>
+      <c r="O708" t="n">
+        <v>42</v>
+      </c>
+      <c r="P708" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q708" t="n">
+        <v>55</v>
+      </c>
+      <c r="R708" t="n">
+        <v>60</v>
+      </c>
+      <c r="S708" t="n">
+        <v>70</v>
+      </c>
+      <c r="T708" t="n">
+        <v>72</v>
+      </c>
+      <c r="U708" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>6</v>
+      </c>
+      <c r="C709" t="n">
+        <v>7</v>
+      </c>
+      <c r="D709" t="n">
+        <v>8</v>
+      </c>
+      <c r="E709" t="n">
+        <v>14</v>
+      </c>
+      <c r="F709" t="n">
+        <v>19</v>
+      </c>
+      <c r="G709" t="n">
+        <v>30</v>
+      </c>
+      <c r="H709" t="n">
+        <v>31</v>
+      </c>
+      <c r="I709" t="n">
+        <v>39</v>
+      </c>
+      <c r="J709" t="n">
+        <v>45</v>
+      </c>
+      <c r="K709" t="n">
+        <v>46</v>
+      </c>
+      <c r="L709" t="n">
+        <v>47</v>
+      </c>
+      <c r="M709" t="n">
+        <v>53</v>
+      </c>
+      <c r="N709" t="n">
+        <v>55</v>
+      </c>
+      <c r="O709" t="n">
+        <v>57</v>
+      </c>
+      <c r="P709" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q709" t="n">
+        <v>64</v>
+      </c>
+      <c r="R709" t="n">
+        <v>68</v>
+      </c>
+      <c r="S709" t="n">
+        <v>69</v>
+      </c>
+      <c r="T709" t="n">
+        <v>71</v>
+      </c>
+      <c r="U709" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>7</v>
+      </c>
+      <c r="C710" t="n">
+        <v>9</v>
+      </c>
+      <c r="D710" t="n">
+        <v>12</v>
+      </c>
+      <c r="E710" t="n">
+        <v>16</v>
+      </c>
+      <c r="F710" t="n">
+        <v>21</v>
+      </c>
+      <c r="G710" t="n">
+        <v>31</v>
+      </c>
+      <c r="H710" t="n">
+        <v>32</v>
+      </c>
+      <c r="I710" t="n">
+        <v>33</v>
+      </c>
+      <c r="J710" t="n">
+        <v>36</v>
+      </c>
+      <c r="K710" t="n">
+        <v>38</v>
+      </c>
+      <c r="L710" t="n">
+        <v>43</v>
+      </c>
+      <c r="M710" t="n">
+        <v>50</v>
+      </c>
+      <c r="N710" t="n">
+        <v>51</v>
+      </c>
+      <c r="O710" t="n">
+        <v>54</v>
+      </c>
+      <c r="P710" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q710" t="n">
+        <v>67</v>
+      </c>
+      <c r="R710" t="n">
+        <v>69</v>
+      </c>
+      <c r="S710" t="n">
+        <v>71</v>
+      </c>
+      <c r="T710" t="n">
+        <v>74</v>
+      </c>
+      <c r="U710" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>3</v>
+      </c>
+      <c r="C711" t="n">
+        <v>4</v>
+      </c>
+      <c r="D711" t="n">
+        <v>15</v>
+      </c>
+      <c r="E711" t="n">
+        <v>16</v>
+      </c>
+      <c r="F711" t="n">
+        <v>19</v>
+      </c>
+      <c r="G711" t="n">
+        <v>22</v>
+      </c>
+      <c r="H711" t="n">
+        <v>23</v>
+      </c>
+      <c r="I711" t="n">
+        <v>27</v>
+      </c>
+      <c r="J711" t="n">
+        <v>30</v>
+      </c>
+      <c r="K711" t="n">
+        <v>35</v>
+      </c>
+      <c r="L711" t="n">
+        <v>51</v>
+      </c>
+      <c r="M711" t="n">
+        <v>55</v>
+      </c>
+      <c r="N711" t="n">
+        <v>57</v>
+      </c>
+      <c r="O711" t="n">
+        <v>60</v>
+      </c>
+      <c r="P711" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>63</v>
+      </c>
+      <c r="R711" t="n">
+        <v>67</v>
+      </c>
+      <c r="S711" t="n">
+        <v>71</v>
+      </c>
+      <c r="T711" t="n">
+        <v>72</v>
+      </c>
+      <c r="U711" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>2</v>
+      </c>
+      <c r="C712" t="n">
+        <v>7</v>
+      </c>
+      <c r="D712" t="n">
+        <v>10</v>
+      </c>
+      <c r="E712" t="n">
+        <v>12</v>
+      </c>
+      <c r="F712" t="n">
+        <v>18</v>
+      </c>
+      <c r="G712" t="n">
+        <v>27</v>
+      </c>
+      <c r="H712" t="n">
+        <v>34</v>
+      </c>
+      <c r="I712" t="n">
+        <v>35</v>
+      </c>
+      <c r="J712" t="n">
+        <v>36</v>
+      </c>
+      <c r="K712" t="n">
+        <v>44</v>
+      </c>
+      <c r="L712" t="n">
+        <v>45</v>
+      </c>
+      <c r="M712" t="n">
+        <v>49</v>
+      </c>
+      <c r="N712" t="n">
+        <v>52</v>
+      </c>
+      <c r="O712" t="n">
+        <v>59</v>
+      </c>
+      <c r="P712" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>61</v>
+      </c>
+      <c r="R712" t="n">
+        <v>66</v>
+      </c>
+      <c r="S712" t="n">
+        <v>67</v>
+      </c>
+      <c r="T712" t="n">
+        <v>71</v>
+      </c>
+      <c r="U712" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>6</v>
+      </c>
+      <c r="C713" t="n">
+        <v>7</v>
+      </c>
+      <c r="D713" t="n">
+        <v>10</v>
+      </c>
+      <c r="E713" t="n">
+        <v>17</v>
+      </c>
+      <c r="F713" t="n">
+        <v>21</v>
+      </c>
+      <c r="G713" t="n">
+        <v>24</v>
+      </c>
+      <c r="H713" t="n">
+        <v>30</v>
+      </c>
+      <c r="I713" t="n">
+        <v>31</v>
+      </c>
+      <c r="J713" t="n">
+        <v>39</v>
+      </c>
+      <c r="K713" t="n">
+        <v>42</v>
+      </c>
+      <c r="L713" t="n">
+        <v>46</v>
+      </c>
+      <c r="M713" t="n">
+        <v>49</v>
+      </c>
+      <c r="N713" t="n">
+        <v>53</v>
+      </c>
+      <c r="O713" t="n">
+        <v>60</v>
+      </c>
+      <c r="P713" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>63</v>
+      </c>
+      <c r="R713" t="n">
+        <v>64</v>
+      </c>
+      <c r="S713" t="n">
+        <v>66</v>
+      </c>
+      <c r="T713" t="n">
+        <v>67</v>
+      </c>
+      <c r="U713" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>6</v>
+      </c>
+      <c r="C714" t="n">
+        <v>8</v>
+      </c>
+      <c r="D714" t="n">
+        <v>9</v>
+      </c>
+      <c r="E714" t="n">
+        <v>17</v>
+      </c>
+      <c r="F714" t="n">
+        <v>20</v>
+      </c>
+      <c r="G714" t="n">
+        <v>22</v>
+      </c>
+      <c r="H714" t="n">
+        <v>25</v>
+      </c>
+      <c r="I714" t="n">
+        <v>26</v>
+      </c>
+      <c r="J714" t="n">
+        <v>41</v>
+      </c>
+      <c r="K714" t="n">
+        <v>42</v>
+      </c>
+      <c r="L714" t="n">
+        <v>49</v>
+      </c>
+      <c r="M714" t="n">
+        <v>56</v>
+      </c>
+      <c r="N714" t="n">
+        <v>62</v>
+      </c>
+      <c r="O714" t="n">
+        <v>64</v>
+      </c>
+      <c r="P714" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>68</v>
+      </c>
+      <c r="R714" t="n">
+        <v>69</v>
+      </c>
+      <c r="S714" t="n">
+        <v>71</v>
+      </c>
+      <c r="T714" t="n">
+        <v>73</v>
+      </c>
+      <c r="U714" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>6</v>
+      </c>
+      <c r="C715" t="n">
+        <v>12</v>
+      </c>
+      <c r="D715" t="n">
+        <v>16</v>
+      </c>
+      <c r="E715" t="n">
+        <v>17</v>
+      </c>
+      <c r="F715" t="n">
+        <v>20</v>
+      </c>
+      <c r="G715" t="n">
+        <v>27</v>
+      </c>
+      <c r="H715" t="n">
+        <v>32</v>
+      </c>
+      <c r="I715" t="n">
+        <v>33</v>
+      </c>
+      <c r="J715" t="n">
+        <v>34</v>
+      </c>
+      <c r="K715" t="n">
+        <v>35</v>
+      </c>
+      <c r="L715" t="n">
+        <v>39</v>
+      </c>
+      <c r="M715" t="n">
+        <v>43</v>
+      </c>
+      <c r="N715" t="n">
+        <v>49</v>
+      </c>
+      <c r="O715" t="n">
+        <v>50</v>
+      </c>
+      <c r="P715" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>58</v>
+      </c>
+      <c r="R715" t="n">
+        <v>61</v>
+      </c>
+      <c r="S715" t="n">
+        <v>66</v>
+      </c>
+      <c r="T715" t="n">
+        <v>67</v>
+      </c>
+      <c r="U715" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+      <c r="C716" t="n">
+        <v>4</v>
+      </c>
+      <c r="D716" t="n">
+        <v>10</v>
+      </c>
+      <c r="E716" t="n">
+        <v>12</v>
+      </c>
+      <c r="F716" t="n">
+        <v>15</v>
+      </c>
+      <c r="G716" t="n">
+        <v>18</v>
+      </c>
+      <c r="H716" t="n">
+        <v>19</v>
+      </c>
+      <c r="I716" t="n">
+        <v>20</v>
+      </c>
+      <c r="J716" t="n">
+        <v>29</v>
+      </c>
+      <c r="K716" t="n">
+        <v>40</v>
+      </c>
+      <c r="L716" t="n">
+        <v>42</v>
+      </c>
+      <c r="M716" t="n">
+        <v>43</v>
+      </c>
+      <c r="N716" t="n">
+        <v>44</v>
+      </c>
+      <c r="O716" t="n">
+        <v>47</v>
+      </c>
+      <c r="P716" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>52</v>
+      </c>
+      <c r="R716" t="n">
+        <v>57</v>
+      </c>
+      <c r="S716" t="n">
+        <v>62</v>
+      </c>
+      <c r="T716" t="n">
+        <v>64</v>
+      </c>
+      <c r="U716" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>8</v>
+      </c>
+      <c r="C717" t="n">
+        <v>9</v>
+      </c>
+      <c r="D717" t="n">
+        <v>10</v>
+      </c>
+      <c r="E717" t="n">
+        <v>13</v>
+      </c>
+      <c r="F717" t="n">
+        <v>20</v>
+      </c>
+      <c r="G717" t="n">
+        <v>28</v>
+      </c>
+      <c r="H717" t="n">
+        <v>31</v>
+      </c>
+      <c r="I717" t="n">
+        <v>32</v>
+      </c>
+      <c r="J717" t="n">
+        <v>38</v>
+      </c>
+      <c r="K717" t="n">
+        <v>39</v>
+      </c>
+      <c r="L717" t="n">
+        <v>42</v>
+      </c>
+      <c r="M717" t="n">
+        <v>43</v>
+      </c>
+      <c r="N717" t="n">
+        <v>47</v>
+      </c>
+      <c r="O717" t="n">
+        <v>53</v>
+      </c>
+      <c r="P717" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>60</v>
+      </c>
+      <c r="R717" t="n">
+        <v>66</v>
+      </c>
+      <c r="S717" t="n">
+        <v>70</v>
+      </c>
+      <c r="T717" t="n">
+        <v>72</v>
+      </c>
+      <c r="U717" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>3</v>
+      </c>
+      <c r="C718" t="n">
+        <v>6</v>
+      </c>
+      <c r="D718" t="n">
+        <v>7</v>
+      </c>
+      <c r="E718" t="n">
+        <v>8</v>
+      </c>
+      <c r="F718" t="n">
+        <v>10</v>
+      </c>
+      <c r="G718" t="n">
+        <v>17</v>
+      </c>
+      <c r="H718" t="n">
+        <v>23</v>
+      </c>
+      <c r="I718" t="n">
+        <v>26</v>
+      </c>
+      <c r="J718" t="n">
+        <v>27</v>
+      </c>
+      <c r="K718" t="n">
+        <v>29</v>
+      </c>
+      <c r="L718" t="n">
+        <v>30</v>
+      </c>
+      <c r="M718" t="n">
+        <v>35</v>
+      </c>
+      <c r="N718" t="n">
+        <v>39</v>
+      </c>
+      <c r="O718" t="n">
+        <v>43</v>
+      </c>
+      <c r="P718" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>49</v>
+      </c>
+      <c r="R718" t="n">
+        <v>54</v>
+      </c>
+      <c r="S718" t="n">
+        <v>64</v>
+      </c>
+      <c r="T718" t="n">
+        <v>67</v>
+      </c>
+      <c r="U718" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>2</v>
+      </c>
+      <c r="C719" t="n">
+        <v>3</v>
+      </c>
+      <c r="D719" t="n">
+        <v>7</v>
+      </c>
+      <c r="E719" t="n">
+        <v>9</v>
+      </c>
+      <c r="F719" t="n">
+        <v>12</v>
+      </c>
+      <c r="G719" t="n">
+        <v>14</v>
+      </c>
+      <c r="H719" t="n">
+        <v>16</v>
+      </c>
+      <c r="I719" t="n">
+        <v>17</v>
+      </c>
+      <c r="J719" t="n">
+        <v>23</v>
+      </c>
+      <c r="K719" t="n">
+        <v>30</v>
+      </c>
+      <c r="L719" t="n">
+        <v>34</v>
+      </c>
+      <c r="M719" t="n">
+        <v>35</v>
+      </c>
+      <c r="N719" t="n">
+        <v>54</v>
+      </c>
+      <c r="O719" t="n">
+        <v>58</v>
+      </c>
+      <c r="P719" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>68</v>
+      </c>
+      <c r="R719" t="n">
+        <v>71</v>
+      </c>
+      <c r="S719" t="n">
+        <v>72</v>
+      </c>
+      <c r="T719" t="n">
+        <v>75</v>
+      </c>
+      <c r="U719" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4</v>
+      </c>
+      <c r="C720" t="n">
+        <v>6</v>
+      </c>
+      <c r="D720" t="n">
+        <v>11</v>
+      </c>
+      <c r="E720" t="n">
+        <v>13</v>
+      </c>
+      <c r="F720" t="n">
+        <v>18</v>
+      </c>
+      <c r="G720" t="n">
+        <v>21</v>
+      </c>
+      <c r="H720" t="n">
+        <v>22</v>
+      </c>
+      <c r="I720" t="n">
+        <v>29</v>
+      </c>
+      <c r="J720" t="n">
+        <v>35</v>
+      </c>
+      <c r="K720" t="n">
+        <v>36</v>
+      </c>
+      <c r="L720" t="n">
+        <v>37</v>
+      </c>
+      <c r="M720" t="n">
+        <v>38</v>
+      </c>
+      <c r="N720" t="n">
+        <v>40</v>
+      </c>
+      <c r="O720" t="n">
+        <v>47</v>
+      </c>
+      <c r="P720" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>63</v>
+      </c>
+      <c r="R720" t="n">
+        <v>65</v>
+      </c>
+      <c r="S720" t="n">
+        <v>69</v>
+      </c>
+      <c r="T720" t="n">
+        <v>71</v>
+      </c>
+      <c r="U720" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>5</v>
+      </c>
+      <c r="C721" t="n">
+        <v>9</v>
+      </c>
+      <c r="D721" t="n">
+        <v>11</v>
+      </c>
+      <c r="E721" t="n">
+        <v>16</v>
+      </c>
+      <c r="F721" t="n">
+        <v>19</v>
+      </c>
+      <c r="G721" t="n">
+        <v>23</v>
+      </c>
+      <c r="H721" t="n">
+        <v>25</v>
+      </c>
+      <c r="I721" t="n">
+        <v>27</v>
+      </c>
+      <c r="J721" t="n">
+        <v>29</v>
+      </c>
+      <c r="K721" t="n">
+        <v>30</v>
+      </c>
+      <c r="L721" t="n">
+        <v>35</v>
+      </c>
+      <c r="M721" t="n">
+        <v>42</v>
+      </c>
+      <c r="N721" t="n">
+        <v>47</v>
+      </c>
+      <c r="O721" t="n">
+        <v>54</v>
+      </c>
+      <c r="P721" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>56</v>
+      </c>
+      <c r="R721" t="n">
+        <v>59</v>
+      </c>
+      <c r="S721" t="n">
+        <v>61</v>
+      </c>
+      <c r="T721" t="n">
+        <v>63</v>
+      </c>
+      <c r="U721" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+      <c r="C722" t="n">
+        <v>3</v>
+      </c>
+      <c r="D722" t="n">
+        <v>8</v>
+      </c>
+      <c r="E722" t="n">
+        <v>12</v>
+      </c>
+      <c r="F722" t="n">
+        <v>14</v>
+      </c>
+      <c r="G722" t="n">
+        <v>16</v>
+      </c>
+      <c r="H722" t="n">
+        <v>19</v>
+      </c>
+      <c r="I722" t="n">
+        <v>20</v>
+      </c>
+      <c r="J722" t="n">
+        <v>22</v>
+      </c>
+      <c r="K722" t="n">
+        <v>30</v>
+      </c>
+      <c r="L722" t="n">
+        <v>34</v>
+      </c>
+      <c r="M722" t="n">
+        <v>36</v>
+      </c>
+      <c r="N722" t="n">
+        <v>45</v>
+      </c>
+      <c r="O722" t="n">
+        <v>47</v>
+      </c>
+      <c r="P722" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>54</v>
+      </c>
+      <c r="R722" t="n">
+        <v>59</v>
+      </c>
+      <c r="S722" t="n">
+        <v>63</v>
+      </c>
+      <c r="T722" t="n">
+        <v>75</v>
+      </c>
+      <c r="U722" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>6</v>
+      </c>
+      <c r="C723" t="n">
+        <v>10</v>
+      </c>
+      <c r="D723" t="n">
+        <v>13</v>
+      </c>
+      <c r="E723" t="n">
+        <v>21</v>
+      </c>
+      <c r="F723" t="n">
+        <v>25</v>
+      </c>
+      <c r="G723" t="n">
+        <v>26</v>
+      </c>
+      <c r="H723" t="n">
+        <v>28</v>
+      </c>
+      <c r="I723" t="n">
+        <v>38</v>
+      </c>
+      <c r="J723" t="n">
+        <v>42</v>
+      </c>
+      <c r="K723" t="n">
+        <v>44</v>
+      </c>
+      <c r="L723" t="n">
+        <v>47</v>
+      </c>
+      <c r="M723" t="n">
+        <v>48</v>
+      </c>
+      <c r="N723" t="n">
+        <v>57</v>
+      </c>
+      <c r="O723" t="n">
+        <v>58</v>
+      </c>
+      <c r="P723" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>67</v>
+      </c>
+      <c r="R723" t="n">
+        <v>69</v>
+      </c>
+      <c r="S723" t="n">
+        <v>74</v>
+      </c>
+      <c r="T723" t="n">
+        <v>76</v>
+      </c>
+      <c r="U723" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>5</v>
+      </c>
+      <c r="C724" t="n">
+        <v>6</v>
+      </c>
+      <c r="D724" t="n">
+        <v>16</v>
+      </c>
+      <c r="E724" t="n">
+        <v>18</v>
+      </c>
+      <c r="F724" t="n">
+        <v>19</v>
+      </c>
+      <c r="G724" t="n">
+        <v>20</v>
+      </c>
+      <c r="H724" t="n">
+        <v>31</v>
+      </c>
+      <c r="I724" t="n">
+        <v>33</v>
+      </c>
+      <c r="J724" t="n">
+        <v>40</v>
+      </c>
+      <c r="K724" t="n">
+        <v>41</v>
+      </c>
+      <c r="L724" t="n">
+        <v>42</v>
+      </c>
+      <c r="M724" t="n">
+        <v>46</v>
+      </c>
+      <c r="N724" t="n">
+        <v>50</v>
+      </c>
+      <c r="O724" t="n">
+        <v>58</v>
+      </c>
+      <c r="P724" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>62</v>
+      </c>
+      <c r="R724" t="n">
+        <v>65</v>
+      </c>
+      <c r="S724" t="n">
+        <v>68</v>
+      </c>
+      <c r="T724" t="n">
+        <v>71</v>
+      </c>
+      <c r="U724" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>6</v>
+      </c>
+      <c r="C725" t="n">
+        <v>7</v>
+      </c>
+      <c r="D725" t="n">
+        <v>8</v>
+      </c>
+      <c r="E725" t="n">
+        <v>11</v>
+      </c>
+      <c r="F725" t="n">
+        <v>13</v>
+      </c>
+      <c r="G725" t="n">
+        <v>17</v>
+      </c>
+      <c r="H725" t="n">
+        <v>23</v>
+      </c>
+      <c r="I725" t="n">
+        <v>26</v>
+      </c>
+      <c r="J725" t="n">
+        <v>29</v>
+      </c>
+      <c r="K725" t="n">
+        <v>39</v>
+      </c>
+      <c r="L725" t="n">
+        <v>46</v>
+      </c>
+      <c r="M725" t="n">
+        <v>48</v>
+      </c>
+      <c r="N725" t="n">
+        <v>49</v>
+      </c>
+      <c r="O725" t="n">
+        <v>56</v>
+      </c>
+      <c r="P725" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q725" t="n">
+        <v>60</v>
+      </c>
+      <c r="R725" t="n">
+        <v>69</v>
+      </c>
+      <c r="S725" t="n">
+        <v>70</v>
+      </c>
+      <c r="T725" t="n">
+        <v>73</v>
+      </c>
+      <c r="U725" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>4</v>
+      </c>
+      <c r="C726" t="n">
+        <v>9</v>
+      </c>
+      <c r="D726" t="n">
+        <v>17</v>
+      </c>
+      <c r="E726" t="n">
+        <v>20</v>
+      </c>
+      <c r="F726" t="n">
+        <v>21</v>
+      </c>
+      <c r="G726" t="n">
+        <v>24</v>
+      </c>
+      <c r="H726" t="n">
+        <v>29</v>
+      </c>
+      <c r="I726" t="n">
+        <v>30</v>
+      </c>
+      <c r="J726" t="n">
+        <v>31</v>
+      </c>
+      <c r="K726" t="n">
+        <v>35</v>
+      </c>
+      <c r="L726" t="n">
+        <v>36</v>
+      </c>
+      <c r="M726" t="n">
+        <v>42</v>
+      </c>
+      <c r="N726" t="n">
+        <v>45</v>
+      </c>
+      <c r="O726" t="n">
+        <v>50</v>
+      </c>
+      <c r="P726" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>57</v>
+      </c>
+      <c r="R726" t="n">
+        <v>58</v>
+      </c>
+      <c r="S726" t="n">
+        <v>61</v>
+      </c>
+      <c r="T726" t="n">
+        <v>71</v>
+      </c>
+      <c r="U726" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>11</v>
+      </c>
+      <c r="C727" t="n">
+        <v>15</v>
+      </c>
+      <c r="D727" t="n">
+        <v>16</v>
+      </c>
+      <c r="E727" t="n">
+        <v>17</v>
+      </c>
+      <c r="F727" t="n">
+        <v>26</v>
+      </c>
+      <c r="G727" t="n">
+        <v>31</v>
+      </c>
+      <c r="H727" t="n">
+        <v>32</v>
+      </c>
+      <c r="I727" t="n">
+        <v>38</v>
+      </c>
+      <c r="J727" t="n">
+        <v>39</v>
+      </c>
+      <c r="K727" t="n">
+        <v>49</v>
+      </c>
+      <c r="L727" t="n">
+        <v>50</v>
+      </c>
+      <c r="M727" t="n">
+        <v>52</v>
+      </c>
+      <c r="N727" t="n">
+        <v>53</v>
+      </c>
+      <c r="O727" t="n">
+        <v>55</v>
+      </c>
+      <c r="P727" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>68</v>
+      </c>
+      <c r="R727" t="n">
+        <v>70</v>
+      </c>
+      <c r="S727" t="n">
+        <v>71</v>
+      </c>
+      <c r="T727" t="n">
+        <v>72</v>
+      </c>
+      <c r="U727" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>7</v>
+      </c>
+      <c r="C728" t="n">
+        <v>9</v>
+      </c>
+      <c r="D728" t="n">
+        <v>12</v>
+      </c>
+      <c r="E728" t="n">
+        <v>15</v>
+      </c>
+      <c r="F728" t="n">
+        <v>22</v>
+      </c>
+      <c r="G728" t="n">
+        <v>29</v>
+      </c>
+      <c r="H728" t="n">
+        <v>36</v>
+      </c>
+      <c r="I728" t="n">
+        <v>37</v>
+      </c>
+      <c r="J728" t="n">
+        <v>38</v>
+      </c>
+      <c r="K728" t="n">
+        <v>47</v>
+      </c>
+      <c r="L728" t="n">
+        <v>48</v>
+      </c>
+      <c r="M728" t="n">
+        <v>52</v>
+      </c>
+      <c r="N728" t="n">
+        <v>53</v>
+      </c>
+      <c r="O728" t="n">
+        <v>54</v>
+      </c>
+      <c r="P728" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>59</v>
+      </c>
+      <c r="R728" t="n">
+        <v>66</v>
+      </c>
+      <c r="S728" t="n">
+        <v>67</v>
+      </c>
+      <c r="T728" t="n">
+        <v>74</v>
+      </c>
+      <c r="U728" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>3</v>
+      </c>
+      <c r="C729" t="n">
+        <v>4</v>
+      </c>
+      <c r="D729" t="n">
+        <v>5</v>
+      </c>
+      <c r="E729" t="n">
+        <v>6</v>
+      </c>
+      <c r="F729" t="n">
+        <v>11</v>
+      </c>
+      <c r="G729" t="n">
+        <v>13</v>
+      </c>
+      <c r="H729" t="n">
+        <v>14</v>
+      </c>
+      <c r="I729" t="n">
+        <v>17</v>
+      </c>
+      <c r="J729" t="n">
+        <v>22</v>
+      </c>
+      <c r="K729" t="n">
+        <v>27</v>
+      </c>
+      <c r="L729" t="n">
+        <v>31</v>
+      </c>
+      <c r="M729" t="n">
+        <v>37</v>
+      </c>
+      <c r="N729" t="n">
+        <v>51</v>
+      </c>
+      <c r="O729" t="n">
+        <v>54</v>
+      </c>
+      <c r="P729" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>62</v>
+      </c>
+      <c r="R729" t="n">
+        <v>69</v>
+      </c>
+      <c r="S729" t="n">
+        <v>76</v>
+      </c>
+      <c r="T729" t="n">
+        <v>78</v>
+      </c>
+      <c r="U729" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>8</v>
+      </c>
+      <c r="C730" t="n">
+        <v>11</v>
+      </c>
+      <c r="D730" t="n">
+        <v>15</v>
+      </c>
+      <c r="E730" t="n">
+        <v>17</v>
+      </c>
+      <c r="F730" t="n">
+        <v>22</v>
+      </c>
+      <c r="G730" t="n">
+        <v>23</v>
+      </c>
+      <c r="H730" t="n">
+        <v>24</v>
+      </c>
+      <c r="I730" t="n">
+        <v>27</v>
+      </c>
+      <c r="J730" t="n">
+        <v>32</v>
+      </c>
+      <c r="K730" t="n">
+        <v>38</v>
+      </c>
+      <c r="L730" t="n">
+        <v>42</v>
+      </c>
+      <c r="M730" t="n">
+        <v>51</v>
+      </c>
+      <c r="N730" t="n">
+        <v>58</v>
+      </c>
+      <c r="O730" t="n">
+        <v>64</v>
+      </c>
+      <c r="P730" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>70</v>
+      </c>
+      <c r="R730" t="n">
+        <v>74</v>
+      </c>
+      <c r="S730" t="n">
+        <v>75</v>
+      </c>
+      <c r="T730" t="n">
+        <v>79</v>
+      </c>
+      <c r="U730" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>8</v>
+      </c>
+      <c r="C731" t="n">
+        <v>9</v>
+      </c>
+      <c r="D731" t="n">
+        <v>15</v>
+      </c>
+      <c r="E731" t="n">
+        <v>16</v>
+      </c>
+      <c r="F731" t="n">
+        <v>25</v>
+      </c>
+      <c r="G731" t="n">
+        <v>29</v>
+      </c>
+      <c r="H731" t="n">
+        <v>30</v>
+      </c>
+      <c r="I731" t="n">
+        <v>31</v>
+      </c>
+      <c r="J731" t="n">
+        <v>36</v>
+      </c>
+      <c r="K731" t="n">
+        <v>38</v>
+      </c>
+      <c r="L731" t="n">
+        <v>41</v>
+      </c>
+      <c r="M731" t="n">
+        <v>53</v>
+      </c>
+      <c r="N731" t="n">
+        <v>58</v>
+      </c>
+      <c r="O731" t="n">
+        <v>59</v>
+      </c>
+      <c r="P731" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>67</v>
+      </c>
+      <c r="R731" t="n">
+        <v>72</v>
+      </c>
+      <c r="S731" t="n">
+        <v>74</v>
+      </c>
+      <c r="T731" t="n">
+        <v>77</v>
+      </c>
+      <c r="U731" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>3</v>
+      </c>
+      <c r="C732" t="n">
+        <v>6</v>
+      </c>
+      <c r="D732" t="n">
+        <v>7</v>
+      </c>
+      <c r="E732" t="n">
+        <v>8</v>
+      </c>
+      <c r="F732" t="n">
+        <v>10</v>
+      </c>
+      <c r="G732" t="n">
+        <v>14</v>
+      </c>
+      <c r="H732" t="n">
+        <v>26</v>
+      </c>
+      <c r="I732" t="n">
+        <v>31</v>
+      </c>
+      <c r="J732" t="n">
+        <v>36</v>
+      </c>
+      <c r="K732" t="n">
+        <v>37</v>
+      </c>
+      <c r="L732" t="n">
+        <v>38</v>
+      </c>
+      <c r="M732" t="n">
+        <v>42</v>
+      </c>
+      <c r="N732" t="n">
+        <v>46</v>
+      </c>
+      <c r="O732" t="n">
+        <v>49</v>
+      </c>
+      <c r="P732" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>57</v>
+      </c>
+      <c r="R732" t="n">
+        <v>58</v>
+      </c>
+      <c r="S732" t="n">
+        <v>59</v>
+      </c>
+      <c r="T732" t="n">
+        <v>61</v>
+      </c>
+      <c r="U732" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
+        <v>9</v>
+      </c>
+      <c r="D733" t="n">
+        <v>23</v>
+      </c>
+      <c r="E733" t="n">
+        <v>27</v>
+      </c>
+      <c r="F733" t="n">
+        <v>28</v>
+      </c>
+      <c r="G733" t="n">
+        <v>32</v>
+      </c>
+      <c r="H733" t="n">
+        <v>34</v>
+      </c>
+      <c r="I733" t="n">
+        <v>35</v>
+      </c>
+      <c r="J733" t="n">
+        <v>36</v>
+      </c>
+      <c r="K733" t="n">
+        <v>37</v>
+      </c>
+      <c r="L733" t="n">
+        <v>38</v>
+      </c>
+      <c r="M733" t="n">
+        <v>47</v>
+      </c>
+      <c r="N733" t="n">
+        <v>51</v>
+      </c>
+      <c r="O733" t="n">
+        <v>57</v>
+      </c>
+      <c r="P733" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>62</v>
+      </c>
+      <c r="R733" t="n">
+        <v>67</v>
+      </c>
+      <c r="S733" t="n">
+        <v>75</v>
+      </c>
+      <c r="T733" t="n">
+        <v>78</v>
+      </c>
+      <c r="U733" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>6</v>
+      </c>
+      <c r="C734" t="n">
+        <v>7</v>
+      </c>
+      <c r="D734" t="n">
+        <v>17</v>
+      </c>
+      <c r="E734" t="n">
+        <v>19</v>
+      </c>
+      <c r="F734" t="n">
+        <v>22</v>
+      </c>
+      <c r="G734" t="n">
+        <v>25</v>
+      </c>
+      <c r="H734" t="n">
+        <v>30</v>
+      </c>
+      <c r="I734" t="n">
+        <v>31</v>
+      </c>
+      <c r="J734" t="n">
+        <v>36</v>
+      </c>
+      <c r="K734" t="n">
+        <v>40</v>
+      </c>
+      <c r="L734" t="n">
+        <v>44</v>
+      </c>
+      <c r="M734" t="n">
+        <v>47</v>
+      </c>
+      <c r="N734" t="n">
+        <v>48</v>
+      </c>
+      <c r="O734" t="n">
+        <v>60</v>
+      </c>
+      <c r="P734" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q734" t="n">
+        <v>63</v>
+      </c>
+      <c r="R734" t="n">
+        <v>64</v>
+      </c>
+      <c r="S734" t="n">
+        <v>67</v>
+      </c>
+      <c r="T734" t="n">
+        <v>68</v>
+      </c>
+      <c r="U734" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+      <c r="C735" t="n">
+        <v>8</v>
+      </c>
+      <c r="D735" t="n">
+        <v>10</v>
+      </c>
+      <c r="E735" t="n">
+        <v>13</v>
+      </c>
+      <c r="F735" t="n">
+        <v>20</v>
+      </c>
+      <c r="G735" t="n">
+        <v>24</v>
+      </c>
+      <c r="H735" t="n">
+        <v>26</v>
+      </c>
+      <c r="I735" t="n">
+        <v>27</v>
+      </c>
+      <c r="J735" t="n">
+        <v>28</v>
+      </c>
+      <c r="K735" t="n">
+        <v>30</v>
+      </c>
+      <c r="L735" t="n">
+        <v>37</v>
+      </c>
+      <c r="M735" t="n">
+        <v>39</v>
+      </c>
+      <c r="N735" t="n">
+        <v>43</v>
+      </c>
+      <c r="O735" t="n">
+        <v>51</v>
+      </c>
+      <c r="P735" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q735" t="n">
+        <v>56</v>
+      </c>
+      <c r="R735" t="n">
+        <v>68</v>
+      </c>
+      <c r="S735" t="n">
+        <v>70</v>
+      </c>
+      <c r="T735" t="n">
+        <v>73</v>
+      </c>
+      <c r="U735" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>3</v>
+      </c>
+      <c r="C736" t="n">
+        <v>10</v>
+      </c>
+      <c r="D736" t="n">
+        <v>12</v>
+      </c>
+      <c r="E736" t="n">
+        <v>14</v>
+      </c>
+      <c r="F736" t="n">
+        <v>17</v>
+      </c>
+      <c r="G736" t="n">
+        <v>20</v>
+      </c>
+      <c r="H736" t="n">
+        <v>25</v>
+      </c>
+      <c r="I736" t="n">
+        <v>28</v>
+      </c>
+      <c r="J736" t="n">
+        <v>36</v>
+      </c>
+      <c r="K736" t="n">
+        <v>38</v>
+      </c>
+      <c r="L736" t="n">
+        <v>39</v>
+      </c>
+      <c r="M736" t="n">
+        <v>42</v>
+      </c>
+      <c r="N736" t="n">
+        <v>54</v>
+      </c>
+      <c r="O736" t="n">
+        <v>58</v>
+      </c>
+      <c r="P736" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q736" t="n">
+        <v>66</v>
+      </c>
+      <c r="R736" t="n">
+        <v>71</v>
+      </c>
+      <c r="S736" t="n">
+        <v>75</v>
+      </c>
+      <c r="T736" t="n">
+        <v>76</v>
+      </c>
+      <c r="U736" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>2</v>
+      </c>
+      <c r="C737" t="n">
+        <v>4</v>
+      </c>
+      <c r="D737" t="n">
+        <v>7</v>
+      </c>
+      <c r="E737" t="n">
+        <v>8</v>
+      </c>
+      <c r="F737" t="n">
+        <v>14</v>
+      </c>
+      <c r="G737" t="n">
+        <v>26</v>
+      </c>
+      <c r="H737" t="n">
+        <v>34</v>
+      </c>
+      <c r="I737" t="n">
+        <v>36</v>
+      </c>
+      <c r="J737" t="n">
+        <v>37</v>
+      </c>
+      <c r="K737" t="n">
+        <v>40</v>
+      </c>
+      <c r="L737" t="n">
+        <v>41</v>
+      </c>
+      <c r="M737" t="n">
+        <v>47</v>
+      </c>
+      <c r="N737" t="n">
+        <v>51</v>
+      </c>
+      <c r="O737" t="n">
+        <v>52</v>
+      </c>
+      <c r="P737" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q737" t="n">
+        <v>64</v>
+      </c>
+      <c r="R737" t="n">
+        <v>66</v>
+      </c>
+      <c r="S737" t="n">
+        <v>67</v>
+      </c>
+      <c r="T737" t="n">
+        <v>68</v>
+      </c>
+      <c r="U737" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>6</v>
+      </c>
+      <c r="C738" t="n">
+        <v>9</v>
+      </c>
+      <c r="D738" t="n">
+        <v>17</v>
+      </c>
+      <c r="E738" t="n">
+        <v>19</v>
+      </c>
+      <c r="F738" t="n">
+        <v>20</v>
+      </c>
+      <c r="G738" t="n">
+        <v>26</v>
+      </c>
+      <c r="H738" t="n">
+        <v>27</v>
+      </c>
+      <c r="I738" t="n">
+        <v>31</v>
+      </c>
+      <c r="J738" t="n">
+        <v>33</v>
+      </c>
+      <c r="K738" t="n">
+        <v>41</v>
+      </c>
+      <c r="L738" t="n">
+        <v>42</v>
+      </c>
+      <c r="M738" t="n">
+        <v>50</v>
+      </c>
+      <c r="N738" t="n">
+        <v>51</v>
+      </c>
+      <c r="O738" t="n">
+        <v>58</v>
+      </c>
+      <c r="P738" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>66</v>
+      </c>
+      <c r="R738" t="n">
+        <v>70</v>
+      </c>
+      <c r="S738" t="n">
+        <v>73</v>
+      </c>
+      <c r="T738" t="n">
+        <v>76</v>
+      </c>
+      <c r="U738" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>2</v>
+      </c>
+      <c r="C739" t="n">
+        <v>12</v>
+      </c>
+      <c r="D739" t="n">
+        <v>30</v>
+      </c>
+      <c r="E739" t="n">
+        <v>36</v>
+      </c>
+      <c r="F739" t="n">
+        <v>39</v>
+      </c>
+      <c r="G739" t="n">
+        <v>42</v>
+      </c>
+      <c r="H739" t="n">
+        <v>43</v>
+      </c>
+      <c r="I739" t="n">
+        <v>50</v>
+      </c>
+      <c r="J739" t="n">
+        <v>51</v>
+      </c>
+      <c r="K739" t="n">
+        <v>52</v>
+      </c>
+      <c r="L739" t="n">
+        <v>56</v>
+      </c>
+      <c r="M739" t="n">
+        <v>59</v>
+      </c>
+      <c r="N739" t="n">
+        <v>61</v>
+      </c>
+      <c r="O739" t="n">
+        <v>64</v>
+      </c>
+      <c r="P739" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q739" t="n">
+        <v>67</v>
+      </c>
+      <c r="R739" t="n">
+        <v>68</v>
+      </c>
+      <c r="S739" t="n">
+        <v>69</v>
+      </c>
+      <c r="T739" t="n">
+        <v>71</v>
+      </c>
+      <c r="U739" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>4</v>
+      </c>
+      <c r="C740" t="n">
+        <v>24</v>
+      </c>
+      <c r="D740" t="n">
+        <v>25</v>
+      </c>
+      <c r="E740" t="n">
+        <v>26</v>
+      </c>
+      <c r="F740" t="n">
+        <v>35</v>
+      </c>
+      <c r="G740" t="n">
+        <v>36</v>
+      </c>
+      <c r="H740" t="n">
+        <v>38</v>
+      </c>
+      <c r="I740" t="n">
+        <v>40</v>
+      </c>
+      <c r="J740" t="n">
+        <v>41</v>
+      </c>
+      <c r="K740" t="n">
+        <v>46</v>
+      </c>
+      <c r="L740" t="n">
+        <v>47</v>
+      </c>
+      <c r="M740" t="n">
+        <v>48</v>
+      </c>
+      <c r="N740" t="n">
+        <v>52</v>
+      </c>
+      <c r="O740" t="n">
+        <v>57</v>
+      </c>
+      <c r="P740" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>67</v>
+      </c>
+      <c r="R740" t="n">
+        <v>71</v>
+      </c>
+      <c r="S740" t="n">
+        <v>75</v>
+      </c>
+      <c r="T740" t="n">
+        <v>76</v>
+      </c>
+      <c r="U740" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1</v>
+      </c>
+      <c r="C741" t="n">
+        <v>6</v>
+      </c>
+      <c r="D741" t="n">
+        <v>11</v>
+      </c>
+      <c r="E741" t="n">
+        <v>23</v>
+      </c>
+      <c r="F741" t="n">
+        <v>33</v>
+      </c>
+      <c r="G741" t="n">
+        <v>34</v>
+      </c>
+      <c r="H741" t="n">
+        <v>37</v>
+      </c>
+      <c r="I741" t="n">
+        <v>42</v>
+      </c>
+      <c r="J741" t="n">
+        <v>44</v>
+      </c>
+      <c r="K741" t="n">
+        <v>51</v>
+      </c>
+      <c r="L741" t="n">
+        <v>52</v>
+      </c>
+      <c r="M741" t="n">
+        <v>58</v>
+      </c>
+      <c r="N741" t="n">
+        <v>61</v>
+      </c>
+      <c r="O741" t="n">
+        <v>63</v>
+      </c>
+      <c r="P741" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>70</v>
+      </c>
+      <c r="R741" t="n">
+        <v>72</v>
+      </c>
+      <c r="S741" t="n">
+        <v>73</v>
+      </c>
+      <c r="T741" t="n">
+        <v>78</v>
+      </c>
+      <c r="U741" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>7</v>
+      </c>
+      <c r="C742" t="n">
+        <v>17</v>
+      </c>
+      <c r="D742" t="n">
+        <v>19</v>
+      </c>
+      <c r="E742" t="n">
+        <v>20</v>
+      </c>
+      <c r="F742" t="n">
+        <v>21</v>
+      </c>
+      <c r="G742" t="n">
+        <v>24</v>
+      </c>
+      <c r="H742" t="n">
+        <v>32</v>
+      </c>
+      <c r="I742" t="n">
+        <v>38</v>
+      </c>
+      <c r="J742" t="n">
+        <v>39</v>
+      </c>
+      <c r="K742" t="n">
+        <v>40</v>
+      </c>
+      <c r="L742" t="n">
+        <v>43</v>
+      </c>
+      <c r="M742" t="n">
+        <v>45</v>
+      </c>
+      <c r="N742" t="n">
+        <v>54</v>
+      </c>
+      <c r="O742" t="n">
+        <v>64</v>
+      </c>
+      <c r="P742" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>71</v>
+      </c>
+      <c r="R742" t="n">
+        <v>73</v>
+      </c>
+      <c r="S742" t="n">
+        <v>77</v>
+      </c>
+      <c r="T742" t="n">
+        <v>79</v>
+      </c>
+      <c r="U742" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>4</v>
+      </c>
+      <c r="C743" t="n">
+        <v>10</v>
+      </c>
+      <c r="D743" t="n">
+        <v>13</v>
+      </c>
+      <c r="E743" t="n">
+        <v>14</v>
+      </c>
+      <c r="F743" t="n">
+        <v>17</v>
+      </c>
+      <c r="G743" t="n">
+        <v>22</v>
+      </c>
+      <c r="H743" t="n">
+        <v>25</v>
+      </c>
+      <c r="I743" t="n">
+        <v>41</v>
+      </c>
+      <c r="J743" t="n">
+        <v>44</v>
+      </c>
+      <c r="K743" t="n">
+        <v>46</v>
+      </c>
+      <c r="L743" t="n">
+        <v>47</v>
+      </c>
+      <c r="M743" t="n">
+        <v>48</v>
+      </c>
+      <c r="N743" t="n">
+        <v>49</v>
+      </c>
+      <c r="O743" t="n">
+        <v>51</v>
+      </c>
+      <c r="P743" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>65</v>
+      </c>
+      <c r="R743" t="n">
+        <v>66</v>
+      </c>
+      <c r="S743" t="n">
+        <v>71</v>
+      </c>
+      <c r="T743" t="n">
+        <v>76</v>
+      </c>
+      <c r="U743" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>4</v>
+      </c>
+      <c r="C744" t="n">
+        <v>5</v>
+      </c>
+      <c r="D744" t="n">
+        <v>17</v>
+      </c>
+      <c r="E744" t="n">
+        <v>21</v>
+      </c>
+      <c r="F744" t="n">
+        <v>23</v>
+      </c>
+      <c r="G744" t="n">
+        <v>30</v>
+      </c>
+      <c r="H744" t="n">
+        <v>34</v>
+      </c>
+      <c r="I744" t="n">
+        <v>38</v>
+      </c>
+      <c r="J744" t="n">
+        <v>47</v>
+      </c>
+      <c r="K744" t="n">
+        <v>52</v>
+      </c>
+      <c r="L744" t="n">
+        <v>54</v>
+      </c>
+      <c r="M744" t="n">
+        <v>55</v>
+      </c>
+      <c r="N744" t="n">
+        <v>56</v>
+      </c>
+      <c r="O744" t="n">
+        <v>58</v>
+      </c>
+      <c r="P744" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>72</v>
+      </c>
+      <c r="R744" t="n">
+        <v>73</v>
+      </c>
+      <c r="S744" t="n">
+        <v>75</v>
+      </c>
+      <c r="T744" t="n">
+        <v>76</v>
+      </c>
+      <c r="U744" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>5</v>
+      </c>
+      <c r="C745" t="n">
+        <v>7</v>
+      </c>
+      <c r="D745" t="n">
+        <v>8</v>
+      </c>
+      <c r="E745" t="n">
+        <v>12</v>
+      </c>
+      <c r="F745" t="n">
+        <v>13</v>
+      </c>
+      <c r="G745" t="n">
+        <v>15</v>
+      </c>
+      <c r="H745" t="n">
+        <v>17</v>
+      </c>
+      <c r="I745" t="n">
+        <v>31</v>
+      </c>
+      <c r="J745" t="n">
+        <v>32</v>
+      </c>
+      <c r="K745" t="n">
+        <v>36</v>
+      </c>
+      <c r="L745" t="n">
+        <v>41</v>
+      </c>
+      <c r="M745" t="n">
+        <v>56</v>
+      </c>
+      <c r="N745" t="n">
+        <v>61</v>
+      </c>
+      <c r="O745" t="n">
+        <v>65</v>
+      </c>
+      <c r="P745" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>71</v>
+      </c>
+      <c r="R745" t="n">
+        <v>73</v>
+      </c>
+      <c r="S745" t="n">
+        <v>75</v>
+      </c>
+      <c r="T745" t="n">
+        <v>77</v>
+      </c>
+      <c r="U745" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+      <c r="C746" t="n">
+        <v>2</v>
+      </c>
+      <c r="D746" t="n">
+        <v>13</v>
+      </c>
+      <c r="E746" t="n">
+        <v>23</v>
+      </c>
+      <c r="F746" t="n">
+        <v>30</v>
+      </c>
+      <c r="G746" t="n">
+        <v>34</v>
+      </c>
+      <c r="H746" t="n">
+        <v>47</v>
+      </c>
+      <c r="I746" t="n">
+        <v>49</v>
+      </c>
+      <c r="J746" t="n">
+        <v>53</v>
+      </c>
+      <c r="K746" t="n">
+        <v>54</v>
+      </c>
+      <c r="L746" t="n">
+        <v>56</v>
+      </c>
+      <c r="M746" t="n">
+        <v>58</v>
+      </c>
+      <c r="N746" t="n">
+        <v>62</v>
+      </c>
+      <c r="O746" t="n">
+        <v>67</v>
+      </c>
+      <c r="P746" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>71</v>
+      </c>
+      <c r="R746" t="n">
+        <v>73</v>
+      </c>
+      <c r="S746" t="n">
+        <v>74</v>
+      </c>
+      <c r="T746" t="n">
+        <v>77</v>
+      </c>
+      <c r="U746" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>7</v>
+      </c>
+      <c r="C747" t="n">
+        <v>8</v>
+      </c>
+      <c r="D747" t="n">
+        <v>9</v>
+      </c>
+      <c r="E747" t="n">
+        <v>11</v>
+      </c>
+      <c r="F747" t="n">
+        <v>18</v>
+      </c>
+      <c r="G747" t="n">
+        <v>33</v>
+      </c>
+      <c r="H747" t="n">
+        <v>35</v>
+      </c>
+      <c r="I747" t="n">
+        <v>36</v>
+      </c>
+      <c r="J747" t="n">
+        <v>40</v>
+      </c>
+      <c r="K747" t="n">
+        <v>42</v>
+      </c>
+      <c r="L747" t="n">
+        <v>47</v>
+      </c>
+      <c r="M747" t="n">
+        <v>48</v>
+      </c>
+      <c r="N747" t="n">
+        <v>49</v>
+      </c>
+      <c r="O747" t="n">
+        <v>52</v>
+      </c>
+      <c r="P747" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>57</v>
+      </c>
+      <c r="R747" t="n">
+        <v>59</v>
+      </c>
+      <c r="S747" t="n">
+        <v>64</v>
+      </c>
+      <c r="T747" t="n">
+        <v>67</v>
+      </c>
+      <c r="U747" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>8</v>
+      </c>
+      <c r="C748" t="n">
+        <v>12</v>
+      </c>
+      <c r="D748" t="n">
+        <v>13</v>
+      </c>
+      <c r="E748" t="n">
+        <v>23</v>
+      </c>
+      <c r="F748" t="n">
+        <v>26</v>
+      </c>
+      <c r="G748" t="n">
+        <v>27</v>
+      </c>
+      <c r="H748" t="n">
+        <v>31</v>
+      </c>
+      <c r="I748" t="n">
+        <v>33</v>
+      </c>
+      <c r="J748" t="n">
+        <v>35</v>
+      </c>
+      <c r="K748" t="n">
+        <v>36</v>
+      </c>
+      <c r="L748" t="n">
+        <v>47</v>
+      </c>
+      <c r="M748" t="n">
+        <v>49</v>
+      </c>
+      <c r="N748" t="n">
+        <v>51</v>
+      </c>
+      <c r="O748" t="n">
+        <v>52</v>
+      </c>
+      <c r="P748" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>55</v>
+      </c>
+      <c r="R748" t="n">
+        <v>62</v>
+      </c>
+      <c r="S748" t="n">
+        <v>69</v>
+      </c>
+      <c r="T748" t="n">
+        <v>70</v>
+      </c>
+      <c r="U748" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+      <c r="C749" t="n">
+        <v>2</v>
+      </c>
+      <c r="D749" t="n">
+        <v>3</v>
+      </c>
+      <c r="E749" t="n">
+        <v>8</v>
+      </c>
+      <c r="F749" t="n">
+        <v>14</v>
+      </c>
+      <c r="G749" t="n">
+        <v>21</v>
+      </c>
+      <c r="H749" t="n">
+        <v>24</v>
+      </c>
+      <c r="I749" t="n">
+        <v>25</v>
+      </c>
+      <c r="J749" t="n">
+        <v>26</v>
+      </c>
+      <c r="K749" t="n">
+        <v>35</v>
+      </c>
+      <c r="L749" t="n">
+        <v>37</v>
+      </c>
+      <c r="M749" t="n">
+        <v>45</v>
+      </c>
+      <c r="N749" t="n">
+        <v>52</v>
+      </c>
+      <c r="O749" t="n">
+        <v>56</v>
+      </c>
+      <c r="P749" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>63</v>
+      </c>
+      <c r="R749" t="n">
+        <v>64</v>
+      </c>
+      <c r="S749" t="n">
+        <v>67</v>
+      </c>
+      <c r="T749" t="n">
+        <v>70</v>
+      </c>
+      <c r="U749" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>3</v>
+      </c>
+      <c r="C750" t="n">
+        <v>4</v>
+      </c>
+      <c r="D750" t="n">
+        <v>9</v>
+      </c>
+      <c r="E750" t="n">
+        <v>11</v>
+      </c>
+      <c r="F750" t="n">
+        <v>17</v>
+      </c>
+      <c r="G750" t="n">
+        <v>18</v>
+      </c>
+      <c r="H750" t="n">
+        <v>23</v>
+      </c>
+      <c r="I750" t="n">
+        <v>30</v>
+      </c>
+      <c r="J750" t="n">
+        <v>31</v>
+      </c>
+      <c r="K750" t="n">
+        <v>32</v>
+      </c>
+      <c r="L750" t="n">
+        <v>35</v>
+      </c>
+      <c r="M750" t="n">
+        <v>44</v>
+      </c>
+      <c r="N750" t="n">
+        <v>54</v>
+      </c>
+      <c r="O750" t="n">
+        <v>56</v>
+      </c>
+      <c r="P750" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>62</v>
+      </c>
+      <c r="R750" t="n">
+        <v>65</v>
+      </c>
+      <c r="S750" t="n">
+        <v>67</v>
+      </c>
+      <c r="T750" t="n">
+        <v>71</v>
+      </c>
+      <c r="U750" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>2</v>
+      </c>
+      <c r="C751" t="n">
+        <v>3</v>
+      </c>
+      <c r="D751" t="n">
+        <v>4</v>
+      </c>
+      <c r="E751" t="n">
+        <v>10</v>
+      </c>
+      <c r="F751" t="n">
+        <v>19</v>
+      </c>
+      <c r="G751" t="n">
+        <v>27</v>
+      </c>
+      <c r="H751" t="n">
+        <v>29</v>
+      </c>
+      <c r="I751" t="n">
+        <v>32</v>
+      </c>
+      <c r="J751" t="n">
+        <v>34</v>
+      </c>
+      <c r="K751" t="n">
+        <v>40</v>
+      </c>
+      <c r="L751" t="n">
+        <v>45</v>
+      </c>
+      <c r="M751" t="n">
+        <v>46</v>
+      </c>
+      <c r="N751" t="n">
+        <v>55</v>
+      </c>
+      <c r="O751" t="n">
+        <v>56</v>
+      </c>
+      <c r="P751" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>67</v>
+      </c>
+      <c r="R751" t="n">
+        <v>68</v>
+      </c>
+      <c r="S751" t="n">
+        <v>70</v>
+      </c>
+      <c r="T751" t="n">
+        <v>73</v>
+      </c>
+      <c r="U751" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>6</v>
+      </c>
+      <c r="C752" t="n">
+        <v>7</v>
+      </c>
+      <c r="D752" t="n">
+        <v>9</v>
+      </c>
+      <c r="E752" t="n">
+        <v>25</v>
+      </c>
+      <c r="F752" t="n">
+        <v>26</v>
+      </c>
+      <c r="G752" t="n">
+        <v>30</v>
+      </c>
+      <c r="H752" t="n">
+        <v>37</v>
+      </c>
+      <c r="I752" t="n">
+        <v>40</v>
+      </c>
+      <c r="J752" t="n">
+        <v>47</v>
+      </c>
+      <c r="K752" t="n">
+        <v>48</v>
+      </c>
+      <c r="L752" t="n">
+        <v>51</v>
+      </c>
+      <c r="M752" t="n">
+        <v>54</v>
+      </c>
+      <c r="N752" t="n">
+        <v>57</v>
+      </c>
+      <c r="O752" t="n">
+        <v>58</v>
+      </c>
+      <c r="P752" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>65</v>
+      </c>
+      <c r="R752" t="n">
+        <v>67</v>
+      </c>
+      <c r="S752" t="n">
+        <v>68</v>
+      </c>
+      <c r="T752" t="n">
+        <v>73</v>
+      </c>
+      <c r="U752" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1</v>
+      </c>
+      <c r="C753" t="n">
+        <v>6</v>
+      </c>
+      <c r="D753" t="n">
+        <v>7</v>
+      </c>
+      <c r="E753" t="n">
+        <v>8</v>
+      </c>
+      <c r="F753" t="n">
+        <v>9</v>
+      </c>
+      <c r="G753" t="n">
+        <v>10</v>
+      </c>
+      <c r="H753" t="n">
+        <v>15</v>
+      </c>
+      <c r="I753" t="n">
+        <v>18</v>
+      </c>
+      <c r="J753" t="n">
+        <v>22</v>
+      </c>
+      <c r="K753" t="n">
+        <v>26</v>
+      </c>
+      <c r="L753" t="n">
+        <v>30</v>
+      </c>
+      <c r="M753" t="n">
+        <v>33</v>
+      </c>
+      <c r="N753" t="n">
+        <v>40</v>
+      </c>
+      <c r="O753" t="n">
+        <v>51</v>
+      </c>
+      <c r="P753" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>69</v>
+      </c>
+      <c r="R753" t="n">
+        <v>73</v>
+      </c>
+      <c r="S753" t="n">
+        <v>74</v>
+      </c>
+      <c r="T753" t="n">
+        <v>77</v>
+      </c>
+      <c r="U753" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3</v>
+      </c>
+      <c r="C754" t="n">
+        <v>15</v>
+      </c>
+      <c r="D754" t="n">
+        <v>16</v>
+      </c>
+      <c r="E754" t="n">
+        <v>25</v>
+      </c>
+      <c r="F754" t="n">
+        <v>28</v>
+      </c>
+      <c r="G754" t="n">
+        <v>34</v>
+      </c>
+      <c r="H754" t="n">
+        <v>41</v>
+      </c>
+      <c r="I754" t="n">
+        <v>42</v>
+      </c>
+      <c r="J754" t="n">
+        <v>44</v>
+      </c>
+      <c r="K754" t="n">
+        <v>45</v>
+      </c>
+      <c r="L754" t="n">
+        <v>47</v>
+      </c>
+      <c r="M754" t="n">
+        <v>48</v>
+      </c>
+      <c r="N754" t="n">
+        <v>50</v>
+      </c>
+      <c r="O754" t="n">
+        <v>51</v>
+      </c>
+      <c r="P754" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>61</v>
+      </c>
+      <c r="R754" t="n">
+        <v>66</v>
+      </c>
+      <c r="S754" t="n">
+        <v>68</v>
+      </c>
+      <c r="T754" t="n">
+        <v>71</v>
+      </c>
+      <c r="U754" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>5</v>
+      </c>
+      <c r="C755" t="n">
+        <v>12</v>
+      </c>
+      <c r="D755" t="n">
+        <v>17</v>
+      </c>
+      <c r="E755" t="n">
+        <v>27</v>
+      </c>
+      <c r="F755" t="n">
+        <v>30</v>
+      </c>
+      <c r="G755" t="n">
+        <v>32</v>
+      </c>
+      <c r="H755" t="n">
+        <v>34</v>
+      </c>
+      <c r="I755" t="n">
+        <v>38</v>
+      </c>
+      <c r="J755" t="n">
+        <v>40</v>
+      </c>
+      <c r="K755" t="n">
+        <v>42</v>
+      </c>
+      <c r="L755" t="n">
+        <v>45</v>
+      </c>
+      <c r="M755" t="n">
+        <v>49</v>
+      </c>
+      <c r="N755" t="n">
+        <v>55</v>
+      </c>
+      <c r="O755" t="n">
+        <v>57</v>
+      </c>
+      <c r="P755" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>66</v>
+      </c>
+      <c r="R755" t="n">
+        <v>67</v>
+      </c>
+      <c r="S755" t="n">
+        <v>76</v>
+      </c>
+      <c r="T755" t="n">
+        <v>78</v>
+      </c>
+      <c r="U755" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>4</v>
+      </c>
+      <c r="C756" t="n">
+        <v>9</v>
+      </c>
+      <c r="D756" t="n">
+        <v>18</v>
+      </c>
+      <c r="E756" t="n">
+        <v>21</v>
+      </c>
+      <c r="F756" t="n">
+        <v>24</v>
+      </c>
+      <c r="G756" t="n">
+        <v>27</v>
+      </c>
+      <c r="H756" t="n">
+        <v>29</v>
+      </c>
+      <c r="I756" t="n">
+        <v>33</v>
+      </c>
+      <c r="J756" t="n">
+        <v>41</v>
+      </c>
+      <c r="K756" t="n">
+        <v>45</v>
+      </c>
+      <c r="L756" t="n">
+        <v>46</v>
+      </c>
+      <c r="M756" t="n">
+        <v>50</v>
+      </c>
+      <c r="N756" t="n">
+        <v>60</v>
+      </c>
+      <c r="O756" t="n">
+        <v>65</v>
+      </c>
+      <c r="P756" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>72</v>
+      </c>
+      <c r="R756" t="n">
+        <v>75</v>
+      </c>
+      <c r="S756" t="n">
+        <v>77</v>
+      </c>
+      <c r="T756" t="n">
+        <v>78</v>
+      </c>
+      <c r="U756" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>4</v>
+      </c>
+      <c r="C757" t="n">
+        <v>10</v>
+      </c>
+      <c r="D757" t="n">
+        <v>14</v>
+      </c>
+      <c r="E757" t="n">
+        <v>15</v>
+      </c>
+      <c r="F757" t="n">
+        <v>26</v>
+      </c>
+      <c r="G757" t="n">
+        <v>33</v>
+      </c>
+      <c r="H757" t="n">
+        <v>35</v>
+      </c>
+      <c r="I757" t="n">
+        <v>37</v>
+      </c>
+      <c r="J757" t="n">
+        <v>39</v>
+      </c>
+      <c r="K757" t="n">
+        <v>43</v>
+      </c>
+      <c r="L757" t="n">
+        <v>47</v>
+      </c>
+      <c r="M757" t="n">
+        <v>49</v>
+      </c>
+      <c r="N757" t="n">
+        <v>55</v>
+      </c>
+      <c r="O757" t="n">
+        <v>57</v>
+      </c>
+      <c r="P757" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q757" t="n">
+        <v>70</v>
+      </c>
+      <c r="R757" t="n">
+        <v>71</v>
+      </c>
+      <c r="S757" t="n">
+        <v>74</v>
+      </c>
+      <c r="T757" t="n">
+        <v>77</v>
+      </c>
+      <c r="U757" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>7</v>
+      </c>
+      <c r="C758" t="n">
+        <v>9</v>
+      </c>
+      <c r="D758" t="n">
+        <v>15</v>
+      </c>
+      <c r="E758" t="n">
+        <v>18</v>
+      </c>
+      <c r="F758" t="n">
+        <v>20</v>
+      </c>
+      <c r="G758" t="n">
+        <v>24</v>
+      </c>
+      <c r="H758" t="n">
+        <v>26</v>
+      </c>
+      <c r="I758" t="n">
+        <v>32</v>
+      </c>
+      <c r="J758" t="n">
+        <v>34</v>
+      </c>
+      <c r="K758" t="n">
+        <v>37</v>
+      </c>
+      <c r="L758" t="n">
+        <v>39</v>
+      </c>
+      <c r="M758" t="n">
+        <v>40</v>
+      </c>
+      <c r="N758" t="n">
+        <v>42</v>
+      </c>
+      <c r="O758" t="n">
+        <v>44</v>
+      </c>
+      <c r="P758" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q758" t="n">
+        <v>57</v>
+      </c>
+      <c r="R758" t="n">
+        <v>60</v>
+      </c>
+      <c r="S758" t="n">
+        <v>69</v>
+      </c>
+      <c r="T758" t="n">
+        <v>71</v>
+      </c>
+      <c r="U758" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>2</v>
+      </c>
+      <c r="C759" t="n">
+        <v>7</v>
+      </c>
+      <c r="D759" t="n">
+        <v>9</v>
+      </c>
+      <c r="E759" t="n">
+        <v>17</v>
+      </c>
+      <c r="F759" t="n">
+        <v>20</v>
+      </c>
+      <c r="G759" t="n">
+        <v>28</v>
+      </c>
+      <c r="H759" t="n">
+        <v>29</v>
+      </c>
+      <c r="I759" t="n">
+        <v>30</v>
+      </c>
+      <c r="J759" t="n">
+        <v>33</v>
+      </c>
+      <c r="K759" t="n">
+        <v>39</v>
+      </c>
+      <c r="L759" t="n">
+        <v>42</v>
+      </c>
+      <c r="M759" t="n">
+        <v>50</v>
+      </c>
+      <c r="N759" t="n">
+        <v>51</v>
+      </c>
+      <c r="O759" t="n">
+        <v>54</v>
+      </c>
+      <c r="P759" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q759" t="n">
+        <v>56</v>
+      </c>
+      <c r="R759" t="n">
+        <v>57</v>
+      </c>
+      <c r="S759" t="n">
+        <v>71</v>
+      </c>
+      <c r="T759" t="n">
+        <v>75</v>
+      </c>
+      <c r="U759" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>8</v>
+      </c>
+      <c r="C760" t="n">
+        <v>10</v>
+      </c>
+      <c r="D760" t="n">
+        <v>15</v>
+      </c>
+      <c r="E760" t="n">
+        <v>17</v>
+      </c>
+      <c r="F760" t="n">
+        <v>22</v>
+      </c>
+      <c r="G760" t="n">
+        <v>30</v>
+      </c>
+      <c r="H760" t="n">
+        <v>32</v>
+      </c>
+      <c r="I760" t="n">
+        <v>34</v>
+      </c>
+      <c r="J760" t="n">
+        <v>35</v>
+      </c>
+      <c r="K760" t="n">
+        <v>40</v>
+      </c>
+      <c r="L760" t="n">
+        <v>45</v>
+      </c>
+      <c r="M760" t="n">
+        <v>48</v>
+      </c>
+      <c r="N760" t="n">
+        <v>49</v>
+      </c>
+      <c r="O760" t="n">
+        <v>58</v>
+      </c>
+      <c r="P760" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>64</v>
+      </c>
+      <c r="R760" t="n">
+        <v>68</v>
+      </c>
+      <c r="S760" t="n">
+        <v>71</v>
+      </c>
+      <c r="T760" t="n">
+        <v>72</v>
+      </c>
+      <c r="U760" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>6</v>
+      </c>
+      <c r="C761" t="n">
+        <v>15</v>
+      </c>
+      <c r="D761" t="n">
+        <v>16</v>
+      </c>
+      <c r="E761" t="n">
+        <v>17</v>
+      </c>
+      <c r="F761" t="n">
+        <v>22</v>
+      </c>
+      <c r="G761" t="n">
+        <v>23</v>
+      </c>
+      <c r="H761" t="n">
+        <v>24</v>
+      </c>
+      <c r="I761" t="n">
+        <v>34</v>
+      </c>
+      <c r="J761" t="n">
+        <v>41</v>
+      </c>
+      <c r="K761" t="n">
+        <v>44</v>
+      </c>
+      <c r="L761" t="n">
+        <v>48</v>
+      </c>
+      <c r="M761" t="n">
+        <v>50</v>
+      </c>
+      <c r="N761" t="n">
+        <v>52</v>
+      </c>
+      <c r="O761" t="n">
+        <v>55</v>
+      </c>
+      <c r="P761" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>62</v>
+      </c>
+      <c r="R761" t="n">
+        <v>66</v>
+      </c>
+      <c r="S761" t="n">
+        <v>77</v>
+      </c>
+      <c r="T761" t="n">
+        <v>79</v>
+      </c>
+      <c r="U761" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>2</v>
+      </c>
+      <c r="C762" t="n">
+        <v>7</v>
+      </c>
+      <c r="D762" t="n">
+        <v>9</v>
+      </c>
+      <c r="E762" t="n">
+        <v>10</v>
+      </c>
+      <c r="F762" t="n">
+        <v>17</v>
+      </c>
+      <c r="G762" t="n">
+        <v>19</v>
+      </c>
+      <c r="H762" t="n">
+        <v>24</v>
+      </c>
+      <c r="I762" t="n">
+        <v>30</v>
+      </c>
+      <c r="J762" t="n">
+        <v>33</v>
+      </c>
+      <c r="K762" t="n">
+        <v>37</v>
+      </c>
+      <c r="L762" t="n">
+        <v>43</v>
+      </c>
+      <c r="M762" t="n">
+        <v>45</v>
+      </c>
+      <c r="N762" t="n">
+        <v>48</v>
+      </c>
+      <c r="O762" t="n">
+        <v>53</v>
+      </c>
+      <c r="P762" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>60</v>
+      </c>
+      <c r="R762" t="n">
+        <v>66</v>
+      </c>
+      <c r="S762" t="n">
+        <v>69</v>
+      </c>
+      <c r="T762" t="n">
+        <v>75</v>
+      </c>
+      <c r="U762" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1</v>
+      </c>
+      <c r="C763" t="n">
+        <v>3</v>
+      </c>
+      <c r="D763" t="n">
+        <v>7</v>
+      </c>
+      <c r="E763" t="n">
+        <v>12</v>
+      </c>
+      <c r="F763" t="n">
+        <v>17</v>
+      </c>
+      <c r="G763" t="n">
+        <v>26</v>
+      </c>
+      <c r="H763" t="n">
+        <v>29</v>
+      </c>
+      <c r="I763" t="n">
+        <v>37</v>
+      </c>
+      <c r="J763" t="n">
+        <v>40</v>
+      </c>
+      <c r="K763" t="n">
+        <v>48</v>
+      </c>
+      <c r="L763" t="n">
+        <v>51</v>
+      </c>
+      <c r="M763" t="n">
+        <v>56</v>
+      </c>
+      <c r="N763" t="n">
+        <v>58</v>
+      </c>
+      <c r="O763" t="n">
+        <v>60</v>
+      </c>
+      <c r="P763" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>65</v>
+      </c>
+      <c r="R763" t="n">
+        <v>66</v>
+      </c>
+      <c r="S763" t="n">
+        <v>70</v>
+      </c>
+      <c r="T763" t="n">
+        <v>72</v>
+      </c>
+      <c r="U763" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1</v>
+      </c>
+      <c r="C764" t="n">
+        <v>2</v>
+      </c>
+      <c r="D764" t="n">
+        <v>5</v>
+      </c>
+      <c r="E764" t="n">
+        <v>21</v>
+      </c>
+      <c r="F764" t="n">
+        <v>25</v>
+      </c>
+      <c r="G764" t="n">
+        <v>30</v>
+      </c>
+      <c r="H764" t="n">
+        <v>32</v>
+      </c>
+      <c r="I764" t="n">
+        <v>33</v>
+      </c>
+      <c r="J764" t="n">
+        <v>35</v>
+      </c>
+      <c r="K764" t="n">
+        <v>36</v>
+      </c>
+      <c r="L764" t="n">
+        <v>39</v>
+      </c>
+      <c r="M764" t="n">
+        <v>40</v>
+      </c>
+      <c r="N764" t="n">
+        <v>41</v>
+      </c>
+      <c r="O764" t="n">
+        <v>51</v>
+      </c>
+      <c r="P764" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q764" t="n">
+        <v>59</v>
+      </c>
+      <c r="R764" t="n">
+        <v>61</v>
+      </c>
+      <c r="S764" t="n">
+        <v>63</v>
+      </c>
+      <c r="T764" t="n">
+        <v>66</v>
+      </c>
+      <c r="U764" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>8</v>
+      </c>
+      <c r="C765" t="n">
+        <v>10</v>
+      </c>
+      <c r="D765" t="n">
+        <v>18</v>
+      </c>
+      <c r="E765" t="n">
+        <v>19</v>
+      </c>
+      <c r="F765" t="n">
+        <v>31</v>
+      </c>
+      <c r="G765" t="n">
+        <v>36</v>
+      </c>
+      <c r="H765" t="n">
+        <v>38</v>
+      </c>
+      <c r="I765" t="n">
+        <v>39</v>
+      </c>
+      <c r="J765" t="n">
+        <v>44</v>
+      </c>
+      <c r="K765" t="n">
+        <v>47</v>
+      </c>
+      <c r="L765" t="n">
+        <v>49</v>
+      </c>
+      <c r="M765" t="n">
+        <v>51</v>
+      </c>
+      <c r="N765" t="n">
+        <v>52</v>
+      </c>
+      <c r="O765" t="n">
+        <v>57</v>
+      </c>
+      <c r="P765" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q765" t="n">
+        <v>65</v>
+      </c>
+      <c r="R765" t="n">
+        <v>66</v>
+      </c>
+      <c r="S765" t="n">
+        <v>72</v>
+      </c>
+      <c r="T765" t="n">
+        <v>73</v>
+      </c>
+      <c r="U765" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>1</v>
+      </c>
+      <c r="C766" t="n">
+        <v>8</v>
+      </c>
+      <c r="D766" t="n">
+        <v>9</v>
+      </c>
+      <c r="E766" t="n">
+        <v>10</v>
+      </c>
+      <c r="F766" t="n">
+        <v>12</v>
+      </c>
+      <c r="G766" t="n">
+        <v>14</v>
+      </c>
+      <c r="H766" t="n">
+        <v>16</v>
+      </c>
+      <c r="I766" t="n">
+        <v>20</v>
+      </c>
+      <c r="J766" t="n">
+        <v>21</v>
+      </c>
+      <c r="K766" t="n">
+        <v>33</v>
+      </c>
+      <c r="L766" t="n">
+        <v>35</v>
+      </c>
+      <c r="M766" t="n">
+        <v>43</v>
+      </c>
+      <c r="N766" t="n">
+        <v>48</v>
+      </c>
+      <c r="O766" t="n">
+        <v>55</v>
+      </c>
+      <c r="P766" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q766" t="n">
+        <v>70</v>
+      </c>
+      <c r="R766" t="n">
+        <v>73</v>
+      </c>
+      <c r="S766" t="n">
+        <v>76</v>
+      </c>
+      <c r="T766" t="n">
+        <v>77</v>
+      </c>
+      <c r="U766" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>30</v>
+      </c>
+      <c r="D767" t="n">
+        <v>31</v>
+      </c>
+      <c r="E767" t="n">
+        <v>37</v>
+      </c>
+      <c r="F767" t="n">
+        <v>40</v>
+      </c>
+      <c r="G767" t="n">
+        <v>43</v>
+      </c>
+      <c r="H767" t="n">
+        <v>44</v>
+      </c>
+      <c r="I767" t="n">
+        <v>47</v>
+      </c>
+      <c r="J767" t="n">
+        <v>49</v>
+      </c>
+      <c r="K767" t="n">
+        <v>51</v>
+      </c>
+      <c r="L767" t="n">
+        <v>53</v>
+      </c>
+      <c r="M767" t="n">
+        <v>54</v>
+      </c>
+      <c r="N767" t="n">
+        <v>61</v>
+      </c>
+      <c r="O767" t="n">
+        <v>64</v>
+      </c>
+      <c r="P767" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q767" t="n">
+        <v>69</v>
+      </c>
+      <c r="R767" t="n">
+        <v>72</v>
+      </c>
+      <c r="S767" t="n">
+        <v>75</v>
+      </c>
+      <c r="T767" t="n">
+        <v>76</v>
+      </c>
+      <c r="U767" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>11</v>
+      </c>
+      <c r="C768" t="n">
+        <v>17</v>
+      </c>
+      <c r="D768" t="n">
+        <v>18</v>
+      </c>
+      <c r="E768" t="n">
+        <v>21</v>
+      </c>
+      <c r="F768" t="n">
+        <v>29</v>
+      </c>
+      <c r="G768" t="n">
+        <v>35</v>
+      </c>
+      <c r="H768" t="n">
+        <v>38</v>
+      </c>
+      <c r="I768" t="n">
+        <v>40</v>
+      </c>
+      <c r="J768" t="n">
+        <v>41</v>
+      </c>
+      <c r="K768" t="n">
+        <v>42</v>
+      </c>
+      <c r="L768" t="n">
+        <v>43</v>
+      </c>
+      <c r="M768" t="n">
+        <v>44</v>
+      </c>
+      <c r="N768" t="n">
+        <v>61</v>
+      </c>
+      <c r="O768" t="n">
+        <v>62</v>
+      </c>
+      <c r="P768" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q768" t="n">
+        <v>65</v>
+      </c>
+      <c r="R768" t="n">
+        <v>67</v>
+      </c>
+      <c r="S768" t="n">
+        <v>72</v>
+      </c>
+      <c r="T768" t="n">
+        <v>73</v>
+      </c>
+      <c r="U768" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>1</v>
+      </c>
+      <c r="C769" t="n">
+        <v>4</v>
+      </c>
+      <c r="D769" t="n">
+        <v>5</v>
+      </c>
+      <c r="E769" t="n">
+        <v>8</v>
+      </c>
+      <c r="F769" t="n">
+        <v>16</v>
+      </c>
+      <c r="G769" t="n">
+        <v>17</v>
+      </c>
+      <c r="H769" t="n">
+        <v>18</v>
+      </c>
+      <c r="I769" t="n">
+        <v>20</v>
+      </c>
+      <c r="J769" t="n">
+        <v>27</v>
+      </c>
+      <c r="K769" t="n">
+        <v>30</v>
+      </c>
+      <c r="L769" t="n">
+        <v>37</v>
+      </c>
+      <c r="M769" t="n">
+        <v>38</v>
+      </c>
+      <c r="N769" t="n">
+        <v>43</v>
+      </c>
+      <c r="O769" t="n">
+        <v>49</v>
+      </c>
+      <c r="P769" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q769" t="n">
+        <v>57</v>
+      </c>
+      <c r="R769" t="n">
+        <v>62</v>
+      </c>
+      <c r="S769" t="n">
+        <v>69</v>
+      </c>
+      <c r="T769" t="n">
+        <v>78</v>
+      </c>
+      <c r="U769" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>5</v>
+      </c>
+      <c r="C770" t="n">
+        <v>7</v>
+      </c>
+      <c r="D770" t="n">
+        <v>8</v>
+      </c>
+      <c r="E770" t="n">
+        <v>11</v>
+      </c>
+      <c r="F770" t="n">
+        <v>13</v>
+      </c>
+      <c r="G770" t="n">
+        <v>16</v>
+      </c>
+      <c r="H770" t="n">
+        <v>17</v>
+      </c>
+      <c r="I770" t="n">
+        <v>19</v>
+      </c>
+      <c r="J770" t="n">
+        <v>29</v>
+      </c>
+      <c r="K770" t="n">
+        <v>30</v>
+      </c>
+      <c r="L770" t="n">
+        <v>36</v>
+      </c>
+      <c r="M770" t="n">
+        <v>40</v>
+      </c>
+      <c r="N770" t="n">
+        <v>45</v>
+      </c>
+      <c r="O770" t="n">
+        <v>47</v>
+      </c>
+      <c r="P770" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q770" t="n">
+        <v>55</v>
+      </c>
+      <c r="R770" t="n">
+        <v>72</v>
+      </c>
+      <c r="S770" t="n">
+        <v>73</v>
+      </c>
+      <c r="T770" t="n">
+        <v>74</v>
+      </c>
+      <c r="U770" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>12</v>
+      </c>
+      <c r="C771" t="n">
+        <v>14</v>
+      </c>
+      <c r="D771" t="n">
+        <v>15</v>
+      </c>
+      <c r="E771" t="n">
+        <v>16</v>
+      </c>
+      <c r="F771" t="n">
+        <v>17</v>
+      </c>
+      <c r="G771" t="n">
+        <v>18</v>
+      </c>
+      <c r="H771" t="n">
+        <v>21</v>
+      </c>
+      <c r="I771" t="n">
+        <v>22</v>
+      </c>
+      <c r="J771" t="n">
+        <v>23</v>
+      </c>
+      <c r="K771" t="n">
+        <v>24</v>
+      </c>
+      <c r="L771" t="n">
+        <v>34</v>
+      </c>
+      <c r="M771" t="n">
+        <v>38</v>
+      </c>
+      <c r="N771" t="n">
+        <v>45</v>
+      </c>
+      <c r="O771" t="n">
+        <v>57</v>
+      </c>
+      <c r="P771" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q771" t="n">
+        <v>64</v>
+      </c>
+      <c r="R771" t="n">
+        <v>65</v>
+      </c>
+      <c r="S771" t="n">
+        <v>67</v>
+      </c>
+      <c r="T771" t="n">
+        <v>68</v>
+      </c>
+      <c r="U771" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2</v>
+      </c>
+      <c r="C772" t="n">
+        <v>6</v>
+      </c>
+      <c r="D772" t="n">
+        <v>7</v>
+      </c>
+      <c r="E772" t="n">
+        <v>8</v>
+      </c>
+      <c r="F772" t="n">
+        <v>24</v>
+      </c>
+      <c r="G772" t="n">
+        <v>31</v>
+      </c>
+      <c r="H772" t="n">
+        <v>38</v>
+      </c>
+      <c r="I772" t="n">
+        <v>39</v>
+      </c>
+      <c r="J772" t="n">
+        <v>40</v>
+      </c>
+      <c r="K772" t="n">
+        <v>51</v>
+      </c>
+      <c r="L772" t="n">
+        <v>53</v>
+      </c>
+      <c r="M772" t="n">
+        <v>58</v>
+      </c>
+      <c r="N772" t="n">
+        <v>60</v>
+      </c>
+      <c r="O772" t="n">
+        <v>65</v>
+      </c>
+      <c r="P772" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q772" t="n">
+        <v>67</v>
+      </c>
+      <c r="R772" t="n">
+        <v>70</v>
+      </c>
+      <c r="S772" t="n">
+        <v>72</v>
+      </c>
+      <c r="T772" t="n">
+        <v>73</v>
+      </c>
+      <c r="U772" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>9</v>
+      </c>
+      <c r="C773" t="n">
+        <v>13</v>
+      </c>
+      <c r="D773" t="n">
+        <v>24</v>
+      </c>
+      <c r="E773" t="n">
+        <v>26</v>
+      </c>
+      <c r="F773" t="n">
+        <v>34</v>
+      </c>
+      <c r="G773" t="n">
+        <v>40</v>
+      </c>
+      <c r="H773" t="n">
+        <v>42</v>
+      </c>
+      <c r="I773" t="n">
+        <v>45</v>
+      </c>
+      <c r="J773" t="n">
+        <v>48</v>
+      </c>
+      <c r="K773" t="n">
+        <v>51</v>
+      </c>
+      <c r="L773" t="n">
+        <v>56</v>
+      </c>
+      <c r="M773" t="n">
+        <v>60</v>
+      </c>
+      <c r="N773" t="n">
+        <v>62</v>
+      </c>
+      <c r="O773" t="n">
+        <v>64</v>
+      </c>
+      <c r="P773" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q773" t="n">
+        <v>67</v>
+      </c>
+      <c r="R773" t="n">
+        <v>73</v>
+      </c>
+      <c r="S773" t="n">
+        <v>78</v>
+      </c>
+      <c r="T773" t="n">
+        <v>79</v>
+      </c>
+      <c r="U773" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>1</v>
+      </c>
+      <c r="C774" t="n">
+        <v>3</v>
+      </c>
+      <c r="D774" t="n">
+        <v>6</v>
+      </c>
+      <c r="E774" t="n">
+        <v>7</v>
+      </c>
+      <c r="F774" t="n">
+        <v>9</v>
+      </c>
+      <c r="G774" t="n">
+        <v>14</v>
+      </c>
+      <c r="H774" t="n">
+        <v>17</v>
+      </c>
+      <c r="I774" t="n">
+        <v>20</v>
+      </c>
+      <c r="J774" t="n">
+        <v>22</v>
+      </c>
+      <c r="K774" t="n">
+        <v>26</v>
+      </c>
+      <c r="L774" t="n">
+        <v>28</v>
+      </c>
+      <c r="M774" t="n">
+        <v>45</v>
+      </c>
+      <c r="N774" t="n">
+        <v>48</v>
+      </c>
+      <c r="O774" t="n">
+        <v>56</v>
+      </c>
+      <c r="P774" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q774" t="n">
+        <v>68</v>
+      </c>
+      <c r="R774" t="n">
+        <v>69</v>
+      </c>
+      <c r="S774" t="n">
+        <v>71</v>
+      </c>
+      <c r="T774" t="n">
+        <v>78</v>
+      </c>
+      <c r="U774" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>11</v>
+      </c>
+      <c r="C775" t="n">
+        <v>16</v>
+      </c>
+      <c r="D775" t="n">
+        <v>19</v>
+      </c>
+      <c r="E775" t="n">
+        <v>22</v>
+      </c>
+      <c r="F775" t="n">
+        <v>30</v>
+      </c>
+      <c r="G775" t="n">
+        <v>35</v>
+      </c>
+      <c r="H775" t="n">
+        <v>36</v>
+      </c>
+      <c r="I775" t="n">
+        <v>39</v>
+      </c>
+      <c r="J775" t="n">
+        <v>45</v>
+      </c>
+      <c r="K775" t="n">
+        <v>54</v>
+      </c>
+      <c r="L775" t="n">
+        <v>55</v>
+      </c>
+      <c r="M775" t="n">
+        <v>58</v>
+      </c>
+      <c r="N775" t="n">
+        <v>61</v>
+      </c>
+      <c r="O775" t="n">
+        <v>63</v>
+      </c>
+      <c r="P775" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q775" t="n">
+        <v>66</v>
+      </c>
+      <c r="R775" t="n">
+        <v>72</v>
+      </c>
+      <c r="S775" t="n">
+        <v>74</v>
+      </c>
+      <c r="T775" t="n">
+        <v>75</v>
+      </c>
+      <c r="U775" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>1</v>
+      </c>
+      <c r="C776" t="n">
+        <v>4</v>
+      </c>
+      <c r="D776" t="n">
+        <v>7</v>
+      </c>
+      <c r="E776" t="n">
+        <v>9</v>
+      </c>
+      <c r="F776" t="n">
+        <v>16</v>
+      </c>
+      <c r="G776" t="n">
+        <v>21</v>
+      </c>
+      <c r="H776" t="n">
+        <v>24</v>
+      </c>
+      <c r="I776" t="n">
+        <v>28</v>
+      </c>
+      <c r="J776" t="n">
+        <v>30</v>
+      </c>
+      <c r="K776" t="n">
+        <v>33</v>
+      </c>
+      <c r="L776" t="n">
+        <v>37</v>
+      </c>
+      <c r="M776" t="n">
+        <v>50</v>
+      </c>
+      <c r="N776" t="n">
+        <v>51</v>
+      </c>
+      <c r="O776" t="n">
+        <v>53</v>
+      </c>
+      <c r="P776" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q776" t="n">
+        <v>68</v>
+      </c>
+      <c r="R776" t="n">
+        <v>74</v>
+      </c>
+      <c r="S776" t="n">
+        <v>77</v>
+      </c>
+      <c r="T776" t="n">
+        <v>78</v>
+      </c>
+      <c r="U776" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>1</v>
+      </c>
+      <c r="C777" t="n">
+        <v>2</v>
+      </c>
+      <c r="D777" t="n">
+        <v>8</v>
+      </c>
+      <c r="E777" t="n">
+        <v>14</v>
+      </c>
+      <c r="F777" t="n">
+        <v>15</v>
+      </c>
+      <c r="G777" t="n">
+        <v>18</v>
+      </c>
+      <c r="H777" t="n">
+        <v>24</v>
+      </c>
+      <c r="I777" t="n">
+        <v>30</v>
+      </c>
+      <c r="J777" t="n">
+        <v>33</v>
+      </c>
+      <c r="K777" t="n">
+        <v>37</v>
+      </c>
+      <c r="L777" t="n">
+        <v>47</v>
+      </c>
+      <c r="M777" t="n">
+        <v>48</v>
+      </c>
+      <c r="N777" t="n">
+        <v>51</v>
+      </c>
+      <c r="O777" t="n">
+        <v>52</v>
+      </c>
+      <c r="P777" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q777" t="n">
+        <v>58</v>
+      </c>
+      <c r="R777" t="n">
+        <v>72</v>
+      </c>
+      <c r="S777" t="n">
+        <v>74</v>
+      </c>
+      <c r="T777" t="n">
+        <v>76</v>
+      </c>
+      <c r="U777" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>6</v>
+      </c>
+      <c r="C778" t="n">
+        <v>7</v>
+      </c>
+      <c r="D778" t="n">
+        <v>9</v>
+      </c>
+      <c r="E778" t="n">
+        <v>10</v>
+      </c>
+      <c r="F778" t="n">
+        <v>18</v>
+      </c>
+      <c r="G778" t="n">
+        <v>29</v>
+      </c>
+      <c r="H778" t="n">
+        <v>30</v>
+      </c>
+      <c r="I778" t="n">
+        <v>34</v>
+      </c>
+      <c r="J778" t="n">
+        <v>39</v>
+      </c>
+      <c r="K778" t="n">
+        <v>42</v>
+      </c>
+      <c r="L778" t="n">
+        <v>43</v>
+      </c>
+      <c r="M778" t="n">
+        <v>45</v>
+      </c>
+      <c r="N778" t="n">
+        <v>47</v>
+      </c>
+      <c r="O778" t="n">
+        <v>48</v>
+      </c>
+      <c r="P778" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q778" t="n">
+        <v>66</v>
+      </c>
+      <c r="R778" t="n">
+        <v>69</v>
+      </c>
+      <c r="S778" t="n">
+        <v>73</v>
+      </c>
+      <c r="T778" t="n">
+        <v>76</v>
+      </c>
+      <c r="U778" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>1</v>
+      </c>
+      <c r="C779" t="n">
+        <v>4</v>
+      </c>
+      <c r="D779" t="n">
+        <v>5</v>
+      </c>
+      <c r="E779" t="n">
+        <v>6</v>
+      </c>
+      <c r="F779" t="n">
+        <v>8</v>
+      </c>
+      <c r="G779" t="n">
+        <v>13</v>
+      </c>
+      <c r="H779" t="n">
+        <v>23</v>
+      </c>
+      <c r="I779" t="n">
+        <v>29</v>
+      </c>
+      <c r="J779" t="n">
+        <v>31</v>
+      </c>
+      <c r="K779" t="n">
+        <v>34</v>
+      </c>
+      <c r="L779" t="n">
+        <v>35</v>
+      </c>
+      <c r="M779" t="n">
+        <v>36</v>
+      </c>
+      <c r="N779" t="n">
+        <v>37</v>
+      </c>
+      <c r="O779" t="n">
+        <v>39</v>
+      </c>
+      <c r="P779" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q779" t="n">
+        <v>43</v>
+      </c>
+      <c r="R779" t="n">
+        <v>45</v>
+      </c>
+      <c r="S779" t="n">
+        <v>51</v>
+      </c>
+      <c r="T779" t="n">
+        <v>73</v>
+      </c>
+      <c r="U779" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>5</v>
+      </c>
+      <c r="C780" t="n">
+        <v>16</v>
+      </c>
+      <c r="D780" t="n">
+        <v>17</v>
+      </c>
+      <c r="E780" t="n">
+        <v>18</v>
+      </c>
+      <c r="F780" t="n">
+        <v>21</v>
+      </c>
+      <c r="G780" t="n">
+        <v>23</v>
+      </c>
+      <c r="H780" t="n">
+        <v>24</v>
+      </c>
+      <c r="I780" t="n">
+        <v>26</v>
+      </c>
+      <c r="J780" t="n">
+        <v>32</v>
+      </c>
+      <c r="K780" t="n">
+        <v>38</v>
+      </c>
+      <c r="L780" t="n">
+        <v>44</v>
+      </c>
+      <c r="M780" t="n">
+        <v>45</v>
+      </c>
+      <c r="N780" t="n">
+        <v>57</v>
+      </c>
+      <c r="O780" t="n">
+        <v>60</v>
+      </c>
+      <c r="P780" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q780" t="n">
+        <v>66</v>
+      </c>
+      <c r="R780" t="n">
+        <v>68</v>
+      </c>
+      <c r="S780" t="n">
+        <v>70</v>
+      </c>
+      <c r="T780" t="n">
+        <v>75</v>
+      </c>
+      <c r="U780" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>4</v>
+      </c>
+      <c r="C781" t="n">
+        <v>7</v>
+      </c>
+      <c r="D781" t="n">
+        <v>9</v>
+      </c>
+      <c r="E781" t="n">
+        <v>19</v>
+      </c>
+      <c r="F781" t="n">
+        <v>24</v>
+      </c>
+      <c r="G781" t="n">
+        <v>25</v>
+      </c>
+      <c r="H781" t="n">
+        <v>27</v>
+      </c>
+      <c r="I781" t="n">
+        <v>28</v>
+      </c>
+      <c r="J781" t="n">
+        <v>32</v>
+      </c>
+      <c r="K781" t="n">
+        <v>36</v>
+      </c>
+      <c r="L781" t="n">
+        <v>37</v>
+      </c>
+      <c r="M781" t="n">
+        <v>40</v>
+      </c>
+      <c r="N781" t="n">
+        <v>41</v>
+      </c>
+      <c r="O781" t="n">
+        <v>47</v>
+      </c>
+      <c r="P781" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q781" t="n">
+        <v>52</v>
+      </c>
+      <c r="R781" t="n">
+        <v>54</v>
+      </c>
+      <c r="S781" t="n">
+        <v>56</v>
+      </c>
+      <c r="T781" t="n">
+        <v>60</v>
+      </c>
+      <c r="U781" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>1</v>
+      </c>
+      <c r="C782" t="n">
+        <v>2</v>
+      </c>
+      <c r="D782" t="n">
+        <v>5</v>
+      </c>
+      <c r="E782" t="n">
+        <v>7</v>
+      </c>
+      <c r="F782" t="n">
+        <v>17</v>
+      </c>
+      <c r="G782" t="n">
+        <v>18</v>
+      </c>
+      <c r="H782" t="n">
+        <v>20</v>
+      </c>
+      <c r="I782" t="n">
+        <v>21</v>
+      </c>
+      <c r="J782" t="n">
+        <v>35</v>
+      </c>
+      <c r="K782" t="n">
+        <v>42</v>
+      </c>
+      <c r="L782" t="n">
+        <v>43</v>
+      </c>
+      <c r="M782" t="n">
+        <v>47</v>
+      </c>
+      <c r="N782" t="n">
+        <v>48</v>
+      </c>
+      <c r="O782" t="n">
+        <v>49</v>
+      </c>
+      <c r="P782" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q782" t="n">
+        <v>61</v>
+      </c>
+      <c r="R782" t="n">
+        <v>66</v>
+      </c>
+      <c r="S782" t="n">
+        <v>67</v>
+      </c>
+      <c r="T782" t="n">
+        <v>70</v>
+      </c>
+      <c r="U782" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>4</v>
+      </c>
+      <c r="C783" t="n">
+        <v>6</v>
+      </c>
+      <c r="D783" t="n">
+        <v>9</v>
+      </c>
+      <c r="E783" t="n">
+        <v>13</v>
+      </c>
+      <c r="F783" t="n">
+        <v>15</v>
+      </c>
+      <c r="G783" t="n">
+        <v>16</v>
+      </c>
+      <c r="H783" t="n">
+        <v>17</v>
+      </c>
+      <c r="I783" t="n">
+        <v>18</v>
+      </c>
+      <c r="J783" t="n">
+        <v>33</v>
+      </c>
+      <c r="K783" t="n">
+        <v>35</v>
+      </c>
+      <c r="L783" t="n">
+        <v>41</v>
+      </c>
+      <c r="M783" t="n">
+        <v>43</v>
+      </c>
+      <c r="N783" t="n">
+        <v>47</v>
+      </c>
+      <c r="O783" t="n">
+        <v>50</v>
+      </c>
+      <c r="P783" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q783" t="n">
+        <v>61</v>
+      </c>
+      <c r="R783" t="n">
+        <v>66</v>
+      </c>
+      <c r="S783" t="n">
+        <v>67</v>
+      </c>
+      <c r="T783" t="n">
+        <v>69</v>
+      </c>
+      <c r="U783" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>1</v>
+      </c>
+      <c r="C784" t="n">
+        <v>11</v>
+      </c>
+      <c r="D784" t="n">
+        <v>13</v>
+      </c>
+      <c r="E784" t="n">
+        <v>22</v>
+      </c>
+      <c r="F784" t="n">
+        <v>27</v>
+      </c>
+      <c r="G784" t="n">
+        <v>28</v>
+      </c>
+      <c r="H784" t="n">
+        <v>30</v>
+      </c>
+      <c r="I784" t="n">
+        <v>31</v>
+      </c>
+      <c r="J784" t="n">
+        <v>38</v>
+      </c>
+      <c r="K784" t="n">
+        <v>45</v>
+      </c>
+      <c r="L784" t="n">
+        <v>48</v>
+      </c>
+      <c r="M784" t="n">
+        <v>50</v>
+      </c>
+      <c r="N784" t="n">
+        <v>58</v>
+      </c>
+      <c r="O784" t="n">
+        <v>60</v>
+      </c>
+      <c r="P784" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>67</v>
+      </c>
+      <c r="R784" t="n">
+        <v>70</v>
+      </c>
+      <c r="S784" t="n">
+        <v>76</v>
+      </c>
+      <c r="T784" t="n">
+        <v>77</v>
+      </c>
+      <c r="U784" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>6</v>
+      </c>
+      <c r="C785" t="n">
+        <v>9</v>
+      </c>
+      <c r="D785" t="n">
+        <v>21</v>
+      </c>
+      <c r="E785" t="n">
+        <v>26</v>
+      </c>
+      <c r="F785" t="n">
+        <v>29</v>
+      </c>
+      <c r="G785" t="n">
+        <v>32</v>
+      </c>
+      <c r="H785" t="n">
+        <v>38</v>
+      </c>
+      <c r="I785" t="n">
+        <v>43</v>
+      </c>
+      <c r="J785" t="n">
+        <v>47</v>
+      </c>
+      <c r="K785" t="n">
+        <v>52</v>
+      </c>
+      <c r="L785" t="n">
+        <v>57</v>
+      </c>
+      <c r="M785" t="n">
+        <v>61</v>
+      </c>
+      <c r="N785" t="n">
+        <v>62</v>
+      </c>
+      <c r="O785" t="n">
+        <v>65</v>
+      </c>
+      <c r="P785" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>71</v>
+      </c>
+      <c r="R785" t="n">
+        <v>72</v>
+      </c>
+      <c r="S785" t="n">
+        <v>74</v>
+      </c>
+      <c r="T785" t="n">
+        <v>77</v>
+      </c>
+      <c r="U785" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>3</v>
+      </c>
+      <c r="C786" t="n">
+        <v>6</v>
+      </c>
+      <c r="D786" t="n">
+        <v>9</v>
+      </c>
+      <c r="E786" t="n">
+        <v>12</v>
+      </c>
+      <c r="F786" t="n">
+        <v>13</v>
+      </c>
+      <c r="G786" t="n">
+        <v>17</v>
+      </c>
+      <c r="H786" t="n">
+        <v>21</v>
+      </c>
+      <c r="I786" t="n">
+        <v>23</v>
+      </c>
+      <c r="J786" t="n">
+        <v>35</v>
+      </c>
+      <c r="K786" t="n">
+        <v>39</v>
+      </c>
+      <c r="L786" t="n">
+        <v>44</v>
+      </c>
+      <c r="M786" t="n">
+        <v>48</v>
+      </c>
+      <c r="N786" t="n">
+        <v>51</v>
+      </c>
+      <c r="O786" t="n">
+        <v>54</v>
+      </c>
+      <c r="P786" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q786" t="n">
+        <v>62</v>
+      </c>
+      <c r="R786" t="n">
+        <v>67</v>
+      </c>
+      <c r="S786" t="n">
+        <v>71</v>
+      </c>
+      <c r="T786" t="n">
+        <v>74</v>
+      </c>
+      <c r="U786" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>4</v>
+      </c>
+      <c r="C787" t="n">
+        <v>7</v>
+      </c>
+      <c r="D787" t="n">
+        <v>8</v>
+      </c>
+      <c r="E787" t="n">
+        <v>12</v>
+      </c>
+      <c r="F787" t="n">
+        <v>16</v>
+      </c>
+      <c r="G787" t="n">
+        <v>17</v>
+      </c>
+      <c r="H787" t="n">
+        <v>20</v>
+      </c>
+      <c r="I787" t="n">
+        <v>23</v>
+      </c>
+      <c r="J787" t="n">
+        <v>37</v>
+      </c>
+      <c r="K787" t="n">
+        <v>40</v>
+      </c>
+      <c r="L787" t="n">
+        <v>41</v>
+      </c>
+      <c r="M787" t="n">
+        <v>42</v>
+      </c>
+      <c r="N787" t="n">
+        <v>45</v>
+      </c>
+      <c r="O787" t="n">
+        <v>46</v>
+      </c>
+      <c r="P787" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q787" t="n">
+        <v>53</v>
+      </c>
+      <c r="R787" t="n">
+        <v>60</v>
+      </c>
+      <c r="S787" t="n">
+        <v>69</v>
+      </c>
+      <c r="T787" t="n">
+        <v>70</v>
+      </c>
+      <c r="U787" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>6</v>
+      </c>
+      <c r="C788" t="n">
+        <v>8</v>
+      </c>
+      <c r="D788" t="n">
+        <v>12</v>
+      </c>
+      <c r="E788" t="n">
+        <v>31</v>
+      </c>
+      <c r="F788" t="n">
+        <v>34</v>
+      </c>
+      <c r="G788" t="n">
+        <v>39</v>
+      </c>
+      <c r="H788" t="n">
+        <v>44</v>
+      </c>
+      <c r="I788" t="n">
+        <v>46</v>
+      </c>
+      <c r="J788" t="n">
+        <v>50</v>
+      </c>
+      <c r="K788" t="n">
+        <v>51</v>
+      </c>
+      <c r="L788" t="n">
+        <v>52</v>
+      </c>
+      <c r="M788" t="n">
+        <v>59</v>
+      </c>
+      <c r="N788" t="n">
+        <v>61</v>
+      </c>
+      <c r="O788" t="n">
+        <v>65</v>
+      </c>
+      <c r="P788" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q788" t="n">
+        <v>71</v>
+      </c>
+      <c r="R788" t="n">
+        <v>72</v>
+      </c>
+      <c r="S788" t="n">
+        <v>75</v>
+      </c>
+      <c r="T788" t="n">
+        <v>79</v>
+      </c>
+      <c r="U788" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1</v>
+      </c>
+      <c r="C789" t="n">
+        <v>3</v>
+      </c>
+      <c r="D789" t="n">
+        <v>14</v>
+      </c>
+      <c r="E789" t="n">
+        <v>16</v>
+      </c>
+      <c r="F789" t="n">
+        <v>19</v>
+      </c>
+      <c r="G789" t="n">
+        <v>20</v>
+      </c>
+      <c r="H789" t="n">
+        <v>27</v>
+      </c>
+      <c r="I789" t="n">
+        <v>28</v>
+      </c>
+      <c r="J789" t="n">
+        <v>29</v>
+      </c>
+      <c r="K789" t="n">
+        <v>31</v>
+      </c>
+      <c r="L789" t="n">
+        <v>40</v>
+      </c>
+      <c r="M789" t="n">
+        <v>42</v>
+      </c>
+      <c r="N789" t="n">
+        <v>45</v>
+      </c>
+      <c r="O789" t="n">
+        <v>46</v>
+      </c>
+      <c r="P789" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q789" t="n">
+        <v>63</v>
+      </c>
+      <c r="R789" t="n">
+        <v>64</v>
+      </c>
+      <c r="S789" t="n">
+        <v>67</v>
+      </c>
+      <c r="T789" t="n">
+        <v>69</v>
+      </c>
+      <c r="U789" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>7</v>
+      </c>
+      <c r="C790" t="n">
+        <v>8</v>
+      </c>
+      <c r="D790" t="n">
+        <v>13</v>
+      </c>
+      <c r="E790" t="n">
+        <v>20</v>
+      </c>
+      <c r="F790" t="n">
+        <v>22</v>
+      </c>
+      <c r="G790" t="n">
+        <v>24</v>
+      </c>
+      <c r="H790" t="n">
+        <v>25</v>
+      </c>
+      <c r="I790" t="n">
+        <v>34</v>
+      </c>
+      <c r="J790" t="n">
+        <v>36</v>
+      </c>
+      <c r="K790" t="n">
+        <v>40</v>
+      </c>
+      <c r="L790" t="n">
+        <v>43</v>
+      </c>
+      <c r="M790" t="n">
+        <v>44</v>
+      </c>
+      <c r="N790" t="n">
+        <v>46</v>
+      </c>
+      <c r="O790" t="n">
+        <v>50</v>
+      </c>
+      <c r="P790" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q790" t="n">
+        <v>61</v>
+      </c>
+      <c r="R790" t="n">
+        <v>65</v>
+      </c>
+      <c r="S790" t="n">
+        <v>67</v>
+      </c>
+      <c r="T790" t="n">
+        <v>68</v>
+      </c>
+      <c r="U790" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>3</v>
+      </c>
+      <c r="C791" t="n">
+        <v>11</v>
+      </c>
+      <c r="D791" t="n">
+        <v>19</v>
+      </c>
+      <c r="E791" t="n">
+        <v>25</v>
+      </c>
+      <c r="F791" t="n">
+        <v>26</v>
+      </c>
+      <c r="G791" t="n">
+        <v>27</v>
+      </c>
+      <c r="H791" t="n">
+        <v>29</v>
+      </c>
+      <c r="I791" t="n">
+        <v>31</v>
+      </c>
+      <c r="J791" t="n">
+        <v>34</v>
+      </c>
+      <c r="K791" t="n">
+        <v>38</v>
+      </c>
+      <c r="L791" t="n">
+        <v>46</v>
+      </c>
+      <c r="M791" t="n">
+        <v>47</v>
+      </c>
+      <c r="N791" t="n">
+        <v>49</v>
+      </c>
+      <c r="O791" t="n">
+        <v>51</v>
+      </c>
+      <c r="P791" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q791" t="n">
+        <v>58</v>
+      </c>
+      <c r="R791" t="n">
+        <v>59</v>
+      </c>
+      <c r="S791" t="n">
+        <v>61</v>
+      </c>
+      <c r="T791" t="n">
+        <v>62</v>
+      </c>
+      <c r="U791" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>9</v>
+      </c>
+      <c r="C792" t="n">
+        <v>11</v>
+      </c>
+      <c r="D792" t="n">
+        <v>12</v>
+      </c>
+      <c r="E792" t="n">
+        <v>15</v>
+      </c>
+      <c r="F792" t="n">
+        <v>16</v>
+      </c>
+      <c r="G792" t="n">
+        <v>18</v>
+      </c>
+      <c r="H792" t="n">
+        <v>20</v>
+      </c>
+      <c r="I792" t="n">
+        <v>21</v>
+      </c>
+      <c r="J792" t="n">
+        <v>36</v>
+      </c>
+      <c r="K792" t="n">
+        <v>37</v>
+      </c>
+      <c r="L792" t="n">
+        <v>38</v>
+      </c>
+      <c r="M792" t="n">
+        <v>40</v>
+      </c>
+      <c r="N792" t="n">
+        <v>42</v>
+      </c>
+      <c r="O792" t="n">
+        <v>46</v>
+      </c>
+      <c r="P792" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q792" t="n">
+        <v>52</v>
+      </c>
+      <c r="R792" t="n">
+        <v>58</v>
+      </c>
+      <c r="S792" t="n">
+        <v>71</v>
+      </c>
+      <c r="T792" t="n">
+        <v>73</v>
+      </c>
+      <c r="U792" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>1</v>
+      </c>
+      <c r="C793" t="n">
+        <v>4</v>
+      </c>
+      <c r="D793" t="n">
+        <v>5</v>
+      </c>
+      <c r="E793" t="n">
+        <v>6</v>
+      </c>
+      <c r="F793" t="n">
+        <v>13</v>
+      </c>
+      <c r="G793" t="n">
+        <v>25</v>
+      </c>
+      <c r="H793" t="n">
+        <v>32</v>
+      </c>
+      <c r="I793" t="n">
+        <v>37</v>
+      </c>
+      <c r="J793" t="n">
+        <v>45</v>
+      </c>
+      <c r="K793" t="n">
+        <v>48</v>
+      </c>
+      <c r="L793" t="n">
+        <v>56</v>
+      </c>
+      <c r="M793" t="n">
+        <v>57</v>
+      </c>
+      <c r="N793" t="n">
+        <v>60</v>
+      </c>
+      <c r="O793" t="n">
+        <v>65</v>
+      </c>
+      <c r="P793" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q793" t="n">
+        <v>68</v>
+      </c>
+      <c r="R793" t="n">
+        <v>70</v>
+      </c>
+      <c r="S793" t="n">
+        <v>71</v>
+      </c>
+      <c r="T793" t="n">
+        <v>75</v>
+      </c>
+      <c r="U793" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>7</v>
+      </c>
+      <c r="C794" t="n">
+        <v>12</v>
+      </c>
+      <c r="D794" t="n">
+        <v>13</v>
+      </c>
+      <c r="E794" t="n">
+        <v>20</v>
+      </c>
+      <c r="F794" t="n">
+        <v>29</v>
+      </c>
+      <c r="G794" t="n">
+        <v>35</v>
+      </c>
+      <c r="H794" t="n">
+        <v>37</v>
+      </c>
+      <c r="I794" t="n">
+        <v>39</v>
+      </c>
+      <c r="J794" t="n">
+        <v>40</v>
+      </c>
+      <c r="K794" t="n">
+        <v>45</v>
+      </c>
+      <c r="L794" t="n">
+        <v>46</v>
+      </c>
+      <c r="M794" t="n">
+        <v>53</v>
+      </c>
+      <c r="N794" t="n">
+        <v>54</v>
+      </c>
+      <c r="O794" t="n">
+        <v>60</v>
+      </c>
+      <c r="P794" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q794" t="n">
+        <v>66</v>
+      </c>
+      <c r="R794" t="n">
+        <v>67</v>
+      </c>
+      <c r="S794" t="n">
+        <v>75</v>
+      </c>
+      <c r="T794" t="n">
+        <v>76</v>
+      </c>
+      <c r="U794" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>1</v>
+      </c>
+      <c r="C795" t="n">
+        <v>5</v>
+      </c>
+      <c r="D795" t="n">
+        <v>6</v>
+      </c>
+      <c r="E795" t="n">
+        <v>13</v>
+      </c>
+      <c r="F795" t="n">
+        <v>17</v>
+      </c>
+      <c r="G795" t="n">
+        <v>20</v>
+      </c>
+      <c r="H795" t="n">
+        <v>22</v>
+      </c>
+      <c r="I795" t="n">
+        <v>29</v>
+      </c>
+      <c r="J795" t="n">
+        <v>37</v>
+      </c>
+      <c r="K795" t="n">
+        <v>46</v>
+      </c>
+      <c r="L795" t="n">
+        <v>57</v>
+      </c>
+      <c r="M795" t="n">
+        <v>58</v>
+      </c>
+      <c r="N795" t="n">
+        <v>61</v>
+      </c>
+      <c r="O795" t="n">
+        <v>62</v>
+      </c>
+      <c r="P795" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q795" t="n">
+        <v>67</v>
+      </c>
+      <c r="R795" t="n">
+        <v>68</v>
+      </c>
+      <c r="S795" t="n">
+        <v>69</v>
+      </c>
+      <c r="T795" t="n">
+        <v>71</v>
+      </c>
+      <c r="U795" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>3</v>
+      </c>
+      <c r="C796" t="n">
+        <v>8</v>
+      </c>
+      <c r="D796" t="n">
+        <v>9</v>
+      </c>
+      <c r="E796" t="n">
+        <v>12</v>
+      </c>
+      <c r="F796" t="n">
+        <v>15</v>
+      </c>
+      <c r="G796" t="n">
+        <v>16</v>
+      </c>
+      <c r="H796" t="n">
+        <v>17</v>
+      </c>
+      <c r="I796" t="n">
+        <v>21</v>
+      </c>
+      <c r="J796" t="n">
+        <v>33</v>
+      </c>
+      <c r="K796" t="n">
+        <v>34</v>
+      </c>
+      <c r="L796" t="n">
+        <v>45</v>
+      </c>
+      <c r="M796" t="n">
+        <v>47</v>
+      </c>
+      <c r="N796" t="n">
+        <v>54</v>
+      </c>
+      <c r="O796" t="n">
+        <v>56</v>
+      </c>
+      <c r="P796" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q796" t="n">
+        <v>58</v>
+      </c>
+      <c r="R796" t="n">
+        <v>59</v>
+      </c>
+      <c r="S796" t="n">
+        <v>68</v>
+      </c>
+      <c r="T796" t="n">
+        <v>76</v>
+      </c>
+      <c r="U796" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>2</v>
+      </c>
+      <c r="C797" t="n">
+        <v>4</v>
+      </c>
+      <c r="D797" t="n">
+        <v>5</v>
+      </c>
+      <c r="E797" t="n">
+        <v>7</v>
+      </c>
+      <c r="F797" t="n">
+        <v>8</v>
+      </c>
+      <c r="G797" t="n">
+        <v>11</v>
+      </c>
+      <c r="H797" t="n">
+        <v>13</v>
+      </c>
+      <c r="I797" t="n">
+        <v>19</v>
+      </c>
+      <c r="J797" t="n">
+        <v>22</v>
+      </c>
+      <c r="K797" t="n">
+        <v>25</v>
+      </c>
+      <c r="L797" t="n">
+        <v>35</v>
+      </c>
+      <c r="M797" t="n">
+        <v>39</v>
+      </c>
+      <c r="N797" t="n">
+        <v>41</v>
+      </c>
+      <c r="O797" t="n">
+        <v>46</v>
+      </c>
+      <c r="P797" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q797" t="n">
+        <v>58</v>
+      </c>
+      <c r="R797" t="n">
+        <v>60</v>
+      </c>
+      <c r="S797" t="n">
+        <v>64</v>
+      </c>
+      <c r="T797" t="n">
+        <v>65</v>
+      </c>
+      <c r="U797" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>9</v>
+      </c>
+      <c r="C798" t="n">
+        <v>13</v>
+      </c>
+      <c r="D798" t="n">
+        <v>15</v>
+      </c>
+      <c r="E798" t="n">
+        <v>19</v>
+      </c>
+      <c r="F798" t="n">
+        <v>20</v>
+      </c>
+      <c r="G798" t="n">
+        <v>25</v>
+      </c>
+      <c r="H798" t="n">
+        <v>26</v>
+      </c>
+      <c r="I798" t="n">
+        <v>27</v>
+      </c>
+      <c r="J798" t="n">
+        <v>29</v>
+      </c>
+      <c r="K798" t="n">
+        <v>36</v>
+      </c>
+      <c r="L798" t="n">
+        <v>37</v>
+      </c>
+      <c r="M798" t="n">
+        <v>38</v>
+      </c>
+      <c r="N798" t="n">
+        <v>41</v>
+      </c>
+      <c r="O798" t="n">
+        <v>42</v>
+      </c>
+      <c r="P798" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q798" t="n">
+        <v>70</v>
+      </c>
+      <c r="R798" t="n">
+        <v>74</v>
+      </c>
+      <c r="S798" t="n">
+        <v>76</v>
+      </c>
+      <c r="T798" t="n">
+        <v>77</v>
+      </c>
+      <c r="U798" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>1</v>
+      </c>
+      <c r="C799" t="n">
+        <v>5</v>
+      </c>
+      <c r="D799" t="n">
+        <v>7</v>
+      </c>
+      <c r="E799" t="n">
+        <v>11</v>
+      </c>
+      <c r="F799" t="n">
+        <v>14</v>
+      </c>
+      <c r="G799" t="n">
+        <v>16</v>
+      </c>
+      <c r="H799" t="n">
+        <v>21</v>
+      </c>
+      <c r="I799" t="n">
+        <v>22</v>
+      </c>
+      <c r="J799" t="n">
+        <v>25</v>
+      </c>
+      <c r="K799" t="n">
+        <v>26</v>
+      </c>
+      <c r="L799" t="n">
+        <v>38</v>
+      </c>
+      <c r="M799" t="n">
+        <v>40</v>
+      </c>
+      <c r="N799" t="n">
+        <v>46</v>
+      </c>
+      <c r="O799" t="n">
+        <v>48</v>
+      </c>
+      <c r="P799" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q799" t="n">
+        <v>55</v>
+      </c>
+      <c r="R799" t="n">
+        <v>65</v>
+      </c>
+      <c r="S799" t="n">
+        <v>67</v>
+      </c>
+      <c r="T799" t="n">
+        <v>71</v>
+      </c>
+      <c r="U799" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>1</v>
+      </c>
+      <c r="C800" t="n">
+        <v>10</v>
+      </c>
+      <c r="D800" t="n">
+        <v>18</v>
+      </c>
+      <c r="E800" t="n">
+        <v>20</v>
+      </c>
+      <c r="F800" t="n">
+        <v>24</v>
+      </c>
+      <c r="G800" t="n">
+        <v>30</v>
+      </c>
+      <c r="H800" t="n">
+        <v>34</v>
+      </c>
+      <c r="I800" t="n">
+        <v>37</v>
+      </c>
+      <c r="J800" t="n">
+        <v>38</v>
+      </c>
+      <c r="K800" t="n">
+        <v>39</v>
+      </c>
+      <c r="L800" t="n">
+        <v>42</v>
+      </c>
+      <c r="M800" t="n">
+        <v>44</v>
+      </c>
+      <c r="N800" t="n">
+        <v>56</v>
+      </c>
+      <c r="O800" t="n">
+        <v>63</v>
+      </c>
+      <c r="P800" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q800" t="n">
+        <v>68</v>
+      </c>
+      <c r="R800" t="n">
+        <v>70</v>
+      </c>
+      <c r="S800" t="n">
+        <v>74</v>
+      </c>
+      <c r="T800" t="n">
+        <v>79</v>
+      </c>
+      <c r="U800" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>1</v>
+      </c>
+      <c r="C801" t="n">
+        <v>3</v>
+      </c>
+      <c r="D801" t="n">
+        <v>4</v>
+      </c>
+      <c r="E801" t="n">
+        <v>6</v>
+      </c>
+      <c r="F801" t="n">
+        <v>8</v>
+      </c>
+      <c r="G801" t="n">
+        <v>10</v>
+      </c>
+      <c r="H801" t="n">
+        <v>13</v>
+      </c>
+      <c r="I801" t="n">
+        <v>16</v>
+      </c>
+      <c r="J801" t="n">
+        <v>23</v>
+      </c>
+      <c r="K801" t="n">
+        <v>24</v>
+      </c>
+      <c r="L801" t="n">
+        <v>34</v>
+      </c>
+      <c r="M801" t="n">
+        <v>37</v>
+      </c>
+      <c r="N801" t="n">
+        <v>49</v>
+      </c>
+      <c r="O801" t="n">
+        <v>51</v>
+      </c>
+      <c r="P801" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q801" t="n">
+        <v>57</v>
+      </c>
+      <c r="R801" t="n">
+        <v>58</v>
+      </c>
+      <c r="S801" t="n">
+        <v>60</v>
+      </c>
+      <c r="T801" t="n">
+        <v>71</v>
+      </c>
+      <c r="U801" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>3</v>
+      </c>
+      <c r="C802" t="n">
+        <v>10</v>
+      </c>
+      <c r="D802" t="n">
+        <v>24</v>
+      </c>
+      <c r="E802" t="n">
+        <v>30</v>
+      </c>
+      <c r="F802" t="n">
+        <v>32</v>
+      </c>
+      <c r="G802" t="n">
+        <v>36</v>
+      </c>
+      <c r="H802" t="n">
+        <v>37</v>
+      </c>
+      <c r="I802" t="n">
+        <v>39</v>
+      </c>
+      <c r="J802" t="n">
+        <v>48</v>
+      </c>
+      <c r="K802" t="n">
+        <v>49</v>
+      </c>
+      <c r="L802" t="n">
+        <v>57</v>
+      </c>
+      <c r="M802" t="n">
+        <v>58</v>
+      </c>
+      <c r="N802" t="n">
+        <v>64</v>
+      </c>
+      <c r="O802" t="n">
+        <v>65</v>
+      </c>
+      <c r="P802" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q802" t="n">
+        <v>70</v>
+      </c>
+      <c r="R802" t="n">
+        <v>72</v>
+      </c>
+      <c r="S802" t="n">
+        <v>73</v>
+      </c>
+      <c r="T802" t="n">
+        <v>75</v>
+      </c>
+      <c r="U802" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>1</v>
+      </c>
+      <c r="C803" t="n">
+        <v>6</v>
+      </c>
+      <c r="D803" t="n">
+        <v>12</v>
+      </c>
+      <c r="E803" t="n">
+        <v>14</v>
+      </c>
+      <c r="F803" t="n">
+        <v>16</v>
+      </c>
+      <c r="G803" t="n">
+        <v>17</v>
+      </c>
+      <c r="H803" t="n">
+        <v>18</v>
+      </c>
+      <c r="I803" t="n">
+        <v>23</v>
+      </c>
+      <c r="J803" t="n">
+        <v>25</v>
+      </c>
+      <c r="K803" t="n">
+        <v>26</v>
+      </c>
+      <c r="L803" t="n">
+        <v>29</v>
+      </c>
+      <c r="M803" t="n">
+        <v>40</v>
+      </c>
+      <c r="N803" t="n">
+        <v>49</v>
+      </c>
+      <c r="O803" t="n">
+        <v>50</v>
+      </c>
+      <c r="P803" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q803" t="n">
+        <v>59</v>
+      </c>
+      <c r="R803" t="n">
+        <v>63</v>
+      </c>
+      <c r="S803" t="n">
+        <v>66</v>
+      </c>
+      <c r="T803" t="n">
+        <v>69</v>
+      </c>
+      <c r="U803" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>1</v>
+      </c>
+      <c r="C804" t="n">
+        <v>3</v>
+      </c>
+      <c r="D804" t="n">
+        <v>5</v>
+      </c>
+      <c r="E804" t="n">
+        <v>8</v>
+      </c>
+      <c r="F804" t="n">
+        <v>10</v>
+      </c>
+      <c r="G804" t="n">
+        <v>16</v>
+      </c>
+      <c r="H804" t="n">
+        <v>17</v>
+      </c>
+      <c r="I804" t="n">
+        <v>21</v>
+      </c>
+      <c r="J804" t="n">
+        <v>30</v>
+      </c>
+      <c r="K804" t="n">
+        <v>40</v>
+      </c>
+      <c r="L804" t="n">
+        <v>43</v>
+      </c>
+      <c r="M804" t="n">
+        <v>54</v>
+      </c>
+      <c r="N804" t="n">
+        <v>58</v>
+      </c>
+      <c r="O804" t="n">
+        <v>63</v>
+      </c>
+      <c r="P804" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q804" t="n">
+        <v>66</v>
+      </c>
+      <c r="R804" t="n">
+        <v>71</v>
+      </c>
+      <c r="S804" t="n">
+        <v>74</v>
+      </c>
+      <c r="T804" t="n">
+        <v>76</v>
+      </c>
+      <c r="U804" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
+        <v>3</v>
+      </c>
+      <c r="C805" t="n">
+        <v>4</v>
+      </c>
+      <c r="D805" t="n">
+        <v>7</v>
+      </c>
+      <c r="E805" t="n">
+        <v>9</v>
+      </c>
+      <c r="F805" t="n">
+        <v>18</v>
+      </c>
+      <c r="G805" t="n">
+        <v>22</v>
+      </c>
+      <c r="H805" t="n">
+        <v>24</v>
+      </c>
+      <c r="I805" t="n">
+        <v>27</v>
+      </c>
+      <c r="J805" t="n">
+        <v>28</v>
+      </c>
+      <c r="K805" t="n">
+        <v>30</v>
+      </c>
+      <c r="L805" t="n">
+        <v>34</v>
+      </c>
+      <c r="M805" t="n">
+        <v>38</v>
+      </c>
+      <c r="N805" t="n">
+        <v>39</v>
+      </c>
+      <c r="O805" t="n">
+        <v>51</v>
+      </c>
+      <c r="P805" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q805" t="n">
+        <v>68</v>
+      </c>
+      <c r="R805" t="n">
+        <v>71</v>
+      </c>
+      <c r="S805" t="n">
+        <v>72</v>
+      </c>
+      <c r="T805" t="n">
+        <v>74</v>
+      </c>
+      <c r="U805" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>1</v>
+      </c>
+      <c r="C806" t="n">
+        <v>4</v>
+      </c>
+      <c r="D806" t="n">
+        <v>7</v>
+      </c>
+      <c r="E806" t="n">
+        <v>10</v>
+      </c>
+      <c r="F806" t="n">
+        <v>19</v>
+      </c>
+      <c r="G806" t="n">
+        <v>25</v>
+      </c>
+      <c r="H806" t="n">
+        <v>26</v>
+      </c>
+      <c r="I806" t="n">
+        <v>32</v>
+      </c>
+      <c r="J806" t="n">
+        <v>33</v>
+      </c>
+      <c r="K806" t="n">
+        <v>36</v>
+      </c>
+      <c r="L806" t="n">
+        <v>39</v>
+      </c>
+      <c r="M806" t="n">
+        <v>47</v>
+      </c>
+      <c r="N806" t="n">
+        <v>55</v>
+      </c>
+      <c r="O806" t="n">
+        <v>60</v>
+      </c>
+      <c r="P806" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q806" t="n">
+        <v>68</v>
+      </c>
+      <c r="R806" t="n">
+        <v>76</v>
+      </c>
+      <c r="S806" t="n">
+        <v>77</v>
+      </c>
+      <c r="T806" t="n">
+        <v>78</v>
+      </c>
+      <c r="U806" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>2</v>
+      </c>
+      <c r="C807" t="n">
+        <v>6</v>
+      </c>
+      <c r="D807" t="n">
+        <v>13</v>
+      </c>
+      <c r="E807" t="n">
+        <v>18</v>
+      </c>
+      <c r="F807" t="n">
+        <v>19</v>
+      </c>
+      <c r="G807" t="n">
+        <v>28</v>
+      </c>
+      <c r="H807" t="n">
+        <v>31</v>
+      </c>
+      <c r="I807" t="n">
+        <v>34</v>
+      </c>
+      <c r="J807" t="n">
+        <v>42</v>
+      </c>
+      <c r="K807" t="n">
+        <v>44</v>
+      </c>
+      <c r="L807" t="n">
+        <v>45</v>
+      </c>
+      <c r="M807" t="n">
+        <v>46</v>
+      </c>
+      <c r="N807" t="n">
+        <v>56</v>
+      </c>
+      <c r="O807" t="n">
+        <v>58</v>
+      </c>
+      <c r="P807" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q807" t="n">
+        <v>63</v>
+      </c>
+      <c r="R807" t="n">
+        <v>68</v>
+      </c>
+      <c r="S807" t="n">
+        <v>72</v>
+      </c>
+      <c r="T807" t="n">
+        <v>74</v>
+      </c>
+      <c r="U807" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>2</v>
+      </c>
+      <c r="C808" t="n">
+        <v>4</v>
+      </c>
+      <c r="D808" t="n">
+        <v>7</v>
+      </c>
+      <c r="E808" t="n">
+        <v>12</v>
+      </c>
+      <c r="F808" t="n">
+        <v>14</v>
+      </c>
+      <c r="G808" t="n">
+        <v>26</v>
+      </c>
+      <c r="H808" t="n">
+        <v>29</v>
+      </c>
+      <c r="I808" t="n">
+        <v>43</v>
+      </c>
+      <c r="J808" t="n">
+        <v>47</v>
+      </c>
+      <c r="K808" t="n">
+        <v>49</v>
+      </c>
+      <c r="L808" t="n">
+        <v>54</v>
+      </c>
+      <c r="M808" t="n">
+        <v>58</v>
+      </c>
+      <c r="N808" t="n">
+        <v>59</v>
+      </c>
+      <c r="O808" t="n">
+        <v>62</v>
+      </c>
+      <c r="P808" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q808" t="n">
+        <v>64</v>
+      </c>
+      <c r="R808" t="n">
+        <v>69</v>
+      </c>
+      <c r="S808" t="n">
+        <v>70</v>
+      </c>
+      <c r="T808" t="n">
+        <v>74</v>
+      </c>
+      <c r="U808" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>6</v>
+      </c>
+      <c r="C809" t="n">
+        <v>10</v>
+      </c>
+      <c r="D809" t="n">
+        <v>11</v>
+      </c>
+      <c r="E809" t="n">
+        <v>19</v>
+      </c>
+      <c r="F809" t="n">
+        <v>20</v>
+      </c>
+      <c r="G809" t="n">
+        <v>24</v>
+      </c>
+      <c r="H809" t="n">
+        <v>25</v>
+      </c>
+      <c r="I809" t="n">
+        <v>34</v>
+      </c>
+      <c r="J809" t="n">
+        <v>37</v>
+      </c>
+      <c r="K809" t="n">
+        <v>42</v>
+      </c>
+      <c r="L809" t="n">
+        <v>43</v>
+      </c>
+      <c r="M809" t="n">
+        <v>48</v>
+      </c>
+      <c r="N809" t="n">
+        <v>52</v>
+      </c>
+      <c r="O809" t="n">
+        <v>53</v>
+      </c>
+      <c r="P809" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q809" t="n">
+        <v>57</v>
+      </c>
+      <c r="R809" t="n">
+        <v>61</v>
+      </c>
+      <c r="S809" t="n">
+        <v>62</v>
+      </c>
+      <c r="T809" t="n">
+        <v>66</v>
+      </c>
+      <c r="U809" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>1</v>
+      </c>
+      <c r="C810" t="n">
+        <v>5</v>
+      </c>
+      <c r="D810" t="n">
+        <v>6</v>
+      </c>
+      <c r="E810" t="n">
+        <v>9</v>
+      </c>
+      <c r="F810" t="n">
+        <v>12</v>
+      </c>
+      <c r="G810" t="n">
+        <v>28</v>
+      </c>
+      <c r="H810" t="n">
+        <v>31</v>
+      </c>
+      <c r="I810" t="n">
+        <v>34</v>
+      </c>
+      <c r="J810" t="n">
+        <v>37</v>
+      </c>
+      <c r="K810" t="n">
+        <v>41</v>
+      </c>
+      <c r="L810" t="n">
+        <v>46</v>
+      </c>
+      <c r="M810" t="n">
+        <v>55</v>
+      </c>
+      <c r="N810" t="n">
+        <v>59</v>
+      </c>
+      <c r="O810" t="n">
+        <v>62</v>
+      </c>
+      <c r="P810" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q810" t="n">
+        <v>68</v>
+      </c>
+      <c r="R810" t="n">
+        <v>70</v>
+      </c>
+      <c r="S810" t="n">
+        <v>73</v>
+      </c>
+      <c r="T810" t="n">
+        <v>74</v>
+      </c>
+      <c r="U810" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>7</v>
+      </c>
+      <c r="C811" t="n">
+        <v>10</v>
+      </c>
+      <c r="D811" t="n">
+        <v>11</v>
+      </c>
+      <c r="E811" t="n">
+        <v>12</v>
+      </c>
+      <c r="F811" t="n">
+        <v>25</v>
+      </c>
+      <c r="G811" t="n">
+        <v>26</v>
+      </c>
+      <c r="H811" t="n">
+        <v>28</v>
+      </c>
+      <c r="I811" t="n">
+        <v>29</v>
+      </c>
+      <c r="J811" t="n">
+        <v>36</v>
+      </c>
+      <c r="K811" t="n">
+        <v>40</v>
+      </c>
+      <c r="L811" t="n">
+        <v>43</v>
+      </c>
+      <c r="M811" t="n">
+        <v>46</v>
+      </c>
+      <c r="N811" t="n">
+        <v>47</v>
+      </c>
+      <c r="O811" t="n">
+        <v>48</v>
+      </c>
+      <c r="P811" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q811" t="n">
+        <v>55</v>
+      </c>
+      <c r="R811" t="n">
+        <v>62</v>
+      </c>
+      <c r="S811" t="n">
+        <v>70</v>
+      </c>
+      <c r="T811" t="n">
+        <v>76</v>
+      </c>
+      <c r="U811" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>4</v>
+      </c>
+      <c r="C812" t="n">
+        <v>5</v>
+      </c>
+      <c r="D812" t="n">
+        <v>9</v>
+      </c>
+      <c r="E812" t="n">
+        <v>15</v>
+      </c>
+      <c r="F812" t="n">
+        <v>16</v>
+      </c>
+      <c r="G812" t="n">
+        <v>18</v>
+      </c>
+      <c r="H812" t="n">
+        <v>19</v>
+      </c>
+      <c r="I812" t="n">
+        <v>23</v>
+      </c>
+      <c r="J812" t="n">
+        <v>28</v>
+      </c>
+      <c r="K812" t="n">
+        <v>37</v>
+      </c>
+      <c r="L812" t="n">
+        <v>41</v>
+      </c>
+      <c r="M812" t="n">
+        <v>46</v>
+      </c>
+      <c r="N812" t="n">
+        <v>48</v>
+      </c>
+      <c r="O812" t="n">
+        <v>51</v>
+      </c>
+      <c r="P812" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q812" t="n">
+        <v>63</v>
+      </c>
+      <c r="R812" t="n">
+        <v>64</v>
+      </c>
+      <c r="S812" t="n">
+        <v>70</v>
+      </c>
+      <c r="T812" t="n">
+        <v>74</v>
+      </c>
+      <c r="U812" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="n">
+        <v>2</v>
+      </c>
+      <c r="C813" t="n">
+        <v>14</v>
+      </c>
+      <c r="D813" t="n">
+        <v>15</v>
+      </c>
+      <c r="E813" t="n">
+        <v>16</v>
+      </c>
+      <c r="F813" t="n">
+        <v>19</v>
+      </c>
+      <c r="G813" t="n">
+        <v>20</v>
+      </c>
+      <c r="H813" t="n">
+        <v>23</v>
+      </c>
+      <c r="I813" t="n">
+        <v>24</v>
+      </c>
+      <c r="J813" t="n">
+        <v>25</v>
+      </c>
+      <c r="K813" t="n">
+        <v>27</v>
+      </c>
+      <c r="L813" t="n">
+        <v>33</v>
+      </c>
+      <c r="M813" t="n">
+        <v>46</v>
+      </c>
+      <c r="N813" t="n">
+        <v>47</v>
+      </c>
+      <c r="O813" t="n">
+        <v>50</v>
+      </c>
+      <c r="P813" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q813" t="n">
+        <v>54</v>
+      </c>
+      <c r="R813" t="n">
+        <v>64</v>
+      </c>
+      <c r="S813" t="n">
+        <v>70</v>
+      </c>
+      <c r="T813" t="n">
+        <v>72</v>
+      </c>
+      <c r="U813" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>1</v>
+      </c>
+      <c r="C814" t="n">
+        <v>4</v>
+      </c>
+      <c r="D814" t="n">
+        <v>5</v>
+      </c>
+      <c r="E814" t="n">
+        <v>7</v>
+      </c>
+      <c r="F814" t="n">
+        <v>9</v>
+      </c>
+      <c r="G814" t="n">
+        <v>13</v>
+      </c>
+      <c r="H814" t="n">
+        <v>16</v>
+      </c>
+      <c r="I814" t="n">
+        <v>18</v>
+      </c>
+      <c r="J814" t="n">
+        <v>23</v>
+      </c>
+      <c r="K814" t="n">
+        <v>38</v>
+      </c>
+      <c r="L814" t="n">
+        <v>47</v>
+      </c>
+      <c r="M814" t="n">
+        <v>49</v>
+      </c>
+      <c r="N814" t="n">
+        <v>51</v>
+      </c>
+      <c r="O814" t="n">
+        <v>53</v>
+      </c>
+      <c r="P814" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q814" t="n">
+        <v>60</v>
+      </c>
+      <c r="R814" t="n">
+        <v>61</v>
+      </c>
+      <c r="S814" t="n">
+        <v>66</v>
+      </c>
+      <c r="T814" t="n">
+        <v>68</v>
+      </c>
+      <c r="U814" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>2</v>
+      </c>
+      <c r="C815" t="n">
+        <v>3</v>
+      </c>
+      <c r="D815" t="n">
+        <v>4</v>
+      </c>
+      <c r="E815" t="n">
+        <v>7</v>
+      </c>
+      <c r="F815" t="n">
+        <v>10</v>
+      </c>
+      <c r="G815" t="n">
+        <v>23</v>
+      </c>
+      <c r="H815" t="n">
+        <v>25</v>
+      </c>
+      <c r="I815" t="n">
+        <v>26</v>
+      </c>
+      <c r="J815" t="n">
+        <v>28</v>
+      </c>
+      <c r="K815" t="n">
+        <v>34</v>
+      </c>
+      <c r="L815" t="n">
+        <v>37</v>
+      </c>
+      <c r="M815" t="n">
+        <v>42</v>
+      </c>
+      <c r="N815" t="n">
+        <v>47</v>
+      </c>
+      <c r="O815" t="n">
+        <v>51</v>
+      </c>
+      <c r="P815" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q815" t="n">
+        <v>58</v>
+      </c>
+      <c r="R815" t="n">
+        <v>63</v>
+      </c>
+      <c r="S815" t="n">
+        <v>64</v>
+      </c>
+      <c r="T815" t="n">
+        <v>70</v>
+      </c>
+      <c r="U815" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="n">
+        <v>2</v>
+      </c>
+      <c r="C816" t="n">
+        <v>5</v>
+      </c>
+      <c r="D816" t="n">
+        <v>7</v>
+      </c>
+      <c r="E816" t="n">
+        <v>15</v>
+      </c>
+      <c r="F816" t="n">
+        <v>23</v>
+      </c>
+      <c r="G816" t="n">
+        <v>29</v>
+      </c>
+      <c r="H816" t="n">
+        <v>33</v>
+      </c>
+      <c r="I816" t="n">
+        <v>36</v>
+      </c>
+      <c r="J816" t="n">
+        <v>37</v>
+      </c>
+      <c r="K816" t="n">
+        <v>38</v>
+      </c>
+      <c r="L816" t="n">
+        <v>43</v>
+      </c>
+      <c r="M816" t="n">
+        <v>50</v>
+      </c>
+      <c r="N816" t="n">
+        <v>54</v>
+      </c>
+      <c r="O816" t="n">
+        <v>58</v>
+      </c>
+      <c r="P816" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>61</v>
+      </c>
+      <c r="R816" t="n">
+        <v>67</v>
+      </c>
+      <c r="S816" t="n">
+        <v>69</v>
+      </c>
+      <c r="T816" t="n">
+        <v>71</v>
+      </c>
+      <c r="U816" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="n">
+        <v>2</v>
+      </c>
+      <c r="C817" t="n">
+        <v>4</v>
+      </c>
+      <c r="D817" t="n">
+        <v>7</v>
+      </c>
+      <c r="E817" t="n">
+        <v>11</v>
+      </c>
+      <c r="F817" t="n">
+        <v>15</v>
+      </c>
+      <c r="G817" t="n">
+        <v>19</v>
+      </c>
+      <c r="H817" t="n">
+        <v>22</v>
+      </c>
+      <c r="I817" t="n">
+        <v>24</v>
+      </c>
+      <c r="J817" t="n">
+        <v>25</v>
+      </c>
+      <c r="K817" t="n">
+        <v>27</v>
+      </c>
+      <c r="L817" t="n">
+        <v>30</v>
+      </c>
+      <c r="M817" t="n">
+        <v>32</v>
+      </c>
+      <c r="N817" t="n">
+        <v>40</v>
+      </c>
+      <c r="O817" t="n">
+        <v>44</v>
+      </c>
+      <c r="P817" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>66</v>
+      </c>
+      <c r="R817" t="n">
+        <v>67</v>
+      </c>
+      <c r="S817" t="n">
+        <v>75</v>
+      </c>
+      <c r="T817" t="n">
+        <v>77</v>
+      </c>
+      <c r="U817" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>4</v>
+      </c>
+      <c r="C818" t="n">
+        <v>6</v>
+      </c>
+      <c r="D818" t="n">
+        <v>8</v>
+      </c>
+      <c r="E818" t="n">
+        <v>15</v>
+      </c>
+      <c r="F818" t="n">
+        <v>20</v>
+      </c>
+      <c r="G818" t="n">
+        <v>33</v>
+      </c>
+      <c r="H818" t="n">
+        <v>35</v>
+      </c>
+      <c r="I818" t="n">
+        <v>36</v>
+      </c>
+      <c r="J818" t="n">
+        <v>37</v>
+      </c>
+      <c r="K818" t="n">
+        <v>40</v>
+      </c>
+      <c r="L818" t="n">
+        <v>42</v>
+      </c>
+      <c r="M818" t="n">
+        <v>43</v>
+      </c>
+      <c r="N818" t="n">
+        <v>46</v>
+      </c>
+      <c r="O818" t="n">
+        <v>54</v>
+      </c>
+      <c r="P818" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>58</v>
+      </c>
+      <c r="R818" t="n">
+        <v>63</v>
+      </c>
+      <c r="S818" t="n">
+        <v>64</v>
+      </c>
+      <c r="T818" t="n">
+        <v>67</v>
+      </c>
+      <c r="U818" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1</v>
+      </c>
+      <c r="C819" t="n">
+        <v>5</v>
+      </c>
+      <c r="D819" t="n">
+        <v>10</v>
+      </c>
+      <c r="E819" t="n">
+        <v>15</v>
+      </c>
+      <c r="F819" t="n">
+        <v>30</v>
+      </c>
+      <c r="G819" t="n">
+        <v>36</v>
+      </c>
+      <c r="H819" t="n">
+        <v>38</v>
+      </c>
+      <c r="I819" t="n">
+        <v>39</v>
+      </c>
+      <c r="J819" t="n">
+        <v>41</v>
+      </c>
+      <c r="K819" t="n">
+        <v>43</v>
+      </c>
+      <c r="L819" t="n">
+        <v>45</v>
+      </c>
+      <c r="M819" t="n">
+        <v>51</v>
+      </c>
+      <c r="N819" t="n">
+        <v>52</v>
+      </c>
+      <c r="O819" t="n">
+        <v>53</v>
+      </c>
+      <c r="P819" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>61</v>
+      </c>
+      <c r="R819" t="n">
+        <v>65</v>
+      </c>
+      <c r="S819" t="n">
+        <v>69</v>
+      </c>
+      <c r="T819" t="n">
+        <v>76</v>
+      </c>
+      <c r="U819" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1</v>
+      </c>
+      <c r="C820" t="n">
+        <v>8</v>
+      </c>
+      <c r="D820" t="n">
+        <v>15</v>
+      </c>
+      <c r="E820" t="n">
+        <v>17</v>
+      </c>
+      <c r="F820" t="n">
+        <v>18</v>
+      </c>
+      <c r="G820" t="n">
+        <v>24</v>
+      </c>
+      <c r="H820" t="n">
+        <v>30</v>
+      </c>
+      <c r="I820" t="n">
+        <v>35</v>
+      </c>
+      <c r="J820" t="n">
+        <v>36</v>
+      </c>
+      <c r="K820" t="n">
+        <v>37</v>
+      </c>
+      <c r="L820" t="n">
+        <v>57</v>
+      </c>
+      <c r="M820" t="n">
+        <v>61</v>
+      </c>
+      <c r="N820" t="n">
+        <v>63</v>
+      </c>
+      <c r="O820" t="n">
+        <v>64</v>
+      </c>
+      <c r="P820" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q820" t="n">
+        <v>74</v>
+      </c>
+      <c r="R820" t="n">
+        <v>75</v>
+      </c>
+      <c r="S820" t="n">
+        <v>77</v>
+      </c>
+      <c r="T820" t="n">
+        <v>78</v>
+      </c>
+      <c r="U820" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>3</v>
+      </c>
+      <c r="C821" t="n">
+        <v>9</v>
+      </c>
+      <c r="D821" t="n">
+        <v>14</v>
+      </c>
+      <c r="E821" t="n">
+        <v>17</v>
+      </c>
+      <c r="F821" t="n">
+        <v>18</v>
+      </c>
+      <c r="G821" t="n">
+        <v>24</v>
+      </c>
+      <c r="H821" t="n">
+        <v>27</v>
+      </c>
+      <c r="I821" t="n">
+        <v>28</v>
+      </c>
+      <c r="J821" t="n">
+        <v>32</v>
+      </c>
+      <c r="K821" t="n">
+        <v>40</v>
+      </c>
+      <c r="L821" t="n">
+        <v>41</v>
+      </c>
+      <c r="M821" t="n">
+        <v>48</v>
+      </c>
+      <c r="N821" t="n">
+        <v>50</v>
+      </c>
+      <c r="O821" t="n">
+        <v>52</v>
+      </c>
+      <c r="P821" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>64</v>
+      </c>
+      <c r="R821" t="n">
+        <v>66</v>
+      </c>
+      <c r="S821" t="n">
+        <v>71</v>
+      </c>
+      <c r="T821" t="n">
+        <v>73</v>
+      </c>
+      <c r="U821" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>2</v>
+      </c>
+      <c r="C822" t="n">
+        <v>3</v>
+      </c>
+      <c r="D822" t="n">
+        <v>4</v>
+      </c>
+      <c r="E822" t="n">
+        <v>12</v>
+      </c>
+      <c r="F822" t="n">
+        <v>19</v>
+      </c>
+      <c r="G822" t="n">
+        <v>23</v>
+      </c>
+      <c r="H822" t="n">
+        <v>25</v>
+      </c>
+      <c r="I822" t="n">
+        <v>30</v>
+      </c>
+      <c r="J822" t="n">
+        <v>37</v>
+      </c>
+      <c r="K822" t="n">
+        <v>44</v>
+      </c>
+      <c r="L822" t="n">
+        <v>48</v>
+      </c>
+      <c r="M822" t="n">
+        <v>49</v>
+      </c>
+      <c r="N822" t="n">
+        <v>52</v>
+      </c>
+      <c r="O822" t="n">
+        <v>54</v>
+      </c>
+      <c r="P822" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>60</v>
+      </c>
+      <c r="R822" t="n">
+        <v>62</v>
+      </c>
+      <c r="S822" t="n">
+        <v>67</v>
+      </c>
+      <c r="T822" t="n">
+        <v>70</v>
+      </c>
+      <c r="U822" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>8</v>
+      </c>
+      <c r="C823" t="n">
+        <v>9</v>
+      </c>
+      <c r="D823" t="n">
+        <v>16</v>
+      </c>
+      <c r="E823" t="n">
+        <v>18</v>
+      </c>
+      <c r="F823" t="n">
+        <v>20</v>
+      </c>
+      <c r="G823" t="n">
+        <v>21</v>
+      </c>
+      <c r="H823" t="n">
+        <v>26</v>
+      </c>
+      <c r="I823" t="n">
+        <v>29</v>
+      </c>
+      <c r="J823" t="n">
+        <v>33</v>
+      </c>
+      <c r="K823" t="n">
+        <v>36</v>
+      </c>
+      <c r="L823" t="n">
+        <v>37</v>
+      </c>
+      <c r="M823" t="n">
+        <v>39</v>
+      </c>
+      <c r="N823" t="n">
+        <v>42</v>
+      </c>
+      <c r="O823" t="n">
+        <v>47</v>
+      </c>
+      <c r="P823" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>57</v>
+      </c>
+      <c r="R823" t="n">
+        <v>58</v>
+      </c>
+      <c r="S823" t="n">
+        <v>60</v>
+      </c>
+      <c r="T823" t="n">
+        <v>62</v>
+      </c>
+      <c r="U823" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>5</v>
+      </c>
+      <c r="C824" t="n">
+        <v>6</v>
+      </c>
+      <c r="D824" t="n">
+        <v>7</v>
+      </c>
+      <c r="E824" t="n">
+        <v>9</v>
+      </c>
+      <c r="F824" t="n">
+        <v>18</v>
+      </c>
+      <c r="G824" t="n">
+        <v>24</v>
+      </c>
+      <c r="H824" t="n">
+        <v>26</v>
+      </c>
+      <c r="I824" t="n">
+        <v>27</v>
+      </c>
+      <c r="J824" t="n">
+        <v>31</v>
+      </c>
+      <c r="K824" t="n">
+        <v>34</v>
+      </c>
+      <c r="L824" t="n">
+        <v>37</v>
+      </c>
+      <c r="M824" t="n">
+        <v>38</v>
+      </c>
+      <c r="N824" t="n">
+        <v>60</v>
+      </c>
+      <c r="O824" t="n">
+        <v>61</v>
+      </c>
+      <c r="P824" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>67</v>
+      </c>
+      <c r="R824" t="n">
+        <v>69</v>
+      </c>
+      <c r="S824" t="n">
+        <v>70</v>
+      </c>
+      <c r="T824" t="n">
+        <v>71</v>
+      </c>
+      <c r="U824" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>2</v>
+      </c>
+      <c r="C825" t="n">
+        <v>3</v>
+      </c>
+      <c r="D825" t="n">
+        <v>9</v>
+      </c>
+      <c r="E825" t="n">
+        <v>13</v>
+      </c>
+      <c r="F825" t="n">
+        <v>25</v>
+      </c>
+      <c r="G825" t="n">
+        <v>31</v>
+      </c>
+      <c r="H825" t="n">
+        <v>34</v>
+      </c>
+      <c r="I825" t="n">
+        <v>35</v>
+      </c>
+      <c r="J825" t="n">
+        <v>36</v>
+      </c>
+      <c r="K825" t="n">
+        <v>37</v>
+      </c>
+      <c r="L825" t="n">
+        <v>39</v>
+      </c>
+      <c r="M825" t="n">
+        <v>41</v>
+      </c>
+      <c r="N825" t="n">
+        <v>44</v>
+      </c>
+      <c r="O825" t="n">
+        <v>51</v>
+      </c>
+      <c r="P825" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>58</v>
+      </c>
+      <c r="R825" t="n">
+        <v>62</v>
+      </c>
+      <c r="S825" t="n">
+        <v>68</v>
+      </c>
+      <c r="T825" t="n">
+        <v>70</v>
+      </c>
+      <c r="U825" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1</v>
+      </c>
+      <c r="C826" t="n">
+        <v>10</v>
+      </c>
+      <c r="D826" t="n">
+        <v>16</v>
+      </c>
+      <c r="E826" t="n">
+        <v>18</v>
+      </c>
+      <c r="F826" t="n">
+        <v>19</v>
+      </c>
+      <c r="G826" t="n">
+        <v>22</v>
+      </c>
+      <c r="H826" t="n">
+        <v>30</v>
+      </c>
+      <c r="I826" t="n">
+        <v>32</v>
+      </c>
+      <c r="J826" t="n">
+        <v>37</v>
+      </c>
+      <c r="K826" t="n">
+        <v>44</v>
+      </c>
+      <c r="L826" t="n">
+        <v>45</v>
+      </c>
+      <c r="M826" t="n">
+        <v>48</v>
+      </c>
+      <c r="N826" t="n">
+        <v>49</v>
+      </c>
+      <c r="O826" t="n">
+        <v>60</v>
+      </c>
+      <c r="P826" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q826" t="n">
+        <v>66</v>
+      </c>
+      <c r="R826" t="n">
+        <v>67</v>
+      </c>
+      <c r="S826" t="n">
+        <v>68</v>
+      </c>
+      <c r="T826" t="n">
+        <v>70</v>
+      </c>
+      <c r="U826" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>2</v>
+      </c>
+      <c r="C827" t="n">
+        <v>3</v>
+      </c>
+      <c r="D827" t="n">
+        <v>7</v>
+      </c>
+      <c r="E827" t="n">
+        <v>8</v>
+      </c>
+      <c r="F827" t="n">
+        <v>11</v>
+      </c>
+      <c r="G827" t="n">
+        <v>12</v>
+      </c>
+      <c r="H827" t="n">
+        <v>13</v>
+      </c>
+      <c r="I827" t="n">
+        <v>20</v>
+      </c>
+      <c r="J827" t="n">
+        <v>26</v>
+      </c>
+      <c r="K827" t="n">
+        <v>30</v>
+      </c>
+      <c r="L827" t="n">
+        <v>34</v>
+      </c>
+      <c r="M827" t="n">
+        <v>44</v>
+      </c>
+      <c r="N827" t="n">
+        <v>47</v>
+      </c>
+      <c r="O827" t="n">
+        <v>51</v>
+      </c>
+      <c r="P827" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q827" t="n">
+        <v>65</v>
+      </c>
+      <c r="R827" t="n">
+        <v>66</v>
+      </c>
+      <c r="S827" t="n">
+        <v>72</v>
+      </c>
+      <c r="T827" t="n">
+        <v>76</v>
+      </c>
+      <c r="U827" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>9</v>
+      </c>
+      <c r="C828" t="n">
+        <v>26</v>
+      </c>
+      <c r="D828" t="n">
+        <v>38</v>
+      </c>
+      <c r="E828" t="n">
+        <v>42</v>
+      </c>
+      <c r="F828" t="n">
+        <v>44</v>
+      </c>
+      <c r="G828" t="n">
+        <v>45</v>
+      </c>
+      <c r="H828" t="n">
+        <v>46</v>
+      </c>
+      <c r="I828" t="n">
+        <v>47</v>
+      </c>
+      <c r="J828" t="n">
+        <v>49</v>
+      </c>
+      <c r="K828" t="n">
+        <v>54</v>
+      </c>
+      <c r="L828" t="n">
+        <v>59</v>
+      </c>
+      <c r="M828" t="n">
+        <v>60</v>
+      </c>
+      <c r="N828" t="n">
+        <v>61</v>
+      </c>
+      <c r="O828" t="n">
+        <v>62</v>
+      </c>
+      <c r="P828" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q828" t="n">
+        <v>66</v>
+      </c>
+      <c r="R828" t="n">
+        <v>71</v>
+      </c>
+      <c r="S828" t="n">
+        <v>75</v>
+      </c>
+      <c r="T828" t="n">
+        <v>76</v>
+      </c>
+      <c r="U828" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1</v>
+      </c>
+      <c r="C829" t="n">
+        <v>3</v>
+      </c>
+      <c r="D829" t="n">
+        <v>7</v>
+      </c>
+      <c r="E829" t="n">
+        <v>9</v>
+      </c>
+      <c r="F829" t="n">
+        <v>12</v>
+      </c>
+      <c r="G829" t="n">
+        <v>14</v>
+      </c>
+      <c r="H829" t="n">
+        <v>17</v>
+      </c>
+      <c r="I829" t="n">
+        <v>23</v>
+      </c>
+      <c r="J829" t="n">
+        <v>24</v>
+      </c>
+      <c r="K829" t="n">
+        <v>29</v>
+      </c>
+      <c r="L829" t="n">
+        <v>37</v>
+      </c>
+      <c r="M829" t="n">
+        <v>39</v>
+      </c>
+      <c r="N829" t="n">
+        <v>40</v>
+      </c>
+      <c r="O829" t="n">
+        <v>46</v>
+      </c>
+      <c r="P829" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q829" t="n">
+        <v>50</v>
+      </c>
+      <c r="R829" t="n">
+        <v>59</v>
+      </c>
+      <c r="S829" t="n">
+        <v>68</v>
+      </c>
+      <c r="T829" t="n">
+        <v>77</v>
+      </c>
+      <c r="U829" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>2</v>
+      </c>
+      <c r="C830" t="n">
+        <v>4</v>
+      </c>
+      <c r="D830" t="n">
+        <v>12</v>
+      </c>
+      <c r="E830" t="n">
+        <v>14</v>
+      </c>
+      <c r="F830" t="n">
+        <v>16</v>
+      </c>
+      <c r="G830" t="n">
+        <v>20</v>
+      </c>
+      <c r="H830" t="n">
+        <v>32</v>
+      </c>
+      <c r="I830" t="n">
+        <v>40</v>
+      </c>
+      <c r="J830" t="n">
+        <v>47</v>
+      </c>
+      <c r="K830" t="n">
+        <v>48</v>
+      </c>
+      <c r="L830" t="n">
+        <v>54</v>
+      </c>
+      <c r="M830" t="n">
+        <v>58</v>
+      </c>
+      <c r="N830" t="n">
+        <v>60</v>
+      </c>
+      <c r="O830" t="n">
+        <v>64</v>
+      </c>
+      <c r="P830" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q830" t="n">
+        <v>70</v>
+      </c>
+      <c r="R830" t="n">
+        <v>71</v>
+      </c>
+      <c r="S830" t="n">
+        <v>72</v>
+      </c>
+      <c r="T830" t="n">
+        <v>75</v>
+      </c>
+      <c r="U830" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>5</v>
+      </c>
+      <c r="C831" t="n">
+        <v>9</v>
+      </c>
+      <c r="D831" t="n">
+        <v>10</v>
+      </c>
+      <c r="E831" t="n">
+        <v>16</v>
+      </c>
+      <c r="F831" t="n">
+        <v>18</v>
+      </c>
+      <c r="G831" t="n">
+        <v>22</v>
+      </c>
+      <c r="H831" t="n">
+        <v>26</v>
+      </c>
+      <c r="I831" t="n">
+        <v>28</v>
+      </c>
+      <c r="J831" t="n">
+        <v>40</v>
+      </c>
+      <c r="K831" t="n">
+        <v>46</v>
+      </c>
+      <c r="L831" t="n">
+        <v>48</v>
+      </c>
+      <c r="M831" t="n">
+        <v>54</v>
+      </c>
+      <c r="N831" t="n">
+        <v>58</v>
+      </c>
+      <c r="O831" t="n">
+        <v>60</v>
+      </c>
+      <c r="P831" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>63</v>
+      </c>
+      <c r="R831" t="n">
+        <v>67</v>
+      </c>
+      <c r="S831" t="n">
+        <v>68</v>
+      </c>
+      <c r="T831" t="n">
+        <v>77</v>
+      </c>
+      <c r="U831" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3</v>
+      </c>
+      <c r="C832" t="n">
+        <v>22</v>
+      </c>
+      <c r="D832" t="n">
+        <v>24</v>
+      </c>
+      <c r="E832" t="n">
+        <v>25</v>
+      </c>
+      <c r="F832" t="n">
+        <v>28</v>
+      </c>
+      <c r="G832" t="n">
+        <v>30</v>
+      </c>
+      <c r="H832" t="n">
+        <v>31</v>
+      </c>
+      <c r="I832" t="n">
+        <v>32</v>
+      </c>
+      <c r="J832" t="n">
+        <v>35</v>
+      </c>
+      <c r="K832" t="n">
+        <v>39</v>
+      </c>
+      <c r="L832" t="n">
+        <v>40</v>
+      </c>
+      <c r="M832" t="n">
+        <v>42</v>
+      </c>
+      <c r="N832" t="n">
+        <v>44</v>
+      </c>
+      <c r="O832" t="n">
+        <v>52</v>
+      </c>
+      <c r="P832" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q832" t="n">
+        <v>57</v>
+      </c>
+      <c r="R832" t="n">
+        <v>58</v>
+      </c>
+      <c r="S832" t="n">
+        <v>61</v>
+      </c>
+      <c r="T832" t="n">
+        <v>66</v>
+      </c>
+      <c r="U832" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>3</v>
+      </c>
+      <c r="C833" t="n">
+        <v>4</v>
+      </c>
+      <c r="D833" t="n">
+        <v>5</v>
+      </c>
+      <c r="E833" t="n">
+        <v>8</v>
+      </c>
+      <c r="F833" t="n">
+        <v>11</v>
+      </c>
+      <c r="G833" t="n">
+        <v>21</v>
+      </c>
+      <c r="H833" t="n">
+        <v>23</v>
+      </c>
+      <c r="I833" t="n">
+        <v>29</v>
+      </c>
+      <c r="J833" t="n">
+        <v>32</v>
+      </c>
+      <c r="K833" t="n">
+        <v>35</v>
+      </c>
+      <c r="L833" t="n">
+        <v>37</v>
+      </c>
+      <c r="M833" t="n">
+        <v>41</v>
+      </c>
+      <c r="N833" t="n">
+        <v>51</v>
+      </c>
+      <c r="O833" t="n">
+        <v>53</v>
+      </c>
+      <c r="P833" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q833" t="n">
+        <v>55</v>
+      </c>
+      <c r="R833" t="n">
+        <v>56</v>
+      </c>
+      <c r="S833" t="n">
+        <v>59</v>
+      </c>
+      <c r="T833" t="n">
+        <v>71</v>
+      </c>
+      <c r="U833" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>8</v>
+      </c>
+      <c r="C834" t="n">
+        <v>9</v>
+      </c>
+      <c r="D834" t="n">
+        <v>10</v>
+      </c>
+      <c r="E834" t="n">
+        <v>13</v>
+      </c>
+      <c r="F834" t="n">
+        <v>15</v>
+      </c>
+      <c r="G834" t="n">
+        <v>20</v>
+      </c>
+      <c r="H834" t="n">
+        <v>30</v>
+      </c>
+      <c r="I834" t="n">
+        <v>31</v>
+      </c>
+      <c r="J834" t="n">
+        <v>36</v>
+      </c>
+      <c r="K834" t="n">
+        <v>43</v>
+      </c>
+      <c r="L834" t="n">
+        <v>45</v>
+      </c>
+      <c r="M834" t="n">
+        <v>48</v>
+      </c>
+      <c r="N834" t="n">
+        <v>56</v>
+      </c>
+      <c r="O834" t="n">
+        <v>57</v>
+      </c>
+      <c r="P834" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q834" t="n">
+        <v>65</v>
+      </c>
+      <c r="R834" t="n">
+        <v>68</v>
+      </c>
+      <c r="S834" t="n">
+        <v>74</v>
+      </c>
+      <c r="T834" t="n">
+        <v>76</v>
+      </c>
+      <c r="U834" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>5</v>
+      </c>
+      <c r="C835" t="n">
+        <v>7</v>
+      </c>
+      <c r="D835" t="n">
+        <v>12</v>
+      </c>
+      <c r="E835" t="n">
+        <v>14</v>
+      </c>
+      <c r="F835" t="n">
+        <v>17</v>
+      </c>
+      <c r="G835" t="n">
+        <v>30</v>
+      </c>
+      <c r="H835" t="n">
+        <v>32</v>
+      </c>
+      <c r="I835" t="n">
+        <v>37</v>
+      </c>
+      <c r="J835" t="n">
+        <v>42</v>
+      </c>
+      <c r="K835" t="n">
+        <v>46</v>
+      </c>
+      <c r="L835" t="n">
+        <v>47</v>
+      </c>
+      <c r="M835" t="n">
+        <v>57</v>
+      </c>
+      <c r="N835" t="n">
+        <v>58</v>
+      </c>
+      <c r="O835" t="n">
+        <v>59</v>
+      </c>
+      <c r="P835" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q835" t="n">
+        <v>67</v>
+      </c>
+      <c r="R835" t="n">
+        <v>69</v>
+      </c>
+      <c r="S835" t="n">
+        <v>72</v>
+      </c>
+      <c r="T835" t="n">
+        <v>74</v>
+      </c>
+      <c r="U835" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>2</v>
+      </c>
+      <c r="C836" t="n">
+        <v>6</v>
+      </c>
+      <c r="D836" t="n">
+        <v>7</v>
+      </c>
+      <c r="E836" t="n">
+        <v>11</v>
+      </c>
+      <c r="F836" t="n">
+        <v>18</v>
+      </c>
+      <c r="G836" t="n">
+        <v>22</v>
+      </c>
+      <c r="H836" t="n">
+        <v>37</v>
+      </c>
+      <c r="I836" t="n">
+        <v>40</v>
+      </c>
+      <c r="J836" t="n">
+        <v>43</v>
+      </c>
+      <c r="K836" t="n">
+        <v>44</v>
+      </c>
+      <c r="L836" t="n">
+        <v>46</v>
+      </c>
+      <c r="M836" t="n">
+        <v>48</v>
+      </c>
+      <c r="N836" t="n">
+        <v>52</v>
+      </c>
+      <c r="O836" t="n">
+        <v>53</v>
+      </c>
+      <c r="P836" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q836" t="n">
+        <v>62</v>
+      </c>
+      <c r="R836" t="n">
+        <v>64</v>
+      </c>
+      <c r="S836" t="n">
+        <v>70</v>
+      </c>
+      <c r="T836" t="n">
+        <v>71</v>
+      </c>
+      <c r="U836" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>3</v>
+      </c>
+      <c r="C837" t="n">
+        <v>6</v>
+      </c>
+      <c r="D837" t="n">
+        <v>7</v>
+      </c>
+      <c r="E837" t="n">
+        <v>11</v>
+      </c>
+      <c r="F837" t="n">
+        <v>14</v>
+      </c>
+      <c r="G837" t="n">
+        <v>25</v>
+      </c>
+      <c r="H837" t="n">
+        <v>27</v>
+      </c>
+      <c r="I837" t="n">
+        <v>29</v>
+      </c>
+      <c r="J837" t="n">
+        <v>30</v>
+      </c>
+      <c r="K837" t="n">
+        <v>41</v>
+      </c>
+      <c r="L837" t="n">
+        <v>44</v>
+      </c>
+      <c r="M837" t="n">
+        <v>50</v>
+      </c>
+      <c r="N837" t="n">
+        <v>61</v>
+      </c>
+      <c r="O837" t="n">
+        <v>62</v>
+      </c>
+      <c r="P837" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q837" t="n">
+        <v>64</v>
+      </c>
+      <c r="R837" t="n">
+        <v>67</v>
+      </c>
+      <c r="S837" t="n">
+        <v>72</v>
+      </c>
+      <c r="T837" t="n">
+        <v>75</v>
+      </c>
+      <c r="U837" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>4</v>
+      </c>
+      <c r="C838" t="n">
+        <v>8</v>
+      </c>
+      <c r="D838" t="n">
+        <v>17</v>
+      </c>
+      <c r="E838" t="n">
+        <v>24</v>
+      </c>
+      <c r="F838" t="n">
+        <v>25</v>
+      </c>
+      <c r="G838" t="n">
+        <v>30</v>
+      </c>
+      <c r="H838" t="n">
+        <v>31</v>
+      </c>
+      <c r="I838" t="n">
+        <v>34</v>
+      </c>
+      <c r="J838" t="n">
+        <v>37</v>
+      </c>
+      <c r="K838" t="n">
+        <v>40</v>
+      </c>
+      <c r="L838" t="n">
+        <v>42</v>
+      </c>
+      <c r="M838" t="n">
+        <v>45</v>
+      </c>
+      <c r="N838" t="n">
+        <v>46</v>
+      </c>
+      <c r="O838" t="n">
+        <v>49</v>
+      </c>
+      <c r="P838" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q838" t="n">
+        <v>60</v>
+      </c>
+      <c r="R838" t="n">
+        <v>67</v>
+      </c>
+      <c r="S838" t="n">
+        <v>68</v>
+      </c>
+      <c r="T838" t="n">
+        <v>70</v>
+      </c>
+      <c r="U838" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>5</v>
+      </c>
+      <c r="C839" t="n">
+        <v>8</v>
+      </c>
+      <c r="D839" t="n">
+        <v>9</v>
+      </c>
+      <c r="E839" t="n">
+        <v>10</v>
+      </c>
+      <c r="F839" t="n">
+        <v>12</v>
+      </c>
+      <c r="G839" t="n">
+        <v>16</v>
+      </c>
+      <c r="H839" t="n">
+        <v>17</v>
+      </c>
+      <c r="I839" t="n">
+        <v>18</v>
+      </c>
+      <c r="J839" t="n">
+        <v>19</v>
+      </c>
+      <c r="K839" t="n">
+        <v>27</v>
+      </c>
+      <c r="L839" t="n">
+        <v>37</v>
+      </c>
+      <c r="M839" t="n">
+        <v>39</v>
+      </c>
+      <c r="N839" t="n">
+        <v>42</v>
+      </c>
+      <c r="O839" t="n">
+        <v>47</v>
+      </c>
+      <c r="P839" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>57</v>
+      </c>
+      <c r="R839" t="n">
+        <v>63</v>
+      </c>
+      <c r="S839" t="n">
+        <v>67</v>
+      </c>
+      <c r="T839" t="n">
+        <v>74</v>
+      </c>
+      <c r="U839" t="n">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:U1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65431,6 +65431,8976 @@
         <v>79</v>
       </c>
     </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1001" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1001" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1001" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1001" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1002" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1002" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1002" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1002" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1003" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1003" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1003" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1003" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>34</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>49</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>51</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>57</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>66</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>67</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>69</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>72</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>74</v>
+      </c>
+      <c r="R1004" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1004" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1004" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1004" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1005" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1005" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1005" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1005" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>23</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>28</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>32</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1006" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1006" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1006" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1006" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1007" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1007" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1007" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1007" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1008" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1008" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1008" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1008" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1009" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1009" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1009" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1009" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1010" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1010" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1010" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1010" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>43</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>49</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>53</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>58</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>62</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>64</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1011" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1011" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1011" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1011" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1012" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1012" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1012" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1012" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1013" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1013" t="n">
+        <v>58</v>
+      </c>
+      <c r="T1013" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1013" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>37</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1014" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1014" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1014" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1014" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>64</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1015" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1015" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1015" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1015" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>55</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1016" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1016" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1016" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1016" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>33</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>49</v>
+      </c>
+      <c r="R1017" t="n">
+        <v>53</v>
+      </c>
+      <c r="S1017" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1017" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1017" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1018" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1018" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1018" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1018" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1019" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1019" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1019" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1019" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>40</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>46</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>55</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>64</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1020" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1020" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1020" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1020" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1021" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1021" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1021" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1021" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1022" t="n">
+        <v>53</v>
+      </c>
+      <c r="S1022" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1022" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1022" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>46</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>57</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>61</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>66</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>73</v>
+      </c>
+      <c r="R1023" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1023" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1023" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1023" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1024" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1024" t="n">
+        <v>57</v>
+      </c>
+      <c r="T1024" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1024" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>33</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>43</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1025" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1025" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1025" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1025" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1026" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1026" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1026" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1026" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1027" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1027" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1027" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1027" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1028" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1028" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1028" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1028" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1029" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1029" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1029" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1029" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>39</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1030" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1030" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1030" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1030" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1031" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1031" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1031" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1031" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1032" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1032" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1032" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1032" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1033" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1033" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1033" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1033" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1034" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1034" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1034" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1034" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1035" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1035" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1035" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1035" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>23</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1036" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1036" t="n">
+        <v>58</v>
+      </c>
+      <c r="T1036" t="n">
+        <v>59</v>
+      </c>
+      <c r="U1036" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1037" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1037" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1037" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1037" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1038" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1038" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1038" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1038" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1039" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1039" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1039" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1039" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1040" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1040" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1040" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1040" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1041" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1041" t="n">
+        <v>59</v>
+      </c>
+      <c r="T1041" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1041" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1042" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1042" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1042" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1042" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1043" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1043" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1043" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1043" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>51</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1044" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1044" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1044" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1044" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>47</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>57</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>60</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>62</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>63</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>65</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>66</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1045" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1045" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1045" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1045" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1046" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1046" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1046" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1046" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1047" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1047" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1047" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1047" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1048" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1048" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1048" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1048" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1049" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1049" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1049" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1049" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1050" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1050" t="n">
+        <v>56</v>
+      </c>
+      <c r="T1050" t="n">
+        <v>65</v>
+      </c>
+      <c r="U1050" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>52</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>58</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>61</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>66</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>71</v>
+      </c>
+      <c r="R1051" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1051" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1051" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1051" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1052" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1052" t="n">
+        <v>59</v>
+      </c>
+      <c r="T1052" t="n">
+        <v>62</v>
+      </c>
+      <c r="U1052" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>61</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>64</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1053" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1053" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1053" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1053" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>46</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1054" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1054" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1054" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1054" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>25</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>31</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>41</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1055" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1055" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1055" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1055" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1056" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1056" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1056" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1056" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1057" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1057" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1057" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1057" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>58</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1058" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1058" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1058" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1058" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>36</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1059" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1059" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1059" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1059" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>27</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>29</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1060" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1060" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1060" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1060" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1061" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1061" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1061" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1061" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1062" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1062" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1062" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1062" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1063" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1063" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1063" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1063" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>34</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>38</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1064" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1064" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1064" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1064" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1065" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1065" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1065" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1065" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1066" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1066" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1066" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1066" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>24</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>39</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1067" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1067" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1067" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1067" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1068" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1068" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1068" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1068" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1069" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1069" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1069" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1069" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1070" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1070" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1070" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1070" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1071" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1071" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1071" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1071" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1072" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1072" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1072" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1072" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1073" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1073" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1073" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1073" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1074" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1074" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1074" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1074" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>43</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1075" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1075" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1075" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1075" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>31</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>49</v>
+      </c>
+      <c r="R1076" t="n">
+        <v>52</v>
+      </c>
+      <c r="S1076" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1076" t="n">
+        <v>64</v>
+      </c>
+      <c r="U1076" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>33</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>41</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>47</v>
+      </c>
+      <c r="R1077" t="n">
+        <v>52</v>
+      </c>
+      <c r="S1077" t="n">
+        <v>59</v>
+      </c>
+      <c r="T1077" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1077" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1078" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1078" t="n">
+        <v>62</v>
+      </c>
+      <c r="T1078" t="n">
+        <v>64</v>
+      </c>
+      <c r="U1078" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1079" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1079" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1079" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1079" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>51</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1080" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1080" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1080" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1080" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>21</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>23</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>33</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1081" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1081" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1081" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1081" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1082" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1082" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1082" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1082" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1083" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1083" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1083" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1083" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1084" t="n">
+        <v>54</v>
+      </c>
+      <c r="S1084" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1084" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1084" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>33</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>36</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>50</v>
+      </c>
+      <c r="R1085" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1085" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1085" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1085" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1086" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1086" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1086" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1086" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1087" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1087" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1087" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1087" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1088" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1088" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1088" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1088" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1089" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1089" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1089" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1089" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>31</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>32</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1090" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1090" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1090" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1090" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1091" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1091" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1091" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1091" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1092" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1092" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1092" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1092" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>47</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>54</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>57</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>59</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>62</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>64</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>71</v>
+      </c>
+      <c r="R1093" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1093" t="n">
+        <v>78</v>
+      </c>
+      <c r="T1093" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1093" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>46</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>64</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1094" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1094" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1094" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1094" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1095" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1095" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1095" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1095" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>33</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>34</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1096" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1096" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1096" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1096" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1097" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1097" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1097" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1097" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1098" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1098" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1098" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1098" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>46</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1099" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1099" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1099" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1099" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>64</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1100" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1100" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1100" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1100" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1101" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1101" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1101" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1101" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1102" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1102" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1102" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1102" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1103" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1103" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1103" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1103" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1104" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1104" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1104" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1104" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1105" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1105" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1105" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1105" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1106" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1106" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1106" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1106" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1107" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1107" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1107" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1107" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>36</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>42</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>46</v>
+      </c>
+      <c r="R1108" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1108" t="n">
+        <v>56</v>
+      </c>
+      <c r="T1108" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1108" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1109" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1109" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1109" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1109" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1110" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1110" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1110" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1110" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1111" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1111" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1111" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1111" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1112" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1112" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1112" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1112" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1113" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1113" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1113" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1113" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1114" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1114" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1114" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1114" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1115" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1115" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1115" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1115" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>27</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>36</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1116" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1116" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1116" t="n">
+        <v>63</v>
+      </c>
+      <c r="U1116" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>31</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>32</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1117" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1117" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1117" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1117" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1118" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1118" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1118" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1118" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1119" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1119" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1119" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1119" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1120" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1120" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1120" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1120" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1121" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1121" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1121" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1121" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1122" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1122" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1122" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1122" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>71</v>
+      </c>
+      <c r="R1123" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1123" t="n">
+        <v>78</v>
+      </c>
+      <c r="T1123" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1123" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1124" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1124" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1124" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1124" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1125" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1125" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1125" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1125" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1126" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1126" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1126" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1126" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1127" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1127" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1127" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1127" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>24</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1128" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1128" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1128" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1128" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1129" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1129" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1129" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1129" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1130" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1130" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1130" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1130" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>39</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>47</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1131" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1131" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1131" t="n">
+        <v>64</v>
+      </c>
+      <c r="U1131" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1132" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1132" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1132" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1132" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1133" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1133" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1133" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1133" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1134" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1134" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1134" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1134" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1135" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1135" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1135" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1135" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>36</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1136" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1136" t="n">
+        <v>59</v>
+      </c>
+      <c r="T1136" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1136" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1137" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1137" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1137" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1137" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1138" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1138" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1138" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1138" t="n">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1138"/>
+  <dimension ref="A1:U1279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74401,6 +74401,9171 @@
         <v>78</v>
       </c>
     </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1139" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1139" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1139" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1139" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1140" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1140" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1140" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1140" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1141" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1141" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1141" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1141" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>43</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1142" t="n">
+        <v>53</v>
+      </c>
+      <c r="S1142" t="n">
+        <v>59</v>
+      </c>
+      <c r="T1142" t="n">
+        <v>65</v>
+      </c>
+      <c r="U1142" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1143" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1143" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1143" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1143" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>64</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1144" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1144" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1144" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1144" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>51</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1145" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1145" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1145" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1145" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1146" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1146" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1146" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1146" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1147" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1147" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1147" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1147" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1148" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1148" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1148" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1148" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1149" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1149" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1149" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1149" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1150" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1150" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1150" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1150" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>71</v>
+      </c>
+      <c r="R1151" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1151" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1151" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1151" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>74</v>
+      </c>
+      <c r="R1152" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1152" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1152" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1152" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1153" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1153" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1153" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1153" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1154" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1154" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1154" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1154" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1155" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1155" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1155" t="n">
+        <v>64</v>
+      </c>
+      <c r="U1155" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>37</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>47</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>65</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>66</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>67</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>68</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>73</v>
+      </c>
+      <c r="R1156" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1156" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1156" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1156" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>27</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>29</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>32</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>41</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1157" t="n">
+        <v>53</v>
+      </c>
+      <c r="S1157" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1157" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1157" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1158" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1158" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1158" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1158" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>37</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>66</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1159" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1159" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1159" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1159" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1160" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1160" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1160" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1160" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1161" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1161" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1161" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1161" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1162" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1162" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1162" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1162" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>32</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1163" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1163" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1163" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1163" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>35</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1164" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1164" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1164" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1164" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1165" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1165" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1165" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1165" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1166" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1166" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1166" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1166" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1167" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1167" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1167" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1167" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1168" t="n">
+        <v>56</v>
+      </c>
+      <c r="S1168" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1168" t="n">
+        <v>65</v>
+      </c>
+      <c r="U1168" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1169" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1169" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1169" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1169" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>33</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1170" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1170" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1170" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1170" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1171" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1171" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1171" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1171" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1172" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1172" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1172" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1172" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1173" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1173" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1173" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1173" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1174" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1174" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1174" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1174" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1175" t="n">
+        <v>53</v>
+      </c>
+      <c r="S1175" t="n">
+        <v>56</v>
+      </c>
+      <c r="T1175" t="n">
+        <v>61</v>
+      </c>
+      <c r="U1175" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>25</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>27</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1176" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1176" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1176" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1176" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1177" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1177" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1177" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1177" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>37</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1178" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1178" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1178" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1178" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1179" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1179" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1179" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1179" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1180" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1180" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1180" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1180" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1181" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1181" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1181" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1181" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>64</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1182" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1182" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1182" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1182" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>45</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>46</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>51</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>58</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>63</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>64</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>65</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>67</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>69</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>73</v>
+      </c>
+      <c r="R1183" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1183" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1183" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1183" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>40</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>42</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>52</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1184" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1184" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1184" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1184" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1185" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1185" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1185" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1185" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1186" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1186" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1186" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1186" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>31</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1187" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1187" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1187" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1187" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1188" t="n">
+        <v>54</v>
+      </c>
+      <c r="S1188" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1188" t="n">
+        <v>61</v>
+      </c>
+      <c r="U1188" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1189" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1189" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1189" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1189" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1190" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1190" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1190" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1190" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1191" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1191" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1191" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1191" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1192" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1192" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1192" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1192" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1193" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1193" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1193" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1193" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>50</v>
+      </c>
+      <c r="R1194" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1194" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1194" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1194" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>48</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1195" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1195" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1195" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1195" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1196" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1196" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1196" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1196" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="1" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>55</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1197" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1197" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1197" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1197" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>64</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1198" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1198" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1198" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1198" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1199" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1199" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1199" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1199" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1200" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1200" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1200" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1200" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>39</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>55</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>65</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>66</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1201" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1201" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1201" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1201" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>51</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1202" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1202" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1202" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1202" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1203" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1203" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1203" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1203" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1204" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1204" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1204" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1204" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1205" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1205" t="n">
+        <v>62</v>
+      </c>
+      <c r="T1205" t="n">
+        <v>64</v>
+      </c>
+      <c r="U1205" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1206" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1206" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1206" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1206" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>34</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>47</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>57</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>66</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>75</v>
+      </c>
+      <c r="R1207" t="n">
+        <v>76</v>
+      </c>
+      <c r="S1207" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1207" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1207" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1208" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1208" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1208" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1208" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1209" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1209" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1209" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1209" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1210" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1210" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1210" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1210" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1211" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1211" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1211" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1211" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>62</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>64</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>66</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>71</v>
+      </c>
+      <c r="R1212" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1212" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1212" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1212" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1213" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1213" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1213" t="n">
+        <v>64</v>
+      </c>
+      <c r="U1213" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1214" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1214" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1214" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1214" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>57</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>58</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>64</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>65</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>66</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1215" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1215" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1215" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1215" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1216" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1216" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1216" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1216" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>45</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>46</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>61</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>62</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>68</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>73</v>
+      </c>
+      <c r="R1217" t="n">
+        <v>76</v>
+      </c>
+      <c r="S1217" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1217" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1217" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>36</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1218" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1218" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1218" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1218" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1219" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1219" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1219" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1219" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>63</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>66</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1220" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1220" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1220" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1220" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>26</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>28</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>29</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>36</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1221" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1221" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1221" t="n">
+        <v>61</v>
+      </c>
+      <c r="U1221" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>27</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1222" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1222" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1222" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1222" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>36</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1223" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1223" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1223" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1223" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>31</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>35</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>43</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>50</v>
+      </c>
+      <c r="R1224" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1224" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1224" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1224" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1225" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1225" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1225" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1225" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1226" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1226" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1226" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1226" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>39</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>43</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>45</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>60</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>64</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>65</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>66</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1227" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1227" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1227" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1227" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>36</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>37</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>45</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>48</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>52</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>68</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1228" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1228" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1228" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1228" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>25</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>26</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>27</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>32</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>46</v>
+      </c>
+      <c r="R1229" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1229" t="n">
+        <v>62</v>
+      </c>
+      <c r="T1229" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1229" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1230" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1230" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1230" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1230" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1231" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1231" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1231" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1231" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>42</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1232" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1232" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1232" t="n">
+        <v>65</v>
+      </c>
+      <c r="U1232" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1233" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1233" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1233" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1233" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1234" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1234" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1234" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1234" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1235" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1235" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1235" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1235" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1236" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1236" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1236" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1236" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1237" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1237" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1237" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1237" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>42</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>46</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>55</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1238" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1238" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1238" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1238" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1239" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1239" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1239" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1239" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1240" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1240" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1240" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1240" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1241" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1241" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1241" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1241" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1242" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1242" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1242" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1242" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1243" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1243" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1243" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1243" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1244" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1244" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1244" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1244" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1245" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1245" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1245" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1245" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>39</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1246" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1246" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1246" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1246" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>73</v>
+      </c>
+      <c r="R1247" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1247" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1247" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1247" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1248" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1248" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1248" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1248" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1249" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1249" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1249" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1249" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>33</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>34</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1250" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1250" t="n">
+        <v>59</v>
+      </c>
+      <c r="T1250" t="n">
+        <v>61</v>
+      </c>
+      <c r="U1250" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>58</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1251" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1251" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1251" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1251" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1252" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1252" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1252" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1252" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>1251</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1253" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1253" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1253" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1253" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1254" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1254" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1254" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1254" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1255" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1255" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1255" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1255" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>1254</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1256" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1256" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1256" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1256" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>51</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>55</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>61</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>63</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>64</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1257" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1257" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1257" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1257" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1258" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1258" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1258" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1258" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1259" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1259" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1259" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1259" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>1258</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1260" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1260" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1260" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1260" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>33</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>34</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1261" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1261" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1261" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1261" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1262" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1262" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1262" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1262" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1263" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1263" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1263" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1263" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1264" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1264" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1264" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1264" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1265" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1265" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1265" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1265" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1266" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1266" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1266" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1266" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>29</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>37</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1267" t="n">
+        <v>52</v>
+      </c>
+      <c r="S1267" t="n">
+        <v>53</v>
+      </c>
+      <c r="T1267" t="n">
+        <v>56</v>
+      </c>
+      <c r="U1267" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1268" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1268" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1268" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1268" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>1267</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>34</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1269" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1269" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1269" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1269" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>25</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>26</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1270" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1270" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1270" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1270" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1271" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1271" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1271" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1271" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1272" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1272" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1272" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1272" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1273" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1273" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1273" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1273" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1274" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1274" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1274" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1274" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>48</v>
+      </c>
+      <c r="R1275" t="n">
+        <v>56</v>
+      </c>
+      <c r="S1275" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1275" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1275" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1276" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1276" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1276" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1276" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1277" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1277" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1277" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1277" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>1276</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1278" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1278" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1278" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1278" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1279" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1279" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1279" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1279" t="n">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/input/omaha.xlsx
+++ b/data/input/omaha.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1279"/>
+  <dimension ref="A1:U1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83566,6 +83566,8391 @@
         <v>72</v>
       </c>
     </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1280" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1280" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1280" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1280" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>1279</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1281" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1281" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1281" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1281" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>57</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>66</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1282" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1282" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1282" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1282" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1283" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1283" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1283" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1283" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>1282</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1284" t="n">
+        <v>55</v>
+      </c>
+      <c r="S1284" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1284" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1284" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1285" t="n">
+        <v>54</v>
+      </c>
+      <c r="S1285" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1285" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1285" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1286" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1286" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1286" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1286" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1287" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1287" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1287" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1287" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1288" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1288" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1288" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1288" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1289" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1289" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1289" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1289" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>40</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1290" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1290" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1290" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1290" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1291" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1291" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1291" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1291" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1292" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1292" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1292" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1292" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1293" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1293" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1293" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1293" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>56</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>62</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1294" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1294" t="n">
+        <v>78</v>
+      </c>
+      <c r="T1294" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1294" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>24</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>30</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1295" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1295" t="n">
+        <v>62</v>
+      </c>
+      <c r="T1295" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1295" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1296" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1296" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1296" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1296" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1297" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1297" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1297" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1297" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>33</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1298" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1298" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1298" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1298" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1299" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1299" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1299" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1299" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1300" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1300" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1300" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1300" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>70</v>
+      </c>
+      <c r="R1301" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1301" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1301" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1301" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1302" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1302" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1302" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1302" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1303" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1303" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1303" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1303" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1304" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1304" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1304" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1304" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>50</v>
+      </c>
+      <c r="R1305" t="n">
+        <v>56</v>
+      </c>
+      <c r="S1305" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1305" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1305" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>60</v>
+      </c>
+      <c r="R1306" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1306" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1306" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1306" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1307" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1307" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1307" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1307" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1308" t="n">
+        <v>56</v>
+      </c>
+      <c r="S1308" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1308" t="n">
+        <v>63</v>
+      </c>
+      <c r="U1308" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1309" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1309" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1309" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1309" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1310" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1310" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1310" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1310" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>51</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1311" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1311" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1311" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1311" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>48</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>58</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1312" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1312" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1312" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1312" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1313" t="n">
+        <v>53</v>
+      </c>
+      <c r="S1313" t="n">
+        <v>55</v>
+      </c>
+      <c r="T1313" t="n">
+        <v>56</v>
+      </c>
+      <c r="U1313" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1314" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1314" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1314" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1314" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1315" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1315" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1315" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1315" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>73</v>
+      </c>
+      <c r="R1316" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1316" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1316" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1316" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1317" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1317" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1317" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1317" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>64</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1318" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1318" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1318" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1318" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1319" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1319" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1319" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1319" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1320" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1320" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1320" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1320" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>55</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>58</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1321" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1321" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1321" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1321" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1322" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1322" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1322" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1322" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>51</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1323" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1323" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1323" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1323" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1324" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1324" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1324" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1324" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>36</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1325" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1325" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1325" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1325" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>24</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1326" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1326" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1326" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1326" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1327" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1327" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1327" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1327" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1328" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1328" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1328" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1328" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>1327</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>47</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>54</v>
+      </c>
+      <c r="R1329" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1329" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1329" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1329" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1330" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1330" t="n">
+        <v>69</v>
+      </c>
+      <c r="T1330" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1330" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>47</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1331" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1331" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1331" t="n">
+        <v>63</v>
+      </c>
+      <c r="U1331" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>55</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1332" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1332" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1332" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1332" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1333" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1333" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1333" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1333" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1334" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1334" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1334" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1334" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>46</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>56</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>59</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1335" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1335" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1335" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1335" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>1334</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1336" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1336" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1336" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1336" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>1335</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1337" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1337" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1337" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1337" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1338" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1338" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1338" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1338" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>1337</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1339" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1339" t="n">
+        <v>78</v>
+      </c>
+      <c r="T1339" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1339" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>1338</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>22</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>23</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>29</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>36</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>44</v>
+      </c>
+      <c r="R1340" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1340" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1340" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1340" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1341" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1341" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1341" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1341" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1342" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1342" t="n">
+        <v>62</v>
+      </c>
+      <c r="T1342" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1342" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>1341</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>47</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1343" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1343" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1343" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1343" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1344" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1344" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1344" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1344" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>49</v>
+      </c>
+      <c r="R1345" t="n">
+        <v>52</v>
+      </c>
+      <c r="S1345" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1345" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1345" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>1344</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>40</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1346" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1346" t="n">
+        <v>63</v>
+      </c>
+      <c r="T1346" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1346" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="n">
+        <v>1345</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>53</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1347" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1347" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1347" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1347" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>65</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1348" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1348" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1348" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1348" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>39</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>58</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1349" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1349" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1349" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1349" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="n">
+        <v>1348</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>41</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>50</v>
+      </c>
+      <c r="R1350" t="n">
+        <v>52</v>
+      </c>
+      <c r="S1350" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1350" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1350" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="n">
+        <v>1349</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1351" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1351" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1351" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1351" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1352" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1352" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1352" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1352" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="n">
+        <v>1351</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>24</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>28</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1353" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1353" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1353" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1353" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="n">
+        <v>1352</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1354" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1354" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1354" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1354" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1355" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1355" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1355" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1355" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="n">
+        <v>1354</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>51</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1356" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1356" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1356" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1356" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1357" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1357" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1357" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1357" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1358" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1358" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1358" t="n">
+        <v>68</v>
+      </c>
+      <c r="U1358" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1359" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1359" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1359" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1359" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="1" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>59</v>
+      </c>
+      <c r="R1360" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1360" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1360" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1360" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1361" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1361" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1361" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1361" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1362" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1362" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1362" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1362" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="n">
+        <v>1361</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1363" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1363" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1363" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1363" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="n">
+        <v>1362</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>22</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>35</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>49</v>
+      </c>
+      <c r="R1364" t="n">
+        <v>53</v>
+      </c>
+      <c r="S1364" t="n">
+        <v>58</v>
+      </c>
+      <c r="T1364" t="n">
+        <v>60</v>
+      </c>
+      <c r="U1364" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="n">
+        <v>1363</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1365" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1365" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1365" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1365" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1366" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1366" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1366" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1366" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>35</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1367" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1367" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1367" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1367" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="n">
+        <v>1366</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>35</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>44</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>48</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1368" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1368" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1368" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1368" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="n">
+        <v>1367</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1369" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1369" t="n">
+        <v>58</v>
+      </c>
+      <c r="T1369" t="n">
+        <v>64</v>
+      </c>
+      <c r="U1369" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="n">
+        <v>1368</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>39</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1370" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1370" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1370" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1370" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>36</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>52</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>56</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>66</v>
+      </c>
+      <c r="R1371" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1371" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1371" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1371" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>37</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>52</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1372" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1372" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1372" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1372" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>43</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>47</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>52</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>57</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>58</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>68</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>73</v>
+      </c>
+      <c r="R1373" t="n">
+        <v>75</v>
+      </c>
+      <c r="S1373" t="n">
+        <v>76</v>
+      </c>
+      <c r="T1373" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1373" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="n">
+        <v>1372</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>48</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1374" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1374" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1374" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1374" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>23</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>28</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>36</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1375" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1375" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1375" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1375" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="n">
+        <v>1374</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1376" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1376" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1376" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1376" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>34</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>38</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1377" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1377" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1377" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1377" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>40</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>41</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>50</v>
+      </c>
+      <c r="R1378" t="n">
+        <v>62</v>
+      </c>
+      <c r="S1378" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1378" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1378" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>54</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>57</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1379" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1379" t="n">
+        <v>71</v>
+      </c>
+      <c r="T1379" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1379" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>46</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>56</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1380" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1380" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1380" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1380" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="n">
+        <v>1379</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>38</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>42</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>49</v>
+      </c>
+      <c r="R1381" t="n">
+        <v>59</v>
+      </c>
+      <c r="S1381" t="n">
+        <v>62</v>
+      </c>
+      <c r="T1381" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1381" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>32</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>46</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1382" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1382" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1382" t="n">
+        <v>71</v>
+      </c>
+      <c r="U1382" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>54</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>55</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1383" t="n">
+        <v>67</v>
+      </c>
+      <c r="S1383" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1383" t="n">
+        <v>70</v>
+      </c>
+      <c r="U1383" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>65</v>
+      </c>
+      <c r="R1384" t="n">
+        <v>69</v>
+      </c>
+      <c r="S1384" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1384" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1384" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>26</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>31</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>33</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>38</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1385" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1385" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1385" t="n">
+        <v>66</v>
+      </c>
+      <c r="U1385" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1386" t="n">
+        <v>65</v>
+      </c>
+      <c r="S1386" t="n">
+        <v>77</v>
+      </c>
+      <c r="T1386" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1386" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="n">
+        <v>1385</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>56</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>57</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1387" t="n">
+        <v>68</v>
+      </c>
+      <c r="S1387" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1387" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1387" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="n">
+        <v>1386</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>19</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>60</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1388" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1388" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1388" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1388" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="1" t="n">
+        <v>1387</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>52</v>
+      </c>
+      <c r="R1389" t="n">
+        <v>56</v>
+      </c>
+      <c r="S1389" t="n">
+        <v>61</v>
+      </c>
+      <c r="T1389" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1389" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="1" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>61</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>63</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>71</v>
+      </c>
+      <c r="R1390" t="n">
+        <v>72</v>
+      </c>
+      <c r="S1390" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1390" t="n">
+        <v>79</v>
+      </c>
+      <c r="U1390" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="1" t="n">
+        <v>1389</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>72</v>
+      </c>
+      <c r="R1391" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1391" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1391" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1391" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>53</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>59</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>63</v>
+      </c>
+      <c r="R1392" t="n">
+        <v>64</v>
+      </c>
+      <c r="S1392" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1392" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1392" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="1" t="n">
+        <v>1391</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>51</v>
+      </c>
+      <c r="R1393" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1393" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1393" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1393" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="1" t="n">
+        <v>1392</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>37</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>39</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1394" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1394" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1394" t="n">
+        <v>65</v>
+      </c>
+      <c r="U1394" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="1" t="n">
+        <v>1393</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>44</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>67</v>
+      </c>
+      <c r="R1395" t="n">
+        <v>70</v>
+      </c>
+      <c r="S1395" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1395" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1395" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="1" t="n">
+        <v>1394</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>18</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>33</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>52</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>61</v>
+      </c>
+      <c r="R1396" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1396" t="n">
+        <v>64</v>
+      </c>
+      <c r="T1396" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1396" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="1" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>32</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>37</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>45</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1397" t="n">
+        <v>61</v>
+      </c>
+      <c r="S1397" t="n">
+        <v>66</v>
+      </c>
+      <c r="T1397" t="n">
+        <v>75</v>
+      </c>
+      <c r="U1397" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="1" t="n">
+        <v>1396</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>22</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>23</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>28</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>40</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>46</v>
+      </c>
+      <c r="R1398" t="n">
+        <v>47</v>
+      </c>
+      <c r="S1398" t="n">
+        <v>55</v>
+      </c>
+      <c r="T1398" t="n">
+        <v>63</v>
+      </c>
+      <c r="U1398" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>31</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>37</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>46</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1399" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1399" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1399" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1399" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="1" t="n">
+        <v>1398</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>49</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>58</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>67</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>71</v>
+      </c>
+      <c r="R1400" t="n">
+        <v>74</v>
+      </c>
+      <c r="S1400" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1400" t="n">
+        <v>76</v>
+      </c>
+      <c r="U1400" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>47</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>49</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>57</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>61</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1401" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1401" t="n">
+        <v>74</v>
+      </c>
+      <c r="T1401" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1401" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>42</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>54</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>56</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>68</v>
+      </c>
+      <c r="R1402" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1402" t="n">
+        <v>75</v>
+      </c>
+      <c r="T1402" t="n">
+        <v>77</v>
+      </c>
+      <c r="U1402" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>43</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>51</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>55</v>
+      </c>
+      <c r="R1403" t="n">
+        <v>58</v>
+      </c>
+      <c r="S1403" t="n">
+        <v>60</v>
+      </c>
+      <c r="T1403" t="n">
+        <v>72</v>
+      </c>
+      <c r="U1403" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="1" t="n">
+        <v>1402</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>41</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>59</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>62</v>
+      </c>
+      <c r="R1404" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1404" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1404" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1404" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>45</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>54</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>55</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>58</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>61</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>64</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>66</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>69</v>
+      </c>
+      <c r="R1405" t="n">
+        <v>71</v>
+      </c>
+      <c r="S1405" t="n">
+        <v>73</v>
+      </c>
+      <c r="T1405" t="n">
+        <v>78</v>
+      </c>
+      <c r="U1405" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="1" t="n">
+        <v>1404</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>38</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>48</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>53</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>54</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>58</v>
+      </c>
+      <c r="R1406" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1406" t="n">
+        <v>67</v>
+      </c>
+      <c r="T1406" t="n">
+        <v>69</v>
+      </c>
+      <c r="U1406" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="1" t="n">
+        <v>1405</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>39</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>43</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>53</v>
+      </c>
+      <c r="R1407" t="n">
+        <v>57</v>
+      </c>
+      <c r="S1407" t="n">
+        <v>59</v>
+      </c>
+      <c r="T1407" t="n">
+        <v>73</v>
+      </c>
+      <c r="U1407" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="1" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>35</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>39</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>46</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>52</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>53</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>56</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>64</v>
+      </c>
+      <c r="R1408" t="n">
+        <v>66</v>
+      </c>
+      <c r="S1408" t="n">
+        <v>68</v>
+      </c>
+      <c r="T1408" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1408" t="n">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
